--- a/Tugas Scrapping/Liputan 6 Web Scraping/data_berita.xlsx
+++ b/Tugas Scrapping/Liputan 6 Web Scraping/data_berita.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="272">
   <si>
     <t>29 Okt 2018</t>
   </si>
@@ -22,811 +22,814 @@
     <t>28 Okt 2018</t>
   </si>
   <si>
+    <t>26 Okt 2018</t>
+  </si>
+  <si>
+    <t>23 Mei 2017</t>
+  </si>
+  <si>
+    <t>27 Okt 2018</t>
+  </si>
+  <si>
+    <t>25 Okt 2018</t>
+  </si>
+  <si>
     <t>24 Okt 2018</t>
   </si>
   <si>
-    <t>27 Okt 2018</t>
-  </si>
-  <si>
-    <t>23 Mei 2017</t>
-  </si>
-  <si>
-    <t>25 Okt 2018</t>
-  </si>
-  <si>
-    <t>26 Okt 2018</t>
-  </si>
-  <si>
-    <t>Sahroni DPR Pemuda Harus Jadi Garda Terdepan Tangkal Disintegrasi</t>
+    <t>Update Berita Terkini Pesawat Lion Air JT 610 Jatuh di Karawang</t>
+  </si>
+  <si>
+    <t>Pesawatnya Jatuh di Tanjung Karawang Situs Lion Air Berubah Hitam</t>
+  </si>
+  <si>
+    <t>Cara Telusuri Jejak Lion Air JT 610 di Aplikasi Flightradar24</t>
+  </si>
+  <si>
+    <t>Jokowi Perintahkan KNKT Segera Selidiki Lion Air JT 610 Jatuh di Karawang</t>
+  </si>
+  <si>
+    <t>Live Streaming Update Pencarian Korban Pesawat Lion Air JT 610 Jatuh</t>
+  </si>
+  <si>
+    <t>Basarnas Tetapkan 7 Hari untuk Evakuasi Korban Lion Air Jatuh</t>
+  </si>
+  <si>
+    <t>Berburu Sedan di Bawah Setengah Miliar Rupiah Pilih Honda Civic atau Toyota Corolla</t>
+  </si>
+  <si>
+    <t>Warga Murka Ada Pesta Pernikahan di Masjid Pakai Dangdutan</t>
+  </si>
+  <si>
+    <t>AirNav Lion Air JT 610 Sempat Diizinkan Kembali ke Bandara Sebelum Jatuh</t>
+  </si>
+  <si>
+    <t>Lion Air JT 610 Jatuh Pikirkan Ini Sebelum Sebar Foto dan Video Korban di Medsos</t>
+  </si>
+  <si>
+    <t>Ketua MPR Anwar Ibrahim Adalah Politisi yang Istiqamah</t>
+  </si>
+  <si>
+    <t>Evakuasi Lion Air JT 610 6 Kantong Jenazah Dibawa ke RS Polri</t>
+  </si>
+  <si>
+    <t>Ducati Indonesia Rilis Tiga Model Baru KerenKeren Bro</t>
+  </si>
+  <si>
+    <t>Basarnas Dapat Laporan Pesawat Lion Air Hilang Kontak Jatuh di Tanjung Karawang</t>
+  </si>
+  <si>
+    <t>2 Warga Asing Jadi Korban Lion Air JT 610 Jatuh di Karawang</t>
+  </si>
+  <si>
+    <t>Spesifikasi Boeing 737 Max 8 Pesawat Lion Air yang Jatuh</t>
+  </si>
+  <si>
+    <t>Keponakan Tak Nyaman dengan Dewi Perssik</t>
+  </si>
+  <si>
+    <t>Lion Air Cek Info Pesawat Hilang Kontak Mendarat Darurat di Halim dan Karawang</t>
+  </si>
+  <si>
+    <t>Saran Psikolog agar Lebih Tenang bila Hendak Naik Pesawat</t>
+  </si>
+  <si>
+    <t>Gubernur DKI Anies Baswedan Copot Dirut Transjakarta Budi Kaliwono</t>
+  </si>
+  <si>
+    <t>Lion Air JT 610 Jatuh Dekat Lapangan Minyak Lepas Pantai Milik Pertamina di Bekasi</t>
+  </si>
+  <si>
+    <t>Pesawat Lion Air JT 610 Jatuh Ini Respons Produsen Boeing 737 MAX 8</t>
+  </si>
+  <si>
+    <t>Tahap Awal Lion Air Berangkatkan 20 Keluarga Korban dari Pangkalpinang</t>
+  </si>
+  <si>
+    <t>Resmi Jadi Istri Irwan Mussry Maia Estianty Mengaku Bahagia</t>
+  </si>
+  <si>
+    <t>Kala Jokowi dan Prabowo Keceplosan</t>
+  </si>
+  <si>
+    <t>Terkuak Ternyata Ini Motif Pembunuhan Satu Keluarga di Palembang</t>
+  </si>
+  <si>
+    <t>Mantan Juara Dunia MotoGP Nicky Hadyen Wafat Setelah Koma 5 Hari</t>
+  </si>
+  <si>
+    <t>Penjelasan LAPAN Terkait Kondisi Cuaca saat Pesawat Lion Air Jatuh</t>
+  </si>
+  <si>
+    <t>Suami Terbang 10 Menit Sebelum Lion Air JT610 yang Naas Tasya Kamila Merinding</t>
+  </si>
+  <si>
+    <t>Pesawat Lion Air JT 610 Jatuh Boeing Nyatakan Berduka dan Siap Bantu Penyelidikan</t>
+  </si>
+  <si>
+    <t>Menhub Ungkap Alasan Jokowi Gratiskan Tarif Tol Jembatan Suramadu</t>
+  </si>
+  <si>
+    <t>Valverde Sebut Situasi Lopetegui di Real Madrid Bisa Menimpa Dirinya</t>
+  </si>
+  <si>
+    <t>Basarnas Terjunkan Penyelam dan Robot Bawah Air Cari Korban Lion Air</t>
+  </si>
+  <si>
+    <t>Pelek Mobil Wajib Rutin Dicuci Ini Alasannya</t>
+  </si>
+  <si>
+    <t>7 Obrolan Kocak Saat PDKT Malah Sukses Bikin Ngakak</t>
+  </si>
+  <si>
+    <t>5 Langkah Menyiapkan Mobil Anda untuk Menghadapi Musim Hujan</t>
+  </si>
+  <si>
+    <t>Pilek dan Batuk Hindari 5 Makanan dan Minuman Ini</t>
+  </si>
+  <si>
+    <t>10 Pegawai BPK Jadi Korban Pesawat Lion Air JT 610 Jatuh di Karawang</t>
+  </si>
+  <si>
+    <t>Jokowi Berdoa dan Berharap Korban Lion Air JT 610 Jatuh Segera Ditemukan</t>
+  </si>
+  <si>
+    <t>Duka untuk Lion Air Logo Liputan6com Berubah Hitam</t>
+  </si>
+  <si>
+    <t>Kocak Nih 2 Pengendara Berlaga Seperti Turis Thailand saat Ditilang Polisi</t>
+  </si>
+  <si>
+    <t>Polda Metro Persilakan Keluarga Korban Lion Air JT 610 ke RS Polri</t>
+  </si>
+  <si>
+    <t>Cara Membuat Saus Telur Asin yang Nggak Amis dan Creamy Nikmat Disantap dengan Makanan apa pun</t>
+  </si>
+  <si>
+    <t>Nelayan Ikut Bantu Cari Informasi soal Pesawat Lion Air Jatuh</t>
+  </si>
+  <si>
+    <t>Menilik Perjalanan Sejarah dalam Louis Vuitton Time Capsule Exhibition</t>
+  </si>
+  <si>
+    <t>Bos Pertamina Ungkap Perkembangan Proyek Kilang Terbesar RI</t>
+  </si>
+  <si>
+    <t>LikaLiku Tes CPNS di Jember dari Terganjal Akses Internet hingga Isu Joki</t>
+  </si>
+  <si>
+    <t>3 Trik Ajarkan Toilet Training pada Anak</t>
+  </si>
+  <si>
+    <t>Live Streaming Sriwijaya FC Vs Perseru di Vidiocom</t>
+  </si>
+  <si>
+    <t>Jatuh Sesaat Setelah Lepas Landas Insiden Mirip Lion Air JT 610 Juga Dialami 3 Maskapai Dunia Ini</t>
+  </si>
+  <si>
+    <t>Basarnas Temukan Puing Pesawat Diduga Lion Air Jatuh di Laut</t>
+  </si>
+  <si>
+    <t>Intip Megahnya Tempat Pernikahan Maia Estianty dan Irwan Mussry</t>
+  </si>
+  <si>
+    <t>Jokowi Perintahkan Basarnas Cari Korban Lion Air JT 610 Jatuh di Karawang</t>
+  </si>
+  <si>
+    <t>Warga Rusak Rumah Orang yang Diduga Pembunuh Bocah dalam Karung</t>
+  </si>
+  <si>
+    <t>Pesawat Lion Air Rute JakartaPangkal Pinang Hilang Kontak</t>
+  </si>
+  <si>
+    <t>6 Kantung Jenazah Tiba di Posko Jatuhnya Lion Air JT 610</t>
+  </si>
+  <si>
+    <t>Pesawat Lion Air JT 610 Jatuh Duka Cita Mengalir di Linimasa</t>
+  </si>
+  <si>
+    <t>Ceceran Puing dan Barang Bawaan Korban Lion Air JT 610 di Tanjung Karawang</t>
+  </si>
+  <si>
+    <t>8 Besar Piala AFC U19 2018</t>
+  </si>
+  <si>
+    <t>Lion Air Akui Ada Kendala Teknis Pesawat yang Jatuh di Teluk Karawang</t>
   </si>
   <si>
     <t>TekaTeki Cekal Wakil Ketua DPR dari KPK</t>
   </si>
   <si>
-    <t>HariSumpahPemuda Membara di Twitter</t>
+    <t>Kementan Pangkas Waktu Perizinan Ekspor Produk Pertanian Jadi 3 Jam</t>
+  </si>
+  <si>
+    <t>Gahar Ini 3 Smartphone dengan RAM 10GB</t>
+  </si>
+  <si>
+    <t>Jembatan Asa SCTV di Sukabumi Diresmikan</t>
+  </si>
+  <si>
+    <t>Pundi Amal Peduli Kasih Gelar Pengobatan Gratis di Bekasi</t>
+  </si>
+  <si>
+    <t>JK Berbelasungkawa untuk Keluarga Korban Lion Air JT 610 Jatuh di Karawang</t>
+  </si>
+  <si>
+    <t>NamaNama Korban Pesawat Lion Air Jatuh di Tanjung Karawang</t>
+  </si>
+  <si>
+    <t>Timses Jokowi Tidak Takut Prabowo Pakai Strategi Lama di Pilpres 2019</t>
+  </si>
+  <si>
+    <t>Intip Hasil Kolaborasi Make Over dengan 3 Desainer Indonesia di Panggung JFW 2019</t>
+  </si>
+  <si>
+    <t>Tampil di JFW 2019 Rancangan Desainer Jepang Terinsiprasi dari Muslimah Indonesia</t>
+  </si>
+  <si>
+    <t>Pemkab Kerawang Siagakan 20 Ambulans untuk Evakuasi Korban Lion Air Jatuh</t>
+  </si>
+  <si>
+    <t>Ketinggalan Pesawat 2 Anggota DPRD Babel Selamat dari Kecelakaan Lion Air</t>
+  </si>
+  <si>
+    <t>Megawati Prihatin Jatuhnya Pesawat Lion Air JT 610</t>
+  </si>
+  <si>
+    <t>Keluarga Korban Pesawat JT 610 Jatuh Berdatangan ke Kantor Pusat Lion Air</t>
+  </si>
+  <si>
+    <t>Lion Air Buka Posko Korban Pesawat Jatuh di Bandara Halim Perdanakusuma</t>
+  </si>
+  <si>
+    <t>LionAir dan JT610 Puncaki Trending Topic di Twitter</t>
+  </si>
+  <si>
+    <t>Lion Air Berduka Tampilan Situs Jadi Hitam Putih</t>
+  </si>
+  <si>
+    <t>Lafaz Allah Jadi Foto Terakhir Pramugari Korban Lion Air JT 610 Jatuh</t>
+  </si>
+  <si>
+    <t>Badan Pesawat Lion Air Jatuh di Karawang Belum Ditemukan</t>
+  </si>
+  <si>
+    <t>Live Streaming Madura United Vs PSM di Indosiar</t>
+  </si>
+  <si>
+    <t>Penyebab Helikopter Pemilik Leicester City Terjatuh Masih Misterius</t>
+  </si>
+  <si>
+    <t>Madu Politis dari Jembatan Suramadu Gratis</t>
+  </si>
+  <si>
+    <t>Polri Imbau Keluarga Korban Lion Air JT 610 Bawa Data untuk Identifikasi</t>
+  </si>
+  <si>
+    <t>HEADLINE Simbol Tauhid Atau HTI Pembakaran Bendera Jangan Picu Perpecahan</t>
+  </si>
+  <si>
+    <t>Mengenal Pangkalpinang Kota Tujuan Lion Air yang Jatuh di Tanjung Karawang</t>
+  </si>
+  <si>
+    <t>12 Tokoh Terima Anugerah Bhinneka Tunggal Ika Awards 2017</t>
+  </si>
+  <si>
+    <t>Bhavye Suneja Sosok Pilot Pesawat Lion Air yang Jatuh di Karawang</t>
+  </si>
+  <si>
+    <t>Dengar Berita Lion Air Jatuh Wajarkah jadi Takut Naik Pesawat</t>
+  </si>
+  <si>
+    <t>Waspada Jangan Terpancing Hoaks Pesawat Lion Air yang Jatuh</t>
+  </si>
+  <si>
+    <t>Baru Dioperasikan Ini Spesifikasi Pesawat Lion Air B737 Max 8 yang Jatuh</t>
+  </si>
+  <si>
+    <t>Steffy Burase Kembali Dipanggil KPK Terkait Suap Dana Otsus Aceh</t>
+  </si>
+  <si>
+    <t>Menelusuri Jejak Lion Air JT 610 di Flightradar24</t>
+  </si>
+  <si>
+    <t>Timses JokowiMaruf Target Raih Suara 70 Persen di Pilpres 2019</t>
+  </si>
+  <si>
+    <t>Tak Kunjung Rilis Motor Listrik Gesits Malah Dilirik Negara Lain</t>
+  </si>
+  <si>
+    <t>PN Jaksel Tolak Gugatan Praperadilan Irwandi Yusuf terhadap KPK</t>
+  </si>
+  <si>
+    <t>Tak Hanya Lion Air 5 Maskapai Penerbangan Ini Juga Gunakan Boeing 737 MAX 8</t>
+  </si>
+  <si>
+    <t>KPK Kembali Periksa Steffy Burase Hari Ini</t>
+  </si>
+  <si>
+    <t>Menhub dan Menkeu Datangi Posko Keluarga Korban Lion Air JT 610 di Soetta</t>
+  </si>
+  <si>
+    <t>Sandiaga Ekonomi Kita Paling Jelek 7 Besar Dunia pada 2030</t>
+  </si>
+  <si>
+    <t>Beredar Video Serpihan Pesawat Lion Air JT 610 di Perairan Karawang</t>
+  </si>
+  <si>
+    <t>Basarnas Black Box Lion Air JT 610 Jatuh Belum Ditemukan</t>
+  </si>
+  <si>
+    <t>Sekarung Recehan untuk Suap Bupati Cirebon</t>
+  </si>
+  <si>
+    <t>Lion Air Jatuh Warganet Musibah Bukan Bahan Gosip Jangan Sebar Apa Pun</t>
+  </si>
+  <si>
+    <t>29102004 Osama Bin Laden Klaim Jadi Otak Teror 11 September 2001</t>
+  </si>
+  <si>
+    <t>Pilot Lion Air JT 610 Sempat Minta Kembali ke Bandara Sebelum Hilang Kontak dan Jatuh</t>
   </si>
   <si>
     <t>Timses Jokowi Yakin Menangi Pilpres di Sumbar Ini Alasannya</t>
   </si>
   <si>
-    <t>Ridwan Kamil Ingin Warga di Pedesaan Melek Teknologi</t>
-  </si>
-  <si>
-    <t>Fenomenal Bocah 16 Tahun Kalahkan Juara Bertahan Turnamen Tetris Dunia</t>
-  </si>
-  <si>
-    <t>PGI Protes Sekolah Minggu Masuk dalam RUU Pendidikan Keagamaan</t>
-  </si>
-  <si>
-    <t>Menpora Imam Tantang Peserta KPN Beri Gagasan Agar Indonesia Tetap Kokoh</t>
-  </si>
-  <si>
-    <t>KPK Sita Mobil dari Kediaman Anak Bupati Cirebon</t>
-  </si>
-  <si>
-    <t>Kerugian dan Kerusakan Bencana Alam di Sulteng Capai Rp 1848 Triliun</t>
-  </si>
-  <si>
-    <t>Bersama Aiptu Sutris Momen Pernikahan di Jombang Jadi Lebih Manis</t>
-  </si>
-  <si>
-    <t>Alami Gangguan Tes Seleksi CPNS Cirebon Hari Pertama Diundur</t>
-  </si>
-  <si>
-    <t>Potret Bahagianya Bocah Saat Main Bikin Ngakak Sambil Nostalgia</t>
-  </si>
-  <si>
-    <t>Steffy Burase Kembali Dipanggil KPK Terkait Suap Dana Otsus Aceh</t>
-  </si>
-  <si>
-    <t>Polri Tak Ada Merah Putih Saat Bendera Hitam Dikibarkan di DPRD Poso</t>
-  </si>
-  <si>
-    <t>Jumlah Sperma pada Pria Obesitas Pasti Berkurang</t>
-  </si>
-  <si>
-    <t>Sebuah Ledakan Terjadi di Kota Soe NTT Bom</t>
-  </si>
-  <si>
-    <t>Warga Rusak Rumah Orang yang Diduga Pembunuh Bocah dalam Karung</t>
-  </si>
-  <si>
-    <t>HEADLINE Simbol Tauhid Atau HTI Pembakaran Bendera Jangan Picu Perpecahan</t>
-  </si>
-  <si>
-    <t>Pesan Maruf Amin ke Timses Kita Tidak Boleh Memfitnah</t>
-  </si>
-  <si>
-    <t>Wakil Ketua DPR Taufik Kurniawan Dicegah KPK Terkait Kasus di Kebumen</t>
+    <t>GaraGara Antar Paket yang Sobek Pasutri Tega Memaki Kurir Barang</t>
+  </si>
+  <si>
+    <t>Polemik Bendera Tauhid dan HTI</t>
+  </si>
+  <si>
+    <t>Pesan Sandiaga untuk Anak Muda Ingin Jadi Pengusaha Sukses</t>
+  </si>
+  <si>
+    <t>Evakuasi Korban dan Puing Lion Air Jatuh Difokuskan di Tanjung Priok</t>
+  </si>
+  <si>
+    <t>Sudah Punya Anak Bella Shofie Merasa Masih ABG</t>
+  </si>
+  <si>
+    <t>Sri Mulyani Datangi Basarnas Cek Pegawai Kemenkeu Korban Lion Air Jatuh</t>
+  </si>
+  <si>
+    <t>Posko DVI Lion Air Jatuh Dibuka di Terminal 1B Bandara Soetta</t>
+  </si>
+  <si>
+    <t>Nikita Mirzani Alami Pendarahan</t>
+  </si>
+  <si>
+    <t>Ini Profil Bhavye Suneja Pilot Pesawat Lion Air JT 610 yang Jatuh di Tanjung Karawang</t>
+  </si>
+  <si>
+    <t>Lion Air Jatuh TNIPolri Sisir Utara Karawang</t>
+  </si>
+  <si>
+    <t>Istri Penumpang Lion Air JT 610 Jatuh Masih Berharap Suaminya Selamat</t>
+  </si>
+  <si>
+    <t>Mahkamah Agung Cek 3 Hakim yang Diduga Jadi Korban Lion Air Jatuh</t>
   </si>
   <si>
     <t>Publik Terbelah Ridwan Kamil Usul Cebong Gabung Kampret Jadi Cepret</t>
   </si>
   <si>
-    <t>KPK Cegah Wakil Ketua DPR Taufik Kurniawan ke Luar Negeri</t>
-  </si>
-  <si>
-    <t>Jatuh Sakit Roy Kiyoshi Dapat Doa dari Roby Purba</t>
-  </si>
-  <si>
-    <t>BNPB Situasi di Palu dan Sekitarnya Sudah Membaik</t>
-  </si>
-  <si>
-    <t>Sekarung Recehan untuk Suap Bupati Cirebon</t>
-  </si>
-  <si>
-    <t>Akhirnya Bella Shofie Ungkap Sosok Suaminya</t>
-  </si>
-  <si>
-    <t>Pengendara Sepeda Tewas Tertabrak Bus Transjakarta di Samping Monas</t>
-  </si>
-  <si>
-    <t>4 Warisan Mengerikan dari Bencana Nuklir Fukushima</t>
-  </si>
-  <si>
-    <t>Gahar Ini 3 Smartphone dengan RAM 10GB</t>
-  </si>
-  <si>
-    <t>Menggemaskan Kucing Ini  Berjalan Bak Model di Catwalk</t>
-  </si>
-  <si>
-    <t>Jembatan Asa SCTV di Sukabumi Diresmikan</t>
-  </si>
-  <si>
-    <t>Fotografer Ini Abadikan Momen Tak Biasa di Ujung Tebing Saat Potret Pemandangan</t>
-  </si>
-  <si>
-    <t>Kevin  Marcus Ungkap Alasan Gagal Juarai Prancis Terbuka 2018</t>
-  </si>
-  <si>
-    <t>Kala AnakAnak Kampung Pengupas Kerang Gelar Pameran Fotografi</t>
-  </si>
-  <si>
-    <t>SBY Minta Jokowi Jelaskan Menggratiskan Jembatan Suramadu</t>
-  </si>
-  <si>
-    <t>Timses Jokowi Tidak Takut Prabowo Pakai Strategi Lama di Pilpres 2019</t>
-  </si>
-  <si>
-    <t>MacamMacam Gangguan Orgasme pada Pria dan Wanita yang Wajib Anda Tahu</t>
-  </si>
-  <si>
-    <t>Biar Tetap Nyaman Begini Cara Berkendara Saat macet Pakai Skutik</t>
-  </si>
-  <si>
-    <t>Acap Jadi Saksi Nikah Warga Ridwan Kamil Jadwal Padat hingga 5 Tahun ke Depan</t>
-  </si>
-  <si>
-    <t>Kasus Pengurusan Perkara PN Jakpus KPK Periksa Eks Pejabat MA</t>
-  </si>
-  <si>
-    <t>Jokowi Buka Festival Keraton Kemajuan Bangsa Harus Berakar Kearifan Lokal</t>
-  </si>
-  <si>
-    <t>Maruf Cahyono Pemuda Diajak Berkarya dan Berkontribusi di Momen Tepat Hari Sumpah Pemuda</t>
-  </si>
-  <si>
-    <t>4 Pesona Wisata Irlandia Negara Kelahiran Sinead OConnor</t>
-  </si>
-  <si>
-    <t>Pundi Amal Peduli Kasih Gelar Pengobatan Gratis di Bekasi</t>
-  </si>
-  <si>
-    <t>Jokowi Minta Timnas Indonesia U19 Berikan yang Terbaik Saat Lawan Jepang</t>
-  </si>
-  <si>
-    <t>Presiden PKS Segera Bertemu Prabowo Bahas Wakil Gubernur DKI</t>
+    <t>Polisi Bongkar Sindikat Joki Tes CPNS Berskala Nasional</t>
+  </si>
+  <si>
+    <t>Formasi Baru Gattuso Jadi Kunci Kemenangan AC Milan</t>
+  </si>
+  <si>
+    <t>Lion Air Jatuh JK Imbau Maskapai dan Regulator Perketat Prosedur Penerbangan</t>
+  </si>
+  <si>
+    <t>2828 Kotak Suara Sudah Diterima KPU Bangka Selatan</t>
+  </si>
+  <si>
+    <t>Agun Gunandjar Semangat Sumpah Pemuda Untuk Sukseskan Pemilu 2019</t>
+  </si>
+  <si>
+    <t>Tekuk Timnas Indonesia U19 Pelatih Jepang Curiga Ada yang Mendoakan Hujan Deras</t>
+  </si>
+  <si>
+    <t>Prabowo Subianto Curhat Dituduh ProKhilafah dan ISIS di Markas Soneta</t>
+  </si>
+  <si>
+    <t>4 Agenda Liburan Seru bagi Pasangan untuk Mempererat Cinta</t>
+  </si>
+  <si>
+    <t>Perempuan Ini Ditangkap karena Unggah Berita Hoax di Medsos</t>
+  </si>
+  <si>
+    <t>2 Karyawan Pelindo II Jadi Penumpang Lion Air JT 610 yang Jatuh</t>
   </si>
   <si>
     <t>Jubir PrabowoSandiaga Negeri Ini Harus Dipimpin Politikus Kemarin Sore</t>
   </si>
   <si>
-    <t>Facebook Hapus 82  Akun Palsu Penyebar Fake News</t>
-  </si>
-  <si>
-    <t>Jokowi Kecam Serangan Israel ke Gaza Akibatkan RS Indonesia Rusak</t>
-  </si>
-  <si>
-    <t>Manchester United Menang Tipis atas Everton</t>
-  </si>
-  <si>
-    <t>Mantan Juara Dunia MotoGP Nicky Hadyen Wafat Setelah Koma 5 Hari</t>
-  </si>
-  <si>
-    <t>8 Besar Piala AFC U19 2018</t>
-  </si>
-  <si>
-    <t>MERC Minta Masyarakat Doakan Keselamatan RS Indonesia di Gaza</t>
-  </si>
-  <si>
-    <t>Ducati Indonesia Rilis Tiga Model Baru KerenKeren Bro</t>
-  </si>
-  <si>
-    <t>Polemik Bendera Tauhid dan HTI</t>
-  </si>
-  <si>
-    <t>Duo Miliarder Muda Ini Lebih Suka Naik Bus ke Kantor</t>
-  </si>
-  <si>
-    <t>Kala Jokowi dan Prabowo Keceplosan</t>
-  </si>
-  <si>
-    <t>29102004 Osama Bin Laden Klaim Jadi Otak Teror 11 September 2001</t>
-  </si>
-  <si>
-    <t>1335 Anggota TNI Tinggalkan Palu dan Donggala</t>
-  </si>
-  <si>
-    <t>La Nyalla Minta Maaf ke Jokowi Pernah Sebarkan Informasi Negatif</t>
-  </si>
-  <si>
-    <t>Jokowi Akan Kaji RUU Pesantren Supaya Tak Jadi Polemik</t>
-  </si>
-  <si>
-    <t>Harapan Bos Pertamina kepada Generasi Milenials di Hari Sumpah Pemuda</t>
-  </si>
-  <si>
-    <t>DIY Sulap Gelas Lama Anda Jadi Lebih Berwarna</t>
-  </si>
-  <si>
-    <t>Presiden PKS Minta Kader yang Mundur Tak Bikin Gaduh</t>
-  </si>
-  <si>
-    <t>Perempuan Ini Ditangkap karena Unggah Berita Hoax di Medsos</t>
-  </si>
-  <si>
-    <t>12 Tokoh Terima Anugerah Bhinneka Tunggal Ika Awards 2017</t>
-  </si>
-  <si>
-    <t>Menpora Budayakan Keberagaman hingga Akhir Hayat</t>
-  </si>
-  <si>
-    <t>Sempat Tertinggal AC Milan Tekuk Sampdoria di San Siro</t>
-  </si>
-  <si>
-    <t>Huawei Kembali Sindir Apple dan Samsung</t>
-  </si>
-  <si>
-    <t>Keren Seniman Ini Pahat Kaleng Minuman Hanya dengan Ibu Jari</t>
-  </si>
-  <si>
-    <t>BMKG Cuaca Jakarta Pagi Ini Cerah Siang Hujan</t>
-  </si>
-  <si>
-    <t>Tidak Cuma Tinder Ini 6 Aplikasi Kencan Online yang Bisa Anda Coba</t>
-  </si>
-  <si>
-    <t>Bos Leicester City Tewas dalam Kecelakaan Helikopter Ucapan Duka Mengalir</t>
-  </si>
-  <si>
-    <t>Marak Hoaks Penculikan Anak di Media Sosial Ini Imbauan Polri</t>
-  </si>
-  <si>
-    <t>Kartika Putri Belum Boleh Hamil Kenapa</t>
-  </si>
-  <si>
-    <t>Melongok Indahnya Keberagaman dalam Kapal Pemuda Nusantara</t>
-  </si>
-  <si>
-    <t>Romantis Ge Pamungkas Ungkap Alasan Mencintai Anastasia Herzigova</t>
-  </si>
-  <si>
-    <t>Mahyudin MPR Melakukan Sosialisasi Kepada Masyarakat Dengan Beragam Metode</t>
-  </si>
-  <si>
-    <t>Rumah Sakit Ini Permalukan Perokok Nakal dengan Pengeras Suara</t>
-  </si>
-  <si>
-    <t>Berminat Ganti Pelek Mobil Perhatikan 3 Hal Ini</t>
-  </si>
-  <si>
-    <t>Joko Anwar Menulis Skenario Gundala di Kuburan</t>
-  </si>
-  <si>
-    <t>MenpanRB Sebut Pendaftaran CPNS Didominasi Milenial</t>
-  </si>
-  <si>
-    <t>Masih Dibayangi Sentimen Global IHSG Diprediksi Tersungkur</t>
-  </si>
-  <si>
-    <t>Ketua MPR Ajak Anggota IMBI Jadi Pelopor Persatuan</t>
-  </si>
-  <si>
-    <t>KPK Jadwalkan Pemeriksaan Eks Sekretaris MA Nurhadi Besok</t>
-  </si>
-  <si>
-    <t>Hari Sumpah Pemuda Puan Maharani Ingatkan Kaum Millenial Tak Sebar Hoaks</t>
-  </si>
-  <si>
-    <t>DPR Pasal di RUU Pesantren dan Pendidikan Keagamaan Masih Bisa Diubah</t>
-  </si>
-  <si>
-    <t>Kisah Pemuda Suku Kamoro Tinggal di Goronggorong Hingga Bergelar Doktor</t>
-  </si>
-  <si>
-    <t>Tsamara PSI Berpolitik Jangan Baper</t>
-  </si>
-  <si>
-    <t>Jadi Mualaf Sinead OConnor Ganti Nama</t>
-  </si>
-  <si>
-    <t>Banyak Pejabat Terjerat Korupsi KPK Akan Lipatgandakan Penindakan</t>
-  </si>
-  <si>
-    <t>Cerita Akhir Pekan Taaruf Lewat Dunia Maya</t>
-  </si>
-  <si>
-    <t>Bad Mood Bisa Disebabkan oleh 8 Masalah Kesehatan Ini Apa Saja</t>
-  </si>
-  <si>
-    <t>5 Fakta Hari Sumpah Pemuda yang Wajib Kaum Milenial Ketahui</t>
-  </si>
-  <si>
-    <t>Gempa Magnitudo 52 Guncang Kepulauan Talaud</t>
-  </si>
-  <si>
-    <t>Malaysia Resah Para Gadis Remaja Berani Pamer Foto Seksi di Media Sosial</t>
-  </si>
-  <si>
-    <t>Pasangan Alami Depresi Lakukan 7 Hal Ini 2</t>
-  </si>
-  <si>
-    <t>Peduli Masyarakat ASC Gelar Pengobatan Gratis di Jakut dan Jakbar</t>
-  </si>
-  <si>
-    <t>Suarez Hattrick Barcelona Buktikan Dominasi atas Real Madrid</t>
-  </si>
-  <si>
-    <t>Penjelasan Jokowi Soal Jaket Terakota yang Ramai Dibicarakan</t>
-  </si>
-  <si>
-    <t>Prabowo Subianto Curhat Dituduh ProKhilafah dan ISIS di Markas Soneta</t>
-  </si>
-  <si>
-    <t>Beli Suzuki Ertiga Bekas Gratis Biaya Jasa Balik Nama Begini Caranya</t>
-  </si>
-  <si>
-    <t>BMKG Waspada Peningkatan Curah Hujan hingga Awal November</t>
-  </si>
-  <si>
-    <t>Polres Poso Periksa Saksi Pengibaran Bendera Hitam</t>
-  </si>
-  <si>
-    <t>Kocak Nih 2 Pengendara Berlaga Seperti Turis Thailand saat Ditilang Polisi</t>
-  </si>
-  <si>
-    <t>Pesohor dan Kisah Cinta di Dunia Maya</t>
-  </si>
-  <si>
-    <t>Cara Mengatasi 5 Hal yang Bikin Hilang Fokus di Kantor</t>
-  </si>
-  <si>
-    <t>Pemuda Sukabumi Sulap Limbah Plastik Jadi BBM</t>
-  </si>
-  <si>
-    <t>Ayo Dukung Eks Psikotik untuk Bangkit dan Wirausaha</t>
-  </si>
-  <si>
-    <t>Peserta Electric Jakarta Marathon 2018 Meninggal karena Serangan Jantung</t>
-  </si>
-  <si>
-    <t>Terlihat Sepele Mencuci Mobil Tak Semudah yang Dibayangkan</t>
-  </si>
-  <si>
-    <t>PN Jaksel Tolak Gugatan Praperadilan Irwandi Yusuf terhadap KPK</t>
-  </si>
-  <si>
-    <t>Masyarakat Pulau Buru Diminta Tidak Santap Kepala Ikan karena Beracun</t>
-  </si>
-  <si>
-    <t>Dorong Pariwisata Ini yang Dilakukan Pemuda Bengkulu</t>
-  </si>
-  <si>
-    <t>Akbar Tanjung Akui Kasus Korupsi Membuat Golkar Jadi Partai Papan Tengah</t>
-  </si>
-  <si>
-    <t>Lukisan Hasil Karya Kecerdasan Buatan Terjual Rp  65 Miliar</t>
-  </si>
-  <si>
-    <t>Duh Wanita Ini Berikan Pusarnya kepada Kekasih sebagai Hadiah Ulang Tahun</t>
-  </si>
-  <si>
-    <t>KPK Kembali Periksa Steffy Burase Hari Ini</t>
-  </si>
-  <si>
-    <t>Timses JokowiMaruf Target Raih Suara 70 Persen di Pilpres 2019</t>
-  </si>
-  <si>
-    <t>Pesan Menpora Imam Nahrawi Peringati 90 Tahun Sumpah Pemuda</t>
-  </si>
-  <si>
-    <t>Madu Politis dari Jembatan Suramadu Gratis</t>
-  </si>
-  <si>
-    <t>Zulkifli Hasan Ajak Mahasiswa Kuasai Ilmu dan Keterampilan</t>
-  </si>
-  <si>
-    <t>Pesan Sandiaga untuk Anak Muda Ingin Jadi Pengusaha Sukses</t>
-  </si>
-  <si>
-    <t>Lewis Hamilton Sabet Titel Juara Dunia F1 2018</t>
-  </si>
-  <si>
-    <t>Yuk Jangan Lagi Rendah Diri</t>
-  </si>
-  <si>
-    <t>5 Eksperimen Psikologi Paling Berbahaya dalam Sejarah Manusia</t>
-  </si>
-  <si>
-    <t>Ketahui Karakter Tersembunyi Kalian dari Pilihan Warna Cat Kamar Tidur</t>
-  </si>
-  <si>
-    <t>Walau Hujan Jokowi Tetap Hadiri Hari Sumpah Pemuda di Bogor</t>
-  </si>
-  <si>
-    <t>Hazard Diprediksi Pindah ke Real Madrid</t>
-  </si>
-  <si>
-    <t>Taufik Kurniawan Dicegah KPK PAN Pastikan Kooperatif</t>
-  </si>
-  <si>
-    <t>Maruf Amin Ngaku Masih Muda Rakernas TKN Riuh Masuk Pak Eko</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta - Peringatan 90 tahun Sumpah Pemuda diharapkan anggota Komisi III DPR Ahmad Sahroni tetap dimaknai kaum muda dengan menjaga persatuan dan kesatuan di Indonesia. Pemuda ditekankan harus menjadi garda terdepan yang mewaspadai upaya pecah belah di Indonesia."Semangat sumpah pemuda yang diikrarkan 90 tahun lalu harus terus tertanam di benak kita. Satu Tumpah Darah, Satu bangsa, Satu Bahasa, memiliki makna yang mendalam yaitu persatuan untuk Indonesia. Jiwa NKRI harus tertanam selalu, khususnya kaum muda sebagai penerus bangsa," kata Sahroni dalam keterangan tertulisnya, Minggu (28/10/2018).Baca JugaSahroni menekankan para pendiri bangsa, termasuk Sukarno telah mengingatkan perjuangan melawan penjajah lebih mudah dibandingkan mempertahankan kemerdekaan. Hal itu dikarenakan lawan yang dihadapi dalam mempertahkan kemerdekaan adalah saudara sendiri, dalam artian satu bangsa.Politisi NasDem ini meminta para pemuda bergandengan tangan menjaga keutuhan bangsa. Berbagai ancaman menghancurkan Indonesia diingatkan Sahroni telah banyak bermunculan di Indonesia, baik berupa zat terlarang seperti narkoba hingga embusan isu bohong mengenai SARA, khususnya di tahun politik memasuki Pemilihan Umum (Pemilu) serentak 2019."Narkoba dapat menghancurkan generasi bangsa, demikian pula dengan hoaks yang berpotensi menimbulkan disintegrasi bangsa semakin nyata di hadapan kita. Pemuda harus menjadi garda terdepan menunjukkan nasionalisme. Sosialisasikan bahaya narkoba dan hoaks, tangkal semua peredarannya," imbau Sahroni."Jangan mudah dipecah belah dan terpengaruh oleh berbagai informasi sesat (hoaks) yang saat ini banyak beredar. Para pemuda harus menjadi filter dan bahkan menangkal hoaks, terlebih di masa kampanye hingga pencoblosan Pilpres dan Pileg 2019 mendatang," sambung caleg DPR dengan daerah pemilihan Jakarta ini.Lebih jauh Sahroni berharap pemuda sebagai kaum milenial juga mampu mendorong perekonomian negara dan kesejahteraan masyarakat dengan berbagai inovasi dan kreativitas.Memasuki pasar bebas 2020 mendatang, tantangan berat akan dihadapi Indonesia. Para pemuda penerus bangsa diharapkan mampu menaklukkan revolusi industri 4.0. Salah satu yang didorong menurut Sahroni adalah kemampuan berwirausaha. Dengan menjadi young entrepeneur, para pemuda akan membantu pemerintah mengatasi persoalan pengangguran dan mengangkat perekonomian bangsa."Terus bekali diri, mulailah dengan mimpi besar, munculkan kreatifitas dan kegigihan menjadi young enterpreneur. Tunjukkan bahwa kaum muda Indonesia mampu menaklukkan pasar bebas," ucap Sahroni.Saksikan video menarik berikut ini:Dalam sambutannya, Jokowi mengajak seluruh santri untuk senantiasa menjaga persatuan dan kesatuan bangsa dengan semangat sumpah pemuda.</t>
+    <t>Basarnas ELT Lion Air JT 610 Jatuh di Tanjung Karawang Tak Terdeteksi</t>
+  </si>
+  <si>
+    <t>Bandara Depati Amir Siapkan Posko Aduan dan Krisis Center Lion Air Jatuh</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta  - Dunia penerbangan kembali berkabung. Pesawat salah satu maskapai swasta Lion Air JT 610 rute Jakarta - Pangkal Pinang, Kepulauan Bangka Belitung jatuh di Tanjung Karawang, Jawa Barat.Sebelum jatuh, pesawat Lion Air dengan nomor penerbangan JT 610 hilang kontak sejak lepas landas dari Bandara Internasional Soekarno-Hatta pukul 06.33 WIB, Senin (29/10/2018).Baca JugaPesawat membawa total 189 orang. Terdiri dari 178 penumpang dewasa, 1 penumpang anak-anak dan 2 bayi, 2 pilot dan 6 awak kabin. Basarnas masih melakukan pencarian lokasi jatuhnya pesawat Lion Air di Tanjung Karawang.Ikuti perkembangan berita terkini terkait jatuhnya pesawat Lion Air JT 610 di tautan ini.Pesawat Lion Air JT 610 yang jatuh di perairan Karawang, Jawa Barat mulai ditemukan.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta - Pesawat Lion Air JT 610 dengan rute penerbangan Jakarta menuju Pangkalpinang mengalami kecelakaan setelah lepas landas dari Bandara Soekarno Hatta pukul 06.20 WIB. Pesawat jatuh di Tanjung Karawang setelah 13 menit mengudara.Situs resmi Lion Air pun mengubah tampilannya menjadi hitam putih dari yang biasanya dominan berwarna merah ciri khas maskapai penerbangan tersebut.Baca JugaPada halaman depan situs tersebut, logo Lion Air berubah menjadi hitam dan tertulis crisis center di nomor telepon 021-80820000 dan untuk informasi penumpang di nomor telepon 021-80820002 dengan background warna hitam.Informasi mengenai kecelakaan nahas itupun ditampilkan dalam dua bahasa, yaitu Indonesia dan Inggris.Informasi Penerbangan Lion Air JT-610 Rute Soekarno-Hatta, Tangerang ke PangkalpinangTANGERANG, BANTEN – 29 Oktober 2018. Penerbangan Lion Air nomor penerbangan JT 610 dengan rute penerbangan Cengkareng menuju Pangkalpinang mengalami kecelakaan setelah lepas landas dari Bandar Udara Internasional Soekarno Hatta pukul 06:20 WIB menuju Pangkalpinang. Setelah 13 menit mengudara pesawat jatuh di koordinat S 5’49.052” E 107’ 06.628” (sekitar Kerawang)Pesawat mengangkut 178 penumpang dewasa satu penumpang anak-anak dan dua penumpang bayi termasuk dalam penerbangan ini ada tiga pramugari sedang pelatihan dan satu teknisi.Pesawat dengan registrasi PK-LQP jenis Boieng 737 MAX 8. Pesawat ini buatan 2018 dan baru dioperasikan oleh Lion Air sejak 15 Agustus 2018. Pesawat dinyatakan laik operasi.Pesawat dikomandoi Capt Bhavye Suneja dengan copilot Harvino bersama enam awak kabin atas nama Shintia Melina, Citra Noivita Anggelia, Alviani Hidayatul Solikha, Damayanti Simarmata, Mery Yulianda, dan Deny Maula. Kapten pilot sudah memiliki jam terbang lebih dari 6.000 jam terbang dan copilot telah mempunyai jam terbang lebih dari 5.000 jam terbangLion Air sangat prihatin dengan kejadian ini dan akan bekerjasama dengan instansi terkait dan semua pihak sehubungan dengan kejadian ini.Terkait dengan kejadian ini kami membuka crisis center di nomor telepon 021-80820000 dan untuk infomasi penumpang di nomor telepon 021-80820002Kami akan terus memberikan informasi terbaru sesuai perkembangan lebih lanjut.Presiden Jokowi memerintahkan Komite Nasional Keselamatan Transportasi (KNKT) untuk segera melakukan penyelidikan terkait Lion Air JT 610 tujuan Jakarta-Pangkal Pinang yang jatuh di Karawang, Senin pagi tadi."KNKT segera penyidikan dan sampaikan hasilnya secepatnya," ujar Jokowi di Bali, Senin (24/10/2018).Jokowi menegaskan pemerintah akan melakukan upaya terbaik untuk menyelamatkan korban Lion Air JT-610. "Kita terus berdoa semoga korban segera bisa ditemukan," ujanya.Jokowi mengaku turut merasa risau dan berharap keluarga tetap tenang dan menunggu hasil kerja Tim SAR.Basarnas dan Kementerian Perhubungan dibantu sejumlah instansi lain mulai mengevakuasi korban.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta - Aplikasi Flightradar24 mencatat rute pesawat Lion Air JT 610 yang jatuh di perairan Tanjung Karawang, perbatasan Karawang-Bekasi.Pesawat dengan rute penerbangan Jakarta ke Tanjung Pinang ini dikonfirmasi jatuh setelah hilang kontak sekitar pukul 06.33 WIB.Lantas, bagaimana cara menelusuri jejak Lion Air JT 610 ataupun pesawat lainnya di Flightradar24?Baca JugaPertama kamu bisa instal aplikasi Flightradar24. Kemudian, setelah itu ada kotak pencarian, kamu bisa mencari nomor penerbangan yang ingin dicari, dalam hal ini, Lion Air JT 610.Setelah menuliskan JT 610, Flightradar24 akan memperlihatkan penerbangan yang ingin dipantau. Lion Air JT 610 dengan rute Jakarta-Tanjung Pinang terpantau terbang aktif tiap hari mulai dari 23 Oktober hingga 30 Oktober 2018.Saat dilihat penerbangan per 29 Oktober 2018, pesawat ini memang terbang dari Jakarta-Pangkal Pinang. Saat men-tap tanggal penerbangan, kamu bisa melihat berbagai informasi tentang penerbangan tersebut.Jika kamu ingin mengecek penerbangan lainnya, Flightradar24 juga memberikan informasi serupa.Sekadar diketahui, aplikasi Flightradar24 mencatat bahwa pesawat nahas yang membawa 189 orang itu terhenti di sebuah perairan yang belakangan diketahui sebagai perairan Tanjung Karawang.Sementara, rute sisanya masih berwarna abu-abu atau belum dilewati.Padahal, dalam penerbangan sebelumnya, jika pesawat telah mendarat status pesawat tersebut tercatat sebagai "landed". Namun status Lion Air JT 610 di Flightradar24 adalah "unknown" alias tak diketahui.Pesawat Lion Air dengan nomor penerbangan JT 610 rute Jakarta-Pangkal Pinang hilang kontak pada pukul 06.33 WIB. Basarnas memastikan pesawat tersebut jatuh di perairan Teluk Karawang, Senin (29/10/2018).Peristiwa jatuhnya pesawat Lion Air sempat di ketahui Kantor SAR Tanjung Priuk melalui info dari VTS pukul 07.05 bahwa kapal Tug Boat As Jaya 11 pada posisi koordinat 05 49.727 S -107 07.460 E dengan Heading 40 derajat timur laut, Tanjung Karawang.Petugas Polisi Penjaga pantai Karawang, AKP Sitorus saat dikonfirmasi mengatakan, informasi tersebut memang ada laporan ke pihaknya. Namun belum bisa memastikan posisi koordinat di wilayah Perairan Karawang.Ia mengatakan kalau di lihat posisi koordinat jatuhnya pesawat Lion Air itu masuk wilayah perairan perbatasan Karawang -Bekasi.Pesawat Lion Air dengan nomor penerbangan JT 610 jatuh di Tanjung Karawang setelah dilaporkan hilang kontak pada sekitar pukul 06.00 WIB. Pesawat tersebut membawa 189 orang, termasuk penumpang dan kru pesawat.Penumpang itu terdiri dari 178 orang dewasa, 1 anak-anak, dan 2 bayi (infant). Untuk kru pesawat terdiri dari 2 kokpit kru dan 6 orang awak kabin."Total ada 189 orang," ujar Ketua Komite Nasional Keselamatan Transportasi (KNKT) Soerjanto Tjahjono di Kantor Basarnas, Jakarta, Senin (29/10/2018).(Tin/Isk)Saksikan Video Pilihan Berikut Ini:Melalui aplikasi Flight Radar terlihat bagamana pergerakan pesawat Lion Air JT610 sebelum hilang di radar.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta - Presiden Jokowi memerintahkan Komite Nasional Keselamatan Transportasi (KNKT) untuk segera melakukan penyelidikan terkait Lion Air JT 610 tujuan Jakarta-Pangkal Pinang yang jatuh di Karawang, Senin pagi tadi."KNKT segera penyidikan dan sampaikan hasilnya secepatnya," ujar Jokowi di Bali, Senin (24/10/2018).Baca JugaJokowi menegaskan pemerintah akan melakukan upaya terbaik untuk menyelamatkan korban Lion Air JT-610. "Kita terus berdoa semoga korban segera bisa ditemukan," ujanya.Jokowi mengaku turut merasa risau dan berharap keluarga tetap tenang dan menunggu hasil kerja Tim SAR.Saksikan video pilihan di bawah ini:Basarnas dan Kementerian Perhubungan dibantu sejumlah instansi lain mulai mengevakuasi korban.Keluarga penumpang pesawat Lion Air JT 610 mendatangi Gedung Basarnas. Mereka memastikan kabar jatuhnya pesawat JT 610 jurusan Jakarta-Pangkalpinang pada Senin pagi (29/10/2018).Salah seorang keluarga penumpang, Feni mengatakan, di dalam pesawat Lion Air jatuh, ada empat anggota keluarganya. Di antaranya ada adik, calon suami adiknya, dan ayah dari calon suami adiknya, dan satu kerabat lainnya.Kedatangannya ke Basarnas khusus untuk mencari informasi atas kecelakaan tersebut. "Ke sini untuk cari informasi," ujarnya.Feni yang datang bersama Andi mengatakan, keempat anggota keluarganya berangkat ke Pangkalpinang untuk pertemuan keluarga. Dia mengaku mendapat informasi jatuhnya pesawat sekitar pukul 08.00 WIB."Tadi pagi dapat kabar kecelakaan jam delapan," ujar dia.Dia mengaku, pihak keluarga belum mendapat kabar dari Lion Air terkait peristiwa ini. "Belum dikabari sama sekali," pungkas Feni.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta - Pesawat Lion Air  JT 610 rute Jakarta-Pangkal Pinang jatuh di Tanjung Karawang, Jawa Barat. Basarnas masih melakukan pencarian terhadap para korban.Upaya pencarian bangkai pesawat Boeing 737 MAX 8 dengan tipe B38M itu dapat disaksikan secara live streaming di Liputan6.com.Baca JugaKecelakaan Lion Air JT 610 yang membawa total 198 penumpang dan kru itu begitu mengagetkan karena pesawat baru beroperasi 15 Agustus 2018.Seperti apa pencarian para korban? Saksikan secara live streaming pada tautan ini, atau di bawah ini:Live Streaming Embed Code (Vidio.com)</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta - Basarnas menetapkan masa evakuasi penumpang pesawat Lion Air JT 610 dengan rute Jakarta-Pangkal Pinang yang jatuh di perairan Tanjung Karawang, Jawa Barat selama tujuh hari sejak hari ini. Masa evakuasi ini akan diperpanjang jika waktu dirasa belum cukup."Evakuasi selama tujuh hari dan nanti bisa diperpanjang tiga hari," kata Deputi Operasi Basarnas, Nugroho Budi W di Gedung Basarnas, Kemayoran, Jakarta Pusat, Senin (29/10/2018).Baca JugaSaat ini Basarnas telah menerjunkan 150 personel ke lokasi jatuhnya pesawat Lion Air. Basarnas juga dibantu anggota TNI dan Polri sebanyak 150 orang. Nugroho mengatakan, proses evakuasi ini juga dibantu nelayan yang sedang berada di sekitar perairan Tanjung Karawang."Total ada 300-an personel dan akan ditambah lagi untuk mempercepat evakuasi dan nelayan-nelayan ikut bergabung juga," sebutnya.Sementara ini tim penyelam dari Basarnas diterjunkan sebanyak 30 orang. Dan dipastikan TNI dan Polri juga menerjunkan tim penyelam untuk mencari badan Lion Air. Saat ini kondisi cuaca cukup bagus untuk melakukan penyelaman."Cuaca sekarang cukup bagus dan hanya mendung sedikit saja," jelasnya.Nugroho mengatakan sampai saat ini belum ada penumpang yang ditemukan. Pihaknya baru menemukan bagian kecil atau serpihan kecil pesawat dan juga beberapa barang milik penumpang seperti KTP, Paspor, kartu BPJS dan buku tabungan.Setelah tim menemukan penumpang, akan langsung dibawa ke JICT atau posko Basarnas di Tanjung Priok. Kemudian penumpang akan dibawa ke RS Polri Kramat Jati.Reporter: Hari AryantiSaksikan video pilihan di bawah ini:Keluarga penumpang pesawat Lion Air JT 610 berkumpul di bandara Depati Amir, Pangkal Pinang.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta  - Pasar mobil sedan terbilang lesu di Indonesia. Kebanyakan konsumen memilih MPV, crossover, atau SUV. Padahal, mobil sedan memiliki ciri khasnya sendiri, yaitu terlihat lebih mewah, elegan, namun juga bisa tampil sporty.Di Indonesia, setidaknya ada 2 produk yang ditawarkan untuk mobil sedan dengan budget di bawah Rp500 juta. Pertama adalah Honda Civic 1.5L ES seharga Rp490,5 juta dan Toyota Corolla Altis 1.8 V AT yag dibanderol Rp471,45 juta.Baca JugaKeduanya memiliki segudang fitur yang menarik. Baik Honda Civic maupun Toyota Corolla Altis memiliki cruise control, AC climate-control, ABS, traction-control, built-in alarm, airbag depan dan tengah, serta audio control mounted steering.Karena lebih mahal, Honda Civic memiliki beberapa fitur yang tidak terdapat pada Toyota Corolla Altis, sebut saja engine start-stop button, auto headlight, head-unit display dengan Bluetooth, LED headlight. Meski demikian, Toyota Corolla Altis punya wiper otomatis, kamera belakang, dan sensor parkir.Menariknya, meski memiliki mesin yang lebih kecil, performa Honda Civic justru unggul dari Toyota Corolla Altis. Dapur pacunya berkubikasi 1.498 cc bertenaga 171 Tk dengan torsi 220 Nm. Sedangkan mesin 1.798 cc Toyota Corolla Altis hanya menghasilkan tenaga sebesar 149 Tk dan torsinya mencapai 190 Nm.Sumber: Otosia.comMitsubishi dikabarkan akan menghidupkan Galant pada 2020 mendatang. Di Indonesia, Galant memiliki sejarah panjang. Di era 1990-an, Galant mengadopsi mesin 2,0 liter dan 2,5 liter V6 melenggang di sini. Empasan dayanya terbilang besar di segmen sedan kala itu. Namanya sempat melegenda. Dan kini, sosok itu jadi buah bibir khalayak, lewat sketsa anyar.Mitsubishi, memang begitu banyak pesaingnya. Mitsubishi fokus hampir secara eksklusif pada crossover dan SUV. Kita tak bicara pasar Indonesia. Sebab penjualan Xpander (mobil penumpang) begitu menggurita. Ambil contoh pasar Amerika Serikat (AS) yang hanya berorientasi pada: Outlander, Outlander Sport, dan Eclipse Cross. Nah, bagaimana jika mereka kembali ke pasar sedan?BACA JUGAKita tak menampik, potensi pasar sedan global masih besar. Bagaimana jika dihidupkan kembali, katakanlah, si Galant? Mungkin bisa jadi seperti yang Anda lihat ini. Digital render dibuat oleh desainer Enoch Gabriel Gonzales. Spekulasi sketsa tentang Mitsubishi Galant, mengadopsi isyarat gaya terbaru produsen mobil Jepang. Berpintu empat dan punya fascia khas Mitsubishi.Lihat saja mimiknya. Tarikan garis X dengan bilah krom dan grille jaring yang melebar. Logo berlian pun dibubuhkan di tengah. Sangat memikat hati. Namun jika mereka mau merebut market, Gallant harus diberi unsur ‘magis’ agar siapapun yang menatapnya, langsung tergoda. Toh namanya yang melegenda, masih dipuja.Mitsubishi Galant seperti sudah lekat pada pecinta sedan, mungkin salah satunya Anda. Sebab, kiprahnya sudah berlangsung lama. Mitsubishi memulai produksinya pada 1969 hingga 2012. Variannya berkembang dari sedan kompak menjadi coupe, hatchback, dan wagon. Dimensi berubah melalui perkembangan sembilan generasi. Mitsubishi bahkan menjual hampir 100.000 dari mereka pada 2002 dan 2009. Namun penjualan tahunan Galant di AS menyusut, menjadi kurang dari 12.000 unit hingga menyentuh titik nadir.Seandainya mereka jadi melahirkan Galant, sebaiknya Mitsubishi menawarkan ruang yang lebih besar, plus performa di atas rata-rata. Daya tarik keseluruhan harus dimiliki, untuk sebagian besar pelanggan kelak. Jadi, katakanlah ketika bertarung dengan Toyota Camry atau Honda Accord, Mitsubisihi tak bawa tangan kosong.Dan jika realisasi Galant dalam beberapa tahun ke depan, Mitsubishi beserta sekutunya, Renault dan Nissan bisa bahu-membahu membesut kembali Gallant. Entah dari sisi teknologi, produk, bahkan jaringan pemasaran. Bisa saja sedan yang dihasilkan, mungkin terlihat cukup mirip dengan apa yang Anda lihat sekarang.Sumber: Oto.comAll new Honda Brio</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Padang - Video pesta pernikahan di sebuah masjid di Padang, Sumatera Barat, mendadak viral dan menjadi bahan perbincangan banyak orang. Video tersebut dianggap telah merusak falsafah hidup orang Minangkabau. Bukan tanpa sebab, pasalnya video yang diunggah seseorang di media sosial itu menggambarkan pesta pernikahan dengan iringan organ tunggal. Pernikahan sendiri digelar 28 Oktober 2018 di  masjid Agung Nurul Iman.Pantauan Liputan6.com, dalam video berdurasi 38 menit itu, tampak sejumlah tamu undangan duduk di kursi tamu yang disusun melingkari meja di atas karpet warna merah di dalam ruangan masjid.Sejumlah warga yang marah sempat bersitegang dengan pihak keluarga yang mengadakan pesta. Karena dianggap menganggu kekhusyukan jamaah yang sedang beribadah di lantai I masjid, warga minta pesta dihentikan.Sebaliknya, pihak keluarga menolak untuk menghentikan acara dengan dalih sudah mendapat izin dari sekretariat masjid selaku pihak yang berwenang.Di dalam video itu juga terlihat warga adu mulut dengan seseorang yang diduga pihak sekretariat masjid. Warga mempertanyakan apa dasarnya boleh mengadakan resepsi pernikahan diiringi organ tunggal di masjid.Namun, seseorang di dalam video yang diduga pihak sekretariat masjid membantah memberi izin pesta pernikahan tersebut boleh diiringi organ tunggal. Sebaliknya, bagi warga, apapun alasannya tidak dibenarkan menggunakan masjid sebagai tempat pesta pernikahan, apalagi diiringi musik.Oleh warganet, pesta pernikahan diiringi organ tunggal di dalam masjid bersejarah itu dinilai mengangkangi adat Minangkabau. Adat dimaksud yakni, Basandi Syarak, Syarak Basandi Kitabullah, yang merupakan landasan dari sistem nilai pandangan hidup yang menjadikan Islam sebagai sumber utama dalam tata dan pola perilaku."Apa yang sebenarnya terjadi di orang Minangkabau? Miris kita miris," demikian komentar salah seoranga warganet, pemiilik akun Ibnu Aqil D Ghani, menanggapi unggahan video tersebut.Hingga saat ini, video yang dibagi pemilik akun Facebook Budhi Sudarman itu sudah dibagi ulang sebanyak 14 ribu kali. Mendapat 3,1 ribu suka, serta 6,7 ribu komentar.Simak juga video pilihan berikut ini:KNKT menyelidiki insiden kecelakaan pesawat antara Lion Air dan Wings Air di landasan pacu bandara Kualanamu, Sumatera Utara.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta - Pesawat Lion Air dengan nomor penerbangan JT 610 jatuh tak lama setelah terbang dari Bandara Soekarno Hatta, Tangerang, Banten. Pesawat tersebut ditemukan jatuh di Tanjung Karawang, Jawa Barat.Namun belakangan, diketahui jika pilot pesawat sempat meminta kembali atau return to base (RTB) ke tempat semula di Bandara SoekarnoiHatta. Hal ini sudah dibenarkan oleh Dirut AirNav Indonesia, Novie Riyanto.Baca Juga"Jadi tadi pagi jam 06.33 pesawat lost contact. Dan benar pesawat sempat meminta RTB, itu betul dan sudah diizinkan," ujar Yohanes di Jakarta, Senin (29/10/2018).Seperti diketahui, Pesawat Lion Air JT 610 hilang kontak setelah lepas landas dari Bandara Soekarno Hatta, Cengkareng menuju Pangkal Pinang pada pukul 06.20 WIB. Pesawat itu kemudian hilang kontak pada pukul 06.33 WIB dan diketahui jatuh di Tanjung Karawang.Pesawat Lion Air JT 610 rute Jakarta-Pangkal Pinang diketahui membawa 189 orang, termasuk penumpang dan kru pesawat.Penumpang terdiri dari 178 orang dewasa, 1 anak-anak, dan 2 bayi (infant) sementara kru pesawat terdiri dari 2 kokpit kru dan 6 orang awak kabin.Sejauh ini tim menyiagakan 17 unit ambulance dan kemungkinan terus bertambah guna mengevakuasi korban jatuhnya pesawat Lion Air ini. Aparat gabungan juga terus mendirikan tenda-tenda posko.Pesawat Lion Air JT 610 yang jatuh di perairan Karawang, Jawa Barat mulai ditemukan.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta Kemunculan media sosial memudahkan para pengguna menyebarkan apa pun yang didapat. Ini yang terjadi beberapa jam setelah kabar jatuhnya pesawat Lion Air JT 610 dengan rute penerbangan Jakarta menuju Pangkalpinang mencuat.Banyak warganet di Twitter yang saling mengimbau supaya bisa menahan diri tidak membagikan video maupun foto apa pun terkait pesawat tersebut. Warganet mengingatkan supaya kita menghormati keluarga korban yang sedang berduka.Baca JugaMenurut Psikolog Ike R Sugianto, ada sejumlah alasan sebaiknya kita tidak gegabah melakukan hal tersebut. "Pertama, kita harus menghormati semua orang, termasuk menghormati korban pesawat Lion Air yang jatuh itu," kata Ike saat dihubungi Health-Liputan6.com pada Senin, 29 Oktober 2018.Cara menghormatinya mudah sekali, yaitu dengan membiarkan keluarga menjaga memori yang baik tentang korban. "Biarlah keluarga korban mengenang keluarganya yang pergi itu dengan kondisi yang baik," ujar Ike.Biasanya, korban kecelakaan pesawat seperti yang dialami maskapai Lion Air ini, ditemukan dalam kondisi mengenaskan. Sehingga, ketika menyebarkannya, malah hanya memberikan dampak traumatis bagi siapa saja yang melihat gambar maupun video terkait orang-orang yang menjadi korban jatuhnya pesawat Lion Air."Apalagi kalau yang melihat itu adalah anak kecil," kata Ika menekankan.Lagipula apa gunanya menyebarkan hal-hal yang hanya membuat orang lain takut? Sebaiknya, tanya ke diri sendiri manfaat menyebarkan hal-hal semacam itu. Apakah bermanfaat untuk orang lain, atau malah merugikan orang banyak?KNKT menyelidiki insiden kecelakaan pesawat antara Lion Air dan Wings Air di landasan pacu bandara Kualanamu, Sumatera Utara.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta Ketua MPR RI Zulkifli Hasan menyampaikan selamat dan apresiasi kepada Datuk Seri Anwar Ibrahim, anggota Parlemen Nasional Malaysia atas penganugerahan Gelar Doktor Kehormatan bidang pendidikan politik dari Universitas Negeri Padang.Pemberian gelar kehormatan itu, menurut Zulkifli Hasan, sangat tepat untuk Anwar Ibrahim. Pasalnya, Anwar dinilai istiqamah atau konsisten menjalani profesi politiknya. Padahal, selama belasan tahun menjadi politikus, ia sudah berkali-kali keluar masuk penjara.Baca Juga"Kalau politisi lain, umumnya sudah menyerah, karena keluar masuk penjara, dan dihujani tuduhan yang tidak ringan. Tetapi beliau tabah dan tahan menghadapi cobaan tersebut dan membuktikan dirinya bersih, tidak seperti yang dituduhkan lawan-lawan politiknya," kata Ketua MPR.Pernyataan itu dikatakan Ketua MPR RI Zulkifli Hasan saat menyampaikan testimoni dalam acara penganugerahan gelar Doktor Kehormatan Bidang Pendidikan Politik kepada Anwar Ibrahim dari Universitas Negeri Padang. Acara tersebut berlangsung di Gedung Auditorium Universitas Negeri Padang, Senin (29/10). Dalam acara tersebut Presiden RI ke-5 Megawati Soekarno Putri dan Ketua DPD RI Oesman Sapta turut hadir.Menurut Ketua MPR, Anwar Ibrahim adalah sosok politikus idealis. Dia juga memiliki banyak gagasan cemerlang, salah satunya adalah ide tentang masyarakat Madani. Dengan kondisi seperti itu, Anwar tidak pernah merasa takut dalam memperjuangkan ide-idenya. Sebaliknya, dia malah membuat segan lawan politiknya."Beliau adalah sosok yang sederhana. Kesederhanaannya itu alami jauh dari pencitraan. Tapi kesederhanaannya itu tidak menghilangkan keaslian dirinya sebagai politikus yang mewah dan berkelas," kata politisi asal Lampung itu.Bagi Zulkifli, Anwar Ibrahim adalah politikus pemaaf. Meski berkali-kali dizholimi, tetapi tidak pernah dendam. Ia memiliki keluarga yang luar biasa, siap mendukung karier suaminya, baik dalam keadaan senang maupun susah. Karena itu, kata Zulkifli tidaklah salah jika Datuk Seri Anwar Ibrahim dikatakan sebagai politisi yang sangat langka."Indonesia dan Padang khususnya tidak pernah kekurangan Pahlawan. Ada Bung Hatta dan ada juga KH. Agus Salim. Saat ini Anwar Ibrahim berlaku seperti mereka, semoga itu membuat hubungan Indonesia Malaysia makin baik, dan Anwar Ibrahim segera dilantik menjadi Perdana Menteri Malaysia," kata Zulkifli Hasan.(*)</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta - Dua kapal milik Badan SAR Nasional (Basarnas) tiba di pelabuhan Jakarta International Container Terminal (JICT). Kedua kapal tersebut membawa enam kantong jenazah dan serpihan Pesawat Lion Air JT 610.Keenam kantong jenazah tersebut langsung diletakan di mobil ambulans milik Polda Metro Jaya oleh Tim DVI. Nantinya akan dibawa ke RS Polri Kramat Jati, Jakarta Timur.Baca JugaKeenam kantong jenzah tersebut diduga berisi potongan tubuh korban Pesawat Lion Air yang jatuh di Perairan Tanjung Karawang, Senin (29/10/2018) pagi.Selain membawa enam kantong jenazah, Basarnas juga membawa barang-barang yang diduga milik korban Lion Air jatuh. Barang tersebut seperti tas, dompet, dan serpihan lainnya.Di Pelabuhan JICT sendiri, Basarna telah menyiapkan 2 tenda sebagai posko utama. Puluhan ambulans juga disiagakan oleh Basarnas.Pesawat hilang kontak usai lepas landas landas dari Bandara Internasional Soekarno-Hatta sekitar pukul 06.00 WIB. Pesawat tersebut sedianya akan mendarat di Pangkal Pinang.Kepala Bidang Disaster Victim Identification (DVI) Pusdokkes Polri Kombes Lisda Cancer meminta keluarga korban pesawat Lion Air JT 610 untuk membawa data-data dan dokumen untuk kepentingan identifikasi.Data-data tersebut di antaranya data sidik jari dalam bentuk ijazah dan sebagainya, data gigi (nomor telepon dokter gigi yang merawat), data medis (nomor telepon dokter yang merawat), dan info tentang properti (termasuk pakaian yang dikenakan saat berangkat).Data-data tersebut dapat dilaporkan ke Rumah Sakit Bhayangkara Said Sukanto atau RS Polri, Kramatjati, Jakarta."Untuk keperluan data DNA, diharapkan yang datang ke rumah sakit adalah orang yang ada hubungan darah dengan korban (orang tua dan anak)," ujar Lisda dalam keterangam yang diterima Liputan6.com, Senin (29/10/2018).Sementara itu, pihak Lion Air mencatat, ada 181 penumpang yang berada dalam pesawat yang mengalami kecelakaan tersebut. Dua di antaranya bayi. Kru pesawat tersebut terdiri dari 2 kokpit kru dan 6 orang awak kabin.Sebelumnya, Pesawat Lion Air JT 610 dilaporkan hilang kontak 13 menit setelah take off dari Bandara Soekarno Hatta pada 06.20 WIB. Basarnas memastikan pesawat tersebut jatuh di Tanjung Karawang.Pesawat Lion Air dengan nomor penerbangan JT 610 jatuh di Tanjung Karawang setelah dilaporkan hilang kontak pada sekitar pukul 06.00 WIB. Pesawat tersebut membawa 189 orang, termasuk penumpang dan kru pesawat.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta Ducati Indonesia merilis tiga produk baru sekaligus, yakni Monster 821, Scrambler 1100 Sport, serta Multistrada 1260 S. Kehadiran tiga produk baru ini tentunya semakin memperkaya pilihan kepada konsumen khususnya pecinta motor asal Italia."Sudah menjadi komitmen bagi Ducati Indonesia untuk selalu memperbarui model sesuai dengan trend sepeda motor yang berlaku di dunia. Multistrada 1260 S, Monster 821, dan Ducati Scrambler 1100 Sport adalah benchmark dalam berbagai aspek sepeda motor, termasuk desain dan teknologi,” kata Marketing Director Ducati Indonesia Faby Tsui di Ducati Flagship Store (DFS), Kemang, Jakarta Selatan, Minggu (28/10/2018).Baca JugaMenurut Faby, Multistrada 1260 S merupakan sepeda motor adventure kelas penjelajah, overland. "Kalau Anda berpikir akan melakukan perjalanan lintas benua sekalipun maka dia siap memperlihatkan durabilitasnya di berbagai medan jalan," katanya.Lebih lanjut ia menyebutkan, Ducati Monster 821 bisa menjadi motor harian karena memiliki kombinasi sempurna antara performa dan mudah dikendalikan. "Monster layak dijadikan sepeda motor harian karena dia sudah memliki perlengkapan standar yang super dan biaya pemeliharaan yang ringan," ujar wanita ramah tersebut.Sementara Ducati Scrambler 1100 Sport dihadirkan karena peminat scrambler di Tanah Air terus tumbuh. "Model terbaru 1100 memiliki tenaga dan torsi lebih besar, sehingga ‘Joy’ yang diharapkan para pecinta kebebasan akan lebih tersalurkan. Motor besar ini tidak ada kompromi pada aspek kesenangan, gaya, dan kebebasan," ia menambahkan.Menyoal harga, New Multistrada 1260 S dipatok Rp 799 juta. Sedangkan New Monster 821 Rp 440 juta. Sementara Ducati Scrambler 1100 Special dan Ducati Scrambler 1100 Sport dibanderol Rp 559 juta dan Rp 579 juta.Semua harga tersebut berstatus off the road Jakata.Sumber: http://youtube.com/watch?v=bfLqa4vlmFI</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta - Pesawat Lion Air rute Jakarta-Pangkal Pinang dilaporkan hilang kontak. Badan SAR Nasional (Basarnas) mendapat informasi pesawat dengan nomor JT 610 itu jatuh di Tanjung Karawang."Benar informasinya A1, jatuh di Tanjung Karawang," ujar Humas Basarnas Yusuf, saat dihubungi Liputan6.com di Jakarta, Senin (29/10/2018).Baca JugaPesawat Lion Air itu dilaporkan hilang kontak usai lepas landas landas dari Bandara Internasional Soekarno-Hatta sekitar pukul 06.00 WIB. Pesawat tersebut sedianya akan mendarat di Pangkal Pinang.Dalam keterangan tertulis yang diterima dari Basarnas, ada saksi atas nama Suyadi yang mengaku melihat pesawat Lion Air jatuh di sekitar Tanjung Karawang. Saat ini pihak SAR Jakarta sedang bergerak ke lokasi koordinat kejadian untuk melakukan operasi SAR.Direktur Umum Lion Air Grup Edward Sirait saat dihubungi Liputan6.com, membenarkan pihaknya hilang kontak dengan pesawat rute Jakarta-Pangkal Pinang tersebut. Pihak Lion Airjuga tengah menelusuri informasi yang menyebutkan pesawat tersebut mendarat darurat di Halim dan Karawang."Masih simpang siur, ada yang bilang mendarat di Halim, ada yang bilang di Karawang. Kami lagi cek ke lokasi," ungkap Edward.Pasca kejadian, pihak otoritas Bandara Supadio sudah memberangkatkan 189 penumpang lainnya dengan pesawat yang berbeda.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta - Maskapai Lion Air memastikan ada dua warga negara asing (WNA) yang jadi korban pesawat Lion Air JT610 yang jatuh di Teluk Karawang, Jawa Barat. Mereka adalah pilot pesawat dan satu penumpang asal Italia."Pertama, pilot kami atas nama Capten Bhavye Suneja asal India. Satu lagi penumpang WN Italia," tutur Direktur Air Service Lion Group, Kapten Daniel Putut di Posko Terpadu Terminal 1B, Bandara Soekarno Hatta, Kota Tangerang, Senin (29/10/2018).Baca JugaLion Air enggan menyatakan nasib mereka kini, apakah selamat atau sudah meninggal dunia. Mereka masih akan menunggu hasil penyelidikan KNKT dan Basarnas di Teluk Karawang.Sementara, dalam pesawat tersebut juga ada 178 penumpang, kemudian seorang anak dan dua bayi. Kini, masih belum diketahui nasib para penumpang tersebut."Kami masih menunggu hasil dari KNKT dan Basarnas," ungkapnya.Sebelumnya, pesawat Lion Air rute dengan rute Jakarta-Pangkalpinang lost contact sekitar pukul 06.31 WIB tadi pagi dan setelah 13 menit mengudara pesawat jatuh di koordinat S 5’49.052” E 107’ 06.628” (sekitar Karawang). Pesawat Lion Air mengangkut 178 penumpang dan 8 kru kabin pesawat.Penerbangan pesawat ini dipimpin Kapten Pilot B. Suneja didampingi Coo Pilot Harvino.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta - Pesawat Lion Air JT 610 mengalami kecelakaan pada Senin pagi (29/10/2018). Pesawat tersebut baru dioperasikan sejak 15 Agustus 2018.Pihak Lion Air menegaskan bahwa pesawat tersebut laik operasi. Pesawat Boeing 737 tersebut ternyata laku keras di pasar aviasi, dan produk Boeing yang paling cepat terjual sepanjang sejarah.Baca JugaBerdasarkan data Boeing, pesawat 737 adalah pesawat yang paling bisa diandalkan di dunia dan disebut mudah dioperasikan.Ada empat jenis pesawat 737 MAX yaitu seri 7, 8, 9, dan 10. Lion Air JT 610 memakai 737 Max 8.Pesawat tersebut memiliki dua kelas, dengan bangku berjumlah 162 - 178. Maksimum bangkunya adalah 210.Panjang pesawat 39,52 meter, dengan lebar sayap 35,9 meter, serta tinggi 12,3 meter. Jarak yang dapat ditempuh pesawat ini adalah 3.550 mil laut atau setara 6.570 kilometer.737 Max 8 juga tercatat lebih hemat bahan bakar, yaitu sebesar 8 persen ketimbang A320neo milik Airbus. Boeing juga membandingkan bahwa pesawat 737 perlu perawatan yang lebih sedikit ketimbang Airbus.Mesin yang dipakai dari LEAP-1B dari CFM International. Tercatat, ada 3.800 pesanan dari 88 pelanggan di seluruh dunia.Pihak Boeing berkata sudah menyadari insiden jatuhnya Lion Air. "(Kami) sedang memonitor situasi ini dengan lekat," jelas Boeing dalam pernyataan resmi mereka.Gubernur Kepulauan Bangka Belitung, Erzaldi Rosman Djohan menyatakan bahwa pesawat Lion Air JT 610 yang jatuh di perairan Tanjung Kerawang, membawa rombongan Pegawain Negeri Sipil (PNS)."Pesawat tersebut ditumpangi sejumlah rombongan PNS dari beberapa instansi, namun kami ingin pastikan data penumpangnya," katanya dikutip dari Antara, Senin (29/10/2018).BACA JUGAIa meminta kepada anggota keluarga untuk saling berbagi informasi terkait kecelakaan pesawat ini dan memastikan jumlah PNS yang ada di dalam pesawat tersebut."Saya sudah mendapat informasi pasti dari Basarnas bahwa pesawat sudah dipastikan jatuh di Tanjung Kerawang," katanya.Sebelumnya juga sempat beredar kabar bahwa rombongan Bawaslu Babel menumpang pesawat tersebut.Namun setelah ditelusuri kebenarannya, ternyata rombongan Bawaslu yang pulang dinas luar baru akan terbang pada siang ini dengan menggunakan pesawat Sriwijaya.Pesawat Lion Air JT 610 jatuh di perairan Karawang Jawa Barat, hari Senin (29/10). Komite Nasional Keselamatan Transportasi mengungkap umur pesawat nahas tersebut.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta - Dewi Perssik dan Rosa Meldianti, hingga kini masih terlibat perseteruan. Bahkan, kasus perkara mereka kian memanas.Tak main-main, Dewi Perssik sampai menggandeng Hotman Paris sebagai kuasa hukum. Sang ponakan rupanya tak mau tinggal diam.Baca JugaMeldi pun menantang balik sang tante. Ia pun buka-bukaan selama tinggal dengan Dewi Perssik."Dari awal saya tidak dipegang tante saya sendiri. Tapi tante juga yang kenalin saya ke Didi. Saya yang bekerja memilih dong nyamannya dengan siapa," ucap Meldi, di Bambu Koering SCBD, Kebayoran Baru, Jakarta Selatan, Sabtu (27/10/2018).First Look Film GundalaRasa nyaman yang diungkap Meldi ini memunculkan pertanyaan baru. Apakah selama ini dirinya tidak pernah merasa nyaman bersama Dewi Perssik. Padahal Meldi juga pernah tinggal di tempat mantan istri Saipul Jamil selama beberapa bulan."Saya enggak bilang nyaman atau nggak sama tante, tapi kalau dari pekerjaan dari hati kecil saya milih ke Kak Didi," sanggah Meldi.Rosa Meldianti mendapat somasi dari tantenya Dewi Perssik, karena perkataannya yang tidak sopan dan menghina pemilk goyang gergaji.Dalam somasi tersebut, Dewi Perssik memberikan waktu tiga hari kepada keponakanya agar meminta maaf atas segala ucapannya di media sosial yang sangat merugikanya.Bila somasi yang dilayangkan tidak diindahkan oleh Rosa Meldianti, Dewi Perssik akan melaporkan keponakannya itu ke polisi. (Akbar Prabowo Triyuwono/kapanlagi.com)</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta - Pesawat Lion Air dengan nomor penerbangan JT 610 dilaporkan hilang kontak usai lepas landas landas dari Bandara Internasional Soekarno-Hatta sekitar pukul 06.00 WIB, Senin (29/10/2018). Pesawat tersebut sedianya akan mendarat di Pangkal Pinang.Direktur Umum Lion Air Grup Edward Sirait saat dihubungi Liputan6.com, membenarkan pihaknya hilang kontak dengan pesawat rute Jakarta-Pangkal Pinang tersebut. Pihak Lion Air juga tengah menelusuri informasi yang menyebutkan pesawat tersebut mendarat darurat di Halim dan Karawang.Baca Juga"Masih simpang siur, ada yang bilang mendarat di Halim, ada yang bilang di Karawang. Kami lagi cek ke lokasi," ungkap Edward.Menurut Edward, pesawat Lion Air itu hilang kontak sejak lepas landas dari Bandara Internasional Soekarno-Hatta."Benar kami kehilangan kontak sejak terbang jam 6.00 WIB dari Cengkareng," ujar Edward.Pasca kejadian, pihak otoritas Bandara Supadio sudah memberangkatkan 189 penumpang lainnya dengan pesawat yang berbeda.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta Informasi mengenai musibah yang menimpa pesawat Lion Air JT 610 tujuan Jakarta - Pangkalpinang pada Senin (29/10/2018) pagi membuat calon penumpang yang memegang tiket penerbangan lainnya jadi merinding dan deg-degan. Apalagi ini Senin, salah satu hari sibuk di penerbangan karena banyak yang kembali ke tempat bekerja atau memulai business trip.Bayu (33) yang sudah memiliki tiket penerbangan dari Jakarta ke Jogja hari ini pun jadi cemas. Ia takut mengalami hal yang sama seperti kejadian yang menimpa penumpang Lion Air tadi pagi. Namun, ia memberanikan diri dan meminta maaf ke orang-orang terdekat akan kesalahannya.Baca JugaBayu dan banyak calon penumpang pesawat yang lain mungkin jadi merasa cemas, panik, dan takut usai mendengar kabar jatuhnya Lion Air. Bila kejadiannya baru terjadi lalu merasakan kondisi itu, masih wajar seperti disampaikan psikolog Rena Masri.Orang-orang yang mengalami rasa panik ditandai dengan tangan yang berkeringat, serba salah mau duduk atau berdiri, jantung berdegup lebih cepat. Jika hal ini terjadi sekarang, itu masih wajar. Namun, jika terus terjadi saat naik pesawat satu atau dua tahun lagi perlu dikonsultasikan ke ahlinya.Bagi Anda yang hendak terbang di hari-hari ini dan mengalami cemas atau panik. Berikut saran Rena saat agar tak panik ketika hendak naik pesawat terbang.1. Berupaya berpikiran positifMisalnya berpikir bahwa data menunjukkan pesawat merupakan moda transportasi paling aman dibandingkan yang lain.2. Berdoa supaya perjalanan selamat"Enggak boleh lupa, apapun yang kita rencanakan yang menentukan bukan kita tapi Tuhan," katanya.3. Bekali informasi tentang pesawat dan petunjuk keselamatan4. Berusaha menikmati penerbangan dengan menikamti keindahan langit atau awan.Misalnya membaca buku, mengisi teka-teki silang, bermain gim, menonton film, mendengarkan musik, mengobrol, makan makanan ringan."Jadi bisa memikirkan hal yang lain selain kejadian tadi pagi," saran wanita yang mendapatkan gelar psikolog di Universitas Indonesia ini.6. Menarik napas dalam yang panjang jika rasa cemas muncul.7. Memikirkan apa yang akan dilakukan saat sampai ke tempat tujuan</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta Gubernur DKI Jakarta Anies Baswedan kembali merombak jajaran direksi BUMD DKI. Anies kali ini mencopot Direktur Utama (Dirut) PT Transportasi Jakarta (Transjakarta) Budi Kaliwono.Posisi Budi digantikan oleh Direktur Operasi dan Maintenance PT Mass Rapid Transit (MRT) Jakarta Agung Wicaksono.Baca Juga"Hari ini jadi klir, bahwa penggantian direksi hanya boleh diumumkan pemegang saham. Pemegang saham sudah memberitahukan bahwa per hari ini ada pergantian. Berkenaan dengan pergantian ini, kami sudah melakukan secara maksimal," kata Budi usai serah terima jabatan di Balai Kota Jakarta, Senin (29/10/2018).Tidak seperti biasanya, pergantian direksi Transjakarta tidak melewati RUPS Luar Biasa. Namun, menurut Budi tetap ada RUPS yakni RSUP sekuler pada pencopotan kali ini. "Ini RUPS (sekuler), dan ini sah. Jadi bukan mendadak," ucapnya.Budi mengaku tidak mengetahui alasan pencopotan dirinya. "Background saya dari swasta dan saya harus menunjukan profesional murni, saya tidak bertanya ke pak gubernur, karen penggantian pengurus ini wewenang pemegang saham dalam hal ini gubernur. Kita terima saja dan saya yakin pak gubernur (Anies Baswedan) sudah memikirkan yang terbaik," ujar Budi.Sementara itu, Kepala Badan Pembinaan Badan Usaha Milik Daerah (BP BUMD) Provinsi DKI Jakarta Yurianto menyebut, pergantian direksi Transjakarta dalam rangka penyegaran saja."Untuk penyegaran Direksi dan melengkapi pengurus yang sudah ada agar BUMD ini dapat melayani masyarakat lebih efektif dan efisien," jelas Yurianto.Selama tiga tahun menjabat, Budi Kaliwono dinilainya sukses dalam meletakkan landasan transportasi publik di Jakarta. Dalam satu tahun, kenaikan penumpang dari 420.000 per hari menjadi 721.000 penumpang per hari, atau dalam tahun 2016 telah mengangkut penumpang sebanyak 123,7 juta orang meningkat menjadi 144,8 juta orang di tahun 2017."Tahun 2018, bus Transjakarta telah mengangkut 127,5 juta orang sampai dengan bulan September 2018," kata Yurianto.Selain Budi, perombakan lain yang dilakukan di tubuh Transjakarta adalah sebagai berikut:Pemberhentian:I. Andri Yansyah dari jabatannya sebagai Komisaris.II. Budi Kaliwono dari jabatannya sebagai Direktur Utama.Mengangkat:I. Danang Parikesit sebagai Komisaris.II. Agung Wicaksono sebagai Direktur Utama.III. Welfizon Yuza sebagai Direktur Keuangan.IV. Achmad Izzul Waro sebagai Direktur Pelayanan dan Pengembangan.Kipas angin, alat pemadam kebakaran, dan sejumlah fasilitas telah terpasang di Transjakarta koridor 13. Toilet pun telah tersedia.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta - Pesawat Lion Air rute Jakarta-Pangkal Pinang dipastikan jatuh setelah dilaporkan hilang kontak. Pesawat dengan nomor penerbangan JT 610 itu jatuh di area Mike, lapangan minyak lepas pantai blok ONWJ milik Pertamina milik di laut utara Bekasi."Kamis sudah dapat informasi di area Mike tapi masih jauh dari anjungan kita. Cuma kapal patroli kita menyaksikan Jam 6.33 WIB jatuh di dekat Bekasi," ujar Juru Bicara Pertamina Hulu Energi, Ifki Sukarya saat dihubungi Liputan6.com di Jakarta, Senin (29/10/2018).Baca JugaPesawat Lion Air rute Jakarta-Pangkal Pinang dilaporkan hilang kontak. Badan SAR Nasional (Basarnas) mendapat informasi pesawat dengan nomor JT 610 itu jatuh di Tanjung Karawang."Benar informasinya A1, jatuh di Tanjung Karawang," ujar Humas Basarnas Yusuf, saat dihubungi Liputan6.com di Jakarta, Senin (29/10/2018).Pesawat Lion Air itu dilaporkan hilang kontak usai lepas landas landas dari Bandara Internasional Soekarno-Hatta sekitar pukul 06.00 WIB. Pesawat tersebut sedianya akan mendarat di Pangkal Pinang.Dalam keterangan tertulis yang diterima dari Basarnas, ada saksi atas nama Suyadi yang mengaku melihat pesawat Lion Air jatuh di sekitar Tanjung Karawang. Saat ini pihak SAR Jakarta sedang bergerak ke lokasi koordinat kejadian untuk melakukan operasi SAR.Direktur Umum Lion Air Grup Edward Sirait saat dihubungi Liputan6.com, membenarkan pihaknya hilang kontak dengan pesawat rute Jakarta-Pangkal Pinang tersebut. Pihak Lion Airjuga tengah menelusuri informasi yang menyebutkan pesawat tersebut mendarat darurat di Halim dan Karawang."Masih simpang siur, ada yang bilang mendarat di Halim, ada yang bilang di Karawang. Kami lagi cek ke lokasi," ungkap Edward.KNKT menyelidiki insiden kecelakaan pesawat antara Lion Air dan Wings Air di landasan pacu bandara Kualanamu, Sumatera Utara.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta - Pesawat Lion Air dengan nomor JT 610, rute Jakarta-Pangkal Pinang jatuh di dekat Teluk Karawang, Senin 29 Oktober 2018.Sebelumnya, pesawat itu -- yang membawa 178 penumpang dewasa, 1 penumpang anak-anak dan 2 bayi, juga 2 pilot dan 5 pramugari-- dilaporkan hilang kontak setelah lepas landas dari Bandara Internasional Soekarno-Hatta sekitar pukul 06.00 WIB.Baca Juga"Pesawat type B737-8 MAX (Boeing 737 MAX 8) dengan Nomor Penerbangan JT 610 milik operator Lion Air yang terbang dari Bandar Udara Soekarno Hatta, Banten menuju Bandar Udara Depati Amir di Pangkal Pinang, dilaporkan telah hilang kontak pada 29 Oktober 2018 pada sekitar pukul 06.33 WIB," jelas Kepala Bagian Kerja Sama dan Humas Direktorat Jenderal Perhubungan Udara Kemenhub Sindu Rahayu, dalam keterangan yang diterima oleh Liputan6.com.Kecelakaan itu cukup mengejutkan karena, pesawat terbang tersebut merupakan salah satu keluaran terbaru Boeing, tipe Boeing 737 MAX 8 registrasi PK-LQP.Merespons kabar bahwa salah satu produk terbarunya mengalami kecelakaan nahas, pihak Boeing segera memberikan tanggapan melalui akun Twitter resminya;Boeing is aware of reports of an airplane accident and is closely monitoring the situation."Boeing mengetahui laporan tentang kecelakaan pesawat (itu) dan secara dekat memonitor situasi," demikian seperti dikutip dari akun Twitter @BoeingAirplanes, Senin (29/10/2018).Menurut laporan dari akun Twitter situs pemantau dunia kedirgantaraan Flight Radar 24, pesawat Boeing 737 MAX 8 registrasi PK-LQP, bermesin dua CFM LEAP-1B itu dikirim oleh pihak Boeing kepada Lion Air pada Agustus 2018.The flight was operated by Boeing 737 MAX 8 registration PK-LQP. The aircraft was delivered to Lion Air in August of this year. It is powered by two CFM LEAP-1B engines. https://t.co/Jv0z8vytv3 #JT610 pic.twitter.com/yCkR2PbMUaPesawat Boeing 737 MAX 8 itu pertama kali diperkenalkan ke publik pada 2017 silam, setelah dikirim langsung dari Boeing Company yang berbasis di Seattle, Amerika Serikat.Pihak Lion Air Group, dalam postingan di Twitter resminya tertanggal 3 Juli 2017, pernah mengunggah kedatangan pertama pesawat Boeing 737 MAX 8.Selamat datang Boeing #737Max 8! @BoeingAirplanes pic.twitter.com/WCOh89VoarPihak Lion Air sendiri diketahui memesan total 218 unit Boeing 737 MAX 8. Pesawat itu melayani penerbangan Arab Saudi, Korea, China, dan seluruh rute domestik.JatuhTim perespons Basarnas di perairan Teluk Karawang telah menemukan puing yang diduga berasal dari pesawat penerbangan Lion Air JT 610 tersebut.Dalam laporannya, Flight Radar 24 menjelaskan, "Data awal menunjukkan adanya peningkatan kecepatan dan penurunan altitudo pada transmisi akhir." Mengindikasikan, pesawat itu jatuh menukik.We are downloading and processing granular ADS-B data that was transmitted by the aircraft, but preliminary data show an increase in speed and decrease in altitude at last transmission. #JT610Belum ada penjelasan resmi dari otoritas Indonesia terkait penyebab jatuhnya pesawat itu.Simak video pilihan berikut:Keluarga korban yang tiba pun langsung didata petugas, baik dari kepolisian, TNI, Basarnas dan pihak bandara.Kabar mengenai insiden ini seketika menyebar di berbagai pemberitaan global. Situs berita terkemuka di Singapura, The Straits Times, menuliskan berita terkait dengan judul "Pesawat Lion Air yang Membawa 178 Penumpang, Jatuh ke Laut Sesaat Setelah Lepas Landas dari Jakarta". Berita itu menyoroti jumlah penumpang yang disebutkan oleh juru bicara Basarnas, Yusuf Latif.Kantor berita BBC juga melaporkan hal serupa, di mana fokus beritanya mengatakan pesawat Lion Air jatuh di perairan di timur laut Jakarta.Ditambahkan oleh The Guardian, bahwa pesawat nahas tersebut merupakan kasus yang pertama kali terjadi pada armada Boeing 737-8 Max, di mana notabene termasuk baru di kelasnya.Sementara kabar yang menekankan pada momen hilangnya kontak pesawat Lion Air diturunkan oleh sebagian besar situs berita terkemuka dunia, seperti CNBC, ABC News, News Australia, Seattle Times, Telegraph, dan Fox News.Situs berita The Guardian dan CNN bahkan memasang update linimasa, yang terus mengabarkan perkembangan terbaru tentang jatuhnya pesawat Lion Air JT 610.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta - Manajemen Pesawat Lion air memberangkatkan 20 penumpang dari 10 keluarga korban pesawat Lion Air JT 610 rute Jakarta-Pangkalpinang yang jatuh di perairan Tanjung Karawang, Jawa Barat."Ditahap awal ini kita berangkatkan 20 orang dari 10 keluarga dulu, dengan pesawat pukul 12.40 WIB," kata Gubernur Bangka Belitung Erzaldi Rosman Djohan di Pangkalpinang, Senin (29/12/2018).Baca JugaErzaldi menambahkan, seluruh biaya bagi para keluarga korban Lion Air jatuh akan ditanggung oleh pihak maskapai Lion Air. Segera setelah keberangkatan pertama selesai, tahap berikutnya akan segera dipersiapkan."Untuk keluarga korban yang belum mendata, silahkan mendata diri agar dapat diberangkatkan segera," ujarnya.Dia juga mengimbau semua keluarga korban yang akan diberangkatkan diharap membawa foto korban Lion Air untuk memudahkan petugas di Jakarta."Kita minta keluarga korban yang akan berangkat harus membawa foto lengkap dan jekas dari korban agar memudahkan petugas kita di Jakarta," ujarnya.Kronologi jatuhnya Pesawat Lion Air di perairan Tanjung Karawang berawal dari hilang kontak setelah lepas landas dari Bandara Internasional Soekarno-Hatta pukul 06.20 WIB.Setelah 13 menit mengudara atau pada 06.33 WIB, pesawat Lion Air jatuh di koordinat S 5’49.052” E 107’ 06.628” atau di sekitar Karawang. Pesawat mengangkut 178 penumpang dewasa, satu penumpang anak-anak dan dua penumpang bayi, termasuk dalam penerbangan ini ada tiga pramugari sedang pelatihan dan satu teknisi. Totalnya 189 orang.Pesawat dengan regitrasi PK-LQP jenis Boieng 737 MAX 8 itu buatan 2018 dan baru dioperasikan Lion Air 15 Agustus 2018 serta dinyatakan laik operasi.Saksikan video pilihan di bawah ini:Pihak keluarga korban penumpang Lion JT 610 mulai mendatangi Posko di Bandara Soetta. Mereka menanyakan nasib keluarga mereka yang menumpang pesawat lion JT 610 yang jaryu di Perairan Karawang</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta - Setekah sekian lama, Maia Estianty akhirnya melepas status jandanya. Ibu tiga anak itu kini resmi menjadi istri pengusaha Iwan Mussry setelah keduanya melangsungkan pernikahan di Tokyo, Jepang.Sebagai sahabat, artis Teuku Zacky ikut berbahagia. Kabar pernikahan tersebut diketahui Teuku Zacky, setelah Maia Estianty mengumumkan melalui grup aplikasi Whatsapp-nya bahwa ia dan Iwan Mussry kini telah resmi menjadi suami istri.Baca Juga"Di grup kita, sudah dideklarasikan bahwa ia (Maia Estianty) sudah nikah," ucap Teuku Zacky saat dihubungi melalui sambungan telpon, Senin (29/10/2018).Setelah memberitahukan kepada teman-temannya, Maia Estianty lalu mengumumkannya melalui akun Instagram miliknya. Meski tak menjelaskan secara langsung dirinya telah menikah, tetapi jelas Maia Estianty menyatakan dirinya kini telah bersuami."Sudah sah sekarang, kan sudah ada di Instagram dan di mana-mana," kata Teuku Zacky.Melalui akun Instagramnya, Maia Estianty sempat mengungkapkan perasaan hatinya.Ia tampak tengah berbahagia lantaran kini dirinya tak lagi sendiri dan telah memiliki teman hidup."Aku ingin berbahagia seperti hari ini, selamanya," tulis Maia Estianty.Diyakini, pernikahan Maia Estianty dan Irwan Mussry dilangsungkan di sebuah masjid berasitektur megah, Masjid Tokyo Camii &amp; Turkish Culture Center. Tempat ibadah ini terletak di kawasan distrik Shibuya, Tokyo.Dugaan ini diperkuat dengan unggahan foto di Instagram Stories kekasih Al Ghazali, Alyssa Daguise. Pada Senin siang, Alyssa mengunggah foto bagian interior dan eksterior Tokyo Camii &amp; Turkish Culture Center.Dalam foto tersebut, Alyssa Daguise juga membubuhkan keterangan yang mendeskripsikan kebahagiaan. "A day full of happiness," tulisnya dengan menyertakan simbol hati.Al Ghzali dan Dul Jaelani, anak-anak Maia terbang ke Tokyo dari Jumat lalu. Sementara, El Rumi, anak kedua Maia-Dhani kini sedang kuliah di London, Inggris.First Look Film Gundala</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta Keceplosan. Itulah yang terjadi pada Presiden Joko Widodo atau Jokowi. Ia mengaku keceplosan menyebut politikus sontoloyo.Pangkalnya, rencana Jokowi menggelontorkan dana kelurahan pada 2019 menuai kritik dari lawan politik. Padahal, rencana penganggaran dana kelurahan, yang masih dibahas payung hukumnya itu, merupakan usulan para wali kota.Baca JugaKondisi kurang lebih serupa juga dialami calon presiden nomor urut 2 Prabowo Subianto. Ia keceplosan berkampanye di hadapan anak-anak.Lantas, apa yang membuat Jokowi sampai keceplosan? Benarkah Prabowo berkampanye di hadapan anak-anak? Simak dalam Infografis berikut ini:</t>
+  </si>
+  <si>
+    <t>Palembang - Motif pembunuhan satu keluarga di Palembang yang diakhiri dengan bunuh diri akhirnya terkuak. Fakta mengpungkap, selain motif permasalahan keluarga, ditemukan sejumlah bukti salah satunya berupa rekaman yang menunjukkan FX (45) terlilit hutang Rp 8,9 miliar.Kapolda Sumsel Irjen Pol Zulkarnain Adinegara mengatakan, kasus tersebut dipastikan bunuh diri. Ini berdasarkan olah Tempat Kejadian Perkara (TKP) dan hasil ilmu investigasi serta keterangan keluarga.Baca JugaBahkan saat olah TKP, polisi mendapatkan rekaman suara dari Fransiskus pada pukul 00.46 WIB sebelum melakukan aksinya."Isinya hampir sama dengan pesan yang ditulis tangan, bahwa dia (FX) tidak rela meninggalkan istri dan anaknya. Karena mereka akan berat. Maafkan saya.. Maafkan saya... Maafkan saya," kata Zulkarnain memaparkan pesan suara tersebut seperti dikutip laman Jawapos, Senin (29/10/2018).Dari hasil olah TKP, polisi juga menemukan surat pengakuan utang milik korban. Artinya, aksi tersebut bukan hanya masalah gugatan cerai yang dilakukan istri. Melainkan adanya tekanan keuangan."Nanti semua yang berkaitan akan dimintai keterangan," ujarnya.Zulkarnain menekankan, keterangan itu hanya sebagai penambah data. Mengingat kasus ini merupakan bunuh diri. Sehingga kasusnya ditutup."Belum ada laporan ke polda soal pihak-pihak yang dirugikan. Tapi meskipun ada, kasus ini sudah ditutup karena pelaku sudah melakukan bunuh diri," tandasnya.Sebelumnya diberitakan, kehebohan terjadi di Perumahan Vila Kebon Sirih, Kelurahan Bukit Sangkal, Kecamatan Kalidoni, Kota Palembang, Sumatera Selatan (Sumsel), Rabu (24/10). Satu keluarga yang tinggal di rumah Blok A18 ditemukan tewas. Di tubuh mereka ditemukan luka tembak.Satu keluarga yang ditemukan tewas terdiri atas empat orang, yaitu FX (45), ML (43), RF (18), dan KF (11).Berdasarkan informasi, keempat jenazah pertama kali ditemukan sang pembantu rumah tangga bernama Nanang (42). Pada pukul 06.00 WIB, Nanang berniat membangun majikannya. Namun, keempat anggota keluarga sudah ditemukan tewas di kamarnya masing-masing."Anak korban ditemukan tertelungkup di kamarnya. Sedangkan ayah dan ibunya tewas di kamar atas," kata Nanang saat ditemui di lokasi kejadian.Baca juga berita Jawapos.com lainnya di sini.Simak juga video pilihan berikut ini:Polda Sumatera Selatan memastikan Fransiskus Xavarius Ong sebagai pembunuh satu keluarga di Palembang, Sumatera Selatan. Fransiskus adalah kepala keluarga yang akhirnya bunuh diri.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Cesena - Sebuah kabar duka datang dari dunia otomotif. Mantan juara dunia MotoGP 2006, Nicky Hayden meninggal dunia pada Senin, 22 Mei 20178, setelah mengalami koma selama lima hari akibat kecelakaan di Rumini, Italia.Seperti ditayangkan Liputan 6 Pagi SCTV, Selasa (23/5/2017), kabar kematian Nicky Hayden disampaikan pihak Rumah Sakit Maurizio Bufalini di Cesena, tempat ia menjalani perawatan intensif lima hari terakhir.Hayden sempat berada dalam kondisi kritis, mengalami koma sejak 17 Mei lalu. Hayden menderita luka parah di kepala dan dada akibat ditabrak mobil ketika bersepeda.Pembalap asal Amerika Serikat berjuluk "The Kentucky Kid" ini mempunyai karir gemilang di arena balap MotoGP. Ia pernah menjadi juara MotoGP pada 2006, sekaligus menumbangkan dominasi pebalap Yamaha--Walentino Rossi, saat itu.Kepergian pembalap 35 tahun itu meninggalkan duka mendalam bagi dunia balap motor. Rekan-rekan Hayden sesama pembalap MotoGP menyampaikan ungkapan duka cita dan kehilangan atas kepergiaan pria kelahiran Kentucky Amerika Serikat tersebut.Pihak keluarga meminta rekan dan penggemar untuk mengenang Nicky Hayden di tempat yang paling disukainya yaitu berkendara di atas sepeda motor.Saksikan video mantan juara dunia MotoGP Nicky Hadyen wafat setelah koma 5 hari.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Bandung - Lembaga Antariksa dan Penerbangan Negara (LAPAN) menyatakan tidak ada gangguan arah angin di kawasan Laut Jawa saat insiden pesawat Lion Air jatuh di Tanjung Karawang, Jawa Barat. Satu-satunya gangguan cuaca yang berdampak ke wilayah Indonesia umumnya, dan Laut Jawa pada khususnya adalah siklon tropis di Filipina.Menurut anggota tim variabilitas iklim 2018 Pusat Sains dan Teknologi Atsmosfer (PSTA) LAPAN, Erma Yulihastin, siklon tropis di Filipina itu hanya berdampak terjadinya pembentukan awan hujan di Indonesia pada sepekan terakhir.Baca JugaSementara untuk arah angin, didominasi angin timuran dari Australia dan ada peralihan dengan adanya angin dari Asia yang masuk ke Laut Jawa."Kalau lihat dari kondisi di Laut Jawanya sendiri selama sepekan terakhir, itu masih dominan angin timuran atau angin musim kemarau. Sehingga memang seharusnya tidak terlalu banyak potensi cuaca ekstrem di laut yang disebabkan karena anginnya masih dominan angin timur seperti itu," kata Erma melalui telepon, Bandung, Senin (29/10/2018).Erma menjelaskan, rekaman hasil prediksi dari Sadewa LAPAN pada pukul 06.00 WIB tadi, memperlihatkan kondisi angin pada ketinggian sekitar 1,5 kilometer per jam dengan kekuatan antara 1-2 meter per detik.Sedangkan kondisi awan tebal tebal, kata Erma, pantuan satelit menunjukkan bahwa awan terkonsentrasi dari Utara Jakarta dan tidak tertangkap adanya awan badai dalam skala meso seperti Tornado, puting beliung, angin darat dan laut.Erma menuturkan untuk mengetahui gangguan cuaca dalam secara rinci, dibutuhkan analisa terhadap cuaca dalam skala lokal. Dia menyebutkan hal itu untuk mengetahui potensi cuaca yang dapat membangkitkan tubulensi parah semisal wind brust (angin yang memotong jalur) atau down brust (angin cepat dari dari atas ke bawah)."Diperlukan analisa secara lebih dalam untuk hal ini mengingat kondisi cuaca secara lokal, sehingga kemungkinannya dapat diketahui," ujar Erma.Sedangkan Badan Meteorologi dan Klimatologi Geofisika (BMKG), sebelumnya menyatakan tak ada gangguan cuaca saat pesawat Lion Air jatuh.Pesawat Lion Air type B737 Max dengan nomor penerbangan JT 610 itu dilaporkan hilang kontak seikar pukul 06.33 WIB saat melakukan penerbangan dari Bandar Udara Soekarno - Hatta, Banten menuju Bandar Udara Depati Amir di Pangkalpinang.Pada saat ini proses evakuasi terhadap pesawat milik maskapai Lion Air dengan nomor registrasi PK-LQP yang dilaporkan terakhir tertangkap radar pada koordinat 05 46.15 S - 107 07.16 E tengah berlangsung. Informasi yang tersiar, pesawat sempat meminta return to base sebelum beberapa saat usai hilang dari jangkauan radar.Saksikan video menarik berikut ini:Para selebriti tanah air  berduka atas terjadinya kecelakaan pesawat Lion Air #JT 610. Mereka menyampaikan ucapan duka lewat media sosial</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta - Kesedihan atas kabar jatuhnya pesawat Lion Air JT-610 di Tanjung Karawang, Jawa Barat, bukan saja dirasakan keluarga korban. Tasya Kamila, bukan hanya sedih tapi juga deg-degan.Bagaimana tidak, Randi W Bachtiar, terbang di hari yang sama. Kepergian suami Tasya Kamila, hanya berbeda 10 menit sebelum pesawat Lion Air JT-610 terbang.Baca JugaHal itu diungkapkan Tasya Kamila di Instagram Story nya, Senin (29/10/2018). Ia tak menyangka pesawat Lion Air mengalami musibah."Inalillahi wa innailaihi rajiun.. Sedih dan merinding bgt bacanya, pswtnya cm beda 10 menit take off nya sm flight suamikuu pagi ini," tulis Tasya Kamila dengan memberi emotikon menangis.First Look Film GundalaDiketahui pesawat Lion Air JT-610 diterbangkan dari Bandara Soekarno pukul 06.33 WIB Hatta menuju Pangkal Pinang. Pesawat itu mengangkut 189 orang penumpang dan awak pesawat.Maskapai Lion Air berduka cita atas kecelakaan pesawatnya dengan nomor penerbangan JT 610 rute penerbangan Jakarta - Pangkalpinang. Sebagai bentuk duka cita, perusahaan mengubah warna laman utama situs web lionair.co.id menjadi hitam putih.Pantaun tim Tekno.Liputan6.com, Senin (29/20/2018), saat lionair.co.id dibuka, maka laman utamanya tampak didominasi warna hitam dan putih. Selain itu, juga ada informasi tentang kecelakaan yang terjadi. (Amrikh Palupi/dream.co.id)</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta - Pihak Boeing, selaku produsen pesawat maskapai Lion Air Penerbangan JT 610 yang jatuh di Teluk Karawang pada Senin 29 Agustus 2018, mengeluarkan pernyataan lengkap seputar insiden nahas tersebut.Sebelumnya, pesawat itu -- yang membawa 178 penumpang dewasa, 1 penumpang anak-anak dan 2 bayi, juga 2 pilot dan 5 pramugari-- dilaporkan hilang kontak setelah lepas landas dari Bandara Internasional Soekarno-Hatta sekitar pukul 06.00 WIB.Kecelakaan itu cukup mengejutkan karena, pesawat terbang tersebut merupakan salah satu keluaran terbaru Boeing, tipe Boeing 737 MAX 8 registrasi PK-LQP.Baca JugaMerespons kabar bahwa salah satu produk terbarunya mengalami kecelakaan nahas, pihak Boeing segera memberikan tanggapan melalui laman resminya:"Kementerian Perhubungan Indonesia telah mengonfirmasi bahwa mereka menemukan lokasi puing dari Lion Air Penerbangan JT 610, sebuah (Boeing tipe) 737 MAX 8 yang berangkat dari Jakarta ke Pangkal Pinang," demikian seperti dikutip dari laman resmi Boeing, Senin (29/10/2018)."The Boeing Company sangat berduka atas kecelakaan JT 610. Kami turut berduka kepada mereka yang ikut dalam penerbangan, juga bersimpati kepada para keluarga dan yang tercinta (dari para korban).""Boeing bersiap untuk memberikan bantuan teknis untuk penyelidikan kecelakaan. Selaras dengan protokol internasional, seluruh penyelidikan tentang kecelakaan aviasi, harus dilaksanakan di bawah wewenang Komite Nasional Keselamatan Transportasi (KNKT)."Pesawat Boeing 737 MAX 8 pertama kali diperkenalkan ke publik oleh Lion Air Group pada 2017 silam, setelah dikirim langsung dari Boeing Company yang berbasis di Seattle, Amerika Serikat.Pihak Lion Air Group, dalam postingan di Twitter resminya tertanggal 3 Juli 2017, pernah mengunggah kedatangan pertama pesawat Boeing 737 MAX 8.Selamat datang Boeing #737Max 8! @BoeingAirplanes pic.twitter.com/WCOh89VoarPihak Lion Air sendiri diketahui memesan total 218 unit Boeing 737 MAX 8. Pesawat itu melayani penerbangan Arab Saudi, Korea, China, dan seluruh rute domestik.Simak video pilihan berikut:Pesawat Lion Air JT 610 dinyatakan jatuh di perairan Karawang, Jawa Barat. Basarnas mulai menurunkan tim penyelam untuk mencari kemungkinan korban.Tim perespons Basarnas di perairan Teluk Karawang telah menemukan puing yang diduga berasal dari pesawat penerbangan Lion Air JT 610 tersebut.Dalam laporannya, Flight Radar 24 menjelaskan, "Data awal menunjukkan adanya peningkatan kecepatan dan penurunan altitudo pada transmisi akhir." Mengindikasikan, pesawat itu jatuh menukik.We are downloading and processing granular ADS-B data that was transmitted by the aircraft, but preliminary data show an increase in speed and decrease in altitude at last transmission. #JT610Belum ada penjelasan resmi dari otoritas Indonesia terkait penyebab jatuhnya pesawat itu.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta - Menteri Perhubungan Budi Karya Sumadi angkat suara terkait dengan pembebasan tarif Jembatan Tol Surabaya-Madura (Suramadu). Menurutnya, dengan digratiskannya tarif tol tersebut akan memberikan dampak yang besar kepada masyarakat."Sebagai Menteri Perhubungan bicara tentang konektifitas seperti apa yang saya lakukan kemarin seperti di Sumatera Selatan. Bahwa konektifitas itu memang harus di-design dan dilaksanakan sebagai bagian untuk kemaslahatan masyarakat rakyat," kata Budi saat ditemui di Hotel Fairmont, Jakarta, Senin (29/10/2018).Baca JugaDengan pembebasan biaya pada jembatan Suramadu yang menghubungkan Pulau Jawa ke Pulau Madura itu juga akan memberikan dampak di sektor-sektor industri kawasan tersebut. Terlebih akan mendorong sektor perekonomian di kawasan tersebut."Saya bayangin kalau itu gratis industri Madura itu bisa berkembang pesat, penduduknya banyak saya harapkan madura maju," imbuhnya."Kenapa digratiskan? agar ekonomi Madura, pariwisata dan investasi tumbuh. katakanlah tadi turisnya 100 jadi 150, katakanlah investasi dari 10 jadi 20, angka cost yang signifikan ada di sana," tambahnya.Sebelumnya, Presiden Joko Widodo (Jokowi) menggratiskan tarif Jembatan Tol Surabaya-Madura (Suramadu) mulai Sabtu (27/10) ini. Fungsi jembatan tersebut saat ini berubah menjadi jalan umum dari semula jalan tol."Betul (tarif tol Suramadu gratis)," ungkap Direktur Utama Jasa Marga Desi Arryani kepada Liputan6.com.Sementara itu, AVP Corporate Communications Jasa Marga Dwimawan Heru menyatakan, pembebasan tarif ini telah diatur dalam Peraturan Presiden (Perpres) yang kemudian mengubah fungsi Jembatan Suramadu dari tol menjadi jalan umum.Heru menambahkan, misi menggerakkan ekonomi kawasan merupakan faktor utama penghapusan tarif tersebut. "Hal ini dalam rangka percepatan pengembangan ekonomi kawasan Surabaya Madura," sambungnya.Jembatan Suramadu diresmikan pada Juni 2009 silam. Dalam perjalanannya, pemerintah sempat memangkas tarif sebesar 50 persen pada 2016, sementara kendaraan roda dua diberi kelonggaran tak dikenai ongkos masuk.Adapun pengenaan tarif Jembatan Tol Suramadu sebelum digratiskan yakni:- Golongan I (sedan, jip, pick up/truk kecil, dan bus), Rp 15 ribu- Golongan II (trik dengan dua gandar), Rp 22.500- Golongan III (truk dengan tiga gandar), Rp 30 ribu- Golongan IV (truk dengan empat gandar), Rp 37.500- Golongan V (truk dengan lima gandar), Rp 45 ribu.Presiden menyatakan keputusan ini berdasarkan masukan dari berbagai pihak dengan tujuan untuk meningkatkan perekonomian di kawasan Pulau Madura.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta Real Madrid dipermalukan Barcelona 1-5 pada laga El Clasico, Minggu 28 Oktober 2018. Kekalahan menyakitkan ini membuat masa depan Julen Lopetegui sebagai pelatih Real Madrid kini sedang dalam situasi yang genting.Kondisi tersebut rupanya membuat simpati datang dari Ernesto Valverde. Padahal, pelatih Barcelona ini adalah adalah sosok yang ikut andil membuat masa depan Lopetegui di Real Madrid kian buruk.Baca JugaPasca kekalahan di laga pekan ke-10 La Liga musim 2018/19 tersebut, Lopetegui disebut akan segera dipecat. Bahkan, Real Madrid juga dikabarkan telah sepakat untuk menunjuk Antonio Conte sebagai pelatih baru pengganti Lopetegui.Valverde menilai apa yang terjadi dengan pelatih Real Madrid ini, bukan keputusan yang adil. Namun, di sisi lain, pemecatan juga merupakan resiko bagi seorang pelatih dan mungkin hal tersebut akan menimpa dirinya juga.AS Roma, Valverde, Barcelona, Berita Video, Liga ChampionsErnesto Valverde mengakui punya hubungan yang baik dengan Julen Lopetegui. Karena itu dia ikut prihatin dengan kondisi sang teman. Akan tetapi, Valverde juga sadar bahwa dia bisa saja mengalami nasib yang sama dengan Lopetegui, bahkan tiga pekan ke depan."Pelatih menanggung beban yang berat. Seperti itulah sepakbola, aneh dan pelatih selalu menjadi sorotan. Saya punya hubungan yang baik dengan Lopetegui. Saya tidak ikut campur dalam masalah ini," buka Valverde."Pemecatan pelatih bukan keputusan yang adil," imbuhnya dikutip dari Football Espana."Tapi, saya tahu bahwa ini adalah periode yang sulit bagi Lopetegui. Hanya saja, kondisi yang sama mungkin saya besok atau tiga minggu ke depan akan menimpa saya. Itu bisa saja terjadi," tandas eks pelatih Atletic Bilbao.Di balik simpatinya untuk Julen Lopetegui, Ernesto Valverde memberikan apresiasi yang tinggi kepada para pemain Barcelona. Pelatih 54 tahun secara khusus memberikan pujian kepada Luis Suarez yang sukses mencetak hattrick ke gawang Madrid."Luis Suarez? Kerja kerasnya selama ini akhirnya berbuah hadiah. Hattrick adalah konsekuensi logis dari semua yang sudah dia lakukan. Suarez selalu berada di sana," puji Valverde.Sumber: bola.net</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta - Pesawat Lion Air rute Jakarta-Pangkal Pinang dipastikan jatuh setelah dilaporkan hilang kontak. Pesawat dengan nomor penerbangan JT 610 itu jatuh di area Mike, lapangan minyak lepas pantai blok ONWJ milik Pertamina milik di laut utara Bekasi."Kami sudah dapat informasi di area Mike tapi masih jauh dari anjungan kita. Cuma kapal patroli kita menyaksikan Jam 6.33 WIB jatuh di dekat Bekasi," ujar Juru Bicara Pertamina Hulu Energi, Ifki Sukarya saat dihubungi Liputan6.com di Jakarta, Senin (29/10/2018).Baca JugaPesawat Lion Air rute Jakarta-Pangkal Pinang dilaporkan hilang kontak. Badan SAR Nasional (Basarnas) mendapat informasi pesawat dengan nomor JT 610 itu jatuh di Tanjung Karawang."Benar informasinya A1, jatuh di Tanjung Karawang," ujar Humas Basarnas Yusuf, saat dihubungi Liputan6.com di Jakarta, Senin (29/10/2018).Pesawat Lion Air itu dilaporkan hilang kontak usai lepas landas landas dari Bandara Internasional Soekarno-Hatta sekitar pukul 06.00 WIB. Pesawat tersebut sedianya akan mendarat di Pangkal Pinang.Dalam keterangan tertulis yang diterima dari Basarnas, ada saksi atas nama Suyadi yang mengaku melihat pesawat Lion Air jatuh di sekitar Tanjung Karawang. Saat ini pihak SAR Jakarta sedang bergerak ke lokasi koordinat kejadian untuk melakukan operasi SAR.Direktur Umum Lion Air Grup Edward Sirait saat dihubungi Liputan6.com, membenarkan pihaknya hilang kontak dengan pesawat rute Jakarta-Pangkal Pinang tersebut. Pihak Lion Airjuga tengah menelusuri informasi yang menyebutkan pesawat tersebut mendarat darurat di Halim dan Karawang."Masih simpang siur, ada yang bilang mendarat di Halim, ada yang bilang di Karawang. Kami lagi cek ke lokasi," ungkap Edward.KNKT menyelidiki insiden kecelakaan pesawat antara Lion Air dan Wings Air di landasan pacu bandara Kualanamu, Sumatera Utara.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta Kepala Pusat Data Informasi dan Humas Badan Nasional Penanggulangan Bencana (BNPB) Sutopo Purwo Nugroho menyebut, tim SAR akan melakukan penyelaman untuk mencari pesawat Lion Air JT 610 yang jatuh di perairan Karawang."Saat ini tim SAR Basarnas melakukan penyelaman dikoordinat 05 derajat 90' 361" S - 107 derajat 06' 618" E untuk mencari pesawat Lion Air JT 610 yang jatuh di perairan Karawang Jawa Barat," tulis Sutopo melalui akun Twitter  pribadinya @Sutopo_PN, Senin (29/10/2018).Baca JugaSelain petugas, tim SAR juga menurunkan Remote Underwater Vehicle (RUV) atau robot di bawah air untuk mendeteksi keberadaan pesawat di bawah laut.Pesawat Lion Air JT 610 rute Jakarta-Pangkal Pinang membawa 189 orang, termasuk penumpang dan kru pesawat. Penumpang itu terdiri dari 178 orang dewasa, 1 anak-anak, dan 2 bayi (infant).Untuk kru pesawat terdiri dari 2 kokpit kru dan 6 orang awak kabin.Pesawat Lion Air dilaporkan hilang kontak 13 menit setelah take off dari Bandara Soekarno Hatta pada 06.20 WIB. Pesawat telah dipastikan terjatuh di Tanjung Karawang.Saksikan video pilihan di bawah ini:Pesawat Lion Air JT 610 dinyatakan jatuh di perairan Karawang, Jawa Barat. Basarnas mulai menurunkan tim penyelam untuk mencari kemungkinan korban.Keluarga penumpang pesawat Lion Air JT 610 mendatangi Gedung Basarnas. Mereka memastikan kabar jatuhnya pesawat JT 610 jurusan Jakarta-Pangkalpinang pada Senin pagi (29/10/2018).Salah seorang keluarga penumpang, Feni mengatakan, di dalam pesawat Lion Air jatuh, ada empat anggota keluarganya. Di antaranya ada adik, calon suami adiknya, dan ayah dari calon suami adiknya, dan satu kerabat lainnya.Kedatangannya ke Basarnas khusus untuk mencari informasi atas kecelakaan tersebut. "Ke sini untuk cari informasi," ujarnya.Feni yang datang bersama Andi mengatakan, keempat anggota keluarganya berangkat ke Pangkalpinang untuk pertemuan keluarga. Dia mengaku mendapat informasi jatuhnya pesawat sekitar pukul 08.00 WIB."Tadi pagi dapat kabar kecelakaan jam delapan," ujar dia.Dia mengaku, pihak keluarga belum mendapat kabar dari Lion Air terkait peristiwa ini. "Belum dikabari sama sekali," pungkas Feni.(Liputan6.com/Melissa Octaviani)</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta Pelek kadang terlupakan saat sedang mencuci mobil. Padahal, bagian ini juga harus mendapatkan perawatan rutin supaya dapat berfungsi dengan optimal dan tidak mudah rusak.Mengutip dari Mobiloil.com, karena berada di bagian bawah, pelek mobil lebih mudah terkena kotoran, debu, dan bisa jadi oli yang tak sengaja menetes.Baca JugaMembersihkannya pun cukup mudah, cukup siapkan sikat gigi dan spon besar yang halus. Tak lupa, sediakan sabun untuk menghilangkan kotoran dan kerak yang menempel.Pada saat pembersihan, gosok pelek dari atas ke bawah supaya kotoran tidak semakin melebar. Setelah itu, diamkan sejenak supaya zat kimia pada sabun bereaksi. Waktu mendiamkannya tergantung pada sabun yang dipakai.Kemudian, bersihkan sisa-sisa sabun sampai benar-benar bersih dan kering. Hal itu harus dilakukan supaya tidak ada bercak air pada pelek yang justru bisa membuat debu mudah menempel.Jika perlu, poles pelek dengan wax atau pun cairan pelindung lainnya. Hal ini tentu akan membuat pelek bersih lebih lama dan mencegah debu dan kotoran menempel.Sumber: Otosia.comMengganti pelek pada mobil adalah salah satu langkah yang tepat untuk mendongkrak penampilan. Bahkan, bagi sebagian orang, pelek juga merupakan ajang pembuktian kemapanan dan jati dirinya. Bagaikan sebuah sepatu, semakin terlihat menarik, semakin akan membuat mata melirik.Dan seperti sepatu juga, ukuran yang salah akan membuat kaki sakit dan perjalanan terasa tidak menyenangkan. Patut diingat juga, ban dan pelek adalah yang bagian terakhir dari proses distribusi tenaga, yang menggerakkan mobil. Namun ban dan pelek adalah bagian pertama yang akan berhadapan dengan medan jalan.BACA JUGAKarena itu, bagian ini adalah yang menarik karena memiliki berbagai fungsi: menggerakkan mobil, meredam permukaan jalan, sekaligus menjadi pelengkap kebanggaan pemilik mobil. Karena itu, perhatikan beberapa hal di bawah ini, sebelum mengganti pelek.Tambah UkuranMenambah ukuran pelek dan ban, mampu membuat tampilan mobil menjadi lebih enak dipandang. Bahkan Daihatsu Midget (Bemo) pun terlihat lebih mahal saat disematkan pelek besar. Namun tentunya ada aturan yang harus diperhatikan saat akan mengganti ban dan pelek yang lebih besar dari ukuran standar. Misalkan pelek standar Anda adalah 15 inci, dan berniat untuk naik menggunakan 17 inci. Yang harus Anda perhatikan adalah ruang di dalam fender.Dengan bertambahnya dimensi pelek dan ban, tentunya memerlukan ruang ekstra, agar ban tidak menggerus bagian dalam ataupun bibir fender saat bermanuver, atau suspensi berartikulasi. Konsultasikan dengan bengkel Anda, berapa ukuran maksimal pelek dan ban yang bisa muat di mobil Anda. Kalaupun 'memaksakan' dengan melakukan modifikasi pada bagian tertentu agar pelek besar bisa muat, pastikan modifikasi tersebut tetap aman untuk mobil Anda.Jangan Sembarang Ganti PCD PelekPCD (Pitch Circle Diameter) adalah diameter pola baut pada roda. Kalau Anda perhatikan, jarak antar baut di roda, bisa berbeda pada setiap merek. Misalnya mobil A memiliki empat baut dengan ukuran PCD 100 mm (atau biasa disebut dengan PCD 100 saja), sedangkan mobil B memiliki PCD 114. Jangan harap kedua mobil tersebut bisa berbagi pelek. Karena itu, produsen pelek biasanya menyediakan beragam pilihan PCD dan jumlah baut. Banyak yang memodifikasi jumlah baut roda ataupun PCD-nya agar bisa memasangkan pelek idaman, atau bahkan ada yang bisa menyesuaikan jumlah dan PCD baut di pelek itu sendiri.Hal itu terserah saja, meski kami tidak pernah menyukai perubahan seperti ini. Bukan apa-apa, seperti yang disebutkan tadi, ban dan pelek adalah dua hal yang menjadi satu kesatuan, dan benda pertama yang akan 'merasakan' benturan dari permukaan jalan. Perubahan PCD, perubahan jumlah baut, hingga memodifikasi pelek memiliki berbagai resiko karena merubah kekuatan dan geometri sistem penggerak. Anda tentunya tidak mau kalau tiba-tiba pelek pecah, atau jadi bahan tertawaan karena ban menggelinding menjauhi mobil, bukan? Selain jadi bahan tertawaan, nyawa juga jadi taruhannya.Perhatikan Bobot PelekBobot pelek tidak bisa dianggap enteng karena berbagai hal. Kita mulai dari yang paling sederhana. Dari sisi pengemudi, kalau terjadi pecah ban, pelek berat akan semakin membuat repot. Sesederhana itu? Ya. Tapi lebih dari itu, bobot pelek juga berpengaruh pada keselamatan dan efisiensi bahan bakar. Setiap pabrikan menghitung bobot dan ukuran ban serta pelek yang pas. Baik dari sisi teknis, maupun ekonomis.Sisi teknis disini berhubungan dengan berbagai hal, tapi kita ambil yang paling sederhana saja yaitu pengereman. Bayangkan seberapa besar daya rem (standar, bawaan pabrik) yang diperlukan untuk menghentikan mobil dengan pelek dan ban standar, kemudian jika pelek berdiameter besar, memiliki bobot yang berat, serta ban yang juga lebih besar dan tentunya lebih berat, bagaimana efeknya terhadap rem mobil Anda?Tentu, pengereman akan tetap membuat mobil Anda berhenti. Namun berapa jarak dan waktu yang diperlukan dengan menggunakan pelek aftermarket yang berat, itu yang harus diperhatikan. Kalau memang berniat mengganti dengan pelek yang lebih berat, pastikan Anda sambangi bengkel langganan untuk melakukan kalibrasi ulang terhadap daya pengereman. Hal lainnya adalah faktor ekonomis, dari sisi kita sebagai pengendara. Ban dan pelek yang berat akan membuat mesin bekerja ekstra, hanya untuk menggerakan roda. Mesin yang dipaksakan tentu saja akan membuat bensin lebih boros. Jadi, pikirkan dulu sebelum mengganti pelek dan ban.Sumber: Oto.comSebuah mobil menjadi pusat perhatian pengguna jalan lantaran di setiap sisi pelek dilindungi kawat menonjol.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta - Jenis obrolan kita terhadap orang yang kita suka berpengaruh besar pada hubungan. Jika semakin akrab dan nyambung satu sama lain, keakraban itu makin bertambah dan bisa ke tahap yang lebih intim sampai jadian.Baca JugaTak jarang banyak orang menggunakan beragam obrolan romantis saat sedang melakukan pendekatan. Alih-alih bikin terpesona lawan jenis, obrolan saat pendekatan malah berujung tak terduga.Dikutip dari berbagai sumber, begini potret obrolan kocak saat mencobaa PDKT. Bukannya bikin ke tahap jadian, obrolan ini justru sukses buat ketawa yang baca.1. Ketika sudah mati kutuSaksikan Video Pilihan di Bawah Ini:Seorang pria di Bekasi, Jawa Barat, diduga membunuh lelaki yang mendekati mantan pacarnya.ReporterNisa AkmalaSumber: Brilio.net</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta- Mengemudi saat hujan bukan jadi masalah besar untuk meninggalkan aktivitas sehari-hari. Hanya saja, Anda harus berhati-hati melakukannya.Selama musim hujan seperti saat ini pula, ada baiknya pengemudi tak hanya berhati-hati saat berkendara, tetapi juga harus lebih peduli untuk melakukan perawatan kendaraan.Baca JugaNah, dilansir situs Valour Digest, selama musim hujan, Anda bukan hanya wajib memperlambat laju kendaraan dan mempertahankan jarak aman, tetapi juga harus tahu cara merawat kendaraan dengan baik selama musim hujan.Adapun cara perawatan yang perlu dilakukan antara lain:1. Jagalah kebersihan mobil AndaBanyak berpendapat, musim hujan tak perlu membersihkan mobil, karena akan kotor kembali usai dibersihkan. Selain itu, membersihkan kotoran saat hujan, sangat tidak membahayakan.Tentu saja pendapat tersebut sangat salah. Sebab, membersihkan mobil adalah langkah baik. Sebab, air hujan meninggalkan endapan asam, yang lama kelamaan membuat bodi mobil Anda kusam dan berkarat.Sebalum mencuci, ada baiknya Anda menggunakan banyak air untuk menghilangkan endapan, kemudian siram dengan air, dan cuci menggunakan sabun, kain lembut, atau spon.Bagian yang wajib dibersihkan antara lain, bodi, jendela, lampu, dan juga kaca.Baterai atau aki mobil renta rusak saat musim hujan, padahal saat musim hujan aki akan sangat bermanfaat. Hal ini karena kerja baterai akan lebih banyak seperti menggerakkan wiper, radio, AC, atau lampu depan dan belakang.Tak hanya itu, periksa juga bagian kaki-kaki termasuk ban. Sebab, saat musim hujan, laju kendaraan bisa saja terjadi aquaplaning atau hydroplaning.Nah ban sendiri sangat berperan penting, karena ban bisa saja aus jadi harus diganti. Bahkan jika ban menabrak sesuatu, maka hal itupula perlu dilakukan pemeriksaan ekstra untuk mencegah adanya lecet atau benjol.3. Periksa bagian lampu-lampuBerkendara saat hujan tentunya aka membatasi visibilitas pengendara. Karena itu, saat hujan tiba cahaya dari lampu depan dan belakang sangat berguna sebagai penanda jarak kendaraan.Penggunaan lampu LED juga dikabarkan dapat memberikan cahaya lebih kuat, sehingga mempu meningkatkan keselamatan berkendara.Disarankan, saat mengemudi dalam kondisi hujan, maka jarak yang diperlukan tiga kali lebih jauh dari jarak normal. Hal ini dipercaya dapat memberikan ruang lebih banyak.Wiper memang kerap tidak digunakan berbulan-bulan. Hal ini Karena fungsi wiper dapat menyapu air hujan di jendela, sehingga visibilitas lebih terjaga. Namun karena wiper jarang digunakan, bukan tak mungkin hal itu justru membuat wiper rusak atau getas.Jika wiper rusak, ada baiknya dilakukan pergantian, sebab, jika fungsi wiper tidak optimal, maka hal itu tak dapat mampu menyapu air dengan sempurna.Begitu juga dengan sistem pengereman perlu dilakukan pengecekan,mulai dari bantalan rem, cakram, minyak ram, dan lainnya.5. Gunakan aksesori yang sangat membantu saat musim hujanAksesori bukan hanya sekadar part yang mempercantik tampilan saja. Sebab, ada beberapa aksesori yang sangat berguna kala masuk musim hujan, seperti halnya talang air.Selain itu ada beberapa bagian aksesori tambahan yang sangat berguna saat musim hujan antara lain boot trays untuk menyimpan sepatu, pedal caps, atau karet pelapis untuk pedal gas, rem atau kopling agar tak licin, hingga karpet karet.Genangan juga membuat warga yang beraktivitas di kawasan tersebut harus bersusah payah untuk melewatinya.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta Pilek dan batuk jadi masalah kesehatan yang kerap muncul ketika musim berganti. Saat tubuh dilanda batuk dan pilek, menjaga agar tubuh si Kecil kembali kuat menjadi prioritas utama.Ketika pilek dan batuk kemudian tenggorokan terasa sakit, sebaiknya mengawasi pola makan karena ternyata tidak semua makanan yang dianggap sehat bisa menyembuhkan dan meredakan derita selama pilek dan batuk. Dilansir dari Food NDTV, ini sekian makanan dan minuman yang sebaiknya dihindari selama tenggorokan sakit, pilek dan batuk.Baca Juga1. YogurtMeski sangat penting meningkatkan imunitas tubuh selama sakit, namun sayangnya minum yogurt tidak membantu banyak. Justru sebaliknya, konsumsi yogurt bisa memperparah riak batuk dan menyebabkan akumulasi cairan sehingga menyebabkan sulit bernapas.2. Susu dan kejuSepertinya ketika pilek dan batuk memang harusnya menghindari susu dan produk olahannya. Karena meskipun susu dan keju tinggi vitamin dan mineral, namun mengonsumsinya justru bisa mengentalkan cairan mukus atau lendir dan meningkatkan inflamasi.3. Makanan yang digorengTentu saja, sebaiknya tidak makan makanan berlemak apalagi digoreng karena bisa memperparah kondisi tenggorokan yang sudah sakit.4. Minuman bersodaMinuman bersoda juga bukan jenis minuman yang bisa diminum saat tenggorokan sakit karena bisa meningkatkan iritasi tenggorokan saat pilek dan batuk.5. Buah-buahan asamBuah mungkin sangat baik untuk kesehatan karena tinggi vitamin dan mineral, namun buah-buahan asam sebaiknya tidak dimakan dulu selama pilek dan batuk karena bisa menyakiti tenggorokan dan meningkatkan inflamasi.Jadi, sebaiknya pintar-pintar memilih makanan dan minuman selama tenggorokan sakit karena pilek dan batuk ya ladies.Reporter: Febi AnindyakiranaSumber: Vemale.com</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta - 10 Pegawai Badan Pemeriksa Keuangan (BPK) diduga menjadi korban jatuhnya pesawat Lion Air JT 610 rute Jakarta-Pangkal Pinang. Kepala BPK Moermahadi Soerja Djanegara membenarkan hal tersebut."Benar," ujar dia saat dikonfirmasi Liputan6.com, Senin (29/10/2018).Baca JugaBerdasarkan keterangan dari Kepala Bagian Pengelolaan Informasi BPK Lily, 10 orang yang menjadi korban jatuhnya pesawat Lion Air itu yakni Harwinoko, Martua Sahata, Dicky Jatnika, Achmad Sobih Inajatullah, Imam Riyanto, Yunita Sapitri, Yoga Perdana, Resky Amalia, Yulia Silviyanti, dan Zuiva Puspitaningrum."Kami turut berduka cita atas kejadian ini, dan akan terus memantau perkembangan lebih lanjut musibah tersebut. Terutama terkait dengan pegawai BPK yang menjadi penumpang di pesawat (Lion Air) tersebut," kata Lily.Pesawat Lion Air dengan nomor penerbangan JT 610 jatuh di Tanjung Karawang setelah dilaporkan hilang kontak pukul 06.20 WIB. Pesawat tersebut membawa 189 orang, termasuk penumpang dan kru pesawat.Penumpang itu terdiri dari 178 orang dewasa, 1 anak-anak, dan 2 bayi (infant). Untuk kru pesawat terdiri dari 2 kokpit kru dan 6 orang awak kabin."Total ada 189 orang," ujar Ketua Komite Nasional Keselamatan Transportasi (KNKT) Soerjanto Tjahjono di Kantor Basarnas, Jakarta, Senin (29/10/2018).Badan SAR Nasional (Basarnas) mendapat informasi pesawat Lion Air itu jatuh di Tanjung Karawang."Benar informasinya A1, jatuh di Tanjung Karawang," ujar Humas Basarnas Yusuf, saat dihubungi Liputan6.com di Jakarta.Pesawat Lion Air itu dilaporkan hilang kontak usai lepas landas landas dari Bandara Internasional Soekarno-Hatta sekitar pukul 06.00 WIB. Pesawat tersebut sedianya akan mendarat di Pangkal Pinang.Pesawat Lion Air JT 610 yang jatuh di perairan Karawang, Jawa Barat mulai ditemukan.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta - Presiden Joko Widodo atau Jokowi turut berduka atas jatuhnya pesawat Lion Air JT 610 yang jatuh di Tanjung Karawang. Pesawat rute Jakarta-Pangkal Pinang itu sempat hilang kontak usai lepas landas di Bandara Soekarno-Hatta pada pukul 06.20 WIB."Saya terus berdoa dan berharap korban bisa segera ditemukan," ujar Jokowi di Bali, Senin (29/10/2018).Baca JugaJokowi mengaku mendapat laporan terkait musibah pesawat Lion Air dari Menteri Perhubungan Budi Karya Sumadi pagi tadi."Pagi tadi langsung saya memerintahkan Kepala Basarnas yang dibantu oleh TNI dan Polri untuk segera melakukan operasi pencarian dan pertolongan secepatnya kepada korban," kata Jokowi.Jokowi turut merasakan kerisauan yang mendalam dari seluruh keluarga korban, dan ia berharap keluarga korban dapat menunggu kabar dari tim SAR dengan tenang. "Sekali lagi, kita masih fokus pada pencarian dan penyelamatan korban," ucap Jokowi.Pesawat Lion Air JT 610 rute Jakarta-Pangkal Pinang diketahui membawa 189 orang, termasuk penumpang dan kru pesawat. Penumpang terdiri dari 178 orang dewasa, 1 anak-anak, dan 2 bayi (infant) sementara kru pesawat terdiri dari 2 kokpit kru dan 6 orang awak kabin.Pesawat tersebut dilaporkan hilang kontak 13 menit setelah take off dari Bandara Soekarno Hatta pada 06.20 WIB. Basarnas telah mengonfirmasi jatuhnya pesawat di perairan Tanjung Karawang.Reporter: Melissa OctaviantiPesawat Lion Air JT 610 yang jatuh di perairan Karawang, Jawa Barat mulai ditemukan.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta - Kabar duka tersiar pada Senin pagi (10/29/2018). Pesawat Lion Air jatuh di perairan Karawang. Pesawat dengan nomor penerbangan JT 610 itu mengudara dari Jakarta menuju Pangkal Pinang.Ini tak hanya duka bagi dunia penerbangan saja, tapi duka kita semua. Pesawat yang terbang pada pukul 06.20 WIB dari Jakarta itu hilang kontak dengan menara pengontrol pukul 06.33 WIB.Baca JugaJajaran pemerintah tengah berupaya mencari pesawat nahas tersebut. Kapal dan para penyelam sudah dikerahkan. Serpihan memang sudah ditemukan, tapi badan pesawat dan para penumpang masih terus dicari.Pesawat tersebut mengangkut 178 orang dewasa, 1 anak, dua bayi, dan 7 orang awak kabin. Keluarga, bersama duka yang menyelimuti mereka, menunggu perkembangan dan evakuasi di Bandara Soekarno Hatta dan Halim Perdanakusuma.Duka mendalam menyelimuti seluruh keluarga penumpang, kru Lion Air, dan seluruh rakyat Indonesia. Termasuk kami, Liputan6.com. Sebagai ungkapan duka cita mendalam atas kejadian ini, kami mengubah warna logo Liputan6.com yang semula berwarna orange kini berubah menjadi hitam.Semoga semua keluarga korban diberi ketabahan. Segenap jajaran manajemen Liputan6.com turut berduka cita yang mendalam atas peristiwa nahas ini. Semoga kita semua diberi ketabahan.Saksikan video menarik berikut ini:Pesawat Lion Air JT 610 yang jatuh di perairan Karawang, Jawa Barat mulai ditemukan.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta - Pihak Kepolisian Polda Metro Jaya (PMJ) bakal segera menggelar Operasi Kepolisian bersandi, Zebra Jaya 2018. Kegiatan tersebut bakal berlangsung selama 14 hari, mulai 30 Oktober hingga 12 November 2018.Untuk operasi Zebra kali ini, pihak kepolisian bakal fokus pada pengendara yang masih nekat melanggar lalu lintas, seperti pengendara yang masih melawan arus, pengendara mobil yang tidak menggunakan seatbelt, hingga pengendara yang tidak menggunakan helm.Nah, bagi pengendara yang terjaring jangan sampai melakukan hal bodoh seperti yang dilakukan pemotor ini. Saat hendak ditilang, dua pengendara tersebut langsung berpura-pura menjadi turis, dan berbicara menggunakan bahasa Thailand abal-abal.Dari video yang diunggah akun instagram @polantasindonesia, untuk menghadapi pengendara bandel ini polisi tidak kehilangan akal. Dengan menggunakan google translate, polisi merekam pembicaraan turis palsu ini, dan kemudian mendengarkan artinya yang tidak benar.Baca JugaLangsung saja, polisi tersebut memberikan kode kepada temannya sesama polisi jika dua pengendara ini turis palsu, yang kemudia disergap dari belakang. Dengan spontan, dua pengendara ini kaget dan langsung bisa berbahasa Indonesia yang baik dan benar."Anjaay...🤣🤣. Gaes, kita udh tau ya modus2 kalian🤣🤣ayuk tertib, bentar lagi ada oprasi zebra rencong 2018 yaaaa...😁😁 🔹#sumbervideo: @satlantasacehutara - @satlantaszamannow," tulis akun instagram @polantasindonesia sebagai caption videonya tersebut, dilihat Sabtu (28/10/2018).Anjaay...🤣🤣 Gaes, kita udh tau ya modus2 kalian🤣🤣ayuk tertib, bentar lagi ada oprasi zebra rencong 2018 yaaaa...😁😁 🔹#sumbervideo: @satlantasacehutara - @satlantaszamannowA post shared by  POLISI LALU LINTAS INDONESIA (@polantasindonesia) on Oct 27, 2018 at 2:00am PDTAksi dua pelanggar lalu lintas dengan modus turis abal-abal ini, kemudian mendapatkan berbagai tanggapan kocak dari netizen. Bahkan, hingga berita ini ditulis, video teresbut sudah ditonton 165.960 orang, dan mendapatkan 53 komentar dari warganet."HAHAHAHA😎😀😃 cerdazzz n kreatif geeesss...toppp dah 👍👍👍👍," komentar akun @zainal_abidin_dtt"Hehehe... keren pak... jadi inget dulu... pura2 ke wrteg... eh disamperin juga...😂😂😂," tambah akun @azwarbachtiar"😆😆😆😆 @tumpengindah @ridaendrina pura2 kebelet pipis😆😆🙊," jelas akun @breslime"@yonas.eo @rinaldihs @wahidsidiqm gini nih cara ngelepas dari razia polisi 😂," pungkas @baskara_putr4Seorang emak menolak turun dari kendaraannya saat dirazia. Polisi tak tinggal diam dengan mengangkut sang emak beserta motornya.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta - Polda Metro Jaya tengah menyiapkan persiapan autopsi bagi jenazah korban jatuhnya Pesawat Lion Air JT 610, di perairan Karawang, Jawa Barat. Polda mempersilakan keluarga mendatangi RS Polri, Kramatjati, Jakarta Timur."Masyarakat yang merasa kehilangan anggota keluarga (korban) Lion Air JT 610 agar ke RS Polri Kramatjati untuk diambil data Antemortem-nya," kata Kabid Humas Polda Metro Jaya Kombes Pol Raden Prabowo Argo Yuwono di Polda Metro Jaya, Senin (29/10/2018).Baca JugaUntuk melakukan pendataan itu, keluarga korban diharap membawa bukti-bukti dan ciri-ciri dari korban."Ke RS Polri Kramatjati untuk diambil data antemortemnya, menyertakan data medis, properti, ijazah yang ada sidik jarinya, foto diri terakhir dan ciri khas lainnya pada korban," ujarnya.Sementara itu pantauan merdeka.com di RS Polri, terlihat petugas tengah membangun tenda. Bangku pun disediakan juga untuk para keluarga korban.Selain itu, rekan dari korban jatuhnya pesawat Lion Air JT 610 mulai berdatangan ke RS Polri. Mereka menunggu kepastian dari kepolisian tentang sahabatnya yang diduga menjadi korban.Badan SAR Nasional (Basarnas) mendirikan Posko Taktis di Jakarta International Container (JICT) II, Pelabuhan Tanjung Priok, Jakarta Utara. Posko ini didirikan guna mengevakuasi para korban jatuhnya pesawat Lion Air JT 610 di perairan Tanjung Karawang, Jawa Barat.Pantauan di lokasi, enam kantung jenazah sudah tiba di posko dan langsung dibawa ke RS Polri, Kramat Jati.Selain itu, beberapa puing rongsokan pesawat Lion Air yang sudah ditemukan juga dievakuasi ke posko.Sejauh ini tim menyiagakan 17 unit ambulance dan kemungkinan terus bertambah guna mengevakuasi korban. Aparat gabungan juga terus mendirikan tenda-tenda posko.Pesawat Lion Air JT 610 hilang kontak setelah lepas landas dari Bandara Soekarno Hatta, Cengkareng menuju Pangkal Pinang pada pukul 06.20 WIB. Pesawat itu kemudian hilang kontak pada pukul 06.33 WIB dan diketahui jatuh di Tanjung Karawang.Reporter: RonaldPesawat Lion Air dengan nomor penerbangan JT 610 jatuh di Tanjung Karawang setelah dilaporkan hilang kontak pada sekitar pukul 06.00 WIB. Pesawat tersebut membawa 189 orang, termasuk penumpang dan kru pesawat.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta Makanan dengan saus telur asin saat ini sedang populer. Rasa telur asin kini menjadi tren dalam dunia kuliner. Rasa asin dan gurih dari telur asin memberikan cita rasa yang unik pada beragam jenis makanan. Saus telur asin memang memiliki cita rasa yang begitu khas. Aneka menu bahkan bisa terasa lebih lezat bila diberi saus telur asin ini. Nggak heran banyak orang yang tertarik mengetahui cara membuat saus telur asin.Bermacam panganan dengan rasa telur asin kini tersedia di banyak restoran hingga snack makanan ringan. Segala macam hidangan berbalut saus telur asin, mulai dari ayam goreng, ikan goreng, tahu goreng, kulit ikan goreng sampai mi instan dengan saus telur asin selalu diburu banyak orang.Baca JugaDengan populernya saus telur asin, restoran yang menyajikan makanan tersebut pun memiliki antrian yang cukup panjang. Daripada repot karena harus mengantre lama demi makanan saus telur asin, tidak ada salahnya untuk membuatnya sendiri di rumah.Sebenarnya cara membuat saus telur asin terhitung gampang-gampang susah. Pemilihan bahan yang tepat jadi kunci untuk membuat saus telur asin yang creamy. Kalau bahan-bahan yang kamu gunakan berkualitas terbaik, saus yang dibuat pun bisa bebas dari bau amis. Nah, buat kamu yang tertarik ingin mengetahui cara membuat saus telur asin, berikut ini Liputan6.com rangkum resepnya dari berbagai sumber, Senin (29/10/2018).Untuk membuat saus telur asin yang enak, gunakan bahan-bahan terbaik, antara lain:4 kuning telur asin, dilumatkan2 sdm susu full cream2 siung bawang putih, digeprek lalu dirajang1 sdm mentega5 lembar daun kari (daun salam koja)1/2 sdt garam1 sdt lada1/2 sdt kaldu bubukair secukupnyaTumis bawang putih dan mentega sampai harum. Lalu masukkan daun kari. Daun kari ini berguna untuk memberi aroma khas dan mengatasi bau amis telur asin. Taburkan lada dan kaldu bubuk. Aduk sampai rata.Setelah bumbu tumisan harum, masukkan kuning telur asin yang sudah dilumatkan. Masak dengan api kecil, aduk terus hingga berbusa. Tunggu sampai teksturnya lebih lembut dan creamy.Lalu tambahkan susu full cream. Susu ini berguna untuk embuat tekstur saus telur asin lebih creamy. Di sini kamu bisa menyesuaikan kekentalan teksturnya. Kalau ingin lebih creamy, bisa ditambahkan susu full cream lagi. Kalau dirasa terlalu kental, bisa ditambahkan sedikit air sambil terus diaduk.Cicipi saus telur asin buatanmu. Jika dirasa kurang asing, tambahkan garam. Jika sudah pas, kamu boleh tidak menggunakan garam. Sesuaikan dengan seleramu.Saus telur asin ini bisa disajikan dan dihidangkan dengan aneka olahan favoritmu.1. Haluskan kuning telur sampai benar-benar lumat. Pastikan tidak banyak bagian yang masih utuh. Hal ini penting sebagai cara membuat saus telur asin yang halus dan encer.2. Kunci penting cara membuat saus telur asin terletak pada komposisinya. Komposisi sempurna untuk membuat saus telur asin yakni penggunaan kuning telur asin dan margarin dalam jumlah sama yakni 1:1. Artinya jika berat kuning telur asin 100 gr maka margarin yang digunakan juga 100 gr. Takaran ini dianggap sempurna karena saus yang dihasilkan tidak terlalu kental ataupun berminyak.3. Daripada menggunakan minyak, pakai mentega. Pasalnya, mentega akan memberi aroma yang lebih sedap.4. Kunci saus telur asin yang kering adalah busa yang banyak kala digoreng. Pertama-tama panaskan minyak dan masukkan telur asin yang telah lumat. Aduk terus dalam waktu yang lama sampai saus mengeluarkan busa yang cukup tinggi. Perhatikan juga saat kuning telur dimasak maka akan muncul buih busa yang memenuhi wajan, ini adalah tanda wajar karena jika tidak berbusa tandanya kuning telur dalam keadaan tidak segar.5. Gunakan api kecil saat membuat saus telur asin. Pasalnya, saus telur asin mudah gosong, apalagi jika kamu membuatnya dalam jumlah banyak sehingga perlu waktu lama untuk membuatnya berbusa. Pastikan selalu gunakan api kecil dan terus diaduk.6. Jangan terburu-buru menambahkan garam saat membuat saus telur asin. Cicipi dulu sausnya, kuning telur asin punya kadar asin yang berbeda-beda. Ada yang sudah cukup asin, ada yang masih harus ditambahkan garam.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Bangka - Himpunan Nelayan Seluruh Indonesia (HNSI) Cabang Kabupaten Bangka, Provinsi Kepulauan Bangka Belitung, mengimbau seluruh nelayan segera memberikan informasi terkait dugaan pesawat Lion Air yang jatuh pada Senin (29/10/2018)."Saya mengimbau seluruh nelayan yang sedang melakukan penangkapan di sejumlah kawasan penangkapan untuk segera memberikan bantuan informasi jika mengetahui adanya dugaan pesawat Lion Air yang jatuh," kata Ketua HNSI Cabang Kabupaten Bangka, Ridwan di Sungailiat.Baca JugaDia mengatakan, informasi dari nelayan itu dapat langsung ke diteruskan HNSI atau ke pos keamanan Polair atau TNI AL terdekat."Selain memberikan informasi langsung dugaan kejadian itu, saya minta antarnelayan juga saling memberikan informasi," ungkapnya seperti dilansir Antara, Senin (29/10/2018).Menurut dia, keterlibatan nelayan dari proses informasi maupun bantuan bagi korban dugaan pesawat Lion Air jatuh sangat diperlukan mengingat nelayan melakukan aktivitas di tengah laut."Atas nama HNSI, saya berharap dugaan pesawat jatuh ini dapat segera ditangani segera supaya tidak menimbulkan kepanikan bagi masyarakat, dan khusus keluarga penumpang semoga selalu diberikan ketabahan dan kesabaran," ujarnya.Dia menambahkan, HNSI selalu siap membantu pihak terkait baik bantuan informasi yang didapat langsung oleh nelayan maupun membantu pencarian korban jika dugaan jatuhnya pesawat Lion Air tersebut memang terbukti.Dalam kondisi gelombang air laut yang relatif aman, jumlah nelayan yang melakukan penangkapan ikan mencapai ratusan kapal dengan berbagai ukuran dan jenis penangkapan di sejumlah wilayah penangkapan.Ratusan regu Tim Badan Sar Nasional diberangkatkan untuk mencari keberadaan pesawat Lion Air jurusan Jakarta - Pangkal Pinang di perairan sekitar tanjung Karawang, Jawa Barat, Senin pagi.</t>
+  </si>
+  <si>
+    <t>Jakarta - Louis Vuitton, brand populer asal Prancis menjadi favorit banyak pecinta fashion di seluruh dunia. Jajaran produknya yang telah dirilis selama 160 tahun terakhir memiliki berbagai fungsi mulai dari tas, busana, aksesori, sepatu, hingga koper.Louis Vuitton Time Capsule Exhibition atau pameran 'keliling' Louis Vuitton telah singgah di Los Angeles, Toronto, hingga Bangkok. Saat ini, hadir di Jakarta yang bersamaan dengan perayaan hari jadi Louis Vuitton di Indonesia yang telah hadir sejak tahun 1988.Baca JugaBerkolaborasi dengan Senayan City Jakarta, Louis Vuitton Time Capsule Exhibition adalah pameran ini menggambarkan perjalanan brand asal Prancis ini yang selalu mengutamakan kebutuhan konsumen dengan kemajuan teknologi.Presentasi sejarah dikemas unik dan dipamerkan bersama dengan karya-karya kontemporer. Tentu saja hal ini cukup membuktikan konsistensi Louis Vuitton yang tak pernah lelah berinovasi sejak berdiri pada tahun 1854.Evolusi Louis Vuitton dituangkan dalam 4 aspek, the key to the codes, journeys around the world, elegance in motion, dan icons of the house.Saksikan video pilihan di bawah ini:Seorang Desainer membuat helm Star Wars dari bahan tas bekas Louis VuittonPada area depan ruang eksibisi Jacqueline Servant, pengrajin tas Louis Vuitton akan memperlihatkan cara membuat tas la petite malle. Tas dengan buatan tangan ini biasa ia selesaikan dalam waktu 4 jam.Area ini ingin menggambarkan bagaimana produk dari Louis Vuitton selalu dibuat dengan hati-hati beserta material kulit pilihan dari mulai natural cowhide, kulit epi, kulit taiga, kulit utah hingga monogram empreinte.Pameran ini ingin menceritakan kepada dunia sejarah penting Louis Vuitton dalam menciptakan produk-produknya. Salah satu signature item dari brand ini adalah peti kemas yang kokoh dengan perangkat kunci multi-tumbler, material kanvas berlapis, kulit bertekstur halus, hingga teknis malletage.Setiap peti kemas memiliki fungsi untuk menyimpan beragam barang dengan kecermatan penataan. Dari mulai peti untuk menyimpan busana, meja tulis, hingga aksesori sepatu dapat dilihat dalam pameran ini.Dalam ruang eksibisi berikutnya, Louis Vuitton ingin berbagi cerita tentang inovasi produk yang diluncurkan di tahun 1897. Setelah menciptakan peti kemas untuk perjalanan dengan kereta api, peti kemas baru untuk perjalanan dengan mobil hadir melengkapi.Untuk perjalanan laut, Louis Vuitton juga kenciptakan steamer bag dan cabin trunk. Khusus untuk perjalanan udara aero trunk dan aviette dibuat agar konsumen dalam membawa pakaian dalam jumlah banyak dengan berat minim. Louis Vuitton pun kian dikenal dengan beragam produknya yang fungsional, fleksibel dan kuat untuk dibawa traveling ke mana saja.Louis Vuitton sendiri memulai karirnya sebagai emballeur atau ahli pengemas barang anggota kerajaan. Keahliannya inilah yang menjadi fokus utama brand Louis Vuitton berinovasi mencipkatan produk.Ia juga menawarkan konsep pengemasan beragam produk yang sesuai dengan gaya hidup pelanggaanya. Dari mulai tas untuk membawa botol wiski, parfum, kosmetik, perhiasan, perlengkapan piknik hingga bunga.Pada ruangan eksibisi selanjutnya, ditampilkan kreasi Louis Vuitton yang simbolik. Setiap karya yang ada berbicara mewakili era tertentu dengan ciri khas yang tak lekang waktu. Unik dan menjadi sesuatu yang sangat penting untuk dimiliki.Salah satunya adalah large scarf dalam material silk yang berkolaborasi dengan Eko Nugroho seniman asal Indonesia di tahun 2013-2014. Ada juga peti kemas dan skateboard yang bekerja sama dengan brand Supreme.Dalam area eksibisi yang satu ini, pengunjung akan diajak untuk menjelajahi dunia visual ala Louis Vuitton. Dalam layar besar yang mengelilingi ruangan Anda akan melihat perjalanan sejarah dari peti kemas pertama dibuat hingga berdirinya Louis Vuitton menjadi brand papan atas dunia.Untuk pencinta dunia fashion, jangan sampai melewatkan Louis Vuitton Time Capsule Exhibition yang diselenggarakan dari tanggal 23 Oktober hingga 11 November 2018 di Senayan City, Ground Floor, Jakarta. Eksibisi ini buka setiap hari dari Senin sampai Minggu, pukul 10.00-22.00 WIB.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Bontang - Kerja sama pembangunan kilang antara Saudi Aramco dan PT Pertamina (Persero) kini tinggal menunggu waktu. Pemerintah Arab Saudi telah berencana berinvestasi pada proyek revitalisasi kilang Cilacap sejak 2015.Direktur Utama PT Pertamina (Persero) Nicke Widyawati mengaku, rencananya perseroan akan rapat dengan manajemen Saudi Aramco pada pekan depan. Proyek yang digadang-gadang menjadi kilang terbesar di Indonesia ini akan memasuki tahap Front End Engineering Design (FEED).Baca Juga"Tetap berjalan (proyeknya). Minggu depan kita akan rapat manajemen dengan Saudi Aramco. Kita akan masuk ke tahap FEED," jelas dia di Bontang, Kalimantan Timur, seperti dikutip Senin (29/10/2018).Dirut Nicke menjelaskan, proses FEED akan memakan waktu selama 6 bulan. Setelah itu, proyek revitalisasi kilang akan memasuki tahap Engineering, Procurement, and Construction (EPC)."Feed-nya 6 bulan, sesudah feed baru kita tender satu tahun. Tapi kalau sudah masuk feed namanya digarap," jelas dia.Nicke pun menekankan, mulai pekan depan, proyek kilang terbesar ini  sudah dapat dikerjakan. "Nggak perlu bulan depan, minggu depan juga sudah bisa kok," terangnya.Sebelumnya, Saudi Aramco berjanji menyediakan investasi hingga USD 6 miliar atau setara Rp 87 triliun untuk proyek revitalisasi kilang tersebut.Meski demikian, beberapa syarat atau permintaan harus dipenuhi Indonesia terlebih dahulu antara lain seperti perolehan insentif dari pemerintah, tax holiday, lahan, dan penyerahan aset ke anak perusahaan nantinya.PT Pertamina (Persero) dan China Petroleum Corporation (CPC), Taiwan menandatangani kesepakatan rencana kerjasama pengembangan proyek kompleks Petrokimia senilai USD 6,49 miliar.Investasi ini merupakan nilai terbesar pada program Investasi BUMN untuk Negeri yang ditandatangani pada  kegiatan Indonesian Investment Forum (IIF) di Bali, Kamis 11 Oktober 2018.Menteri Badan Usaha Milik Negara (BUMN) Rini Soemarno mengatakan, kerjasama Pertamina dan CPC Taiwan dilakukan dalam bentuk pembangunan pabrik Naphtha Cracker, serta unit pengembangan sektor hilir Petrokimia berskala global di Indonesia.Baca Juga‎Pabrik tersebut nantinya dapat menjadi pengganti impor, sehingga berpotensi menghemat devisa negara hingga USD2,4 miliar per tahun."Kami mengapresiasi penandatanganan investasi ini. Kerjasama yang saat ini dilakukan merupakan komitmen kita bersama dalam upaya mengurangi impor,” kata Rini, di Jakarta, Jumat (12/10/2018).Melalui pembangunan pabrik, Direktur Utama Pertamina Nicke Widyawati menambahkan, Pertamina akan melakukan Revamping Kilang lama, serta membangun Petrokimia secara terintegrasi.“Framework Agreement ini dilakukan guna meningkatkan yield of valuable product dari produk-produk turunan yang dihasilkan kilang Pertamina. Kerjasama ini menjadi momentum untuk memperkuat bisnis Petrokimia Pertamina,” jelasnya.Proyek ini diharapkan mulai beroperasi tahun 2026 dengan skema joint venture antara Pertamina, CPC Taiwan, dan beberapa mitra hilir potensial lainnya. Pabrik Naphtha Cracker diharapkan akan memproduksi paling sedikit satu juta ton ethylene per tahun dan membangun unit hilir yang akan memproduksi produk turunan kilang lainya untuk memenuhi kebutuhan industri di Indonesia.CPC Taiwan merupakan perusahaan milik negara Taiwan yang bergerak di bidang suplai produk perminyakan, raw and natural material untuk petrokimia.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jember - Ribuan peserta tes CPNS atau Calon Pegawai Negeri Sipil harus bersabar untuk merebut tiket menjadi abdi negara. Pasalnya, ujian pada hari pertama di di Gedung Balai Serba Guna (BSG) Jember, di Jalan Nusantara, Kaliwates Kabupaten Jember, harus molor 6 jam.Padahal para peserta tes CPNS sudah hadir dari jam 6 pagi. Mereka datang dari 5 Kabupaten Tapal Kuda, Jember, Bondowoso, Situbondo, Kabupaten Probolinggo, dan Kota Probolinggo. Bahkan, peserta yang berasal dari luar kota Jember, harus datang sehari sebelum acara supaya tidak terlambat."Saya sampai sini, tadi pukul 6 pagi dan semalam menginap di rumah saudara di kawasan kota, Tegal Besar Kecamatan Kaliwates," kata Nunung Milanda, perempuan asal Desa, Kecamatan Umbul Sari Kabupaten Jember, Jumat, 26 Oktober 2018.Baca JugaDia khawatir terlambat atau terburu-buru, kalau berangkat dari rumah, karena jarak lokasi tes ini ke rumahnya cukup jauh, sekitar 40 kilometer. Berdasarkan jadwal, ujian sesi pertama, digelar pukul 08.00 WIB. Namun, hingga waktu yang sudah ditentukan, tes belum juga dilaksanakan."Baru sekitar pukul 9 pagi lebih, ada penjelasan kenapa tes hari pertama ini ditunda pukul 14.00 WIB," kata Nunung. Setelah mendapatkan kepastian penundaan, meski kecewa Nunung memanfaatkan sisa waktu sekitar 5 jam, untuk belajar lagi."Saya ambil positifnya saja. Ada lebih banyak waktu untuk membaca," kata perempuan yang mendaftar untuk formasi guru SD ini.Hal senada disambut peserta lainnya, Siti Zulaikha yang tiba di lokasi tes pukul 06.30 WIB. Sebab, dia juga terdaftar sebagai peserta ujian sesi pertama."Saya tidak perlu kecewa, ambil hikmahnya saja, jadi ada tambahan waktu untuk membaca soal-soal lagi," tutur Zulaikha.Namun Zulaikha, memilih pulang ke rumahnya karena tidak terlalu jauh dari lokasi tes. Sedangkan, peserta yang berasal dari luar kota Jember, memilih menunggu di sekitar lokasi tes.Mereka bisa menikmati teh atau kopi yang disuguhkan panitia. Sekitar pukul 14.00 WIB, peserta sesi pertama, Seleksi Kompetensi Dasar (SKD) CPNS 2018 di Kabupaten Jember mulai memasuki ruang isolasi sebelum masuk ruangan tes."Memang tadi pagi sempat ditunda, namun sekarang sudah siap. Peserta sudah mulai registrasi dan akan bersiap mengikuti tes," Kata Bupati Jember, Faida yang melakukan inspeksi mendadak ke lokasi tes.Dia juga menjelaskan mundurnya waktu ujian bukan karena kesalahan Pemkab Jember. Namun, karena koneksi internet yang belum semua tersambung."Sebagai tuan rumah, kami harus menyambut tamu secara baik. Sudah kami beri teh dan kopi lah kepada peserta yang sudah menunggu," tutur Faida.Menurut jadwal, peserta seleksi CPNS tahap pertama semestinya mengikuti tes ujian SKD pukul 08.00 WIB, tetapi panitia mengumumkan penundaan hingga pukul 14.00 WIB."Tes tulis ditunda karena faktor teknis koneksi jaringan internet yang belum selesai. Kami memutuskan untuk menundanya daripada nanti ada masalah di tengah jalan saat tes tulis berlangsung," kata Koordinator Panitia Seleksi Nasional (Panselnas) Nur Hasanah.Ia menekankan bahwa tidak ada masalah dengan seluruh komputer yang disiapkan panitia di lokasi tes tulis, hanya sambungan internetnya saja yang bermasalah."Kalau kendala teknis itu dipaksakan, maka dikhawatirkan hal itu dapat merugikan peserta ujian tes tulisCPNS. Jadi, lebih baik mundur beberapa jam, karena tes tulis tersebut memerlukan koneksi jaringan internet," katanya."Penundaan tes tulis tidak hanya terjadi di Kabupaten Jember pada hari ini, namun di beberapa daerah di Jatim yang menggelar tes tulis, seperti di Malang dan Kediri," kata Nur, panitia yang berasal dari Badan Kepegawaian Negara (BKN).Nur mengatakan pengumuman penundaan tes tulis telah secara resmi disampaikan kepada peserta CPNS tahap pertama yang sudah datang sejak pagi. Panitia pelaksana juga meminta maaf kepada para peserta yang sudah memenuhi halaman Gedung Serbaguna Jember."Untuk ujian tes tulis CPNS tetap dilakukan selama empat sesi dengan total peserta 1.000 orang, namun hanya jadwalnya yang molor karena dimulai pukul 14.00 hingga 22.00 WIB," katanya.Berdasarkan data panitia, jumlah peserta tes tulis seleksi CPNS Pemerintah Kabupaten Jember sebanyak 10.799 orang dan dijadwalkan mengikuti ujian sejak 26 Oktober hingga 3 November 2018.Jumlah peserta tes CPNS terdapat 22.086 orang. Mereka terbagi dalam waktu ujian mulai 26 Oktober hingga 16 November 2018.Beredar isu yang kurang sedap pada pelaksanaan tes CPNS hari ketiga, Minggu, 28 Oktober 2018. Sebab, sudah ada joki tes CPNS yang ditangkap panitia dan diserahkan ke polisi.Meski peristiwa itu terjadi di luar Jawa, panitia seleksi nasional (Panselnas) tes CPNS Regional Jatim II di Jember terus meningkatkan kewaspadaan. Panselnas memerintahkan dan mewanti-wanti panitia pelaksana tes di Jember supaya lebih selektif lagi saat melakukan verifikasi peserta."Memang ada informasi seorang Joki di luar Jatim sana yang tertangkap. Kami oleh panitia pusat diperintahkan tidak hanya ketat saat melakukan verifikasi peserta dan absensi, tapi kami dari Panselnas juga mengecek KTP, ID peserta dan wajah peserta sebelum memasuki ruang tes," kata Koordinator Panselnas Regional Jatim II, Nur Hasanah kepada sejumlah wartawan, Minggu (28/10/2018).Meski demikian, peningkatan kewaspadaan itu, tidak diikuti dengan penambahan jumlah personel, pada pelaksanaan tes, yang digelar di gedung Serbaguna Jalan Nusantara, Kecamatan Kaliwates, Kabupaten Jember, Jawa Timur ini. Hingga hari ketiga jumlah petugas pengamanan tetap."Kami hanya mendapatkan instruksi dari panitia pusat, agar meningkatkan kewaspadaan, jangan sampai kejadian seperti ini terjadi di wilayah kami," ujar Nur Hasanah.Ia berharap kasus perjokian tes CPNS yang terjadi di luar Jawa, tidak terjadi di kabupaten Jember. Karena itu pihaknya memperketat pemeriksaan dengan mencocokkan foto identitas, KTP, dan wajah peserta."Jangan sampai kami kecolongan. Semoga tidak terjadi lah," katanya.Nur Hasanah menambahkan, pada hari ketiga ini, panitia menerima laporan peserta yang terlambat sehingga dilarang masuk. Peserta tersebut protes karena ditolak mengikuti ujian."Padahal panitia tidak menolak peserta ujian, hanya menunda. Itu hanya miskomunikasi peserta saja. Pansel terpaksa menunda, karena peserta tidak mengikuti petunjuk pengisian tes. Khawatir jika tidak ditunda, tidak dapat mengisi soal dengan benar," tutur Nur Hasanah.Nur Hasanah juga menjelaskan, masih ada kesempatan pada hari terakhir bagi peserta yang tidak mengikuti tes CPNS pada hari ketiga itu. Ada beberapa peserta yang terlambat, salah satunya, berasal dari kabupaten Situbondo. "Pansel akan memanggil, pada hari terakhir pelaksanaan tes," katanya.Dia mengimbau, peserta datang mengikuti tes, sesuai tata tertib yang telah ditetapkan. Peserta harus datang 1 jam sebelum pelaksanaan tes, mengisi absen, dan duduk sesuai tempat duduknya.Kapolsek Kaliwates, Kompol Supadi menjelaskan, jumlah pengamanan kegiatan tersebut, sedikitnya ada 35 personel Polres Jember. Pengamanan juga melibatkan Satpol PP dan Dishub Jember."Selain bertugas pengamanan dan kelancaran pelaksanaan tes, kami bertugas melakukan pemeriksaan barang bawaan," Supadi menandaskan.Simak video pilihan berikut ini:211 ribu peserta tes CPNS Kemenkumham</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta Mengajarkan cara buang air yang benar pada anak adalah tantangan tersendiri bagi orangtua. Perlu kesabaran agar anak bisa belajar toilet training sejak dini, seperti pengalaman Mommy Melissa Theodora Sinulingga dari Babyologist berikut ini.Mengajarkan toilet training pada anak memang bukan hal yang mudah, khususnya ketika Moms mau mengajarkan sedini mungkin sejak bayi. Perlu komitmen dan dedikasi yang tinggi supaya toilet training dapat berhasil dan pada akhirnya menjadi sebuah kebiasaan yang baik bagi anak-anak kita. Berikut beberapa tips yang saya lakukan untuk toilet training pada anak-anak sejak bayi.Baca JugaTips Toilet TrainingMemang belum banyak yang bisa dilakukan untuk mengajarkan toilet training pada bayi, tapi kebiasaan baik yang sudah tertanam sejak dini dapat bermanfaat bagi kesehatan si Kecil. Kulit bayi pun bisa bernapas dan anak bisa belajar risi jika ada kotoran yang menempel di tubuhnya. Semangat Moms!Semoga bermanfaat.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta - Sriwijaya FC bakal menjamu Perseru Serui di Stadion Gelora Sriwijaya, Jakabaring, Palembang, dalam lanjutan kompetisi GO Jek Liga 1 2018 bersama Bukalapak sore ini WIB.Sriwijaya FC menjamu Perseru dalam keadaan pincang. Tuan rumah kehilangan Marckho Merauje, Esteban Vizcarra, Alberto Goncalves, dan Zalnando, karena menjalani hukuman akumulasi kartu.Baca JugaSementara Perseru, ingin memaksimalkan situasi untuk mencari poin di kandang lawan. Perseru juga menargetkan tiga poin penuh dalam pertandingan ini demi bisa memperbesar asa keluar dari zona berbahaya dengan menggeser Sriwijaya FC.Saat ini, Sriwijaya FC dan Perseru sama-sama berada di zona degradasi klasemen Liga 1 2018. Laskar Wong Kito di posisi ke-16, sedangkan Perseru menempati peringkat ke-17 dari 18 klub.Pertandingan ini Liga 1 2018 dapat disaksikan secara langsung di O Channel pada pukul 15.30. Di halaman berikut ini terdapat link live streaming untuk pertandingan Sriwijaya FC vs Perseru.Untuk menyaksikan langsung laga Sriwijaya FC vs Perseru Serui silakan klik link di sini....Link live streamingSriwijaya FC (4-3-3): Teja Paku Alam (kiper); Jeki Arisandi, Alan Henrique, Goran Ganchev, Achmad Faris (belakang); Zulfiandi, Nur Iskandar, Risky Dwi Ramadhana (tengah); Mahamadou Alhadji, Manuchekhr Dzhalilov, Yogi Rahadian (depan)Pelatih: Alfredo VeraPerseru (4-4-2): Annas Fitranto (kiper); Boas Isir, Kunihiro Yamashita, Kelvin Wopi, Tony Rooy (belakang); Arthur Bonai, Makarius Suruan, Osmar Dos Santos, Ronaldo Mesido (tengah); Jaelani Arey, Beto Paula (depan)Pelatih: Wanderley Junior</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta - Insiden seperti Lion Air ternyata juga pernah dialami oleh sejumlah maskapai penerbangan di dunia.Lion Air yang nahas tersebut dikabarkan hilang kontak tak lama setelah mengudara. Pesawat dengan nomor penerbangan JT 610 rute Jakarta-Pangkal Pinang tak diketahui keberadaannya sejak pukul 06.33 WIB.Baca JugaTak lama kemudian, Basarnas memastikan pesawat tersebut jatuh di perairan Teluk Karawang, Senin (29/10/2018).Momen hilang kontak menjadi awal petaka sejumlah pesawat jatuh dunia seperti dialami oleh Lion Air JT 610. Berikut rangkuman peristiwanya yang Liputan6.com kutip dari beragam sumber:1. Pesawat EgyptAir MS804Pesawat EgyptAir yang bertolak dari Paris, Prancis, menuju Kairo, Mesir, dilaporkan menghilang dari radar pada Kamis 19 Mei 2016 dini hari waktu setempat.Pesawat itu tengah mengudara di ketinggian 37.000 kaki dan menghilang 80 mil (sekitar 10 menit) sebelum memasuki wilayah udara Mesir. Penerbangan itu dijadwalkan meninggalkan Paris pada 23.09 waktu setempat untuk menempuh perjalanan sekitar 3 jam 45 menit.Tim SAR dari Mesir dikerahkan untuk mencari pesawat hilang itu yang posisi terakhir berada di laut Mediterania.Menurut juru bicara Keselamatan Penerbangan Sipil Mesir, Ihab Raslan kepada SkyNews Arabia mengatakan, kemungkinan besar EgyptAir nomor penerbangan MS804 itu jatuh ke laut.Namun, Raslan juga mengatakan, EgyptAir itu tengah memasuki wilayah udara Mesir ketika hilang dari radar. Hal itu bertentangan dengan keterangan maskapai yang menyatakan burung besi berada 16 kilometer menuju Mesir.Maskapai penerbangan itu dalam Twitter menyebut 69 penumpang termasuk 10 kru. Namun, Ahmed Abdel wakil kepala EgyptAir mengatakan ada 66 penumpang.Tidak ada panggilan darurat dalam burung besi itu, kata Abdel seperti dilansir dari The Guardian. Kapten dalam penerbangan itu juga memiliki lebih dari 6.000 jam terbang termasuk 2.000 jam terbang di A320.Pun, klaim Abdel, tidak ada kargo khusus atau berbahaya dalam EgyptAir MS804 dari Paris menuju Kairo.Belakangan, dilaporkan seluruh penumpang termasuk awak tewas.Saksikan juga video tentang Lion Air berikut ini:Penerbangan pesawat ini dipimpin Kapten Pilot B. Suneja didampingi Coo Pilot Harvino.Sebuah pesawat jatuh ke laut lepas Pantai Gading, beberapa saat setelah burung besi itu lepas landas dari Bandara Internasional Abidjan.Pesawat kargo bermesin turbo-prop itu diketahui tengah membawa barang kiriman untuk militer Prancis di kawasan. Demikian seperti dilansir BBC, Sabtu 14 Oktober 2017.Tentara Prancis diketahui tengah melaksanakan operasi militer anti-terorisme di kawasan Gurun Sahel, Afrika saat itu.Menurut Independent, seorang analis penerbangan mengklaim bahwa pesawat tersebut merupakan model Antonov yang dirancang Uni Soviet.Selain itu, temuan logo 'V' di ekor pesawat memicu dugaan bahwa burung besi itu milik firma distribusi Valan International Cargo Charter yang berbasis di Moldova. Perusahaan itu diketahui kerap disewa oleh PBB.Kecelakaan pada 14 Oktober tersebut terjadi di tengah hujan lebat dan badai petir dahsyat. Menurut media setempat, puing-puing pesawat itu mulai tersapu kembali ke pesisir pantai dekat Port-Bouët.Seorang saksi mata menyebut, jatuhnya pesawat itu mengakibatkan empat orang tewas.Petugas penyelamat telah memindahkan dua jasad dari pesawat. Sementara dua jenazah lainnya terlihat di reruntuhan.Sebuah pesawat militer buatan Rusia jatuh di dekat pangkalan udara Boufarik, dekat Aljazair Rabu 11 April 2018. Sedikitnya 181 orang dilaporkan tewas.Dikutip dari Al Jazeera, Rabu 11 April 2018, pesawat Ilyushin Il-76 dikabarkan jatuh di dekat pangkalan udara Boufarik, di luar Algiers, ibu kota Aljazair. Pesawat ini membawa sejumlah pasukan militer.Situs berita lokal Algerie24 mengatakan, pesawat itu menuju ke Kota Bechar yang berada di Aljazair barat. Beberapa foto yang diunggah di Twitter menunjukkan asap tebal mengepul dari lokasi kecelakaan. Terlihat beberapa orang bergegas untuk membantu.🔴#DIRECT 🔴 #AlgérieL'avion militaire était à destination de Béchar et s'est écrasé quelques minutes après son décollagehttps://t.co/Uxe6HUFi4X pic.twitter.com/LZpTKEDszHKecelakaan pesawat kali ini dicap sebagai insiden terparah di Aljazair sejak 2003, ketika jet Air Algerie jatuh tak lama setelah tinggal landas dari Tamanrasset dan menewaskan 102 orang.Pada tahun 2014, lebih dari 70 personel militer yang sedang tidak bertugas -- beserta anggota keluarga mereka -- dinyatakan tewas saat pesawat C-130 yang ditumpangi menabrak gunung Djebel Fertas, sesaat sebelum mendarat di utara Constantine.Pada Desember 2012, dua jet militer yang sedang melakukan operasi pelatihan rutin bertabrakan di udara dekat Tlemcen, di barat laut Aljazair, menewaskan pilot kedua pesawat nahas itu.Sebulan sebelumnya, sebuah pesawat angkut militer CASE C-295 twin-turboprop, yang membawa muatan kertas untuk pencetakan uang di Aljazair, jatuh di Prancis selatan.Pesawat itu membawa lima tentara dan seorang wakil dari bank sentral Aljazair. Tidak ada yang selamat.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta Badan SAR Nasional (Basarnas) memastikan pesawat Lion Air JT 610 jatuh perairan Tanjung Karawang. Pihak Basarnas telah menemukan puing-puing yang diduga milik pesawat Lion Air ruter Jakarta-Pangkal Pinang yang sempat hilang kontak sekitar pukul 06.00 WIB."Posisinya di 11 nautical mile dari posisi lost contact. Setelah kita sampai di lokasi, kita menemukan puing, pelampung, HP, ada potongan-potongan," ujar Kepala Basarnas Marsekal Muda TNI M Syaugi di Jakarta, Senin (29/10/2018).Baca JugaPesawat Lion Air itu dilaporkan hilang kontak usai lepas landas landas dari Bandara Internasional Soekarno-Hatta sekitar pukul 06.00 WIB. Pesawat tersebut sedianya akan mendarat di Pangkal Pinang.Dalam keterangan tertulis yang diterima dari Basarnas, ada saksi atas nama Suyadi yang mengaku melihat pesawat Lion Air jatuh di sekitar Tanjung Karawang. Saat ini pihak SAR Jakarta sedang bergerak ke lokasi koordinat kejadian untuk melakukan operasi SAR.Direktur Umum Lion Air Grup Edward Sirait saat dihubungi Liputan6.com, membenarkan pihaknya hilang kontak dengan pesawat rute Jakarta-Pangkal Pinang tersebut. Pihak Lion Airjuga tengah menelusuri informasi yang menyebutkan pesawat tersebut mendarat darurat di Halim dan Karawang."Masih simpang siur, ada yang bilang mendarat di Halim, ada yang bilang di Karawang. Kami lagi cek ke lokasi," ungkap Edward.Pasca kejadian, pihak otoritas Bandara Supadio sudah memberangkatkan 189 penumpang lainnya dengan pesawat yang berbeda.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta - Maia Estianty dan Irwan Mussry telah resmi menikah pada hari ini di Tokyo, Jepang, Senin (29/10/2018) waktu setempat. Keduanya telah mengucap janji suci setelah medapat surat izin menikah dari KUA Pasar Minggu, Jakarta Selatan.Diyakini, pernikahan Maia Estianty dan Irwan Mussry dilangsungkan di sebuah masjid berasitektur megah, Masjid Tokyo Camii &amp; Turkish Culture Center. Tempat ibadah ini terletak di kawasan distrik Shibuya, Tokyo.Dugaan ini diperkuat dengan unggahan foto di Instagram Stories kekasih Al Ghazali, Alyssa Daguise. Pada Senin siang, Alyssa mengunggah foto bagian interior dan eksterior Tokyo Camii &amp; Turkish Culture Center.Dalam foto tersebut, Alyssa Daguise juga membubuhkan keterangan yang mendeskripsikan kebahagiaan. "A day full of happiness," tulisnya dengan menyertakan simbol hati.Baca JugaSementara itu, Maia Estianty dan Irwan Mussry diketahui telah menjadi suami istri. Sahabat dekat Maia Estianty yang tergabung dalam geng Tempe, Teuku Zacky, lantas mengunggah ulang foto tersebut di Instagramnya.Lewat foto itu Teuku Zacky membubuhkan keterangan yang menyiratkan bahwa Maia Estianty dan Irwan Mussry telah melangsungkan pernikahan."Alhamdulillah selamat dan ikut bahagia banget. Telah dipersatukan dengan SAH dua orang yang aku kenal. Bunda @maiaestianty dan @irwanmussry saling melengkapi, saling bahagia lahir batin," tulis Teuku Zacky, Senin (29/10/2018).Tak hanya itu, Maia Estianty dan Irwan Mussry kompak mengunggah foto di masa kecil. Dalam foto yang terlihat usang itu, Maia terlihat memakai kebaya dan sanggul, sementara Irwan tengah memegang sepeda.Selain keterangan berupa ucapan syukur, dalam foto tersebut juga tertulis kalimat "Our Own Fairytale". Unggahan tersebut lantas dipenuhi komentar dari rekan selebritas.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta - Pesawat Lion Air dengan nomor penerbangan JT 610 jatuh di Tanjung Karawang. Pesawat dengan rute Jakarta-Pangkal Pinang itu sempat dilaporkan hilang kontak pada pukul 06.20 WIB usai lepas landas di Bandara Soekarno-Hatta."Saya dapat laporan dari menteri perhubungan terkait dengan musibah pesawat Lion Air rute Jakarta-Pangkal Pinang. Saya langsung perintahkan Kepala Basarnas yang dibantu TNI dan Polri untuk segera melakukan pencarian dan pertolongan secepatnya kepada korban," ujar Jokowi di Bali, Senin (29/10/2018).Baca JugaJokowi menyatakan, pemerintah akan melakukan upaya terbaik untuk menemukan para peumpang pesawat Lion Air itu."Kita lakukan upaya terbaik untuk menemukan korban dan terus berdoa agar korban bisa segera ditemukan," ungkap Jokowi.Pesawat Lion Air membawa 189 orang, termasuk penumpang dan kru pesawat.Penumpang itu terdiri dari 178 orang dewasa, 1 anak-anak, dan 2 bayi (infant). Untuk kru pesawat terdiri dari 2 kokpit kru dan 6 orang awak kabin.Pesawat Lion Air JT 610 dinyatakan jatuh di perairan Karawang, Jawa Barat. Basarnas mulai menurunkan tim penyelam untuk mencari kemungkinan korban.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Palembang - Rumah milik Ican, yang diduga pelaku pembunuhan terhadap Nur Fadilah Putri di kawasan Kemang Agung, Kertapati, Palembang, Senin, 22 Mei 2017, dirusak warga.Seperti ditayangkan Liputan 6 Pagi SCTV, Selasa (23/5/2017), warga yang tersulut emosi bahkan melempari rumah dengan menggunakan batu dan kayu. Akibatnya, kondisi rumah yang telah diberi garis polisi mengalami kerusakan yang cukup parah.Kemarahan warga dipicu oleh beredarnya kabar kalau Ican pulang ke rumah. Warga pun beramai-ramai mendatangi rumah milik yang diduga pelaku dan memintanya untuk keluar rumah.Namun karena tidak ada jawaban dari dalam rumah, warga pun merusaknya beramai-ramai. Sementara yang diduga pelaku dan dicari warga tidak ditemukan dalam rumah.Kasus pembunuhan bocah yang mayatnya ditemukan di karung telah mengundang perhatian serius dari Pemerintah Kota Palembang. Pemerintah berharap polisi dapat segera menangkap pelaku yang telah membuat resah warga, khususnya kaum perempuan.Pascakejadian yang menimpa korban, warga masih diselimuti trauma. Warga merasa tidak tenang dan mulai melakukan penjagaan di kampung mereka untuk menangkap pelaku.Jenazah anak perempuan berusia 8 tahun itu ditemukan pada Sabtu, 20 Mei 2017 petang, dalam kondisi mengenaskan.Tubuh korban terbungkus dalam karung plastik di rumah tetangganya bernama Ican, di kawasan Kemang Agung, Kertapati, Palembang.Sebelumnya, bocah tersebut dilaporkan hilang. Korban pertama kali ditemukan oleh keponakan Ican yang sedang mencari kunci di dalam kamar.Penemuan jasad korban segera dilaporkan kepolisian. Usai menjalani autopsi di Rumah Sakit Bhayangkara Palembang, ditemukan luka lebam dan luka bekas kekerasan seksual di tubuh korban.Saksikan video warga rusak rumah orang yang diduga pembunuh bocah dalam karung.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta - Pesawat Lion Air rute Jakarta-Pangkal Pinang dilaporkan hilang kontak. Pesawat dengan nomor penerbangan JT 610 hilang kontak sejak lepas landas dari Bandara Internasional Soekarno-Hatta pukul 06.00 WIB, Senin (29/10/2018)."Benar kami kehilangan kontak sejak terbang jam 6.00 WIB dari Cengkareng," ujar Direktur Umum Lion Air Grup Edward Sirait saat dihubungi Liputan6.com.Baca JugaEdward menyatakan, saat ini pihaknya masih melakukan pengecekan keberadaan pesawat Lion Air tersebut."Kita lagi cek. Informasi masih simpang siur," imbuh Edward.embatalan ini sontak membuat emosi para penumpang tak terbendung lagi. Karena sebelumnya mereka sudah menunggu lama pesawat yang dijadwalkan terbang jam 21.15.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta - Badan SAR Nasional (Basarnas) mendirikan Posko Taktis di Jakarta International Container (JICT) II, Pelabuhan Tanjung Priok, Jakarta Utara. Posko ini didirikan guna mengevakuasi para korban jatuhnya pesawat Lion Air JT 610 di perairan Tanjung Karawang, Jawa Barat.Pantauan di lokasi, enam kantung jenazah sudah tiba di posko dan langsung dibawa ke RS Polri, Kramat Jati.Baca JugaSelain itu, beberapa puing rongsokan pesawat Lion Air yang sudah ditemukan juga dievakuasi ke posko.Sejauh ini tim menyiagakan 17 unit ambulance dan kemungkinan terus bertambah guna mengevakuasi korban. Aparat gabungan juga terus mendirikan tenda-tenda posko.Pesawat Lion Air JT 610 hilang kontak setelah lepas landas dari Bandara Soekarno Hatta, Cengkareng menuju Pangkal Pinang pada pukul 06.20 WIB. Pesawat itu kemudian hilang kontak pada pukul 06.33 WIB dan diketahui jatuh di Tanjung Karawang.Pesawat Lion Air JT 610 rute Jakarta-Pangkal Pinang diketahui membawa 189 orang, termasuk penumpang dan kru pesawat. Penumpang terdiri dari 178 orang dewasa, 1 anak-anak, dan 2 bayi (infant) sementara kru pesawat terdiri dari 2 kokpit kru dan 6 orang awak kabin.Pesawat tersebut dilaporkan hilang kontak 13 menit setelah take off dari Bandara Soekarno Hatta pada 06.20 WIB. Basarnas telah mengonfirmasi jatuhnya pesawat di perairan Tanjung Karawang.Reporter: Muhammad Genantan SaputraMelalui aplikasi Flight Radar terlihat bagamana pergerakan pesawat Lion Air JT610 sebelum hilang di radar.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta - Dunia penerbangan Indonesia kembali dirundung duka. Pesawat Lion Air JT 610 dengan rute Jakarta-Pangkal Pinang dilaporkan jatuh setelah sebelumnya dilaporkan hilang kontak sejak lepas landas dari Bandara Internasional Soekarno-Hatta sekitar pukul 06.00 WIB.Baca JugaBadan SAR Nasional (Basarnas) mendapat informasi pesawat dengan nomor JT 610 itu jatuh di Tanjung Karawang."Benar informasinya A1, jatuh di Tanjung Karawang," kata Humas Basarnas Yusuf, saat dihubungi Liputan6.com di Jakarta, Senin (29/10/2018).Kabar tersebut pun sontak langsung menjadi sorotan publik, khususnya para pengguna jejaring sosial. Pantauan Citizen6-Liputan6.com, lini masa Twitter dibanjiri beragam twit warganet yang merasa kaget dengan berita tersebut.Selain itu, banyak pula warganet yang menuturkan ucapan duka atas jatuhnya pesawat Lion Air JT 610.Turut berdukacita ..😭Doa yang terbaik untuk para korban pesawat Lion Air JT610Semoga keluarga yg ditinggalkan diberikan ketabahan 🙏Doa untuk seluruh penumpang Lion Air JT-610. #JT610Doa saya untuk keselamatan penumpang &amp; awak pesawat Lion Air JT610 (PK-LQP).Kita doakan agar Tim SAR lancar, berhasil temukan &amp; selamatkan semua penumpang &amp; awak pswt tsb.Semoga Tuhan beri kesabaran &amp; ketegaran bagi keluarga penumpang &amp; awak pesawat. pic.twitter.com/yTm89kO1YtMengirim doa untuk segenap penumpang, crew dan keluarga. Semoga semuanya selamat.Semoga para petugas penyelamat dapat segera menemukan pesawatLion Air #JT610 #lion #BreakingNewsSaking banyaknya twit yang membanjiri lini masa, perbincangan jatuhnya pesawat Lion Air JT 610 tersebut pun kini menjadi topik yang paling ramai dibahas warganet. Bahkan tagar #JT610 dan #LionAir berada di jajaran teratas trending topic Twitter kawasan Indonesia.Saksikan Video Pilihan di Bawah Ini:KNKT menyelidiki insiden kecelakaan pesawat antara Lion Air dan Wings Air di landasan pacu bandara Kualanamu, Sumatera Utara.Pesawat tersebut berangkat pada pukul 06.10 WIB dari Bandara Internasional Soekarno-Hatta dan sesuai jadwal akan tiba di Pangkal Pinang pada Pukul 07.10 WIB. Dilaporkan, pesawat itu membawa 178 penumpang dewasa, 1 penumpang anak-anak dan 2 bayi dengan 2 Pilot dan 5 FA.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Karawang - Perairan Tanjung Karawang mendadak riuh. Sebuah pesawat yang membawa 189 penumpang dan kru Lion Air JT 610 jatuh dan tenggelam di perairan yang tidak jauh dari Jakarta.Pantauan Liputan6.com dari KRI Kobra 2356, barang-barang tersebut berupa dompet, bangku, dan pakaian dalam yang diduga milik para penumpang. Selain itu, personel TNI AL juga menemukan beberapa serpihan puing pesawat yang mengapung di permukaan perairan.Baca JugaPersonel TNI AL juga mengambil beberapa dokumen yang dianggap penting dan membantu tim Basarnas. Yaitu, berupa serpihan identitas para penumpang berupa kartu tanda pengenal, SIM, dan KTP.Hingga saat ini, terlihat puluhan kapal di perairan Tanjung Karawang yang membantu proses evakuasi. Mereka terdiri dari unsur TNI AL, Polisi Perairan, Basarnas, dan perahu nelayan.Pesawat Lion Air dengan nomor penerbangan JT 610 tujuan Jakarta-Pangkal Pinang hilang dari radar menara pengawas (ATC) pada koordinat 05 46.15-l S-107 07.16 E KMA atau sekitar wilayah Karawang.Pesawat hilang kontak usai lepas landas landas dari Bandara Internasional Soekarno-Hatta sekitar pukul 06.00 WIB. Pesawat tersebut sedianya akan mendarat di Pangkal Pinang.Kepala Bidang Disaster Victim Identification (DVI) Pusdokkes Polri Kombes Lisda Cancer meminta keluarga korban pesawat Lion Air JT 610 untuk membawa data-data dan dokumen untuk kepentingan identifikasi.Data-data tersebut di antaranya data sidik jari dalam bentuk ijazah dan sebagainya, data gigi (nomor telepon dokter gigi yang merawat), data medis (nomor telepon dokter yang merawat), dan info tentang properti (termasuk pakaian yang dikenakan saat berangkat).Data-data tersebut dapat dilaporkan ke Rumah Sakit Bhayangkara Said Sukanto atau RS Polri, Kramatjati, Jakarta."Untuk keperluan data DNA, diharapkan yang datang ke rumah sakit adalah orang yang ada hubungan darah dengan korban (orang tua dan anak)," ujar Lisda dalam keterangam yang diterima Liputan6.com, Senin (29/10/2018).Sementara itu, pihak Lion Air mencatat, ada 181 penumpang yang berada dalam pesawat yang mengalami kecelakaan tersebut. Dua di antaranya bayi. Kru pesawat tersebut terdiri dari 2 kokpit kru dan 6 orang awak kabin.Sebelumnya, Pesawat Lion Air JT 610 dilaporkan hilang kontak 13 menit setelah take off dari Bandara Soekarno Hatta pada 06.20 WIB. Basarnas memastikan pesawat tersebut jatuh di Tanjung Karawang.Pesawat Lion Air JT 610 dinyatakan jatuh di perairan Karawang, Jawa Barat. Basarnas mulai menurunkan tim penyelam untuk mencari kemungkinan korban.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta - Misi "hidup-mati" timnas Indonesia U-19 bakal ditentukan pada Minggu (28/10/2018). Bagaimana tidak, pada laga perempat final Piala AFC U-19 ini, timnas Indonesia bakal menghadapi sang juara bertahan Jepang.Di atas kertas, Jepang unggul dari timnas Indonesia U-19. Meski mengemban misi yang terbilang sulit, jika merujuk istilah umum bola itu bundar, segala kemungkinan bisa terjadi.Baca JugaKondisi kurang lebih serupa juga terjadi pada negara-negara lainnya yang lolos ke delapan besar. Semua kemungkinan masih dimiliki masing-masing negara untuk lolos ke semifinal dan partai puncak: final.Negara mana sajakah yang lolos ke delapan besar? Mampukah timnas Indonesia U-19 berbicara banyak hingga ke final bahkan juara? Simak dalam Infografis di bawah ini:</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Tangerang - Presiden Direktur Lion Air Grup, Edward Sirait menyebutkan, pesawat Lion Air JT 610 yang ditemukan jatuh berkeping-keping di Teluk Karawang itu, sempat mengalami kendala teknis."Memang betul, pesawat baru tersebut pernah alami kendala teknis dan itu hal yang biasa," katanya, Senin (29/10/2018).Baca JugaPesawat buatan 2018 dan baru dioperasikan oleh Lion Air sejak 15 Agustus 2018 tersebut mengalami kendala saat pesawat akan berangkat dengan rute Bandara Soekarno Hatta, Kota Tangerang ke Bandara Ngurah Rai, Denpasar, Bali pada minggu malam."Saat itu memang ada kendala, tapi berhasil dan selamat pada penerbangan nya yang tentunya laik untuk take off," ungkapnya.Dia pun menyatakan, pesawat dengan buatan Amerika tersebut telah mengalami jam terbang cukup baik dengan banyaknya negara yang menggunakan pesawat tersebut. Untuk di Indonesia khususnya Lion Air, pesawat tersebut telah memiliki jam terbang cukup padat dengan 20 jam perhari khusus domestik."Ini laik dipakai, namun kita masih tunggu apa kendalanya karena masih diselidiki," ujar Edward.Lion Air sendiri telah memiliki 11 pesawat dengan jenis tersebut untuk melakukan penerbangan baik domestik ataupun internasional.Diketahui, pesawat Lion Air rute dengan rute Jakarta-Pangkalpinang yang mengalami lost contact, sekitar pukul 06.31 WIB tadi pagi dan setelah 13 menit mengudara pesawat jatuh di koordinat S 5’49.052” E 107’ 06.628” (sekitar Kerawang) dengan mengangkut 178 penumpang dan delapan kru kabin pesawat.Saksikan video pilihan di bawah ini:Pesawat Lion Air dengan nomor penerbangan JT 610 jatuh di Tanjung Karawang setelah dilaporkan hilang kontak pada sekitar pukul 06.00 WIB. Pesawat tersebut membawa 189 orang, termasuk penumpang dan kru pesawat.</t>
   </si>
   <si>
     <t>Liputan6.com, Jakarta - Komisi Pemberantasan Korupsi (KPK) tancap gas menjelang akhir tahun. Setelah menangkap Bupati Cirebon Sunjaya Purwadisastra sebagai tersangka dalam kasus jual beli jabatan, kali ini KPK mencegah Wakil Ketua DPR Taufik Kurniawan untuk bepergian ke luar negeri dalam enam bulan ke depan.Surat pencegahan itu telah diterima Direktorat Jenderal (Ditjen) Imigrasi Kementerian Hukum dan HAM, Jumat 26 Oktober 2018.Baca Juga"Surat permohonan cegah sudah diterima (dari KPK Jumat 26 Oktober)," kata Kepala Bagian Humas dan Umum Ditjen Imigrasi Theodorus Simarmata saat dikonfirmasi, Jakarta, Minggu 28 Oktober 2018.Sementara itu, Jubir Komisi Pemberantasan Korupsi (KPK) Febri Diansyah belum berkomentar banyak mengenai surat permintaan cekal tersebut ketika dihubungi Liputan6.com."Besok diinformasikan ya, masih perlu dicek," kata Febri.Wakil Ketua DPR Taufik Kurniawan sempat menjalani pemeriksaan di KPK pada Rabu 5 September 2018. Menurut politikus PAN itu, pemanggilannya terkait penyelidikan yang tengah dilakukan lembaga antirasuah itu."Bukan saksi, cuma dimintai keterangan bagaimana mekanisme penganggaran secara mekanisme di DPR. Ini penyelidikan," ujar Taufik Kurniawan di Gedung KPK Kuningan Jakarta Selatan.Taufik mengatakan, dirinya dimintai keterangan terkait mekanisme penganggaran di DPR dan mekanisme pembahasan proses APBN. Sebab, Taufik menjabat sebagai Wakil Ketua DPR bidang ekonomi dan keuangan."Tanya ke penyelidik, tanya Pak penyelidik. Semua yang saya tahu tentang anggaran saya sampaikan ke penyelidik," ujarnya.Kendati, Taufik enggan menjelaskan kasus apa yang saat ini tengah diselidiki penyidik KPK. Dia hanya mengungkapkan salah satu yang dikonfirmasi penyelidik adalah masalah dana alokasi khusus hingga dugaan mafia anggaran."Semua yang saya ketahui sudah saya sampaikan ke penyelidik, ya bukan penyidik ya," tegas Taufik Kurniawan.Selain diperiksa KPK, nama Taufik Kurniawan pernah disebut dalam sidang kasus dugaan tindak pidana korupsi terkait Dana Alokasi Khusus untuk kabupaten Kebumen, Jawa Tengah.Pada sidang 2 Juli 2018 kasus korupsi pengadaan barang dan jasa di Kabupaten Kebumen Tahun Anggaran 2016, terdakwa Bupati Kebumen Yahya Fuad, mengaku bertemu dengan Taufik Kurniawan untuk membahas alokasi DAK Kabupaten Kebumen.Pertemuan itu terjadi di Semarang dan Jakarta. Bupati Yahya menjelaskan ada kewajiban sebesar lima persen yang harus diberikan jika DAK sebesar Rp 100 miliar itu cair. Fee diberikan dua kali melalui orang suruhan Taufik di Semarang dengan total pemberian uang mencapai Rp 3,7 miliar.Kabupaten Kebumen sendiri merupakan daerah pemilihan Taufik Kurniawan berasal Jawa Tengah VII meliputi Banjarnegara, Purbalingga, dan Kebumen.Antara melansir, Taufik Kurniawan diduga menerima total sekitar Rp 4,8 miliar dari lima persen anggaran DAK untuk kabupaten Kebumen.Berdasarkan laman Direktorat Jenderal Perimbangan Keuangan (DJPK) Kementerian Keuangan, Kabupaten Kebumen mendapatkan total DAK sebesar Rp 106,067 miliar pada 2017.Yahya Fuad sudah dijatuhi hukuman empat tahun penjara ditambah denda sebesar Rp 300 juta subsider empat bulan kurungan dalam kasus suap atas sejumlah proyek di Kebumen selama kurun waktu 2016 pada 22 Oktober 2018.Sedangkan perusahaan milik Yahya yaitu PT Tradha juga ditetapkan KPK sebagai tersangka Tindak Pidana Pencucian Uang (TPPU). PT Tradha diduga meminjam bendera lima perusahaan lain untuk memenangkan delapan proyek di Kabupaten Kebumen pada kurun 2016-2017 dengan nilai total proyek Rp 51 miliar.PT Tradha juga diduga menerima uang dari para kontraktor yang merupakan fee proyek di lingkungan Pemkab Kebumen setidaknya sekitar Rp 3 miliar seolah-olah sebagai utang.Selanjutnya uang yang didapat dari proyek tersebut, baik berupa uang operasional, keuntungan dalam operasional maupun pengembangan bisnis PT Tradha kemudian bercampur dengan sumber lainnya dalam pencatatan keuangan PT Tradha sehingga memberikan manfaat bagi PT Tradha sebagai keuntungan maupun manfaat lainnya untuk membiayai pengeluaran atau kepentingan pribadi Yahya Fuad, baik pengeluaran rutin seperti gaji, cucilan mobil maupun keperluan pribadi lainnya.Namun, Wakil Ketua KPK, Saut Situmorang juga enggan berkomentar banyak soal kasus yang menjerat Taufik Kurniawan. Dia mengatakan, lembaga antirasuah itu akan menjelaskan soal pencegahan ini, Senin 29 Oktober 2018."KPK akan memberikan pernyataan resmi perihal tersebut besok," ujar Saut kepada Liputan6.com.KPK melakukan pencegahan terhadap Wakil Ketua DPR Taufik Kurniawan. Partai Amanat Nasional (PAN) memastikan, kadernya tersebut akan kooperatif atas keputusan KPK."Sepertinya kita serahkan ke proses hukum. Mungkin ada beberapa pemanggilan dan kita akan kooperatif," kata Wakil Sekretaris Jenderal DPP PAN Faldo Maldini di Djakarta Theater, Jakarta, Minggu (28/10/2018).Dia mengatakan, partainya menyerahkan semua proses hukum terhadap Taufik ke KPK."Kita doakan semoga prosesnya lancar, tidak ada permasalahan apa pun, kita serahkan kepada proses hukum yang berjalan," ucap Faldo.Ia juga memastikan, partainya akan memberikan bantuan hukum kepada Taufik."Biasanya sih memang selalu ada. Tapi ini belum dibahas di DPP. Maksud saya ini kan masih pencekalan ya, belum jauh-jauh. Kita lihatlah prosesnya. Sabar aja, slow," terang dia.Sementara, Faldo menambahkan bahwa partainya belum membahas mengenai posisi Taufiksebagai pimpinan DPR menyusul pencegahan yang dilakukan KPK."Belum dibahas di DPP," kata Faldo.Saksikan video pilihan di bawah ini:Bupati Cirebon non aktif Sunjaya Purwadi Sastra telah ditetapkan sebagai tersangka dugaan kasus suap jual beli jabatan. Seteh diperiksa KPK menahan yang bersangkutan</t>
   </si>
   <si>
-    <t>Liputan6.com, Jakarta - Semangat masyarakat dalam memperingati Sumpah Pemuda masih membara. Terbuki, bertepatan dengan kelahiran momen bersejarah tersebut, 28 Oktober, kicauan soal Sumpah Pemuda mengalir deras di Twitter.#HariSumpahPemuda bahkan bertengger dalam daftar Trending Topics Indonesia di media sosial tersebut. Tak hanya posting-an berupa teks, sejumlah warganet secara kreatif menyalurkan semangat Sumpah Pemuda dengan foto atau gambar yang menyiratkan semangat perjuangan.Baca JugaUcapan Hari Sumpah Pemuda pun datang dari beberapa tokoh berpengaruh di Indonesia, seperti Gubernur DKI Jakarta Anies Baswedan dan Gubernur Jawa Barat Ridwan Kamil.Sejumlah lembaga seperti Badan Meteorilogi, Klimatologi, dan Geofisika (BMKG) dan Kementerian Pertanian RI tak ketinggalan mengucapkan Hari Sumpah Pemuda yang ke-90.SELAMAT HARI SUMPAH PEMUDA. 28 Oktober 2018. Pesan saya, agar selamat mengarungi zaman penuh kebisingan ini, para milenial milikilah 3 nilai ini: 1. Beriman. 2. Berilmu. 3. Berahlak. pic.twitter.com/6W5RHv1BHXHari ini, tepat 90 tahun yang lalu, tepatnya di Jalan Kramat, anak-anak muda berkumpul merumuskan cita-cita raksasa, tentang masa depan bangsa Indonesia.Selamat #HariSumpahPemuda ke-90.https://t.co/vDWj9zQHLsJadilah pemuda yg mampu mengguncangkan dunia. Pemuda itu tdk suka mengeluh, tdk berfikiran negatif, tdk mudah putus asa. Pemuda itu bermimpi, bervisi, bermisi, selalu berfikir positif, melakukan hal yg positif, dan terus berusaha untuk berkarya dan bermanfaat. #HariSumpahPemuda pic.twitter.com/9YJvyRbbHNMari bersama bakar semangat muda untuk bangkitkan Indonesia.Selamat Hari Sumpah Pemuda.#HariSumpahPemuda #SumpahPemuda pic.twitter.com/U0WBBFiqfy"Beri aku seribu orang tua, niscaya akan kucabut semeru dari akarnya. Beri aku sepuluh pemuda niscaya akan kuguncangkan dunia." (Ir. Soekarno).Selamat #HariSumpahPemuda ✊🇮🇩 pic.twitter.com/mBPtOixpZ4Selamat Hari Sumpah Pemuda! Kobarkan semangat kita untuk berkarya demi bangsa dan negara. Gemakan ke seluruh dunia bahwa kita satu tanah air, satu bangsa, dan satu bahasa. Siapa kita?INDONESIA!!! 🇲🇨🇲🇨🇲🇨#HariSumpahPemuda #BikinIndonesiaMaju pic.twitter.com/AXtOIV5B33Kemajuan suatu bangsa ada digenggaman para pemuda – Selamat Hari Sumpah Pemuda.__#SumpahPemuda #HariSumpahPemuda #PersijaJakarta #PersijaSelamanya pic.twitter.com/d6qsAVqtUNPemuda dan Pemudi Indonesia dulurkuTanah air kita hanya satuBangsa Kita cuma satuBahasa Kita sudah satuJadi, sudahi seteruMari bahu membahu membangun Indonesia maju 🇮🇩Selamat Hari Sumpah Pemuda! 👊🏽#Persebaya #HariSumpahPemuda pic.twitter.com/8U5dMqI1V6Di sisi lain, Forum Komunitas Jayapura (FKJ) yang terdiri dari berbagai komunitas di Kota Jayapura dan sekitarnya menggelar upacara Sumpah Pemuda dengan menggunakan bahasa isyarat Indonesia (Bisindo).Koordinator kegiatan Abdel Gamel Naser mewakili Ketua FKJ Fredy Wanda di Kota Jayapura, Sabtu mengatakan kegiatan tersebut akan digelar di bibir pantai Pasir 6, Kabupaten Jayapura, Papua pada Minggu (28/10/2018) siang.Kegiatan itu bernama Sumpah Pemuda Bahasa Isyarat Indonesia (Bisindo) guna memperingati hari Sumpah Pemuda 28 Oktober 1928."Kegiatan ini kami yang inisiasi yang di dalamnya tergabung berbagai komunitas dari berbagai bidang tetapi memiliki satu visi yang sama, yakni memberikan kontribusi yang positif dan demi majuan daerah," katanya.Hal tersebut, kata dia, dengan menyalurkan berbagai kreativitas, kolaborasi, dan komunikasi yang baik dengan sesama maupun kepada instansi-instansi lain terkait."Ini kegiatan tak biasa karena dilakukan di alam yakni sebuah lokasi di area Pantai Pasir 6, Kabupaten Jayapura. Pemilihan tempat ini karena konsepnya area terbuka dan dapat menyatu dengan alam," katanya.Gamel mengklaim, acara tersebut sangat unik dan pertama kali dilakukan di Kota Jayapura bahkan Provinsi Papua, yakni pengucapan Sumpah Pemuda dengan menggunakan bahasa isyarat Indonesia atau dikenal Bisindo."Kami juga didukung dan dilaksanakan bersama Komunitas Tuli Jayapura (KTJ) yang kita ketahui bahwa komunitas ini baru terbentuk dan juga telah bergabung bersama FKJ," katanya.Selain pengucapan Sumpah Pemuda tersebut, ada beberapa rangkaian acara yang tidak kalah menarik. Seperti pembacaan puisi dan aksi kreatifitas dari komunitas-komunitas di Kota Jayapura dan sekitarnya.(Isk/Ysl)Saksikan Video Pilihan Berikut IniPresiden Jokowi membacakan puisi bertajuk 'Sumpah Abadi' karya Dewi Lestari.</t>
+    <t>Liputan6.com, Jakarta - Kementerian Pertanian (Kementan) memangkas waktu perizinan ekspor produk-produk pertanian dari sebelumnya 13 hari atau 312 jam menjadi hanya 3 jam.Kebijakan ini dilakukan guna mendorong peningkatan ekspor produk pertanian Indonesia. Menteri Pertanian, Amran Sulaiman, mengatakan sebelumnya proses perizinan untuk ekspor produk pertanian membutuhkan waktu berbulan-bulan. Kemudian Kementan memangkas proses perizinannya menjadi 13 jam."Sekarang 312 jam (13 hari). Tapi kita sekapat menjadi 3 jam, dari 312 jam," ujar dia di Kantor Kementan, Jakarta, Senin (29/10/2018).Baca JugaDia mengungkapkan, dari pemangkasan waktu proses perizinan sebelumnya telah terbukti meningkatkan ekspor produk pertanian. Dengan kembali dipangkasnya waktu perizinan ini diharapkan peningkatan ekspor produk pertanian bisa lebih signifikan."Saat ini dibandingkan tahun lalu naik 13 persen, tahun sebelumnya naik 24 persen. Jadi total sudah ada peningkatan 37 persen dalam 2 tahun. Jadi dulu dari berbulan-bulan (proses perizinan) menjadi 13 hari dan dampaknya positifnya luar biasa, ekspor kita meningkat tajam," ungkap dia.Amran menuturkan, pemangkasan waktu perizinan ini diperuntukkan bagi seluruh jenis komoditas pertanian. Selain itu, terintergrasinya proses perizinan dalam Online Single Submission (OSS), pengusaha bisa mengajukan perizinan melalui online."Ini untuk semua komoditas pertanian. Bahkan kita yang akan kejar sampai ke kebunnya, jadi eksportir tidak perlu lagi memikirkan soal izinnya. Eksportir tidak perlu datang ke sini (Kantor Kementan), bisa mengurus secara online," ujar dia.Sebelumnya, Kementerian Pertanian (Kementan) menyatakan data beras yang akurat terletak pada laporan Badan Pusat Statistik (BPS).Itu disampaikan Sekretaris Jenderal (Sekjen) Kementan Syukur Iwantoro dalam paparan pencapaian empat tahun Jokowi-JK di Gedung Kementan, Rabu 24 Oktober 2018."Satu-satunya sumber data yang jadi referensi itu BPS. Jadi kami tidak pernah keluarkan data produksi pertanian berdasarkan sumber BPS. Jadi dengan adanya perubahan ini kami mengacu ke BPS," tutur Syukur.Dia menekankan, Kementan hanya akan berfokus menjaga ketersediaan beras. Terutama bagaimana menciptakan kecukupan pangan di masyarakat."Kementan fokus menanam supaya menuju kecukuan pangan untuk populasi yang terus meningkat terpenuhi. Jangan dianggap remeh, peningkatan populasi kita itu dua kalinya Singapura. Dan populasi ini akan naik terus, kami harus penuhi kebutuhan," jelasnya.Syukur mengungkapkan, untuk tahun 2018 sendiri, Kementan mengalokasikan 85 persen dari total anggaran sebesar Rp 22,65 triliun.Itu guna memenuhi kebutuhan petani untuk peningkatan produksi seperti belanja sarana dan prasarana pertanian. Kementan bahkan tercatat mengalokasikan anggaran sebesar Rp 5,5 triliun untuk kepentingan bibit dan benih bagi petani.Adapun sektor pertanian Indonesia menunjukan trend positif dalam rentang waktu 2014-2018. Indikator perbaikan itu dilihat dari pemeringkatan Global Food Security Index (GFSI) atau Indeks Ketahanan Pangan Global.Peringkat GFSI di 2018 ini, Indonesia menduduki peringkat 65 dari 113 negara yang dinilai. Capaian itu meningkat dimana RI pada tahun 2014 berada di posisi ke-72.Saksikan video pilihan di bawah ini:Sebanyak 500 truk yang mengangkut bantuan logistik kepada para korban siap mengantarkan bantuan berupa bahan pangan pokok, sandang dan berbagai bentuk bantuan lainnya.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta - Perkembangan smartphone harus diakui sulit dibendung. Baik dari spesifikasi atau fitur, setiap vendor smartphone tak ragu untuk jor-joran membenamkan yang terbaik.Salah satu yang terlihat perkembangannya adalah penggunaan RAM di smartphone saat ini. Beberapa tahun lalu, RAM yang dibenamkan berkisar 2GB atau 3GB, tapi kini RAM 4GB hingga 6GB sudah menjadi hal yang lumrah.Baca JugaBahkan, sejumlah vendor smartphone kini sudah menggunakan RAM lebih yang besar, yakni 10GB. Meski belum banyak diadopsi vendor, penggunaan RAM 10GB bukan tidak mungkin akan makin berkembang di masa depan.Alasannya, kebutuhan komputasi dengan smartphone akan makin tinggi dan biasanya diimbangi spesifikasi kelas premium.Untuk mengetahui model smartphone apa saja yang sudah menggunakan RAM 10GB, berikut beberapa model yang sudah dihimpun Tekno Liputan6.com, Sabtu (27/10/2018).1, Black Shark HaloSmartphone gaming terbaru Xiaomi ini baru saja diperkenalkan beberapa hari lalu. Kendati demikian, Black Shark Halo mengusung spesifikasi RAM di atas rata-rata smartphone kebanyakan.Alasannya, varian yang paling tinggi dipersenjatai oleh RAM 10GB dan memori internal 256GB. Sama seperti smartphone premium lain, Xiaomi memakai chipset Snapdragon 845 untuk mempersenjatai perangkat ini.Dari sisi fotografi, Black Shark Helo memiliki dual camera 12MP+20MP (masing-masing mempunyai aperture f/1.8) dan kamera selfie 20MP dengan aperture f / 2.2.Sayangnya, harga Black Shark Helo versi 10GB dengan ROM 256GB belum diungkap. Selain varian 10GB, smartphone yang menjalankan Android 8.1 Oreo ini juga memiliki model dengan RAM 6GB dan 8GB.Tidak hanya Black Shark Halo, Xiaomi juga memiliki varian smartphone lain dengan RAM 10GB, yakni Mi Mix 3. Hadir sebagai flagship smartphone, Mi Mix 3 memiliki rasio screen-to-body sebesar 93,4 persen.Mirip Black Shark Halo, varian RAM 10GB Mi Mix 3 juga didukung dengan chipset Snapdragon 845.Varian RAM 10GB dengan memori internal 256GB ini merupakan versi khusus 'Forbidden City Palace Museum' yang dijual dengan harga US$ 720 (Rp 10,9 juta).Secara keseluruhan, Mi Mix 3 memiliki empat kamera, dua di depan dan dua di belakang. Kamera depannya beresolusi 24MP dan 2MP, sedangkan dua kamera belakangnya sama-sama beresolusi 12MP.Xiaomi turut membenamkan tombol khusus yang berfungsi untuk mengaktifkan asisten virtual Xiao AI. Smartphone ini dibekali dengan multi-function NFC, dual frequency GPS, dan 4x4 MIMO.Awalnya, Oppo Find X disebut-sebut akan menjadi smartphone pertama yang memiliki RAM 10GB. Namun begitu Xiaomi merilis Black Shark dan Mi Mix 3, prediksi itu dipastikan meleset.Kendati tidak sesuai prediksi sejumlah pihak, bukan berarti Oppo membatalkan kehadiran Find X varian RAM 10GB ini hadir ke pasaran. Terlebih, perangkat ini sudah terdaftar di TENAA (badan sertifikasi Tiongkok).Berdasarkan daftar TENAA, varian RAM 10GB ini akan dipadukan dengan memori internal 256GB. Sementara dari sisi jeroan lain, smartphone ini masih dibekali dengan chipset Snapdragon 845.Oppo Find X dibekali kamera utama ganda dengan resolusi 16MP dan 20MP. Sementara untuk kamera depannya, Oppo membekali Find X dengan kamera selfie 25MP.(Dam/Isk)Saksikan Video Pilihan Berikut Ini:Akses konten pornografi via perangkat mobile, khususnya smartphone, mengalami peningkatan seiring dengan semakin pesatnya pertumbuhan pengguna. Menurut laporan Juniper Research, sepanjang semester pertama 2015, ada sekitar 136 miliar video porno yang dito</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Sukabumi - Jembatan Asa yang berlokasi di Sukabumi, Jawa Barat, diresmikan oleh Komisaris Utama SCM Letjen Purnawirawan TNI R Soeyono, pada Senin, 22 Mei 2017, dengan penguntingan pita yang menandakan diresmikannya Jembatan Asa ke-13, yang dibuka untuk umum.Seperti ditayangkan Liputan 6 Pagi SCTV, Selasa (23/5/2017), dengan peresmian jembatan ini, masyarakat di dua desa yang dipisahkan sungai beraliran deras, bisa menyeberang dengan aman dan tanpa rasa was-was.Jembatan yang di buat enam bulan lalu ini menghubungkan dua desa di Sukabumi yakni Desa Sirnaresmi dan Desa Tanjungsari.Jembatan yang memiliki panjang 56 meter dan lebar 1,2 meter ini mampu menampung berat hingga 8 ton karena dibuat dari besi dan sling berkualitas tinggi.Warga pun kini bisa menyeberang dengan nyaman, baik berjalan kaki maupun menggunakan sepeda motor.Ucapan terima kasih disampaikan kepada pemirsa SCTV atas sumbangannya sehingga terealisasinya pembangunan Jembatan Asa ini.Dengan menghabiskan dana sebesar Rp 480 juta, Jembatan Asa Sukabumi ini diharapkan bisa menggantikan jembatan lama yang sudah mulai rusak terkikis usia di atas Sungai Leuwidinding.Saksikan video Jembatan Asa ke-13 SCTV di Sukabumi diresmikan.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Bekasi - Ribuan warga kabupaten dan Kota Bekasi memadati Gedung Oso Sport Center, Grand Wisata, Tambun Selatan, Bekasi. Mereka datang untuk mendapatkan pengobatan gratis, berupa pengobatan umum dan gigi.Selain pemeriksaan kesehatan, obat-obatan juga dibagikan gratis kepada para pasien.Seperti ditayangkan Liputan 6 Pagi SCTV, Selasa (23/5/2017), bakti sosial yang digelar bersama PTIK ini dilakukan dalam rangka dies natalis ke-71 ilmu kepolisian itu.Melihat tingginya antusiasme warga yang membutuhkan bantuan, Ketua Bhayangkari cabang PTIK berharap akan kembali bekerja sama dengan Yayasan Pundi Amal Peduli Kasih SCTV-Indosiar, agar bisa membantu meringankan beban masyarakat yang tak mampu.Warga yang hadir mengaku senang dengan adanya pengobatan gratis ini. Salah satunya Anang, yang mendapatkan obat untuk matanya yang bermasalah.Yayasan Pundi Amal Peduli Kasih akan terus membangun dan menjadi bagian dari sebuah perubahan di negeri ini, karena kepedulian kita harapan mereka.Saksikan video Pundi Amal Peduli Kasih menggelar pengobatan gratis di Bekasi.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta - Wakil Presiden Jusuf Kalla menyampaikan belasungkawa kepada keluarga korban pesawat Lion Air JT 610 jatuh di perairan sekitar Karawang, Jawa Barat. Pesawat dengan rute penerbangan Jakarta-Pangkal Pinang itu kecelakaan setelah lepas landas dari Bandara Internasional Soekarno-Hatta pada pukul 06.20 WIB."Saya atas nama pemerintah dan pribadi ingin menyampaikan duka cita yang terdalam. Kecelakaan di Karawang," kata JK di Istana Wakil Presiden, Jakarta Pusat, Senin (29/10/2018).Baca JugaSementara itu, Presiden Joko Widodo atau Jokowi juga telah menanggapi insiden jatuhnya pesawat Lion Air rute Jakarta-Pangkal Pinang. Jokowi berdoa agar korban segera ditemukan dan keluarga tetap tabah sambil menunggu proses pencarian oleh tim SAR."Saya berdoa agar korban bisa segera ditemukan dan saya rasakan duka mendalam. Pada keluarga korban, diharapkan tetap tenang," kata Jokowi di sela kegiatannya di Bali."Tunggu tim SAR yang sedang berkerja keras di lokasi kejadian. Saya sudah perintahkan KNKT melakukan penyelidikan peristiwa ini dan segera sampaikan secepatnya," sambung Jokowi.Pesawat Lion Air JT 610 mengangkut 178 orang dewasa, 1 anak, dua bayi, serta 7 orang awak kabin.Sebelum dinyatakan hilang kontak, pilot pesawat Lion Air dengan nomor penerbangan JT 610 tujuan Pangkalpinang, Babel, sempat meminta kembali ke bandara Soekarno-Hatta atau return to base (RTB) kepada menara ATC.Kepala Otoritas Bandara (Otban) Bandara Internasional Soekarno Hatta, Bagus Sanjoyo menerangkan kronologis sebelum kejadian nahas tersebut. Pesawat jenis Boeing 737-8 itu lepas landas dari Terminal 1 pada pukul 06.20 WIB.Kemudian, pada 06.31 WIB pilot pesawat sempat meminta untuk putar balik kembali ke landasan Bandara Soekarno-Hatta."Kemudian, oleh petugas menara ATC diperbolehkan atau disetujui untuk kembali," kata Bagus, saat memberikan keterangan persnya di Ruang VIP Terminal 1 Bandara Soetta, Senin (29/10/2018).Setelah itu, tiba-tiba pesawat Lion Air  lost contact dengan menara ATC. Bagus pun tidak menerangkan alasan pilot pesawat meminta kembali ke landasan. Meskipun dugaan yang mencuat adalah adanya kerusakan mesin pesawat hingga bocornya tangki bensin."Tidak, tidak mengarah ke sana. Kami belum mengetahui pasti, yang jelas sudah mendapat persetujuan untuk kembali," katanya.Namun setelah itu, pesawat langsung hilang kontak dengan menara ATC. Apakah pesawat hilang kontak atau jatuh masih berada di jalur penerbangan menuju Pangkalpinang, atau sudah posisi putar balik, pihaknya pun masih menunggu penyelidikan dari KNKT."Kita tunggu hasil penyelidikannya setelah black box ditemukan," katanya.Seperti diketahui, pesawat Lion Air dengan nomor penerbangan JT610 diduga jatuh di Teluk Karawang, Jawa Barat.Hingga kini, keluarga korban terus berdatangan untuk mendapatkan informasi pasti mengenai nasib keluarganya yang menjadi penumpang pesawat tersebut.Reporter: Intan Umbari PrihatinSumber: Merdeka.comMelalui aplikasi Flight Radar terlihat bagamana pergerakan pesawat Lion Air JT610 sebelum hilang di radar.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta Pesawat Lion Air rute Jakarta-Pangkalpinang jatuh di perairan Karawang, Jawa Barat. Burung besi itu jatuh tak lama setelah lepas landas dari Bandara Soekarno-Hatta pada pukul 06.20 WIB.Lion Air mencatat, ada 181 penumpang dan 8 awak kabin yang berada dalam pesawat nahas tersebut. Dua di antaranya bayi.Baca JugaBerikut nama-nama penumpang Lion Air yang tertera di posko crisis center di Bandara Soekarno-Hatta, Cengkareng, Senin (29/10/2018).1. Rang Adiprana2. Vivian Afifa3. Indra Bayu Aji4. Firmansyah Akbar5. Wahyu Alldila6. Resky Amalia7. Restia Amelia8. Muhammad Andrian9. P. Anggrimulja10. Dede Angraini11. Liu Anto12. Vicky Ardian13. Arfiyandi14. Reni Ariyanti15. Riyan Aryandi16. Chairul Aswan17. Paul Ayorbaba18. Fauzan Azima19. Naqiya Azmi20. Berly Boen21. Adoni Bongkal22. Matth Bongkal23. Hari Budianto24. Ar. Budiastuti25. Ken Cannavaro26. Liu Chandra27. Fe Christanto28. Ariska Cici29. Dadang30. Nursi Damanik31. Dia Damayanti32. Dary Daryanto33. Janu Daryoko34. Prato Dewanto35. Inayah Dewi36. Jannatun Dewi37. Sui Di38. Dolar39. Dony40. Dwinanto41. Abdul Efendi42. Capt. Efendi43. Jan Efriyanto44. Sri Endang45. Eryanto46. Xhe Fachridzi47. Mohammad Fadillah48. Der Febrianto49. Filzaladi50. Fiona Ayu Zen51. Trie Gautama52. Achmad Hadi53. Tri Hafidzi54. Fifi Hajanto55. Ibnu Hantoro56. Hardy57. Fais Harharah58. Darw Harianto59. Har Harwinoko60. Chandra Hasan61. Has Hasnawati62. Hedy63. Hendra64. Herju Herjuno65. Dewi Herlina66. Henny Heuw67. Ambo Malis HM68. A Innajatullah69. Dicky Jatnika70. Ervin Jayanti71. Muhammad Jufri72. Tami Julian73. Juma Jumalih74. HK Junaidi75. Dodi Junaidi76. Vera Junita77. Karmin Karmin78. Y Kartikawati79. Kasan80. Tesa Kausar81. Abdul Khaer82. Sui Khiun83. Khotijah84. Chandra Kirana85. Ariauw Komardy86. Igan Kurnia87. Mariya Kusum88. Liany89. Linda90. Luhba Toruan91. Mahheru92. Andr Mangredi93. Martono94. Sekar Maulana95. Mito96. Moejiono97. Monni98. Msyafii99. Akma Mugnish100. Murdiman101. Murita102. .Muhammad Nasir103. Njat Ngo104. Nie Nie105. Zulva Ningrum106. NoeGrohantoro107. Noorviantoro108. Agil Nugroho109. Hesti Nuraini110. Joyo Nuroso111. Nurramdhani112. Onggomardoyo113. Yoga Perdana114. Chris Prabowo115. Riwan Pranata116. Rio Pratam117. Junior Priadi118. Ruslian Purba119. Puspita Putri120. Fatikah Putty121. N Rabagus122. Shan Ramadhan123. Ruma Ramadhan124. Muchta Rasyid125. Ema Ratnapuri126. Rebiyanti127. Nur Rezkianti128. Rijalmahdi129. Muhammad Riyadi130. Imam Riyanto131. Akhim Rokhmana132. Romhan Sagala133. Sah Sahabudin134. Martua Sahata135. Ubaidi Salabi136. Nikky Santoso137. Yunit Sapitri138. Mawar Sariati139. Ase Saripudin140. Hi Saroinsong141. Sas Sastiarta142. Rudolf Sayers143. Nata Setiawan144. Cosa R Shabab145. Shella146. Sian147. Man Sihombing148. Yul Silvianti149. Nu Sitharesmi150. Nia Soegiyono151. Rizal Sputra152. Mack Stanil153. Eka M Suganda154. Rank Sukandar155. Idha Susanti156. Rober Susanto157. Wahyu Susilo158. Eko Sutanto159. Eling Sutikno160. Sya Syahrudin161. Hendra Tanjaya162. Tan Mr Toni163. Trianingsih164. Maria Ulfah165. Bambang Usman166. Verian Utama167. Miche Vergina168. Wanto169. Wendy170. Radik Widjaya171. Krisma Wijaya172. Daniel Wijaya173. Andr Wiranofa174. Witaseriani175. Wulurastuti176. Nicko Yogha177. Reo Yumitro178. Yuniarsi179. Yunita180. Bayi 1181. Bayi 2Selain 181 penumpang, pesawat itu juga membawa 7 kru.Berikut daftar pilot dan awak kabin pesawat nahas tersebut berdasarkan data Kemenhub:1. Bhavve Suneja (Pilot)2. Harvino (Co-pilot)3. Shintia Melina (Supervisi pramugari)4. Citra Novita Anggelia Putri (Pramugari)5. Alfiani Hidayatul Solikah (Pramugari)6. Fita Damayanti Simarmata (Pramugari)7. Mery Yulyanda (Pramugari).Pesawat Lion Air JT 610 dinyatakan jatuh di perairan Karawang, Jawa Barat. Basarnas mulai menurunkan tim penyelam untuk mencari kemungkinan korban.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta - Anggota Dewan Pengarah Tim Kampanye Nasional Jokowi-Ma'ruf Amin, M Romahurmuziy mengaku punya strategi khusus untuk melawan hoaks yang digulirkan kubu Prabowo-Sandiaga dalam Pilpres 2019. Dia mengaku sudah hapal betul cara-cara yang bakal diluncurkan.Terlebih, Ketum PPP tersebut pernah berada di kubu Prabowo Subianto pada 2014. PPP merupakan salah satu partai pengusung Prabowo-Hatta pada saat itu.Baca Juga"Apa-apa yang mereka lakukan saya sudah hapal dan itu akan menjadi bagian solusi tim kampanye nasional," ujar pria yang akrab disapa Romi di sela Rakernas TKN Jokowi-Ma'ruf di Surabaya, Jawa Timur, Minggu (28/10/2018).Dia pernah menyebut, tabloid Obor Rakyat sengaja diciptakan untuk menyerang Jokowi. Dia menyebut tabloid itu disebarkan ke masjid dan pesantren untuk membuat citra Jokowi sebagai komunis atau anggota PKI.Terpisah, Wakil Ketua TKN Jokowi-Ma'ruf Abdul Kadir Karding mengklaim dapat informasi kubu Prabowo-Sandi bakal memakai cara sama di Pilpres 2019. Menurutnya, tim pemenangan Prabowo masih memakai konsultan asing seperti 2014 lalu.Dia menambahkan, kubu Prabowo memakai cara Donald Trump memenangkan Pemilu AS 2016. Seperti membuat kebohongan, menuduh pemerintah gagal, dan merepetisinya supaya merusak pemikiran masyarakat."Ini akan diulang lagi karena mereka pakai konsultan asing dan cara-cara yang dipakai pemenangan ala Trump," kata Politikus PKB itu.Reporter: Ahda BayhaqiPasangan calon presiden (capres) dan calon wakil presiden (cawapres) Jokowi-KH Ma'ruf Amin berserta Prabowo Subianto-Sandiaga Salahuddin Uno membacakan deklarasikan kampanye damai Pilpres 2019.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta Make Over kembali hadirkan kolaborasi beauty dan fashion dalam pagelaran Jakarta Fashion Week (JFW) 2019. Merek makeup profesional ini bekerja sama dengan tiga desainer ternama asal Indonesia. Mereka adalah Rinda Salmun, Ratna Katarina, dan Titis Sapoetra.Make Over sebagai official makeup partner juga berkolaborasi dengan tiga Makeup Artist, yaitu Philipe Karunia, Marlene Hariman, dan Dhirman Putra. Mereka merias para model untuk melengkapi tampilan busana karya ketiga desainer. Ketiga perias ini menyiapkan tiga signature looks yang fokus di bagian mata, kompleksi wajah, dan bibir.Baca JugaPenasaran, seperti apa hasil dari kolaborasi tersebut saat melenggang di runway Beauty Beyond Rules JFW 2019? Yuk, intip!Rinda SalmunPerancang satu ini menghadirkan koleksinya yang bernama Intrepid. Bertemakan bold and adventurous, busana-busana Intrepid merepresentasikan perpaduan karakter maskulin dan feminin secara harmonis. Nuansa warnanya didominasi oleh putih, navy blue, peachy pink, coral, sky lavender, dan sandy brown.Dalam fashion show yang berlangsung di fashion tent JFW 2019, Senayan City, Jakarta Pusat, Kamis (25/10/2018) tersebut, Rinda menampilkan serangkaian jenis busana. Mulai dari vest dengan bahu lebar dan bahan katun, dress berbahan wool dengan detail draped, hingga detail tali seragam pelaut dan kantung kargo. Cocok banget deh untuk pecinta fesyen yang senang berpetualang!Menunjang penampilan bold and adventurous dari koleksi Rinda, Make Over berkolaborasi dengan Philipe Karunia menampilkan signature look yang fokus di bagian mata. Mereka membuat graphic liner di kelopak mata yang telah mendapat sapuan eyeshadow berwarna brown. Garis eyeliner yang tegas ini pun menyampaikan pesan bold yang ingin diusung Rinda.Sementara itu, kompleksi wajahnya dibuat matte dengan sentuhan blush on dan lipstik berwarna nude pink. Secara keseluruhan, riasan ini tampak natural tapi dramatis.Paulina KatarinaSuasana romantis nan elegan terlihat di riasan wajah untuk koleksi busana Paulina Katarina karya Surya Paulina dan Ratna Katarina. Make Over menggandeng perias Marlene Hariman untuk membuat blush on bernuansa rosy-peach yang tampak nyata dan merona.Kompleksi wajah para model juga dibuat matte dengan eyeshadow berwarna coklat nude keemasan dan lipstik matte nude peach serta nude pink. Tampilan ini untuk menyesuaikan koleksi busana Paulina Katarina yang memang mengusung tema lembut dan romantis.Ratna mengaku, inspirasi koleksinya yang diberi nama Sleeping Venus ini berasal dari lukisan dewi Mitologi Roma bernama sama. Ia pun berusaha menuangkan karakteristik sosok Venus yang kuat tapi lembut dengan kesan elegan dan romantis di setiap busananya.Sleeping Venus menghadirkan koleksi busana malam hari, mulai dari atasan, bawahan, jumpsuit, dress, hingga outerwear. Warna silver metallic, pink pastel, dan hitam mendominasi 19 koleksi busana ini. Aksen fringe dan embellishment juga banyak ditampilkan di busana Paulina Katarina.Tities SapoetraKarya Tities Sapoetra kembali tampil di atas panggung JFW bersama Make Over untuk kedua kalinya. Tahun ini, mantan aktor FTV itu menampilkan koleksi Bon Voyage-nya yang sebelumnya tampil di atas panggung Paris Fashion Week 2018.Terinspirasi dari kecantikan para wanita, Tities memperlihatkan motif bunga, wajah wanita, dan berlian pada busana-busananya. Motif ini dipadukan dengan warna hitam, pastel, dan gold. Menurut Tities, warna hitam menjadi simbol warna Make Over, sedangkan gold untuk melambangkan bahwa kesempatan tampil di Paris itu merupakan kesempatan emas bagi dirinya.Untuk membawakan koleksinya, Tities juga mengajak beberapa beauty dan fashion influncers, seperti Tasya Farasya, Sarah Ayu, dan Alika Islamadina. Model-model lain juga tampil untuk memperkenalkan koleksi ready to wear Tities, seperti suit, long dress, mules, dan heeled ankle boots.Melengkapi suasana playful koleksi busana Tities, Make Over bersama Dhirman Putra membuat signature yang fokus pada bibir. Mereka akan menampilkan dua warna lipstik berbeda untuk kedua bagian bibir. Ditambah dengan riasan wajah natural dengan kompleksi matte, sentuhan highliter di tulang pipi, dan eyeshadow dengan nuansa natural.Bagaimana? Keren kan kolaborasi Make Over dengan ketiga desainer tersebut? Semoga kita bisa melihat karya mereka kembali di JFW 2020 ya!(Adv)</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta - Rancangan TVCM Director asal Jepang, Zenta Yoshie atau Yaokeh, jadi salah satu penyemarak runway Jakarta Fashion Week (JFW) 2019. Koleksi bertajuk Modest Wear ini, diakui Yaokeh, terinspirasi dari muslimah asal Indonesia.Hal ini bermula saat ia bertemu banyak hijabers dalam dua kali kunjungan sebagai sutradara ke Indonesia. Yaokeh menemukan kesamaan antara estetika Jepang dan semangat muslim di Indonesia, di mana keduanya mempunyai daya untuk menciptakan koleksi busana muslim serta hijab.Baca JugaDalam koleksi pertamanya, ia mengajak beberapa desainer grafis asal Jepang untuk menciptakan rancangan yang indah di Jakarta Fashion Week (JFW) 2019. Yaokeh juga melibatkan pelukis Jepang untuk membuat motif hijab yang dicetak dengan mutu terbaik.Busana model jumpsuit terlihat mendominasi rancangan Yoakeh. Mulai dari yang polos sampai potongan blazer sharp bermotif stripe. Juga, blouse polos dengan warna indah, detail kantong, dan kancing depan terlihat kasual dan stylish berpadu celana bermotif kotak-kotak.Hijab dari bahan satin terlihat memperindah semua koleksi. Sementara siluet lurus dan longgar pemberi kenyamanan ruang gerak bagi para muslimah ketika mengenakan busana rancangan Zenta Yoshie atau Yaokeh yang tampil di runway Jakarta Fashion Week (JFW) 2019.Saksikan video pilihan di bawah ini:Highlight JFW Day 7Zenta Yoshie atau Yaokeh juga berbagi panggung Jakarta Fashion Week (JFW) 2019 dengan desainer Makoto Washizu dari lini fashion Tategami. Brand yang sudah berdiri sejak 2014 ini dipercaya membuat seragam untuk branding sebuah perusahaan.Kali ini, Washizu menawarkan seragam dari berbagai profesi yang bisa dipakai sehari-hari. Seragam dibuat istimewa, terutama bagi para pekerja lapangan dan manufaktur yang tetap mengutamakan faktor keselamatan.Tampak unik, koleksi uniseks ini terdiri dari potongan jumpsuit, sleeveless dress yang dipasangkan dengan kemeja, juga celana pendek modis fungsional bermotif garis. Apapun jenis profesinya, seluruh koleksi Tategami terlihat nyentrik dan modis.Baik dari pemilihan warna, motif, dan potongan oversized. Rancangan Tategami menginspirasi jika seragam para pekerja tak harus membosankan, namun bisa dibuat playful dan fun.  Jepang sudah memulainya, Indonesia pun harus bersiap memformat ulang definisi seragam kantor, mengingat itu merupakan representasi sebuah perusahaan.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Karawang - Bupati Karawang Cellica Nurachadiana menurunkan puluhan mobil ambulans untuk evakuasi korban jatuhnya pesawat Lion Air. Pesawat dengan nomor penerbangan JT 610 rute Jakarta-Pangkalpinang itu jatuh di wilayah perairan Karawang, Senin pagi."Kita sudah mengerahkan 15-20 ambulans di wilayah utara Karawang untuk membantu evakuasi korban jatuhnya pesawat Lion Air," kata dia, Senin (29/10/2018).Baca JugaSelain menyiapkan puluhan ambulans, Pemkab Karawang juga menyiapkan perlengkapan lainnya seperti ratusan kantong jenazah dan lain-lain.Begitu juga dengan rumah sakit rujukan, Cellica menyatakan kalau rumah sakit di Karawang siap menampung korban pesawat Lion Air jatuh tersebut."RSUD Karawang beserta sejumlah rumah sakit swasta, siap menampung korban pesawat yang jatuh," kata dia.Sementara itu, sejumlah nelayan dan warga pesisir pantai Pakisjaya, Kabupaten Karawang, Jawa Barat, sempat mendengar suara ledakan jatuhnya pesawat Lion Air JT 610 rute Jakarta-Pangkalpinang, Senin."Suaranya seperti menggelegar sekitar pukul 6.30 WIB, dikiranya suara petir," kata Warta, salah seorang warga Pakisjaya, Karawang.Ia mengatakan, warga dan nelayan tidak menyangka kalau suara itu suara ledakan pesawat. Karena suaranya menggelegar seperti petir.Saat ini petugas gabungan masih melakukan pencarian titik lokasi jatuhnya pesawat.Dugaan awal, sesuai informasi yang dihimpun di lapangan menyebutkan lokasi jatuhnya pesawat terjadi di Desa Muara Bungin, perbatasan Karawang-Bekasi.Saksikan video menarik berikut ini:Petugas menemukan beberapa serpihan yang berasal dari pesawat Lion Air JT610 yang jatuh di perairan Karawang, Jawa barat.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Bangka - Dua anggota DPRD Provinsi Kepulauan Bangka Belitung, Junaidi dan Dolar terhindar dari kecelakaan jatuhnya pesawat Lion Air JT 610 rute Jakarta menuju Kota Pangkalpinang, karena dilaporkan ketinggalan pesawat."Dolar dan Junaidi awalnya dijadwalkan naik Lion Air, namun ketinggalan pesawat sehingga terhindar dari kecelakaan," kata Gus, keluarga Junaidi melalui telepon seluler seperti dikutip dari Antara, Senin (29/10/2018).Baca JugaAwalnya dilaporkan sembilan anggota DPRD Babel yang menjadi korban kecelakaan pesawat Lion Air, tetapi Dolar dan Junaidi dipastikan selamat karena sudah ada keterangan pasti dari pihak keluarga.Selain membawa para anggota legislator, pesawat Lion Air tersebut juga membawa sejumlah ASN dari BPK, KPN Pratama, dan para pejabat Polda Babel.Namun, hingga sekarang belum ada data resmi dari pihak berkompeten terkait nama-nama ASN yang dikabarkan menjadi korban kecelakaan pesawat tersebut.Keluarga korban yang tiba pun langsung didata petugas, baik dari kepolisian, TNI, Basarnas dan pihak bandara.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta - Presiden kelima RI Megawati Soekarnoputri mengaku telah mendengar kabar jatuhnya pesawat Lion Air. Pesawat dengan nomor penerbangan JT 610 itu take off dari Bandara Soekarno-Hatta menuju Pangkal Pinang.Hal itu diutarakan saat ia hadir di Universitas Negeri Padang, Sumatera Barat. Megawati hadir dalam penganugerahan gelar doktor kehormatan (honoris causa/HC) oleh Universitas Negeri Padang (UNP) untuk mantan Wakil Perdana Menteri Malaysia Datuk Anwar Ibrahim.Baca Juga"Saya baru mendengar juga tadi waktu di atas. Tetapi, karena belum ada (penjelasan resmi) dari pemerintah atau Lion Air. Saya tentu ikut prihatin dan berharap tentunya memungkinkan atau tidaknya (diselamatkan penumpang), saya juga belum tahu," ucap Megawati di Padang, Senin (29/10/2018).Karena itu, Ketua Umum PDIP ini akan memastikan kondisi terkini, sepulangnya dari Padang. Ia berharap ada hal yang positif bisa dilakukan"Sepulang saya ke Jakarta, saya ingin segera menanyakan. Karena tentunya kita berharap ada hal-hal positif yang masih bisa dilakukan," pungkasnya.Pesawat Lion Air dengan nomor penerbangan JT 610 tujuan Jakarta-Pangkal Pinang hilang dari radar menara pengawas (ATC) pada koordinat 05 46.15-l S-107 07.16 E KMA atau sekitar wilayah Karawang.Pesawat hilang kontak usai lepas landas landas dari Bandara Internasional Soekarno-Hatta sekitar pukul 06.20 WIB. Pesawat tersebut sedianya akan mendarat di Pangkalpinang.Kepala Pusat Data Informasi dan Humas Badan Nasional Penanggulangan Bencana (BNPB) Sutopo Purwo Nugroho menyebut, tim SAR akan melakukan penyelaman untuk mencari pesawat Lion Air JT 610 yang jatuh di perairan Karawang."Saat ini tim SAR Basarnas melakukan penyelaman dikoordinat 05 derajat 90' 361" S - 107 derajat 06' 618" E untuk mencari pesawat Lion Air JT 610 yang jatuh di perairan Karawang Jawa Barat," tulis Sutopo melalui akun Twitter  pribadinya @Sutopo_PN, Senin (29/10/2018).Selain petugas, tim SAR juga menurunkan Remote Underwater Vehicle (RUV) atau robot di bawah air untuk mendeteksi keberadaan pesawat di bawah laut.Pesawat Lion Air JT 610 rute Jakarta-Pangkal Pinang membawa 189 orang, termasuk penumpang dan kru pesawat. Penumpang itu terdiri dari 178 orang dewasa, 1 anak-anak, dan 2 bayi (infant).Untuk kru pesawat terdiri dari 2 kokpit kru dan 6 orang awak kabin.Saksikan video menarik berikut ini:Basarnas dan Kementerian Perhubungan dibantu sejumlah instansi lain mulai mengevakuasi korban.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta - Sejumlah keluarga korban pesawat Lion Air JT 610 mendatangi kantor pusat Lion Air di kawasan Gajah Mada, Jakarta Pusat, Senin (29/10/2018). Pesawat dengan rute Jakarta-Pangkal Pinang itu sempat hilang kontak dan ditemukan jatuh di perairan Tanjung Karawang, Jawa Barat.Pantauan di kantor pusat Lion Air, tampak beberapa orang yang diduga keluarga korban datang. Satu dari mereka terlihat menangis. Wanita paruh baya itu kemudian ditenangkan oleh anggota keluarga lainnya.Baca JugaSaat ditanya mengenai kabar kerabatnya yang berada di pesawat, salah seorang keluarga korban menolak memberi jawaban."Jangan, jangan," kata pria tersebut kepada awak media sambil naik ke mobilnya.Pria tersebut tampak memegang kertas di tangannya. Namun tidak jelas isi dari kertas tersebut.Sebelumnya, pesawat Lion Air dengan nomor penerbangan JT 610 dengan Bandara Soekarno Hatta-Pangkal Pinang hilang kontak usai lepas landas dari Bandara Soekarno-Hatta pada pukul 06.20 WIB. Pesawat yag mengangkut 189 orang itu diketahui jatuh di perairan Karawang, Jawa Barat, pada pukul 06.33 WIB.Pihak keluarga korban penumpang Lion JT 610 mulai mendatangi Posko di Bandara Soetta. Mereka menanyakan nasib keluarga mereka yang menumpang pesawat lion JT 610 yang jaryu di Perairan Karawang</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta - Presiden Direktur Lion Air Grup, Edward Sirait meminta, para keluarga korban jatuhnya pesawat Lion Air JT 610 dengan tujuan Pangkalpinang untuk segera menuju posko yang berada di Bandara Halim Perdanakusuma, Jakarta.Di sana, para keluarga korban akan mendapatkan data dan informasi terbaik atas kejadian hilangnya pesawat Lion Air yang diduga jatuh di sekitarTanjung Karawang, Jawa Barat.Baca Juga"Dari kami, posko valid berada di Halim, karena semua dikumpulkan ke sana dan dibawa ke RS, baik itu Cikarang ataupun Polri yang terdekat untuk menangani penumpang baik yang hidup atau tidak, dan akan ditangani," katanya, Senin (29/10/2018).Pihaknya pun akan memfasilitasi adanya keluarga korban yang akan menuju Halim Perdanakusuma untuk mendapatkan data dan informasi tervalid."Di sini kita tetap buka tapi, utama di Halim sesuai instruksi dan kami akan fasilitasi semuanya," ungkapnya.Pesawat Lion Air dengan nomor penerbangan JT 610 tujuan Jakarta-Pangkal Pinang hilang dari radar menara pengawas (ATC) pada koordinat 05 46.15-l S-107 07.16 E KMA atau sekitar wilayah Karawang.Pesawat hilang kontak usai lepas landas landas dari Bandara Internasional Soekarno-Hatta sekitar pukul 06.00 WIB. Pesawat tersebut sedianya akan mendarat di Pangkal Pinang.Kepala Bidang Disaster Victim Identification (DVI) Pusdokkes Polri Kombes Lisda Cancer meminta keluarga korban pesawat Lion Air JT 610 untuk membawa data-data dan dokumen untuk kepentingan identifikasi.Data-data tersebut di antaranya data sidik jari dalam bentuk ijazah dan sebagainya, data gigi (nomor telepon dokter gigi yang merawat), data medis (nomor telepon dokter yang merawat), dan info tentang properti (termasuk pakaian yang dikenakan saat berangkat).Data-data tersebut dapat dilaporkan ke Rumah Sakit Bhayangkara Said Sukanto atau RS Polri, Kramatjati, Jakarta."Untuk keperluan data DNA, diharapkan yang datang ke rumah sakit adalah orang yang ada hubungan darah dengan korban (orang tua dan anak)," ujar Lisda dalam keterangam yang diterima Liputan6.com, Senin (29/10/2018).Sementara itu, pihak Lion Air mencatat, ada 181 penumpang yang berada dalam pesawat yang mengalami kecelakaan tersebut. Dua di antaranya bayi. Kru pesawat tersebut terdiri dari 2 kokpit kru dan 6 orang awak kabin.Sebelumnya, Pesawat Lion Air JT 610 dilaporkan hilang kontak 13 menit setelah take off dari Bandara Soekarno Hatta pada 06.20 WIB. Basarnas memastikan pesawat tersebut jatuh di Tanjung Karawang.Saksikan video menarik berikut ini:Cemas, khawatir, dan kesedihan bercampur aduk membuat anggota keluarga tak kuasa menahan derai air mata.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta - Peristiwa jatuhnya pesawat Lion Air JT 610 dengan cepat menjadi topik yang banyak dibicarakan di Twitter.Hingga saat ini, berdasarkan pantuan Tekno Liputan6.com, Senin (29/10/2018), tagar Lion Air dan JT 610 berada di puncak Trending Topic Twitter Indonesia.Baca JugaKebanyakan kicauan warganet berisi doa agar para kru dan penumpang pesawat tersebut dapat selamat. Tidak sedikit pula warganet yang mengingatkan untuk lebih berhati-hati terhadap hoaks seputar peristiwa tersebut.Beberapa tweet juga turut mengucapkan bela sungkawa untuk para korban kecelakaan tersebut. Salah satunya dicuitkan oleh akun @gilangalahif yang menulis, "Berduka sedalam2nya untuk tragedi #JT610."Sementara akun lain dengan nama @sutriani_ menulis,"My heart goes out to all the victims of #JT610." Untuk mengetahui lebih lengkap kicauan tersebut, berikut ini beberapa kicauan yang sudah dihimpun.Semoga mukjizat Tuhan bersama para penumpang dan crew pesawat Lion Air JT610 #LionAir #JT610My deepest condolences and prayer for all the victims of Lion Air JT-610 that crashed down and their families. God bless them.#LionAir #JT610 pic.twitter.com/kDLYZOTxIoWherever i go, i will always hold your hand and stay with you #prayforJT610 #LionAir pic.twitter.com/4XzL9iYa38my heart goes out to all the victims of #JT610 💔I've seen pictures of #JT610 / #LNI610 debris. It appears the aircraft have had a high speed impact with the water. This is consistent with ADSB data obtained from various sources. May they rest in peace. :(turut berduka untuk jatuhnya pesawat #LionAir #JT610 pagi ini. semoga semua korban segera ditemukan. semoga setiap keluarga diberikan ketabahan dan kekuatan. semoga kejadian yang sama tidak lagi terulang di waktu mendatang. amin. amin. amin.Aplikasi deteksi penerbangan pesawat berbagai maskapai Flightradar24 merekam rute terbang pesawat Lion Air JT 610 yang jatuh di Tanjung Karawang.Pesawat dengan rute penerbangan Jakarta ke Tanjung Pinang ini dikonfirmasi jatuh setelah hilang kontak sekitar pukul 06.33 WIB.Aplikasi Flightradar24 pun merekam rute pesawat ini. Pantauan Tekno Liputan6.com di aplikasi Flightradar24, Senin (29/10/2018), rute terbang Lion Air JT 610 ini berhenti di perairan yang letaknya tidak terlalu jauh dari Bekasi.Dalam pantauan Flightradar24, saat jatuh, pesawat ini dalam kecepatan 345knot dan ketinggian 3.650 kaki. Aplikasi Flightradar24 biasanya menginformasikan status pesawat, entah saat pesawat tengah terbang atau mendarat.Namun, Lion Air JT 610 yang dijadwalkan mendarat pukul 07.20 WIB, statusnya masih unknown atau tidak diketahui.Flightradar24 juga mencatat jenis pesawat Lion Air JT 610 ini, yakni Boeing 737 MAX 8 dengan tipe B38M.Flight track of #JT610 as captured by @flightradar24. Reuters now reporting that the Lion Air flight from from Jakarta to Pangkal Pinang "has crashed", based on an Indonesian search and rescue official. pic.twitter.com/x9zXvsfhRqPesawat Lion Air dengan nomor penerbangan JT 610 jatuh di Tanjung Karawang setelah dilaporkan hilang kontak pada sekitar pukul 06.00 WIB. Pesawat tersebut membawa 189 orang, termasuk penumpang dan kru pesawat.Penumpang itu terdiri dari 178 orang dewasa, 1 anak-anak, dan 2 bayi (infant). Untuk kru pesawat terdiri dari 2 kokpit kru dan 6 orang awak kabin."Total ada 189 orang," ujar Ketua Komite Nasional Keselamatan Transportasi (KNKT) Soerjanto Tjahjono di Kantor Basarnas, Jakarta, Senin (29/10/2018).Badan SAR Nasional (Basarnas) mendapat informasi pesawat Lion Air itu jatuh di Tanjung Karawang."Benar informasinya A1, jatuh di Tanjung Karawang," ujar Humas Basarnas Yusuf, saat dihubungi Liputan6.com di Jakarta, Senin (29/10/2018).Pesawat Lion Air itu dilaporkan hilang kontak usai lepas landas dari Bandara Internasional Soekarno-Hatta sekitar pukul 06.00 WIB. Pesawat tersebut sedianya akan mendarat di Pangkal Pinang.(Dam/Isk)Saksikan Video Pilihan Berikut Ini:Melalui aplikasi Flight Radar terlihat bagamana pergerakan pesawat Lion Air JT610 sebelum hilang di radar.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta -  Maskapai Lion Air berduka cita atas kecelakaan pesawatnya dengan nomor penerbangan JT 610 rute penerbangan Jakarta - Pangkalpinang. Sebagai bentuk duka cita, perusahaan mengubah warna laman utama situs web lionair.co.id menjadi hitam putih.Pantaun tim Tekno.Liputan6.com, Senin (29/20/2018), saat lionair.co.id dibuka, maka laman utamanya tampak didominasi warna hitam dan putih. Selain itu, juga ada informasi tentang kecelakaan yang terjadi.Baca JugaPada laman web yang sama, juga tertera nomor kontak untuk crisis center yakni 021-80820001. Kemudian, tertera nomor kontak informasi penumpang, 021-80820002.Penerbangan Lion Air nomor penenerbangan JT 610 dengan rute Cengkareng menuju Pangkalpinang mengalami kecelakaan setelah lepas landas dari Bandar Udara Internasional Soekarno Hatta pukul 06:20 WIB. Setelah 13 menit mengudara, pesawat jatuh di koordinat S 5’49.052” E 107’ 06.628” (sekitar Kerawang)Pesawat mengangkut 178 penumpang dewasa satu penumpang anak-anak dan dua penumpang bayi, termasuk tiga pramugari sedang pelatihan dan satu teknisi. Pesawat memiliki data registrasi PK-LQP jenis Boieng 737 MAX 8. Pesawat ini buatan 2018 dan baru dioperasikan oleh Lion Air sejak 15 Agustus 2018. Pesawat dinyatakan layak operasi.Pesawat dikomandoi Capt. Bhavye Suneja dengan copilot Harvino, bersama enam awak kabin atas nama Shintia Melina, Citra Noivita Anggelia, Alviani Hidayatul Solikha, Damayanti Simarmata, Mery Yulianda, dan Deny Maula. Kapten pilot sudah memiliki jam terbang lebih dari 6.000 dan copilot lebih dari 5.000 jam terbang.Insiden jatuhnya pesawat Lion Air JT 610 dikhawatirkan dimanfaatkan oleh pihak-pihak tak bertanggung jawab untuk menyebarkan informasi bohong atau hoaks.Oleh sebab itu, pemerintah mengimbau masyarakat untuk tidak menyebarkan hoaks termasuk di ranah internet.Kementerian Komunikasi dan Informatika (Kemkominfo) mengimbau warganet Indonesia untuk tidak menyebarkan informasi hoaks, ataupun informasi yang bukan berasal dari sumber berwenang terkait dengan musibah jatuhnya pesawat Lion Air JT 610 rute Jakarta-Pangkal Pinang."Kemkominfo juga mengimbau warganet untuk tidak menyebarkan foto-foto korban dari musibah jatuhnya pesawat Lion Air JT 610 melalui media apapun termasuk media sosial," ungkap Plt. Kepala Biro Humas Kemkominfo, Ferdinandus Setu, dalam keterangan tertulisnya, Senin (29/10/2018).Kemkominfo, kata pria yang akrab disapa Nando itu, mengingatkan kembali bahwa setiap aktivitas di ruang siber, telah diatur dalam UU RI No 19 tahun 2016 tentang Perubahan atas UU RI No 11 tahun 2008 tentang Informasi dan Transaksi Elektronik (UU ITE). Aktivitas tersebut termasuk mendistribusikan, mentransmisikan dan membuat dapat diakses informasi hoaks.Lebih lanjut, Kemkominfo turut menyampaikan belasungkawa atas musibah jatuhnya pesawat Lion Air JT 610 rute Jakarta-Pangkal Pinang pada Senin (29/10/2018).(Din/Jek)Saksikan Video Pilihan Berikut Ini:Laju Arsenal Ditahan Crystal Palace dengan Skor 2-2</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta - Citra Novita Anggelia Putri menjadi salah satu dari 189 korban Pesawat Lion Air JT 610 jatuh di Tanjung Karawang. Pesawat rute Jakarta-Pangkal Pinang itu sempat hilang kontak pada pukul 06.20 WIB usai lepas landas dari Bandara Soekarno-Hatta, Senin (29/10/2018).Belakangan diketahui, Citra merupakan salah satu pramugari Lion Air. Hal ini dipastikan lewat keterangan Corporate Communications Strategic Lion Air Danang Mandala Prihantoro.Baca JugaPesawat itu, dikomandoi Kapten Bhavye Suneja dengan copilot Harvino, Pesawat Lion Air JT 610 membawa enam awak kabin, yaitu hintia Melina, Citra Noivita Anggelia, Alviani Hidayatul Solikha, Damayanti Simarmata, Mery Yulianda, dan Deny Maula.Sebelum Lion Air jatuh, sang pramugari sempat mengunggah foto di akun Facebooknya. Dalam postingan terakhirnya pada 8 April 2018, Citra tampak mengunggah foto bandara dengan pesawat Lion Air.Disebut-sebut, foto tersebut sebagai isyarat tanda perpisahannya. Citra bahkan membubuhkan lafaz Allah disertai lambang cinta.Lewat akun media sosialnya, Citra juga kerap membagikan kedekatannya dengan keluarga. Dia beberapa kali tampak berlibur bersama ibundanya dan adik laki-lakinya.Sebelum menjadi awak kabin Lion Air, Citra Novita Anggelia Putri tercatat sebagai alumni Sekolah Tinggi Teknologi Kedirgantaraan Yogyakarta.Setelah lulus, Citra lalu melanjutkan pendidikan di Sekolah Tinggi Teknologi Kedigantaraan, Yogyakarta pada tahun 2012 lalu.Reporter: Idho RahaldiSumber: DreamSaksikan video pilihan di bawah ini:Pesawat Lion Air dengan nomor penerbangan JT 610 jatuh di Tanjung Karawang setelah dilaporkan hilang kontak pada sekitar pukul 06.00 WIB. Pesawat tersebut membawa 189 orang, termasuk penumpang dan kru pesawat.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta - Badan pesawat Lion Air dengan nomor penerbangan JT 610 rute Jakarta-Pangkalpinang, belum ditemukan. Saat ini baru serpihan-serpihan badan pesawatnya saja yang dievakuasi."Sampai saat ini body pesawat belum ditemukan, masih pencarian oleh Basarnas. Yang ada di TV kita lihat itu baru serpihan pesawat," kata Bagus Sanjoyo, Kepala Otoritas Bandara Soekarno-Hatta, Senin (29/10/2018).Baca JugaBegitu juga dengan black box atau kotak hitam pesawat Lion Air masih dalam pencarian petugas Basarnas di lokasi yang diduga tempat jatuhnya pesawat. Hal tersebut sudah dikordinasikan dengan petugas KNKT dan Basarnas yang ada di lokasi kejadian."Petugas KNKT dan Basarnas pun memastikannya demikian, badan pesawat dan black box belum ditemukan," ujar Bagus.Pesawat Lion Air JT 610 rute Jakarta-Pangkal Pinang diketahui membawa 189 orang, termasuk penumpang dan kru pesawat. Penumpang terdiri dari 178 orang dewasa, 1 anak-anak, dan 2 bayi (infant) sementara kru pesawat terdiri dari 2 kokpit kru dan 6 orang awak kabin.Pesawat tersebut dilaporkan hilang kontak 13 menit setelah take off dari Bandara Soekarno Hatta pada 06.20 WIB. Basarnas telah mengonfirmasi jatuhnya pesawat di perairan Tanjung Karawang.Dirjen Perhubungan akan tetap membuka posko informasi mengenai perkembangan data kecelakaan Lion Air JT 610 rute Jakarta-Pangkal Pinang di Ruang VIP Terminal 1B Bandara Soekarno-Hatta."Ini tetap buka, 24 jam bahkan. Segala perkembangan informasi akan kami sampaikan di sini," ujar Kepala Otoritas Bandara Soekarno Hatta, Bagus Prayogo.Keluarga korban juga dibolehkan menginap di Ruang VIP tersebut. Selain memberikan kabar yang sebisa mungkin menenangkan keluarga korban dan data dari lapangan, petugas yang siaga di posko pun memfasilitasi keluarga korban dengan makanan dan minuman.Namun, saat ditanya apakah keluarga korban akan diberi fasilitas penginapan di hotel, Bagus mengaku pihaknya akan berkordinasi kembali dengan pihak maskapai. "Kalau itu nanti dibicarakan dulu dengan Lion Air. Yang pasti posko ini buka 24 jam," ujarnya.Terlihat, petugas pun ada yang menempelkan nama-nama 178 penumpang yang menjadi korban dalam kecelakaan tersebut, di papan informasi posko. Sehingga memudahkan keluarga untuk memastikan nama anggota keluarganya tertera sebagai penumpang di pesawat tersebut.Pesawat Lion Air JT 610 yang jatuh di perairan Karawang, Jawa Barat mulai ditemukan.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta - Madura United (MU) akan menghadapi tugas berat awal pekan ini dalam Gojek Liga 1 Bersama Bukalapak 2018. Mereka akan menantang pemimpin klasemen sementara, PSM di Stadion Bangkalan, Madura.Madura United kini berada keenam klasemen. Mereka mengoleksi 40 poin dari 27 laga.Baca JugaSementara Tim Juku Eja masih kokoh di puncak klasemen. Mereka mengoleksi 50 poin dari jumlah laga yang sama.Kemenangan bakal membuat Madura United merangsek ke papan atas. Sementara bagi PSM kemenangan bakal menjaga peluang juara.Live streaming Madura United Vs PSM Makassar akan dimulai pukul 18.30 WIB dan disiarkan langsung Indosiar. Dapatkan link live streaming Madura United Vs PSM di halaman selanjutnya:Untuk live streaming Madura United Vs PSM Makassar silakan klik di siniLive streaming Madura United Vs PSMMadura United (4-3-3): Hery Prasetyo (kiper); Beny Wahyudi, Fabiano Beltrame, Fachrudin Aryanto, Alfath Fathier (belakang); Asep Berlian, Slamet Nurcahyo, Zah Rahan Krangar (tengah); Bayu Gatra, Mamadou Samassa, Engelberd Sani (depan)Pelatih: Gomes de OliveiraPSM Makassar (4-3-3): Rivki Mokodompit; Zulikifli Syukur, Steven Paulle, Abdul Rahman, Reva Adi Utama (belakang); Wiljan Pluim, M. Arfan, Marck Klok (tengah); M. Rahmat, Guy Junior, Saldy (depan)Pelatih: Robert Alberts</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Leicester - Helikopter pemilik Leicester City, Vichai Srivaddhanaprabha, terjatuh saat hendak meninggalkan King Power Stadium, Sabtu 27 Oktober 2018. Kecelakaan itu membuat Vichai meninggal dunia.Vichai menjadi korban jiwa bersama empat orang lainnya yang berada di helikopter tersebut. Insiden itu terjadi setelah Vichai menyaksikan pertandingan Leicester City kontra West Ham United di King Power Stadium.Baca JugaSeperti dilansir The Guardian, saat ini pihak berwenang terus melakukan penyelidikan demi mengetahui penyebab terjatuhnya helikopter di markas Leicester City tersebut.Selain itu, perusahaan pesawat Italia Leonardo SpA mengatakan bahwa pihaknya siap untuk membantu investigasi penyebab tragedi helkopter AW169 itu.Berdasarkan keterangan saksi mata, helikopter terbang dari dalam King Power Stadium. Kemudian, helikopter seketika kehilangan kontrol dan terjatuh di area parkiran mobil King Power Stadium.Kabarnya, Vichai berniat pergi ke bandara di London saat meninggalkan markas The Foxes. Vichai berencana pulang ke Thailand, namun, takdir berkata lain.Helikopter milik bos besar Leicester City jatuh di area parkir mobil di stadion kandang klub, King Power Stadium, Leicester, Inggris, usai lepas landas setelah pertandingan antara Leicester City vs West Ham United.Kiper Leicester City, Kasper Schmeichel, mengaku melihat langsung kejadian helikopter terbakar. Dia ikut sedih sekaligus tak percaya dengan apa yang dilihatnya."Saya tidak percaya dengan apa yang terjadi. Saya benar-benar hancur lebur. Saya tidak percaya dengan apa yang saya lihat, seperti bukanlah hal nyata," kata Kasper dalam akun Instagram pribadinya.Kasper sendiri mengenal Vichai dengan baik, terutama setelah sukses mengantarkan Leicester City juara Liga Inggris 2015-2016. Menurut Kasper, pengusaha asal Thailand itu merupakan pria yang baik dan disenangi masyarakat Kota Leicester.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta - "Hidup Jokowi. Hidup nomor 1. Lanjutkan." Teriakan para ulama itu menggema usai Presiden Jokowi meresmikan pembebasan tarif Tol Jembatan Suramadu, yang menghubungkan wilayah Surabaya dan Madura, pada Sabtu 27 Oktober 2018."Dengan mengucap Bismilllahirrahmanirrahim, jalan Tol Suramadu sore hari ini kita ubah jadi nontol biasa," ucap Jokowi didampingi Menteri Pekerjaan Umum dan Perumahan Rakyat Basuki Hadimuljono, Sekretaris Kabinet Pramono Anung, Staf Khusus Presiden Johan Budi, Kepala Sekretariat Presiden Heru Budi Hartono, Sekretaris Militer Presiden Marsda TNI Trisno Hendradi, dan Komandan Paspampres Mayjen TNI (Mar) Suhartono serta puluhan kiai dan tokoh agama Surabaya dan Madura.Baca JugaJokowi menegaskan, pembebasan tarif Tol Jembatan Suramadu berkat usulan tokoh agama, ulama, kiai, tokoh masyarakat, serta Ikatan Keluarga Madura (Ikama). Pembebasan tarif jembatan dengan panjang 5.438 meter ini diharapkan berdampak signifikan pada pertumbuhan ekonomi Surabaya dan Madura."Kita harapkan dengan menjadi jembatan non-tol biasa petumbuhan ekonomi, investasi akan datang semakin banyak. Properti, tourisme berkembang di Kabupaten Surabaya, pertumbuhan ekonomi betul-betul kelihatan," kata dia.Saat peresmian, Jokowi bersama menteri dan ulama naik ke atas mobil kontainer yang sudah didesain menjadi panggung. Sesaat kemudian, Jokowi foto bersama ulama Madura di Jembatan Tol Suramadu. Usai berfoto, Jokowi bergegas menuju awak media.Di perjalanan, para ulama mengacungkan jari telunjuk sambil berteriak "Hidup Jokowi, hidup nomor 1'. Mereka juga menggaungkan ucapan "Lanjutkan".Melihat aksi para ulama, Jokowi tak banyak berkomentar. Sejenak dia terdiam lalu tersenyum. Lantaran para ulama tak menghentikan aksinya, Jokowi meminta agar aksi tunjuk 1 jari dihentikan."Sudah, sudah," kata Jokowi sambil tersenyum.Presiden Jokowi menegaskan, pembebasan tarif Jembatan Tol Surabaya-Madura (Suramadu) untuk mendongkrak pertumbuhan ekonomi. Dia membantah kebijakan tersebut sebagai upaya mendulang suara dari warga Madura pada Pilpres 2019."Ya kalau kita mau urusan politik nanti saya gratiskan bulan Maret saja, tahun depan. Gitu lho. Jangan apa-apa dikaitkan dengan politik. Ini urusan ekonomi, investasi, kesejahteraan, dan keadilan," tegas Jokowi di Tol Suramadu, Jawa Timur, Sabtu (27/10/2018).Jokowi menjelaskan, pembebasan tarif Jembatan Tol Suramadu bermula dari masukan dan desakan tokoh masyarakat, ulama, serta kiai Madura. Masukan tersebut bergulir sejak 2015."Ini awal-awal 2015 ada masukan, keinginan dari para ulama, kiai, habaib yang ada di sini. Tokoh-tokoh di Ikama (Ikatan Keluarga Madura) juga menyampaikan dan sudah saya sampaikan ke Pak Gubernur (Jawa Timur) dan saya hitung. Khusus untuk sepeda motor saat itu masih masuk. Oke, sepeda motor digratiskan," terang Jokowi.Kemudian pada 2016, Jokowi mengaku mendapat masukan lagi. Kali ini permintaan agar tarif Jembatan Tol Suramadu dipotong 50 persen."Pada 2016 ada masukan lagi, 'Pak ini membebani terutama untuk truk, bus, angkutan-angkutan barang. Mohon dipotong minimal 50 persen', kita potong," kata Jokowi.Ternyata, lanjut dia, pemotongan tarif 50 persen tidak berdampak signifikan pada pertumbuhan ekonomi Surabaya dan Madura. Bahkan pemasukan Jembatan Tol Suramadu setiap tahun hanya mencapai Rp 120 miliar."Setelah kami hitung berapa sih pemasukan setahun jalan tol ini? Juga enggak banyak dan ini dibangun dari APBN. Oleh sebab itu, kita putuskan dengan harapan ketimpangan dan kemiskinan bisa diatasi," ujar Jokowi.Tak hanya mengatasi ketimpangan dan kemiskinan, Jokowi berharap pembebasan tarif Jembatan Tol Suramadu bisa menggenjot investasi dan terbukanya lapangan kerja sebanyak-banyaknya di Madura dan Surabaya."Saya tahu Pak Gubernur sudah bekerja keras untuk Madura, bupati-bupati telah bekerja keras untuk Madura, tapi dampaknya belum signifikan. Kita ingin agar sektor turisme, properti, investasi bisa betul-betul bergerak di Madura," Jokowi memungkasi.Jembatan Tol Suramadu diresmikan pada Juni 2009. Sejak pertama kali digunakan, tarif Jembatan Tol Suramadu sebesar Rp 30.000.Pada 2016, pemerintah memangkas tarif 50 persen, sehingga menjadi Rp 15.000. Sementara untuk kendaraan roda dua selama ini diberi kelonggaran tak dikenai ongkos masuk.Jembatan Suramadu menjadi satu-satunya penghubung jalur darat Surabaya dan Madura yang sebelumnya hanya tersedia di jalur laut. Jembatan dengan panjang 5.438 meter ini merupakan jembatan terpanjang di Indonesia.Jembatan ini mulai dibangun pada 2003 di bawah kepemimpinan Presiden Megawati Soekarnoputri dan diresmikan oleh Presiden Susilo Bambang Yudhoyono pada 2009. Dana yang digelontorkan untuk membangun jembatan Suramadumencapai Rp 4,5 triliun.Presiden Jokowi membebaskan tarif tol Jembatan Suramadu mulai Sabtu (27/10/2018) ini. Semula tarif tol untuk melalui jembatan ini di kisaran Rp 15 ribu untuk kendaraan golongan I hingga Rp 45 ribu untuk kendaraan golongan V.AVP Corporate Communications Jasa Marga Dwimawan Heru menyatakan, pembebasan tarif ini telah diatur dalam Peraturan Presiden (Perpres) yang kemudian mengubah fungsi Jembatan Suramadu dari tol menjadi jalan umum."Ada Perpresnya yang menetapkan Tol Jembatan Suramadu dari jalan tol menjadi jalan umum tanpa tol," jelas dia kepada Liputan6.com.Dia menambahkan, misi menggerakkan ekonomi kawasan merupakan faktor utama penghapusan tarif tersebut. "Hal ini dalam rangka percepatan pengembangan ekonomi kawasan Surabaya Madura," sambungnya.Reporter: Titin Supriatin</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta - Kepala Bidang Disaster Victim Identification (DVI) Pusdokkes Polri Kombes Lisda Cancer meminta keluarga korban pesawat Lion Air JT 610 untuk membawa data-data dan dokumen untuk kepentingan identifikasi.Data-data tersebut di antaranya data sidik jari dalam bentuk ijazah dan sebagainya, data gigi (nomor telepon dokter gigi yang merawat), data medis (nomor telepon dokter yang merawat), dan info tentang properti (termasuk pakaian yang dikenakan saat berangkat).Baca JugaData-data tersebut dapat dilaporkan ke Rumah Sakit Bhayangkara Said Sukanto atau RS Polri, Kramatjati, Jakarta."Untuk keperluan data DNA, diharapkan yang datang ke rumah sakit adalah orang yang ada hubungan darah dengan korban (orang tua dan anak)," ujar Lisda dalam keterangam yang diterima Liputan6.com, Senin (29/10/2018).Sementara itu, pihak Lion Air mencatat, ada 181 penumpang yang berada dalam pesawat yang mengalami kecelakaan tersebut. Dua di antaranya bayi. Kru pesawat tersebut terdiri dari 2 kokpit kru dan 6 orang awak kabin.Sebelumnya, Pesawat Lion Air JT 610 dilaporkan hilang kontak 13 menit setelah take off dari Bandara Soekarno Hatta pada 06.20 WIB. Basarnas memastikan pesawat tersebut jatuh di Tanjung Karawang.(Liputan6.com/Melissa Octavianti)Basarnas menetapkan masa evakuasi penumpang pesawat Lion Air JT 610 dengan rute Jakarta-Pangkal Pinang yang jatuh di perairan Tanjung Karawang, Jawa Barat selama tujuh hari sejak hari ini. Masa evakuasi ini akan diperpanjang jika waktu dirasa belum cukup."Evakuasi selama tujuh hari dan nanti bisa diperpanjang tiga hari," kata Deputi Operasi Basarnas, Nugroho Budi W di Gedung Basarnas, Kemayoran, Jakarta Pusat, Senin (29/10/2018).Saat ini Basarnas telah menerjunkan 150 personel ke lokasi jatuhnya pesawat Lion Air. Basarnas juga dibantu anggota TNI dan Polri sebanyak 150 orang. Nugroho mengatakan, proses evakuasi ini juga dibantu nelayan yang sedang berada di sekitar perairan Tanjung Karawang."Total ada 300-an personel dan akan ditambah lagi untuk mempercepat evakuasi dan nelayan-nelayan ikut bergabung juga," sebutnya.Sementara ini tim penyelam dari Basarnas diterjunkan sebanyak 30 orang. Dan dipastikan TNI dan Polri juga menerjunkan tim penyelam untuk mencari badan Lion Air. Saat ini kondisi cuaca cukup bagus untuk melakukan penyelaman."Cuaca sekarang cukup bagus dan hanya mendung sedikit saja," jelasnya.Basarnas dan Kementerian Perhubungan dibantu sejumlah instansi lain mulai mengevakuasi korban.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta - Senin pagi 21 Oktober 2018, ribuan santri memadati Alun-Alun Limbangan, Garut, Jawa Barat. Seperti di daerah lain, peringatan ke-4 Hari Santri Nasional ini berlangsung meriah. Sayang, kemeriahan itu diwarnai insiden yang menuai polemik di masyarakat.Dalam rekaman video yang beredar, terlihat sejumlah oknum anggota Banser membakar bendera berlatar hitam dengan lafaz tauhid, yang identik milik Hizbut Tahrir Indonesia (HTI). Tak hanya itu, ikat kepala dengan tulisan serupa juga bernasib sama. Hangus menjadi abu.Baca JugaPeristiwa itu pun menuai kontroversi. Masyarakat yang menyaksikan kejadian itu lewat video viral langsung bereaksi. Mereka melakukan aksi turun ke jalan menuntut kepolisian memproses hukum pelakunya.Menanggapi kejadian ini, Majelis Ulama Indonesia (MUI) merasa prihatin dan menyesalkan kejadian yang menimbulkan kegaduhan di kalangan umat Islam. MUI meminta pihak yang telah melakukan tindakan itu untuk meminta maaf dan mengakui kesalahannya secara terbuka.Selain itu, MUI juga menilai tindakan itu dilakukan secara spontan. Ini lantaran mereka yang menjadi pelaku masih berdarah muda."Namanya juga angkatan muda tidak terlalu panjang mikirnya, apalagi pakai baju seragam, semi-militer, kelihatan gagah, hebat, lupa mikir, enggak mikir panjang," ujar Wakil Ketua Umum MUI Yunahar Ilyas kepada Liputan6.com, Rabu (24/10/2018).Dia menjelaskan, secara psikologi massa, kondisi itu memang berbeda jika pelaku melakukannya secara sendirian. Sebab pelaku akan berpikir ulang untuk melakukan pembakaran bendera itu."Kalau kerumunan itu, biasanya orang tidak bisa berpikir cermat. Jadi panitia harus betul-betul mengawasi, dijaga, dibriefing, karena namanya kerumunan, psikologi massa itu sering terjadi hal-hal yang tidak terduga," jelas dia.Yunahar berharap, peristiwa ini dapat menjadi pelajaran semua pihak. Agar kejadian serupa tak kembali terulang, MUI meminta ada sanksi tegas bagi pelakunya."Makanya kami mendorong ada proses hukum. Sekarang kan sudah ada sanksi moral dari masyarakat, yang kedua ada sanksi hukum yang sedang diproses oleh kepolisian, yang ketiga ada pembinaan dari induk organisasinya terutama untuk angkatan muda, untuk laskar-laskar yang pakai seragam itu," ujar dia."Kalau terjadi lagi, tidak bisa kita kembali mencegahnya. Yang penting menyelesaikan yang sekarang dulu aja," imbuh pria kelahiran 62 tahun lalu itu.Sementara itu, akademisi Universitas Islam Negeri (UIN) Syarif Hidayatullah Jakarta, Adi Prayitno menilai, masyarakat tak perlu bereaksi berlebihan atas kasus pembakaran bendera itu. Jika ada yang merasa dirugikan atas aksi oknum Banser, cukup melaporkannya kepada polisi agar diproses secara hukum."Setelah itu, sudahi saja polemik dan kekisruhan pembakaran itu. Toh pelakunya sudah minta maaf dan kasusnya sedang diusut. Meski begitu, oknum Banser itu tak seharusnya membakar bendera, cukup diamankan saja. Tak usah bertindak provokatif seakan menantang umat Islam. Jika pun itu bendera HTI, laporkan saja ke polisi," jelas dia kepada Liputan6.com, Rabu (24/12/2018).Dia mengungkapkan, memang agak sulit membedakan antara bendera HTI dengan kalimat tauhid murni. Mesti ada institusi khusus yang bisa menjelaskan itu, setidaknya menurut pihak keamanaan, Banser tak bisa main hakim sendiri dengan mengklaim itu bendera HTI tanpa bukti valid dari ahli."Sebab banyak masyarakat di bawah yang punya bendera bertuliskan kalimat tauhid. Bukan hanya berupa bendera tapi stiker-stiker yang ditempel di rumah warga juga banyak. Semangat tangkal HTI boleh, tapi dengan cara yang sesuai etik demokrasi," jelas dia.Untuk menangkal kejadian itu kembali terjadi, dia meminta masyarakat agar tidak main hakim sendiri. Selain itu, aparat juga harus tegas bagi pelaku untuk memberikan efek jera."Kita tak usah mengambil alih peran negara dan polisi. Laporkan saja jika ada tindakan yang extraordinary semacam HTI itu," ujar dia.Ketua Umum GP Ansor Yaqut Cholil Qoumas menegaskan, bendera yang dibakar oknum Banser tersebut merupakan bendera HTI. Atribut itu kerap digunakan HTI dalam setiap kegiatan.Bahkan dalam persidangan Perppu Ormas, HTI sebagai pemohon juga menunjukkan bendera yang sama dengan yang dibakar saat perayaan Hari Santri Nasional di Limbangan, Garut."Bendera tauhid tidak hanya hitam, ada hijau," kata Yaqut di Markas GP Ansor, Jakarta Pusat, Rabu (24/10/2018).Namun, insiden yang terjadi di Garut itu terlanjur menuai reaksi negatif dari masyarakat. Bahkan sempat menimbulkan kegaduhan. Para pejabat negara pun angkat bicara. Yaqut mengatakan, pihaknya meminta maaf atas reaksi yang ditimbulkan dari kejadian ini, namun bukan untuk peristiwa pembakaran."Kami meminta maaf atas kegaduhan, bukan pada pembakaran bendera itu," kata Yaqut.Di tempat yang sama, Sekretaris Jenderal Pimpinan Pusat GP Ansor, Abdul Rochman menguatkan pernyataan Yaqut yang menegaskan soal status bendera yang dibakar tersebut."Kami menolak tegas bendera HTI diidentikkan bendera tauhid milik umat Islam," kata Rochman.HTI merupakan organisasi yang kegiatannya sudah dilarang di Indonesia. Kementerian Hukum dan HAM telah mencabut status badan hukum ormas Hizbut Tahrir Indonesia ( HTI) sejak 19 Agustus 2017 lalu.Pencabutan badan hukum sebagai tindak lanjut Peraturan Pemerintah Pengganti Undang-undang Nomor 2 Tahun 2017 yang mengubah UU Nomor 17 Tahun 2013 tentang Organisasi Kemasyarakatan.Namun dalam praktiknya, bendera bertuliskan lafaz tauhid yang identik milik HTI kerap berkibar dalam berbagai acara. Para pengibar beralasan, bendera itu merupakan panji Rasulullah yang dikenal dengan Arrayah.Ini yang menjadi sumber polemik di masyarakat terkait kasus pembakaran bendera di Garut. Tapi bagi Wakil Ketua Umum MUI Zainut Tauhid, masalah itu tidak perlu diperdebatkan. Karena selama ini HTI dalam setiap kegiatan organisasinya selalu membawa dan mengibarkan bendera tersebut."Karena hal itulah Banser mengira kalau bendera tersebut adalah bendera HTI," ujar dia saat dihubungi Liputan6.com, Jakarta, Rabu (24/10/2018).Dia menegaskan, yang menjadi masalah mengapa bendera yang identik dengan HTI itu berada di tengah-tengah kegiatan Hari Santri Nasional. Sedangkan sebelum acara digelar, sudah ada kesepakatan untuk tidak ada lambang atau bendera HTI di kegiatan itu."Kami memastikan ada niat jahat dari pihak-pihak tertentu yang ingin memprovokasi mengadu domba dan membenturkan Banser/NU dengan umat Islam dan komponen bangsa lainnya," ujar dia.Karena itu, MUI mengimbau aparat kepolisian untuk tidak memproses kepada pelaku pembakaran saja. Petugas keamanan juga harus mengejar pihak yang membawa bendera yang diidentikkan dengan HTI tersebut."Untuk diminta pertanggungjawaban sesuai dengan peraturan perundang-undangan," ujar dia.Perayaan Hari Santri Nasional di Garut, Jawa Barat, berlangsung meriah. Sekitar empat ribuan santri memenuhi lapangan Alun-Alun Limbangan. Namun di tengah semarak acara, sejumlah oknum Banser melakukan aksi pembakaran bendera yang identik dengan HTI, yang menuai kontroversi.Sebelum acara berlangsung, seluruh perwakilan ormas di wilayah Kecamatan Limbangan meneken tanda tangan perjanjian untuk melaksanakan perayaan dengan damai. Hasilnya, perayaan Hari Santri Nasional berlangsung aman."FPI, Persis, NU, Muhammadiyah dan lainnya sepakat dan tanda tangan di atas materai Rp 6.000, agar jangan mengibarkan bendera selain Merah Putih," ujar seorang sumber yang enggan disebutkan namanya, Rabu 23 Oktober 2018.Namun usai menyanyikan lagu Hubbul Wathon saat sesi hiburan, tiba-tiba ada peserta yang menaikkan bendera Arroyah yang diduga kerap digunakan Hizbut Tahrir Indonesia (HTI)."Bendera itu sempat naik di tiang bendera sampai beberapa meter, sebelum akhirnya diturunkan oleh anggota ormas, ada Pak Camat kok yang tahu," ujar sumber tadi menambahkan.Sempat bersitegang antara peserta yang membawa bendera dengan anggota ormas. Namun peserta pembawa bendera itu akhirnya diamankan petugas demi menjaga ketenteraman bersama."Nah mungkin tersulut emosi, akhirnya mereka membakar bendera itu. Tidak ada yang menginjak bendera, bahkan debunya pun kami kumpulkan," ujar sumber itu.Sumber tadi menegaskan, tidak ada yang bermaksud membakar bendera berlafaz tauhid itu. Pembakaran yang dilakukan anggota ormas adalah bentuk kekesalan pada HTI, organisasi yang telah dilarang di Indonesia."Nah kan bendera itu sengaja dibawa mereka, padahal kami semua ormas sudah sepakat untuk tidak mengibarkan bendera selain Merah Putih, jadi kami tidak membakar lafaz tauhid tadi, tapi membakar benderanya," ujar sumber tadi.Akhirnya sekitar pukul 12.00 WIB, seluruh peserta perayaan Hari Santri Nasional membubarkan diri. Mereka meninggalkan lapangan.Namun, tak berselang lama, pembakaran bendera itu menyebar di media sosial. Video yang berdurasi 2,04 menit menjadi bahan perbincangan masyarakat.Polri langsung bertindak cepat. Pihaknya memastikan akan memproses hukum mereka yang terlibat untuk mencegah gesekan antarkelompok."Kita tindak secara hukum agar dapat menenangkan atau menetralkan situasi kondusif secara umum," ujar Kepala Biro Penerangan Masyarakat Divisi Humas Polri Brigjen Dedi Prasetyo, Selasa 23 Oktober 2018.Setelah memeriksa dan mengamankan sejumlah saksi, Kepolisian resort Garut menangkap pelaku. Mereka mengakui perbuatan salah itu dan meminta maaf kepada seluruh umat Islam. Polri juga mengaku telah mengantongi identitas pembawa bendera itu. Saat ini, pelaku itu sedang dicari petugas."Totalnya 6, yang 3 tambahan dumas (pengaduan masyarakat)," ujar Kapolres Garut AKBP Budi Satria Wiguna, Selasa 23 Oktober 2018.Menurut dia, identitas pelaku tidak diungkapkan demi keselamatan. Budi menegaskan, pengakuan dan permintaan maaf itu merupakan inisiatif pelaku, tanpa paksaan dari siapa pun."MUI sudah menyerahkan proses hukum apabila ada pelanggaran hukum," ujar Budi.Untuk mengungkap detail kasus ini, polisi segera menggelar perkara secara terbuka. Beberapa barang bukti yang akan ditampilkan adalah baju pelaku, korek api, bekas pembakaran."Kami akan gelar perkara terbuka. Karena sudah jadi abu, akibat panas karena angin, jadi akhirnya hilang, tapi kami kumpulkan sisanya," papar dia.Saat ditanya perihal status hukum yang menjerat ketiga pelaku, Budi menegaskan lembaganya akan segera menetapkan status ketiganya dalam waktu dekat. (Melissa Oktaviani)Saksikan video menarik berikut ini:GP Ansor Jawa Timur membenarkan tindakan Banser Garut yang membakar bendera tauhid. GP Ansor berpendapat tindakan tersebut adalah upaya penyelematan kalimat tauhid</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta - Badan SAR Nasional (Basarnas) memastikan pesawat Lion Air dengan nomor penerbangan JT 610 rute Jakarta-Pangkalpinang jatuh di Tanjung Karawang pada Senin (29/10/2018). Sebelumnya, pesawat ini sempat hilang kontak usai lepas landas dari Bandara Soekarno-Hatta pukul 06.20 WIBLion Air mencatat 181 penumpang dalam pesawat Lion Air JT 610, termasuk dua bayi. Pesawat juga membawa tujuh kru yang meliputi Bhavve Suneja (Pilot), Harvino (Co-pilot), Shintia Melina (Supervisi pramugari), serta empat pramugari yakni Citra Novita Anggelia Putri, Alfiani Hidayatul Solikah, Fita Damayanti Simarmata, dan Mery Yulyanda.Kepala Pusat Data, Informasi, dan Hubungan Masyarakat Badan Nasional Penanggulangan Bencana (BNPB) Sutopo Purwo Nugroho melalui akun Twitter resminya mengunggah gambar yang berisi keterangan terkait Lion Air JT 610. Jadwal kedatangan pesawat di Bandara Depati Amir Pangkal Pinang pada 07.20 WIB, waktu tempuh seharusnya hanya 1 jam 10 menit.Baca JugaDi sisi lain, Pangkalpinang merupakan bagian sekaligus ibu kota provinsi Kepulauan Bangka Belitung. Berdasarkan laman resmi pangkalpinangkota.go.id, Pangkalpinang secara administratif ditetapkan sebagai ibu kota pada 9 Februari 2001.Pangkalpinang memiliki semboyan Pangkal Kemenangan. Secara etimologi, Pangkalpinang terdiri atas dua kata yakni Pangkal atau Pengkal yang berarti awal mula pusat perkumpulan timah lalu berkembang sebagai pusat distrik, sedangkan pohon pinang adalah jenis tumbuhan di daerah Pasifik, Asia, dan Afrika bagian timur. Pinang juga nama buah yang didagangkan.Selain itu, laman pangkalpinangkota.go.id juga menulis pembentukan Pangkalpinang dimulai sejak adanya perintah Sultan Susuhanan Ahmad Najamuddin Adi Kesumo pada 1757 silam.Perintah diberikan kepada Abang Pahang dengan gelar Tumenggung Dita Menggala, Depati, Batin Pengandang, serta para krio di Pulau Bangka untuk mencari Pangkal atau pengkal jadi tempat kedudukan Demang dan Jenang yang siap bertugas.Pangkal atau pengkal yang dibangun kala itu meliputi Pangkal Bendut, Bunut, Rambat, Tempilang, Bijat, Parit Sungai Buluh, Lajang, Sungailiat, Cegal, Pangkal Koba, Balar, Toboali dan Pangkalpinang. Setelah itu, Sultan Palembang mengangkat dan mengirim Demang dan Jenang langsung dari Palembang untuk segera bertugas di masing-masing Pangkal.Saksikan video pilihan di bawah ini:Pesawat Lion Air JT 610 dinyatakan jatuh di perairan Karawang, Jawa Barat. Basarnas mulai menurunkan tim penyelam untuk mencari kemungkinan korban.Pangkalpinang juga memiliki deretan wisata yang menarik untuk dikunjungi. Seperti Pantai Pasir Padi yang berada 7 km dari Kota Pangkalpinang. Menariknya, ketika air pantai surut, pengunjung dapat berada hampir di bibir pantai.Lalu, wisata kuliner seperti tai fu sui, minuman khas Bangka. Minuman yang akrab disebut fu sui ini adalah minuman yang diolah dengan menggunakan kacang kedelai sebagai bahan utama. Ada pula otak-otak Bangka yang dimakan dengan tiga macam sambal yaitu sambal asam, sambal biasa, dan sambal terasi.Wisata lainnya adalah Museum Timah di Kota Pangkalpinang. Bangunan ini dahulu adalah rumah para karyawan Bangka Tin Winning (BTW) dan pernah dipakai jadi tempat Perjanjian Roem-Royen. Anda juga dapat ke Masjid Jamik, salah satu masjid terbesar dan tertua di Pangkalpinang.Klenteng Kwan Tie Miaw juga dapat jadi pilihan wisata di Pangkalpinang. Kelenteng ini dibuat pada 1841 Masehi yang terletak di Jalan Mayor Muhidin, Pangkalpinang. Serta, GPIB Maranatha, sebuah gereja yang dibangun pada pemerintahan Residen J.E. Eddie pada 1927. Bangunan gereja juga terdapat menara jam besar.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta - Bhinneka Tunggal Ika Awards 2017 disematkan kepada 12 tokoh Tanah Air yang dianggap berkontribusi demi keutuhan bangsa dan negara.Seperti dtayangkan Liputan 6 Pagi SCTV, Selasa (23/5/2017), acara yang digelar atas kerja sama Lembaga Pemilih Indonesia dan kantor berita Antara ini digelar di Wisma Antara, Senin petang, 22 Mei 2017.Mereka yang mendapat Anugerah Bhinneka Tunggal Ika Awards itu di antaranya, Megawati Soekarnoputri, Oesman Sapta Oedang, Budi Gunawan, Jenderal Polisi Tito Karnavian, Jenderal TNI Gatot Nurmantyo, dan beberapa tokoh lain.Seluruh proses penerimaan ini diwakilkan. Megawati misalnya, sebagai salah satu pemenang diwakili oleh Wakil Sekjen PDI Perjuangan Ahmad Basarah.Anugerah Bhinneka Tunggal Ika diberikan untuk mereka yang berkontribusi besar untuk menjaga keutuhan Negara Kesatuan Republik Indonesia (NKRI).Saksikan video 12 tokoh terima Anugerah Bhinneka Tunggal Ika Awards 2017.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta - Pesawat Lion Air dengan nomor penerbangan JT 610, rute Jakarta-Pangkal Pinang jatuh di dekat Teluk Karawang, Jawa Barat.Baca JugaPesawat tersebut mengangkut 178 orang dewasa, 1 anak-anak, dan 2 bayi (infant). Untuk kru pesawat terdiri dari 2 kokpit kru dan 6 orang awak kabin.Bedasarkan keterangan Corporate Communications Strategic Lion Air Danang Mandala Prihantoro kepada wartawan, Senin (29/10/2018), pesawat tersebut dikomandoi Capt. Bhavye Suneja dengan copilot Harvino.Selain itu, ada enam awak kabin atas nama Shintia Melina, Citra Noivita Anggelia, Alviani Hidayatul Solikha, Damayanti Simarmata, Mery Yulianda, dan Deny Maula.Saksikan Video Pilihan di Bawah Ini:Pesawat Lion Air JT 610 yang jatuh di perairan Karawang, Jawa Barat mulai ditemukan.Capt Bhavye yang berasal dari New Delhi, India, diketahui telah bekerja sebagai pilot Lion Air selama 7 tahun lebih, sejak Maret 2011. Melalui akun Facebook-nya, dia sering mengunggah kebersamaannya bersama sang istri, Garima Sethi.Sebelum bekerja di Lion Air, Bhavye mengikuti pendidikan pilot di Emirates dan menjadi trainee pilot Boeing 737NG selama empat bulan, sejak September - Desember 2010.Bhavye mengenyam pendidikan di Ahlcon Public Shchool, India pada 1990-2005. Setelah itu ia melanjutkan pendidikannya di Bel Air International, California sejak 2007-2009.Sebelumnya, pesawat Lion Air JT 610 dilaporkan hilang kontak sejak lepas landas dari Bandara Internasional Soekarno-Hatta sekitar pukul 06.00 WIB. Sesuai jadwal, pesawat tersebut seharusnya akan tiba di Pangkal Pinang pada Pukul 07.10 WIB.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta Mendengar berita pesawat Lion Air JT 610 jatuh, Bayu (33) panik. Di tangannya, sudah siap tiket penerbangan dari Jakarta ke Yogyakarta siang ini. Takut mengalami hal serupa ia pun langsung meminta maaf ke teman-teman terdekat.Cerita kepanikan Bayu mungkin juga dirasakan calon penumpang pesawat yang hendak terbang usai kejadian jatuhnya pesawat Lion Air pada Senin, 29 Oktober 2018 pagi di Tanjung Karawang, Jawa Barat. Ada juga yang saking takutnya, jadi membatalkan tiket yang sudah di tangan. Wajarkah hal ini?Baca JugaMenurut psikolog klinis dewasa Rena Masri, rasa panik dan cemas itu masih wajar bila dia hendak terbang usai mendengar berita itu, apalagi bila dia naik pesawat dengan maskapai yang sama."Kalau baru kejadian, terus ia panik, cemas, takut, itu masih wajar karena ada kejadian yang baru saja terjadi yang menyebabkan keadaan traumatis," kata Rena saat dihubungi Health-Liputan6.com.Namun, tingkat kepanikan atau cemas berbeda-beda. Ada yang seperti Bayu, ada juga yang melakukan pembatalan penerbangan, tapi ada juga yang biasa saja."Satu kejadian bisa ber-impact yang berbeda-beda pada tiap orang. Hal ini tergantung pada pengalaman tiap-tiap orang," kata wanita yang berpraktik di Q-Consulting Jakarta ini.Ciri-ciri orang panik adalah tangan berkeringat dingin, kaki bergerak, duduk salah berdiri juga salah. Menurut Rena, bila kondisi itu terjadi dalam satu atau dua hari ini masih wajar bila hendak naik pesawat terbang.Namun, jika perasaan cemas dan takut naik pesawat masih berlangsung hingga satu atau dua tahun ke depan, kemungkinan mengalami gangguan panik.Sebaiknya perlu ke psikolog untuk menegakkan diagnosis untuk mengetahui benar mengalami gangguan panik atau tidak.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta - Badan SAR Nasional (Basarnas) telah memastikan pesawat Lion Air JT 610 jatuh perairan Tanjung Karawang.Hal tersebut diketahui dari temuan sejumlah puing-puing yang diduga milik pesawat Lion Air rute Jakarta-Pangkal Pinang tersebut."Posisinya di 1 nautical mile dari posisi lost contact. Setelah kita sampai di lokasi, kita menemukan puing, pelampung, HP, ada potongan-potongan," ujar Kepala Basarnas M. Syauqi di Jakarta.Baca JugaKabar mengenai jatuhnya pesawat ini pun sempat simpang siur beredar di media sosial termasuk di aplikasi chatting.Menanggapi kabar ini, sejumlah warganet pun mengingatkan untuk tidak mudah terpancing hoaks atau kabar palsu.Terlebih, peristiwa ini merupakan kecelakaan sehingga tidak sebaiknya menebar informasi palsu dan membuat khawatir para keluarga korban.Karenanya, warganet lain diminta untuk mencari informasi dari sumber-sumber yang terpercaya.Untuk mengetahui imbauan para warganet untuk tidak termakan hoax mengenai jatuhnya Lion Air tersebut, berikut ini ada beberapa kicauan yang sudah dihimpun Tekno Liputan6.com, Senin (29/10/2018).baru dgr kabar pesawata Lion Air JT610 jatuh. disaat lg genting kek gni masih ada aja manusia yg otaknya super duper sempit nyebarin info2 yg ga guna dan ga fix kepastiannyapgn gue kemplang nih orgBijak ya guys baca info. carilah info2 dr yg tmpt yg akurat jgn mau kemakan hoaxturut berduka cita atas jatuhya pesawat Lion Air JT 610 yang sudah dikonfirmasi jatuh oleh BASARNAS...semoga ada yang selamat.Kalau bisa SELURUH 189 selamat 🙏🏼🙏🏼🙏🏼ps : hargailah Keluarga denganTIDAK TERMAKAN HOAX berita ...silahkan cek situs atau televisiBERITA RESMIWaspada foto hoax Lion Air yang beredar dari oknum-oknum tertentu. Selalu cek dan ricek nama akun, followers-following hingga riwayat tweets/postingannya.Masih mantau pesawat lion air , yang gak tau apa apa jangan sebarin hoax lah, tunggu kepastiannya, semoga selamat #JT610Selalu waspada juga hoax, pantau terus twet pak @Sutopo_PN untuk konfirmasi #JT610Pagi ini, pesawat Lion Air rute Jakarta-Pangkal Pinang dilaporkan hilang kontak.Pesawat dengan nomor penerbangan JT 610 itu hilang kontak tak lama setelah lepas landas dari Bandara Internasional Soekarno-Hatta.Kepastian mengenai informasi ini telah dikonfirmasi oleh Direktur Umum Lion Air Grup Edward Sirait."Benar, kami kehilangan kontak sejak terbang jam 06.00 WIB dari Cengkareng," tuturnya.Pihak Lion Air sendiri, menurut Edward, masih terus melakukan pengecekan keberadaan pesawat tersebut."Kita lagi cek. Informasi masih simpang siur," tutur Edward.Peristiwa ini pun dengan cepat menjadi pembicaraan warganet di Twitter. Berdasarkan pantauan Tekno Liputan6.com, Senin (29/10/2018), tagar JT610 berada di puncak Trending Topic Twitter Indonesia.Kebanyakan dari warganet mendoakan yang terbaik bagi para kru dan penumpang yang ada di dalamnya.Untuk mengetahui lebih jelas, berikut ini beberapa kicauan yang sudah dihimpun.It's still unclear, but hoping everything will be alright #JT610 pic.twitter.com/cqTsFb7LqKPray for Lion Air #JT610 pic.twitter.com/Y4EHckgJJi#JT610 Beneran hilang kontak, trus tiba-tiba kehilangan ketinggian dadakan dalam waktu cepat, trus kecepatannya nambah tiba-tiba juga. 😱Semoga semua tidak seburuk itu.. pic.twitter.com/oRd0Bus04yMay we hear the best outcome soon, and wish everyone onboard are safe. #SafeFlight #JT610 https://t.co/cmcadr1Qz1Ya Allah semoga Lion Air #JT610 dalam keadaan baik-baik saja pic.twitter.com/T7d9PrscFgpray for #JT610 hope everyone is safe pic.twitter.com/jtJIFZsUEHSemoga semuanya baik2 saja 🙏🏻 #jt610 #lionair pic.twitter.com/BjH6hiLmPtEveryone please, send your prayer to All passengers and crews of Lion Air! Hopefully everything is all right. Please, Allah, save them.😫🙏🙏🙏 #JT610Semoga Allah memberikan keselamatan untuk seluruh penumpang #JT610 pic.twitter.com/950j5HIq58Pesawat Lion Air dengan nomor penerbangan JT 610 dilaporkan hilang kontak usai lepas landas landas dari Bandara Internasional Soekarno-Hatta sekitar pukul 06.00 WIB, Senin (29/10/2018). Pesawat tersebut sedianya akan mendarat di Pangkal Pinang.Direktur Umum Lion Air Grup Edward Sirait saat dihubungi Liputan6.com, membenarkan pihaknya hilang kontak dengan pesawat rute Jakarta-Pangkal Pinang tersebut.Pihak Lion Airjuga tengah menelusuri informasi yang menyebutkan pesawat tersebut mendarat darurat di Halim dan Karawang."Masih simpang siur, ada yang bilang mendarat di Halim, ada yang bilang di Karawang. Kami lagi cek ke lokasi," ungkap Edward.Menurut Edward, pesawat Lion Air itu hilang kontak sejak lepas landas dari Bandara Internasional Soekarno-Hatta."Benar kami kehilangan kontak sejak terbang jam 6.00 WIB dari Cengkareng," ujar Edward.(Dam/Jek)Saksikan Video Pilihan Berikut Ini:Pesawat Lion Air JT 610 yang jatuh di perairan Karawang, Jawa Barat mulai ditemukan.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta - Pesawat Lion Air rute penerbangan Jakarta-Pangkal Pinang dengan nomor penerbangan JT 610 jatuh di perairan Karawang setelah dilaporkan hilang kontak Senin (29/10/2018) pagi. Pesawat ini jatuh di area Mike, lapangan minyak lepas pantai blok ONWJ milik Pertamina milik di laut utara Bekasi.Baca JugaPesawat Lion Air dengan tipe Boeing 737 Max 8 terbang dari Bandar Udara Soekarno Hatta, Banten menuju Bandar Udara Depati Amir di Pangkal Pinang, dilaporkan telah hilang kontak pada 29 Oktober 2018, sekitar pukul 06.33 WIB.Pesawat berjenis Boeing ini baru beroperasi sekiranya 2 bulan sejak didatangkan Agustus 2018. Boeing 737 MAX 8 digadang-gadang memiliki banyak keistimewaan jika dibandingkan dengan varian B737 yang dioperasikan maskapai lain. Hal ini lantaran mesin Boeing 737 MAX 8 dirancang lebih ringan sehingga efisien bahan bakar.Ketika melihat sayap pesawat Boeing 737 MAX 8 pun ada satu hal yang menarik perhatian dan berbeda dengan pesawat kebanyakan. Ujung sayap Boeing 737 MAX 8 nampak seperti terbelah menjadi dua, satu menjulur ke atas dan satu ke bawah.Nyatanya model sayap yang terbelah ini berguna untuk memecah turbulensi udara yang terjadi di ujung sayap, terutama saat pesawat terbang dalam kecepatan tinggi. Dari segi kabin sendiri Boeing 737 MAX 8 terasa lebih nyaman bagi penumpang. Hal ini lantaran pada Boeing 737 MAX 8 hanya terdapat 180-189 seat sehingga space untuk duduk lebih luas.Tak cukup sampai di situ, Boeing 737 MAX 8 memiliki suara mesin yang halus sehingga tak sebising pesawat lainnya. Hal ini semakin menambah kenyamanan penumpang bukan, terutama bagi mereka yang membawa balita.Saksikan Video Pilihan di Bawah Ini:Pesawat Lion Air JT 610 yang jatuh di perairan Karawang, Jawa Barat mulai ditemukan.Pesawat type B737-8 Max dengan Nomor Penerbangan JT 610 ini baru diterima Lion Air pada Agustus 2018, dan baru memiliki jam terbang sekitar 800 jam. Hal ini disampaikan langsung oleh Ketua Komite Nasional Keselamatan Transportasi (KNKT) Soerjanto Tjahjono."Pesawat ini masuk Lion Air bulan Agustus 2018. Jam terbangnya sekitar 800 flight hours. Jadi bisa dikatakan baru," ujar Soerjanto di Jakarta, Senin (29/10/2018).Pesawat dengan nomor registrasi PK-LQP dilaporkan terakhir tertangkap radar pada koordinat 05 46.15 S - 107 07.16 E. Pesawat Lion Air rute Jakarta-Pangkal Pinang ini pun dipastikan jatuh setelah dilaporkan hilang kontak.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta - Model Fenny Steffy Burase kembali dipanggil penyidik Komisi Pemberantasan Korupsi (KPK). Dia akan diperiksa sebagai saksi dalam kasus dugaan suap Dana Otonomi Khusus (Otsus) Aceh yang menjerat Gubernur nonaktif Aceh Irwandi Yusuf."Saksi Fenny Steffy Burase akan diperiksa sebagai saksi untuk tersangka IY (Irwandi Yusuf)," ujar Juru Bicara KPK Febri Diansyah saat dikonfirmasi, Rabu (24/10/2018).Baca JugaSelain Steffy Burase, penyidik KPK juga menjadwalkan pemeriksaan Kabag Pemeliharaan Penyedia pada Biro ULP Pemprov Aceh Muhamad Nasir, dan Kepala Biro ULP Nirzarli.KPK menetapkan Gubernur Irwandi dan dua pihak swasta bernama Hendri Yuzal dan Teuku Syaiful Bahri serta Bupati Bener Meriah Ahmadi sebagai tersangka. Irwandi, Hendri dan Syaiful ditetapkan sebagai pihak penerima suap dari Ahmadi.Gubernur Irwandi melalui Hendri dan Syaiful diduga menerima suap Rp 500 juta dari total fee yang dijanjikan sebesar Rp 1,5 miliar. Uang tersebut diduga akan digunakan Steffy Burase untuk membeli medali dan pakaian atlet dalam ajang Aceh International Marathon 2018.Dugaan tersebut diperkuat pengakuan Steffy Burase. Steffy yang merupakan tenaga ahli dalam ajang tersebut mengatakan bahwa aliran dana suap tersebut ada, namun dirinya mengaku tak tahu asal usul dana tersebut.Steffy juga membenarkan pengeluaran untuk membeli medali senilai Rp 500 juta. "Dari Pak Gubernur pure (murni) Rp 500 sampai Rp 700 juta sisanya dari teman-temannya," kata Steffy."Siapa teman-temannya?" tanya jaksa. "Enggak tahu," jawab Steffy.Pada kasus kedua‎, Irwandi diduga menerima gratifikasi bersama orang kepercayaannya Izil Azhar sebesar Rp 32 Miliar. Gratifikasi itu berkaitan dengan pelaksanaan pembangunan Dermaga Sabang tahun anggaran 2006-2011.Staff ahli dalam acara Aceh Marathon ini diperiksa terkait aliran dana sebesar Rp 500 juta.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta - Aplikasi deteksi penerbangan pesawat berbagai maskapai Flightradar24 merekam rute terbang pesawat Lion Air JT 610 yang jatuh di Tanjung Karawang.Pesawat dengan rute penerbangan Jakarta ke Tanjung Pinang ini dikonfirmasi jatuh setelah hilang kontak sekitar pukul 06.33 WIB.Baca JugaAplikasi Flightradar24 pun merekam rute pesawat ini. Pantauan Tekno Liputan6.com di aplikasi Flightradar24, Senin (29/10/2018), rute terbang Lion Air JT 610 ini berhenti di perairan yang letaknya tidak terlalu jauh dari Bekasi.Dalam pantauan Flightradar24, saat jatuh, pesawat ini dalam kecepatan 345knot dan ketinggian 3.650 kaki. Aplikasi Flightradar24 biasanya menginformasikan status pesawat, entah saat pesawat tengah terbang atau mendarat.Namun, Lion Air JT 610 yang dijadwalkan mendarat pukul 07.20 WIB, statusnya masih unknown atau tidak diketahui.Flightradar24 juga mencatat jenis pesawat Lion Air JT 610 ini, yakni Boeing 737 MAX 8 dengan tipe B38M.Flight track of #JT610 as captured by @flightradar24. Reuters now reporting that the Lion Air flight from from Jakarta to Pangkal Pinang "has crashed", based on an Indonesian search and rescue official. pic.twitter.com/x9zXvsfhRqPesawat Lion Air dengan nomor penerbangan JT 610 jatuh di Tanjung Karawang setelah dilaporkan hilang kontak pada sekitar pukul 06.00 WIB. Pesawat tersebut membawa 189 orang, termasuk penumpang dan kru pesawat.Penumpang itu terdiri dari 178 orang dewasa, 1 anak-anak, dan 2 bayi (infant). Untuk kru pesawat terdiri dari 2 kokpit kru dan 6 orang awak kabin."Total ada 189 orang," ujar Ketua Komite Nasional Keselamatan Transportasi (KNKT) Soerjanto Tjahjono di Kantor Basarnas, Jakarta, Senin (29/10/2018).Badan SAR Nasional (Basarnas) mendapat informasi pesawat Lion Air itu jatuh di Tanjung Karawang."Benar informasinya A1, jatuh di Tanjung Karawang," ujar Humas Basarnas Yusuf, saat dihubungi Liputan6.com di Jakarta, Senin (29/10/2018).Pesawat Lion Air itu dilaporkan hilang kontak usai lepas landas dari Bandara Internasional Soekarno-Hatta sekitar pukul 06.00 WIB. Pesawat tersebut sedianya akan mendarat di Pangkal Pinang.(Tin/Isk)Saksikan Video Pilihan Berikut Ini:Melalui aplikasi Flight Radar terlihat bagamana pergerakan pesawat Lion Air JT610 sebelum hilang di radar.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta - Tim Kampanye Nasional Jokowi-Ma'ruf menargetkan perolehan suara sebesar 70 persen di Pilpres 2019. Hal tersebut sesuai dengan rekomendasi Rapat Kerja Nasional (Rakernas) Tim Kampanye se-Indonesia."Rakernas Tim Kampanye Nasional Jokowi-KH Ma’ruf Amin menyepakati pencapaian target suara Pilpres 2019 sebesar 70%," ujar Sekretaris TKN Jokowi-Ma'ruf Hasto Kristiyanto di Surabaya, Jawa Timur, Minggu (28/10/2018).Baca JugaTarget tinggi tersebut dipatok berdasarkan kesusksesan pemerintahan Joko Widodo dan Jusuf Kalla. Serta makin percaya dirinya Timses Jokowi-Ma'ruf Amin karena kesuksesan penyelenggaraan event-event besar."Kebanggaan sebagai bangsa yang ditandai dengan keberhasilan menyelenggarakan tiga event internasional berupa Asian Games, Asian Para Games dan Annual Meeting IMF-World Bank," jelas Hasto.Sekjen PDI Perjuangan itu mengatakan, sembilan partai pengusung harus menggerakkan seluruh elemen partai menyongsong Pilpres 2019, termasuk kepala daerah dan caleg di semua tingkatan."Guna mencapai target tersebut, maka PDI Perjuangan, Golkar, PKB, NasDem, PPP, Hanura, PKPI, Perindo, dan PSI bertekad untuk semakin menggerakkan seluruh elemen kepartaiannya," jelas Hasto.Rakernas juga merekomendasikan pentingnya sinergi pemenangan antarpartai, relawan, tokoh dan seluruh elemen masyarakat. Pada butir rekomendasi berikutnya, anggota calon legislatif dan tim kampanye bakal menerima sanksi jika terbukti mengkampanyekan pasangan calon presiden-wapres lawan."Penegakan sanksi disiplin organisasi bagi seluruh anggota dan kader partai yang terbukti mengampanyekan pasangan calon presiden dan calon wakil presiden lain akan diberlakukan sesuai mekanisme dan peraturan setiap Partai Politik Koalisi Indonesia Kerja," ujar Hasto.Saksikan video pilihan di bawah ini:Dalam sambutannya, Jokowi mengajak seluruh santri untuk senantiasa menjaga persatuan dan kesatuan bangsa dengan semangat sumpah pemuda.Selain itu, Rakernas merekomendasikan penguatan relawan. Juga pemantapan direktorat penggalangan pemuda dan perempuan, menyiapkan jurkam, melakukan canvassing, dan kampanye door to door, serta kampanye dengan konten kreatif."Dan berbagai kegiatan yang secara khusus untuk menggalang pemilih muda melalui wadah kaum muda berkreasi dan penggalangan kaum perempuan KEREN (Kreatif, Energik, Relijius, dan Nasionalis)," kata Hasto."Pelatihan juru bicara dan influencer secara periodik akan terus dilakukan guna menampilkan kekuatan rekam jejak, gagasan dan program, serta narasi kemajuan Indonesia Raya dari pasangan Jokowi-Kyai Ma’ruf Amin," pungkas Hasto.Reporter: Ahda Bayhaqi</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta Peluncuran motor listrik Gesits telah mengalami penundaan beberapa kali. Awalnya motor listrik karya anak bangsa ini direncanakan rilis pada 17 Agustus 2018. Namun karena suatu hal peluncuran urung dilakukan.Disampaikan CEO Garansindo Group Muhammad Al Abdullah, motor listrik hasil kolaborasi BUMN dengan akedemisi ini sebenarnya siap dirilis hanya saja tinggal menunggu waktu yang tepat untuk melepasnya.Baca Juga"Sebenarnya semua sudah siap, cuma kami sedang mencari momentum yang tepat (untuk diluncurkan),” terang pria yang akrab disapa Memet itu di kawasan Kemang,  Jakarta, Minggu (28/10/2018).Meski tak kunjung melantai di pasar nasional, motor listrik ini ternyata sudah dilirik negara lain. "Cita-cita kami kan tidak cuma untuk lokal tapi juga ekspor. Gesits sudah dilirik sama tiga (3) negara luar. Dua negara Asia dan Eropa," kata Memet.Sekadar informasi, produksi motor listrik Gesits didukung oleh sejumlah perusahaan lokal,  seperti Wika,  Pindad,  Pertamina, Telkomsel, PT LEN serta beberapa akedemisi di antaranya Universitas Negeri Surakarta (UNS) dan Institut Teknologi Bandung (ITB).Dengan predikat motor buatan anak bangsa, berapa persen kandungan lokal Gesits?"Nah, konten lokal ini masih perdebatan. Jika konten lokal ini, termasuk riset dan pengembangan (R&amp;D), kita sudah 95 persen," jelas Harun Sjech, Direktur Utama PT GTI, saat berbincang dengan wartawan di Jakarta.Perlu diakui, motor listrik Gesits ini memang belum 100 persen buatan dalam negeri. Pasalnya, tidak mudah memang untuk mencari perusahaan pemasok komponen dalam negeri, yang siap digunakan di sepeda motor Gesits ini."Ada yang impor (suplier), karena shockabsorber tidak ada supplier-nya di Indonesia. Untuk shockbreaker kita pakai punya Italia yang belakang, baterai kita ada dari Korea Selatan dan Cina," tambah Harun.Motor listrik Viar Q1</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta - Pengadilan Negeri Jakarta Selatan menggelar sidang putusan permohonan praperadilan Gubernur nonaktif Aceh, Irwandi Yusuf atas penetapan tersangka oleh Komisi Pemberantasan Korupsi (KPK). Gugatan praperadilan tersebut ditolak."Mengadili, dalam eksepsi menolak eksepsi termohon untuk seluruhnya. Dalam pokok perkara menolak permohonan praperadilan pemohon untuk seluruhnya," ujar hakim Riyadi Sunindyo F di Ruang Sidang Utama PN Jakarta Selatan, Jalan Ampera Raya, Rabu (24/10/2018).Baca JugaDalam putusan itu, Riyadi menyatakan bahwa operasi tangkap tangan dan penahanan yang dilakukan KPK terhadap Irwandi Yusuf sudah sesuai aturan hukum. Begitu pula tindakan KPK mulai penyelidikan hingga penyidikan dinyatakan sah dan berkekuatan hukum mengikat."Oleh karena itu, permohonan pemohon ditolak seluruhnya. Mengingat karena permohonan pemohon ditolak, maka pemohon membayar perkara yang jumlahnya nihil," ucap Riyadi.Irwandi tersandung kasus dugaan suap alokasi dana Otonomi Khusus (Otsus) Aceh tahun anggaran 2018.Dalam kasus ini, KPK menetapkan Irwandi Yusuf dan dua pihak swasta bernama Hendri Yuzal dan Teuku Syaiful Bahri serta Bupati Bener Meriah Ahmadi sebagai tersangka.Irwandi, Hendri dan Syaiful ditetapkan sebagai pihak penerima suap dari Ahmadi. Irwandi melalui Hendri dan Syaiful diduga menerima suap Rp 500 juta dari total fee yang dijanjikan sebesar Rp 1,5 miliar.Uang tersebut diduga akan digunakan untuk membeli medali dan pakaian atlet dalam ajang Aceh International Marathon 2018.Dugaan tersebut diperkuat oleh model Fenny Steffy Burase. Steffy yang merupakan tenaga ahli dalam ajang tersebut mengatakan bahwa aliran dana suap tersebut ada, namun dirinya mengaku tak tahu asal usul dana tersebut. Steffy juga membenarkan pengeluaran untuk membeli medali senilai Rp 500 juta.Saksikan Video Pilihan Berikut Ini:Gubernur Aceh non-aktif Irwandi Yusuf membantah dirinya mengirim uang kepada istri keduanya.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta - Pesawat Lion Air JT 610, rute Jakarta-Pangkal Pinang jatuh di dekat Teluk Karawang. Sebelumnya, pesawat itu dilaporkan hilang kontak setelah lepas landas dari Bandara Internasional Soekarno-Hatta sekitar pukul 06.00 WIB, Senin (29/10/2018).Pesawat Lion Air dengan nomor JT 610 ini merupakan keluaran terbaru dari tipe Boeing 737 MAX 8. Pesawat ini sendiri pertama kali diperkenalkan ke publik pada 2017 silam.Baca JugaBelum lama ini Lion Air Group baru saja menerima pesawat terbaru jenis Boeing 737 MAX 8 beregistrasi PK-LQP. Pesawat ini dikirim langsung dari Boeing Company yang berbasis di Seattle, Amerika Serikat.Rupanya, bukan hanya Lion Air yang membeli Boeing dengan tipe tersebut. Sejumlah maskapai penerbangan dunia juga membeli sejumlah unit.Seperti dikutip dari berbagai sumber, Senin (29/10/2018), berikut 5 maskapai penerbangan yang menggunakan Boeing 737 MAX 8:Saksikan video pilihan di bawah ini:Pesawat Lion Air JT 610 yang jatuh di perairan Karawang, Jawa Barat mulai ditemukan.Pada tanggal 26 Januari 2018, Aerolineas Argentinas (maskapai Argentina) menerima pesawat tipe baru yaitu Boeing 737 MAX 8.Pesawat ini dioperasikan secara komersil pertama kali pada 5 Februari 2018 menuju Neuquen dari Buenos Aires.Rupanya, Aerolineas Argentinas adalah maskapai pertama di Amerika Latin yang mengoperasikan pesawat jenis ini. Fasilitas di pesawat ini terbilang modern dengan nyaman.Interior pesawat menawarkan kenyamanan maksimal dengan lampu LED khusus yang berubah warna, tergantung pada pagi, siang atau malam.Southwest Airlines, maskapai penerbangan asal Amerika Serikat disebut sebagai pihak yang membeli Boeing 737 MAX dengan jumlah terbesar.Southwest Airlines dilaporkan telah membeli 40 unit pesawat dengan nilai transaksi US$ 4,68 miliar. Southwest Airlines yang berbasis di Dallas juga dilaporkan akan menambah 10 pemesanan armada pada 2019 hingga 2022.Sejak Air Canada membeli Boeing 737 MAX 8 pada tahun lalu, pihaknya telah menggunakan pesawat tersebut untuk sejumlah rute terkenal.Seperti Montreal ke Vancouver, Toronto ke Calgary, dan Toronto ke Los Angeles. Bahkan, ada pula penerbangan dengan tujuan luar negeri, yaitu menuju London.Irlandia adalah tujuan favorit untuk 737 MAX 8 dari Amerika Bagian Utara karena kedekatan jaraknya dengan benua Eropa.Pada Mei 2018, maskapai Air Italy meluncurkan pesawat terbarunya dengan tipe Boeing 737 Max 8. Pesawat tipe ini pertama kali tiba di Milan-Malpensa (MXP).Pesawat ini dilengkapi dengan kabin modern yang luas, termasuk kelas bisnis. Menurut pihak maskapai, 20 armada baru dari tipe pesawat ini akan menggantikan tipe 737NG.Setelah mendarat di Milan, pesawat itu disambut dengan penghormatan meriam air tradisional, diikuti dengan upacara memotong pita.Pejabat Boeing dan VietJet menandatangani nota kesepahaman di Farnborough International Airshow 2018 untuk pembelian 737 MAX 8.Perjanjian ini bernilai lebih dari US$ 12,7 miliar. Pada tahun 2016, VietJet telah memesan sejumlah pesawat tipe tersebut.VietJet berencana untuk meningkatkan kapasitas tambahan dari Boeing 737 MAX 8 ini pada tahun mendantang. Sebagai bagian dari perjanjian, Boeing akan bermitra dengan VietJet untuk meningkatkan keahlian teknis dan teknik serta pelatihan pilot dan teknisi di Vietnam.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta - Model Fenny Steffy Burase mangkir pemeriksaan penyidik Komisi Pemberantasan Korupsi (KPK). Steffy tak memenuhi panggilan penyidik lantaran tengah menghadiri sebuah kegiatan."Ada satu saksi yang tidak hadir hari ini, adalah Fenny Steffy. Ini saksinya IY (Irwandi Yusuf) untuk suap Dana Otonomi Khusus Aceh," ujar Kabag Pemberitaan dan Publikasi KPK Yayuk Andriati di Gedung KPK, Kuningan, Jakarta Selatan, Rabu,24 Oktober 2018.Baca JugaSteffy akan dijadwalkan diperiksa ulang hari ini, Kamis (25/10/2018)."Karena dia tidak hadir, karena ada kegiatan, dan akan dijadwal ulang hari Kamis besok," kata Yayuk.Steffy sendiri merupakan salah satu saksi yang dicegah ke luar negeri oleh lembaga antirasuah. Steffy sebelumnya sudah dua kali diperiksa penyidik KPK terkait kasus dugaan suap Dana Otsus Aceh.KPK menetapkan Gubernur Irwandi dan dua pihak swasta bernama Hendri Yuzal dan Teuku Syaiful Bahri serta Bupati Bener Meriah Ahmadi sebagai tersangka. Irwandi, Hendri dan Syaiful ditetapkan sebagai pihak penerima suap dari Ahmadi.Gubernur Irwandi melalui Hendri dan Syaiful diduga menerima suap Rp 500 juta dari total fee yang dijanjikan sebesar Rp 1,5 miliar. Uang tersebut diduga akan digunakan untuk membeli medali dan pakaian atlet dalam ajang Aceh International Marathon 2018.Dugaan tersebut diperkuat oleh model Fenny Steffy Burase. Steffy yang merupakan tenaga ahli dalam ajang tersebut mengatakan bahwa aliran dana suap tersebut ada, namun dirinya mengaku tak tahu asal usul dana tersebut. Steffy juga membenarkan pengeluaran untuk membeli medali senilai Rp 500 juta.Pada kasus kedua‎, Irwandi diduga menerima gratifikasi bersama orang kepercayaannya Izil Azhar sebesar Rp 32 Miliar. Gratifikasi itu berkaitan dengan pelaksanaan pembangunan Dermaga Sabang tahun anggaran 2006-2011.Saksikan Video Pilihan Berikut Ini:Steffy menjadi saksi atas tersangka Gubernur Aceh nonaktif Irwandi Yusuf.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta - Menteri Perhubungan Budi Karya Sumadi dan Menteri Keuangan Sri Mulyani berada di Ruang VIP Bandara Internasional Soekarno-Hatta, Kota Tangerang. Mereka langsung mengunjungi keluarga korban jatuhnya pesawat Lion Air JT 610 rute Jakarta-Pangkalpinang.Menhub Budi Karya Sumadi tiba lebih dulu sekitar pukul 12.25 WIB. Tanpa banyak bicara, Budi Karya langsung masuk ke dalam ruangan VIP.Baca Juga"Nanti ya, saya masuk dulu," singkatnya.Kemudian, sekitar pukul 12.54 WIB, Menkeu Sri Mulyani tiba dengan menumpang mobil dinasnya.Hingga kini, kedua menteri tersebut masih berada di dalam ruangan VIP yang juga dijadikan posko DVI terkait jatuhnya Lion Air JT 610 oleh pihak kepolisian dan Basarnas.Pesawat Lion Air JT 610 tujuan Pangkalpinang, jatuh di Tanjung Karawang. Diperkirakan pesawat tersebut jatuh 13 menit setelah lepas landas dari Bandara Internasional Soekarno Hatta.Basarnas menetapkan masa evakuasi penumpang pesawat Lion Air JT 610 dengan rute Jakarta-Pangkal Pinang yang jatuh di perairan Tanjung Karawang, Jawa Barat selama tujuh hari sejak hari ini. Masa evakuasi ini akan diperpanjang jika waktu dirasa belum cukup."Evakuasi selama tujuh hari dan nanti bisa diperpanjang tiga hari," kata Deputi Operasi Basarnas, Nugroho Budi W di Gedung Basarnas, Kemayoran, Jakarta Pusat, Senin (29/10/2018).Saat ini Basarnas telah menerjunkan 150 personel ke lokasi jatuhnya pesawat Lion Air. Basarnas juga dibantu anggota TNI dan Polri sebanyak 150 orang. Nugroho mengatakan, proses evakuasi ini juga dibantu nelayan yang sedang berada di sekitar perairan Tanjung Karawang."Total ada 300-an personel dan akan ditambah lagi untuk mempercepat evakuasi dan nelayan-nelayan ikut bergabung juga," sebutnya.Sementara ini tim penyelam dari Basarnas diterjunkan sebanyak 30 orang. Dan dipastikan TNI dan Polri juga menerjunkan tim penyelam untuk mencari badan Lion Air. Saat ini kondisi cuaca cukup bagus untuk melakukan penyelaman."Cuaca sekarang cukup bagus dan hanya mendung sedikit saja," jelasnya.Petugas menemukan beberapa serpihan yang berasal dari pesawat Lion Air JT610 yang jatuh di perairan Karawang, Jawa barat.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta - Calon Wakil Presiden Sandiaga Salahuddin Uno kembali menyoroti kondisi ekonomi Indonesia. Menurut dia, ekonomi Indonesia akan berada di posisi ke tujuh daftar ekonomi terburuk pada 2030."Saya enggak mau ngomong sesuatu hal yang negatif atau menimbulkan pesimisme. Tapi ekonomi kita akan tumbuh menjadi ekonomi paling jelek tujuh besar dunia di 2030," kata Sandiaga di acara Milad PKS Muda, di Kantor DPP PKS, Jalan TB Simatupang, Jakarta Selatan, Minggu 28 Oktober 2018.Baca JugaDia mengatakan, seharusnya Indonesia bisa menjadi pemain di bidang ekonomi. Salah satunya melalui perberdayaan ekonomi berbasis agrikutural."Maka diskusi kita harus menjadi ekonomi berbasis agriculture. Nah, politisi kemarin sore di sini semua harus siap untuk menjadi pemain. Salah satu pengisinya dengan," ucap Sandiaga.Mantan Wakil Gubernur DKI Jakarta ini menambahkan, Indonesia memiliki banyak keunggulan baik di bidang sumber daya alam (SDA) maupun Sumber Daya Manusia (SDM)."Sumber daya alam melimpah. SDM luar biasa. Dengan semangat Sumpah Pemuda kita harus bicara hal-hal substansial yang fundamental untuk bangsa kita ke depan. Saya yakin kalau kita berpikir dengan semangat yang sangat substansial insyaallah 170 (jelang pemungutan suara Pemilu 2019) hari kita akan sampai," ucapnya."170 is our shortest goal. Saya yakin jangka pendek kita dibukakan Allah SWT kalau kita berniat ikhlas. Kerja keras, kerja cerdas dan kerja tuntas," Sandiaga menandaskan.Calon Wakil Presiden Sandiaga Uno memberikan beberapa wejangan kepada para milenial agar bisa sukses di berbagai bidang, baik itu karir, usaha hingga di dunia politik.Hal ini disampaikan Sandiaga saat menjadi pembicara di acara Milenial Fest, di Djakarta Theater, Jakarta."Saya kasih tahu. Hindari jeniper. Tahu apa itu jeniper," kata Sandi, Minggu (28/10/2018).Sandi menuturkan, jeniper adalah kependekan dari julid, nyinyir, dan baper. Menurut Sandi, untuk menjadi seorang yang sukses, ketiga hal tersebut harus dihindari."Julid itu negatif, kalau sudah negatif akan membawa komen yang lebih negatif. Dan akhirnya ada aura psimisme. Nih nya, jangan nyinyir. Sudah cukup, insan di dunia ini yang bersifat nyinyir. Jangan ditambahin lagi," tutur Sandi.Yang terpenting, kata Sandi, para kaum milenial jangan pernah terbawa perasaan atau baper ketika mendapat kritikan."Di bawa nyantai aja, di bawa happy. Jadi jangan jeniper," ucap Sandiaga.Reporter: Sania MashabiSumber: Merdeka.comErick Thohir resmi menjadi Ketua Tim Kampanye Jokowi-Ma'ruf Amin. Meski demikian, ia mengaku tetap akrab dengan Sandiaga Uno, sebagai sahabatnya sejak duduk di bangku SD.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta - Pesawat Lion Air rute penerbangan Jakarta-Pangkal Pinang dengan nomor penerbangan  JT 610 dipastikan jatuh setelah dilaporkan hilang kontak. Pesawat ini jatuh di area Mike, lapangan minyak lepas pantai blok ONWJ milik Pertamina milik di laut utara Bekasi.BACA JUGAPesawat tipe B737-8 Max milik operator Lion Air yang terbang dari Bandar Udara Soekarno Hatta Banten menuju Bandar Udara Depati Amir di Pangkal Pinang dilaporkan telah hilang kontak pada 29 Oktober 2018, sekitar pukul 06.33 WIB.Dalam keterangan tertulis yang diterima dari Basarnas, ada saksi atas nama Suyadi yang mengaku melihat pesawat Lion Air jatuh di sekitar Tanjung Karawang. Saat ini pihak SAR Jakarta sedang bergerak ke lokasi koordinat kejadian untuk melakukan operasi SAR."Posisinya di 1 nautical mile dari posisi lost contact. Setelah kita sampai di lokasi, kita menemukan puing, pelampung, HP, ada potongan-potongan," ujar Kepala Basarnas M Syauqi di Jakarta, Senin (29/10/2018).Hal ini semakin diperkuat oleh Kepala  Kepala Pusat Data Informasi dan Humas Badan Badan Nasional Penanggulangan Bencana (BNPB), Sutopo Purwo Nugroho yang juga menyampaikan adanya indikasi serpihan pesawat Lion Air tersebut di perairan Karawang. Melalui akun twitter pribadinya, Sutopo mengunggah sebuah video yang menunjukkan beberapa kapal tug boad yang tengah melalukan evakuasi.“Serpihan pesawat Lion Air JT 610 yang jatuh di perairan Karawang. Beberapa kapal tug boad membantu menangani evakuasi. Video diambil petugas tug boad yang ada di perairan Karawang” tulis Sutopo pada keterangan video berdurasi 45 detik itu.Serpihan pesawat Lion Air JT 610 yang jatuh di perairan Karawang. Beberapa kapal tug boad membantu menangani evakuasi. Video diambil petugas tug boad yang ada di perairan Karawang. pic.twitter.com/4GhKcRYkpGTak hanya video, Sutopo juga mengunggah beberapa foto yang menunjukkan puing-puing pesawat dan beberapa barang pribadi penumpang seperti ponsel dan dompet.Dalam foto tersebut terlihat petugas Pertamina Hulu Energi Offshore North West Java (PHE ONWJ) di lepas pantai di utara Bekasi tengah melakukan evakuasi dan mengambil dokumentasi.Jatuhnya pesawat Lion Air JT 610 di dekat fasilitas Anak usaha PT Pertamina (Persero), Pertamina Hulu Energi Offshore North West Java (PHE ONWJ) di lepas pantai di utara Bekasi, Jawa Barat. Petugas PHE ONWJ melakukan evakuasi dan mengambil dokumentasi. pic.twitter.com/Xq0kQjAWe8</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta Ratusan personel Basarnas dan gabungan TNI-Polri diterjunkan untuk menyisir dan mencari penumpang pesawat Lion Air JT 610 yang jatuh di perairan Tanjung Karawang, Jawa Barat pada Senin (29/10/2018)Tim Basarnas juga diterjunkan untuk menyelam dan mencari badan pesawat.Baca Juga"Dalam proses penyelaman ini kotak hitam atau black box pesawat dengan rute Jakarta-Pangkal Pinang itu belum ditemukan," ujar Kepala Deputi Operasi Basarnas, Nugraha Budi W di Gedung Basarnas, Kemayoran, Jakarta Pusat, Senin (29/10) siang.Dia menyatakan, sampai saat ini belum ditemukan untuk black box-nya. Tetapi dari alat kita sudah memonitor lokasinya, sudah ada. Tadi sudah disampaikan oleh Kabasarnas tadi pagi," jelasnya.Nugroho mengatakan, pihaknya akan bekerja keras untuk mencari ratusan penumpang dan badan pesawat Lion Air. Sepanjang pencarian sampai siang ini, badan pesawat belum ditemukan.Tim hanya menemukan serpihan kecil dan barang milik penumpang seperti KTP, paspor, buku tabungan, SIM, dan kartu BPJS."Main body pesawat, yang tadi disampaikan kita sudah ada. Ya belum signifikan lah kita dapatkan. Baru pecahan-pecahan ini, serpihan-serpihan," kata Nugroho.Terkait kemungkinan penumpang yang selamat, Nugroho mengatakan pihaknya tetap berdoa."Kita menunggu mukjizat dari Yang Maha Kuasa, tetapi secara umum total penumpang 178, ditambah kru menjadi sekitar 189 orang," pungkasnya.Reporter: Hari AriyantiSaksikan video pilihan di bawah ini:Pesawat Lion Air JT 610 yang jatuh di perairan Karawang, Jawa Barat mulai ditemukan.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta - Daftar kepala daerah yang terjerat operasi tangkap tangan (OTT) Komisi Pemberantasan Korupsi (KPK) kembali bertambah. Kali ini Bupati Cirebon Sunjaya Purwadisastra yang diciduk oleh KPK.Sunjaya terjerat OTT KPK pada Rabu 24 Oktober 2018. Selain Sunjaya, KPK juga menangkap Sekretaris Dinas Pekerjaan Umum dan Penataan Ruang Kabupaten Cirebon Gatot Rachmanto yang ditetapkan sebagai tersangka pemberi suap jual beli jabatan.Baca JugaWakil Ketua KPK Alexander Marwata mengatakan, penangkapan keduanya berdasarkan laporan dari masyarakat.Menurut Alex, pada Rabu, 24 Oktober 2018, tim KPK menerima informasi akan terjadi transaksi suap jual beli jabatan dan gratifikasi kepada Sunjaya. Tim kemudian menuju kediaman ajudan Sunjaya berinisial DS dan mengamankan uang Rp 116 juta dalam pecahan Rp 100 ribu dan Rp 50 ribu."Tim juga mendapatkan bukti setoran ke rekening penampungan milik Bupati yang diatasnamakan orang lain senilai Rp 6.425.000.000," ujar Alex di Gedung KPK, Kuningan, Jakarta, Kamis (25/10/2018).Kemudian, sekitar pukul 16.30 WIB, tim penindakan menuju kediaman Gatot dan menangkapnya. Secara paralel, tim juga mengamankan Sunjaya dan ajudannya yang berinisial N di kantor pendopo Bupati."Tim juga kemudian mengamankan Kabid Mutasi berinisial SD. Kemudian, pukul 17.30 WIB, Kepala BKPSDM berinisial SP tiba di kantor bupati dan diamankan tim," kata Alex.Setelah itu, tim penindakan membawa mereka yang diamankan ke Gedung KPK."Kamis (25/10/2018), sekitar pukul 15.30 WIB, sekretaris Sunjaya berinisial S mendatangi Gedung KPK dan membawa uang Rp 296.965 dan menyerahkan kepada KPK," kata Alex.Sebelum ditetapkan sebagai tersangka, Sunjaya sempat mengembalikan uang senilai Rp 269.965.000 kepada KPK yang diantarkan oleh Sekretarisnya yang berinisial S.Yang menarik, berbeda dengan kasus-kasus korupsi lain, yang kerap menggunakan mata uang dollar Amerika atau Singapura. Kali ini, uang suap Bupati Cirebon Sunjaya itu dibungkus dalam karung yang terdiri dari pecahan Rp 5.000 dan Rp 20.000.Dalam kasus ini, Alex mengindikasikan, uang suap yang diterima Bupati Cirebon, Jawa Barat periode 2014-2019 Sunjaya Purwadisastra juga untuk kepentingkan Pilkada Serentak 2018."Dalam proses penyelidikan ini, KPK mengidentifikasi dugaan aliran dana untuk kepentingan Pilkada sebelumnya," ucap Alex.Tarif BervariasiSoal tarif yang dikenakan Sunjaya untuk setiap jabatan di lingkungan Pemkab Cirebon, Jubir KPK Febri Diansyah mengatakan Sunjaya memasang tarif bervariasi."KPK mengidentifikasi dugaan adanya tarif-tarif yang berbeda untuk pengisian jabatan tertentu. Misalnya, kisaran Camat Rp 50 juta, eselon 3 Rp 100 juta eselon 2 Rp 200 juta," kata Juru Bicara KPK Febri Diansyah saat dikonfirmasi, Jumat (26/10/2018).Febri mengatakan tarif uang dipasang Bupati Sunjaya tersebut berlaku relatif tergantung strategis atau tidaknya jabatan."Tarif tersebut berlaku relatif tergantung tinggi rendah dan strategis atau tidaknya jabatan di Cirebon. Kami juga menduga, penerimaan hampir selalu terjadi setelah seseorang menduduki jabatan," jelas Febri.KPK pun sangat menyesalkan masih terjadinya praktik penerimaan suap oleh kepala daerah."Bupati Cirebon merupakan kepala daerah ke-19 yang diproses KPK melalui operasi tangkap tangan di tahun 2018 ini dan merupakan kepala daerah ke-100 yang pernah kami proses selama KPK berdiri," ucap wakil Ketua KPK Alexander Marwata .KPK pun memandang sudah mendesak untuk melakukan perubahan aturan terkait penguatan independensi Aparat Pengawasan Intern Pemerintah (APIP) dan perbaikan di sektor politik."Terutama aspek pendanaan politik terhadap calon kepala daerah dalam proses kontestasi politik," kata Alexander.Ia juga mengungkapkan, berdasarkan kajian KPK terkait pendanaan dalam Pilkada terungkap bahwa banyak kepala daerah yang 'disponsori' pihak-pihak tertentu."Bahwa dari beberapa operasi tangkap tangan yang dilakukan KPK dan ketika diperiksa banyak yang mengatakan mereka itu untuk Pilkada itu "disponsori" oleh pihak-pihak tertentu atau bahkan dia minjam," tutur Alexander.Menurutnya, ada kepala daerah di daerah tertentu yang mengatakan bahwa untuk menjadi kepala daerah itu paling tidak harus menyiapkan dana Rp20 sampai Rp30 miliar."Padahal kalau dihitung dari penghasilan kepala daerah selama lima tahun, saya yakin mungkin kalau ditabung semua uangnya itu penghasilan yang resmi mungkin tidak sampai Rp 6 miliar dengan asumsi penghasilan Bupati itu Rp 100 juta perbulan. Sisanya dari mana? Tentu saja mereka akan berupaya dengan berbagai cara untuk mengembalikan modal," kata Alexander.Tertangkapnya Bupati Sunjaya ini berdasarkan laporan dari masyarakat. Salah satu yang mempunyai peran yaitu salah seorang PNS Pemkab Cirebon bernama Rakhmat Hidayat. Rahmat yag merupakan perawat di Puskesmas itu selama ini gigih menyuarakan adanya korupsi jabatan di lingkungan kerjanya.Dia pun mengimbau agar seluruh PNS di Kabupaten Cirebon tidak takut mengungkap fakta yang sebenarnya."Saya ingin perubahan Kabupaten Cirebon lebih baik punya pemimpin tidak jual beli jabatan, suap proyek besar dan korupsi," kata Rakhmat saat ikut dalam aksi yang digelar salah satu LSM di depan Kantor Bupati Cirebon, Kamis (25/10/2018).Dia mengaku, sejak menjabat perilaku Bupati Cirebon sudah tidak memiliki iktikad baik sebagai pemimpin. Hingga akhirnya, dia memberanikan diri membongkar kasus korupsi di RSUD Arjawinangun Kabupaten Cirebon.Sikap Rakhmat membongkar kasus korupsi rupanya membuat Sunjaya harus memutasinya. Rakhmat yang dulu perawat di RSUD Arjawinangun, kini harus menjadi perawat di Puskesmas Kalimaro Kecamatan Gebang Kabupaten Cirebon.Namun demikian, Rakhmat tetap menjalaninya dengan ikhlas dan penuh suka cita. Rakhmat harus mengeluarkan biaya lebih besar selama satu tahun dinas di Puskesmas Kalimaro Cirebon."Saya bersyukur sekali walaupun saya harus dipindah karena membuat Sunjaya marah tapi saya tidak masalah saya tetap menjalankan kewajiban saya meski jarak tempuh harus mengeluarkan Rp 100 ribu setiap hari," kata dia.Dia mengaku, dimutasi karena dituding ingin menjegal Sunjaya agar tidak mendapat rekomendasi dari partai untuk maju pada periode kedua."Sampai sekarang saya tetap kritis tapi tidak dipecat oleh Sunjaya karena saya selalu bertanggungjawab atas apa yang sudah menjadi tugas saya sebagai PNS di puskesmas misal datang tepat waktu," ujar dia.Rakhmat mengaku tidak pernah diberi tawaran jabatan tinggi oleh Sunjaya. Bahkan Rakhmat cenderung melawan kebijakan yang dianggap tidak berpihak kepada PNS."Saya terus melawan jadi saya tidak ditawari jabatan kalaupun dipromosikan saya tidak mau karena harus bayar itu tidak benar," kata Rakhmat.Dia mengungkapkan, setiap tiga bulan sekali Sunjaya selalu melakukan mutasi jabatan. Bahkan, hal tersebut sudah menjadi rahasia umum.Rakhmat pun mengaku menggelar acara saweran kepada warga di Puskesmas Kalimaro. Rakhmat menyebutkan nilai sawer yang diberikan kepada warga sebagai ucap syukur atas tertangkapnya Sunjaya."Ini juga nadzar saya jika benar tertangkap KPK saya sawer Rp 1 juta. Jabatan itu seakan menjadi lomba untuk diperjual belikan Sunjaya dan pejabat yang sudah sesuai ketentuan berlomba tawar menawar harga di lahan basah," kata dia.Rakhmat tidak mengetahui secara pasti jumlah uang yang harus disetor ke Sunjaya untuk setiap jabatan. Namun, dia mengungkapkan untuk menduduki jabatan Kepala Puskesamas, minimal harus sedia dana Rp 100 juta."Yang lain saya tidak tahu tapi kalau kepala puskesmas segitu yang saya tahu," ujar dia.Sunjaya resmi bersatus tersangka setelah diperiksa oleh KPK atas dugaan kasus jual beli jabatan.Status baru Sunjaya ini dikeluarkan oleh KPK hanya beberapa bulan sebelum pelantikannya sebagai Bupati Cirebon untuk periode kedua 2019-2024. Rencanannya, Sunjaya dan wakilnya Imron Rosyadi akan dilantik pada 24 Maret 2019.Terkait hal ini, Ketua KPU Kabupaten Cirebon Saefuddin Jazuli menyatakan, pelantikan Sunjaya tetap dilakukan sesuai jadwal. Hal ini sesuai UU Nomor 10 Tahun 2016 tentang Pemilihan Kepala Daerah."Tapi tetap tergantung statusnya, apakah tersangka, terdakwa, atau sudah inkrach," ucap Saefuddin di kantor KPU Kabupaten Cirebon, Jawa Barat, Jumat (26/10/2018).Dia menjelaskan, dalam UU Nomor 10/2016, proses pelantikan tetap dilakukan jika status Sunjaya masih tersangka. Apabila statusnya sudah menjadi terdakwa, Sunjaya bisa diberhentikan sementara setelah dilantik.Jika status Sunjaya sudah inkrah, maka Sunjaya tetap dilantik. Namun, kemudian langsung diberhentikan. "Perlakuannya itu beda-beda tergantung status hukumnya," ucap Saefudin.Saefudin mengatakan, saat ini kewenangan masih ada di Kementerian Dalam Negeri dalam menyikapi kasus tersebut. Apalagi saat ini Sunjaya masih dalam proses pemeriksaan di KPK."Kalau sekarang bisa didorong pengganti sementara sampai menunggu pelantikan," kata dia.Seperti diketahui, Sunjaya kembali memenangkan Pilkada 2018. Berpasangan dengan Imron Rosyadi, pasangan nomor urut 2 itu meraih 319.630 suara berdasarkan rapat pleno terbuka rekapitulasi penghitungan KPU Kabupaten Cirebon pada Juli lalu.Terkait dengan pengganti Sunjaya selama berurusan hukum dengan KPK, Gubernur Jawa Barat Ridwan Kamil telah meminta Kemendagri untuk mengutus Plt Bupati Cirebon sehingga roda pemerintahan di kabupaten itu tetap berjalan baik."Saya sudah berkirim informasi kepada Kemendagri kira-kira proses penggantian sementara ini seperti apa. Supaya tidak ada kekosongan pemerintahan di sana," ungkap Emil ketika ditemui di Gedung DPRD Jawa Barat, Kamis (25/10/2018).Menurut dia, penunjukan Plt merupakan satu hal penting agar pelayanan kepada masyarakat tetap maksimal. Apalagi, pasa terjaring operasi tangkap tangan KPK, Rabu malam, belum ada pengganti sementara Sunjaya.Mantan Wali Kota Bandung ini juga mengapresiasi KPK yang terus bergerak memberantas praktik korupsi yang menjerat kepala daerah."Saya mengapresiasi KPK dan mengapresiasi agar penegakan hukum ini agar lebih ketat dan lebih kuat," tegasnya.Gatot yang lebih dulu meninggalkan Gedung KPK enggan berkomentar terkait penetapannya sebagai tersangka.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta Warganet di media sosial saling mengingatkan agar tidak membagi foto maupun video terkait jatuhnya pesawat Lion Air JT 610 di Tanjung Karawang pada Senin, 29 Oktober 2018.Musibah bukan bahan gosip. Sebelum niat posting foto korban #JT610 harap mempertimbangkan perasaan keluargs korbanTolong ye jangan pada ngeshare foto korban #jt610Baca JugaPsikolog Ike R. Sugianto, mengatakan, sebelum menyebarkan apa pun mengenai pesawat Lion Air yang jatuh itu, ingatlah bahwa kita sebagai manusia harus saling menghormati, baik orang yang masih ada maupun yang sudah tiada."Kita harus menghormati semua orang, termasuk menghormati korban," kata Ike saat dihubungi Health Liputan6.com pada Senin, 29 Oktober 2018.Sebaiknya, biarkan keluarga menjaga memori yang baik tentang korban-korban yang ada di pesawat itu. Biarlah keluarga korban mengenang sanak keluarga yang pergi itu dengan kondisi yang baik."Karena, kalau misalnya kecelakaan begini, lalu ditemukan dalam kondisi mengenaskan, kita sama memberikan dampak traumatis, kepada siapapun yang melihatnya," kata Ike.Belum lagi jika foto dan video korban pesawat Lion Air JT610 itu tersebar di grup-grup pesan singkat, lalu ada anak kecil yang melihatnya, dampak traumatis itu juga akan dirasakan oleh anak-anak.Ike pun berpesan, sebelum melakukan hal gegabah seperti itu, sebaiknya tanya pada diri sendiri: "Apa manfaatnya? Sebaiknya, lakukan hal-hal yang bermanfaat saja."</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Doha - Hari ini, tepat 14 tahun lalu, pemimpin Al-Qaeda Osama bin Laden tampil dalam sebuah video pesan terbaru yang ditayangkan oleh Al Jazeera, stasiun televisi global asal Qatar.Bin Laden untuk pertama kalinya mengklaim bertanggung jawab langsung atas serangan 11 September 2011, yang menghancurkan menara kembar World Trade Center di New York, Amerika Serikat (AS).Kelompok Islam militan itu berkata: "Kami harus menghancurkan menara (WTC) di Amerika, karena kami adalah orang bebas ... dan kami ingin mendapatkan kembali kebebasan bangsa kami."Dalam video tersebut, Osama bin Laden mengenakan jubah kuning dan putih, duduk di sebuah ruangan dengan dinding polos berwarna coklat, demikian sebagaimana dikutip dari Cbc.ca pada Minggu (28/10/2018).Dalam pesan berdurasi 18 menit itu, beberapa di antaranya ditayangkan oleh Al-Jazeera empat hari sebelum pemilihan presiden AS, bin Laden menuduh George W Bush lalai mengawasi kebobolan 19 orang pembajak pesawat, yang mengambil alih empat pesawat penumpang untuk teror bunuh diri.Bin Laden juga mengancam serangan baru jika kebijakan pemerintah AS tidak berubah.Baca JugaMenurut para penerjemah, bin Laden mengatakan kepada para daftar pemilih AS: "Keamanan Anda tidak berada di tangan (calon presiden Demokrat John) Kerry atau Bush, atau al-Qaeda. Keamanan Anda ada di tangan Anda sendiri.""Setiap negara yang tidak ikut campur dengan urusan keamanan kami, maka mereka telah menjamin keamanannya sendiri."Di sisi lain, Presiden Bush yakin Amerika akan menang.Bush bereaksi terhadap rekaman itu dengan mengatakan, bahwa AS tidak akan diintimidasi oleh upaya bin Laden untuk ikut campur dalam pilpres 2004."Orang Amerika tidak akan diintimidasi atau dipengaruhi oleh musuh negara kita," katanya. "Kami sedang berperang dengan para teroris ini, dan saya yakin bahwa kami akan menang."Rivalnya, John Kerry juga cepat mengutuk ancaman bin Laden."Sebagai orang Amerika, kami benar-benar bersatu dalam tekad untuk memburu dan menghancurkan Osama bin Laden, dan juga para teroris," katanya saat berkampanye di Florida.Al-Jazeera mengatakan menerima pesan sebelumnya di hari penayangan pesan Osama bin Laden, tetapi tidak akan mengatakan apa isinya.Juru bicara Gedung Putih kala itu, Scott McClellan, mengatakan para pejabat intelijen AS percaya rekaman aslinya.FBI membandingkan video tersebut dengan satu siaran salah satu siaran di stasiun televisi ABC, tidak beberapa lama setelahnya.Dalam pesan lain tersebut, seorang pria bertopeng, yang mengaku sebagai seorang anggota al-Qaeda cabang AS, mengatakan akan lebih banyak serangan terhadap Negeri Paman Sam, dan waktunya sudah kian dekat.Simak video pilihan berikut:Senin, 11 September 2017, bertepatan dengan peringatan 16 tahun serangan teroris yang menewaskan setidaknya 3.000 orang.Rekaman langsung dari Osama bin Laden pada 2004 silam adalah pertama kalinya bagi publik global, setelah pemimpin Al Qaeda itu ditetap sebagai buron, setahun setelah Serangan 11 September.Dia menghindari penangkapan ketika AS menginvasi Afghanistan, di mana dia bermarkas, pada akhir tahun 2001. Banyak analis percaya dia menemukan tempat perlindungan di rantai pegunungan di sepanjang perbatasan dengan negara tetangga Pakistan.Salah satu pernyataan yang lebih eksplosif dari bin Laden pada rekaman itu adalah bahwa serangan pesawat bunuh diri al-Qaeda pada 11 September 2001, akan lebih ringan jika Bush lebih waspada dan bertindak lebih cepat.Sebaliknya, kata bin Laden, Bush justru terus mendengarkan bocah sekolah dasar membacakan cerita dongeng.Presiden sedang mengunjungi sebuah sekolah di Florida, ketika seorang pembantu mengatakan kepadanya bahwa sebuah pesawat terbang ke arah World Trade Center.Seorang juru kamera menangkap momen ketika politikus tersebut tercengang, namun tetap berusaha tenang mendengarkan seorang siswa membaca kisah My Pet Goat selama tujuh menit berikutnya.Pemimpin al-Qaeda mengatakan para pembajak telah merencanakan untuk melakukan semua serangan dalam waktu 20 menit, karena mereka yakin AS akan bereaksi dengan cepat dan mulai menembaki pesawat-pesawat yang salah."Penundaan Bush memberi kami tiga kali waktu yang dibutuhkan untuk melakukan operasi, terima kasih kepada Tuhan," kata Bin Laden.Sebanyak 58 menit berlalu antara waktu pesawat pertama menghantam menara pertama WTC,dan saat pesawat ketiga menabrak Pentagon --markas Kementerian Pertahanan-- di dekat ibu kota Washington DC.Pesawat keempat jatuh di sebidang lahan di negara bagain Pennsylvania, setelah penumpang mengetahui apa yang terjadi dengan pesawat lain yang dibajak, dan menyerbu kokpit untuk mengalihkannya dari target populasi keempat.Beberapa kejadian bersejarah juga terjadi di tanggal yang sama, seperti mialnya eksekusi petualang sekaligus penulis Walter Raleigh jaena dituduh berkonspirasi menjatuhkan Raja James I dari Inggris.Selain itu, pada tanggal yang sama di tahun 1915, Tomas Masaryk memprokalamasikan kemerdekaan Cekoslowakia.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta Sebelum dinyatakan hilang kontak, pilot pesawat Lion Air dengan nomor penerbangan JT 610 tujuan Pangkalpinang, Babel, sempat meminta kembali ke bandara Soekarno-Hatta atau return to base (RTB) kepada menara ATC.Kepala Otoritas Bandara (Otban) Bandara Internasional Soekarno Hatta, Bagus Sanjoyo menerangkan kronologis sebelum kejadian nahas tersebut. Pesawat jenis Boeing 737-8 itu lepas landas dari Terminal 1 pada pukul 06.20 WIB.Baca JugaKemudian, pada 06.31 WIB pilot pesawat sempat meminta untuk putar balik kembali ke landasan Bandara Soekarno-Hatta."Kemudian, oleh petugas menara ATC diperbolehkan atau disetujui untuk kembali," kata Bagus, saat memberikan keterangan persnya di Ruang VIP Terminal 1 Bandara Soetta, Senin (29/10/2018).Setelah itu, tiba-tiba pesawat Lion Air  lost contact dengan menara ATC. Bagus pun tidak menerangkan alasan pilot pesawat meminta kembali ke landasan. Meskipun dugaan yang mencuat adalah adanya kerusakan mesin pesawat hingga bocornya tangki bensin."Tidak, tidak mengarah ke sana. Kami belum mengetahui pasti, yang jelas sudah mendapat persetujuan untuk kembali," katanya.Namun setelah itu, pesawat langsung hilang kontak dengan menara ATC. Apakah pesawat hilang kontak atau jatuh masih berada di jalur penerbangan menuju Pangkalpinang, atau sudah posisi putar balik, pihaknya pun masih menunggu penyelidikan dari KNKT."Kita tunggu hasil penyelidikannya setelah black box ditemukan," katanya.Seperti diketahui, pesawat Lion Air dengan nomor penerbangan JT610 diduga jatuh di Teluk Karawang, Jawa Barat.Hingga kini, keluarga korban terus berdatangan untuk mendapatkan informasi pasti mengenai nasib keluarganya yang menjadi penumpang pesawat tersebut.Basarnas dan Kementerian Perhubungan dibantu sejumlah instansi lain mulai mengevakuasi korban.</t>
   </si>
   <si>
     <t>Liputan6.com, Jakarta - Tim Kampanye Nasional Jokowi-Ma'ruf mengakui Sumatera Barat merupakan lumbung suara yang penting. Pada Pilpres 2014, pasangan Jokowi-JK kalah telak dari Prabowo-Hatta dengan perolehan suara 23,08 persen melawan 76,92 persen.Sekretaris TKN Jokowi-Ma'ruf, Hasto Kristiyanto yakin kisah tersebut tak akan terulang di Pilpres 2019. Sebab, isu sentimen agama tak mempan karena Ketua MUI Ma'ruf Amin menjadi cawapres.Baca Juga"Karena tidak ada lagi persoalan yang terkait agama," kata Hasto di Surabaya, Jawa Timur, Minggu (28/10/2018).Kekuatan kepala daerah juga dipercaya bakal mengubah peta suara di Sumatera Barat. 10 kepala daerah di tanah Minang mendeklarasikan dukungan kepada Jokowi karena pemerintah memberikan perhatian pembangunan seperti di provinsi lainnya."Inilah yang membuat optimisme bahwa di Sumatera Barat akan terjadi perubahan peta Pilpres ke depan untuk Jokowi-Ma'ruf," kata Sekjen PDI Perjuangan itu.Maka dari itu, TKN Jokowi-Ma'ruf berani menargetkan perolehan suara nasional 70 persen. Sebab, pemetaan suara telah berubah dari empat tahun lalu."Makanya dari bawah kami berani menargetkan (total suara se-Indonesia) 70 persen," tegas Hasto.Saksikan video pilihan di bawah ini:Presiden Jokowi menghadiri puncak Hari Pers Nasional (HPN) 2018 di Padang, Sumatra Barat.Hasto juga mengatakan pihaknya tengah menyiapkan 'anti-virus' untuk mengantisipasi serangan hoaks yang diduga bakal banyak menyerang pasangan calon presiden nomor urut 01. Hal itu juga tercantum dalam rekomendasi internal Rapat Kerja Nasional TKN di Surabaya, Jawa Timur."Kalo hoaks sebagai sebuah virus peradaban kita, kami punya anti virusnya untuk mencegah itu dan itulah yang dibangun rekomendasi internal bagaimana menghadapi virus-virus, anti-virus untuk sesuatu hal sangat merusak keadaban publik kita," ujar Hasto.Namun, dia tak mau mengungkap apa anti-virus yang dimaksud karena rekomendasi internal bersifat strategis. Dia mengatakan ada 44 butir rekomendasi internal."Ada di rekomendasi internal itu kan ada lebih dari sekitar 44," imbuhnya.Sekjen PDI Perjuangan itu mengatakan tak akan bermain di ranah hoaks seperti lawannya. Hasto menegaskan bagi anggota tim kampanye yang pakai politik kebohongan tak segan bakal disanksi."Kami justru membangun komitmen tidak ikut-ikutan membangun hoaks. Karena itulah kami akan memberikan sanksi bagi mereka yang melakukan upaya tersebut," pungkasnya.Reporter: Ahda Bayhaqi</t>
   </si>
   <si>
-    <t>Liputan6.com, Jakarta - Gubernur Jawa Barat Ridwan Kamil mengungkapkan bahwa pihaknya ingin semua warganya melek teknologi. Bukan hanya para anak-anak muda dan yang tinggal di kota besar, tetapi juga warga lainnya yang tinggal di pedesaan."Maka dalam urusan digital, enggak hanya anda-anda yang harus digitalkan milenial urban. Emak-emak harus digitalkan juga," kata Ridwan Kamilsaat menjadi pembiacara di acara Milenial Fest di Djakarta Theater, Jakarta, Minggu (28/10/2018).Baca JugaIa mencontohkan, bagaimana pentingnya teknologi bagi para petani yang ada di wilayah Jawa Barat. Misalnya, bagaimana petani bisa langsung menjual hasil panennya ke pembeli tanpa melewati tengkulak."Maka kalau ada action yang bisa mengkonversi cara berdagangnya, si petani menjual bisa naik dikit enam atau delapan ribu. Yang beli bisa lebih murah. Sisanya buat ongkos kirim kan. Nah inilah yang akan kita sebut dengan digital inklusif," terang Emil.Dengan semakin berkembangnya teknologi, Emil menyebut bahwa saatnya negara bisa hadir di tengah masyarakat."Negara sedang berubah polanya. Kami yang datang kepada warga, bukan warga yang datang ke negara," ucap Ridwan Kamil.Acara serah terima Gubernur Jawa Barat Kamis pagi berlangsung meriah. Berbeda dengan biasanya, prosesi penyambutan disertai upacara adat dan disambut ribuan undangan yang hadir.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta - Lebih dari tiga dekade lalu, Alexey Pajitnov, desainer gim asal Rusia resmi meluncurkan seri pertama Tetris.Meski banyak gim yang memiliki tampilan lebih bagus dan canggih, nyatanya Tetris masih menjadi salah satu gim yang menarik minat gamer di seluruh dunia.Hal ini terbukti dengan ramainya kompetisi Tetris yang diadakan setiap tahunnya.Dihadiri oleh gamer veteran dan amatir yang ingin menguji kemampuan mereka, kompetisi tahun ini mengisahkan hal yang mengejutkan.Baca JugaBocah berumur 16 tahun--lahir jauh setelah gim pertama Tetris diluncurkan--berhasil menjuarai Classic Tetris World Championship 2018.Adapun pemuda berbakat yang berhasil mengalahkan gamer veteran tersebut yakni Joseph Saelee. Demikian yang dilansir Kotaku, Senin (29/10/2018).Luar biasanya, Saelee mengangkat piala juara World Tetris Championships setelah mengalahkan jawara bertahan, Jonas Neubauer.Lebih lanjut, Saelee mengatakan dirinya tidak ada niatan untuk menjadi juara di dalam turnamen ini."Target saya hanya untuk tembus babak kualifikasi, dan bertemu dengan pemain-pemain hebat. Menjadi juara merupakan sesuatu hal yang luar biasa, saya tidak tahu harus berkata apa," kata Saelee.Sebagai informasi, gim Tetris yang Saelee juarai merupakan versi asli gim ini ketika meluncur di konsol Nintendo Entertainment System (NES).Belum diketahui apakah kemenangan Saelee disertai dengan uang hadiah atau tidak.Yang pasti, titel juara yang ia pegang saat ini dapat menjadi pengakuan dirinya sebagai gamer Tetris terbaik di dunia saat ini.(Ysl/Isk)Saksikan Video Pilihan Berikut Ini:Wanita ini jatuh cinta pada permainan Tetris, sehingga membuat dirinya ingin menikahinya</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta - Persekutuan Gereja-Gereja Indonesia (PGI) keberatan dengan Rancangan Undang-Undang (RUU) Pesantren dan Pendidikan Keagamaan yang baru saja disahkan masuk dalam UU Prioritas Dewan Perwakilan Rakyat (DPR). Mereka mengkritisi pasal yang mengatur tentang sekolah minggu dan katekisasi yang terdapat pada Pasal 69 dan Pasal 70."Nampaknya RUU ini tidak memahami konsep pendidikan keagamaan Kristen di mana ada pendidikan formal melalui sekolah-sekolah yang didirikan oleh gereja-gereja dan ada pendidikan nonformal melalui kegiatan pelayanan di gereja," kata Sekretaris Umum PGI Gomar Gultom dalam keterangan tertulisnya, Minggu (28/10/2018).Dia juga mengkritik adanya batas minimal peserta sekolah minggu dan perizinan untuk sekolah minggu. Kata dia, sekolah minggu tidak bisa disamakan dengan pesantren."Sejatinya, Pendidikan Sekolah Minggu dan Katekisasi merupakan bagian hakiki dari peribadahan gereja, yang tidak dapat dibatasi oleh jumlah peserta, serta mestinya tidak membutuhkan izin karena merupakan bentuk peribadahan," ujar Gomar.Menurut dia, sekolah minggu bukanlah pendidikan formal, melainkan pelayanan dari gereja untuk para jemaat muda."Pendidikan Sekolah Minggu dan Katekisasi, yang juga hendak diatur dalam RUU ini pada Pasal 69-70, sesungguhnya adalah proses interaksi edukatif yang dilakukan gereja-gereja di Indonesia dan merupakan pendidikan nonformal dan masuk dalam kategori pelayanan ibadah bagi anak-anak dan remaja," ungkap Gomar.PGI, lanjut dia, pada dasarnya sepakat dengan RUU Pesantren dan Pendidikan Keagamaan sepanjang RUU itu tidak mengatur pengajaran nonformal di gereja. Sebab kata dia, jika hal ini dibiarkan akan dikhawatirkan beralih pada model intervensi negara pada agama."PGI mendukung Rancangan Undang-Undang Pesantren dan Pendidikan Keagamaan ini menjadi undang-undang sejauh hanya mengatur kepentingan pendidikan formal dan tidak memasukkan pengaturan model pelayanan pendidikan nonformal gereja-gereja di Indonesia," tegas Gomar.Saksikan video pilihan di bawah ini:PGI menilai pernyataan Trump justru memanaskan situasi global dan bisa menghancurkan upaya perdamaian yang sedang dibangun.Diketahui, dalam RUU Pesantren dan Pendidikan Keagamaan Pasal 69 di ayat (1), berbunyi RUU ini mengakui Sekolah Minggu, Sekolah Alkitab, Remaja Gereja, Pemuda Gereja dan Katekisasi, masuk sebagai jalur pendidikan Kristen nonformal. Namun dua ayat berikutnya (3) dan (4) menjadi pertanyaan besar dari PGI.(3) Pendidikan Keagamaan Kristen nonformal sebagaimana dimaksud pada ayat (1) diselenggarakan dalam bentuk program yang memiliki peserta paling sedikit 15 (lima belas) orang peserta didik.(4) Pendidikan Keagamaan Kristen nonformal yang diselenggarakan dalam bentuk satuan pendidikan atau yang berkembang menjadi satuan pendidikan wajib mendapatkan izin dari kantor Kementerian Agama kabupaten/kota setelah memenuhi ketentuan tentang persyaratan pendirian satuan pendidikan sebagaimana dimaksud dalam Pasal 19 ayat (2).Di lain sisi, Wakil Ketua Komisi VIII Ace Hasan Syadzily mengatakan RUU ini baru akan dibahas oleh komisinya. Dia menegaskan akan ada waktunya Komisi VIII memanggil lembaga terkait untuk menyempurkan RUU Pesantren dan Pendidikan Keagamaan ini."Nanti pada saatnya kami akan panggil pihak-pihak terkait untuk diminta masukan dalam upaya menyempurnakan RUU Pesantren dan Lembaga Pendidikan Keagamaan. Jadi misalnya masukan dari PGI menjadi bagian yang akan dibahas," kata Ace saat dihubungi, Minggu (28/10/2018).Reporter: Sania Mashabi</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta - Menteri Pemuda dan Olahraga Imam Nahrawi menantang seluruh peserta Kapal Pemuda Nusantara (KPN) 2018, untuk menelurkan ide brilian bagi Indonesia di masa depan. Menurut Imam, para peserta dari seluruh provinsi di Indonesia ini wajib membuat perubahan agar bangsa lebih baik di masa depan."Saya tantang adik-adik peserta KPN, sampai nanti kalian akan dibimbing di kapal, dan saya akan menunggu gagasan kalian di kapal yang nanti langsung DM ke saya, tentang bagaimana masa depan Indonesia agar tetap lestari langgeng seperi cita-cita Founding Fathers," ujar Imam Nahrawi saat meresmikan acara KPN 2018 di Surabaya, Jawa Timur, Sabtu 27 Oktober 2018, malam.Baca JugaRangkaian kegiatan KPN 2018 akan berisi materi soft skills dan hard skills yang dibekali oleh para ahli di bidangnya. Mengusung kemaritiman Indonesia yang kuat dan sejahtera, para peserta pun akan diajak mengarungi luasnya samudera Indonesia."Jadi nanti isi sosmednya tidak hanya selfie, tapi itu penting juga, vlog, itu penting juga, tapi juga (lebih penting) gagasan apa yang sedang kita pikirkan dan akan kita citakan untuk mengawal negara maritim ini agar tetap kokoh, meski banyak badai," jelas Imam.Imam berharap, prosesi mengarungi laut Indonesia dalam giat KPN 2018, mampu menimbulkan pemikiran membangun kepada tiap perwakilan putra-putri terpilih dari tiap provinsi ini."Karenanya saya minta, sosmed adik-adik ini warnailah infomasi kontrukstif, cerdas positif membawa cita-cita Indonesia lebih sejahtera baik dan makmur. Karena merdeka sudah kita dapat, tapi bagaimana menjadikan Indonesia mulia di mata dunia, itu," Imam memungkasi.Saksikan video pilihan di bawah ini:Pihak panitia penyelenggara Asian Para Games 2018 Inapgoc menyatakan, kasus diskualifikasi atlet blind judo Indonesia Miftahul Jannah menjadi masukan dan introspeksi ke depan.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Cirebon - Serangkaian penggeledahan terhadap aset Bupati Cirebon Sunjaya Purwadi terus dilakukan Komisi Pemberantasan Korupsi (KPK). Mulai dari kediaman ajudan hingga rumah dinas bupati yang menjadi lokasi OTT.Bahkan, KPK juga menggeledah rumah anak tertua Sunjaya bernama Satria Robi Saputra di Kinaya Regency 38, Kecamatan Kedawung, Kabupaten Cirebon. KPK datang ke rumah Robi pukul 16.00 WIB dengan dua minibus.Baca Juga"Sempat izin ke kita bahwa mereka dari KPK," ujar satpam perumahan, Ardi, Minggu (28/10/2018).Pantauan di lokasi, penggeledahan dijaga ketat polisi yang dilengkapi senjata laras panjang. Dalam penggeledahan, KPK mendapati sejumlah dokumen yang dimasukkan ke dua koper besar warna merah dan abu-abu."Selesai penggeledahan sekitar jam 5 sore tadi," kata dia.Tak hanya itu, tim penyidik KPK pun menyita 2 unit mobil di rumah anak Sunjaya. Yaitu 1 unit mobil jenis Honda HR-V dengan nomor polisi E 486 XX dan 1 unit mobil jenis Honda Jazz bernopol E 20 FA.Mobil Honda Jazz tersebut diduga milik istri Robi bernama Fatimah. Mobil tersebut dititipkan sementara oleh tim penyidik di Mapolresta Cirebon.Dari informasi yang didapat, KPK juga menyita 1 unit mobil Mitsubishi Pajero. Saat dikonfirmasi mengenai mobil Pajero tersebut, penyidik KPK enggan berkomentar."Maaf ya nanti saja di Jakarta," kata penyidik.Saksikan video pilihan di bawah ini:Penjagaan dilakukan supaya penggeledahan dapat berjalan lancar.Sebelumnya, KPK menggeledah kantor Bupati Cirebon dan beberapa tempat terkait, seperti kediaman ajudan Bupati Cirebon Deny Syafrudin, Sabtu (27/10/2018).Penggeledahan dilakukan sekitar pukul 10.30 WIB di ‎perumahan Kedawung Regency 3, Kecamatan Kedawung, Kabupaten Cirebon, Jawa Barat. Penggeledahan di kediaman Deni itu sekitar empat jam.Sekitar pukul 14.30 WIB, rombongan KPK keluar dengan membawa sejumlah koper dan ransel. Dari hasil penggeledahan itu, KPK mengamankan sertifikat yang berkaitan dengan sejumlah aset milik Sunjaya."Iya benar tadi (KPK) ke rumah," kata Deni usai penggeledahan KPK.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta Kerugian dan kerusakan akibat bencana alam di Sulawesi Tengah (Sulteng) mencapai Rp 18,48 triliun per 27 Oktober 2018. Angka ini meningkat dibandingkan 21 Oktober sebesar Rp 13,82 triliun."Diperkirakan dampak ekonomi berupa kerugian dan kerusakan akibat bencana di Sulawesi Tengah ini masih akan terus bertambah karena belum semua data kerusakan selesai dilakukan," kata Kepala Pusat Data Informasi dan Humas BNPB Sutopo Purwo Nugroho melalui keterangan resminya, Minggu (28/10/2018).Baca JugaKerusakan tersebut adalah nilai kerusakan stock fisik asset. Sedangkan kerugian adalah arus ekonomi yang terganggu akibat bencana, yaitu pendapatan yang hilang dan atau biaya yang bertambah akibat bencana pada 5 sektor yaitu permukiman, infrastruktur, ekonomi, sosial dan lintas sektor.Tercatat, kerugian tersebut berasal dari sektor permukiman mencapai Rp 9,41 triliun, sektor infrastruktur Rp 1,05 triliun, sektor ekonomi Rp 4,22 triliun, sektor sosial Rp 3,37 triliun, dan lintas sektor mencapai Rp 0,44 triliun.Berdasarkan sebaran wilayah, maka kerugian dan kerusakan di Kota Palu mencapai Rp 8,3 triliun, Kabupaten Sigi Rp 6,9 triliun, Donggala Rp 2,7 triliun dan Parigi Moutong mencapai Rp 640 miliar.Dampak kerugian dan kerusakan di sektor permukiman adalah paling besar karena luas dan masifnya dampak bencana. Hampir sepanjang pantai di Teluk Palu bangunan rata tanah dan rusak berat."Terjangan tsunami dengan ketinggian antara 2,2 hingga 11,3 meter dengan landasan terjauh mencapai hampir 0,5 km telah menghancurkan permukiman di sana. Begitu juga adanya amblasan dan pengangkatan permukiman di Balaroa dan adanya likuifaksi yang menenggelamkan permukiman di Petobo, Jono Oge dan Sibalaya telah menyebabkan ribuan rumah hilang," imbuhnya.Tim Hitung Cepat Rehabilitasi dan Rekonstruksi BNPB dan UNDP, terus menghitung dampak dan kebutuhan untuk pemulihan nantinya. Kebutuhan untuk rehabilitasi dan rekonstruksi pascabencana diperkirakan lebih dari Rp 10 triliun.Dikatakan, tentu ini bukan tugas yang mudah dan ringan, namun Pemerintah dan Pemda akan siap membangun kembali nantinya.Sementara itu, data korban hingga 28 Oktober 2018, tercatat 2.086 orang meninggal dunia yaitu di Kota Palu 1.705 orang, Kabupaten Donggala 171 orang, Sigi 188 orang dan Parigi Moutong 15 orang.Sebanyak 1.309 orang hilang. Korban luka-luka tercatat 4.438 orang, dan mengungsi sebanyak 206.524 orang."Secara umum kondisi masyarakat sudah kondusif, perekonomian masyarakat mulai berjalan normal. Sinyal telekomunikasi dan internet telah pulih. Pelayanan listrik PLN sudah mencapai 97 persen," jelasnya.Pembangunan huntara terus dilakukan, baik yang dibangun pemerintah maupun dari berbagai pihak. Masyarakat sekitar pantai di Parigi Moutong mulai kembali ke rumahnya setelah sebelumnya mengungsi pada sejak 26 Oktober 2018.Adanya hoax atau isu menyesatkan yang disebarkan banyak pihak bahwa akan terjadi gempa dan tsunami besar pada 26-28 Oktober 2018 menyebabkan ribuan masyarakat yang tinggal di pantai mengungsi ke daerah-daerah yang lebih tinggi.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jombang - Menjadi abdi negara yang ulet dan kreatif memang bisa menjadi contoh bagi warga sekitar lingkungannya. Hal inilah yang mendasari Muhammad Sutris untuk bekerja sambilan menjadi tukang dekor pengantin yang mulai ditekuninya mulai tahun 2007 hingga saat ini.Ia tak mau bergantung kepada gaji polisi dan ingin lebih menyejahterakan keluarganya lewat usaha sampingan menjadi tukang dekor pengantin. Berbekal tekad dan keuletan saat ini lelaki yang menjabat sebagai Baur SIM Satlantas Polres Jombang sudah memiliki enam set dekor pengantin lengkap.Baca JugaIa sudah pernah merasakan pahit getirnya menjadi tukang dekor pengantin saat awal-awal berdiri. Setelah daftar polisi pada tahun 1996 jiwa entertainnya muncul dan saat pindah tugas ke Kabupaten Jombang pada 2006 memulai usaha dekor pengantin."Pertama kali berdiri karena hanya untung Rp. 100 ribu itupun job dekor selama dua hari satu malam, dan untuk mengurangi biaya pengeluaran saya juga menjadi sopir dari armada dekor," tuturnya, Selasa (23/10/2018).Dalam menjalankan usahanya saat ini, lelaki berpangkat Aiptu ini didampingi oleh Nyoya Ida yang tak lain adalah istrinya. Selian itu dalam hal promo usaha dekor pengantinya, dari pintu ke pintu dan kampung ke kampung pun pernah dilakoninya."Istri bertugas sebagai perias pengantin yang awal mula terjun hanya dapat bayaran Rp. 50 ribu rupiah, saat ini sudah 10 kali lipatnya," urainya.Berbekal dari usaha dan keuletannya usaha dekor dan rias pengantin bernama Resida yang merupakan gabungan dari nama Sutris dan Ida saat ini sudah memiliki omzet hingga 50 juta per bulan, dan memiliki studio prewed di jalan Sulawesi Nomor 58 Plandi Jombang."Saat ini tinggal menikmati hasil dari jerih payah, dan usaha juga sudah ada karyawan yang menjalankan," katanya.Saksikan video pilihan berikut ini:Keterbatasan fisik tidak menghalangi seorang difabel di Jember, Jawa Timur, untuk berkarya dan berguna bagi sesama.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Cirebon - Beragam permasalahan terjadi ditengah Tes Seleksi Kompetensi Dasar (SKD) CPNS di daerah, termasuk di Cirebon, Jawa Barat.Koneksi internet menjadi faktor utama kelancaran pelaksanaan tes SKD CPNS Kabupaten Cirebon. Panitia terpaksa mengubah ulang jadwal tes SKD yang digelar pada Minggu, 29 Oktober 2018, menjadi Jumat 2 November 2018 mendatang.Baca JugaRibuan pendaftar yang sudah siap mengikuti tes CPNS itu harus menelan rasa kecewa. Para pelamar sudah datang ke lokasi tes di Hotel Radiant Gronggong Kecamatan Beber Kabupaten Cirebon sejak pukul 07.00 WIB pagi."Ada gangguan teknis dari sarana prasarana penunjang server sejak pagi tadi, sudah diusahakan tapi gagal," kata Kepala Badan Kepegawaian dan Pengembangan Sumber Daya Manusia Kabupaten Cirebon H Supadi Priyatna, Minggu (28/10/2018).Pengumuman kemunduran waktu tes pada hari pertama diumumkan panitia pada pukul 15.00 WIB. Dia mengaku, panitia lokal tes SKD harus menunggu pihak Kantor Regional III Badan Kepegawaian Negara Bandung untuk memastikan tes tersebut benar- benar diundur.Namun demikian, Supadi menegaskan, mundurnya jadwal tes hanya peserta yang terjadwal di hari yang sama. Dia pun memastikan jadwal tes di hari kedua hingga selesai akan berjalan lancar."Hari Senin sampai selesai kami pastikan lancar dan hanya hari ini saja server tidak baik," ujar dia.Di Kabupaten Cirebon, tes SKD sendiri akan berjalan lima hari mulai tanggal 28 Oktober hingga 1 November. Tes SKD di wilayah III Cirebon dipusatkan di Kabupaten Cirebon.Khusus pendaftar CPNS Kabupaten Cirebon mencapai 10.093 orang. Jika sesuai jadwal, tes SKD ini digelar mulai pukul 08.00 WIB hingga pukul 17.30 WIB, terdapat empat sesi di dalamnya dengan masing- masing sesi selama 90 menit.Mundurnya jadwal tes SKD pada hari pertama tersebut sangat disesalkan para peserta."Kecewa sekali saya sesi pertama dan sampai sekarang jam 11 belum juga ikut tes," kata salah seorang pelamar, Hendi.Hendi mengaku, sejak datang ke lokasi tes, dia hanya diminta panitia untuk duduk di ruang tunggu. Hendi yang hendak registrasi 90 menit sebelum ujian pun belum bisa dilayani.Sejak pagi pukul 08.00 WIB di Hotel Radiant, para peserta hilir mudik ke ruangan tunggu. Sementara tes ini digelar di aula tertutup hotel."Registrasi juga susah dan sekarang sudah jam 10 lebih sesi pertama selesai masuk sesi kedua," kata dia.Sejumlah petugas berupaya membetulkan koneksi di tiap lap top, tapi akhirnya gagal. Dia menilai pemerintah terkesan tak serius membuka pendaftaran CPNS tahun 2018 ini.Padahal, para peserta banyak berharap agar pelaksanaan tes SKD di Kabupaten Cirebon berjalan lancar. Namun demikian, dia mengaku tidak patah semangat meski jadwal pelaksanaan diundur."Positif saja mungkin lebih memberikan peluang agar kita lebih banyak belajar. Semoga jadwal baru nanti tidak ada gangguan lagi," harap dia.Saksikan video pilihan berikut ini:Kendala kerap dialami dalam setiap pelaksanaan tes CPNS di daerah</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta Masa kecil memang masa yang paling bahagia. Tanpa beban dan pikiran anak-anak bisa tertawa dan bermain bahagia. Seperti potret para bocah-bocah ini misalnya, meski alami hal tak terduga saat bermain mereka justru ceria.Baca JugaDilansir dari berbagai sumber, aksi bocah kena apes saat bermain ini bakal bikin kamu ngakak. Di lain sisi kamu juga jadi nostalgia tentang bahagianya masa-masa bermain saat masih kecil.1. Duh dek, kamu main apa sih sampai nyangkut gitu?Saksikan Video Pilihan di Bawah ini:Aksi yang dilakukan para bocah ini benar-benar bikin ngakak. Yaitu dengan berpura-pura kesurupan.Reporter: Aliftya AmarilisyaSumber: Brilio.net</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta - Model Fenny Steffy Burase kembali dipanggil penyidik Komisi Pemberantasan Korupsi (KPK). Dia akan diperiksa sebagai saksi dalam kasus dugaan suap Dana Otonomi Khusus (Otsus) Aceh yang menjerat Gubernur nonaktif Aceh Irwandi Yusuf."Saksi Fenny Steffy Burase akan diperiksa sebagai saksi untuk tersangka IY (Irwandi Yusuf)," ujar Juru Bicara KPK Febri Diansyah saat dikonfirmasi, Rabu (24/10/2018).Baca JugaSelain Steffy Burase, penyidik KPK juga menjadwalkan pemeriksaan Kabag Pemeliharaan Penyedia pada Biro ULP Pemprov Aceh Muhamad Nasir, dan Kepala Biro ULP Nirzarli.KPK menetapkan Gubernur Irwandi dan dua pihak swasta bernama Hendri Yuzal dan Teuku Syaiful Bahri serta Bupati Bener Meriah Ahmadi sebagai tersangka. Irwandi, Hendri dan Syaiful ditetapkan sebagai pihak penerima suap dari Ahmadi.Gubernur Irwandi melalui Hendri dan Syaiful diduga menerima suap Rp 500 juta dari total fee yang dijanjikan sebesar Rp 1,5 miliar. Uang tersebut diduga akan digunakan Steffy Burase untuk membeli medali dan pakaian atlet dalam ajang Aceh International Marathon 2018.Dugaan tersebut diperkuat pengakuan Steffy Burase. Steffy yang merupakan tenaga ahli dalam ajang tersebut mengatakan bahwa aliran dana suap tersebut ada, namun dirinya mengaku tak tahu asal usul dana tersebut.Steffy juga membenarkan pengeluaran untuk membeli medali senilai Rp 500 juta. "Dari Pak Gubernur pure (murni) Rp 500 sampai Rp 700 juta sisanya dari teman-temannya," kata Steffy."Siapa teman-temannya?" tanya jaksa. "Enggak tahu," jawab Steffy.Pada kasus kedua‎, Irwandi diduga menerima gratifikasi bersama orang kepercayaannya Izil Azhar sebesar Rp 32 Miliar. Gratifikasi itu berkaitan dengan pelaksanaan pembangunan Dermaga Sabang tahun anggaran 2006-2011.Staff ahli dalam acara Aceh Marathon ini diperiksa terkait aliran dana sebesar Rp 500 juta.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta - Kepolisian telah melakukan rekonstruksi terkait kasus pengibaran bendera berwarna hitam dengan tulisan kalimat tauhid dan pedang di Kantor DPRD Poso, Sulawesi Tengah. Hasilnya, tidak ditemukan adanya penurunan bendera Merah Putih pada peristiwa yang viral tersebut.Semula polisi menduga para peserta Aksi Bela Tauhid itu menurunkan bendera Merah Putih dan menggantinya dengan bendera hitam. Namun, ternyata Merah Putih yang ada di lokasi merupakan bendera milik peserta aksi.Baca Juga"Ternyata bendera Merah Putih yang ada di Kantor DPRD itu tidak dikibarkan. Informasi dari internal DPRD kondisinya (bendera) rusak," ujar Kepala Biro Penerangan Masyarakat Divisi Humas Polri Brigjen Dedi Prasetyo saat dikonfirmasi Liputan6.com di Jakarta, Minggu (28/10/2018).Selain Kantor DPRD Poso, bendera hitam dengan tulisan kalimat tauhid juga sempat berkibar di Alun-alun Sintuwu Maroso."Sama juga yang di alun-alun. Itu tiang hanya digunakan untuk upacara bendera bulanan. Jadi kosong juga kondisinya," kata Dedi.Meski begitu, pihaknya tetap menyelidiki kasus tersebut. Apalagi viralnya video pengibaran bendera hitam di Kantor DPRD Poso itu memicu kontroversi di masyarakat."Masih didalami terus, dikaji ulang kembali. Apabila nanti terlihat tindak pidananya, pasti akan ditindaklanjuti yang mengacu pada arahan Pak Kabareskrim kemarin," ucap Dedi.Saksikan video pilihan di bawah ini:GP Ansor Jawa Timur membenarkan tindakan Banser Garut yang membakar bendera tauhid. GP Ansor berpendapat tindakan tersebut adalah upaya penyelematan kalimat tauhidSebelumnya, Kabareskrim Polri Komjen Arief Sulistyanto memerintahkan jajarannya mengusut kasus pengibaran bendera berwarna hitam di halaman Kantor DPRD Poso, Sulawesi Tengah yang viral. Diduga, mereka menurunkan bendera Merah Putih dan mengganti dengan bendera hitam bertuliskan kalimat tauhid dan pedang."Identifikasi orang-orang yang menaikkan bendera dan penanggung jawab kegiatan. Ini jelas-jelas melanggar UU No 24 Tahun 2009 Pasal 24 jo Pasal 65 jo Pasal 66," ujar Arief melalui keterangan tertulis, Jakarta, Sabtu 27 Oktober 2018 malam.Tindakan itu, kata Arief, sebagai bentuk penghinaan terhadap negara. Mereka dinilai tidak menghormati jasa-jasa pahlawan yang berjuang merebut kemerdekaan dari penjajah."Jangan dianggap remeh kejadian seperti ini, apalagi sudah viral di medsos. Akan bisa diikuti oleh orang lain ditempat lain. Ini menyangkut kewibawaan negara," ucapnya.Di media sosial memang beredar video yang memperlihatkan sejumlah orang mengibarkan bendera berwarna hitam dengan tulisan kalimat tauhid dan pedang di bawahnya. Pengibaran bendera itu diketahui terjadi di Kantor DPRD Poso di sela-sela pelaksanaan Aksi Bela Tauhid pada Jumat 26 Oktober kemarin.Selain di Kantor DPRD Poso, massa juga kabarnya mengibarkan bendera serupa di Lapangan Sintuwu Maroso. Polisi yang mengamankan aksi segera memerintahkan massa menurunkan dua bendera hitam tersebut.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta Gangguan kesuburan adalah dampak yang sering terjadi pada pasangan suami istri obesitas. Wanita obesitas berisiko mengalami gangguan hormonal yang dapat mengakibatkan masalah ovulasi dan gangguan siklus menstruasi.Baca JugaSementara pada pria, obesitas seringkali dikaitkan dengan menurunnya jumlah sperma. Benarkah hal tersebut?Jumlah orang yang mengalami obesitas kian meningkat. Berdasarkan hasil penelitian di Amerika Serikat, prevalensi obesitas pada tahun 1970-an hanya sekitar 8 persen. Sedangkan pada tahun 2018, angka obesitas meningkat menjadi 36,5 persen.Kenaikan angka kejadian obesitas disebabkan oleh perubahan gaya hidup seiring perkembangan zaman―pola hidup sedenter, kurangnya aktivitas fisik, serta pola diet tinggi kalori dan lemak.Obesitas, jumlah sperma dan gangguan kesuburanPeneliti di India menginspeksi lebih 1200 pria, dan didapatkan bahwa obesitas pada pria berhubungan dengan volume cairan semen yang lebih sedikit. Peneliti juga menemukan bahwa pria obesitas memiliki jumlah dan kosentrasi sperma yang lebih sedikit.Tak hanya itu, kualitas sperma pada pria obesitas juga lebih rendah. Hal ini ditandai dengan pergerakan sperma yang lebih lambat serta bentuk sperma yang berubah. Keadaan tersebut menyebabkan gangguan pada proses konsepsi sehingga dapat menurunkan tingkat kesuburan.Parahnya, obesitas juga terbukti dapat menyebabkan gangguan pada proses penempelan embrio di rahim, meningkatkan risiko keguguran, serta mengakibatkan gangguan pertumbuhan janin di dalam kandungan.Namun, meski dampaknya sangat jelas, alasan pasti mengapa obesitas dapat menyebabkan gangguan kesuburan masih belum diketahui hingga saat ini. Akan tetapi, para ahli punya dugaan kuat bahwa obesitas bisa menyebabkan gangguan hormonal.Pada pria obesitas, keseimbangan antara hormon testosteron dan estrogen mengalami gangguan karena kadar lemak tubuh yang tinggi. Selain itu, obesitas juga memicu peradangan kronis pada tubuh dan hal ini juga diduga berkaitan dengan tingkat kesuburan yang rendah.Walau masih berlangsung dan hasilnya masih tentatif, penelitian yang dilakukan di India memiliki hipotesis bahwa penurunan berat badan dapat meningkatkan kualitas sperma pria.Untuk hal tersebut, yang harus dilakukan adalah penurunan berat badan secara bertahap, bukan dengan cara ekstrem. Pasalnya, penurunan berat badan yang terlalu ekstrem justru membawa pengaruh buruk pada kualitas sperma pria.Jadi, Anda tidak boleh “menyiksa” tubuh terlalu berat untuk menurunkan berat badan dalam waktu singkat. Akan lebih baik bila Anda menerapkan pola diet yang tepat agar terjadi penurunan berat badan secara bertahap. Selain itu, olahraga teratur dan menerapkan gaya hidup aktif juga bisa menjadi langkah yang ditempuh untuk menurunkan berat badan ke rentang ideal.Nah, kini Anda telah mengetahui bahwa obesitas pada pria memang dapat menyebabkan penurunan jumlah dan kualitas sperma pria. Jika Anda tak ingin mengalaminya, raih kembali berat badan ideal Anda dengan cara yang benar. Tentu Anda ingin menjadi pria perkasa yang jauh dari gangguan kesuburan, bukan?Penulis : dr Reza Fahlevi/ Klik Dokter</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Kupang - Sebuah ledakan terjadi di Kota Soe, Kabupaten Timor Tengah Selatan (TTS) atau sekitar 110 km timur Ibu Kota Nusa Tenggara Timur, Minggu 28 Oktober 2018 malam. Ledakan tersebut mengakibatkan seorang pria mengalami luka berat.Kapolres Timor Tengah Selatan AKBP Totok Mulyanto mengatakan, pihaknya belum bisa memastikan benda yang meledak itu adalah bom.Baca Juga"Memang terjadi sebuah ledakan. Untuk jenis dan bentuknya serta bahan peledak yang menyebabkan ledakan itu belum bisa saya sampaikan karena masih koordinasi dengan tim Gegana Brimob Polda NTT," kata Mulyanto seperti dilansir Antara, Minggu.Dia menjelaskan, pihaknya segera melakukan olah tempat kejadian perkara (TKP) dengan tim dari Gegana Brimob Polda NTT.Menurut dia, ledakan di Soe tersebut terjadi di sebuah rumah yang diduga milik korban, bukan di gereja sebagaimana isu yang beredar."Lokasi kejadiannya bukan di gereja, tetapi di rumah korban," ujar Mulyanto.Korban yang mengalami luka berat tersebut diketahui sebagai seorang pegawai Satpol PP Kabupaten TTS berinisial IAE.Mulyanto mengatakan, korban langsung dilarikan ke RS Siloam Kupang untuk mendapatkan penanganan medis.Sementara itu dokter dari RSUD Soe, dr Asri Novianti mengatakan, korban yang terkena ledakan tersebut mengalami gangguan penglihatan karena diduga ada serpihan bahan ledakan yang mengenai mata korban."Sementara itu juga korban mengalami kehilangan sebagian anggota tubuhnya," ujar Asri.Mulyanto juga mengimbau kepada semua warga di daerah itu untuk selalu waspada apabila menemukan benda yang mencurigakan, dan bisa langsung melaporkan kepada kepolisian agar segera ditanggani.Sebuah insiden mengerikan terjadi di sebuah restoran di Mumbai, India. Pasalnya, sebuah ponsel meledak di saku pemiliknya.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Palembang - Rumah milik Ican, yang diduga pelaku pembunuhan terhadap Nur Fadilah Putri di kawasan Kemang Agung, Kertapati, Palembang, Senin, 22 Mei 2017, dirusak warga.Seperti ditayangkan Liputan 6 Pagi SCTV, Selasa (23/5/2017), warga yang tersulut emosi bahkan melempari rumah dengan menggunakan batu dan kayu. Akibatnya, kondisi rumah yang telah diberi garis polisi mengalami kerusakan yang cukup parah.Kemarahan warga dipicu oleh beredarnya kabar kalau Ican pulang ke rumah. Warga pun beramai-ramai mendatangi rumah milik yang diduga pelaku dan memintanya untuk keluar rumah.Namun karena tidak ada jawaban dari dalam rumah, warga pun merusaknya beramai-ramai. Sementara yang diduga pelaku dan dicari warga tidak ditemukan dalam rumah.Kasus pembunuhan bocah yang mayatnya ditemukan di karung telah mengundang perhatian serius dari Pemerintah Kota Palembang. Pemerintah berharap polisi dapat segera menangkap pelaku yang telah membuat resah warga, khususnya kaum perempuan.Pascakejadian yang menimpa korban, warga masih diselimuti trauma. Warga merasa tidak tenang dan mulai melakukan penjagaan di kampung mereka untuk menangkap pelaku.Jenazah anak perempuan berusia 8 tahun itu ditemukan pada Sabtu, 20 Mei 2017 petang, dalam kondisi mengenaskan.Tubuh korban terbungkus dalam karung plastik di rumah tetangganya bernama Ican, di kawasan Kemang Agung, Kertapati, Palembang.Sebelumnya, bocah tersebut dilaporkan hilang. Korban pertama kali ditemukan oleh keponakan Ican yang sedang mencari kunci di dalam kamar.Penemuan jasad korban segera dilaporkan kepolisian. Usai menjalani autopsi di Rumah Sakit Bhayangkara Palembang, ditemukan luka lebam dan luka bekas kekerasan seksual di tubuh korban.Saksikan video warga rusak rumah orang yang diduga pembunuh bocah dalam karung.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta - Senin pagi 21 Oktober 2018, ribuan santri memadati Alun-Alun Limbangan, Garut, Jawa Barat. Seperti di daerah lain, peringatan ke-4 Hari Santri Nasional ini berlangsung meriah. Sayang, kemeriahan itu diwarnai insiden yang menuai polemik di masyarakat.Dalam rekaman video yang beredar, terlihat sejumlah oknum anggota Banser membakar bendera berlatar hitam dengan lafaz tauhid, yang identik milik Hizbut Tahrir Indonesia (HTI). Tak hanya itu, ikat kepala dengan tulisan serupa juga bernasib sama. Hangus menjadi abu.Baca JugaPeristiwa itu pun menuai kontroversi. Masyarakat yang menyaksikan kejadian itu lewat video viral langsung bereaksi. Mereka melakukan aksi turun ke jalan menuntut kepolisian memproses hukum pelakunya.Menanggapi kejadian ini, Majelis Ulama Indonesia (MUI) merasa prihatin dan menyesalkan kejadian yang menimbulkan kegaduhan di kalangan umat Islam. MUI meminta pihak yang telah melakukan tindakan itu untuk meminta maaf dan mengakui kesalahannya secara terbuka.Selain itu, MUI juga menilai tindakan itu dilakukan secara spontan. Ini lantaran mereka yang menjadi pelaku masih berdarah muda."Namanya juga angkatan muda tidak terlalu panjang mikirnya, apalagi pakai baju seragam, semi-militer, kelihatan gagah, hebat, lupa mikir, enggak mikir panjang," ujar Wakil Ketua Umum MUI Yunahar Ilyas kepada Liputan6.com, Rabu (24/10/2018).Dia menjelaskan, secara psikologi massa, kondisi itu memang berbeda jika pelaku melakukannya secara sendirian. Sebab pelaku akan berpikir ulang untuk melakukan pembakaran bendera itu."Kalau kerumunan itu, biasanya orang tidak bisa berpikir cermat. Jadi panitia harus betul-betul mengawasi, dijaga, dibriefing, karena namanya kerumunan, psikologi massa itu sering terjadi hal-hal yang tidak terduga," jelas dia.Yunahar berharap, peristiwa ini dapat menjadi pelajaran semua pihak. Agar kejadian serupa tak kembali terulang, MUI meminta ada sanksi tegas bagi pelakunya."Makanya kami mendorong ada proses hukum. Sekarang kan sudah ada sanksi moral dari masyarakat, yang kedua ada sanksi hukum yang sedang diproses oleh kepolisian, yang ketiga ada pembinaan dari induk organisasinya terutama untuk angkatan muda, untuk laskar-laskar yang pakai seragam itu," ujar dia."Kalau terjadi lagi, tidak bisa kita kembali mencegahnya. Yang penting menyelesaikan yang sekarang dulu aja," imbuh pria kelahiran 62 tahun lalu itu.Sementara itu, akademisi Universitas Islam Negeri (UIN) Syarif Hidayatullah Jakarta, Adi Prayitno menilai, masyarakat tak perlu bereaksi berlebihan atas kasus pembakaran bendera itu. Jika ada yang merasa dirugikan atas aksi oknum Banser, cukup melaporkannya kepada polisi agar diproses secara hukum."Setelah itu, sudahi saja polemik dan kekisruhan pembakaran itu. Toh pelakunya sudah minta maaf dan kasusnya sedang diusut. Meski begitu, oknum Banser itu tak seharusnya membakar bendera, cukup diamankan saja. Tak usah bertindak provokatif seakan menantang umat Islam. Jika pun itu bendera HTI, laporkan saja ke polisi," jelas dia kepada Liputan6.com, Rabu (24/12/2018).Dia mengungkapkan, memang agak sulit membedakan antara bendera HTI dengan kalimat tauhid murni. Mesti ada institusi khusus yang bisa menjelaskan itu, setidaknya menurut pihak keamanaan, Banser tak bisa main hakim sendiri dengan mengklaim itu bendera HTI tanpa bukti valid dari ahli."Sebab banyak masyarakat di bawah yang punya bendera bertuliskan kalimat tauhid. Bukan hanya berupa bendera tapi stiker-stiker yang ditempel di rumah warga juga banyak. Semangat tangkal HTI boleh, tapi dengan cara yang sesuai etik demokrasi," jelas dia.Untuk menangkal kejadian itu kembali terjadi, dia meminta masyarakat agar tidak main hakim sendiri. Selain itu, aparat juga harus tegas bagi pelaku untuk memberikan efek jera."Kita tak usah mengambil alih peran negara dan polisi. Laporkan saja jika ada tindakan yang extraordinary semacam HTI itu," ujar dia.Ketua Umum GP Ansor Yaqut Cholil Qoumas menegaskan, bendera yang dibakar oknum Banser tersebut merupakan bendera HTI. Atribut itu kerap digunakan HTI dalam setiap kegiatan.Bahkan dalam persidangan Perppu Ormas, HTI sebagai pemohon juga menunjukkan bendera yang sama dengan yang dibakar saat perayaan Hari Santri Nasional di Limbangan, Garut."Bendera tauhid tidak hanya hitam, ada hijau," kata Yaqut di Markas GP Ansor, Jakarta Pusat, Rabu (24/10/2018).Namun, insiden yang terjadi di Garut itu terlanjur menuai reaksi negatif dari masyarakat. Bahkan sempat menimbulkan kegaduhan. Para pejabat negara pun angkat bicara. Yaqut mengatakan, pihaknya meminta maaf atas reaksi yang ditimbulkan dari kejadian ini, namun bukan untuk peristiwa pembakaran."Kami meminta maaf atas kegaduhan, bukan pada pembakaran bendera itu," kata Yaqut.Di tempat yang sama, Sekretaris Jenderal Pimpinan Pusat GP Ansor, Abdul Rochman menguatkan pernyataan Yaqut yang menegaskan soal status bendera yang dibakar tersebut."Kami menolak tegas bendera HTI diidentikkan bendera tauhid milik umat Islam," kata Rochman.HTI merupakan organisasi yang kegiatannya sudah dilarang di Indonesia. Kementerian Hukum dan HAM telah mencabut status badan hukum ormas Hizbut Tahrir Indonesia ( HTI) sejak 19 Agustus 2017 lalu.Pencabutan badan hukum sebagai tindak lanjut Peraturan Pemerintah Pengganti Undang-undang Nomor 2 Tahun 2017 yang mengubah UU Nomor 17 Tahun 2013 tentang Organisasi Kemasyarakatan.Namun dalam praktiknya, bendera bertuliskan lafaz tauhid yang identik milik HTI kerap berkibar dalam berbagai acara. Para pengibar beralasan, bendera itu merupakan panji Rasulullah yang dikenal dengan Arrayah.Ini yang menjadi sumber polemik di masyarakat terkait kasus pembakaran bendera di Garut. Tapi bagi Wakil Ketua Umum MUI Zainut Tauhid, masalah itu tidak perlu diperdebatkan. Karena selama ini HTI dalam setiap kegiatan organisasinya selalu membawa dan mengibarkan bendera tersebut."Karena hal itulah Banser mengira kalau bendera tersebut adalah bendera HTI," ujar dia saat dihubungi Liputan6.com, Jakarta, Rabu (24/10/2018).Dia menegaskan, yang menjadi masalah mengapa bendera yang identik dengan HTI itu berada di tengah-tengah kegiatan Hari Santri Nasional. Sedangkan sebelum acara digelar, sudah ada kesepakatan untuk tidak ada lambang atau bendera HTI di kegiatan itu."Kami memastikan ada niat jahat dari pihak-pihak tertentu yang ingin memprovokasi mengadu domba dan membenturkan Banser/NU dengan umat Islam dan komponen bangsa lainnya," ujar dia.Karena itu, MUI mengimbau aparat kepolisian untuk tidak memproses kepada pelaku pembakaran saja. Petugas keamanan juga harus mengejar pihak yang membawa bendera yang diidentikkan dengan HTI tersebut."Untuk diminta pertanggungjawaban sesuai dengan peraturan perundang-undangan," ujar dia.Perayaan Hari Santri Nasional di Garut, Jawa Barat, berlangsung meriah. Sekitar empat ribuan santri memenuhi lapangan Alun-Alun Limbangan. Namun di tengah semarak acara, sejumlah oknum Banser melakukan aksi pembakaran bendera yang identik dengan HTI, yang menuai kontroversi.Sebelum acara berlangsung, seluruh perwakilan ormas di wilayah Kecamatan Limbangan meneken tanda tangan perjanjian untuk melaksanakan perayaan dengan damai. Hasilnya, perayaan Hari Santri Nasional berlangsung aman."FPI, Persis, NU, Muhammadiyah dan lainnya sepakat dan tanda tangan di atas materai Rp 6.000, agar jangan mengibarkan bendera selain Merah Putih," ujar seorang sumber yang enggan disebutkan namanya, Rabu 23 Oktober 2018.Namun usai menyanyikan lagu Hubbul Wathon saat sesi hiburan, tiba-tiba ada peserta yang menaikkan bendera Arroyah yang diduga kerap digunakan Hizbut Tahrir Indonesia (HTI)."Bendera itu sempat naik di tiang bendera sampai beberapa meter, sebelum akhirnya diturunkan oleh anggota ormas, ada Pak Camat kok yang tahu," ujar sumber tadi menambahkan.Sempat bersitegang antara peserta yang membawa bendera dengan anggota ormas. Namun peserta pembawa bendera itu akhirnya diamankan petugas demi menjaga ketenteraman bersama."Nah mungkin tersulut emosi, akhirnya mereka membakar bendera itu. Tidak ada yang menginjak bendera, bahkan debunya pun kami kumpulkan," ujar sumber itu.Sumber tadi menegaskan, tidak ada yang bermaksud membakar bendera berlafaz tauhid itu. Pembakaran yang dilakukan anggota ormas adalah bentuk kekesalan pada HTI, organisasi yang telah dilarang di Indonesia."Nah kan bendera itu sengaja dibawa mereka, padahal kami semua ormas sudah sepakat untuk tidak mengibarkan bendera selain Merah Putih, jadi kami tidak membakar lafaz tauhid tadi, tapi membakar benderanya," ujar sumber tadi.Akhirnya sekitar pukul 12.00 WIB, seluruh peserta perayaan Hari Santri Nasional membubarkan diri. Mereka meninggalkan lapangan.Namun, tak berselang lama, pembakaran bendera itu menyebar di media sosial. Video yang berdurasi 2,04 menit menjadi bahan perbincangan masyarakat.Polri langsung bertindak cepat. Pihaknya memastikan akan memproses hukum mereka yang terlibat untuk mencegah gesekan antarkelompok."Kita tindak secara hukum agar dapat menenangkan atau menetralkan situasi kondusif secara umum," ujar Kepala Biro Penerangan Masyarakat Divisi Humas Polri Brigjen Dedi Prasetyo, Selasa 23 Oktober 2018.Setelah memeriksa dan mengamankan sejumlah saksi, Kepolisian resort Garut menangkap pelaku. Mereka mengakui perbuatan salah itu dan meminta maaf kepada seluruh umat Islam. Polri juga mengaku telah mengantongi identitas pembawa bendera itu. Saat ini, pelaku itu sedang dicari petugas."Totalnya 6, yang 3 tambahan dumas (pengaduan masyarakat)," ujar Kapolres Garut AKBP Budi Satria Wiguna, Selasa 23 Oktober 2018.Menurut dia, identitas pelaku tidak diungkapkan demi keselamatan. Budi menegaskan, pengakuan dan permintaan maaf itu merupakan inisiatif pelaku, tanpa paksaan dari siapa pun."MUI sudah menyerahkan proses hukum apabila ada pelanggaran hukum," ujar Budi.Untuk mengungkap detail kasus ini, polisi segera menggelar perkara secara terbuka. Beberapa barang bukti yang akan ditampilkan adalah baju pelaku, korek api, bekas pembakaran."Kami akan gelar perkara terbuka. Karena sudah jadi abu, akibat panas karena angin, jadi akhirnya hilang, tapi kami kumpulkan sisanya," papar dia.Saat ditanya perihal status hukum yang menjerat ketiga pelaku, Budi menegaskan lembaganya akan segera menetapkan status ketiganya dalam waktu dekat. (Melissa Oktaviani)Saksikan video menarik berikut ini:GP Ansor Jawa Timur membenarkan tindakan Banser Garut yang membakar bendera tauhid. GP Ansor berpendapat tindakan tersebut adalah upaya penyelematan kalimat tauhid</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta - Calon wakil presiden Ma'ruf Amin meminta tim kampanye tidak terlena akan kemenangan yang ditampilkan sejumlah survei. Dia meminta tim kampanyenya betul-betul bekerja, menyampaikan ke masyarakat soal keberhasilan pemerintahan Jokowi-Jusuf Kalla."Semua orang harus bahwasanya upaya yang telah dilakukan Pak Jokowi itu sudah maksimal memberikan manfaat, memberikan maslahat pada bangsa ini, ujar Ma'ruf Amin di sela Rapat Kerja Nasional Jokowi-Ma'ruf di Surabaya, Jawa Timur, Minggu (28/10/2018).Baca JugaHasil sejumlah survei mengunggulkan pasangan Jokowi-Ma'ruf ketimbang Prabowo-Sandiaga. Tapi Ma'ruf menegaskan, tim suksesnya harus memiliki semangat tinggi."Tidak boleh terlena, harus punya semangat yang tinggi lagi," imbuhnya.Ketua Majelis Ulama Indonesia itu berharap setelah rakernas ini, timses memiliki semangat bertarung lebih kuat lagi. Namun, Ma'ruf ingatkan, tim harus tahu batasan dengan tak memakai politik kebohongan."Kita tidak boleh memfitnah, tidak boleh hoaks, tidak boleh menjelek-jelekan orang lain seperti itu. Kita santun tetap menjaga kesantunan," pungkas Ma'ruf Amin.Jokowi juga meminta anggota tim kampanye kerja keras dalam mengkampanyekan pasangan capres cawapres nomor urut 01."Semuanya harus kerja keras, jangan terlena dengan yang namanya survei. Semua harus tetap kerja," tegas dia.Selain itu, Jokowi mengaku tak memiliki daerah tertentu yang menjadi fokus suara. Semua daerah bakal menerima perlakuan sama."Seluruh daerah, provinsi, kabupaten, kota, sama. Di-treatment dengan hal yang sama," pungkas dia.Sebelumnya, hal senada juga disampaikan Ketua Tim Kampanye Nasional Jokowi-Ma'ruf Amin, Erick Thohir dan Ketua Dewan Pengarah Jusuf Kalla. Keduanya memperingatkan bahwa jangan terlalu optimistis dengan survei.Reporter: Ahda BayhaqiSumber: Merdeka.comMa'ruf juga diagendakan berkunjung ke sejumlah pondok lain, di antaranya pondok pesantren Syeikh Zainuddin Anjani dan pondok Pesantren Qomrul Huda.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta - Komisi Pemberantasan Korupsi (KPK) mengirimkan surat permintaan cegah untuk bepergian ke luar negeri terhadap Wakil Ketua DPR dari Faksi Partai Amanat Nasional Taufik Kurniawan. Namun, KPK belum bersedia blak-blakan terkait kasus yang terkait dengan pencegahan Taufik Kurniawan."KPK akan memberikan pernyataan resmi perihal tersebut besok," kata Wakil Ketua KPK Saut Situmorang, kepada Liputan6.com, Jakarta, Minggu (28/10/2018).Baca JugaNamun, nama Taufik Kurniawan pernah disebut dalam sidang kasus dugaan tindak pidana korupsi terkait Dana Alokasi Khusus untuk kabupaten Kebumen, Jawa Tengah.Pada sidang 2 Juli 2018 kasus korupsi pengadaan barang dan jasa di Kabupaten Kebumen Tahun Anggaran 2016, terdakwa Bupati Kebumen Yahya Fuad, mengaku bertemu dengan Taufik Kurniawan untuk membahas alokasi DAK Kabupaten Kebumen.Pertemuan itu terjadi di Semarang dan Jakarta. Bupati Yahya menjelaskan ada kewajiban sebesar lima persen yang harus diberikan jika DAK sebesar Rp 100 miliar itu cair. Fee diberikan dua kali melalui orang suruhan Taufik di Semarang dengan total pemberian uang mencapai Rp 3,7 miliar.Kabupaten Kebumen sendiri merupakan daerah pemilihan Taufik Kurniawan berasal Jawa Tengah VII meliputi Banjarnegara, Purbalingga, dan Kebumen.Antara melansir, Taufik Kurniawan diduga menerima total sekitar Rp 4,8 miliar dari lima persen anggaran DAK untuk kabupaten Kebumen.Berdasarkan laman Direktorat Jenderal Perimbangan Keuangan (DJPK) Kementerian Keuangan, Kabupaten Kebumen mendapatkan total DAK sebesar Rp 106,067 miliar pada 2017.Yahya Fuad sudah dijatuhi hukuman empat tahun penjara ditambah denda sebesar Rp 300 juta subsider empat bulan kurungan dalam kasus suap atas sejumlah proyek di Kebumen selama kurun waktu 2016 pada 22 Oktober 2018.Sedangkan perusahaan milik Yahya yaitu PT Tradha juga ditetapkan KPK sebagai tersangka Tindak Pidana Pencucian Uang (TPPU). PT Tradha diduga meminjam bendera lima perusahaan lain untuk memenangkan delapan proyek di Kabupaten Kebumen pada kurun 2016-2017 dengan nilai total proyek Rp 51 miliar.PT Tradha juga diduga menerima uang dari para kontraktor yang merupakan fee proyek di lingkungan Pemkab Kebumen setidaknya sekitar Rp 3 miliar seolah-olah sebagai utang.Selanjutnya uang yang didapat dari proyek tersebut, baik berupa uang operasional, keuntungan dalam operasional maupun pengembangan bisnis PT Tradha kemudian bercampur dengan sumber lainnya dalam pencatatan keuangan PT Tradha sehingga memberikan manfaat bagi PT Tradha sebagai keuntungan maupun manfaat lainnya untuk membiayai pengeluaran atau kepentingan pribadi Yahya Fuad, baik pengeluaran rutin seperti gaji, cucilan mobil maupun keperluan pribadi lainnya.Bupati Cirebon non aktif Sunjaya Purwadi Sastra telah ditetapkan sebagai tersangka dugaan kasus suap jual beli jabatan. Seteh diperiksa KPK menahan yang bersangkutan</t>
+    <t>Liputan6.com, Jakarta - Para pengguna jejaring sosial sedang diramaikan dengan insiden pasutri asal Tabanan, Bali yang menghina seorang kurir. Hanya karena kardus paket yang dipesannya sedikit robek, pria yang diketahui bernama Wisnu itu melakukan kekerasan verbal terhadap seorang kurir.Baca JugaKeluhan mendapat paket tersebut ia unggah di Facebook pada Sabtu (27/10/2018), bersama dengan sejumlah video di mana ia dan sang istri memaki-maki kasar sang kurir."Ini ya robek, bapak tunggu di sini. Mau barang hilang atau tidak. Ini barang robeknya seperti ini," kata Wisnu sambil menunjuk-nunjuk sang kurir dengan emosi.Dalam video berdurasi delapan menit, sang kurir sempat menanyakan kepada Wisnu untuk memeriksa apakah ada barang yang terdapat pada paket hilang. Namun ia menolak paket tersebut karena diberikan dalam keadaan yang tak sesuai dengan diinginkannya.Wisnu semakin merasa geram ketika sang kurir mengaku tersinggung dengan perlakuan yang ia terima karena seperti dituduh mencuri.Kurir yang dibuat bingung dengan aksi Wisnu memutuskan pulang sambil membawa paket yang telah ditolak. Ternyata tindakan itu membuat kemarahan Wisnu semakin memuncak. Dengan kesal ia memaki dengan nada tinggi sambil meludah, dan menghina kurir dengan kata-kata kasar."Ini barang saya pak. Pengirimannya dari Bapak. Makanya Bapak diam di sini. Suruh manajer bapak ke sini," sambil berteriak komplain menyuruh sang kurir untuk menelepon manajernya.Pada rekaman yang lain, ternyata Wisnu dan istrinya akhirnya menerima paket tersebut. Hal itu ia tunjukkan dalam video siaran langsung. Setelah paket itu mereka buka, isinya hanya mainan anak seperti boneka dan mobil-mobilan.Setelah unggahan itu viral, niat untuk mengadukan kinerja kurir di jejaring sosial justru berakhir menjadi bumerang bagi Wisnu. Warganet justru menaruh perhatian pada sang kurir yang sabar setelah dimarahi habis-habisan oleh Wisnu.Saksikan Video Pilihan di Bawah ini:Dia mengaku tergiur dengan bayaran yang bisa mencapai belasan juta rupiah jika berhasil menjaditransporter sabu antar anggota jaringan.Melihat warganet yang geram terhadap tindakannya, membuat Wisnu menghapus unggahan tersebut. Namun kecerdikan warganet memang tidak dapat diragukan karena mereka sempat mengunduh rekaman yang diunggah Wisnu.Di sisi lain, tak sedikit warganet menyerang semua jejaring sosial dan toko online yang dimiliki Wisnu, terutama akun Facebook-nya. Warganet pun menyampaikan beragam komentar mengenai insiden tersebut."Kapok kau senjata makan tuan, mau menjatuhkan menjelekan bapak kurir malah dia yg kena apes wkwkwk," tulis Dodie Nugie."Gini nih kalo kulit rambutan dikasih nyawa," komentar Iin Setyawati."Bapak makananya apa ya? kok bentak manusia kayak membentak pada binatang...saya nangis lihat kurirnya," sahut Marta Suprihatin."Azab memarahi kurir JN*, keranda pengantar jenazah diganti dengan kardus sobek," banyol Adhi Rizky."Kok saya yg sakit hati denger dia marahin kurir sampe segitunya pdhl cma kardus aja yg robek," ucap Sayu Dedew.Warganet yang bersimpati berusaha mencari tahu informasi sang kurir mulai dari akun Facebbook hingga kontak pribadinya. Mereka berhasil menghubungi pihak kurir tersebut yang ternyata bernama Ahmad Baco.Tak sedikit warganet memberikan sumbangan dan dukungan semangat terhadap Ahmad. Di samping itu, warganet juga berusaha memaska Wisnu dan istrinya melakukan permintaan maaf terhadap Ahmad.Namun sampai detik ini keduanya masih belum memberikan respon apapun terkait insiden paket tersebut.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta Viralnya video pembakaran bendera yang bertuliskan kalimat Tauhid memantik polemik. Klaim tiga pelaku, yang merupakan anggota Barisan Anshor Serbaguna (Banser) dan berstatus tersangka, bendera itu milik organisasi terlarang di Indonesia, Hizbut Tahrir Indonesia (HTI).Polisi kini memburu pemilik bendera dan sosok yang mengunggah pertama kali video tersebut. Soal motif pembakaran bendera, polisi masih menyelidiki.Baca JugaPolemik ini diredakan berbagai pihak dengan mengimbau masyarakat tidak cepat terprovokasi yang dapat memicu gesekan. Masyarakat juga diminta tenang.Bagaimana bendera bertuliskan tauhid dan HTI itu menjadi polemik, serta bagaimana meredakannya? Simak dalam Infografis berikut ini:</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta - Calon Wakil Presiden Sandiaga Uno memberikan pesan kepada para anak muda atau milenial dalam peringatan Sumpah Pemuda.Dia menginginkan para milenial mempunyai suatu pencapaian atau karya seperti halnya 90 tahun yang lalu. Di mana para pemuda berikrar salah satunya memilih bahasa pemersatu bangsa yakni Bahasa Indonesia.Baca Juga"Agar mereka saat 100 tahun Sumpah Pemuda bisa mewujudkan, milenial jadi pengisi kemerdekan. Menjadi penggerak dan lokomotif, kita akan bangga kalau milenial bisa menghasilkan karya terbaik untuk bangsa," kata Sandiaga kawasan Kuningan, Jakarta Selatan, Minggu (28/10/2018).Mantan Wakil Gubernur DKI Jakarta tersebut menyatakan terdapat beberapa syarat menjadi syarat bila ingin menjadi entrepreneur yang sukses. Salah satunya, harus mempunyai sesuatu yang inovatif.Selain itu, harus berani untuk mengambil risiko. Pro aktif, kata Sandiaga, juga diperlukan."Seperti datang ke Indonesia Young Entrepreneur Summit (IYES), behimpun, berjejaring, bangun network, silaturahim. Itu konsep proaktif," jelas Sandiaga.Calon Wakil Presiden nomor urut 2 Sandiaga Salahuddin Uno menghadiri Deklarasi Relawan Rhoma for Prabowo-Sandi (PAS) di Markas Soneta Record, Depok, Jawa Barat, Minggu siang. Sandiaga tiba sekitar pukul 11.20 WIB.Kedatangan Sandiaga disambut langsung sang tuan rumah, Rhoma Irama diiringi yel-yel Prabowo-Sandi menang di Pilpres 2019.Dalam kesempatan tersebut, Sandiaga mengucapkan terima kasih kepada seluruh Relawan Rhoma Irama atas dukungan yang diberikan untuk berlaga di Pilpres 2019."Insyaaallah 170 hari ke depan kita serap semua aspirasi dari seluruh masyarakat. Terima kasih untuk dukungannya terhadap kami," ujar Sandiaga di lokasi, Minggu (28/10/2018).Sandiaga mengatakan, saat ini masih banyak ditemukan ketimpangan dari berbagai aspek, khususnya sosial ekonomi. Karena itu, ia bersama Prabowo siap membawa visi perubahan jika terpilih pada Pilpres 2019 nanti."Kalau tidak ada perubahan, sungguh terlalu. Yang kaya makin kaya, yang miskin makin miskin," tutur Sandiaga.Selain itu, Sandiaga yakin, Relawan Rhoma Irama untuk PAS terus menjaga kesatuan dan persatuan bangsa dalam mendukung dirinya bersama Prabowo."Relawan Rhoma akan terus menjaga ukhuwah dan akan terus membawa Islam rahmatan lil alamin," ucap Sandiaga.Sandiaga Uno temui 1000 kader dan simpatisan Partai Amanat Nasional di Cianjur, Jawa Barat. Dia berjanji akan sejahterakan petani dan guru honorer.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta - Pantai Tanjung Pakis, Karawang menjadi lokasi terdekat pencarian pesawat Lion Air JT 610 tujuan Jakarta-Pangkal Pinang yang jatuh. Hanya, seluruh proses evakuasi korban dan pengangkutan puing pesawat difokuskan ke Tanjung Priok, Jakarta Utara.Petugas Polair Polres Karawang AKP Sitorus menyampaikan, jarak yang ditempuh ke Pantai Tanjung Pakis dari lokasi jatuhnya pesawat Lion Air memang hanya 30 menit. Hanya, kondisi dan akses jalan di kawasan tersebut terbilang sulit.Baca Juga"Terkendala akses jalan. Sedimen pantai menyulitkan pengangkutan evakuasi dan puing pesawat. Dangkal muaranya," tutur Sitorus kepada Liputan6.com di Pantai Tanjung Pakis, Karawang, Jawa Barat, Senin (29/10/2018).Jarak tempuh dari lokasi Lion Air jatuh pesawat ke Tanjung Priok sekitar 1 jam. Petugas Badan SAR Nasional (Basarnas) langsung membawa korban dan puing pesawat menggunakan kapal evakuasi."Di sini siaga semua saja dulu. Sudah koordinasi dengan Basarnas juga. Tinggal kalau memang diperlukan ke sini, kita siap," jelas dia.Berdasarkan pantauan, sejumlah petugas gabungan mulai dari TNI Polri, Basarnas, Dinas Perhubungan, hingga petugas media berada di pantai. Sekitar 20 mobil ambulans disiapkan untuk mengangkut korban."Posko ante mortem juga sudah ada," Sitorus menandaskan.Kapolda Jawa Barat Irjen Agung Budi Maryoto juga turut menyusuri lokasi jatuhnya pesawat Lion Air. Dia ke tengah laut melalui Pantai Tanjung Pakis.Saksikan video pilihan di bawah ini:Ratusan anggota Basarnas dikerahkan untuk mencari badan pesawat Lion Air JT 610 yang jatuh di perairan Karawang, Jawa Barat.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta - Saat ini Bella Shofie sedang melalui fase baru dalam hidupnya. Setelah status sebagai seorang istri, Bella Shofie dan suaminya, Daniel Rigan, juga telah dikaruniai buah hati bernama Danillo Prince Rigan.Selain memperlihatkan aktivitasnya saat mengasuh anak, Bella Shofie juga sering memamerkan foto dirnya sendiri dalam berbagai pose di Instagaram.Baru-baru ini misalnya, Bella Shofie berfoto mengenakan short dress berwarna coklat dengan motif kotak. Ia juga mengenakan kacamata hitam untuk memaksimalkan penampilan.Lewat keterangannya, Bella Shofie merasa bahwa dirinya masih remja meski sudah memiliki suami dan anak. "Mimi Danillo berasa ABG," tulis wanita berusia 26 tahun tersebut, Senin (29/10/2018).Baca JugaBella Shofie juga merasa bangga usai dirinya resmi menjadi seorang ibu. Setelah melahirkan, ia tidak perlu bersusah payah untuk menurunkan berat badan.Pasalnya, berat badan Bella Shofie sudah nyaris kembali ke semula hanya dalam waktu singkat. Melalui Instagram stories-nya, Rabu (26/9/2018), Bella dengan bangga memamerkan perutnya yang mulai rata."Happy banget nih badan aku. Tuh lihat, ini enggak pakai korset lho," kata Bella Shofie belum lama ini, sambil bercermin memandangi tubuhnya yang sudah ramping.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta - Menteri Keuangan Sri Mulyani Indrawati mendatangi Gedung Basarnas di Kemayoran, Jakarta Pusat, Senin (29/10/2018) siang. Sri Mulyani datang sekitar pukul 11.45 WIB dan langsung memasuki gedung. Sri Mulyani tak menjawab pertanyaan awak media.Sebelumnya, dikabarkan ada 20 pegawai Kementerian Keuangan yang menjadi penumpang pesawat Lion Air JT 610 yang jatuh di perairan Tanjung Karawang, Jawa Barat pada Senin pagi. Sampai saat ini belum ada keterangan dari Basarnas terkait kedatangan Sri Mulyani.Baca JugaPesawat Lion Air JT 610 membawa 189 penumpang. Pesawat bertolak dari Jakarta menuju Pangkal Pinang pada pukul 06.20 WIB. Basarnas kemudian menerima informasi pesawat kehilangan kontak pada pukul 06.50 WIB.Sebelumnya, Biro Komunikasi dan Layanan Informasi Kemenkeu Frans membenarkan ada 20 pegawai Kemenkeu di dalam pesawat tersebut."Iya," ujarnya saat dikonfirmasi merdeka.com, Senin (29/10).Saat ditanya kebenaran data manifes pegawai Kemenkeu yang beredar, Frans membenarkannya."Iya sementara begitu (pegawai yang terdata naik Lion Air)," singkatnya.Berikut daftar nama pegawai Kemenkeu yang ada di dalam pesawat Lion Air JT-610:Pegawai DJKN :1. Reni ariyanti - Kepala KPKNL Pangkal Pinang (DJKN)2. Dwinanto - Kepala Seksi (DJKN)3. M. Jufri - Kepala Seksi (DJKN)Pegawai DJPB :1. Abdul khaer, Kasi PPA 2 b2. Eko Sutanto, Kasi PSAPP3. M. Fadillah, Kasi ASPLK4. Joyo Nuroso, Kasubag Umum KPPN pangkalpinang5. Ahmad Endang Rochmana, Kasubag keuangan kanwilPegawai DJP :KPP Pratama Bangka :1. Pratomo Wira Dewanto2. Hesti Nuraini3. Maria Ulfa4. Rivandi Pranata5. Junior PriadiKPP Pratama Pangkalpinang :1. Achmad Sukron Hadi2. Tri Haska HafidiKasi:1. Firmansyah Akbar (Kasi Penagihan)2. Rr. Savitri Wulurastuti (Kasi Wk. I)3. Ari Budiastuti (Kasi Eksten)4. IGA Ngurah Metta Kurnia (Kasuki)AR:1. Nicko Yogha Marent UtamaSaksikan video pilihan di bawah ini:Melalui aplikasi Flight Radar terlihat bagamana pergerakan pesawat Lion Air JT610 sebelum hilang di radar.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta - Keluarga korban Pesawat Lion Air tujuan Pangkalpinang yang jatuh di perairan Tanjung Pinang telah memadati Posko Disaster Victim Identification (DVI) di ruang VIP Terminal 1B Bandara Soekarno-Hatta (Soetta).Sebelumnya, posko berada di sebuah restoran cepat saji persis disamping posko terpadu pengaduan keluarga korban.Baca JugaSelain anggota keluarga korban, Tim DVI dari Mabes Polri dan petugas dari Kantor Kesehatan Pelabuhan (KKP) juga telah hadir di dalam ruangan VIP.Sebelumnya, penerbangan Lion Air dengan nomor penenerbangan JT 610 dengan rute Jakarta-Pangkal Pinang hilang kontak, pada pukul 06.20 WIB. Badan SAR Nasional (Basarnas) memastikan pesawat tersebut jatuh di perairan Tanjung Karawang.Corporate Communication Lion Group, Danang Prihantoro mengungkap kronologi dari hilang kontak hingga pesawat tersebut jatuh. Pesawat itu hilang kontak setelah lepas landas dari Bandara Internasional Soekarno-Hatta pukul 06.20 WIB.Setelah 13 menit mengudara atau pada 06.33 WIB, pesawat Lion Air jatuh di koordinat S 5’49.052” E 107’ 06.628”  atau di sekitar Karawang. Pesawat mengangakut 178 penumpang dewasa, satu penumpang anak-anak dan dua penumpang bayi, termasuk dalam penerbangan ini ada tiga pramugari sedang pelatihan dan satu teknisi. Totalnya 189 orang.Pesawat dengan regitrasi PK-LQP jenis Boieng 737 MAX 8 itu buatan 2018 dan baru dioperasikan [Lion Air](Lion Air "") 15 Agustus 2018 serta dinyatakan laik operasi.Saksikan video pilihan di bawah ini:Pesawat Lion Air JT 610 yang jatuh di perairan Karawang, Jawa Barat mulai ditemukan.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta - Nikita Mirzani saat ini dikabarkan tengah hamil. Nikita sempat enggan membicarakan kandungannya kepada awak media.Tapi, hari ini, Nikita Mirzani dikabarkan mengalami perdarahan.Baca JugaInformasi ini pun disampaikan sahabat sekaligus rekan kerja, Uya Kuya. Dia menceritakan, saat Nikita Mirzani mengalami perdarahan, dan dirinya ditolong oleh Kalina Ocktaranny saat insiden itu terjadi."Kalina, mantan istrinya Deddy (Deddy Cobuzier). Katanya Kalina bawa Nikita ke rumah sakit. Katanya keadaanya parah," ujar Uya Kuya, di kawasan Kapten Tendean, Jakarta Selatan, Senin (29/10/2018) pagi.First Look Film GundalaUya Kuya yang mendengar kabar itu langsung menghubungi Nikita Mirzani. Namun, bintang film Comic 8 ini tak menjawab teleponnya.Pada tengah malam, Nikita Mirzani baru membalas sambungan teleponnya. "‎Pas perdarahan enggak bisa saya telepon. Saya mau ke sana, terus akhirnya bisa di telepon jam 10.30 malam, dia baru bisa ngomong," tambah Uya Kuya.Hingga kini, Uya Kuya belum tahu kondisi kesehatan Nikita Mirzani. Sebagai sahabat, ia hanya bisa mendoakan yang terbaik untuk ibu dua anak tersebut."Saya baru lihat postingannya kemaren, saya enggak update Niki soalnya saya cuma dengernya baru kemaren," pungkas Uya Kuya.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta - Pesawat Lion Air nomor penenerbangan JT 610, dengan rute penerbangan Jakarta-Pangkal Pinang (Bangka Belitung) mengalami kecelakaan setelah lepas landas dari Bandara Internasional Soekarno-Hatta pada pukul 06.20 WIB.Pesawat tersebut jatuh setelah gagal melakukan pendaratan di air atau ditching setelah 13 menit mengudara dengan lokasi jatuhnya pesawat ini berada di koordinat S 5’49.052" E 107’ 06.628" atau di sekitar perairan Kabupaten Karawang.Baca Juga"Setelah 13 menit mengudara pesawat jatuh di koordinat S 5’49.052” E 107’ 06.628” (sekitar Kerawang)," jelas Corporate Communications Strategic of Lion Air, Danang Mandala Prihantoro dalam keterangannya, Senin (29/10/2018).Pesawat yang jatuh ini memiliki nomor regitrasi PK-LQP dengan tipe pesawat Boeing 737 MAX 8 dan diterbangkan oleh pilot (Capt.) Bhavye Suneja, dengan copilot Harvino. Ini adalah jenis pesawat baru dan dijalankan oleh Lion Air sejak 15 Agustus 2018, serta dinyatakan laik operasi.Sementara itu, burung besi tersebut mengangkut 178 penumpang dewasa satu penumpang anak-anak dan dua penumpang bayi. "Termasuk dalam penerbangan ini, ada tiga pramugari sedang pelatihan dan satu teknisi," tutur Danang.Selain dikomnadoi Capt. Bhavye Suneja dengan copilot Harvino, enam awak kabin yang terbang bersama mereka adalah Shintia Melina, Citra Noivita Anggelia, Alviani Hidayatul Solikha, Damayanti Simarmata, Mery Yulianda, dan Deny Maula.Dikutip dari laman LinkedIn milik Bhavye, ia mulai bekerja di Lion Air sejak Maret 2011 --total 7 tahun 8 bulan dan 6.000 jam terbang.Sebelum bergabung dengan Lion Air, ia juga menjadi pilot peserta pelatihan (trainee pilot) di maskapai Emirates, Dubai, selama 4 bulan, yakni terhitung dari September hingga Desember 2010.Sang Kapten pun telah mendapatkan lisensi penerbangan dari Bel-Air International --sekolah penerbangan di San Carlos, California, Amerika Serikat, setelah bergabung pada 2007 hingga 2009.Hingga kini, BASARNAS masih melakukan upaya pencarian para korban Lion Air JT 610.Saksikan video pilihan berikut ini:Melalui aplikasi Flight Radar terlihat bagamana pergerakan pesawat Lion Air JT610 sebelum hilang di radar.Temuan serpihan pesawat Lion Air tujuan Jakarta-Pangkalpinang jatuh di Tanjung Karawang bertambah. Pesawat dengan nomor JT 610 itu sempat hilang kontak usai lepas landas dari Bandara Soekarno-Hatta pukul 06.20 WIB.Berdasarkan dokumentasi foto yang diterima Liputan6.com, tampak sebuah pecahan kursi penumpang pesawat Lion Air remuk. Stiker peringatan larangan menyalakan telepon genggam, mengambil pelampung pesawat, dan melakukan pengerusakan barang di pesawat pun masih tertempel.Ditemukan juga serpihan ponsel dari dalam sebuah tas kecil. Sementara pecahan logo Lion Airjuga diangkut bersama bagian badan pesawat lainnya.Petugas juga mendapati sejumlah kartu identitas baik itu KTP dan SIM milik penumpang. Bahkan, ada bagian tubuh juga yang berhimpit dengan serpihan pecahan bagian pesawat lainnya.Diketahui pesawat tersebut membawa 189 orang, termasuk penumpang dan kru pesawat. Penumpang itu terdiri dari 178 orang dewasa, 1 anak-anak, dan 2 bayi (infant). Untuk kru pesawat terdiri dari 2 kokpit kru dan 6 orang awak kabin."Total ada 189 orang," ujar Ketua Komite Nasional Keselamatan Transportasi (KNKT) Soerjanto Tjahjono di Kantor Basarnas, Jakarta, Senin (29/10/2018).</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta - Pangkalan Udara TNI AU Atang Sanjaya Bogor, Jawa Barat, turut serta membantu dalam mencari pesawat Lion Air jatuh. Lanud Atang Sanjaya mengirimkan tiga unit helikopter ke lokasi pencarian.Komandan Wing Udara 4 Lanud Ats, Kolonel Pnb Bambang Juniar mengatakan, jenis helikopter yang dikirim dalam pencarian pesawat Lion Air jatuh JT 610 adalah helikopter Basarnas, Helikopter jenis SA 330, dan helikopter Karakal.Baca Juga"Pesawat yang berangkat pertama melakukan pencarian yaitu helikopter Basarnas. Pesawat kedua helikopter jenis SA 330 Puma," kata Juniar di Lanud Atang Sanjaya Bogor, Senin (29/10/2018).Juniar menjelaskan, helikopter Basarnas sudah bergerak dari Lanud Atang Sanjaya dalam misi pencarian, setelah mendapat perintah dari Badan Nasional Pencarian dan Pertolongan serta Mabes TNI AU."Pencairan dilakukan sekitar perairan Utara Karawang," kata Juniar.Ia mengatakan, helikopter Basarnas diterbangkan oleh Letkol Pnb Risdi, yang langsung bergabung dengan tim pencarian Lion Air jatuh di bawah komando Badan SAR Nasional (Basarnas).Polri mengerahkan sejumlah personel untuk membantu Badan SAR Nasional (Basarnas) mencari pesawat Lion Air tujuan Jakarta-Pangkalpinang yang jatuh.Karo Penmas Divisi Humas Polri Brigjen Dedi Prasetyo menyampaikan, pihaknya menyiagakan mulai dari satuan Brimob, Sabhara, Polairud, Dokkes, Humas Polda Babel, dan Polres Pangkal Pinang. Sejumlah posko pun dibangun terkait penanganan tersebut."Kapal polisi yang sudah meluncur ke TKP, KP Sundaicus-2001 dengan 4 personel, KP Elang Laut-2003 dengan 6 personel, KP Pelatuk-3013 dengan 6 personel, dan KP Kolibri-4015 dengan 16 personel," tutur Dedi dalam keterangannya, Senin (29/10/2018).Sementara masih ada Kapal Kutilang-5005 dengan 24 personel dan Longboat Taktikal dengan 14 personel yang sedang mempercepat pengisian bahan bakar."Sambil menunggu komando pencarian dari Basarnas sebagai koordinator seluruh giat," kata Dedi.Pesawat Lion Air dengan nomor penerbangan JT 610 tujuan Jakarta-Pangkal Pinang hilang dari radar menara pengawas (ATC) pada koordinat 05 46.15-l S-107 07.16 E KMA atau sekitar wilayah Karawang.Pesawat hilang kontak usai lepas landas landas dari Bandara Internasional Soekarno-Hatta sekitar pukul 06.00 WIB. Pesawat tersebut sedianya akan mendarat di Pangkal Pinang.Saksikan video menarik berikut ini:Keluarga korban yang tiba pun langsung didata petugas, baik dari kepolisian, TNI, Basarnas dan pihak bandara.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Pangkalpinang - Keluarga korban penumpang pesawat Lion Air JT 610 rute Jakarta-Pangkalpinang yang jatuh di perairan Tanjung Karawang, Jawa Barat menangis histeris saat mendengar pernyataan Gubernur Bangka Belitung yang memastikan jatuhnya pesawat tersebut."Papa masih hidup, mama jemput papa, papa jangan tinggalin mama," teriak Dina, istri salah satu korban penumpang, Senin (29/11/2018) seperti dilansir Antara.Baca JugaKorban Rangga Adi Prana merupakan salah satu anggota Kepolisian di Polda Babel yang melakukan kunjungan ke Jakarta untuk menjalankan bisnis di Jakarta.Sejak 17 tahun menjadi anggota kepolisian daerah Babel, korban dikenal baik oleh anggota keluarga. Rangga memiliki tiga anak dan tinggal di Jalan Gurami Gabek Permai.Selain itu, Ermayanti istri dari M Safii yang juga salah satu korban di pesawat Lion Air JT 610 juga menangis histeris saat mendengar berita duka tersebut."Suami saya tidak minta jemput, kontak terakhir waktu subuh hanya minta bawa anak ke rumah sakit karena si bungsu lagi sakit," ujar Erma.Kedua keluarga korban pesawat Lion Air JT 610 tersebut masih berharap anggota keluarganya selamat meski belum ditemukan.Penerbangan Lion Air dengan nomor penenerbangan JT 610 dengan rute Jakarta-Pangkal Pinang hilang kontak. Badan SAR Nasional (Basarnas) memastikan pesawat tersebut jatuh di perairan Tanjung Karawang.Corporate Communication Lion Group, Danang Prihantoro mengungkap kronologi dari hilang kontak hingga pesawat tersebut jatuh. Pesawat itu hilang kontak setelah lepas landas dari Bandara Internasional Soekarno-Hatta pukul 06.20 WIB.Setelah 13 menit mengudara atau pada 06.33 WIB, pesawat Lion Air jatuh di koordinat S 5’49.052” E 107’ 06.628”  atau di sekitar Karawang. Pesawat mengangkut 178 penumpang dewasa, satu penumpang anak-anak dan dua penumpang bayi, termasuk dalam penerbangan ini ada tiga pramugari sedang pelatihan dan satu teknisi. Totalnya 189 orang.Pesawat dengan regitrasi PK-LQP jenis Boieng 737 MAX 8 itu buatan 2018 dan baru dioperasikan Lion Air 15 Agustus 2018 serta dinyatakan laik operasi.Pesawat dikomandoi Captain Bhavye Suneja dengan copilot Harvino bersama enam awak kabin atas nama Shintia Melina, Citra Noivita Anggelia, Alviani Hidayatul  Solikha, Damayanti Simarmata, Mery Yulianda, dan Deny Maula.Mereka berusaha mencari tahu kabar keluarga mereka yang menjadi penumpang pesawat tujuan Pangkal Pinang.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta - Mahkamah Agung masih memastikan terkait kabar  tiga hakim yang diduga jadi korban jatuh pesawat Lion Air JT 610 tujuan Pangkal Pinang dari Jakarta."Ya masih kami cek kebenarannya, terutama identitasnya kalau tak salah ada dua hakim tinggi yang berangkat untuk bisa masuk jam 7. Coba nanti saya cek nama yang sebenarnya," ujar Juru Bicara MA Suhadi saat dikonfirmasi, Senin (29/10/2018).Baca JugaDiduga, tiga hakim turut dalam penerbangan Lion Air JT 610. Tiga hakim tersebut diduga hakim Pengadilan Tinggi (PT) Pangkalpinang Kartika Ayuningtyas Upiek dan Hasnawati, serta hakim Pengadilan Negeri (PN) Koba Ikhsan Riyadi."Mungkin juga 3 hakim. Nanti saya cek dulu," Suhadi menambahkan.Saksikan video pilihan di bawah ini:Pesawat Lion Air JT 610 dinyatakan jatuh di perairan Karawang, Jawa Barat. Basarnas mulai menurunkan tim penyelam untuk mencari kemungkinan korban.Sementara itu, keluarga penumpang pesawat Lion Air JT 610 mendatangi Gedung Basarnas. Mereka memastikan kabar jatuhnya pesawat JT 610 jurusan Jakarta-Pangkalpinang pada Senin pagi (29/10/2018).Salah seorang keluarga penumpang, Feni mengatakan, di dalam pesawat Lion Air jatuh, ada empat anggota keluarganya. Di antaranya ada adik, calon suami adiknya, dan ayah dari calon suami adiknya, dan satu kerabat lainnya.Kedatangannya ke Basarnas khusus untuk mencari informasi atas kecelakaan tersebut. "Ke sini untuk cari informasi," ujarnya.Feni yang datang bersama Andi mengatakan, keempat anggota keluarganya berangkat ke Pangkalpinang untuk pertemuan keluarga. Dia mengaku mendapat informasi jatuhnya pesawat sekitar pukul 08.00 WIB."Tadi pagi dapat kabar kecelakaan jam delapan," ujar dia.Dia mengaku, pihak keluarga belum mendapat kabar dari Lion Air terkait peristiwa ini. "Belum dikabari sama sekali," pungkas Feni.</t>
   </si>
   <si>
     <t>Liputan6.com, Jakarta - Gubernur Jawa Barat Ridwan Kamil prihatin dengan terbelahnya masyakat karena mempertahankan sikap politiknya. Khususnya pada masa kampanye dan menjelang Pilpres 2019.Hal ini diutarakan Ridwan Kamil saat menjadi pembicara di acara Milenial Fest di Djakarta Theater, Jakarta.Baca Juga"Sekarang kan terbelah. Ini cebong, ini kampret. Kalau bisa 'cepret' aja, digabung," kata pria yang akrab disapa Kang Emil ini, Minggu (28/10/2018).Ridwan Kamil pun menceritakan bagaimana dia kerap kali mendamaikan dua kelompok yang berbeda pandangan politik sewaktu menjadi Wali Kota Bandung."Empat tahun saya jadi Wali Kota Bandung, sibuk mendamaikan orang-orang yang berbeda bendapat, mendamaikan kelompok yang berbeda pilihan," ungkap dia.Menurut dia, kisruh mengenai perbedaan politik harusnya tak perlu diperpanjang. Sebab, lanjut dia, hal itu hanya membuang waktu."Kalau kita berantem terus tiap pilkada, urusan pilpres, kapan kerjanya," ucap Ridwan Kamil.Sebelumnya, Ridwan Kamil menyatakan mendukung pasangan Joko Widodo atau Jokowi-Ma'ruf Amin dalam Pilpres 2019. Dukungan Gubernur Jawa Barat terpilih yang akrab disapa Emil sejalan dengan keputusan partai politik yang mendukungnya saat Pilkada Jabar 2018."Dari awal kan sudah saya sampaikan kalau ditanya pilihan pribadi sebenarnya kan rahasia, tapi karena ditanya dijawab Saya mendukung Pak Jokowi ya. Kenapa? Karena partai-partai pendukung saya di gubernur kan pendukung partai pemerintah," ujar Emil di Gedung Merdeka, Jalan Asia Afrika, Sabtu (25/8/2018).Ridwan Kamil dan Uu Ruzhanul Ulum didukung empat partai yakni PPP, PKB, Nasdem dan Hanura di Pilgub Jabar 2018. Empat partai ini merupakan partai pendukung pemerintahan Jokowi.Banyak pihak mengapresiasi momen pelukan Jokowi dan Praboro. Salah satunya adalah Ridwan Kamil, ia membuat sayembara bertema kejadian tersebut dengan hadiah jutaan rupiah.</t>
   </si>
   <si>
-    <t>Jakarta - Komisi Pemberantasan Korupsi (KPK) mencegah Wakil Ketua DPR Taufik Kurniawan untuk bepergian ke luar negeri dalam enam bulan ke depan. Surat pencegahan itu telah diterima Direktorat Jenderal (Ditjen) Imigrasi Kementerian Hukum dan HAM, Jumat 26 Oktober 2018."Surat permohonan cegah sudah diterima (dari KPK Jumat 26 Oktober)," kata Kepala Bagian Humas dan Umum Ditjen Imigrasi Theodorus Simarmata saat dikonfirmasi, Jakarta, Minggu (28/10/2018).Baca JugaDia pun meminta jurnalis mengonfirmasi ke KPK terkait permintaan melarang politikus Partai Amanat Nasional (PAN) itu melancong ke luar negeri.Sementara itu, Jubir Komisi Pemberantasan Korupsi (KPK) Febri Diansyah belum berkomentar banyak mengenai surat permintaan cekal tersebut ketika dihubungi Liputan6.com."Besok diinformasikan ya, masih perlu dicek," kata Febri.Wakil Ketua KPK, Saut Situmorang juga enggan berkomentar banyak soal cekal Taufik Kurniawan. Dia mengatakan, lembaga antirasuah itu akan menjelaskan soal pencegahan ini, Senin 29 Oktober 2018."KPK akan memberikan pernyataan resmi perihal tersebut besok," ujar Saut kepada Liputan6.com.Wakil Ketua DPR Taufik Kurniawan sempat menjalani pemeriksaan di KPK pada Rabu 5 September 2018. Menurut politikus PAN itu, pemanggilannya terkait penyelidikan yang tengah dilakukan lembaga antirasuah itu."Bukan saksi, cuma dimintai keterangan bagaimana mekanisme penganggaran secara mekanisme di DPR. Ini penyelidikan," ujar Taufik Kurniawan di Gedung KPK Kuningan Jakarta Selatan.Taufik mengatakan, dirinya dimintai keterangan terkait mekanisme penganggaran di DPR dan mekanisme pembahasan proses APBN. Sebab, Taufik menjabat sebagai Wakil Ketua DPR bidang ekonomi dan keuangan."Tanya ke penyelidik, tanya Pak penyelidik. Semua yang saya tahu tentang anggaran saya sampaikan ke penyelidik," ujarnya.Kendati, Taufik enggan menjelaskan kasus apa yang saat ini tengah diselidiki penyidik KPK. Dia hanya mengungkapkan salah satu yang dikonfirmasi penyelidik adalah masalah dana alokasi khusus hingga dugaan mafia anggaran."Semua yang saya ketahui sudah saya sampaikan ke penyelidik, ya bukan penyidik ya," tegas Taufik Kurniawan.Penjagaan dilakukan supaya penggeledahan dapat berjalan lancar.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta - Kesehatan Roy Kiyoshi rupanya sedang mengalami gangguan. Pria yang memiliki indigo ini, bahkan sampai harus dilarikan ke rumah sakit dan menjalani perawatan.Kondisi ini diketahui melalui unggahan terbaru Roy kiyoshi di akun Instagramnya. "Thank You #bersyukur #grateful terima kasih," tulis Roy Kiyoshi sebagai keterangan fotonya, Sabtu (27/10/2018).Foto tersebut memperlihatkan Roy Kiyoshi yang tengah dijenguk oleh rekannya. Dipasangi selang infus hingga selang oksigen, wajah artis berusia 31 tahun tersebut tampak tak sesegar biasanya.Namun begitu, belum ada informasi mendetail mengenai penyakit apa yang sedang di derita oleh Roy Kiyoshi.Baca JugaTak hanya penggemar, sahabat yang sempat berseteru dengannya, Robby Purba, juga merasa iba dengan kondisi Roy Kiyoshi. Dalam kolom komentar, presenter kondang itu pun mendoakan kesehatan rekannya agar segera membaik."Cepat pulih, dedek," tulis Robby Purba dengan membubuhkan emotikon berbentuk hati berwarna pink.Warganet juga turut mendoakan. "Semoga cepat diberi kesembuhan dan bisa beraktifitas seperti sedia kala," kata pengguna akun @sulistinadwi."Sehat - sehat terus koo.. Dont think too much, what is in the past, the bad one, just leave behind.. Salam sehat," tambah @mizzkepo.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta - Kondisi masyarakat di Palu dan wilayah lain di Sulawesi Tengah yang terdampak gempa membaik. Perekonomian dan layanan komunikasi terus mengalami kemajuan."Perekonomian masyarakat mulai berjalan normal. Sinyal telekomunikasi dan internet telah pulih dan pelayanan listrik sudah mencapai 94 persen," kata Kepala Pusat Data, Informasi dan Hubungan Masyarakat Badan Nasional Penanggulangan Bencana (BNPB) Sutopo Purwo Nugroho soal penanganan gempa Palu, Jakarta, Minggu 28 Oktober 2018.Baca JugaDia mengatakan, empat kecamatan di Kabupaten Sigi, yaitu Lindu, Kulawi, Kulawi Selatan dan Titikor sebagian masih terisolasi karena akses menuju daerah tersebut tertimbun longsor kembali pada Minggu 21 Oktober 2018. Hujan deras mengakibatkan longsor dan banjir di wilayah tersebut.Upaya membuka daerah dengan membersihkan material longsor dengan alat-alat berat masih dilakukan. Akses jalan dilakukan dengan sistem buka tutup."Truk berbadan sedang yang mampu mengangkut logistik lebih dari tiga ton tidak dapat melalui jalan tersebut. Penyaluran bantuan menggunakan helikopter MI-8 milik BNPB," ujar Sutopo soal penanganan usai gempa Palu dan Donggala seperti dilansir Antara.Menurut dia, helikopter BNPB sudah melakukan 18 kali penerbangan ke wilayah tersebut membawa bantuan logistik sebanyak 32,7 ton.Sementara, hingga Minggu, korban meninggal dunia yang tercatat 2.086 orang, 1.309 orang hilang, 4.438 orang luka-luka dan 206.524 orang mengungsi.mengharukan anak korban gempa Palu curhat ke Jokowi</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta - Daftar kepala daerah yang terjerat operasi tangkap tangan (OTT) Komisi Pemberantasan Korupsi (KPK) kembali bertambah. Kali ini Bupati Cirebon Sunjaya Purwadisastra yang diciduk oleh KPK.Sunjaya terjerat OTT KPK pada Rabu 24 Oktober 2018. Selain Sunjaya, KPK juga menangkap Sekretaris Dinas Pekerjaan Umum dan Penataan Ruang Kabupaten Cirebon Gatot Rachmanto yang ditetapkan sebagai tersangka pemberi suap jual beli jabatan.Baca JugaWakil Ketua KPK Alexander Marwata mengatakan, penangkapan keduanya berdasarkan laporan dari masyarakat.Menurut Alex, pada Rabu, 24 Oktober 2018, tim KPK menerima informasi akan terjadi transaksi suap jual beli jabatan dan gratifikasi kepada Sunjaya. Tim kemudian menuju kediaman ajudan Sunjaya berinisial DS dan mengamankan uang Rp 116 juta dalam pecahan Rp 100 ribu dan Rp 50 ribu."Tim juga mendapatkan bukti setoran ke rekening penampungan milik Bupati yang diatasnamakan orang lain senilai Rp 6.425.000.000," ujar Alex di Gedung KPK, Kuningan, Jakarta, Kamis (25/10/2018).Kemudian, sekitar pukul 16.30 WIB, tim penindakan menuju kediaman Gatot dan menangkapnya. Secara paralel, tim juga mengamankan Sunjaya dan ajudannya yang berinisial N di kantor pendopo Bupati."Tim juga kemudian mengamankan Kabid Mutasi berinisial SD. Kemudian, pukul 17.30 WIB, Kepala BKPSDM berinisial SP tiba di kantor bupati dan diamankan tim," kata Alex.Setelah itu, tim penindakan membawa mereka yang diamankan ke Gedung KPK."Kamis (25/10/2018), sekitar pukul 15.30 WIB, sekretaris Sunjaya berinisial S mendatangi Gedung KPK dan membawa uang Rp 296.965 dan menyerahkan kepada KPK," kata Alex.Sebelum ditetapkan sebagai tersangka, Sunjaya sempat mengembalikan uang senilai Rp 269.965.000 kepada KPK yang diantarkan oleh Sekretarisnya yang berinisial S.Yang menarik, berbeda dengan kasus-kasus korupsi lain, yang kerap menggunakan mata uang dollar Amerika atau Singapura. Kali ini, uang suap Bupati Cirebon Sunjaya itu dibungkus dalam karung yang terdiri dari pecahan Rp 5.000 dan Rp 20.000.Dalam kasus ini, Alex mengindikasikan, uang suap yang diterima Bupati Cirebon, Jawa Barat periode 2014-2019 Sunjaya Purwadisastra juga untuk kepentingkan Pilkada Serentak 2018."Dalam proses penyelidikan ini, KPK mengidentifikasi dugaan aliran dana untuk kepentingan Pilkada sebelumnya," ucap Alex.Tarif BervariasiSoal tarif yang dikenakan Sunjaya untuk setiap jabatan di lingkungan Pemkab Cirebon, Jubir KPK Febri Diansyah mengatakan Sunjaya memasang tarif bervariasi."KPK mengidentifikasi dugaan adanya tarif-tarif yang berbeda untuk pengisian jabatan tertentu. Misalnya, kisaran Camat Rp 50 juta, eselon 3 Rp 100 juta eselon 2 Rp 200 juta," kata Juru Bicara KPK Febri Diansyah saat dikonfirmasi, Jumat (26/10/2018).Febri mengatakan tarif uang dipasang Bupati Sunjaya tersebut berlaku relatif tergantung strategis atau tidaknya jabatan."Tarif tersebut berlaku relatif tergantung tinggi rendah dan strategis atau tidaknya jabatan di Cirebon. Kami juga menduga, penerimaan hampir selalu terjadi setelah seseorang menduduki jabatan," jelas Febri.KPK pun sangat menyesalkan masih terjadinya praktik penerimaan suap oleh kepala daerah."Bupati Cirebon merupakan kepala daerah ke-19 yang diproses KPK melalui operasi tangkap tangan di tahun 2018 ini dan merupakan kepala daerah ke-100 yang pernah kami proses selama KPK berdiri," ucap wakil Ketua KPK Alexander Marwata .KPK pun memandang sudah mendesak untuk melakukan perubahan aturan terkait penguatan independensi Aparat Pengawasan Intern Pemerintah (APIP) dan perbaikan di sektor politik."Terutama aspek pendanaan politik terhadap calon kepala daerah dalam proses kontestasi politik," kata Alexander.Ia juga mengungkapkan, berdasarkan kajian KPK terkait pendanaan dalam Pilkada terungkap bahwa banyak kepala daerah yang 'disponsori' pihak-pihak tertentu."Bahwa dari beberapa operasi tangkap tangan yang dilakukan KPK dan ketika diperiksa banyak yang mengatakan mereka itu untuk Pilkada itu "disponsori" oleh pihak-pihak tertentu atau bahkan dia minjam," tutur Alexander.Menurutnya, ada kepala daerah di daerah tertentu yang mengatakan bahwa untuk menjadi kepala daerah itu paling tidak harus menyiapkan dana Rp20 sampai Rp30 miliar."Padahal kalau dihitung dari penghasilan kepala daerah selama lima tahun, saya yakin mungkin kalau ditabung semua uangnya itu penghasilan yang resmi mungkin tidak sampai Rp 6 miliar dengan asumsi penghasilan Bupati itu Rp 100 juta perbulan. Sisanya dari mana? Tentu saja mereka akan berupaya dengan berbagai cara untuk mengembalikan modal," kata Alexander.Tertangkapnya Bupati Sunjaya ini berdasarkan laporan dari masyarakat. Salah satu yang mempunyai peran yaitu salah seorang PNS Pemkab Cirebon bernama Rakhmat Hidayat. Rahmat yag merupakan perawat di Puskesmas itu selama ini gigih menyuarakan adanya korupsi jabatan di lingkungan kerjanya.Dia pun mengimbau agar seluruh PNS di Kabupaten Cirebon tidak takut mengungkap fakta yang sebenarnya."Saya ingin perubahan Kabupaten Cirebon lebih baik punya pemimpin tidak jual beli jabatan, suap proyek besar dan korupsi," kata Rakhmat saat ikut dalam aksi yang digelar salah satu LSM di depan Kantor Bupati Cirebon, Kamis (25/10/2018).Dia mengaku, sejak menjabat perilaku Bupati Cirebon sudah tidak memiliki iktikad baik sebagai pemimpin. Hingga akhirnya, dia memberanikan diri membongkar kasus korupsi di RSUD Arjawinangun Kabupaten Cirebon.Sikap Rakhmat membongkar kasus korupsi rupanya membuat Sunjaya harus memutasinya. Rakhmat yang dulu perawat di RSUD Arjawinangun, kini harus menjadi perawat di Puskesmas Kalimaro Kecamatan Gebang Kabupaten Cirebon.Namun demikian, Rakhmat tetap menjalaninya dengan ikhlas dan penuh suka cita. Rakhmat harus mengeluarkan biaya lebih besar selama satu tahun dinas di Puskesmas Kalimaro Cirebon."Saya bersyukur sekali walaupun saya harus dipindah karena membuat Sunjaya marah tapi saya tidak masalah saya tetap menjalankan kewajiban saya meski jarak tempuh harus mengeluarkan Rp 100 ribu setiap hari," kata dia.Dia mengaku, dimutasi karena dituding ingin menjegal Sunjaya agar tidak mendapat rekomendasi dari partai untuk maju pada periode kedua."Sampai sekarang saya tetap kritis tapi tidak dipecat oleh Sunjaya karena saya selalu bertanggungjawab atas apa yang sudah menjadi tugas saya sebagai PNS di puskesmas misal datang tepat waktu," ujar dia.Rakhmat mengaku tidak pernah diberi tawaran jabatan tinggi oleh Sunjaya. Bahkan Rakhmat cenderung melawan kebijakan yang dianggap tidak berpihak kepada PNS."Saya terus melawan jadi saya tidak ditawari jabatan kalaupun dipromosikan saya tidak mau karena harus bayar itu tidak benar," kata Rakhmat.Dia mengungkapkan, setiap tiga bulan sekali Sunjaya selalu melakukan mutasi jabatan. Bahkan, hal tersebut sudah menjadi rahasia umum.Rakhmat pun mengaku menggelar acara saweran kepada warga di Puskesmas Kalimaro. Rakhmat menyebutkan nilai sawer yang diberikan kepada warga sebagai ucap syukur atas tertangkapnya Sunjaya."Ini juga nadzar saya jika benar tertangkap KPK saya sawer Rp 1 juta. Jabatan itu seakan menjadi lomba untuk diperjual belikan Sunjaya dan pejabat yang sudah sesuai ketentuan berlomba tawar menawar harga di lahan basah," kata dia.Rakhmat tidak mengetahui secara pasti jumlah uang yang harus disetor ke Sunjaya untuk setiap jabatan. Namun, dia mengungkapkan untuk menduduki jabatan Kepala Puskesamas, minimal harus sedia dana Rp 100 juta."Yang lain saya tidak tahu tapi kalau kepala puskesmas segitu yang saya tahu," ujar dia.Sunjaya resmi bersatus tersangka setelah diperiksa oleh KPK atas dugaan kasus jual beli jabatan.Status baru Sunjaya ini dikeluarkan oleh KPK hanya beberapa bulan sebelum pelantikannya sebagai Bupati Cirebon untuk periode kedua 2019-2024. Rencanannya, Sunjaya dan wakilnya Imron Rosyadi akan dilantik pada 24 Maret 2019.Terkait hal ini, Ketua KPU Kabupaten Cirebon Saefuddin Jazuli menyatakan, pelantikan Sunjaya tetap dilakukan sesuai jadwal. Hal ini sesuai UU Nomor 10 Tahun 2016 tentang Pemilihan Kepala Daerah."Tapi tetap tergantung statusnya, apakah tersangka, terdakwa, atau sudah inkrach," ucap Saefuddin di kantor KPU Kabupaten Cirebon, Jawa Barat, Jumat (26/10/2018).Dia menjelaskan, dalam UU Nomor 10/2016, proses pelantikan tetap dilakukan jika status Sunjaya masih tersangka. Apabila statusnya sudah menjadi terdakwa, Sunjaya bisa diberhentikan sementara setelah dilantik.Jika status Sunjaya sudah inkrah, maka Sunjaya tetap dilantik. Namun, kemudian langsung diberhentikan. "Perlakuannya itu beda-beda tergantung status hukumnya," ucap Saefudin.Saefudin mengatakan, saat ini kewenangan masih ada di Kementerian Dalam Negeri dalam menyikapi kasus tersebut. Apalagi saat ini Sunjaya masih dalam proses pemeriksaan di KPK."Kalau sekarang bisa didorong pengganti sementara sampai menunggu pelantikan," kata dia.Seperti diketahui, Sunjaya kembali memenangkan Pilkada 2018. Berpasangan dengan Imron Rosyadi, pasangan nomor urut 2 itu meraih 319.630 suara berdasarkan rapat pleno terbuka rekapitulasi penghitungan KPU Kabupaten Cirebon pada Juli lalu.Terkait dengan pengganti Sunjaya selama berurusan hukum dengan KPK, Gubernur Jawa Barat Ridwan Kamil telah meminta Kemendagri untuk mengutus Plt Bupati Cirebon sehingga roda pemerintahan di kabupaten itu tetap berjalan baik."Saya sudah berkirim informasi kepada Kemendagri kira-kira proses penggantian sementara ini seperti apa. Supaya tidak ada kekosongan pemerintahan di sana," ungkap Emil ketika ditemui di Gedung DPRD Jawa Barat, Kamis (25/10/2018).Menurut dia, penunjukan Plt merupakan satu hal penting agar pelayanan kepada masyarakat tetap maksimal. Apalagi, pasa terjaring operasi tangkap tangan KPK, Rabu malam, belum ada pengganti sementara Sunjaya.Mantan Wali Kota Bandung ini juga mengapresiasi KPK yang terus bergerak memberantas praktik korupsi yang menjerat kepala daerah."Saya mengapresiasi KPK dan mengapresiasi agar penegakan hukum ini agar lebih ketat dan lebih kuat," tegasnya.Gatot yang lebih dulu meninggalkan Gedung KPK enggan berkomentar terkait penetapannya sebagai tersangka.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta - Selain menyembunyikan pernikahan, Bella Shofie juga menutup rapat masa kehamilannya dari publik. Setelah melahirkan, barulah Bella Shofie terbuka mengenai kehidupan pribadinya itu.Melalui akun Instagramnya, Bella Shofie secara terang-terangan memperlihatkan kehidupannya sebagai ibu dari Danillo Prince Rigan. Tak hanya itu, ia juga menjawab penasaran publik tentang sosok suami yang disembunyikannya selama ini."Aku kembarannya Papa nih hihi Love you Papa," tulis Bella Shofie dalam akun Instagram anaknya, @danillo.prince.rigan, Sabtu (27/10/2018).Bersama dengan keterangan itu, Bella Shofie menunjukkan foto suaminya, Daniel Rigan, yang sedang menggendong sang putra tercinta. Jika diperhatikan, wajah sang anak memang mewarisi wajah ayahnya.Baca JugaSementara itu, banyak yang menduga Bella Shofie menikah dengan pria yang telah memiliki istri. Menanggapi hal itu, melalui akun Instagram Story-nya, Bella Shofie memberikan penjelasan terkait tuduhan tersebut."Saya tegaskan disini saat ini suami saya TIDAK TERIKAT PERNIKAHAN dengan siapapun kecuali dengan saya," tulis Bella Shofie, September 2018 lalu.Bella Shofie mengingatkan kepada orang-orang yang telah menuduhnya menikah dengan suami orang agar insaf dan tidak lagi membicarakan dirinya.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta - Kecelakaan yang melibatkan bus Transjakarta kembali terjadi di Ibu Kota. Pengendara sepeda ontel yang belum diketahui identitasnya meninggal setelah tertabrak bus Transjakarta di sekitar Monas, Jakarta Pusat, Minggu pagi (28/10/2018).Kasat Lantas Polres Metro Jakarta Pusat AKBP Juang Andi Priyanto mengatakan, peristiwa terjadi sekitar pukul 07.10 WIB. Saat itu, korban tengah melintas di Jalan Medan Merdeka Selatan melalui jalur busway. Di saat yang sama, bus Transjakarta bernopol B 7740 TGB melintas dari arah barat.Baca JugaKecelakaan tak terhindarkan saat kendaraan dan sepeda bertemu di depan IRTI dari arah yang sama. Akibatnya, korban mengalami luka parah di bagian kepala."Kecelakaan tersebut mengakibatkan pengendara sepeda ontel meninggal dunia," ujar Juang melalui keterangan tertulis, Jakarta.Jenazah kemudian dibawa ke Rumah Sakit Cipto Mangunkusumo (RSCM), Jakarta Pusat. Sementara pengemudi bus Transjakarta berinisial S (45) diamankan polisi untuk penyelidikan lebih lanjut.Direktorat Lalu Lintas Polda Metro Jaya mencatat terjadi 44 kali kecelakaan lalu lintas yang melibatkan Bus Tranjakarta sepanjang tahun ini. Kasubdit Penegakkan Hukum dan Pembinaan Ditlantas PMJ, AKBP Budianto menyebutkan insiden-insiden tersebut tersebar di 11 koridor rute perjalanan.Kelalaian dan kurangnya konsentrasi sopir, menurut dia, menjadi penyebab dominan kecelakaan Bus Transjakarta."Kecelakaan banyak disebabkan oleh human error pengemudi Bus Transjakarta. Selain itu kami akan tindak tegas pelanggar yang menyerobot perlintasan busway," saat dikonfirmasi, Jumat 12 Oktober 2018.Seperti dilansir Jawapos.com, Direktur Utama PT Transjakarta Budi Kaliwono menjelaskan, kecelakaan yang marak terjadi disebabkan banyak faktor. Di antaranya, minimnya rambu dan marka jalan dan kelalaian dari sopir bus way.Selain itu, tidak sedikit kecelakaan disebabkan karena orang atau pengendara lain yang menyerobot perlintasan bus Transjakarta. Hal itu membuat sopir oleng dan banting setir mendadak."Harus lihat case by case kecelakaannya. Supaya bisa lebih jelas," ujar Budi.Sebanyak dua kendaraan minibus terlibat kecelakaan akibat salah satu kendaraan memakirkan kendaraanya sembarangan di jalur Transjakarta di jalan Tendean, Jakarta Selatan, Rabu dini hari.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Fukushima - Tragedi bocornya reaktor nuklir di Fukushima, Jepang disebabkan oleh gempa yang terjadi pada Senin 5 Desember 2011. Gempa menyebabkan kebocoran, akibatnya, air radioaktif dari reaktor mengalir ke laut. Hal itu memicu krisis kontaminasi nuklir.Tokyo Electric Power Company (TEPCO), operator dari reaktor tersebut menyatakan bahwa sekitar 45 ton air yang terkontaminasi dengan zat radioaktif cesium dan yodium, mengalir ke laut dari sistem selokan yang juga terkontaminasi dari unit kondensasi.Air yang bocor tersebut mengandung radioaktif caesium 134 sekitar 16.000 becquerels per liter dan cesium 137 sekitar 29.000 becquerels, yang melebihi batas keselamatan oleh pemerintah.Baca JugaMedia lokal melaporkan, air yang terkontaminasi juga mungkin mengandung zat-zat radioaktif lain seperti strontium, diketahui dapat menyebabkan kanker tulang pada manusia.Air yang terkontaminasi itu bocor dari unit desalinasi melalui celah di dinding beton ke selokan.Selokan itu menghubungkan pipa saluran air yang mengalir bebas ke Samudera Pasifik. Air kemudian terkontaminasi radiasi nuklir dari sisa bocoran unit desalinasi hasil pompaan dari bangunan.Kantong-kantong pasir digunakan sebagai opsi darurat untuk mencegah kebocoran lebih lanjut dari unit tersebut. Tak ada korban jiwa dalam kebocoran tersebut namun ratusan ribu warga dievakuasi.Hampir tujuh tahun berlalu, bencana nuklir Fukushima masih menyisakan 'warisan' dengan dampak yang sangat mengkhawatirkan, berikut empat di antaranya, seperti Liputan6.com kutip dari TopTenz.net dan berbagai sumber, Minggu (28/10/2018).Simak video pilihan berikut:Sebuah kelompok industri Jepang menciptakan robot bawah air untuk menyelidiki dampak dari kerusakan reaktor nuklir Fukushima Daiichi.Untuk pertama kalinya, Jepang mengumumkan bahwa seorang pekerja di pembangkit listrik tenaga nuklir (PLTN) Fukushima meninggal dunia akibat terpapar radiasi pada 6 September 2018.Mengutip BBC, 6 September 2018, pekerja di PLTN Fukushima itu diidentifikasi sebagai pria berusia 50 tahunan. Dia meninggal karena kanker paru-paru yang didiagnosis pada 2016.Pemerintah Jepang sebelumnya telah sepakat bahwa radiasi menyebabkan penyakit pada empat pekerja, tetapi kasus kematian ini adalah yang pertama mereka akui.Karyawan yang meninggal telah bekerja di pembangkit listrik tenaga atom itu sejak 1980. Ia bertugas mengukur radiasi di PLTN Fukushima No 1 tak lama setelah rusak."Dia bekerja di sana setidaknya dua kali setelah rusak, mengenakan masker wajah dan pakaian pelindung," kata Kementerian Kesehatan, Tenaga Kerja dan Kesejahteraan Jepang.Setelah mendengar pendapat dari panel ahli radiologi dan ahli lainnya, pihak kementerian memutuskan bahwa keluarga pria itu harus menerima ganti rugi.Kasus kematian pertama akibat keterpaparan radiasi nuklir Fukushima menimbulkan kekhawatiran bahwa akan ada korban jiwa lain di kemudian hari akibat gejala yang sama.Banyak orang khawatir bahwa proses pembersihan terhadap area yang terpapar radiasi nuklir bisa memakan waktu bertahun-tahun. Tetapi, para ahli telah memperingatkan bahwa itu bisa menjadi lebih buruk daripada yang bisa dibayangkan.Perkiraan saat ini, area itu bisa bersih selama sekitar empat dekade, dan itu jika kita tidak melihat komplikasi baru dari dampak sampingan yang akan terjadi, demikian seperti dikutip dari The Guardian.Itu menciptakan masalah besar bagi Jepang, karena hal tersebut adalah pengurasan jangka panjang pada perekonomian mereka, menciptakan rasa ketidakpercayaan yang konstan, dan menyulitkan orang untuk percaya pada kekuatan nuklir.Pemerintah berharap untuk bisa segera mengirim orang kembali, tetapi dengan upaya pemulihan yang diperkirakan akan memakan waktu puluhan tahun, muncul momok yang mungkin menyebabkan lebih banyak evakuasi warga di masa depan akibat keterpaparan nuklir.Namun, Jepang adalah sebuah pulau kecil dengan populasi besar dan mereka ingin dapat menggunakan area itu agar dapat dihuni orang-orang sesegera mungkin.Tak lama setelah bencana Fukushima terjadi, sebuah grafik mulai beredar mengklaim bahwa awan radiasi dari bencana menyebar ke seluruh dunia dan akan segera mencapai Amerika Utara, di mana itu akan mencemari semuanya.Sekarang, terbukti bahwa tidak ada awan raksasa atau gelombang radiasi, dan bahwa kekhawatiran itu tidak terjadi.Namun, sekelompok peneliti dan kelompok warga sipil berhasil melacak radiasi di Amerika utara setelah menghabiskan dua tahun mengumpulkan sampel air dan terus-menerus menguji radiasi.Itu menunjukkan bahwa butuh beberapa tahun setelah materi nuklir mencapai ke Amerika utara.Meskipun beberapa orang mungkin menganggap ini sebagai alasan untuk benar-benar khawatir, namun, jumlahnya jauh di bawah apa yang dianggap berbahaya oleh para ilmuwan.Sekarang, meskipun itu bukan alasan untuk kekhawatiran segera, itu memang menunjukkan bahwa bencana tersebut dapat memiliki efek global, dan bahwa jika air limbah nuklir Jepang akan membuat jalannya lebih cepat dan tidak terawat ke laut, mungkin kita akan mulai melihat lebih banyak efek hingga bahkan masalah nyata yang berdampak pada manusia di tempat jauh.Pejabat Pemerintah Jepang belum mengetahui apa yang harus dilakukan dengan lebih dari 1 juta ton air radioaktif yang berada di lokasi pembangkit listrik tenaga nuklir Fukushima yang kini lumpuh.Beberapa hari setelah peringatan tujuh tahun bencana nuklir Fukushima, perusahaan listrik Tokyo Electric Power Company (TEPCO) mengungkap bahwa pihaknya berhasil memperlambat laju air yang terkontaminasi yang mencapai fasilitas reaktor.Namun, jumlahnya terus meningkat."Beberapa tahun lalu, air radioaktif meningkat 400 ton per hari, namun kenaikan per hari kini telah turun menjadi sekitar 100 ton per hari," kata Naohiro Masuda dari TEPCO seperti dikutip dari Australiaplus 3 Maret 2018."Beberapa tahun lalu kami harus membuat satu tangki baru setiap dua atau tiga hari tapi sekarang kami perlu menambah satu tangki baru setiap tujuh sampai 10 hari, jadi dalam artian itu, kami pikir ini adalah kemajuan, sampai tingkat tertentu, dalam arti ini adalah situasi yang lebih stabil," sebutnya.Ada lebih dari 1.000 tangki air yang terkontaminasi sekarang di lokasi Fukushima dan pihak pemerintah masih belum memutuskan apa yang harus dilakukan dengan air itu.TEPCO juga mengungkap bahwa dinding tanah yang dibekukan di bawah tanah -- yang diharapkan menjadi pertahanan utama terhadap kontaminasi air tanah -- hanya memiliki kapasitas terbatas.Dinding penghalang sepanjang 1,5 kilometer dirancang agar air tanah tak mengalir ke bangunan reaktor yang rusak akibat bencana.Dinding tersebut menghabiskan biaya lebih dari US$ 300 juta (atau setara Rp 3 triliun) untuk pembangunannya dan menghabiskan biaya US$ 10 juta (atau setara Rp 100 miliar) untuk beroperasi.Masuda mengatakan penting untuk dicatat bahwa kombinasi langkah-langkah perusahaan untuk mencegah kontaminasi berarti situasinya kurang stabil secara keseluruhan.Jadi, sementara tingkat air yang terkontaminasi masih meningkat -- meski pada tingkat yang lebih lambat -- Pemerintah Jepang belum menyetujui apa yang harus dilakukan terkait masalah itu.Salah satu pilihan kontroversial termasuk dekontaminasi air sebanyak mungkin dan kemudian secara bertahap melepaskannya ke laut.Para ahli yang menasihati Pemerintah Jepang telah mendesak pembuangan air secara bertahap ke Samudera Pasifik terdekat.Penanganan itu bisa menghilangkan semua unsur radioaktif kecuali tritium, yang menurut mereka aman dalam jumlah kecil.Tapi nelayan lokal menolak gagasan tersebut, karena khawatir akan berdampak buruk terhadap reputasi produk mereka.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta - Perkembangan smartphone harus diakui sulit dibendung. Baik dari spesifikasi atau fitur, setiap vendor smartphone tak ragu untuk jor-joran membenamkan yang terbaik.Salah satu yang terlihat perkembangannya adalah penggunaan RAM di smartphone saat ini. Beberapa tahun lalu, RAM yang dibenamkan berkisar 2GB atau 3GB, tapi kini RAM 4GB hingga 6GB sudah menjadi hal yang lumrah.Baca JugaBahkan, sejumlah vendor smartphone kini sudah menggunakan RAM lebih yang besar, yakni 10GB. Meski belum banyak diadopsi vendor, penggunaan RAM 10GB bukan tidak mungkin akan makin berkembang di masa depan.Alasannya, kebutuhan komputasi dengan smartphone akan makin tinggi dan biasanya diimbangi spesifikasi kelas premium.Untuk mengetahui model smartphone apa saja yang sudah menggunakan RAM 10GB, berikut beberapa model yang sudah dihimpun Tekno Liputan6.com, Sabtu (27/10/2018).1, Black Shark HaloSmartphone gaming terbaru Xiaomi ini baru saja diperkenalkan beberapa hari lalu. Kendati demikian, Black Shark Halo mengusung spesifikasi RAM di atas rata-rata smartphone kebanyakan.Alasannya, varian yang paling tinggi dipersenjatai oleh RAM 10GB dan memori internal 256GB. Sama seperti smartphone premium lain, Xiaomi memakai chipset Snapdragon 845 untuk mempersenjatai perangkat ini.Dari sisi fotografi, Black Shark Helo memiliki dual camera 12MP+20MP (masing-masing mempunyai aperture f/1.8) dan kamera selfie 20MP dengan aperture f / 2.2.Sayangnya, harga Black Shark Helo versi 10GB dengan ROM 256GB belum diungkap. Selain varian 10GB, smartphone yang menjalankan Android 8.1 Oreo ini juga memiliki model dengan RAM 6GB dan 8GB.Tidak hanya Black Shark Halo, Xiaomi juga memiliki varian smartphone lain dengan RAM 10GB, yakni Mi Mix 3. Hadir sebagai flagship smartphone, Mi Mix 3 memiliki rasio screen-to-body sebesar 93,4 persen.Mirip Black Shark Halo, varian RAM 10GB Mi Mix 3 juga didukung dengan chipset Snapdragon 845.Varian RAM 10GB dengan memori internal 256GB ini merupakan versi khusus 'Forbidden City Palace Museum' yang dijual dengan harga US$ 720 (Rp 10,9 juta).Secara keseluruhan, Mi Mix 3 memiliki empat kamera, dua di depan dan dua di belakang. Kamera depannya beresolusi 24MP dan 2MP, sedangkan dua kamera belakangnya sama-sama beresolusi 12MP.Xiaomi turut membenamkan tombol khusus yang berfungsi untuk mengaktifkan asisten virtual Xiao AI. Smartphone ini dibekali dengan multi-function NFC, dual frequency GPS, dan 4x4 MIMO.Awalnya, Oppo Find X disebut-sebut akan menjadi smartphone pertama yang memiliki RAM 10GB. Namun begitu Xiaomi merilis Black Shark dan Mi Mix 3, prediksi itu dipastikan meleset.Kendati tidak sesuai prediksi sejumlah pihak, bukan berarti Oppo membatalkan kehadiran Find X varian RAM 10GB ini hadir ke pasaran. Terlebih, perangkat ini sudah terdaftar di TENAA (badan sertifikasi Tiongkok).Berdasarkan daftar TENAA, varian RAM 10GB ini akan dipadukan dengan memori internal 256GB. Sementara dari sisi jeroan lain, smartphone ini masih dibekali dengan chipset Snapdragon 845.Oppo Find X dibekali kamera utama ganda dengan resolusi 16MP dan 20MP. Sementara untuk kamera depannya, Oppo membekali Find X dengan kamera selfie 25MP.(Dam/Isk)Saksikan Video Pilihan Berikut Ini:Akses konten pornografi via perangkat mobile, khususnya smartphone, mengalami peningkatan seiring dengan semakin pesatnya pertumbuhan pengguna. Menurut laporan Juniper Research, sepanjang semester pertama 2015, ada sekitar 136 miliar video porno yang dito</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Istanbul - Rekaman video viral di dunia maya menampilkan kucing lucu duduk menjilat-jilat badannya sendiri di tengah sesi penampilan model berbusana desainer dalam Esmond International Fashion Show di Istanbul, Turki pada Jumat 26 Oktober 2018.Baca JugaOrang-orang di industri mode mungkin sangat sulit untuk dibuat terkesan, tetapi, mereka yang hadir di Esmod International Fashion Show, terkejut dengan kejadian itu. Tampaknya, kedatangan kucing yang entah dari mana asalnya di arena catwalk, menangkap perhatian penonton lebih dari pakaian yang dipamerkan.Pada awal rekaman, tampak kucing itu duduk di hulu panggung catwalk sambil menjilat-jilati dirinya.Ia dengan tenang membersihkan dirinya sebelum kemudian melakukan 'catwalk' di atas panggung di tengh hilir-mudik para model perempuan.Tidak jelas dari mana kucing itu berasal, atau bagaimana ia mendapat akses ke acara eksklusif itu.Tetapi, begitu si meong meletakkan langkah terbaiknya di atas catwalk, ia memukau penonton, demikian seperti dikutip dari The Independent's Indy 100, Minggu (28/10/2018).Ahahahahahah #catwalk #real #vakkoesmodA post shared by  H (@hknylcn) on Oct 25, 2018 at 7:20am PDT"Semua orang shock (terkesima)," kata perancang busana Goksen Hakki Ali kepada situs gaya hidup The Dodo tentang penampilan kucing tersebut.Setelah rekaman kucing dipasang ke Instagram, itu dengan cepat menjadi viral, dengan lebih dari 100.000 views.Ketika ditanya oleh The Dodo apakah kucing itu memiliki masa depan dalam dunia mode, perancang Hakki Ali mengatakan, "Haha, Mungkin! Kenapa tidak?"Simak video pilihan berikut:Warga di Jombang punya tradisi memandikan kucing untuk mendatangkan hujan pada musim kemarau.Kedutaan Besar Amerika Serikat di Canberra, Australia melayangkan permintaan maaf atas "kesalahan tak sengaja" yang dilakukan oleh pihaknya, setelah membagikan undangan pertemuan palsu, lengkap dengan foto kucing yang mengenakan piyama.Surat elektronik (surel) atau email berjudul "meeting" yang bikin geger itu, menampilkan foto kucing betina yang memakai pakaian Cookie Monster berwarna biru cerah.Hewan menggemaskan itu terlihat sedang duduk bersandar pada sebuah kursi sofa nan empuk, sembari memegang sepiring biskuit cokelat dan diberi judul "cat pyjama-jam".The US embassy in Australia accidentally sent out a cat photo instead of a meeting invite. https://t.co/NOHLA8RbjJ pic.twitter.com/NfqebepiIEDalam insiden salah kirim yang terjadi pada pekan lalu, email itu juga berisi bagian lain yang berbahasa Latin dan penerima diberi opsi untuk menekan tab RSVP.Tidak diketahui seberapa luas surel yang dikirim oleh Departemen Luar Negeri Amerika Serikat itu didistribusikan. Atas kejadian memalukan tersebut, dubes AS untuk urusan publik Australia, Gavin Sundwall, terus menyampaikan permohonan maaf."Maaf telah mengecewakan Anda yang berharap untuk menghadiri pesta 'cat pyjama-jam' ini, tetapi acara semacam itu berada jauh di luar bidang keahlian kami," tulisnya dalam email lanjutan, dua hari setelah peristiwa salah kirim tersebut."Itu adalah kesalahan yang dibuat oleh salah satu staf baru kami, ketika ia sedang menguji platform buletin email kedutaan," imbuhnya, sebagaimana dikutip dari media Australia, News.com.au, Selasa (16/10/2018).Dia menambahkan bahwa "kontrol manajemen baru yang kuat" akan diberlakukan, untuk mencegah terulangnya kesalahan serupa.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Sukabumi - Jembatan Asa yang berlokasi di Sukabumi, Jawa Barat, diresmikan oleh Komisaris Utama SCM Letjen Purnawirawan TNI R Soeyono, pada Senin, 22 Mei 2017, dengan penguntingan pita yang menandakan diresmikannya Jembatan Asa ke-13, yang dibuka untuk umum.Seperti ditayangkan Liputan 6 Pagi SCTV, Selasa (23/5/2017), dengan peresmian jembatan ini, masyarakat di dua desa yang dipisahkan sungai beraliran deras, bisa menyeberang dengan aman dan tanpa rasa was-was.Jembatan yang di buat enam bulan lalu ini menghubungkan dua desa di Sukabumi yakni Desa Sirnaresmi dan Desa Tanjungsari.Jembatan yang memiliki panjang 56 meter dan lebar 1,2 meter ini mampu menampung berat hingga 8 ton karena dibuat dari besi dan sling berkualitas tinggi.Warga pun kini bisa menyeberang dengan nyaman, baik berjalan kaki maupun menggunakan sepeda motor.Ucapan terima kasih disampaikan kepada pemirsa SCTV atas sumbangannya sehingga terealisasinya pembangunan Jembatan Asa ini.Dengan menghabiskan dana sebesar Rp 480 juta, Jembatan Asa Sukabumi ini diharapkan bisa menggantikan jembatan lama yang sudah mulai rusak terkikis usia di atas Sungai Leuwidinding.Saksikan video Jembatan Asa ke-13 SCTV di Sukabumi diresmikan.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta Pernahkah kamu mendapat momen tak terduga ketika memotret sesuatu? Beberapa orang yang pernah mengalaminya biasanya dibuat tak sadar atau dibuat tidak percaya dengan hasil foto mereka sendiri.Baca JugaItu bisa terjadi karena saat mengambil foto ternyata bisa ada momen tidak terduga serta menarik yang mungkin langka untuk didapatkanTernyata insiden mengejutkan semacam itu juga dialami oleh seorang fotografer asal Michigan, Amerika Serikat. Matthew Dipple membagikan foto pemandangan tebing hasil karyanya di jejaring Twitter pada Kamis (18/10/2018) lalu.Pemandangan tebing itu diambil di Taman Nasional Yosemite. Namun tidak hanya tebing saja, pada momen yang bersamaan Matthew juga mengambil hal tak terduga.Saksikan Video Pilihan di Bawah ini:Seorang warga merekam aksi pria memotret dua anaknya di tengah jalanan Hong Kong. Momen itu terjadi saat Topang Mangkhut melanda wilayah tersebut.Mendapati momen tersebut, ia pun langsung mencari siapa pasangan yang secara kebetulan masuk ke frame kameranya. Tapi hasilnya nihil. Kemudian ia mencari cara lain dengan meminta bantuan dari warganet.Tapi sayang meski unggahannya telah di-retweet sebanyak lebih dari 164 ribu kali, ia belum juga menemukan pasangan ini. Kira-kira siapa pasangan tersebut ya?Reporter: Muhammad Bimo ApriliantoSumber: Brilio.net</t>
-  </si>
-  <si>
-    <t>Paris - Kevin Sanjaya Sukamuljo/Marcus Fernaldi Gideon gagal merebut gelar Prancis Terbuka 2018 kandas setelah kalah dari wakil China, Han Chengkai/Zhou Haodong, 21-23, 21-8, 17-21, Minggu (28/10/2018). Menurut Minions, mereka terlalu banyak melakukan kesalahan sendiri pada gim ketiga.Pada pertemuan sebelumnya dengan Han/Zhou di China Terbuka 2018, Kevin/Marcus juga ditaklukkan dengan skor 19-21, 21-11, 17-21.Baca JugaPertandingan kedua pasangan ini berlangsung seru. Han/Zhou yang punya tipe permainan cepat dan kencang, terus menekan pertahanan Kevin/Marcus. Pada kedudukan 20-18 di gim pertama, Kevin/Marcus tak dapat menyelesaikan permainan, malah akhirnya kalah."Kami tetap bersyukur dengan hasil ini, dua pekan berturut-turut kami mencapai babak final. Mungkin tenaga kami juga terkuras," kata Marcus, di Stadion Pierre de Coubertin, seperti dilansir situs PBSI."Seharusnya kami bisa menang di gim pertama, kami kurang beruntung. Pada game ketiga saya banyak melakukan kesalahan sendiri. Tenaga kami terkuras banyak karena shuttlecock-nya berat, tidak seperti di Denmark. Di sini lebih banyak menggunakan tenaga," ujar Marcus yang pekan lalu bersama Kevin menjadi juara di Denmark Terbuka 2018.Kevin/Marcus mendapat pelajaran berharga dari kekalahan kontra Han/Zhou. Apalagi ini merupakan kekalahan beruntun dalam dua pertemuan melawan ganda China tersebut."Lawan bermain cepat dan tidak gampang dimatikan. Sebagai evaluasi, kami harus lebih tenang, tidak boleh panik kalau lagi tertekan, harus lebih pintar mengatur permainan," tambah Kevin."Saya rasa pencapaian kami di dua turnamen Eropa ini cukup bagus. Satu juara, satu runner-up kan tidak jelek. Tapi pasti ada yang harus dievaluasi lagi, masih ada yang kurang dan harus dipelajari lagi," imbuh Marcus.Setelah mengikuti tur Eropa di Denmark dan Perancis, para pebulutangkis Indonesia, termasuk Kevin Sanjaya Sukamuljo/Marcus Fernaldi Gideon, akan mengikuti ajang Fuzhou China Terbuka 2018 serta Hong Kong Open 2018.Ganda putra Indonesia, Kevin Sanjaya / Marcus Gideon berhasil mempertahankan gelar Jepang Terbuka usai mengalahkan ganda China.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta - Sebanyak 33 anak yang tergabung dalam Kelas Jurnalis Cilik mengadakan pameran foto di Kalibaru, Cilincing, Jakarta Utara. Pameran itu merupakan tugas akhir dari rangkaian pendidikan yang sudah berlangsung selama empat bulan.“Anak-anak di sini sebelumnya mengikuti pelatihan setiap minggu selama empat bulan tentang cara memproduksi foto, pesertanya mulai dari siswa SD sampai pelajar SMP,” ujar Ilyas Syamsudin selaku ketua pelaksana, Minggu (28/10/2018).Baca JugaPada pelatihan itu anak-anak belajar untuk memahami teknik dasar foto jurnalistik dan juga berbagai etika yang harus dijalani para pencari berita atau jurnalis. “Selain teknik, juga belajar etika. Biar anak-anak ini juga tahu dan memahami tugasnya,” ujar Ilyas.Apresiasi kepada anak-anak turut datang dari Ketua Yayasan Permai, Sony Kusumo, pada acara itu dirinya membeli dua foto hasil karya anak-anak. “Iya tadi ada dua foto yang akan saya bawa pulang, portrait anak-anak saat kumpul di kampung mereka,” ujar Sony Kusumo.Selain itu, Sony Kusumo juga akan mengajak 33 anak-anak beserta pendampingnya untuk nonton film Impian 1000 Pulau. “ Momentumnya pas, ada film bagus tentang anak-anak pesisir semoga bisa jadi inspirasi mereka,” lanjut Sony Kusumo.Kelas Jurnalis Cilik sendiri diadakan pada tahun ini. Ada sebanyak 109 foto yang dipamerkan pada puncak acara pameran. Rencananya Kelas Jurnalis Cilik juga akan diadakan di berbagai lokasi untuk memberikan pelatihan kepada anak-anak.Fotografer profesional Indonesia sekaligus CEO SweetEscape David Song mengungkap pendapat tentang kamera Galaxy S9 yang bisa membuat siapapun bisa menciptakan karya fotografi.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Yogyakarta - Ketua Umum Partai Demokrat sekaligus Presiden Ke-6 RI Susilo Bambang Yudhoyono (SBY) meminta Presiden Joko Widodo atau Jokowi menjelaskan alasan menggratiskan tarif tol Jembatan Surabaya Madura (Suramadu)."Karena saya tahu sekarang timbul polemik pro dan kontra dari kalangan masyarakat, Pak Jokowi bisa menjelaskan alasan beliau. Mengapa khusus biaya tol Jembatan Suramadu itu digratiskan?" kata SBY seusai acara temu kader Partai Demokrat se-DIY di Kulon Progo, Minggu 28 Oktober 2018.Baca JugaMenurut dia, Jokowi dapat menjelaskan latar belakang menggratiskan biaya tol jembatan yang menghubungkan Pulau Jawa dan Pulau Madura itu, apakah berdasarkan pertimbangan ekonomi, pertimbangan sosial, atau pertimbangan yang lainnya.Dia percaya, dengan penjelasan itu, dapat menghindarkan persepsi yang salah serta polemik yang berkepanjangan di kalangan masyarakat soal penggratisan Jembatan Suramadu."Rakyat ini kan hanya ingin mendengarkan mengapa hanya Suramadu yang digratiskan. Belakangan saya juga mendengar ada yang meminta (Tol) Jagorawi juga digratiskan karena sudah lama dan dianggap sudah untunglah pengembangnya sehingga bisa membantu rakyat," ujar SBY seperti dilansir Antara.Kendati demikian, SBY tidak ingin terburu-buru mengatakan pembebasan biaya Tol Suramadu itu merupakan kebijakan yang salah."Ya kalau itu kebijakan Presiden Jokowi saya tidak boleh terburu-buru mengatakan kebijakan itu salah karena setiap presiden memiliki hak dan kewenangan untuk menetapkan kebijakan atau mengubah sebuah kebijakan yang ada," tutur SBY.Dia mengklaim, pemerintahannya telah melanjutkan pembangunan Jembatan Suramadu setelah terhenti pada era Presiden Megawati.Menurut dia, pembangunan Suramadu terhenti karena dua hal, yakni kurangnya alokasi anggaran di APBN serta terhentinya kerja sama pembangunan jembatan itu dengan Tiongkok."Segera kami carikan solusi dua-duanya dan pembangunan kita lanjutkan hingga akhirnya Tahun 2009 bisa kita resmikan," tutur SBY, menjelaskan tahap pembangunan jembatan itu.Presiden Joko Widodo atau Jokowi menegaskan, pembebasan tarif Jembatan Tol Surabaya-Madura (Suramadu) untuk mendongkrak pertumbuhan ekonomi. Dia membantah kebijakan tersebut sebagai upaya mendulang suara dari warga Madura pada Pilpres 2019."Ya kalau kita mau urusan politik nanti saya gratiskan bulan Maret saja, tahun depan. Gitu lho. Jangan apa-apa dikaitkan dengan politik. Ini urusan ekonomi, investasi, kesejahteraan, dan keadilan," tegas Jokowi di Tol Suramadu, Jawa Timur, Sabtu (27/10/2018).Jokowi menjelaskan, pembebasan tarif Jembatan Tol Suramadu bermula dari masukan dan desakan tokoh masyarakat, ulama, serta kiai Madura. Masukan tersebut bergulir sejak 2015."Ini awal-awal 2015 ada masukan, keinginan dari para ulama, kiai, habaib yang ada di sini. Tokoh-tokoh di Ikama (Ikatan Keluarga Madura) juga menyampaikan dan sudah saya sampaikan ke Pak Gubernur (Jawa Timur) dan saya hitung. Khusus untuk sepeda motor saat itu masih masuk. Oke, sepeda motor digratiskan," terang Jokowi.Kemudian pada 2016, Jokowi mengaku mendapat masukan lagi. Kali ini permintaan agar tarif Jembatan Tol Suramadu dipotong 50 persen."Pada 2016 ada masukan lagi, 'Pak ini membebani terutama untuk truk, bus, angkutan-angkutan barang. Mohon dipotong minimal 50 persen', kita potong," kata Jokowi.Ternyata, lanjut dia, pemotongan tarif 50 persen tidak berdampak signifikan pada pertumbuhan ekonomi Surabaya dan Madura. Bahkan pemasukan Jembatan Tol Suramadu setiap tahun hanya mencapai Rp 120 miliar."Setelah kami hitung berapa sih pemasukan setahun jalan tol ini? Juga enggak banyak dan ini dibangun dari APBN. Oleh sebab itu, kita putuskan dengan harapan ketimpangan dan kemiskinan bisa diatasi," ujar Jokowi.Presiden menyatakan keputusan ini berdasarkan masukan dari berbagai pihak dengan tujuan untuk meningkatkan perekonomian di kawasan Pulau Madura.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta - Anggota Dewan Pengarah Tim Kampanye Nasional Jokowi-Ma'ruf Amin, M Romahurmuziy mengaku punya strategi khusus untuk melawan hoaks yang digulirkan kubu Prabowo-Sandiaga dalam Pilpres 2019. Dia mengaku sudah hapal betul cara-cara yang bakal diluncurkan.Terlebih, Ketum PPP tersebut pernah berada di kubu Prabowo Subianto pada 2014. PPP merupakan salah satu partai pengusung Prabowo-Hatta pada saat itu.Baca Juga"Apa-apa yang mereka lakukan saya sudah hapal dan itu akan menjadi bagian solusi tim kampanye nasional," ujar pria yang akrab disapa Romi di sela Rakernas TKN Jokowi-Ma'ruf di Surabaya, Jawa Timur, Minggu (28/10/2018).Dia pernah menyebut, tabloid Obor Rakyat sengaja diciptakan untuk menyerang Jokowi. Dia menyebut tabloid itu disebarkan ke masjid dan pesantren untuk membuat citra Jokowi sebagai komunis atau anggota PKI.Terpisah, Wakil Ketua TKN Jokowi-Ma'ruf Abdul Kadir Karding mengklaim dapat informasi kubu Prabowo-Sandi bakal memakai cara sama di Pilpres 2019. Menurutnya, tim pemenangan Prabowo masih memakai konsultan asing seperti 2014 lalu.Dia menambahkan, kubu Prabowo memakai cara Donald Trump memenangkan Pemilu AS 2016. Seperti membuat kebohongan, menuduh pemerintah gagal, dan merepetisinya supaya merusak pemikiran masyarakat."Ini akan diulang lagi karena mereka pakai konsultan asing dan cara-cara yang dipakai pemenangan ala Trump," kata Politikus PKB itu.Reporter: Ahda BayhaqiPasangan calon presiden (capres) dan calon wakil presiden (cawapres) Jokowi-KH Ma'ruf Amin berserta Prabowo Subianto-Sandiaga Salahuddin Uno membacakan deklarasikan kampanye damai Pilpres 2019.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta Kualitas hidup pasangan suami istri mengalami peningkatan bila dapat melakukan hubungan seks yang disertai dengan orgasme.Baca JugaSaat orgasme, perasaan jadi lebih menyenangkan karena telah terjadi pelepasangan ketegangan yang disertai dengan kontraksi involunter dan ritmisdari otot-otot dasar panggul.Namun tidak semua hubungan seks disertai dengan orgasme kedua belah pihak. Baik wanita maupun pria pasti pernah mengalami hal ini. Walaupun mayoritas sering dialami oleh wanita. Hal ini dapat disebabkan oleh berbagai hal misalnya: kecemasan, stres, obat-obatan, dsb.Terutama pada wanita, stimulasi yang adekuat dan cukup sebelum penetrasi sangatlah penting untuk mencapai orgasme.Berikut adalah beberapa gangguan orgasme yang terjadi baik pada pria maupun wanita:Gangguan Orgasme Dalam Medis Pada WanitaGangguan Orgasme Dalam Medis Pada PriaPenulis : Klik Dokter</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta - Kondisi lalu lintas di beberapa kota besar di Indonesia, termasuk Jakarta memang cukup memprihatinkan. Kondisi padat alias macet, bisa membuat pengendara lebih cepat emosi dan stres.Selain itu, kondisi lalu lintas yang padat juga bisa mempengaruhi usia komponen sepeda motor. Dengan kondisi seperti itu, cara berkendara pun sedikit berbeda dengan kondisi jalanan lancar. Hal tersebut, dirasakan oleh semua pengendara sepeda motor, khususnya bagi pengendara motor skuter matik (skutik) yang saat ini semakin mendominasi dan banyak digunakan di Indonesia.Baca JugaNah, berikut tips berkendara dengan menggunakan skutik saat kondisi jalanan macet:1) Perhatikan gas dan remHal pertama yang wajib diperhatikan oleh Anda yang mengendarai motor matik adalah gas dan rem. Supaya rem bisa tetap awet, usahakan sebisa mungkin tidak menahan rem dan menarik gas pada saat yang bersamaan.Jangan menekan rem dalam posisi gas terbuka. Kalau memang ingin menarik gas silakan gas, begitupun saat ingin menekan rem, gas ditutup terlebih dahulu. Kenapa? Karena kalau hal ini terus dilakukan, komponen kopling ganda tidak hanya berisiko rusak, risiko terbakar juga bisa terjadi.Kebiasaan yang kurang baik ini juga bisa membuat piringan cakram menjadi lebih cepat habis (tipis).2) Cukup gunakan dua jari saat mengeremKetika mengerem usahakan cuma ada dua jari yang melakukannya, yaitu jari telunjuk dan jari tengah. Ketiga jari sisanya bisa difungsikan untuk menahan badan saat melakukan rem mendadak. Untuk posisi tangan, sebaiknya lebarkan lengan dengan kemiringan 45 derajat supaya bisa menahan beban tubuh ketika Anda melakukan rem mendadaki.Begitulah cara berkendara menggunakan motor matik ketika terkena kemacetan. Jika Anda ingin lebih nyaman lagi, usahakan jaga jarak aman dengan kendaraan di depan Anda.Honda SH150i vs Piaggio Medley. Walau keduanya diimpor dari Vietnam dan memilikin desain bergaya khas Eropa. Yuk kita lihat perbandingannya.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta - Gubernur Jawa Barat Ridwan Kamil mengaku terus berupaya mendekatkan dirinya ke masyarakat. Salah satu caranya dengan menghadiri undangan pernikahan warga nya.Bahkan, kata dia, bila perlu menjadi saksi nikah bagi para pasangan suami istri yang akan menikah.Baca Juga"Ini penting, jadi saksi nikah penting. Jadwal saya jadi saksi nikah sudah padat sampai lima tahun ke depan," kata Ridwan Kamil saat menjadi pembicara di acara Milenial Fest di Djakarta Theater, Jakarta, Minggu (28/10/2018).Menurut pria yang akrab disapa Emil ini, dengan begitu warga bisa merasa dekat dengan pemimpin dan membahagiakan warganya.Selain mendatangi undangan pernikahan warga, Emil mengaku juga kerap mendatangi acara nonton bareng yang diadakan oleh wargnya.Misalnya menonton pertunjukan dan festival seni yang digelar oleh warga Jawa Barat."Jadi tidak lagi membosankan. Jadi kebahagiaan adalah number one goal," ucap Emil.Gubernur Jawa Barat Ridwan Kamil menyesalkan adanya insiden pembakaran bendera tauhid oleh sekelompok warga.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta - KPK menjadwalkan pemeriksaan eks Sekretaris Mahkamah Agung (MA) Nurhadi pada hari ini, Senin (29/10/2018). Penyidik lembaga antirasuah itu juga akan memeriksa istrinya Nurhadi, Tin Zuraida.Keduanya akan diperiksa dalam kasus dugaan pemberian hadiah atau janji kepada penyelenggara negara terkait pengurusan pengajuan Peninjauan Kembali di Pengadilan Jakarta Pusat.Baca Juga"KPK merencanakan pemeriksaan terhadap Nurhadi dan Tin Zuraida untuk tersangka ESI (Eddy Sindoro) pada Senin (29/10)," kata Juru Bicara KPK Febri Diansyah di Jakarta, Minggu 28 Oktober 2018, seperti dilansir Antara.Sebelumnya, KPK sudah pernah memeriksa Nurhadi dalam perkara yang sama untuk tersangka lainnya pada 24 dan 30 Mei serta 3 Juni 2016. Sedangkan Tin Zuraida yang merupakan mantan kepala Pusat Pendidikan dan Pelatihan Manajemen dan Kepemimpinan Badan Litbang Diklat Hukum dan Peradilan MA sudah pernah diperiksa pada 1 Juni 2016.Febri pun meminta keduanya kooperatif dan datang memenuhi panggilan penyidik KPK. "Kami imbau agar saksi-saksi datang memenuhi panggilan sebagai kewajiban hukum," tambah dia.Sepanjang 2004-2009, rata-rata arus keluar masuk uang di salah satu rekening Tin Zuraida mencapai Rp 1 miliar-Rp 2 miliar setiap bulan. Sementara pada periode 2010-2011, ada belasan kali uang masuk ke rekening Tin dengan nilai Rp 500 juta.Nurhadi juga terdeteksi pernah memindahkan uang Rp 1 miliar ke rekening istrinya. Selanjutnya, pada 2010-2013, Tin pernah menerima setoran tunai Rp 6 miliar.Eddy mengaku akan mengikuti seluruh proses hukum di KPK.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta - Presiden Joko Widodo atau Jokowi membuka Festival Keraton dan Masyarakat Adat Asean (FKMA) Asean. Acara digelar di Keraton Sumenep, Madura, Jawa Timur.Jokowi tiba pukul 15.50 WIB, Minggu (28/10/2018). Dia datang didampingi Ibu Negara Iriana. Keduanya menggunakan baju adat Jawa Tengah. Hadir juga Menteri Pariwisata Arief Yahya.Baca Juga"Dengan mengucapkan bismillahirrahmanirrahim, saya buka Festival Keraton dan Masyarakat Adat Asean ke V," kata Jokowi di Keraton Sumenep, Jawa Timur, Minggu (28/10/2018).Dia berpesan, seluruh hadirin FKMA harus menjaga persatuan, persaudaraan dan kerukunan. Mantan Gubernur DKI Jakarta tersebut mengatakan, tiga hal itu merupakan aset terbesar bangsa Indonesia.Dia juga mengingatkan, meski berbeda agama, suku, adat, dan tradisi, seluruh rakyat Indonesia harus saling menghargai."Betapa kita bisa melihat sekarang ini perbedaan kita. Beda agama, adat, tradisi, suku. Inilah anugerah yang diberikan Allah kepada kita bangsa Indonesia. Berbeda suku, agama, adat, tradisi tapi ini akan jadi potensi dan kekuatan apabila kita bersatu, rukun," jelas Jokowi.Pria kelahiran Solo, Jawa Tengah ini menekankan, seluruh rakyat Indonesia jangan mudah terjebak pada ujaran kebencian, fitnah, dan hoaks. Menurutnya, perilaku fitnah dan saling membenci bukan ajaran nenek moyang dan para pendiri bangsa."Itu tidak diajakan nenek moyang, leluhur, para sultan dan kerajaan kita yang lalu. Mari majukan peradaban yang terhormat dan beradab," kata Jokowi.Dia menegaskan, kemajuan bangsa di bidang teknologi harus disertai dengan kearifan lokal. Jangan sampai kearifan lokal perlahan-lahan punah digilas zaman."Jangan sampai Indonesia maju dalam teknologi tapi mundur dalam kebudayaan, peradaban. Jangan sampai terjadi. Kemajuan harus terus berakar pada kearifan lokal," pesan Jokowi.FKMA yang diikuti 300 raja dan sultan dari seluruh Nusantara ini bertujuan menjaga tali silaturahmi antarkeraton, serta meningkatkan peran sebagai warisan budaya bangsa. Perhelatan FKMA didahului dengan kegiatan road show di lima Keraton, yakni Solo, Medan, Mempawah, Ternate, dan Denpasar.FKMA ini merupakan kali kelima setelah digelar di Bandung, Jawa Barat pada tahun lalu. Berbeda dengan sebelumnya, FKMA ini tidak hanya menampilkan budaya keraton dari berbagai daerah, tapi juga budaya luar negeri.Perdana Menteri Malaysia Mahathir Mohamad tiba di Indonesia. Presiden Jokowi didampingi oleh Ibu Negara, Iriana Jokowi, Menteri Luar Negeri Retno Marsudi, Menko Polhukam Wiranto, dan beberapa pejabat menjemput Mahathir Mohamad di Bandara Halim Perdan...</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta Sekretaris Jenderal MPR RI Ma'ruf Cahyono sangat mengapresiasi kegiatan Diponegoro Law Fair 2018 (DLF 2018) bertema 'Hukum, Moralitas dan Kekuasaan' hasil kerjasama MPR RI dengan Fakultas Hukum Universitas Diponegoro (FH Undip) yang digelar di Hari Sumpah Pemuda tanggal 28 Oktober 2018.Berbagai kegiatan dalam DLF 2018 yang diikuti sekitar 24 perguruan tinggi negeri dan swasta perwakilan beberapa provinsi yakni Seminar Nasional, lomba Debat Internal, Debat Nasional, Contract Drafting dan Legislative Drafting, menurut Ma'ruf Cahyono sangat luarbiasa bermanfaat.Baca Juga"Atas nama Pimpinan MPR, saya berterima kasih kepada FH Undip. Sebab, dengan kegiatan tersebut secara langsung atau tak langsung membantu tugas-tugas MPR yang diamanahkan UU MD3 antara lain terkait pengkajian terhadap ketatanegaraan, melakukan pengkajian konstitusi, menyerap aspirasi masyarakat dan sekaligus melakukan pendidikan konstitusi serta politik kepada masyarkat," katanya.Diungkapkan Ma'ruf, kegiatan tersebut semakin luarbiasa dan akan berdampak bagus karena dilakukan di momen tepat untuk pemuda Indonesia yakni Hari Sumpah Pemuda 28 Oktober. "Di hari itu, generasi muda diajak untuk betul-betul berkarya sesuatu yang penting dan fundamental terkait tugas-tugas MPR," ucapnya.Dalam proses berjalannya kegiatan terutama saat lomba, terlihat luarbiasanya kemampuan intelektualitas para peserta, yang intinya mampu memberikan kontribusi dalam bentuk analisa dan wacana berpikir mengembangkan konsepsinya untuk kepentingan memberikan masukan terkait dengan implementasi nilai-nilai moral, implementasi hukum dan Kekuasaan."Kita saksikan bersama tadi betapa anak-anak muda ini mampu mengembara di alam pemikiran yang sangat filosofis dibidang hukum, politik bahkan sosiologis," imbuhnya.Para anak muda itu, lanjut Ma'ruf, bisa menangkap ada kesenjangan terkait moral, hukum dan kekuasaan yang sangat saling terkait di Indonesia . Keterkaitannya adalah hukum harus berlandaskan moral dan kekuasaan harus berlandaskan hukum."Mereka para peserta mampu menangkap itu semua. Sehingga menjadi satu khasanah dan wacana yang bisa ditangkap MPR menjadi satu konseptual pemikiran yang bagus yang tentu akan memperkaya tugas-tugas MPR ke depannya," tandasnya.Dalam kegiatan DLF 2018 tersebut, Ma'ruf Cahyono didaulat menjadi anggota Dewan Juri lomba Debat Nasional, menutup secara resmi rangkaian DLF 2018 dan memberikan hadiah secara simbolik kepada para Juara lomba Debat Nasional DLF 2018 yakni Universitas Brawijaya sebagai Juara 1 dan Universitas Katolik Parahiyangan sebagai runner up serta memberikan hadiah Juara Umum DLF 2018 kepada Universitas Negeri 11 Maret.Acara DLF 2018 yang digelar di aula BPSDMD Provinsi Jawa Tengah, Minggu (28/10/2018) ini sendiri adalah dalam rangka kegiatan Pekan Hukum Nasional FH Undip sejak tanggal 26-28 Oktober 2018.Selain dihadiri oleh Sesjen MPR, juga dihadiri Wakil Ketua Badan Pengkajian MPR RI Prof. Hendrawan Supratikno, Kepala Biro Pengkajian Setjen MPR RI Yana Indrawan, perwakilan Rektor Undip, jajaran civitas akademika FH Undip serta disaksikan ratusan mahasiswa Undip dan mahasiswa perguruan tinggi seputar Kota Semarang.(*)</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta – Pengkuan penyanyi asal Irlandia Sinead O'Connor jika dirinya telah memeluk Islam menjadi pemberitaan di sejumlah negara. Di luar pengakuan O'Connor tersebut, rupanya Irlandia punya keindahan alam yang tak kalah dibanding negara lain.Irlandia terletak di bagian barat laut Eropa. Dilansir dari wol.jw.org, Minggu (28/10/2018), Irlandia mendapat julukan Pulau Zamrud karena curah hujan yang tinggi membuat daerah pinggiran negeri itu berwarna hijau terang. Pemandangan danau dan sungai, tebing-tebing tinggi di pesisir, dan bukit-bukit memperkaya keindahan alam Irlandia.Baca JugaOrang Irlandia terkenal hangat dan ramah. Kebanyakan orang mengisi waktu dengan berkuda dan memainkan olahraga tim, seperti kriket (sejenis kasti), rugbi (sejenis bola tangan), sepak bola, dan sepak bola Gaelik.Para wanita biasanya menyukai olahraga tim yang disebut camogie, permainan lapangan yang masing-masing pemainnya menggunakan tongkat untuk mengoper bola dan berusaha mencetak gol seperti dalam sepak bola.Berikut sejumlah lokasi wisata di Irlandia yang sangat memesona.Lokasi ini merupakan kolom basalt yang terbentuk akibat letusan vulkanik yang terletak di County Antrim, pantai timur laut Irlandia Utara. Tempat ini juga dinyatakan sebagai Situs Warisan Dunia Unesco pada 1986.Lokasi wisata yang indah ini buka tiap hari mulai pukul 9.00 hingga pukul 18.00 waktu setempat. Harga tiket untuk masuk tempat ini beragam, khusus orang dewasa sebesar 11,50 poundsterling, sedangkan untuk anak-anak 5,75 poundsterling.Bangunan ini merupakan menara batu bulat pada titik tengah perkiraan tebing yang dibangun oleh Sir Kornelius O'Brien. Ia merupakan orang keturunan Irlandia. Pengunjung dapat melihat Pulau Aran dan Galdway Bay. Tempat ini buka tiap hari.Mussenden Temple adalah salah satu tempat yang tidak pernah Anda lupakan. Kuil itu sendiri megah dan terletak di salah satu lokasi paling menakjubkan di Irlandia yang pernah menjadi lokasi syuting Game of Thrones. Sebelumnya, seorang uskup menggunakan bangunan ini untuk perpustakaan.Mussenden Temple ini berdiri di tepi tebing yang terjal. Tempat ini buka tiap hari dengan harga tiket 4,70 poundsterling untuk dewasa, sedangkan anak-anak 2,35 poundsterling.Saksikan video pilihan di bawah ini:Sinead O'Connor mengunggah pengumuman di akun Twitternya bahwa ia telah memeluk agama Islam.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Bekasi - Ribuan warga kabupaten dan Kota Bekasi memadati Gedung Oso Sport Center, Grand Wisata, Tambun Selatan, Bekasi. Mereka datang untuk mendapatkan pengobatan gratis, berupa pengobatan umum dan gigi.Selain pemeriksaan kesehatan, obat-obatan juga dibagikan gratis kepada para pasien.Seperti ditayangkan Liputan 6 Pagi SCTV, Selasa (23/5/2017), bakti sosial yang digelar bersama PTIK ini dilakukan dalam rangka dies natalis ke-71 ilmu kepolisian itu.Melihat tingginya antusiasme warga yang membutuhkan bantuan, Ketua Bhayangkari cabang PTIK berharap akan kembali bekerja sama dengan Yayasan Pundi Amal Peduli Kasih SCTV-Indosiar, agar bisa membantu meringankan beban masyarakat yang tak mampu.Warga yang hadir mengaku senang dengan adanya pengobatan gratis ini. Salah satunya Anang, yang mendapatkan obat untuk matanya yang bermasalah.Yayasan Pundi Amal Peduli Kasih akan terus membangun dan menjadi bagian dari sebuah perubahan di negeri ini, karena kepedulian kita harapan mereka.Saksikan video Pundi Amal Peduli Kasih menggelar pengobatan gratis di Bekasi.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta - Presiden Joko Widodo atau Jokowi berharap, Timnas Indonesia U-19 menang melawan Jepang pada babak 8 besar Piala AFC U-19 2018. Laga sepakbola ini digelar di Stadion Utama Gelora Bung Karno, Senayan, Jakarta, malam nanti."Menang. Harapan kita skornya menang, angkanya terserah yang penting menang," kata Jokowi di Pendopo Delta Wibawa Sidoarjo, Jawa Timur, Minggu (28/10/2018).Baca JugaJokowi mengaku akan menyaksikan pertandingan Timnas Indonesia U-19 melawan Jepang melalui layar televisi. Dia tak bisa menyaksikan pertandingan secara langsung di GBK. "Nonton lewat TV saja," ujar dia.Jokowi berharap, Timnas Indonesia U-19 optimis untuk menang. Para pemain juga harus tetap semangat dan pantang menyerah."Pemuda U-19 harus optimis berikan yang terbaik untuk bangsa Indonesia, rakyat Indonesia," Jokowi menandaskan.Timnas Indonesia U-19 bertemu Jepang dalam upaya mewujudkan target lolos ke Piala Dunia U-20 2019 di Stadion Utama Gelora Bung Karno (SUGBK), Minggu (28/10/2018)."Pertandingan besok malam, untuk Indonesia adalah pertandingan yang baru pertama kali selama 40 tahun. Bagi kami, perjalanan di fase grup, termasuk drama-drama yang terjadi, akan membuat tim secara mental dan kesiapan jauh lebih baik," kata Indra Sjafri di ruang konferensi pers SUGBK, Sabtu (27/10/2018).Dia enggan berbicara kemungkin buruk. Ia hanya ingin bicara mengenal hal-hal yang optimistis agar menciptakan suasana positif dalam skuat Indonesia."Saya tiap hari mengajak untuk memunculkan aura-aura positif, jangan soal masa lalu yang gagal, nanti pas malaikat lewat bisa diamini. Sekarang harus optimistis. Kami harus berjuang. Hasil pertandingan kita tidak bisa memprediksi. Peluang untuk Jepang ada, peluang untuk Indonesia juga ada," kata Indra.Reporter: Titin SupriatinSumber: Merdeka.comTimnas Indonesia U-19 dengan Semangat Sumpah Pemuda Sebelum Hadapi Jepang</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta - Kursi Wakil Gubernur DKI Jakarta masih kosong sepeninggalan Sandiaga Uno untuk maju dalam Pilpres 2019. Presiden Partai Keadilan Sejahtera (PKS) Mohammad Sohibul Iman mengatakan segera bertemu dengan Ketua Umum Partai Gerindra Prabowo Subianto untuk membicarakan pengganti Sandiaga."Saya kira ini masih membutuhkan waktu komunikasi, saya sudah di pekan ini sudah meminta waktu kepada Pak Prabowo untuk bisa bertemu untuk meng-clear-kan masalah ini," kata Sohibul di DPP PKS, Jalan TB Simatupang, Jakarta Selatan, Minggu 28 Oktober 2018.Baca JugaSohibul menjelaskan, saat Sandiaga meninggalkan kursi Wakil Gubernur DKI, sekretaris daerah (sekda) menyerahkan surat pemberitahuan jika pengunduran diri sudah diterima Presiden dan pemerintah provinsi.Surat itu diberikan kepada PKS dan Gerindra sebagai partai pendukung Sandiaga saat maju menjadi Wakil Gubernur DKI."Karena itu Sekda menyurati partai dalam hal ini PKS dan Gerindra untuk mengajukan calonnya, itu secara proses jadi ini masih di dalam batas-batas aturan," ujarnya.Dia juga menegaskan, kursi Wakil Gubernur DKI adalah milik PKS. Hal itu, lanjut dia, sesuai dengan kesepakatan antara PKS dan Gerindra."Proses di internal PKS dan Gerindra, saya katakan bahwa Pak Prabowo dihadapan kami dihadapan Ustad Salim dan dihadapan saya sudah menyatakan menjelang pencapresan itu bahwa Bang Sandi mundur dari DKI dan kemudian wagub ini diserahkan menjadi haknya PKS, tentu ini ada proses," kata Sohibul Iman.Pihaknya juga akan menyiapkan dua nama calon wakil gubernur. "Karena itu dibilang ini milik PKS, ya tentu dua-duanya PKS, kalau ada non PKS banti bisa ga dapet gitu, ini nanti tinggal ketemu," ucap Sohibul Iman.Reporter: Sania MashabiSumber: Merdeka.comAnies mengenang Sandi sebagai wakil gubernur yang aktif dan selalu memikirkan orang banyak.</t>
+    <t>Makassar - Enam orang joki tes seleksi CPNS Kementerian Hukum dan Hak Azasi Manusia (Kemenhunkam) berhasil diamankan Polda Sulsel. Keenam pelaku adalah Musriadi, Dokter Wahyudi, Martin Tumpak, Ahmad Lutfi, Hamdi Widi, dan Adi Putra. Penangkapan dilakukan secara bergiliran saat pelaksanaan tes CPNS di Aula Kantor RRI, Jalan Riburane, Kota Makassar, Minggu (28/10) kemarin.Awalnya yang berhasil ditangkap empat joki. Setelah perhatikan, verifikasi antara berkas dengan nomor registrasi peserta sampai KTP-nya, ternyata berbeda.Baca Juga“Gambar wajahnya berbeda dengan joki ini. Setelah itu kami amankan dan mereka mengakui," kata Kabid Humas Polda Sulsel Kombes Pol Dicky Sondani dalam jumpa pers di Mapolrestabes Makassar seperti dikutip laman Jawapos.com, Senin (29/10/2018).Keempat joki yang ditangkap adalah Martin Tumpak, Ahmad Lutfi, Hamdi Widi dan Adi Putra. Dari hasil pemeriksaan keempatnya, polisi kemudian menangkap Musriadi yang merupakan peserta tes seleksi CPNS. Serta menangkap Dokter Wahyudi yang berperan sebagai broker atau penghubung."Ternyata setelah kami melakukan penyelidikan dari Wahyudi, kami dapatkan hasil kalau yang bersangkutan berperan untuk memfasilitasi joki untuk bekerja menggantikan peserta asli," jelasnya.Kapolrestabes Makassar Kombes Pol Irwan Anwar menambahkan, Dokter Wahyudi sendiri menjabat sebagai Kepala Tenaga Kesehatan di Unit Pelaksana Tugas (UPT) salah satu Badan Usaha Milik Negara (BUMN) di Makassar."Jadi yang bersangkutan membuka praktik semacam les privat untuk tes seleksi CPNS. Musriadi kemudian meminta kepada yang bersangkutan untuk dibantu temannya supaya bisa lulus tes. Yang bersangkutan mencarikan empat joki untuk menggantikan peserta, temannya Musriadi ini," jelas Irwan.Keempat joki tersebut merupakan lulusan dari universitas ternama di lndonesia. Hasil penyelidikan ditemukan fakta bahwa mereka merupakan sindikat joki nasional."Kami periksa lebih dalam, ternyata mereka bukan kali ini saja melakukan aksinya. Dalam beberapa tahun terakhir setiap tes penerimaan CPNS, mereka bertugas juga sebagai joki. Itu di wilayah Indonesia," ucap Irwan.Setiap joki mendapat imbalan Rp 10 juta hingga Rp 40 juta apabila peserta dinyatakan lulus. Jika tidak, joki hanya mendapat 50 persen. Sementara Dokter Wahyudi sebagai broker mendapat imbalan Rp 125 juta hingga Rp 150 juta.Sejauh ini, polisi masih melakukan upaya pendalaman. Tujuannya untuk mencari pelaku lain yang diduga masih berada dalam satu jaringan joki nasional.Selain menahan para pelaku, polisi menyita seluruh barang bukti berupa berkas adiministasi. Akibat perbuatan melawan hukumnya, pelaku disangkakan melanggar pasal 263 ayat 1 dan 2, juncto pasal 55 ayat 1 KUHP dengan ancaman penjara maksimal 6 tahun.Simak juga berita Jawapos.com lainnya di sini.Simak juga video pilihan berikut ini:Pesawat Lion Air JT 610 yang jatuh di perairan Karawang, Jawa Barat mulai ditemukan.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta AC Milan menang 3-2 atas Sampdoria di San Siro pada giornata ke-10 Serie A, Senin (29/10) dini hari WIB. AC Milan akhirnya mampu keluar dari performa buruk setelah menelan dua kekalahan beruntun.Pada laga tersebut, AC Milan tampil dengan cara bermain yang berbeda. Gattuso memilih untuk menanggalkan formasi 4-3-3 yang selama ini menjadi andalannya. Sebagai gantinya, Gattuso memakai formasi 4-4-2 di laga tersebut.Baca JugaPelatih berusia 40 tahun menduetkan Gonzalo Higuain dan Patrick Cutrone di lini serang. Kedua pemain pun tampil bagus dengan masing-masing mencetak satu gol. Satu gol Milan lainnya dicetak oleh Suso.Selain hasil buruk di dua laga terakhir, Gattuso membuat perubahan taktik karena 'terpaksa'. Pasalnya, ada sejumlah pemain AC Milan yang cedera dan dia pun harus membuat perubahan formasi. Tapi, hasilnya cukup baik.CEO AC Milan Puji Kinerja Gennaro GattusoMenurut Gennaro Gattuso, cedera yang dialami oleh Giacomo Bonaventura membuat dia harus mengubah formasi menjadi 4-4-2. Meskipun meraih hasil positif atas Sampdoria, Gattuso belum menjamin formasi ini akan dia terapkan secara permanen."Kami bermain dengan 4-4-2. Tapi, Suso dan Diego Laxalt tidak bergerak seperti pemain sayap murni. Kami melakukannya dengan baik, beradaptasi dan tampil dengan tim terbaik yang ada. Kemarin Bonaventura cedera," buka Gattuso pada Sky Sports."Saya tidak tahu apakah ini adalah awal dari era baru. Saya hanya fokus untuk bisa mendapatkan yang terbaik. Saya sadar bahwa fans dan media berharap banyak dari kami. Saya harus menjaga skuat ini tetap tenang," tandas Gattuso.Hasil melawan Sampdoria ini membuat Gennaro Gattuso bisa bernafas lebih lega. Pasalnya, sebelum laga dia dilanda rumor pemecatan. Gattuso disebut bakal segera dipecat lantaran kalah dari Inter Milan dan Real Betis secara beruntun."Adalah hal yang normal terjadi ketegangan pasca Anda kalah dari Inter dan kemudian kalah di Liga Europa. Saya harus berterima kasih pada pemain untuk kinerja, karakter dan kualitasnya. Kami harus terus bekerja," tandas Gattuso.Sumber: bola.net</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta - Wakil Presiden Republik Indonesia Jusuf Kalla atau JK mengimbau seluruh maskapai penerbangan selaku operator dan regulator penerbangan memperketat prosedur dan tata kelola dunia penerbangan di Indonesia.Imbauan ini untuk mencegah terulangnya kecelakaan pesawat Lion Air JT 610 yang jatuh di perairan Tanjung Karawang.Baca Juga"Mudah-mudahan ini memberikan kita semua dorongan agar baik perusahaan juga regulator atau pengawas ini, lebih ketat lagi menjaga sistem (penerbangan) kita," kata JK di Jakarta, Senin (29/10/2018).Pemerintah juga terus memantau perkembangan pencarian korban dan juga investigasi kecelakaan pesawat Lion Air JT 610 yang dilakukan Komite Nasional Keselamatan Transportasi (KNKT)."Yang pertama, evakuasi, Ini sekarang berlangsung bagaimana menjalankan evakuasi. Kedua, tentu KNKT mengusut apa yang terjadi. Kemudian tentu memberikan langkah-langkah lanjutan setelah itu," katanya.Pesawat Lion Air JT 610 rute Jakarta-Pangkal Pinang keluaran Boeing, Amerika Serikat, itu bermasalah saat terbang. Kapten pilot sempat meminta otoritas penerbangan untuk kembali ke bandara keberangkatan alias return to base, tetapi terjatuh di Perairan Tanjung Karawang.Pesawat itu mengangkut 181 orang penumpang di mana dua di antaranya adalah bayi, dan 8 kru pesawat yang terdiri dari 2 kokpit kru dan 6 orang awak kabin.Pesawat tersebut dilaporkan hilang kontak 13 menit setelah take off dari Bandara Soekarno Hatta pada 06.20 WIB. Pesawat itu seharusnya mendarat di Bandar Udara Pangkal Pinang pada 07.20 WIB.Reporter: Intan Umbari Prihatin dan Melissa OctaviantiRatusan anggota Basarnas dikerahkan untuk mencari badan pesawat Lion Air JT 610 yang jatuh di perairan Karawang, Jawa Barat.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Karawang - Komisi Pemilihan Umum (KPU) Kabupaten Bangka Selatan, Provinsi Kepulauan Bangka Belitung menerima 2.828 unit kotak suara guna keperluan dan kelancaran pelaksanaan Pemilihan Legislatif (Pileg) dan Pemilihan Presiden (Pilpres) 2019 mendatang."Sebanyak 2.828 kotak suara ini akan disebar di 548 tempat pemungutan suara yang ada di daerah ini," ujar Ketua KPU Kabupaten Bangka Selatan Amri di Toboali, seperti dilansir Antara, Senin (29/10/2018).Baca JugaIa mengatakan, sebanyak 2.828 kotak suara itu rencananya didistribusikan ke 548 TPS yang tersebar di Bangka Selatan.Sedangkan untuk perakitan kotak suara, kata Amri, masih menunggu petunjuk lebih lanjut dan saat ini disimpan terlebih dulu di gudang logistik KPU.Menurut dia, tidak ada pengamanan khusus yang dilibatkan dalam pengawalan kotak suara itu, namun hal tersebut berbeda dengan satu hari sebelum pencoblosan."Pengamanan masih normatif hanya pengawalan saja sampai kantor KPU, pengamanan khusus akan dilibatkan pada satu hari sebelum pencoblosan dan pendistribusian kotak suara tersebut," ucapnya.Amri mengatakan, pendistribusian logistik berupa surat suara dan tinta dijadwalkan dilakukan akhir 2018. Untuk jumlah surat suara, kata dia, nantinya disesuaikan dengan jumlah Daftar Pemilu Tetap (DPT) yang telah diverifikasi KPU. Sedangkan tinta disesuaikan dengan jumlah TPS yang ada."Untuk logistik lain seperti surat suara, tinta dan lain sebagainya, KPU Bangka Selatan akan mendidistribusikannya ketika sudah mendekati 2019. Untuk jumlahnya, akan disesuaikan dengan DPT dan TPS yang tersebar," jelas Amri.Pemusnahan surat suara hingga kotak suara</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta Ketua Fraksi Partain Golkar di MPR, Agun Gunandjar Sudarsa mengharapkan semangat Hari Sumpah Pemuda yang diperingati setiap tahun oleh bangsa Indonesia, digunakan untuk mensukseskan Pemilu 2019. Semangat dari peristiwa yang terjadi pada 28 Oktober 1928 itu diharap membawa optimis bagi anak negeri untuk berpartisipasi menyukseskan Pemilu 2019 dengan damai, bersih, dan bermartabat."Optimis dengan niat dan tujuan yang sama, Indonesia sejahtera berdasarkan Pancasila", harapnya, Jakarta, (26/10).Baca JugaUntuk menegaskan pesan itu, dirinya melantunkan puisi dengan bait kata seperti ini:Selamat hari Sumpah PemudaDengan niat dan tujuan yang sama, membangun Indonesia sejahtera berdasarkan Pancasila, Pemilu bukanlah tujuan. Sekadar kontestasi,  di antara sesama anak negeri, untuk berpartisipasi, mengisi Kemerdekaaan Ibu Pertiwi. Sukseskan Pemilu 2019 yang Damai, Bersih dan Bermartabat.Tak hanya itu yang diinginkan oleh pria kelahiran Bandung, Jawa Barat, ini. Semangat yang dikobarkan oleh para mahasiswa STOVIA itu juga harus diimplementasikan dalam mengelola dana desa. Dana desa bagi Agun sangat penting. Untuk itu, sebagai wakil rakyat ia mengajak pada semua untuk kerja dan bangun desa serta kelurahan.Agun mengakui, saat ini untuk mencegah penyalahgunaan dana desa dan kelurahan, pemerintah telah mengeluarkan kebijakan aplikasi Sistem Keuangan Desa (siskeudes) yang melibatkan BPKP dan Aparat Penegak Hukum.Hal ini disampaikan Agun sejalan dengan pembahasan diskursus dana desa dan kelurahan."Untuk efektifitas, pemerintah mengeluarkan Permendagri 20 Tahun 2018," ujarnya.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta - Jepang mencatatkan kemenangan 2-0 atas Timnas Indonesia U-19 di Stadion Utama Gelora Bung Karno, Senayan, Jakarta, Minggu (29/10/2018) malam WIB pada babak perempat final Piala AFC U-19.Dalam pertandingan tersebut, hujan deras mengguyur SUGBK di babak kedua. Usai turun, pelatih Jepang, Masanaga Kageyama menaruh curiga dengan turunnya hujan di laga melawan Timnas Indonesia U-19.Baca Juga"Tiba-tiba hujan sangat deras, ada petir. Saya juga curiga ada yang berdoa untuk menurunkan hujan saat melawan Jepang," katanya.Kendati demikian, Kageyama bersyukur anak asuhnya tetap tenang tampil di bawah guyuran hujan. Dia juga memuji mental para pemainnya yang tetap tenang menghadapi tekanan suporter Timnas Indonesia U-19."Kami memahami ada tekanan dari seluruh penonton yang hadir, tapi pemain terlihat sangat tenang. Itu pasti akan jadi tekanan untuk semua pesepak bola bermain di hadapan penonton sebanyak itu. Di awal babak kedua Indonesia bermain agresif untuk menciptakan gol. Tapi para pemain kami tetap tenang dan bagus dalam komunikasi," ujar Kageyama.Kageyama melanjutkan, dirinya tidak terkejut ketika Timnas Indonesia U-19 menurunkan lima bek di babak pertama. Menurutnya, keputusan Indra Sjafri di babak pertama bukan sebuah kejutan."Tidak mengejutkan bagi kami (Indonesia memasang 5 bek dan satu penyerang) di babak pertama. Pada laga-laga sebelumnya saya juga telah melihat seperti itu," ucapnya."Tim lawan tidak mau kebobolan. Setelah kebobolan pasti mereka akan menyerang," kata Kageyama melanjutkan.Kesuksesan Jepang diraih berkat gol Shunki Higashi lewat tendangan jarak jauh di menit ke-40 dan aksi Taisei Miyashiro di menit ke-70. Berkat dua gol itu, langkah Jepang untuk mempertahankan gelar Piala Dunia U-20 semakin terbuka."Saya sangat bangga dengan upaya para pemain dalam pertandingan yang menentukan ini. Saya juga bangga dengan staf yang berhasil mengatur stamina pemain setelah laga demi laga," ujar Kageyama.Saksikan video pilihan berikut ini:Berita video statistik laga Jepang vs Indonesia di Piala AFC U-19, Minggu (28/10/2018) di Stadion Utama Gelora Bung Karno.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta - Calon Presiden nomor urut 2, Prabowo Subianto menghadiri deklarasi dukungan dari Relawan Rhoma Irama di Markas Soneta, Jalan Tole Iskandar, Depok, Jawa Barat, Minggu (28/10/2018).Pada kesempatan itu, Prabowo sempat mencurahkan isi hatinya (curhat) kerap dituduh mendukung sistem khilafah. Bahkan dia juga merasa dianggap pro terhadap kelompok radikal Islamic State of Iraq and Syria (ISIS).Baca Juga"Saya dari kecil mendukung NKRI, tapi saya malah dituduh mendukung membela khilafah ISIS. Tapi ya sudahlah kalau orang sudah fitnah. Kita janganlah terpancing, jangan dibikin marah," ujar Prabowo dalam sambutannya.Meski begitu, dia meminta masyarakat, khususnya pendukungnya tidak terprovokasi dengan isu-isu yang dialamatkan kepadanya. mantan Danjen Kopassus itu justru mengajak masyarakat meneladani sifat Nabi Muhammad yang sabar dalam menghadapi fitnah dan ujian."Rasulullah bukan hanya dihina, tapi juga diludahin. Beliau mau dibunuh, dilempar kotoran tapi Beliau tidak membalas. Maka kita juga tidak boleh membalas," tutur Prabowo Subianto.Mantan menantu Presiden Soeharto itu meminta masyarakat tegas dalam menentukan pilihannya untuk Indonesia yang adil dan makmur melalui Pilpres 2019."Kita harus tegas, kita harus berdiri di kaki sendiri. Insyaallah jika kita diberi mandat, Indonesia akan bangkit lagi," ucap Prabowo menandaskan.Deklarasi Relawan Rhoma for Prabowo-Sandi (PAS) di Markas Soneta juga dihadiri oleh Ketua Umum Partai Amanat Nasional (PAN) Zulkifli Hasan dan Sekjen PAN Eddy Soeparno. Sementara cawapres Sandiaga Salahuddin Uno lebih dulu meninggalkan lokasi karena ada agenda lain sebelum Prabowo tiba.Gustika Jusuf Hatta, cucu proklamator Muhammad Hatta memprotes unggahan timses Prabowo Sandi yang menyamakan Sandiaga dengan kakeknya.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta - Salah satu cara bagi Anda dan pasangan untuk lebih mempererat tali cinta dan kasih satu sama lain adalah dengan berlibur bersama. Sebab, Semakin Anda mengenal pasangan, maka akan lebih mudah untuk memahami sifat dan kebiasaannya.Sebaiknya tujuan liburan adalah tempat yang membuat Anda dan pasangan memiliki banyak waktu untuk mengenal kepribadian masing-masing. Berikut empat agenda liburan yang direkomendasikan laman Boldsky.com untuk manambah eratnya hubungan Anda dengan pasangan.Baca JugaPantaiPantai sering dianggap membosankan oleh pasangan, karena semua yang mereka lakukan adalah berbaring di pantai atau berjalan-jalan. Tetapi, poin utama mengapa ke pantai dianggap ide yang baik adalah karena perjalanan ke pantai menjadi salah satu perjalanan di mana Anda dapat memanfaatkan waktu dengan pasangan bersama satu sama lain.KempingPoin utama dari berkemah adalah untuk mengenal satu sama lain pada tingkat yang lebih dalam. Berkemah banyak membantu untuk Anda menjadi lebih dekat satu sama lain.BackpackingBackpacking adalah tentang tim. Anda tidak sendirian tetapi dengan pasangan Anda, dan dalam hal ini selalu ingat berkomunikasi dan menikmati kebersamaan satu sama lain.HikingUntuk pasangan yang senang bepetualang, dan mendaki gunung, rencanakan dengan pasangan Anda untuk mendaki ke gunung bersama. Dengan mendaki gunung, sebagai pasangan, Anda akan belajar banyak nilai untuk dimasukkan ke dalam hubungan Anda. Hiking mengajarkan tentang semangat tim, takut kehilangan, dll.Saksikan video pilihan di bawah ini:Saat Traveling, Nadine Chandrawinata: Bawa Barang yang Sudah Siap untuk Hilang</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Bogor - Perempuan berinisial NR dijemput personel Reserse Kriminal Polsek Cileungsi, Bogor, Jawa Barat, Senin, 22 Mei 2017 siang. NR dijemput untuk dimintai keterangannya terkait status atau berita hoax yang ia unggah di Facebook.Seperti ditayangkan Liputan 6 Pagi SCTV, Selasa (23/5/2017), status itu antara lain menyebut tindakan berlebihan polisi lalu lintas saat menggelar operasi patuh, seperti melepas tembakan kepada pelanggar.Pemanggilan dilakukan atas laporan Polantas, yang merasa disudutkan dengan berita bohong yang diunggah NR.Saat pemeriksaan, NR mengaku emosi setelah mendengar cerita adiknya yang terjaring operasi patuh karena tidak membawa surat kelengkapan kendaraan.Lantaran tidak terbukti ada penembakan, pengunggah berita hoax pun meminta maaf dan mengoreksi unggahannya.Masyarakat harus benar-benar bijak dalam menggunakan media sosial. Mengunggah komentar berdasar emosi sesaat di media sosial, apalagi tanpa mengecek kebenarannya, bisa dijerat dengan Undang-Undang Informasi dan Transaksi Elektronik (UU ITE), dengan ancaman pidana kurungan 6 tahun.Saksikan video perempuan asal Bogor ditangkap karena mengunggah berita hoax di medsos.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Jakarta PT Pelindo II Persero (IPC) membenarkan terdapat dua nama penumpang, pesawat Lion Air JT 610 yang jatuh di Tanjung Karawang, Senin (29/10/2018) ini merupakan karyawan perusahaan jasa kepelabuhan itu."Benar, ada dua karyawan IPC yang masuk dalam manifest Lion Air. Namun kami belum memastikan kondisi terakhir keduanya karena harus menunggu hasil keterangan resmi dari Komite Nasional Keselamatan Transportasi (KNKT)," kata Corporate Secretary IPC Shanti Puruhita, seperti dikutip dari laman antaranews.com.Baca JugaMenurut Shanti, informasi lebih lanjut soal kedua nama masih belum bisa diungkapkan karena alasan etis."Kami menunggu hasil investigasi KNKT, untuk kemudian dapat diinformasikan kepada keluarga terlebih dahulu," ujar Shanti.Ia menjelaskan, kedua karyawan IPC tersebut sehari-harinya bekerja di Pelabuhan Pangkalan Balam. Namun, akhir pekan biasanya kembali ke Jakarta untuk mengunjungi keluarga.Untuk informasi, pesawat type B737-8 Max dengan Nomor Penerbangan JT 610 milik operator Lion Air dari Bandar Udara Soekarno Hatta, Banten, menuju Bandar Udara Depati Amir di Pangkal Pinang dilaporkan telah hilang kontak pada Senin (29/10/2018) sekitar pukul 06.33 WIB.10 Pegawai Badan Pemeriksa Keuangan (BPK) diduga menjadi korban jatuhnya pesawat Lion Air JT 610 rute Jakarta-Pangkal Pinang. Kepala BPK Moermahadi Soerja Djanegara membenarkan hal tersebut."Benar," ujar dia saat dikonfirmasi Liputan6.com, Senin (29/10/2018).Berdasarkan keterangan dari Kepala Bagian Pengelolaan Informasi BPK Lily, 10 orang yang menjadi korban jatuhnya pesawat Lion Air itu yakni Harwinoko, Martua Sahata, Dicky Jatnika, Achmad Sobih Inajatullah, Imam Riyanto, Yunita Sapitri, Yoga Perdana, Resky Amalia, Yulia Silviyanti, dan Zuiva Puspitaningrum."Kami turut berduka cita atas kejadian ini, dan akan terus memantau perkembangan lebih lanjut musibah tersebut. Terutama terkait dengan pegawai BPK yang menjadi penumpang di pesawat (Lion Air) tersebut," kata Lily.Pesawat Lion Air dengan nomor penerbangan JT 610 jatuh di Tanjung Karawang setelah dilaporkan hilang kontak pukul 06.20 WIB. Pesawat tersebut membawa 189 orang, termasuk penumpang dan kru pesawat.Penumpang itu terdiri dari 178 orang dewasa, 1 anak-anak, dan 2 bayi (infant). Untuk kru pesawat terdiri dari 2 kokpit kru dan 6 orang awak kabin."Total ada 189 orang," ujar Ketua Komite Nasional Keselamatan Transportasi (KNKT) Soerjanto Tjahjono di Kantor Basarnas, Jakarta, Senin (29/10/2018).Badan SAR Nasional (Basarnas) mendapat informasi pesawat Lion Air itu jatuh di Tanjung Karawang."Benar informasinya A1, jatuh di Tanjung Karawang," ujar Humas Basarnas Yusuf, saat dihubungi Liputan6.com di Jakarta.Pesawat Lion Air itu dilaporkan hilang kontak usai lepas landas landas dari Bandara Internasional Soekarno-Hatta sekitar pukul 06.00 WIB. Pesawat tersebut sedianya akan mendarat di Pangkal Pinang.</t>
   </si>
   <si>
     <t>Liputan6.com, Jakarta - Koordinator Juru Bicara capres-cawapres nomor urut 02 Prabowo Subianto-Sandiaga Salahuddin Uno, Dahnil Azhar Simanjutak bangga dengan cibiran politikus kemarin sore. Sebab, kata dia, Indonesia memang sudah seharusnya dipimpin oleh politikus kemarin sore."Negeri ini harus dipimpin oleh politikus kemarin sore, jangan dipimpin oleh politikus isya. Jangan. Ketuaan. Jadi harus dipimpin oleh politikus kemarin sore. Jadi bangga disebut kemarin politikus kemarin sore. Hidup anak kemarin sore," ucap Dahnil di acara Milad PKS Muda, di Kantor DPP PKS, Jalan TB Simatupang, Jakarta, Minggu 28 Oktober 2018.Baca JugaDia menyebut beberapa tokoh yang termasuk politikus isya. Antara lain Presiden PKS Mohammad Sohibul Iman dan Mardani Ali Sera yang mendukung Prabowo-Sandiaga.Dahnil mengaku tidak terbawa perasaan dengan sebutan politikus kemarin sore untuk mantan Wakil Gubernur DKI Jakarta itu. Dia menilai, harusnya hinaan dijadikan bahan untuk bergembira."Kita Jadikan hinaan sebagai sebuah kegembiraan. Kenapa karena kita bukan politikus alay, yang baperan saya yakin anak PKS muda ukan kumpulan politikus alay," ujar Dahnil."Kalau diejek, kita justru bergembira dengan ejekan itu jadi berbanggalah kita yang disebut sebagai politikus kemaren sore," lanjut Jubir Prabowo-Sandiaga.Menurut dia, pihaknya juga tetap percaya diri akan memenangkan Prabowo-Sandiaga dalam Pilpres 2019. Meskipun, memiliki banyak kekurangan dalam logistik."Kita adalah pasangan yang tidak punya uang, kita adalah pasangan yang tidak punya media kita juga pasangan yang tidak punya satu lagi saya lupa, kekuasaan. Nah kita tidak punya kekuasaan, kita tidak punya uang tidak punya media. Tapi kita punya apa? kita punya militansi dan kita punya Allah SWT," ucap Dahnil.Reporter: Sania MashabiSumber: Merdeka.comGustika Jusuf Hatta, cucu proklamator Muhammad Hatta memprotes unggahan timses Prabowo Sandi yang menyamakan Sandiaga dengan kakeknya.</t>
   </si>
   <si>
-    <t>Liputan6.com, Jakarta - Facebook telah menghapus 82 akun, grup, dan page asal Iran guna mengantisipasi penyebaran fake news di platform-nya.Mengutip Reuters, Minggu (29/10/2018), akun maupun grup yang dihapus itu telah menarik setidaknya 1 juta pengguna sebagai followers-nya.Sekadar diketahui, Facebook memang tengah berjuang untuk menghentikan penyebaran fake news dan hoax, baik di dalam maupun di luar Amerika Serikat (AS). Salah satu tujuannya agar tidak ada propaganda politik jelang pemilihan umum di berbagai negara.Baca JugaMenurut sebuah sumber yang bekerja sama dengan Facebook, akun-akun palsu dari Iran ini kebanyakan menarget para pengguna Facebook dari golongan liberal AS.Total, ada 83 akun, grup, dan page Facebook dan Instagram yang dihapus. Pemiliknya menyamar menjadi orang AS atau Inggris.Diungkapkan oleh kepala kebijakan keamaan siber Facebook Nathaniel Gleicher, pemilik akun palsu ini mengunggah berbagai topik bermuatan politik yang dibumbui hal sensitif. Misalnya saja ras hingga soal oposisi terhadap Presiden Trump dan kebijakan imigrasi.Saat ini tidak jelas apakah akun-akun palsu ini terhubung dengan pemerintah Iran. Namun, mereka enggan memberikan komentar terkait masalah ini.Aksi penghapusan akun palsu ini dilakukan setelah sebelumnya Facebook juga bersih-bersih akun palsu. Twitter dan Google juga melakukan hal serupa dengan menghapus ratusan akun yang terhubung dengan propaganda Iran.Meski begitu menurut Gleicher, upaya terakhir ini agak rumit, sebab sifatnya sangat canggih dan sulit dideteksi oleh pihak Facebook.Rekan Pertahanan Informasi dari Digital Forensic Research Lab Ben Nimmo mengatakan, niat para pembuat akun palsu adalah mencari banyak pengikut yang akan bereaksi saat adminnya membagikan konten fake news."Sebagian besar unggahan terkait masalah memecah belah AS dan diunggah berdasarkan sudut pandang liberal atau progresif. Terutama pada hubungan ras dan kekerasan yang dilakukan polisi," kata Nimmo.Media sosial sendiri kian jadi target campur tangan asing setelah sebelumnya mendapat banyak kritikan. Kritikan tersebut terkait perusahaan tak melakukan upaya yang cukup untuk mendeteksi adanya campur tangan Rusia untuk memengaruhi hasil pemilu AS.Sebelumnya, aplikasi chatting WhatsApp menjadi media untuk kampanye politik di Brasil. Hal ini dikhawatirkan akan membuat perpecahan di negara tersebut.Padahal, sebelumnya Facebook sebagai induk perusahaan WhatsApp tengah berupaya membersihkan platformnya dari berbagai berita misinformasi, fake news atau berita bohong, dan hoaks.Namun, menjelang pemilu presiden pada 28 Oktober mendatang, giliran WhatsApp yang dibanjiri dengan fake news hingga teori konspirasi.Sebagaimana dikutip Reuters, salah satu calon presiden Brasil Fernando Haddad menuding kubu pesaingnya, Jair Bolsonaro, telah membanjiri WhatsApp dan medsos dengan sederetan fake news yang bikin pemilih resah. Tentu hal ini dibantah oleh kubu Jair Bolsonaro.Sekadar informasi, di Brasil sendiri, WhatsApp memiliki lebih dari 120 juta pengguna. Sementara, jumlah penduduk di sana mencapai 210 juta jiwa.Bagi Facebook, Brasil juga menjadi salah satu pasar yang penting. Bisa dibilang, lebih dari separuh penduduk Brasil menggunakan akun WhatsApp untuk berkomunikasi.Makanya, maraknya fake news dan hoaks di platform tersebut jadi hal yang meresahkan. Pada putaran pertama pemilu, 7 Oktober lalu, media sosial begitu berperan dalam menentukan suara.Pasalnya, bagi Bolsonaro yang memiliki sedikit akses ke kampanye dan iklan TV, media sosial jadi jawaban untuk membantunya memenangkan 46 persen suara.Perusahaan polling Datafolha menemukan, dua pertiga dari pemilih Brasil menggunakan WhatsApp. Pendukung Bolsonaro cenderung lebih mengikuti berita politik di WhatsApp dengan persentase 61 persen.Sementara pendukung Haddad yang mengikuti berita politik lewat WhatsApp hanya 38 persen.(Tin/Isk)Saksikan Video Pilihan Berikut Ini:Menkominfo Rudiantara siap menutup Facebook jika terbukti menyebarkan hoax.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Surabaya - Presiden Joko Widodo atau Jokowi mengecam keras serangan udara Israel ke jalur Gaza. Akibat serangan tersebut, Rumah Sakit Indonesia di Bayt Lahiya mengalami kerusakan."Ya kami tahu rumah sakit itu rusak dan Indonesia mengecam keras serangan Israel 27 Oktober karena tidak hanya merusak rumah sakit tapi juga wilayah sekitar juga," ujar Jokowi di Pendopo Delta Wibawa Sidoarjo, Jawa Timur, Minggu (28/10/2018).Baca JugaDia menekankan, Indonesia konsisten mendukung kemerdekaan Palestina. Indonesia juga tidak akan pernah mundur selangkah dari Palestina."Indonesia tetap akan selalu di belakang Palestina dalam memperjuangkan kemerdekaannya, tidak ada kata mundur!" kata Jokowi.Militer Israel melancarkan serangan ke Jalur Gaza pada Sabtu 27 Oktober 2018 menjelang fajar. Aksi ini merupakan balasan atas serangan roket militan Hamas ke wilayah Israel sejak Agustus lalu.Akibat serangan Israel, Rumah Sakit Indonesia rusak parah. Beberapa ruangan dan jendela pecah. Sementara atap Rumah Sakit hancur dan roboh. Sebagian pasien akhirnya dievakuasi ke koridor-koridor untuk diamankan.Rumah Sakit Indonesia di Bayt Lahiya telah beroperasi sejak 2012. Rumah Sakit itu didirikan sejumlah lembaga solidaritas Indonesia untuk Palestina, dengan dana sumbangan masyarakat Indonesia.Reporter: Titin SupriatinSumber: Merdeka.comUsai dideklarasikan sebagai cawapres pendamping Jokowi, Ma'ruf Amin sambangi DPP PKB ditemani Said Aqil Siradj.</t>
-  </si>
-  <si>
-    <t>Jakarta Manchester United menang atas Everton 2-1 pada pekan ke-10 Premier League 2018-2019, di Old Trafford, Senin (29/10/2018) dini hari WIB. Dua gol kemenangan tuan rumah dicetak Paul Pogba dan Anthony Martial.Skuat asuhan Jose Mourinho yang bermain agresif mendapatkan hadiah penalti pada pertengahan babak pertama. Pogba yang menjadi eksekutor gagal menjalankan tugasnya karena tendangannya berhasil dibaca Jordan Pickford.Baca JugaNamun, bola yang ditepis Pickford masih berada di area kotak penalti dan langsung disambar Pogba untuk membuat tuan rumah unggul 1-0. Skor 1-0 bertahan hingga babak pertama usai.The Red Devils berhasil memperbesar skor menjadi 2-0 saat babak kedua baru berjalan empat menit. Tembakan Martial dari luar kotak penalti yang mengarah ke tiang jauh tidak bisa diantisipasi Pickford.Everton mendapatkan peluang untuk memperkecil skor setelah Chris Smalling melanggar Richarlison di kotak 12 pas. Gylfi Sigurdsson yang menjadi eksekutor sukses menjalankan tugasnya untuk menipiskan skor menjadi 1-2.Pada masa injury time babak kedua, Manchester United hampir saja memperbesar skor menjadi 3-1 andai Martial tidak kehilangan fokus. Tembakannya yang lemah berhasil diblok Pickford.Kemenangan ini menempatkan Manchester United di posisi kedelapan dengan 17 poin. Sementara Everton berada satu setrip di bawah Pogba dkk dengan raihan 15 poin.Berita video Manajer Manchester City, Pep Guardiola, mengungkapkan apa yang dikatakannya kepada gelandang Manchester United, Paul Pogba, setelah pertandingan.Manchester United (4-3-3): 1-David De Gea; 18-Ashley Young, 12-Chris Smalling, 2-Victor Lindelöf, 23-Luke Shaw; 17-Fred, 31-Nemanja Matic, 6-Paul Pogba; 8Juan Mata, 10-Marcus, 11-Anthony MartialManajer: Jose MourinhoEverton (4-2-3-1): 1-Jordan Pickford; 23-Seamus Coleman, 4-Michael Keane, 5-Kurt Zouma, 12-Lucas Digne; 8-André Gomes, 17-Idrissa Gueye; 11-Theo Walcott, 10-Gylfi Sigurdsson, 20-Bernard; 30RicharlisonManajer: Marco Silva</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Cesena - Sebuah kabar duka datang dari dunia otomotif. Mantan juara dunia MotoGP 2006, Nicky Hayden meninggal dunia pada Senin, 22 Mei 20178, setelah mengalami koma selama lima hari akibat kecelakaan di Rumini, Italia.Seperti ditayangkan Liputan 6 Pagi SCTV, Selasa (23/5/2017), kabar kematian Nicky Hayden disampaikan pihak Rumah Sakit Maurizio Bufalini di Cesena, tempat ia menjalani perawatan intensif lima hari terakhir.Hayden sempat berada dalam kondisi kritis, mengalami koma sejak 17 Mei lalu. Hayden menderita luka parah di kepala dan dada akibat ditabrak mobil ketika bersepeda.Pembalap asal Amerika Serikat berjuluk "The Kentucky Kid" ini mempunyai karir gemilang di arena balap MotoGP. Ia pernah menjadi juara MotoGP pada 2006, sekaligus menumbangkan dominasi pebalap Yamaha--Walentino Rossi, saat itu.Kepergian pembalap 35 tahun itu meninggalkan duka mendalam bagi dunia balap motor. Rekan-rekan Hayden sesama pembalap MotoGP menyampaikan ungkapan duka cita dan kehilangan atas kepergiaan pria kelahiran Kentucky Amerika Serikat tersebut.Pihak keluarga meminta rekan dan penggemar untuk mengenang Nicky Hayden di tempat yang paling disukainya yaitu berkendara di atas sepeda motor.Saksikan video mantan juara dunia MotoGP Nicky Hadyen wafat setelah koma 5 hari.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta - Misi "hidup-mati" timnas Indonesia U-19 bakal ditentukan pada Minggu (28/10/2018). Bagaimana tidak, pada laga perempat final Piala AFC U-19 ini, timnas Indonesia bakal menghadapi sang juara bertahan Jepang.Di atas kertas, Jepang unggul dari timnas Indonesia U-19. Meski mengemban misi yang terbilang sulit, jika merujuk istilah umum bola itu bundar, segala kemungkinan bisa terjadi.Baca JugaKondisi kurang lebih serupa juga terjadi pada negara-negara lainnya yang lolos ke delapan besar. Semua kemungkinan masih dimiliki masing-masing negara untuk lolos ke semifinal dan partai puncak: final.Negara mana sajakah yang lolos ke delapan besar? Mampukah timnas Indonesia U-19 berbicara banyak hingga ke final bahkan juara? Simak dalam Infografis di bawah ini:</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta - Organisasi kegawatdaruratan kesehatan Medical Emergency Rescue Committee (MER-C) Indonesia mengharapkan bantuan doa bagi keselamatan Rumah Sakit Indonesia (RSI) di Jalur Gaza, Palestina, yang terdampak serangan rudal militer Israel."Semoga Allah SWT melindungi, baik bangunan RSI di Gaza maupun semua tenaga kesehatan di dalamnya, dan juga sukarelawan kami yang masih di sana serta para pasiennya," kata anggota Presidium MER-C Indonesia dr Sarbini Abdul Murad kepada Antara di Jakarta, Minggu (28/10/2018).Baca JugaIa mengakui, akibat serangan militer Israel di kawasan itu, sebagian bangunan di RSI Gaza mengalami kerusakan."Sebagian ruangan rumah sakit terkena dampak, namun tidak rusak parah memang. Di antara yang rusak adalah ruangan administrasi, toilet, ruang Intensive Care Unit (ICU) dan beberapa lainnya," kata dokter kelahiran Aceh itu.Sarbini Abdul Murad, salah satu sukarelawan MER-C yang termasuk paling awal masuk Gaza pada akhir tahun 2008 ketika perang Israel-Palestina, menjelaskan akibat dampak serangan itu, pasien dipindahkan ke lorong-lorong rumah sakit itu."Ini dilakukan guna mencegah korban bila terdampak serangan lagi," katanya.Sukarelawan MER-C yang masih berada di Jalur Gaza, Reza Aldilla Kurniawan, Sabtu 27 Oktober siang melaporkan, Sejak Jumat 26 Oktober malam hingga Sabtu, militer zionis Israel masih menggempur sejumlah wilayah di Jalur Gaza.Ia menjelaskan, pesawat tempur Israel mengirim tidak kurang dari lima roket yang jatuh tidak jauh dari lokasi RS Indonesia yang berada di Bayt Lahiya, Gaza Utara.Hantaman roket tersebut menyebabkan guncangan keras di area sekitarnya, dan menimbulkan kerusakan di beberapa bagian Rumah Sakit Indonesia, termasuk kantor administrasi, toilet, koridor, dan ruang perawatan intensif.Reza Aldilla Kurniawan yang saat serangan terjadi berada di dalam Wisma Rakyat Indonesia di belakang Rumah Sakit Indonesia, merasakan guncangan besar akibat hantaman roket."Guncangan besar sekali, debu-debu jatuh dari atap. Saya langsung keluar dari Wisma dan melihat kondisi Rumah Sakit Indonesia mengalami kerusakan di beberapa bagian," katanya.Sarbini Abdul Murad menambahkan, serangan Israel semacam itu, sebelumnya juga pernah terjadi selama pembangunan RSI sedang berjalan. Saat itu, sebuah rudal meledak sekitar 50 meter dari pembangunan rumah sakit Indonesia di daerah Jabaliya, Jalur Gaza Utara.Pembangunan RS Indonesia di Gaza berawal dari misi tim bantuan kemanusiaan Indonesia yang membawa bantuan obat-obatan dari pemerintah dan rakyat Indonesia untuk warga Gaza, Palestina, akhir 2008 hingga awal 2009. Ketika itu misi dipimpin dr Rustam S Pakaya, yang saat itu menjabat Kepala Pusat Penanggulangan Krisis (PPK) Departemen Kesehatan dan Direktur Urusan Timur Tengah Departemen Luar Negeri Aidil Chandra Salim.Dalam perkembangannya, kemudian MER-C menggalang dana dari masyarakat Indonesia hingga akhirnya terwujud RSI di Gaza, yang lokasinya berada di Bayt Lahiya, Gaza Utara. Penyerahan secara simbolis Rumah Sakit Indonesia dari Medical Emergency Rescue Committee (MER-C) untuk rakyat Palestina telah dilangsungkan di Taman Ismail Marzuki pada 9 Januari 2016 dan dihadiri Wakil Presiden Jusuf Kalla.Acara itu dihadiri pula Menteri Luar Negeri Retno Marsudi, Wakil Gubernur Aceh (saat itu) Muzakir Manaf, Menteri Kesehatan Palestina Hani Abdeen, serta Duta Besar Palestina untuk RI Fariz Mehdawi.Serangan rudal Israel menewaskan dua warga Palestina yang tengah berdemo di perbatasan Gaza.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta Ducati Indonesia merilis tiga produk baru sekaligus, yakni Monster 821, Scrambler 1100 Sport, serta Multistrada 1260 S. Kehadiran tiga produk baru ini tentunya semakin memperkaya pilihan kepada konsumen khususnya pecinta motor asal Italia."Sudah menjadi komitmen bagi Ducati Indonesia untuk selalu memperbarui model sesuai dengan trend sepeda motor yang berlaku di dunia. Multistrada 1260 S, Monster 821, dan Ducati Scrambler 1100 Sport adalah benchmark dalam berbagai aspek sepeda motor, termasuk desain dan teknologi,” kata Marketing Director Ducati Indonesia Faby Tsui di Ducati Flagship Store (DFS), Kemang, Jakarta Selatan, Minggu (28/10/2018).Baca JugaMenurut Faby, Multistrada 1260 S merupakan sepeda motor adventure kelas penjelajah, overland. "Kalau Anda berpikir akan melakukan perjalanan lintas benua sekalipun maka dia siap memperlihatkan durabilitasnya di berbagai medan jalan," katanya.Lebih lanjut ia menyebutkan, Ducati Monster 821 bisa menjadi motor harian karena memiliki kombinasi sempurna antara performa dan mudah dikendalikan. "Monster layak dijadikan sepeda motor harian karena dia sudah memliki perlengkapan standar yang super dan biaya pemeliharaan yang ringan," ujar wanita ramah tersebut.Sementara Ducati Scrambler 1100 Sport dihadirkan karena peminat scrambler di Tanah Air terus tumbuh. "Model terbaru 1100 memiliki tenaga dan torsi lebih besar, sehingga ‘Joy’ yang diharapkan para pecinta kebebasan akan lebih tersalurkan. Motor besar ini tidak ada kompromi pada aspek kesenangan, gaya, dan kebebasan," ia menambahkan.Menyoal harga, New Multistrada 1260 S dipatok Rp 799 juta. Sedangkan New Monster 821 Rp 440 juta. Sementara Ducati Scrambler 1100 Special dan Ducati Scrambler 1100 Sport dibanderol Rp 559 juta dan Rp 579 juta.Semua harga tersebut berstatus off the road Jakata.Sumber: http://youtube.com/watch?v=bfLqa4vlmFI</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta Viralnya video pembakaran bendera yang bertuliskan kalimat Tauhid memantik polemik. Klaim tiga pelaku, yang merupakan anggota Barisan Anshor Serbaguna (Banser) dan berstatus tersangka, bendera itu milik organisasi terlarang di Indonesia, Hizbut Tahrir Indonesia (HTI).Polisi kini memburu pemilik bendera dan sosok yang mengunggah pertama kali video tersebut. Soal motif pembakaran bendera, polisi masih menyelidiki.Baca JugaPolemik ini diredakan berbagai pihak dengan mengimbau masyarakat tidak cepat terprovokasi yang dapat memicu gesekan. Masyarakat juga diminta tenang.Bagaimana bendera bertuliskan tauhid dan HTI itu menjadi polemik, serta bagaimana meredakannya? Simak dalam Infografis berikut ini:</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Sydney - Duo miliarder asal Australia lebih suka naik kendaraan umum ketimbang naik kendaraan pribadi ketika pergi ke kantor. Predikat miliarder tetap tidak mengubah kebiasaan mereka tersebut.Ini dilakukan oleh pendiri Atlassian yaitu Mike Cannon-Brookes dan Scott Farquhar. Padahal, kekayaan mereka mencapai 14,2 miliar dolar Australia atau setara Rp 152,7 triliun (1 dolar Australia = Rp 10.755).Baca Juga"Saya yakin kita akan (berangkat kerja) seperti biasanya, saya naik bis dan kereta untuk ke kantor," ucap Farquhar seperti dikutip oleh Grafton Daily Examiner.Cannon-Brookes dan Farquhar sama-sama berusia 38 tahun. Mereka sukses secara finansial berkat perusahaan software mereka yang tercatat di bursa saham Amerika Serikat (AS).Duo miliarder juga membeli tempat tinggal yang berdekatan. Tahun lalu, Farquhar mengeluarkan 71 juta dolar Australia (Rp 763,6 miliar) untuk membeli sebuah properti di Sydney.Cannon-Brookes membeli properti tepat di sebelah rumah Farquhar. Ia menghabiskan USD 100 juta (Rp 1,07 triliun) untuk membeli sebuah mansion bersejarah.Walau rumahnya mewah, mereka tetap dikenal memiliki tingkah pola hidup sederhana. Ketika perusahaannya IPO pada akhir 2015 lalu, yang menjadi awal status miliarder mereka, keduanya lebih suka merayakannya secara sederhana dengan sepotong pizza ketimbang sampanye dan kaviar."Di situlah kami, di koran, kita miliarder dan kita bilang ke satu sama lain, 'Hei, pizza mana yang kamu mau?' Begitulah kami saat membuka ke publik (IPO)," ucap Farquhar.Saat ini, keduanya merupakan miliarder muda terkaya nomor dua di Australia versi Financial Review Young Rich List. Ini adalah tahun ketujuh mereka berada di puncak daftar itu.Ada tipikal orang yang sudah kaya, namun mereka tidak berhenti bekerja, melainkan terus produktif. Sebut saja nama seperti Mark Zuckerberg, Li Ka-Shing, dan Warren Buffett. Mengapa ada miliarder yang seperti itu?  Berikut penjelasan yang dihimpun dari sejumlah penelitian para ilmuwan, seperti dikutip dari Bright Side, Senin, 22 Oktober 2018.1. Menjaga Hidup Agar Tetap TerkendaliPekerjaan Anda merupakan penyokong hidup Anda dan bisa membantu Anda dalam memetakan masa depan. Dengan bekerja, Anda akan merasa aman dan stabil.2. Bertemu Orang BaruBekerja dalam kelompok bisa membuat seseorang lebih dekat dengan koleganya dan memungkinkan mereka untuk saling mengenal satu sama lain.Semakin sering Anda bertemu orang baru, maka semakin besar pula jaringan bisnis dan peluang usaha Anda berkembang.3. Obat Kebosanan dan DepresiBeberapa orang berpendapat bahwa bekerja merupakan obat yang efektif untuk mengatasi rasa bosan dan depresi. Dengan bekerja, perhatian Anda akan teralihkan dari pikiran negatif, karena Anda disibukkan dengan sesuatu yang lebih positif.4. Dapat Motivasi dan Jadi DisiplinMeski sistem yang diterapkan di beberapa perusahaan tidak seperti pelatihan militer, namun dengan bekerja, Anda bisa menjadi disiplin waktu.Berkat pekerjaan Anda, Anda memiliki aturan dan 'ritual' tertentu, dapat merencanakan dan belajar mengatur waktu serta uang.5. Bisa Mengubah DuniaBill Gates, Warren Buffett, dan Mark Zuckerberg bisa menjalani kehidupan yang mudah, meski publik menganggap bahwa mereka tidak pernah bekerja.Kendati demikian, sebagai gantinya, mereka terus menciptakan inovasi baru dan fungsional bagi masyarakat di dunia. Mereka pun bisa membaca apa yang dibutuhkan oleh publik.Saksikan video pilihan di bawah ini:Dalam berbagai cara, miliarder Bill Gates melakukan banyak pekerjaan brilian di luar Microsoft, perusahaan yang ia dirikan bersama temannya Paul Allen pada 1975.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta Keceplosan. Itulah yang terjadi pada Presiden Joko Widodo atau Jokowi. Ia mengaku keceplosan menyebut politikus sontoloyo.Pangkalnya, rencana Jokowi menggelontorkan dana kelurahan pada 2019 menuai kritik dari lawan politik. Padahal, rencana penganggaran dana kelurahan, yang masih dibahas payung hukumnya itu, merupakan usulan para wali kota.Baca JugaKondisi kurang lebih serupa juga dialami calon presiden nomor urut 2 Prabowo Subianto. Ia keceplosan berkampanye di hadapan anak-anak.Lantas, apa yang membuat Jokowi sampai keceplosan? Benarkah Prabowo berkampanye di hadapan anak-anak? Simak dalam Infografis berikut ini:</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Doha - Hari ini, tepat 14 tahun lalu, pemimpin Al-Qaeda Osama bin Laden tampil dalam sebuah video pesan terbaru yang ditayangkan oleh Al Jazeera, stasiun televisi global asal Qatar.Bin Laden untuk pertama kalinya mengklaim bertanggung jawab langsung atas serangan 11 September 2011, yang menghancurkan menara kembar World Trade Center di New York, Amerika Serikat (AS).Kelompok Islam militan itu berkata: "Kami harus menghancurkan menara (WTC) di Amerika, karena kami adalah orang bebas ... dan kami ingin mendapatkan kembali kebebasan bangsa kami."Dalam video tersebut, Osama bin Laden mengenakan jubah kuning dan putih, duduk di sebuah ruangan dengan dinding polos berwarna coklat, demikian sebagaimana dikutip dari Cbc.ca pada Minggu (28/10/2018).Dalam pesan berdurasi 18 menit itu, beberapa di antaranya ditayangkan oleh Al-Jazeera empat hari sebelum pemilihan presiden AS, bin Laden menuduh George W Bush lalai mengawasi kebobolan 19 orang pembajak pesawat, yang mengambil alih empat pesawat penumpang untuk teror bunuh diri.Bin Laden juga mengancam serangan baru jika kebijakan pemerintah AS tidak berubah.Baca JugaMenurut para penerjemah, bin Laden mengatakan kepada para daftar pemilih AS: "Keamanan Anda tidak berada di tangan (calon presiden Demokrat John) Kerry atau Bush, atau al-Qaeda. Keamanan Anda ada di tangan Anda sendiri.""Setiap negara yang tidak ikut campur dengan urusan keamanan kami, maka mereka telah menjamin keamanannya sendiri."Di sisi lain, Presiden Bush yakin Amerika akan menang.Bush bereaksi terhadap rekaman itu dengan mengatakan, bahwa AS tidak akan diintimidasi oleh upaya bin Laden untuk ikut campur dalam pilpres 2004."Orang Amerika tidak akan diintimidasi atau dipengaruhi oleh musuh negara kita," katanya. "Kami sedang berperang dengan para teroris ini, dan saya yakin bahwa kami akan menang."Rivalnya, John Kerry juga cepat mengutuk ancaman bin Laden."Sebagai orang Amerika, kami benar-benar bersatu dalam tekad untuk memburu dan menghancurkan Osama bin Laden, dan juga para teroris," katanya saat berkampanye di Florida.Al-Jazeera mengatakan menerima pesan sebelumnya di hari penayangan pesan Osama bin Laden, tetapi tidak akan mengatakan apa isinya.Juru bicara Gedung Putih kala itu, Scott McClellan, mengatakan para pejabat intelijen AS percaya rekaman aslinya.FBI membandingkan video tersebut dengan satu siaran salah satu siaran di stasiun televisi ABC, tidak beberapa lama setelahnya.Dalam pesan lain tersebut, seorang pria bertopeng, yang mengaku sebagai seorang anggota al-Qaeda cabang AS, mengatakan akan lebih banyak serangan terhadap Negeri Paman Sam, dan waktunya sudah kian dekat.Simak video pilihan berikut:Senin, 11 September 2017, bertepatan dengan peringatan 16 tahun serangan teroris yang menewaskan setidaknya 3.000 orang.Rekaman langsung dari Osama bin Laden pada 2004 silam adalah pertama kalinya bagi publik global, setelah pemimpin Al Qaeda itu ditetap sebagai buron, setahun setelah Serangan 11 September.Dia menghindari penangkapan ketika AS menginvasi Afghanistan, di mana dia bermarkas, pada akhir tahun 2001. Banyak analis percaya dia menemukan tempat perlindungan di rantai pegunungan di sepanjang perbatasan dengan negara tetangga Pakistan.Salah satu pernyataan yang lebih eksplosif dari bin Laden pada rekaman itu adalah bahwa serangan pesawat bunuh diri al-Qaeda pada 11 September 2001, akan lebih ringan jika Bush lebih waspada dan bertindak lebih cepat.Sebaliknya, kata bin Laden, Bush justru terus mendengarkan bocah sekolah dasar membacakan cerita dongeng.Presiden sedang mengunjungi sebuah sekolah di Florida, ketika seorang pembantu mengatakan kepadanya bahwa sebuah pesawat terbang ke arah World Trade Center.Seorang juru kamera menangkap momen ketika politikus tersebut tercengang, namun tetap berusaha tenang mendengarkan seorang siswa membaca kisah My Pet Goat selama tujuh menit berikutnya.Pemimpin al-Qaeda mengatakan para pembajak telah merencanakan untuk melakukan semua serangan dalam waktu 20 menit, karena mereka yakin AS akan bereaksi dengan cepat dan mulai menembaki pesawat-pesawat yang salah."Penundaan Bush memberi kami tiga kali waktu yang dibutuhkan untuk melakukan operasi, terima kasih kepada Tuhan," kata Bin Laden.Sebanyak 58 menit berlalu antara waktu pesawat pertama menghantam menara pertama WTC,dan saat pesawat ketiga menabrak Pentagon --markas Kementerian Pertahanan-- di dekat ibu kota Washington DC.Pesawat keempat jatuh di sebidang lahan di negara bagain Pennsylvania, setelah penumpang mengetahui apa yang terjadi dengan pesawat lain yang dibajak, dan menyerbu kokpit untuk mengalihkannya dari target populasi keempat.Beberapa kejadian bersejarah juga terjadi di tanggal yang sama, seperti mialnya eksekusi petualang sekaligus penulis Walter Raleigh jaena dituduh berkonspirasi menjatuhkan Raja James I dari Inggris.Selain itu, pada tanggal yang sama di tahun 1915, Tomas Masaryk memprokalamasikan kemerdekaan Cekoslowakia.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta - Sebanyak 1.335 anggota TNI yang bertugas di Kota Palu, Kabupaten Sigi, dan Donggala, dikembalikan ke kesatuan masing-masing, Sabtu 27 Oktober 2018.Pasukan dari Divisi Infanteri 3 Kostrad dari Brigif Para Raider-3/Kostrad, Yonif PR-431 dan PR-432, Yon Armed 6/Tamarunang dan Yon Arh-16/Maleo itu berangkat dari Pelabuhan Pantoloan menuju Makassar menggunakan KRI Makassar.Baca JugaPangkogasgab Mayjen TNI Tri Soewandono ketika mengantarkan pasukan, menyampaikan ucapan terima kasih kepada prajurit jajaran Divisi Infanteri 3 Kostrad karena selama penugasan di Palu dan sekitar telah menunjukan kehebatan, semangat, serta tanpa pelanggaran."Kalian adalah pionir, saat masyarakat sedang tidak berdaya, kalian hadir untuk memberikan pertolongan. Apalah artinya Pangkogasgab tanpa adanya prajurit hebat seperti kalian," kata Mayjen Tri seperti dilansir dari Antara.Dia menuturkan, sejarah mencatat bencana di Palu dan sekitar dapat cepat pulih karena adanya campur tangan semua pihak, termasuk prajurit TNI yang semua bahu-membahu untuk melaksanakan tugas bantuan kemanusiaan."Saya bangga dan hormat kepada kalian. Selamat berjumpa dengan keluarga," kata Mayjen Tri di hadapan prajurit TNI.Pasukan TNI tersebut merupakan pasukan yang kali pertama datang di Kota Palu, Kabupaten Donggala, dan Sigi. Pada saat itu sangat dibutuhkan untuk pengamanan dari penjarahan serta untuk penyelamatan dan pencarian korban serta evakuasi.Pekerjaan-pekerjaan tersebut saat ini sudah tidak ada lagi. Mereka turut diperbantukan mendirikan selter-selter pengungsian dan membantu mengordinasi kebutuhan dasar di pengungsian.Penarikan pasukan tersebut juga berdasarkan keputusan masa tanggap darurat penanganan bencana alam di Sulteng yang tidak diperpanjang dan telah masuk status transisi darurat menuju pemulihan.Sebelumnya, Menteri Koordinator Politik dan Hukum Wiranto dalam kunjunganya ke Palu, Jumat (26/10), menyampaikan dengan berakhirnya masa tanggap darurat, pasukan TNI mulai dikurangi.Menkopolhukam yang didampingi Pangkogasgab dan Gubernur Sulteng mengatakan bahwa kondisi Palu, Sigi, dan Donggala saat ini sudah mulai pulih sehingga personel TNI secara berangsur-angsur akan ditarik.Usai diguncang gempa dan tsunami, Palu terus berbenah dan berupaya bangkit. Tak hanya kotanya, tapi juga manusianya.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta - Ketua Majelis Pimpinan Wilayah Pemuda Pancasila Jawa Timur, La Nyalla Mahmud Mattalitti meminta maaf saat bertemu dengan Presiden Joko Widodo saat agenda kunjungan orang nomor satu itu ke Jawa Timur."Saya minta maaf karena pernah ikut menyebarkan informasi-informasi negatif, termasuk isu-isu Jokowi keturunan dan pendukung PKI saat Pilpres yang lalu," kata La Nyalla di Surabaya, Minggu (28/10/2018) seperti dilansir dari Antara.Baca JugaLa Nyalla mengatakan, dalam pertemuannya dengan Jokowi, dia menjelaskan sikapnya saat menjadi oposan, sekaligus meminta maaf karena telah terlibat dalam menyebarkan opini negatif terhadap sosok Jokowi pada Pilpres 2014.Dia mengatakan, setelah mendengar klarifikasi dan permintaan maafnya, Jokowi mengaku sudah tidak menanggapi fitnah-fitnah seperti itu."Sudahlah Bang Nyalla, saya sudah tidak menanggapi lagi fitnah-fitnah seperti itu," kata Jokowi ditirukan La Nyalla.Sementara itu, pertemuan keduanya berlangsung selama 30 menit, dilakukan di hotel tempat bermalam Jokowi berserta rombongan di Surabaya.Di akhir pertemuan, Jokowi mengucapkan terima kasih atas dukungan La Nyalla. Bahkan sempat membaca berita seputar tekad La Nyalla, yang juga calon anggota DPD RI itu untuk memenangkan pasangan Jokowi-Makruf Amin di Madura dalam Pilpres 2019.Capres Joko Widodo atau Jokowi memberikan arahan kepada Tim Kampanye se-Indonesia di Hotel Empire Palace Surabaya, Jawa Timur. Dia meminta untuk mengkampanyekan keberhasilan program pemerintah dan bagaimana mengelola isu yang dipakai lawan."Intinya, seluruh tim kampanye, baik nasional maupun di daerah harus bisa menjelaskan program-program yang telah kita kerjakan," kata Jokowi kepada usai pengarahan, Minggu (28/10/2018).Seperti, lanjut Jokowi, menjelaskan apa manfaat pembangunan infrastruktur bandara, pelabuhan bendungan. Dia juga ingin para tim kampanye mensosialisasikan program yang telah dirasakan langsung masyarakat."Kartu Indonesia Sehat, Kartu Indonesia Pintar, Program Keluarga Harapan, Bantuan Pangan Non Tunai, pembagian sertifikat, reforma agraria dan perhutanan sosial. Harus bisa menjelaskan," sambung Jokowi.Dia juga meminta tim kampanye Jokowi-Ma'ruf Amin menjelaskan dana kelurahan yang baru digagas kepada masyarakat."Saya kira itu yang ingin saya sampaikan agar seluruh tim dari nasional sampai daerah ngerti secara cepat program kita," ucap Jokowi.Para anggota tim kampanye Jokowi-Ma'ruf Amin juga diminta bisa mengelola isu. Mulai tudingan antek asing, tuduhan bohong Blok Mahakam, Blok Rokan, akuisisi Freeport, hoaks tenaga asing, sampai tuduhan Jokowi anggota PKI yang selalu diulang.Jokowi pun sampai berulang kali menyampaikan agar tidak melakukan kampanye kebohongan."Saya kira itu sudah sangat jelas bahwa yang kita selalu ingin tawarkan adalah adu program, adu ide, adu gagasan, adu prestasi, adu rekam jejak," jelas dia.Mantan Gubernur DKI Jakarta ini mengaku, selalu menyampaikan hal tersebut agar para tim kampanye tak terpancing dan bisa menjelaskan kepada masyarakat."Enggak usah terpancing oleh hal-hal seperti itu. Tapi harus bisa juga menjawab, kalau ada masyarakat bertanya harus bisa menerangkan," pungkas Jokowi.Saksikan video pilihan di bawah ini:La Nyalla mundur dari bakal calon gubernur Jatim Partai Demokrat. Ia menuduh Demokrat sengaja mengakomodir salah satu bakal calon gubernur.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta - Presiden Joko Widodo atau Jokowi mengatakan akan membaca secara detil isi Rancangan Undang-Undang Pesantren dan Pendidikan Agama. Ini dilakukan agar RUU itu tak lama dibahas di DPR sehingga segera dapat disahkan menjadi undang-undang."Nanti akan coba saya lihat untuk bisa melihat secara detail sehingga persoalan yang teknis-teknis segera bisa diselesaikan," ujar Jokowi di sela Rakernas TKN Jokowi-Ma'ruf di Surabaya, Jawa Timur, Minggu (28/10/2018).Baca JugaMantan Gubernur DKI Jakarta itu tak ingin RUU tersebut menimbulkan polemik. Dia ingin memastikan dalam rancangan yang ada tidak ada butir kontroversial."Tapi jangan sampai itu ada titik-titik yang nanti menjadi kontroversi," pungkas Jokowi.Sebelumnya, Persekutuan Gereja-Gereja Indonesia (PGI) keberatan dengan Rancangan Undang-Undang (RUU) Pesantren dan Pendidikan Keagamaan yang baru saja dimasukkan dalam UU Prioritas Dewan Perwakilan Rakyat (DPR).Mereka mengkritisi pasal yang mengatur tentang sekolah minggu dan katekisasi yang terdapat pada Pasal 69 dan Pasal 70."Nampaknya RUU ini tidak memahami konsep pendidikan keagamaan Kristen dimana ada pendidikan formal melalui sekolah-sekolah yang didirikan oleh gereja-gereja dan ada pendidikan non-formal melalui kegiatan pelayanan di gereja," kata Sekretaris Umum PGI Gomar Gultom dalam keterangan tertulisnya, Minggu (28/10).Reporter: Ahda BayhaqiMenurut Jokowi Indonesia akan terus maju di tangan para pemuda.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta Pada momen Hari Sumpah Pemuda yang jatuh pada 28 Oktober 2018,  Direktur Utama Pertamina Nicke Widyawati berharap besar pada generasi muda atau milenials. Masa depan Badan Usaha Milik Negara (BUMN) berada di tangan para pemuda Indonesia."Kita kembali diingatkan peran kita semua bagaimana dari sisi kemandirian dan kedaulatan energi yakni peran pemuda pemudi dari semua golongan untuk menciptakan masa depan, yakni lebih berkontribusi lebih baik lagi," ujar dia usai Rapat Koordinasi BUMN 2018 di Bontang, Kalimantan Timur, Minggu malam (28/10/2018).Baca JugaNicke berpendapat, milenials harus diberi ruang untuk dapat mengoptimalkan potensi dan daya yang dimiliki masing-masing. Milenials diharapkan dapat terus memperbaiki diri seiring perkembangan pesat yang terjadi di sekeliling mereka."Di BUMN sendiri bahkan mayoritas itu milenials. Jadi tentu kita berharap ada kontribusi lebih aktif lagi dan lebih banyak lagi dari milenials," ujar dia.Nicke pun berpesan agar para milenials dapat menyesuaikan diri dengan perkembangan teknologi. Terutama bagaimana revolusi industri 4.0 berdampak besar membawa perubahan di abad 21 ini."Karena milenials itu masa depan BUMN, masa depan negara. Jadi milenials harus bisa ikuti perkembangan teknologi dan globalisasi dan dunia," tandas dia.Pertamina turut memeriahkan perayaan Hari Sumpah Pemuda 28 Oktober 2018 dengan menyediakan program promo menarik bagi masyararakat. Promo berbentuk pemberian gratis 2 liter Pertalite bagi yang membeli Bright Gas pada Minggu (28/10/2018) ini.Promo ini berlaku di 3 titik pembelian Bright Gas di wilayah Lampung. Pjs. Region Manager Communication &amp; CSR Pertamina Sumbagsel, Taufikurachman mengatakan,‎ masyarakat Lampung dapat membeli Bright Gas 5.5 Kg di SPBU 23.351.24 Jalan Ratu Dibalau Kecamatan Tanjung Senang.Kemudian SPBU 24.351.33 Jalan Soekarno Hatta (By Pass) Kali Belok dan di booth yang berada di Car Free Day (CFD) Bundaran Gajah/Tugu Adipura. Program ini hanya berlaku pada 28 Oktober 2018 untuk 100 pembeli pertama di masing-masing titik tersebut.Dia menyebut, promo ini diselenggarakan untuk memberikan apresiasi kepada pelanggan Bright Gas yang sudah memilih produk berkualitas hasil karya anak bangsa.“Pertamina mengucapkan terima kasih kepada konsumen setia yang terus membeli produk non subsidi, Bright Gas. Dengan adanya gerakan move on ke produk berkualitas tentunya dapat mendukung penyaluran produk bersubsidi LPG 3 kg yang tepat sasaran,” ujar dia dalam keterangan tertulis di Jakarta, Minggu (28/10/2018).Selain itu, masih dalam rangka Hari Sumpah Pemuda, Pertamina juga menyiapkan prodo trade in dengan menukar 2 tabung kosong LPG 3 kg ke tabung Bright Gas 5.5 kg beserta isi, konsumen hanya perlu mengeluarkan uang Rp 72.500.Atau pembelian tabung perdana beserta isi Bright Gas 5.5 kg hanya membayar Rp 280.000. Dan tentu saja para konsumen trade in ini pun akan diberi Pertalite gratis 2 liter.Menurut dia, sejak diluncurkannya Bright Gas 5.5 kg di Lampung pada 2016, tren konsumsi tabung berwarna pink ini menunjukkan peningkatan yang cukup baik. Sepanjang 2018 ini, kenaikan konsumsi rata-rata setiap bulannya sekitar 10 persenTaufik menambahkan, tabung Bright Gas ini memiliki teknologi katup ganda yang berfungsi mengurangi tekanan gas berlebih, yang dapat membuat tabung lebih aman. Bagi masyarakat yang ingin membeli Bright Gas, dapat langsung ke jalur distribusi resmi Pertamina di agen, pangkalan atau IndoMart terdekat.“Produk ini selain lebih aman, tentunya memiliki warna yang menarik untuk mempercantik dapur Anda. Pertamina berharap, melalui promo program Hari Sumpah Pemuda, semakin banyak masyarakat yang memilih untuk memakai Bright Gas," tandas Taufik.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta - Gelas lama Anda terlihat sudah begitu membosankan dan sepertinya sudah harus masuk gudang? Tunggu dulu. Ternyata ada proyek sederhana yang bisa menyulap mereka kembali tampil cantik seperti sedia kala.Jadi, budget membeli gelas baru seharusnya bisa Anda lokasikan ke kebutuhan lain. Menambahkan warna bisa jadi satu trik agar gelas lama terlihat berbeda, bahkan membuat Anda lupa kalau itu ternyata perabot yang sudah lama dimiliki.Dengan bahan-bahan sederhana dan cara pembuatan yang terbilang mudah, Anda sudah bisa mendapatkan gelas lama dengan look baru. Berikut bahan dan langkah pembuatannya seperti dikutip dari feelitcool.com, Sabtu, 27 Oktober 2018.Baca JugaBahan-bahan yang diperlukan untuk membuat proyek DIY gelas:Beberapa buah botol kuteks dengan warna yang diinginkanAir bersihLidi atau sumpit kecilWadah datar atau mangkuk besarGelas lama AndaSimak video pilihan di bawah ini:Union Kitchen" telah membantu puluhan perusahaan rintisan bidang kuliner untuk mewujudkan impian mereka, tanpa harus punya restoran atau dapur profesional. Bukan hanya perlengkapan masak dapur inkubator ini juga menyediakan jasa pendukung seperti des...Langkah 1Tuangkan air ke dalam wadah secukupnya. Pastikan wadah tersebut dapat merendam seluruh permukaan gelas yang akan diwarnai.Langkah 2Teteskan cat kuku dengan warna yang diinginkan secukupnya dan biarkan mereka berpencar membentuk pola yang unik. Atur posisi cat menggunakan lidi atau sumpit kecil. Lakukan proses pengaturan cat ini dengan cepat agar bisa mendapatkan tekstur yang lengket.Langkah 3Setelah mendapatkan pola yang diinginkan, celupkan gelas ke dalam wadah berisi air dan cat kuku. Lakukan gerakan menarik gelas sedikit ke dalam air, lalu angkat dengan cepat. Letakkan gelas pada bidang datar yang telah dialasi tisu atau koran bekas lalu biarkan mengering. Ulangi sampai semua gelas sudah diwarnai.Diamkan minimal satu hari agar pola gambar mengering dengan sempurna. Setelah kering, Anda bisa menyemprotkannya dengan sealer bening (opsional) untuk menjaga ketahanan cat kuku agar tak mudah terkelupas.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta - Presiden Partai Keadilan Sejahtera (PKS) Mohammad Sohibul Iman meminta kader partai yang mengundurkan diri dari kepengurusan di daerah tidak membuat kegaduhan. Dia juga berharap, mereka yang hengkang lebih bahagia di tempat lain."Tapi tolong kalau sudah tidak betah jangan kemudian membuat kegaduhan. Kalau niatnya baik jangan gaduh, toh kita juga tidak memaksa," ujar Sohibul di Kantor DPP PKS, Jalan TB Simatupang, Jakarta Selatan, Minggu 28 Oktober 2018.Baca JugaDia mengaku tidak tahu persis alasan mereka keluar. Namun, pada dasarnya berpartai atau berorganisasi sesuatu yang sukarela dan sesuai dengan minat."Jadi kalau memang mau bergabung dengan PKS ya kita terima, kalau di PKS sudah merasa tidak bahagia, mencari yang lain ya silakan juga," ungkapnya.Dia mengatakan, jumlah pengurus dan kader PKS yang bergejolak di daerah tidak banyak. Sehingga, tidak mempengaruhi kesolidan partai, termasuk dalam pemenangan pasangan capres-cawapres nomor urut 02 Prabowo Subianto dan Sandiaga Salahuddin Uno."Solid, insyaallah. Kemarin ditanyakan setengah hati dengan Pak Prabowo, enggak setengah, hati tapi dua hati," ucap Sohibul.Sebelumnya, 80 kader dan pengurus mengundurkan diri dari kepengurusan Kabupaten Banyumas. Alasannya karena mereka diharuskan menandatangani pakta integritas loyalitas terhadap partai.Pengurus DPD PKS di Bali juga mengundurkan diri. Pengunduran diri massal ini imbas dari dilantiknya pengurus baru yang ditunjuk oleh DPP PKS.Ketua DPW PKS Provinsi Bali demisioner, Mudjiono menjelaskan, hal ini bermula dari penggantian jajaran Dewan Pimpinan Tingkat Wilayah (DPTW) PKS Provinsi Bali pada tanggal 27 September 2018 yang dilaksanakan tidak dengan prosedur kepartaian, tanpa musyawarah dan dilakukan pada detik setelah kelolosan PKS sebagai kontestan pemilu 2019.Pengunduran diri itu terungkap saat Wakil Ketua DPR sekaligus Politikus PKS yang sedang berseteru dengan Presiden PKS Mohammad Sohibul Iman, Fahri Hamzah mengunggah foto kader PKS melepas jaket kebanggaan sebagai kader."Tuan @msi_sohibuliman mengapa merusak partai kami? Saya baru terima foto-foto pengunduran diri pengurai berat di propinsi bali, mereka buka baju dan jaket partai semuanya. Apa yang terjadi? Dusta bersih ini? #SavePKS," tulis Fahri dalam akun Twitternya yang telah mengizinkanmerdeka.com untuk mengutipReporter: Sania MashabiSumber: Merdeka.comBerpasangan dengan Sandiaga Uno di Pilpres 2019, PKS tetap konsisten mendukung Prabowo Subianto.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Bogor - Perempuan berinisial NR dijemput personel Reserse Kriminal Polsek Cileungsi, Bogor, Jawa Barat, Senin, 22 Mei 2017 siang. NR dijemput untuk dimintai keterangannya terkait status atau berita hoax yang ia unggah di Facebook.Seperti ditayangkan Liputan 6 Pagi SCTV, Selasa (23/5/2017), status itu antara lain menyebut tindakan berlebihan polisi lalu lintas saat menggelar operasi patuh, seperti melepas tembakan kepada pelanggar.Pemanggilan dilakukan atas laporan Polantas, yang merasa disudutkan dengan berita bohong yang diunggah NR.Saat pemeriksaan, NR mengaku emosi setelah mendengar cerita adiknya yang terjaring operasi patuh karena tidak membawa surat kelengkapan kendaraan.Lantaran tidak terbukti ada penembakan, pengunggah berita hoax pun meminta maaf dan mengoreksi unggahannya.Masyarakat harus benar-benar bijak dalam menggunakan media sosial. Mengunggah komentar berdasar emosi sesaat di media sosial, apalagi tanpa mengecek kebenarannya, bisa dijerat dengan Undang-Undang Informasi dan Transaksi Elektronik (UU ITE), dengan ancaman pidana kurungan 6 tahun.Saksikan video perempuan asal Bogor ditangkap karena mengunggah berita hoax di medsos.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta - Bhinneka Tunggal Ika Awards 2017 disematkan kepada 12 tokoh Tanah Air yang dianggap berkontribusi demi keutuhan bangsa dan negara.Seperti dtayangkan Liputan 6 Pagi SCTV, Selasa (23/5/2017), acara yang digelar atas kerja sama Lembaga Pemilih Indonesia dan kantor berita Antara ini digelar di Wisma Antara, Senin petang, 22 Mei 2017.Mereka yang mendapat Anugerah Bhinneka Tunggal Ika Awards itu di antaranya, Megawati Soekarnoputri, Oesman Sapta Oedang, Budi Gunawan, Jenderal Polisi Tito Karnavian, Jenderal TNI Gatot Nurmantyo, dan beberapa tokoh lain.Seluruh proses penerimaan ini diwakilkan. Megawati misalnya, sebagai salah satu pemenang diwakili oleh Wakil Sekjen PDI Perjuangan Ahmad Basarah.Anugerah Bhinneka Tunggal Ika diberikan untuk mereka yang berkontribusi besar untuk menjaga keutuhan Negara Kesatuan Republik Indonesia (NKRI).Saksikan video 12 tokoh terima Anugerah Bhinneka Tunggal Ika Awards 2017.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Surabaya - Menteri Pemuda dan Olahraga Imam Nahrawi menyambut baik putra-putri terpilih bangsa dalam ajang Kapal Pemuda Nusantara (KPN) 2018. Dia berpesan, kearifan lokal yang dibawa dari seluruh provinsi Indonesia ini bisa terus dibudayakan dan dilestarikan hingga akhir hayat."Perwakilan masing khas provinsi ini harus dibudayakan selama-lamanya sampai kiamat tiba, karena itu menjadi pondasi penting kokoh tegaknya Negara Kesatuan Republik Indonesia," kata Menpora Imam saat meresmikan kegiatan KPN 2018 di Surabaya, Jawa Timur, Sabtu 27 Oktober 2018.Baca JugaMenpora Imam mengatakan, ada dan berdirinya Indonesia berkat karunia dari Tuhan Yang Maha Esa. Karunia itu melalui tangan-tangan para pemuda dan pemudi terbaik bangsa pada zamannya."Kemerdekaan ini ada karena dimemerdekakan atas Ridha Allah SWT, juga karena pemuda-pemudi kita 90 tahun lalu yang mewakili seluruh unsur yang berbeda baik agama, ras, provinsi, politik, ekonomi, ilmu, dan sebagainya," jelas Imam.Kepada seluruh peserta KPN 2018, Imam berpesan untuk bisa mengawal terus cita-cita luhur bangsa. Dia menegaskan untuk tidak boleh ada paham lain selain Panasila, lantaran hal tersebut adalah suatu cipta yang lahir atas ikrar Sumpah Pemuda."Jadi tidak boleh ada cita-cita lain selain mengawal NKRIyang damai makmur, ini sebuah legacy peninggalan pemuda pemudi Indonesia kita harus merawat dan mengamankannya agar tetap langgeng seperti kita rasakan," Imam memungkasi.Tradisi Sadranan yang sudah turun-temurun ini diharapkan dapat menjadi pemersatu bangsa dan sebagai pelestarian budaya.</t>
-  </si>
-  <si>
-    <t>Milan - AC Milan mengalahkan Sampdoria 3-2 pada pekan ke-10 Serie A 2018-2019, di San Siro, Senin (29/10/2018) dini hari WIB. Gol penentu kemenangan tuan rumah dijaringkan Suso.Bermain di hadapan publik sendiri, AC Milan berhasil unggul 1-0 saat laga baru berjalan 17 menit. Striker Rossoneri, Patrick Cutrone, membobol gawang tim tamu melalui sundulan setelah memanfaatkan umpan silang Suso.Baca JugaNamun, keunggulan AC Milan hanya bertahan empat menit. Sampdoria menyamakan skor menjadi 1-1 melalui gol yang dicetak gelandang serang, Riccardo Saponara.Sepuluh menit berselang, AC Milan bahkan tertinggal 1-2 dari Sampdoria. Umpan Saponara tidak disia-siakan Fabio Quagliarella untuk menggetarkan gawang Gianluigi Donnarumma.AC Milan yang tidak ingin malu di hadapan publik sendiri terus berupaya menyamakan kedudukan. Upaya itu membuahkan hasil saat Gonzalo Higuain membobol gawang Sampdoria untuk membuat skor menjadi 2-2 pada menit ke-36.Di babak kedua, AC Milan yang tampil menekan akhirnya kembali berbalik unggul di laga ini. Tembakan melengkung Suso dari luar kotak penalti tidak bisa diantisipasi Emil Audero dan membuat skor 3-2 bertahan hingga laga usai.Hasil positif ini menempatkan AC Milan di posisi ketujuh klasemen sementara dengan 15 poin. Sementara itu, Sampdoria berada di peringkat ke-15 dengan jumlah poin yang sama dengan Suso dkk.CEO AC Milan Puji Kinerja Gennaro GattusoSusunan pemainAC Milan (4-4-2): 99-Gianluigi Donnarumma; 2-Davide Calabria, 22-Mateo Musacchio, 13-Alessio Romagnoli, 68-Ricardo Rodríguez; 8-Suso, 21-Lucas Biglia, 79-Franck Kessié, 93-Diego Laxalt; 9-Gonzalo Higuaín, 63-Patrick CutronePelatih: Gennaro GattusoSampdoria (4-3-1-2): 1-Emil Audero, 24-Bartosz Bereszynski, 26-Lorenzo Tonelli, 3-Joachim Andersen, 29-Nicola Murru; 10-Dennis Praet, 6-Albin Ekdal, 16-Karol Linetty; 5-Riccardo Saponara; 92-Gregoire Defrel, 27-Fabio QuagliarellaPelatih: Marco Giampaolo</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta - Huawei kembali menyindir kompetitornya. Kali ini, perusahaan memanfaatkan keputusan otoritas kompetisi Italia, yang menilai Apple dan Samsung sengaja menurunkan performa agar pengguna memperbarui software ponsel.Sindiran terbaru Huawei ini diunggah ke Twitter, yang sekaligus untuk mempromosikan smartphone terbaru, Mate 20.Baca Juga"Kami tidak akan menurunkan performa ponsel untuk memaksa upgrade. Kami bangga #HuaweiMate20Pro #BornFastStaysFast, seperti smartphone kami yang lain. #NeverSlowDown," demikian kicau Huawei, seperti dikutip dari GSM Arena, Minggu (28/10/2018).We would never slow our phones down to force an upgrade. We're proud our new #HuaweiMate20Pro is #BornFastStaysFast - just like every other phone in our range. #NeverSlowDown Learn more now &gt; https://t.co/Fn1ADt5VBW pic.twitter.com/AJihfosqAMIni bukan kali pertama Huawei membanggakan performa perangkatnya. Saat mengumumkan seri Mate 20, perusahaan membandingkan kecepatan perangkat tersebut dengan Galaxy Note 9 dan iPhone Max.Seri Mate 20 adalah flagship terbaru Huawei, yang diumumkan pada bulan ini. Selain Mate, seri flagship lain Huawei adalah P yang biasanya diumumkan pada periode semester I.Terlepas dari saling sindir, keinginan Huawei untuk merilis smartphone terbarunya di Amerika Serikat (AS) masih belum tercapai karena isu keamanan nasional. Oleh sebab itu, perusahaan juga tidak bisa merilis Mate 20, di negara tersebut.Pihak Huawei mengatakan kepada Business Insider, bahwa perusahaan tidak berencana menjual varian seri Mate 20 apa pun di AS. Berdasarkan pernyataan itu, maka konsumen di sana tidak akan bisa membeli seri Mate 20 secara resmi atau langsung dari Huawei.Kendati demikian, bukan berarti konsumen Negeri Paman Sam tidak bisa memiliki smartphone tersebut. Mereka kemungkinan masih bisa menemukan varian internasional Mate 20 di berbagai ritel online.Jika demikian, Huawei mengingatkan konsumen agar membaca dengan seksama soal garansi dan kompatibilitas jaringan sebelum membeli Mate 20.Di sisi lain, Huawei akan menjual Watch GT di AS. Harga jual smartwatch ini akan diumumkan dalam waktu dekat.Adapun Mate 20 merupakan seri smartphone baru yang diumumkan oleh Huawei pada 16 Oktober di London, Inggris. Keluarga besar Mate 20 hadir dalam tiga varian,yakni Mate 20, Mate 20 Pro dan Mate 20 X.Mate 20 merupakan seri flagship kedua yang dirilis Huawei pada tahun ini. Sebelumnya, flagship lain yakni Huawei P20, diumumkan pada semester I 2018.(Din/Isk)Saksikan Video Pilihan Berikut Ini:Duel Kamera Huawei P20 Pro Vs Samsung Galaxy S9 Plus, Siapa Lebih Unggul?</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta Sepintas mungkin Anda melihat aluminium ini merupakan hasil cetakan dari mesin otomatis. Namun, siapa sangka aluminium berbentuk minuman kaleng disulap menjadi sebuah mahakarya bernilai tinggi di tangan seniman satu ini.Baca JugaNoah Deledda, seorang seniman yang hanya menggunakan ibu jarinya membuat lekukan dan kerutan pada logam lunak menjadi sebuah karya yang fantastis.Pola geometris yang sempurna terpahat pada kaleng aluminium berkilau ini hanya dibuat dengan kedua tangan saja tanpa alat bantu lainnya.Lihat saja, mungkin Anda berpikir bahwa tidak mungkin ada orang yang membuat benda ini hanya dengan tangan mereka.Itulah mengapa seniman berbakat satu ini membuat video dari proses kreatifnya untuk membuktikan bahwa dirinya tidak menggunakan mesin untuk membentuk kaleng aluminium daur ulang.Noah memulai membentuk aluminium dengan mengamplas lapisan yang bisa dicetak, lalu memolesnya hingga menjadi bagus dan berkilau.Kemudian berlanjut ke bagian yang sangat sulit, dengan menggunakan ibu jarinya untuk membuat lipatan dan lekukan ke dalam logam lunak sambil memastikan bahwa setiap sudut kaleng terbentuk tanpa cacat dan benar-benar nampak layaknya dibentuk oleh cetakan mesin.Seperti yang dapat Anda bayangkan, proses ini dilakukan dengan penuh ketelitian dan membutuhkan kesabaran ekstra.Noah menegaskan bahwa ia mengembangkan tekniknya tersebut melalui uji coba dan kesalahan selama bertahun-tahun sebelumnya hingga akhirnya bisa menjadi sempurna.Karya-karya hasil buatannya pun kini dipajang di berbagai pameran bergengsi internasional.Menghancurkan, mengelupas dan mengerut menjadi metode untuk menciptakan desain, presisi, simetri dan keseimbangan. Proses ini Noah alami selama bertahun-tahun melalui banyak uji coba dan latihan.Sangat penting baginya untuk melakukan semua pahatan tanpa menggunakan alat khusus atau manipulasi lainnya. Pembentukan kaleng adalah proses yang secara keseluruhan dibentuk hanya kedua ibu jari yang secara bersamaan membentuk sebuah silinder.Selama bertahun-tahun pula Noah belajar sendiri untuk menghasilkan desain geometris yang berbeda dan lebih mengesankan daripada yang lain.Noah mengatakan banyak orang yang beranggapan bahwa mereka belum pernah melihat karya seni seperti ini sebelumnya.Seniman ini tidak menyia-nyiakan kaleng-kaleng aluminium yang hancur hanya dibuang dan terbengkalai begitu saja, justru melihat bahwa tindakan-tindakan merusak dan menghancurkan seperti inilah yang dapat benar-benar menjadi sebuah proses kreatif dan disajikan sebagai sebuah seni yang menarik.Percaya atau tidak, bentuk seni luar biasa ini lahir dari kebosanan semata.Cerita awal dimulai saat Noah sedang berada dalam perjalanan pulang dari Orlando. Ia duduk di kursi belakang mobil tanpa melakukan apapun.Saat itu ia baru saja menghabiskan sekaleng minuman soda dan mulai membentuk-bentuk kaleng tersebut dengan kedua tangannya.Ia mengotak-atik kaleng yang sebagian telah hancur dan penyok lalu mulai membentuknya. Momen 'iseng' tersebut menjadi awal Noah mendapatkan ide-ide baru untuk membuat suatu karya.Noah pun kemudian menerapkan beberapa geometri dan beberapa prinsip pengulangan dan bereksperimen dengan kaleng-kaleng tersebut menjadi sesuatu yang lebih dari yang ia pikirkan.Saat ini, Noah dinobatkan sebagai seniman internasional dan kaleng hasil karyanya laris terjual seharga lebih dari $ 2.000 atau setara dengan 3.040.490 ribu rupiah per kalengnya.Penulis:Immanuela Harlita Josephine</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta - Badan Meteorologi, Klimatologi, dan Geofisika (BMKG) memprakirakan, pagi ini, Senin (29/10/2018), seluruh wilayah DKI Jakarta, cerah berawan.Pada siang hari, potensi turun hujan akan terjadi di sejumlah titik Ibu Kota. Di antaranya Jakarta Barat, Jakarta Selatan, dan Jakarta Timur.Baca JugaKondisi langit cerah diprediksi BMKG juga akan menyinari tiga kota penyangga Jakarta. Bekasi, Depok, dan Bogor di pagi ini, cerah berawan. Sementara, Tangerang akan turun hujan ringan.Ada pun siang hari hingga menjelang malam nanti, Bekasi, Depok, Bogor, dan Tangerang akan diguyur hujan secara merata dengan intensitas ringan hingga sedang.Berikut prakiraan cuaca Jabodetabek selengkapnya yang dikutip Liputan6.com dari laman resmi BMKG, Senin (29/10/2018):Saksikan video pilihan di bawah ini:BMKG minta masyarakat waspada banjir bandang. Ada tiga gejala awal akan terjadinya banjir bandang.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta - Siapa sangka kalau perkembangan teknologi ternyata juga bisa menyasar ke soal perasaan. Munculnya beragam aplikasi kencan online jadi buktinya. Sekarang hanya sejauh klik, Anda mungkin bisa menemukan cinta sejati.Berbicara tentang kencan online, sebagian orang mungkin langsung terbayang aplikasi Tinder. Padahal, ada beberapa opsi dengan preferensi lain yang mungkin dicoba. Dari sekian banyak, berikut beberapa di antaranya yang sudah dirangkum Liputan6.com.Baca JugaMiss TravelAplikasi ini sangat cocok bagi Anda yang tak keberatan traveling dengan orang asing. Di samping berkencan, siapa tahu Anda bisa menemukan teman seperjalanan yang sangat menyenangkan dan memberi banyak insight baru.Berbeda dengan Tinder yang menggunakan GPS, Miss Travel dapat menghubungkan Anda dengan banyak orang di manapun berada. Di beberapa kasus, bahkan ada mereka yang bisa jalan-jalan gratis jika teman kencan mau membayar biaya perjalanan.BumbleAplikasi ini sebenarnya mirip dengan Tinder, tapi jauh lebih ramah bagi para perempuan. Di sini, hanya perempuan yang bisa memulai percakapan. Hal ini dilakukan demi mencegah rasa terganggu karena teror dari para lelaki.Jadi, perempuan biasanya lebih aktif di aplikasi kencan online ini dan bisa dengan bebas memilih dengan siapa mereka berbicara. Siapa tahu, salah satu di antaranya bisa cocok dan malah berlanjut menjadi kekasih di dunia nyata.Saksikan video pilihan di bawah ini:Begini pendapat para pria ketika ditanya soal kencan secara online.WooplusSesuai dengan namanya, aplikasi ini ditujukan untuk orang-orang bertubuh plus-sized. Wooplus dibuat agar orang plus-sized lebih percaya diri mencari jodoh di dunia maya. Seperti Tinder, aplikasi ini juga memakai fitur swipe untuk memilih teman kencan.Muz MatchHalal, gratis, dan menyenangkan, aplikasi ini cocok bagi Anda yang mencari pasangan hidup beragama Islam. Penggunanya di Indonesia sudah cukup banyak. Karena bernafas Islam, aplikasi ini mengklaim bisa mencari pasangan bagi Anda yang ingin taaruf.OkCupidOkCupid dikatakan memberi kecocokan lebih detail dari Tinder, mulai dari mem-filter pesan sampai menemukan siapa yang benar-benar menyukai Anda (untuk akun premium). Ada yang gratis memang, namun Anda juga bisa memilih akun premiur berbayar 9.95 dolar Amerika (Rp 151 ribu) per bulan (paket 6 bulan) dan 14.95 dolar Amerika (Rp 227 ribu) per bulan (paket 3 bulan).Meet Me OutsideJika Anda mencari teman kencan yang menyukai kegiatan luar ruang, maka aplikasi ini mungkin ingin dipertimbangkan. Kencan yang nantinya dilakukan bisa saja berisi kegiatan yang sama-sama kalian sukai seperti lari atau bersepeda. Tertarik?Mengingat rentannya penipuan berkedok cinta di dunia maya, wajib hukumnya bagi Anda untuk berhati-hati jika hendak berkenalan lewat daring. Kualitas diri harus disiapkan sebelum melihat ke faktor lain."Yang pasti harus tambah pengetahuan dan keterampilan. Kalau kecerdasan intelektual, emosional, dan sosial sudah matang, perhitungan secara rasional dan bisa mengenali bahwa ada tipu daya dan muslihat," papar Kasandra Putranto seorang Psikologi Klinis lewat pesan singkat pada Liputan6.com, Jumat, 26 Oktober 2018."(Penipu) Kelihatan kalau terlalu lebay, terlalu terburu-buru, terlalu bernafsu hampir tiap hari menghubungi secara intensif. Lalu, ada juga ketidak konsistenan antara perilakunya. Awalnya dia bilang, dia tentara. Tapi, kok kayak nggak punya kerjaan nongkrongin media sosial," sambungnya.Kasandra menambahkan, oknum penipu ini biasanya mencari korban yang sering mengekspresikan diri sendiri, sendirian, butuh cinta, butuh kasih sayang, dan pasangan hidup. Kemudian, mereka akan  mempelajari konten media sosial korban."Pelaku sendiri akan memasang figur dan konten yang sama, seolah-olah mencari pasangan, punya anak, ditinggal pasangan, pekerjaan mapan, dan lain sebagainya. Lalu, mereka akan melakukan usaha pendekatan. Dengan foto diri yang menarik padahal belum tentu itu dirinya, memberi rayuan, mau memberikan hadian," tandasnya.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Leicester - Ucapan duka datang silih berganti mengiringi kepergian pemilik klub sepak bola Leicester City, Vichai Srivaddhanaprabha, yang telah dikonfirmasi meninggal dunia dalam kecelakaan helikopter di luar Stadion King Power, Leicester, Inggris, pada Sabtu 27 Oktober.Pebisnis Thailand berusia 61 tahun itu adalah satu dari lima orang yang tewas ketika helikopter yang ditumpanginya kehilangan kendali dan jatuh di sebuah lahan parkir, setelah dirinya menyaksikan Leicester City meraih hasil imbang 1-1 melawan West Ham.Di bawah kepemilikan Srivaddhanaprabha, sebagaimana dikutip dari Sky Sports pada Senin (29/10/2018), Leicester mengamankan promosi ke papan atas pada tahun 2014 dan, melawan kemungkinan 5.000-1, memenangkan gelar Liga Primer 2015/16.Baca JugaPenyerang Jamie Vardy, yang mencetak 24 gol Liga Primer di musim Leicester memenangkan gelar, adalah salah satu pemain klub pertama yang mengucapkan duka kepada Srivaddhanaprabha.Dia menulis di Instagram: "Berjuang untuk menemukan kata-kata yang tepat .... tetapi bagi saya Anda adalah legenda, seorang pria luar biasa yang memiliki hati terbesar, jiwa Leicester City Football Club."Kapten Leicester Wes Morgan menulis di Twitter: "Benar-benar patah hati dan hancur berkenaan dengan berita tentang ketua kami.""Seorang pria yang dicintai dan dipuja oleh semua orang di sini, di LCFC dan seseorang yang saya pribadi sangat hormati," lanjutnya.Pemain sepak bola asal Inggris yang paling tertutup, dan juga mantan kiper Leicester, Peter Shilton, mengklaim menyaksikan sendiri kecelakaan helikopter terkait.Dia menulis di Twitter: "RIP ke pemilik @LCFC terbesar yang pernah ada. Ini adalah hal istimewa pernah bertemu dengannya dan belasungkawa kepada keluarga yang kehilangan orang yang mereka cintai dalam tragedi semalam."Raksasa sepak bola asal Spanyol, Barcelona mengetwit: "Ucapan duka kami menyertai dengan seluruh keluarga @lcfc. Istirahat dalam damai."Saat ini, pihak Scotland Yard --dinas kepolisian Inggris-- masih menyelidiki penyebab kecelakaan helikopter itu. Laporan sementara mengatakan bahwa baling-baling tidak berfungsi dengan baik, engakibatkan keseimbangannya rusak, dan kemudian gagal terbang.Simak video pilihan berikut:Helikopter milik bos besar Leicester City jatuh di area parkir mobil di stadion kandang klub, King Power Stadium, Leicester, Inggris, usai lepas landas setelah pertandingan antara Leicester City vs West Ham United.Helikopter milik bos besar Leicester City jatuh di area parkir mobil di stadion kandang klub, King Power Stadium, Leicester, Inggris, usai lepas landas pasca-pertandingan antara Leicester City vs West Ham United, Sabtu 27 Oktober 2018 malam waktu setempat.Saksi mata mengatakan bahwa beberapa polisi tampak sempat berusaha menyelematkan orang di dalam helikopter sesaat setelah capung besi itu terjatuh di area parkir stadion kandang Leicester City tersebut."Salah satu dari polisi itu mencari sesuatu dan yang lain, dia langsung lari ke helikopter dan dia berusaha memecahkan jendela," tambahnya."Kemudian ada ledakan dan mereka mundur karena api terlalu panas."Fotografer lepas Ryan Brown sedang meliput pertandingan Leicester City vs West Ham United, melihat helikopter itu meninggalkan King Power Stadium sebelum jatuh. Namun ia tidak melihat apakah ada Srivaddhanaprabha di dalamnya.Dia mengatakan kepada BBC Radio Leicester: "Mesin berhenti dan saya berbalik dan helikopter itu membuat sedikit suara desingan, seperti suara berderik.""Helikopter itu hanya terdiam, aku berbalik dan itu hanya berputar, di luar kendali. Dan kemudian ada dentuman besar dan kemudian bola api besar."</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta - Belakangan ini, masyarakat dihebohkan dengan isu penculikan anak yang terjadi di berbagai daerah melalui media sosial. Polri menyatakan, isu penculikan anak tersebut sebagai kabar bohong alias hoaks."Itu hoaks, sudah diklarifikasi oleh tim Siber Polri. Sejauh ini polisi belum menerima laporan dari masyarakat terkait masalah penculikan itu," ujar Kepala Biro Penerangan Masyarakat Divisi Humas Polri Brigjen Pol Dedi Prasetyo saat dikonfirmasi Liputan6.com, Jakarta, Minggu (28/10/2018).Baca JugaPolri mengimbau masyarakat lebih cerdas dalam menyikapi informasi, video ataupun gambar yang beredar melalui media sosial. Masyarakat juga diimbau tidak menyebarkan informasi yang belum jelas kebenarannya."Kalau ragu-ragu silakan untuk diklarifikasi dan dikonfirmasi ke kepolisian terdekat. Jadi info-info yang tersebar itu mohon maaf sebagian besar hoaks," katanya.Jenderal bintang satu itu juga meminta agar masyarakat tidak mudah main hakim sendiri ketika menemukan orang mencurigakan. Apalagi isu yang beredar menyebutkan, rata-rata pelaku penculikan berpura-pura sebagai orang gila."Kalau melihat orang yang mencurigakan, sebaiknya lapor kepada petugas terdekat, kepolisian atau Ketua RT/RW. Jangan melakukan tindakan-tindakan main hakim sendiri, karena itu akan merugikan semua pihak," ucap Dedi.Jumat 26 Oktober 2018 siang, ratusan warga menangkap tiga perempuan bercadar di salah satu yayasan sekolah kawasan Rajabasa, Bandar Lampung yang dicurigai sebagai pelaku penculikan.Masyarakat resah terkait maraknya isu penculikan anak di bawah umur yang beredar luas di media sosial. Warga kemudian menyerahkan ketiganya ke polisi.Dari hasil pemeriksaan petugas, ketiga perempuan ini justru akan menolong dua siswa SD kakak beradik. Ketiganya adalah bibi dari siswa SD tersebut.Mereka berencana akan menjemput dua keponakannya untuk dibawa pulang ke kampung halaman di Way Kanan. Karena orangtua kedua bocah tidak sanggup lagi membayar biaya asrama di sekolah.Polisi kemudian mengizinkan ketiga perempuan bercadar ini membawa kedua keponakannya pulang.Saksikan video pilihan di bawah ini:Masyarakat resah terkait maraknya isu penculikan anak dibawah umur yang beredar luas di media sosial.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta - Sebagai pasangan suami istri, Kartika Putri dan habib Usman bin Yahya tentu menyimpan angan untuk memiliki momongan. Tapi, keinginan itu rupanya harus sedikit tertunda.Kartika Putri diketahui baru saja menjalani vaksin kanker serviksnya yang terakhir di Singapura. Agar vaksinnya bekerja efektif, wanita berhijab ini belum diperbolehkan hamil dalam jangka waktu tertentu."Kan aku jadwalnya memang vaksin terakhir, sekalian cek segala sesuatunya. Jadi sudah selesai vaksinnya. Vaksin serviks," kata Kartika Putri, dikutip dari tayangan Hot Shot, Minggu (28/10/2018)."Kita sudah berumah tangga kan juga cek kandungan, sehat atau enggak. Alhamdulillah semuanya di sana ok, cuma tetap harus menunggu tiga bulan lagi. Sabar ya bro," ia menyambung pernyataan.Baca JugaFirst Look Film GundalaSang suami sendiri menginginkan anak berjenis kelamin laki-laki. Namun begitu, semua kembali lagi pada ketetapan Yang maha Pencipta."Habib sih penginnya cowok, kalau aku apa aja. Cuma jadi kepikiran, karena habib maunya cowok, akhirnya pas ketemu dokter nanya, makan apa sih," imbuh Kartika Putri."Katanya makanannya harus berprotein tinggi. Yang tadinya enggak mau makan kambing, sekarang mau enggak mau ikutan makan kambing," lanjutnya.Sebagai bentuk usaha mendapatkan momongan, akhir tahun nanti Kartika Putri dan Habib Usman bin yahya juga berencana untuk berbulan madu. Keduanya sepakat menghabiskan waktu di Benua Eropa."Aku bilang, 'Bib, ke Eropa aja yuk'. 'Ya sudah boleh, tapi pulangnya insyaAllah sekalian umrah ya'," tandas Kartika Putri.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta - Sebanyak 99 putra-putri terpilih Kapal Pemuda Nusantara (KPN) 2018, berpakaian adat masing-masing daerahnya. Mulai dari Aceh hingga Papua, dengan bangga mereka persembahkan indahnya keberagaman corak baju adat mereka."Bangga rasanya, kita jauh dari Papua datang ke sini bawa pakai baju adat dan salah satu memperkenalkan daerah kita dengan pakaian adat ini," ujar Isak Wona (21) pemuda asal Papua di lokasi, Sabtu 27 Okttober 2018.Baca JugaHal senada diutarakan gadis asal Lampung bernama Hanna Aqidatul. Dia mengungkap, pakaian adat adalah sebuah identitas dan jati diri dalam mengenalkan Indonesia ke mata dunia dan juga persatuan."Bangga menjadi delegasi Indonesia, terus seneng berjumpa dengan teman lainnya, intinya dengan segala perbedaan justru mempersatukan," kata Hanna Aqidatul (21), Lampung Universitas LampungKarenanya Isak, Hanna dan seluruh putra-putri KPN 2018 sepakat menyerukan kepada generasi muda agar tidak malu dan terus percaya diri untuk terus erat bergandengan dan menjunjung persatuan dan kesatuan Indonesia hingga kapan pun."Siapa kita? Indonesia! NKRI, Harga Mati!," seru putra-putri KPN 2018.Tradisi Sadranan yang sudah turun-temurun ini diharapkan dapat menjadi pemersatu bangsa dan sebagai pelestarian budaya.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta - Ge Pamungkas dan kekasihnya, Anastasia Herzigova tidak lama lagi akan menggelar pesta pernikahan. Keduanya akan menggelar resepsi pada 1 Desember 2018.Menjelang hari bahagianya itu, Ge Pamungkas mengungkapkan alasan dirinya begitu mencintai sang kekasih. Semula, Ge Pamungkas mengira dirinya jatuh cinta dengan Anastasia karena kecantikannya.Hal itu dituangkan dalam sebuah unggahan pada Sabtu (27/10/2018), di akun Instagram Ge Pamungkas.Baca Juga"Awalnya aku mengira, mungkin karena kamu sangatlah cantik. Kemudian aku berpikir, mungkin karena kecerdasanmu, dan kebaikan hati yang kamu miliki. Bahkan aku sempat berpikir, mungkin karena kamu adalah orang yang sangat nyaman diajak berbincang. Ternyata bukan," tulis Ge Pamungkas.Simak juga video menarik berikut ini:First Look Film GundalaGe Pamungkas menyadari bahwa bukan paras cantik Anastasia Herzigova lah alasan ia mencintainya. Tetapi lebih dari itu."Alasan aku mencintaimu adalah cara kamu melihatku yang menimbulkan perasaan bangga akan diriku sendiri, memberi rasa pada kehidupan yang hambar, dan memberikan ketenangan dalam hati. Betapa beruntungnya aku mendapatkanmu. Dan kelak saat kita menua dan keriput, aku berjanji. Kelak kamu akan berbincang dengan anak-anak kita, dan kamu berkata pada mereka. "Untung Ibu menikah dengan Ayahmu." Itu janjiku," lanjutnya.Unggahan tersebut pun langsung direspons oleh sang kekasih. Anastasia Herzigova mengaku terkejut dan tak bisa berkata-kata ketika membaca keterangan foto dalam unggahan tersebut."Ini dari tadi coba komentar tapi hapus-ketik-hapus karena saking kaget sama caption nya. Speechless. Ge.. I just want you to know that i'll always love you and i want you to know how much more you mean to me every day," balas sang kekasih.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta Sosialisasi yang diikuti ratusan peserta di Kantor Kelurahan Teluk Bayur, Kecamatan Telur Bayur, Kabupaten Berau, Kalimantan Timur, Sabtu (27 /10/2018), berlangsung sangat meriah. Selepas pemaparan yang disampaikan oleh Wakil Ketua MPR Mahyudin, puluhan peserta mengajukan diri untuk menyampaikan pertanyaan dan saran. Dari peserta yang terpilih untuk mengajukan pertanyaan dan saran, mereka mewakili pelajar, LSM, guru, dan tokoh masyarakat.Pertanyaan dan saran yang mereka ajukan mayoritas menginginkan sosialisasi dilakukan kepada seluruh element masyarakat terutama pejabat. Dikatakan pejabat perlu mendapat sosialisasi sebab menurut mereka saat ini banyak pejabat yang melakukan korupsi dan ditangkap KPK.Baca JugaMahyudin senang peserta antusias dalam kegiatan itu. Menjawab pertanyaan dan saran dari mereka, pria asal Kalimantan Timur itu mengatakan, Sosialisasi Pancasila, UUD NRI Tahun 1945, NKRI, dan Bhinneka Tunggal Ika, diberikan kepada seluruh element masyarakat dari tingkat PAUD hingga perguruan tinggi bahkan kepada berbagai kalangan dari guru, tokoh agama, tokoh masyarakat, mahasiswa, aktivisi perempuan, TNI, Polri, dan profesi lainnya.Sosialisasi itu disampaikan dengan beragam metode, mulai dari diskusi, seminar, lomba cerdas cermat, outbond, TOT, FGD, pagelaran seni-budaya, bahkan melibatkan ustad Abdul Somad. "Saya sudah melakukan sosialisasi ke berbagai wilayah di Indonesia", ungkapnya.Diakui pemasyarakatan Empat Pilar tak cukup bila hanya dilakukan oleh MPR. Untuk itu dirinya mendorong pemerintah ikut melakukan hal yang sama.Diakui, sebenarnya masyarakat sudah pancasilais namun hal demikian perlu ditingkatkan dan diimplementasikan dalam keseharian apalagi menghadapi berbagai tantangan kebangsaan, seperti hoax dan dampak buruk globalisasi.Terkait banyaknya pejabat, kepala daerah dan wakil rakyat yang melakukan korupsi, Mahyudin mengaku prihatin. "Paling penting saya tidak melakukan itu," tuturnya.Banyaknya pejabat yang korupsi, diungkapkan itu akibat dari keterbukaan demokrasi. Sekarang pemilihan kepala daerah bahkan Presiden dilakukan langsung oleh rakyat. Pemilihan langsung merupakan perubahan dari sistem Pemilu masa lalu di mana kepala daerah sebelumnya dipilih oleh DPRD dan Presiden oleh MPR. "Dalam era reformasi masyarakat tak percaya pada wakil rakyat", paparnya.Rupanya tak disadari bahwa Pemilu langsung ini berbiaya tinggi. Dicontohkan, bila seseorang hendak maju menjadi gubernur maka ia harus membiaya saksi. Bila ada 10.000 TPS dan setiap saksi diberi honor Rp 200.000 maka calon gubernur tadi harus mengeluarkan biaya Rp 2 miliar. "Itu belum termasuk baliho, spanduk, dan alat kampanye lainnya", ujarnya.Nah, bila gubernur hanya mendapat gaji Rp 3 juta tentu modal yang dikeluarkan tidak akan kembali. "Sehingga gubernur itu hanya berpikir bagaimana modalnya kembali", ungkapnya. "Dari sinilah mereka melakukan korupsi," tambahnya.Hal demikian juga terjadi saat Pemilu Legislatif. Sistem proporsional terbuka juga membuat kompetisi yang terjadi tak sehat. Partai politik tak bisa menyeleksi calonnya karena semua diserahkan kepada masyarakat. "Sayangnya rakyat memilih calon yang popular atau yang punya modal banyak", ucapnya. "Dari sini melahirkan politisi karbitan," tambahnya.Dituturkan bila memilih orang yang membayar maka kita mencoblos orang yang tak berintegritas. "Mereka melakukan suap maka nanti mereka juga akan menerima suap," tuturnya.Untuk itu Mahyudin menyerap aspirasi masyarakat bagaimana menciptakan sistem Pemilu yang ideal.(*)</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta Perokok yang mencoba-coba untuk menghisap rokok di rumah sakit ini akan "dipermalukan" dengan cara yang unik. Mereka akan diperingatkan oleh sebuah pengeras suara yang diputar dengan sebuah rekaman.Melansir New York Post pada Jumat (26/10/2018), Rumah Sakit Pinderfields di Wakefield, West Yorks, Inggris, menggunakan pengeras suara untuk mencegah perokok merokok di tempat tersebut. Adapun, kota West Yorks berada di sebelah barat Manchester.Baca JugaStaf, pengunjung, dan pasien bisa menekan sebuah tombol biru untuk mengaktifkan satu dari sembilan pesan yang direkam sebelumnya. Sebuah suara lalu dikeluarkan dari pengeras suara di luar pintu rumah sakit, yang kerap menjadi tempat berkumpulnya para perokok.Beberapa pesan tersebut seperti: "Tolong, jangan merokok di luar rumah sakit kami", "Permisi, apakah Anda bisa mematikan rokoknya?", "Seorang pengasuh, kakek, ibu, atau ayah sedang menjalani perawatan kanker hari ini."Tindakan tersebut diinisiasi oleh The Mid Yorkshire NHS Trust yang merupakan pengelola rumah sakit tersebut. Ide tersebut muncul setelah kebijakan dilarang merokok di semua properti Trust diperkenalkan pada Maret tahun ini.Saksikan juga video menarik berikut ini:Pihak The Trust mengatakan, tanda "Dilarang Merokok" yang dipasang di banyak tempat tidak menghalangi para perokok untuk melakukan hal tersebut di pintu rumah sakit. Termasuk area di mana ambulans mengantar pasien.“Kami telah memperkenalkan sistem itu, karena sangat penting bagi kami mengambil setiap langkah yang mungkin dilakukan untuk mencegah perokok," ujar Manajer Umum RS tersebut Ian Brodie.Kebijakan ini mendapat dukungan dari para pengunjung, terutama yang bukan perokok. Seperti Shirley Parker (67), seorang mantan sales assistant yang mengunjungi tempat itu."Ini adalah hal terbaik yang bisa terjadi," ujarnya."Saya telah melalui kanker dan saya pikir siapa saja yang melalui itu akan menyadari betapa berbahayanya itu dan saya beruntung saya di sini," tambah Parker.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta  - Mengganti pelek pada mobil adalah salah satu langkah yang tepat untuk mendongkrak penampilan. Bahkan, bagi sebagian orang, pelek juga merupakan ajang pembuktian kemapanan dan jati dirinya. Bagaikan sebuah sepatu, semakin terlihat menarik, semakin akan membuat mata melirik.Dan seperti sepatu juga, ukuran yang salah akan membuat kaki sakit dan perjalanan terasa tidak menyenangkan. Patut diingat juga, ban dan pelek adalah yang bagian terakhir dari proses distribusi tenaga, yang menggerakkan mobil. Namun ban dan pelek adalah bagian pertama yang akan berhadapan dengan medan jalan.Baca JugaKarena itu, bagian ini adalah yang menarik karena memiliki berbagai fungsi: menggerakkan mobil, meredam permukaan jalan, sekaligus menjadi pelengkap kebanggaan pemilik mobil. Karena itu, perhatikan beberapa hal di bawah ini, sebelum mengganti pelek.Tambah UkuranMenambah ukuran pelek dan ban, mampu membuat tampilan mobil menjadi lebih enak dipandang. Bahkan Daihatsu Midget (Bemo) pun terlihat lebih mahal saat disematkan pelek besar. Namun tentunya ada aturan yang harus diperhatikan saat akan mengganti ban dan pelek yang lebih besar dari ukuran standar. Misalkan pelek standar Anda adalah 15 inci, dan berniat untuk naik menggunakan 17 inci. Yang harus Anda perhatikan adalah ruang di dalam fender.Dengan bertambahnya dimensi pelek dan ban, tentunya memerlukan ruang ekstra, agar ban tidak menggerus bagian dalam ataupun bibir fender saat bermanuver, atau suspensi berartikulasi. Konsultasikan dengan bengkel Anda, berapa ukuran maksimal pelek dan ban yang bisa muat di mobil Anda. Kalaupun 'memaksakan' dengan melakukan modifikasi pada bagian tertentu agar pelek besar bisa muat, pastikan modifikasi tersebut tetap aman untuk mobil Anda.PCD (Pitch Circle Diameter) adalah diameter pola baut pada roda. Kalau Anda perhatikan, jarak antar baut di roda, bisa berbeda pada setiap merek. Misalnya mobil A memiliki empat baut dengan ukuran PCD 100 mm (atau biasa disebut dengan PCD 100 saja), sedangkan mobil B memiliki PCD 114. Jangan harap kedua mobil tersebut bisa berbagi pelek. Karena itu, produsen pelek biasanya menyediakan beragam pilihan PCD dan jumlah baut. Banyak yang memodifikasi jumlah baut roda ataupun PCD-nya agar bisa memasangkan pelek idaman, atau bahkan ada yang bisa menyesuaikan jumlah dan PCD baut di pelek itu sendiri.Hal itu terserah saja, meski kami tidak pernah menyukai perubahan seperti ini. Bukan apa-apa, seperti yang disebutkan tadi, ban dan pelek adalah dua hal yang menjadi satu kesatuan, dan benda pertama yang akan 'merasakan' benturan dari permukaan jalan. Perubahan PCD, perubahan jumlah baut, hingga memodifikasi pelek memiliki berbagai resiko karena merubah kekuatan dan geometri sistem penggerak. Anda tentunya tidak mau kalau tiba-tiba pelek pecah, atau jadi bahan tertawaan karena ban menggelinding menjauhi mobil, bukan? Selain jadi bahan tertawaan, nyawa juga jadi taruhannya.Perhatikan Bobot PelekBobot pelek tidak bisa dianggap enteng karena berbagai hal. Kita mulai dari yang paling sederhana. Dari sisi pengemudi, kalau terjadi pecah ban, pelek berat akan semakin membuat repot. Sesederhana itu? Ya. Tapi lebih dari itu, bobot pelek juga berpengaruh pada keselamatan dan efisiensi bahan bakar. Setiap pabrikan menghitung bobot dan ukuran ban serta pelek yang pas. Baik dari sisi teknis, maupun ekonomis.Sisi teknis disini berhubungan dengan berbagai hal, tapi kita ambil yang paling sederhana saja yaitu pengereman. Bayangkan seberapa besar daya rem (standar, bawaan pabrik) yang diperlukan untuk menghentikan mobil dengan pelek dan ban standar, kemudian jika pelek berdiameter besar, memiliki bobot yang berat, serta ban yang juga lebih besar dan tentunya lebih berat, bagaimana efeknya terhadap rem mobil Anda?Tentu, pengereman akan tetap membuat mobil Anda berhenti. Namun berapa jarak dan waktu yang diperlukan dengan menggunakan pelek aftermarket yang berat, itu yang harus diperhatikan. Kalau memang berniat mengganti dengan pelek yang lebih berat, pastikan Anda sambangi bengkel langganan untuk melakukan kalibrasi ulang terhadap daya pengereman. Hal lainnya adalah faktor ekonomis, dari sisi kita sebagai pengendara. Ban dan pelek yang berat akan membuat mesin bekerja ekstra, hanya untuk menggerakan roda. Mesin yang dipaksakan tentu saja akan membuat bensin lebih boros. Jadi, pikirkan dulu sebelum mengganti pelek dan ban.Sumber: Oto.comSebuah mobil menjadi pusat perhatian pengguna jalan lantaran di setiap sisi pelek dilindungi kawat menonjol.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta - Sutradara bertangan dingin, Joko Anwar dipercaya menggarap film aksi, Gundala. Seperti diketahui, film ini merupakan adaptasi dari komik fenomenal karya Hasmi berjudul Gundala Putra Petir.Meski memiliki banyak karya masterpiece di dunia perfilman, Joko Anwar tetap menghadapi tantangan besar saat menggarap film Gundala. Pertama, adalah bagaimana cara mengemas cerita era 1960-an menjadi kekinian."Sensibilitasnya harus cocok dengan society zaman sekarang. Karena kalau kita plek ketiplek dari zaman dulu enggak bisa, harus di-upgrade," kata Joko Anwar, di Jakarta Convention Center, Senayan, Minggu (28/10/2018)."Itu juga yang saya lakukan di film saya sebelumnya seperti Pengabdi Setan. Sehingga penonton zaman sekarang bisa related dengan ceritanya," ujar Joko Anwar menyambung pernyataan.Baca JugaFirst Look Film GundalaSelain sebagai sutradara, Joko Anwar juga terlibat dalam pembuatan skenario. Diakuinya, proses penulisan skenario Gundala memiliki tingkat kesulitan tinggi keteimbang film lain yang pernah ia kerjakan sebelumnya."Sangat susah sampai nulis harus dalam kondisi sangat tenang. Kalau enggak di museum saya nulis di kuburan. Setelah empat bulan akhirnya jadi skenario Gundala," ia menjelaskan.Sementara itu, Abimana Aryasatya secara resmi diperkenalkan sebagai Sancaka. Penggemar komiknya tentu tahu bahwa Sancaka merupakan nama asli dari tokoh ikonis Gundala. Diakui Joko Anwar, nama Abimana Aryasatya sudah tercetus sejak proses pra produksi."Harus ada proses dan kita bikin audisi juga, casting juga ya. Dan yang terpilih itu tetap pada pilihan pertama si Abimana. Karena memang dia yang paling tepat," paparnya.Selain Abimana Aryasatya, film ini juga dibintangi oleh Rio Dewanto juga Tara Basro. Gundala rencananya akan tayang pada pertengahan 2019.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta - Sebanyak 3,8 juta orang telah mengikuti seleksi penerimaan calon pegawai negeri sipil (CPNS). Menteri Pendayagunaan Aparatur Negara dan Refomasi Birokrasi (Menpan RB) Syafruddin mengatakan ratusan ribu CPNS didominasi oleh para milenial."Dalam penerimaan CPNS yang sekarang ini yang mendaftar itu 3,8 juta dan yang pasti itu 100 persen kaum milenial, tidak ada kaum tua seperti saya," kata Syafruddin dalam sebuah acara seminar bertajuk Milenial Fest di Djakarta Theater, Jakarta, Minggu (28/10/2018).Baca JugaSyafruddin berharap para milenial ini bisa memberi kontribusi besar bagi Indonesia, khususnya di bidang birokrasi dan aparatur sipil negara (ASN)."Ada harapan di sana, kaum milenial bisa memberikan konstribusi besar kepada bangsa Indonesia terutama SDM aparatur negara. Ada penghasilan yang tetap. Bisa berimprovisasi, bisa berinovasi, paling tidak ada pensiunnya, ada masa depannya," ucap Syafrudin.Syafruddin menekankan generasi milenial dan kemampuannya memahami teknologi menjadi kunci utama dalam reformasi birokrasi. Ia juga optimistis formasi CPNS yang diisi kaum milenial bisa meningkatkan daya saing negara di mata internasional."Sekarang di posisi 54, kita akan kejar. Saya yakin dengan masuknya kaum muda itu akan berubah bisa naik 10 grade," terang Syafruddin.Registrasi tes CPNS di sejumlah lokasi di Jakarta terkendala gangguan server. Sementara itu, ketidaksiapan panitia juga membuat tes CPNS di Tasikmalaya, Jawa Barat, tertunda.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta Laju Indeks Harga Saham Gabungan (IHSG) diprediksi bergerak melemah pada perdagangan saham di awal pekan ini. Sentimen eksternal masih membayangi IHSG tertahan di awal perdagangan.Managing Director Jagartha Advisors, FX Iwan mengatakan, IHSG berpotensi diperdagangkan pada level 5.720-5.840. Rilis data laporan keuangan emiten pada kuartal III menjadi katalis positif bagi IHSG.Baca Juga"Ini kemudian akan menjadi katalis positif jika rilis keuangan emiten di Q3 ini sesuai atau melebihi ekspektasi pasar," tutur dia kepada Liputan6.com di Jakarta, Senin (28/10/2018).Membenarkan, Analis Binaartha Parama Sekuritas Nafan Aji menyebutkan, banyak pelaku pasar modal yang tercatat melakukan akumulasi beli. Ini yang kemudian mengangkat IHSG tidak tersungkur terlalu dalam."Terutama pada perdagangan Kamis (18/10) kemarin, karena banyak yang netting, IHSG ditutup di zona positif secara signifikan. Meskipun pada pembukaan perdagangan dibuka melemah serta masih banyaknya sentimen global yang membayangi," ujarnya.Kinerja keuangan para emiten di kuartal III menjadi pendorong positif bagi pergerakan IHSG. Adapun pada hari ini Nafan memproyeksikan IHSG di rentang 5.732-5.817.Sementara itu, dari sisi saham rekomendasi, Iwan cenderung menyarankan saham-saham besar antara lain PT Bank Central Asia Tbk (BBCA), PT Telekomunikasi Indonesia Tbk (TLKM), PT United Tractors Tbk (UNTR), dan PT Delta Dunia Makmur Tbk (DOID).Kemudian Nafan menganjurkan saham-saham perbankan dan pertambangan seperti PT Bank Rakyat Indonesia Tbk (BBRI), PT Bank Mandiri (Persero) Tbk (BMRI), PT Vale Indonesia Tbk (INCO), serta PT Wijaya Karya Bangunan Gedung Tbk (WEGE).Gerak Indeks Harga Saham Gabungan (IHSG) terkoreksi tajam selama sepekan yang dipengaruhi hasil kinerja keuangan emiten dan sentimen global.Mengutip laporan PT Ashmore Assets Management Indonesia, Sabtu (27/10/2018), IHSG merosot 0,9 persen dari posisi 5.837 pada Jumat 19 Oktober 2018 menjadi 5.784 pada 26 Oktober 2018. Saham berkapitalisasi besar yang masuk indeks LQ45 melemah 0,72 persen selama sepekan. Investor asing jual saham mencapai USD 47 juta atau sekitar Rp 714,96 miliar (asumsi kurs Rp 15.212 per dolar AS).Sementara itu, indeks obligasi naik 0,2 persen di tengah nilai tukar rupiah terhadap dolar AS cenderung tertekan ke posisi 15.217. Imbal hasil obligasi pemerintah bertenor 10 tahun berada di posisi 8,7 persen. Aliran dana investor asing masuk ke pasar obligasi hingga Kamis mencapai USD 599 juta atau sekitar Rp 9,11 triliun.Baca JugaSejumlah sentimen dari eksternal dan internal yang bayangi pasar keuangan termasuk IHSG. Dari eksternal, pemerintahan Amerika Serikat (AS) di bawah pimpinan Presiden AS Donald Trump tidak akan partisipasi bernegosiasi dengan China hingga buat keputusan besar.Ancaman perang dagang berbulan-bulan dapat mengancam pertumbuhan ekonomi global. Ini ikuti permintaan Trump kepada Organisasi Perdagangan Dunia (WTO) untuk selidiki China yang mencuri kekayaan intelektual bisnis AS.Sementara itu, penjualan rumah AS melemah. Penjualan rumah yang sebelumnya dimiliki di AS merosot 3,4 persen pada September 2018 dari sebelumnya turun 0,2 persen pada Agustus. Penjualan rumah bagi keluarga baru di AS melemah 5,5 persen atau 553 ribu pada September 2018. Penurunan itu lebih rendah dari Agustus sekitar 3 persen.Dari Asia, China membukukan pertumbuhan ekonomi yang melambat. Ekonomi China tumbuh 6,5 persen hingga September 2018 dari periode sebelumnya 6,7 persen.Pertumbuhan ekonomi itu di bawah konsensus 6,6 persen. Angka itu terendah sejak kuartal I 2009 selama krisis keuangan global. Hal ini terjadi di tengah perang dagang AS dan China. Ditambah kekhawatiran pinjaman oleh pemerintah daerah.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta Ketua MPR RI Zulkifli Hasan dianugerahi gelar Anggota Kehormatan Ikatan Motor Besar Indonesia (IMBI). Pemberian gelar Anggota Kehormatan ini disampaikan Ketua IMBI Yogyakarta Onny Febriananto, mewakili Ketua Umum IMBI Irjen Pol Muhammad Iriawan.Gelar anggota kehormatan kepada politisi asal Lampung itu, disampaikan di tengah pelaksanaan Rapat Kerja Nasional (Rakernas) IMBI, Yogya Sumpah Pemuda Bikers X tahun 2018, dan Prosesi ruwatan bikers di Hotel The Rich Yogyakarta, Sabtu (27/10). Pemberian gelar kepada Ketua MPR disaksikan seluruh Anggota Ikatan Motor Besar Indonesia dari seluruh Indonesia yang hadir dalam acara Rakernas IMBI tersebut.Baca JugaDalam sambutannya, Zulkifli Hasan antara lain menyampaikan terimakasih atas pemberian gelar anggota kehormatan IMBI yang diterimanya. Ia mengajak para bikers untuk menjadi pelopor persatuan. Terlebih ditengah suasana panas jelang pemilu 2019.Selain itu Zulkifli juga menyampaikan dukungan kepada keluarga besar IMBI, yang senantiasa melaksanakan kegiatan sosial. Dan membantu yang lemah, meluruskan yang mungkin salah serta memperkuat persatuan.(*)</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta - KPK menjadwakan pemeriksaan mantan Sekretaris Mahkamah Agung (MA) Nurhadi dan istrinya Tin Zuraida pada Senin 29 Oktober 2018. Keduanya akan diperiksa dalam kasus dugaan pemberian hadiah atau janji kepada penyelenggara negara terkait pengurusan pengajuan Peninjauan Kembali di Pengadilan Jakarta Pusat."KPK merencanakan pemeriksaan terhadap Nurhadi dan Tin Zuraida untuk tersangka ESI (Eddy Sindoro) pada Senin (29/10)," kata Juru Bicara KPK Febri Diansyah di Jakarta, Minggu (28/10/2018).Baca JugaNurhadi sebelumnya sudah pernah diperiksa KPK dalam perkara yang sama untuk tersangka lainnya pada 24 dan 30 Mei serta 3 Juni 2016. Sedangkan Tin Zuraida yang merupakan mantan Kepala Pusat Pendidikan dan Pelatihan Manajemen dan Kepemimpinan Badan Litbang Diklat Hukum dan Peradilan MA sudah pernah diperiksa pada 1 Juni 2016.Antara melansir, sepanjang 2004-2009, rata-rata arus keluar masuk uang di salah satu rekening Tin Zuraida mencapai Rp 1 miliar-Rp 2 miliar setiap bulan. Sementara pada periode 2010-2011, ada belasan kali uang masuk ke rekening Tin dengan nilai Rp 500 juta.Nurhadi juga terdeteksi pernah memindahkan uang Rp 1 miliar ke rekening istrinya. Selanjutnya, pada 2010-2013, Tin pernah menerima setoran tunai Rp 6 miliar."Kami imbau agar saksi-saksi datang memenuhi panggilan sebagai kewajiban hukum," tambah Juru Bicara KPK, Febri Diansyah.KPK sendiri sudah menahan Eddy Sindoro pada 12 Oktober 2018 setelah ia menyerahkan diri Atase Kepolisian RI di Singapura. Dia menyerahkan diri setelah sejak akhir 2016 hingga 2018 berpindah-pindah tempat di sejumlah negara antara lain Thailand, Malaysia, Singapura, dan Myanmar.KPK sudah menetapkan Eddy Sindoro sebagai tersangka sejak November 2016 lalu. Ia disangkakan Pasal 5 ayat 1 huruf a atau Pasal 5 ayat 1 huruf b atau Pasal 13 UU Nomor 31 tahun 1999 sebagaimana diubah dengan UU Nomor 20 tahun 2001 tentang Pemberantasan Tindak Pidana Korupsi jo Pasal 64 KUHP jo Pasal 55 ayat 1 ke-1 KUHP.Pasal tersebut mengatur tentang memberi atau menjanjikan sesuatu kepada pegawai negeri atau penyelenggara negara dengan maksud supaya pegawai negeri atau penyelenggara negara tersebut berbuat atau tidak berbuat sesuatu dalam jabatannya, yang bertentangan dengan kewajibannya dengan ancaman pidana paling singkat 1 tahun dan paling lama 5 tahun ditambah denda paling sedikit Rp 50 juta dan paling banyak Rp 250 juta.Sudah ada dua orang yang menjalani vonis terkait perkara ini yaitu panitera panitera sekretaris PN Jakpus Eddy Nasution dan perantara suap Dody Arianto Supeno. Doddy sudah divonis empat tahun penjara ditambah denda Rp 150 juta subsider tiga bulan kurungan sedangkan Edy Nasution sudah divonis 5,5 tahun penjara ditambah denda Rp 150 juta subsider dua bulan kurungan.Pada putusan Edy Nasution disebutkan, Edy menerima US$ 50 ribu untuk pengurusan Peninjauan Kembali (PK) PT Across Asia Limited (AAL) yang diputus pailit oleh Mahkamah Agung melawan PT First Media. Edy menerima uang dari salah satu kuasa hukum yang baru dari Law Firm Cakra &amp; Co yaitu Austriadhy US$ 50 ribu yang terbungkus dalam amplop warna coklat.Edy Nasution juga mengakui menerima US$ 50 ribu dari Dody, di mana uang tersebut ada kaitannya dengan pengurusan dengan perkara Lippo.Eddy Sindoro juga pernah bertemu dengan mantan sekretaris Mahkamah Agung Nurhadi menanyakan kenapa berkas perkara belum dikirimkan dan Nurhadi sempat menelepon Edy Nasution untuk mempercepat pengiriman berkas perkara PK. Namun, Nurhadi mengatakan itu dalam rangka pengawasan.Didampingi kuasa hukumnya, Eddy keluar dari ruang penyidik KPK sudah dengan mengenakan baju tahanan KPK.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta - Ketua Dewan Pengurus Pusat (DPP) PDIP bidang politik hukum dan keamanan, Puan Maharani ingatkan seluruh pemuda Indonesia tidak membuat goncangan stabilitas nasional dengan hal negatif seperti menebar hoaks atau berita bohong. Pernyataan itu ia sampaikan saat menghadiri rangkaian perayaan Hari Sumpah Pemuda ke-90 tahun, di Kemayoran, Jakarta.Pada sambutannya, Menko Pembangunan Manusia dan Kebudayaan ini mengatakan peran pemuda di era serba digital sangat krusial dengan karakteristik petualang yang serba ingin tahu. Jika pemuda menyebar kebohongan, kata dia, bukan tidak mungkin akan muncul beragam fitnah serta saling tuding satu sama lain.Baca Juga"Bahwa semuanya itu jangan berdasarkan hoaks. Kita tahu beberapa waktu lalu yang sempat buat republik ini geger ada seorang ibu sampaikan berita hoaks bawa-bawa nama demokrasi yang ada di Indonesia. Ngerti kan maksudnya?" ujar Puan di hadapan ribuan kader PDIP, Jakarta Pusat, Minggu (28/10/2018)."Bayangkan seluruh milenial di Indonesia melakukan hal itu pasti itu akan menimbulkan goncangan stabilitas nasional," imbuh dia.Putri dari Presiden ke-5 RI Megawati Soekarnoputri itu menuturkan sebagai pemuda sudah menjadi keharusan memiliki sikap hati-hati dalam menerima satu informasi. Apalagi di era serba instan seiring kecanggihan teknologi."Sekarang mudah sekali (merespons hoaks) tanpa klarifikasi, tinggal forward ke media sosial. Karenanya kami harapkan generasi milenial bisa menghadapi perubahan global dengan kesantunan," kata Puan.Sementara itu PDIP telah melaksanakan rangkaian kegiatan jelang peringatan Sumpah Pemuda sejak 27-28 Oktober 2018. Pada 27 Oktober, terdapat lomba mengirimkan surat dengan tulisan tangan bertema 'Satu Indonesia Kita', lomba membuat vlog dengan tema kecintaan terhadap Indonesia hingga berbagai diskusi yang akan diadakan PDIP untuk kaum millenial.Untuk lomba mengirimkan surat dengan tulisan tangan, disebutnya itu ide dari Ketua Umum PDIP Megawati Soekarnoputri.Sebagai penutup, pada 28 Oktober atau acara puncak, PDIP menggelar konser musik kebangsaan dengan tema 'Satu Indonesia Kita' yang menampilkan lagu-lagu bertema kebangsaan sekaligus pembacaan teks sumpah pemuda.Reporter: Yunita AmaliaSumber: Merdeka.comMenurut Jokowi Indonesia akan terus maju di tangan para pemuda.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta - Wakil Ketua Komisi VIII DPR Ace Hasan Syadzily mengatakan, pasal dalam Rancangan Undang-Undang (RUU) Pesantren dan Pendidikan Keagamaan masih bisa berubah. Hal ini ia katakan terkait adanya protes dari Persekutuan Gereja-Gereja Indonesia (PGI) terkait Pasal 69 dan 70 dalam RUU tersebut."Pembahasan tingkat dua di Komisi VIII DPR ini masih mungkin mendapatkan masukan-masukan dari berbagai pihak, terutama oleh organisasi keagamaan yang terkait dengan pendidikan keagamaan tersebut," kata Ace saat dihubungi, Minggu (28/10/2018).Baca JugaMenurutnya, masih terbuka kemungkinan DPR akan melibatkan pihak terkait untuk menyempurnakan RUU ini. Termasuk dengan mendengarkan masukan dari PGI."Jadi pada saatnya kami akan mengundang PGI, KWI, MUI, NU, Muhammadiyah untuk membicarakan dan membahas tentang penyelenggaraan pesantren dan pendidikan keagamaan itu," ujarnya."Ya intinya ini masih terbuka untuk dibahas. Komisi VIII alan segera membuat Panja dan Pemerintah," sambung Ace.Terpisah, penginisiasi RUU Pesantren dan Pendidikan Keagamaan dari Fraksi Partai Kebangkitan Bangsa (PKB) Cucun Syamsurizal mengatakan pihaknya akan mengakomodir dan melibatkan organisasi atau lembaga terkait dalam pembahasan RUU Pesantren."Kita nanti akan akomodir bagaimana format teknisnya DIM (Daftar Inventarisasi Masalah) yang dimasukkan Menag dan PKB juga. Adanya keinginan dari gereja seperti itu ya kita garisbawahi dan akan ikut memperjuangkan. Itu kan independensi mereka juga," kata Cucun Minggu (28/10/2018).Dia menjelaskan, sebenarnya RUU ini muncul melalui survei keadaan di lapangan. Hingga muncullah pasal-pasal seperti yang tertera di draf RUU sekarang."Nah ini kan sekarang bola di pemerintah. Kalau nanti pemerintah sama mengusulkan dari PGI seperti itu kita akan menggarisbawahi dan menyetujui bagaimana supaya tetep keanekaragaman kita terjaga," ucap Cucun.Saksikan video pilihan di bawah ini:Selain Presiden Jokowi, sejumlah pejabat dan tokoh nasional di antaranya Menteri Agama Lukman Hakim Saifuddin serta Wakil Gubernur Jawa Barat Uu Ruzhanul Ulum pun turut hadir.Diketahui, PGI keberatan dengan RUU Pesantren dan Pendidikan Keagamaan yang baru saja disahkan untuk masuk dalam UU Prioritas Dewan Perwakilan Rakyat (DPR). Mereka mengkritisi pasal yang mengatur tentang sekolah minggu dan katekisasi yang terdapat pada Pasal 69 dan Pasal 70."Nampaknya RUU ini tidak memahami konsep pendidikan keagamaan Kristen di mana ada pendidikan formal melalui sekolah-sekolah yang didirikan oleh gereja-gereja dan ada pendidikan nonformal melalui kegiatan pelayanan di gereja," kata Sekretaris Umum PGI Gomar Gultom dalam keterangan tertulisnya, Minggu (28/10/2018).Dia juga mengkritik adanya batas minimal peserta sekolah minggu dan perizinan untuk sekolah minggu. Kata dia, sekolah minggu tidak bisa disamakan dengan pesantren."Sejatinya, Pendidikan Sekolah Minggu dan Katekisasi merupakan bagian hakiki dari peribadahan gereja, yang tidak dapat dibatasi oleh jumlah peserta, serta mestinya tidak membutuhkan izin karena merupakan bentuk peribadahan," ujar Gomar.Menurut dia, sekolah minggu bukanlah pendidikan formal, melainkan pelayanan dari gereja untuk para jemaat muda.Reporter: Sania Mashabi</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Mimika - Situasi getir, sulit, dan keras di masa kecil, mengubah jalan hidup seorang Leonardus Tumuka, pemuda Suku Kamoro.Leo, demikian sapaan akbrabnya, lahir di Kampung Koperapoka, Mimika, Papua, 20 Juli 1984, merupakan warga Suku Kamoro pertama yang mengenyam pendidikan Doktor.Putra sulung pasangan Anakletus Tumuka dan Lidia Nawaripi itu menyelesaikan pendidikan doktoral pada University of the Philipines Los Banos, Filipina, tahun 2015 pada bidang Community Development."Disertasi saya mengangkat soal faktor-faktor yang menghambat Suku Kamoro terutama dari sisi pemberdayaan ekonomi, pendidikan dan kesehatan," kata Leo.Baca JugaKini Leo Tumuka bekerja sebagai konsultan pada Departemen Community Affairs PT Freeport Indonesia di Kuala Kencana, Timika.Ia juga tercatat sebagai staf pengajar pada Sekolah Tinggi Ilmu Ekonomi (STIE) Jambatan Bulan Timika dan pernah dipercayakan sebagai Kepala Bidang Sumber Daya Manusia (SDM) pada Rumah Sakit Mitra Masyarakat (RSMM) Timika.Kehidupan keras untuk mencapai taraf kesuksesan seperti sekarang, masa kecil Leo Tumuka dilalui dengan penuh tantangan mengingat dirinya berasal dari keluarga kurang mampu."Saat usia saya sekitar 7-8 tahun, kedua orang tua saya sakit-sakitan. Keluarga kami tidak terpandang (bahkan Leo bersama saudara-saudaranya seolah-olah dianggap tidak memiliki keluarga) sehingga kami memilih pindah tinggal di Gorong-gorong," tuturnya.Lantaran kondisi kesehatan ayah dan ibunya yang sakit-sakitan itu, Leo muda harus bekerja untuk membantu menghidupi orang tua dan saudara-saudaranya yang berjumlah sembilan orang."Setiap hari saya harus banting tulang pergi pasang jaring dan mencari ikan di kali (sungai). Waktu itu belum ada bendungan di Gorong-gorong. Berulang kali kaki saya terkena pecahan beling (kaca) karena tidak pernah memakai sandal, apalgi sepatu," ujar Leo dengan mata berkaca-kaca.Meski pekerjaan itu dirasakan sangat berat untuk anak seusia 7-8 tahun, Leo mengaku tulus melakukan semua pekerjaan demi menjamin asap dapur tetap mengepul."Kalau saya tidak pergi mencari ikan untuk dijual, kami sekeluarga mau makan apa? Ya, itulah risiko saya sebagai anak tertua dalam keluarga," jelasnya.Hingga usia 8 tahun, Leo belum juga bersekolah. Padahal rekan-rekan seusianya sudah beramai-ramai bersekolah di SD Inpres Koperapoka.Bersamaan dengan itu, PT Freeport mengerahkan peralatan berat untuk menggali lokasi yang akan dijadikan bendungan di sekitar Gorong-gorong hingga samping Bandara Mozes Kilangin Timika.Akibat dari penggalian itu, kali atau sungai yang biasa digunakan Leo untuk mencari ikan seketika lenyap."Rumah kami persis di samping bendungan itu. Saya kemudian berfikir keras, dimana lagi tempat kami mencari nafkah. Saya berdoa, meminta Tuhan membukakan saya jalan," tuturnya.Di tengah pergumulan itu, Leo menerima panggilan dari guru SD Inpres Koperapoka untuk meminta dirinya harus bersekolah."Sekitar tahun 1992, saya dipanggil guru ke sekolah dan sejak itu saya membulatkan tekad untuk sekolah," ujar suami dari Maria Goreti Renjaan itu.Seusai menamatkan pendidikan di SD Inpres Koperapoka pada 1999, Leo Tumuka melanjutkan studi ke SMP YPPK Santo Bernadus Timika hingga selesai pada 2002.Pada 2002, Leo Tumuka bersama 72 anak Papua mendapatkan bantuan beasiswa dari Direktorat Pendidikan Menengah Umum Kemendikbud untuk melanjutkan pendidikan SLTA di Jawa.Leo bersama empat putra-putri Papua ditempatkan di sekolah SMA Negeri 2 Madiun, Jawa Timur."Saat bersekolah di SMA Negeri 2 Madiun, saya dan teman-teman Papua benar-benar digembleng. Di situlah kami merasakan bedanya pendidikan di Papua dan luar Papua, terutama di Jawa," katanya.Usai menyelesaikan pendidikan di SMA Negeri 2 Madiun pada 2005, Leo melanjutkan studi ke Universitas Pasudan, Bandung, Jawa Barat dan menyelesaikan studinya pada Jurusan Hubungan Internasional, Fakultas Ilmu Sosial dan Politik pada 2009.Dengan bantuan beasiswa dari Lembaga Pengembangan Masyarakat Amungme dan Kamoro (LPMAK), Leo Tumuka kemudian melanjutkan studi strata dua pada Universitas Katolik Soegiyapranoto Semarang hingga selesai pada� 2011."Pendidikan strata dua hingga strata tiga saya sepenuhnya dibantu oleh LPMAK. Terima kasih sudah memperhatikan pendidikan anak-anak Suku Kamoro, Amungme dan lima suku kekerabatan di Mimika," ujar Leo.Leo Tumuka mengajak dan memotivasi generasi muda Papua terutama dari Suku Kamoro, Mimika untuk harus sekolah agar mereka bisa sukses meraih impian di masa depan.Sebagai doktor pertama di kalangan Suku Kamoro, Leo Tumuka mengaku memikul tanggung jawab besar bagaimana memotivasi anak-anak Kamoro yang lain supaya lebih banyak lagi yang berhasil dalam pendidikannya.Keterlibatan berbagai komponen baik pemerintah, perusahaan, LPMAK maupun gereja, diharapkan dapat menghasilkan lebih banyak lagi generasi muda Kamoro yang cerdas untuk bisa mengelola sumber daya alam yang berkelimpahan di Mimika," harapnya."Kemanapun saya pergi, saya selalu mengingatkan masyarakat saya untuk menyekolahkan anak-anak mereka. Kalau semakin banyak orang cerdas maka kita tidak akan susah membangun daerah. Yang bisa mengelola kekayaan alam yang berlimpah ini hanya orang-orang yang pintar. Bagaimana mau pintar, kalau tidak mau bersekolah," kata Leo Tumuka.Hingga kini Leo Tumuka masih sering diminta oleh LPMAK melalui Yayasan Binterbusy Semarang untuk memberikan motivasi kepada anak-anak Papua yang sedang menempuh pendidikan di Kota Semarang.Leo juga terlibat di Yayasan Yuamako untuk membantu pendidikan anak-anak lima desa Daskam yang terkena dampak langsung pembuatan tailing PT Freeport yaitu Koperapoka, Nayaro, Nawaripi, Tipuka, dan Ayuka.Saat ini terdapat 460-an anak lima desa Daskam yang mendapatkan beasiswa pendidikan di berbagai lembaga studi mulai dari tingkat SD hingga Perguruan Tinggi.Ia juga berharap generasi muda Mimika, terutama dari Suku Kamoro mengambil peran aktif dalam membangun masyarakat dan daerahnya agar bisa lebih maju."Para pemuda tidak bisa hanya berpangku tangan menunggu bantuan dari pemerintah atau pihak lain. Sekarang bukan lagi zaman kita bersantai, tapi pemuda harus bekerja keras dan bangkit bersama saudara-saudara yang lain untuk membangun masyarakat," ajak Leo.Memperingati Hari Sumpah Pemuda ke-80 tahun ini, Leo Tumuka berpesan agar para pemuda Indonesia terus menggelorakan semangat persatuan dan persatuan dengan mengenyampingkan berbagai perbedaaan adat-istiadat, budaya, agama, suku dan golongan."Tantangan kita dewasa ini semakin berat, terutama bagaimana menjadikan perbedaan itu sebagai ramhat untuk kita saling memperteguh dan memperkuat jati diri kita sebagai bangsa Indonesia. Mari kita bersama-sama mengambil peran aktif untuk membangun bangsa dan masyarakat kita agar menjadi bangsa yang makmur, dimana masyarakatnya bisa hidup rukun, damai, adil dan beradab," harap Leo Tumuka.Saksikan video pilihan berikut ini:Dalam sambutannya, Jokowi mengajak seluruh santri untuk senantiasa menjaga persatuan dan kesatuan bangsa dengan semangat sumpah pemuda.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta - Politikus Partai Solidaritas Indonesia (PSI) Tsamara Amani menilai wajar jika ada perdebatan dalam setiap kontestasi politik. Apalagi, kata dia, selama massa kampanye ini, perdebatan antartokoh politik semakin memanas.Tsamara pun memberikan tips kepada para milenial untuk merespons makin panasnya suhu politik di Indonesia menjelang pemilu.Baca Juga"Saya cuma minta satu aja sih. Jangan baper. Enggak baper itu penting banget. Debat cukup sampai di mulut saja, jangan sampai turun ke hati. Berat kalau soal hati yang bicara," kata Tsamara saat menjadi pembicara di acara Milenial Fest di Jakarta, Minggu (28/10/2018).Menurut dia, perdebatan antarsesama tokoh politik merupakan hal yang wajar. Tetapi yang terpenting, kata dia, adalah para tokoh politik memiliki tujuan yang sama yaitu memajukan Indonesia."Yang paling penting itu bukan perbedaan, tapi tujuan kita sama," ucap Tsamara.Dia pun meminta kepada para milenials untuk tidak apatis melihat para politikus yang sekarang ini ada, khususnya mereka yang duduk di parlemen.Tsamara mempersilakan kepada para anak-anak muda untuk turut serta memilih anggota dewan. Yang terpenting, kata dia, memilih anggota dewan harus kritis."Jangan ngelihat kontestasi politik seperti pilih pacar. Berat jadinya. Politisi itu kita lihat sebagai sosok yang akan mengubah kehidupan kita, jadi kita mesti ktitis," terang Tsamara.Saksikan video pilihan di bawah ini:Saat ini ribuan kotak suara yang  diperkirakan mencapai 3.000 buah ini masih tersimpan di gudang lama milik KPU Bengkulu.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta - Sinead O'Connor penyanyi asal Irlandia, memutuskan untuk menjadi mualaf. Ia memeluk agama Islam, sebelumnya ia menganut agama Katolik.Melalui kicauannya di Twitter pada 19 Oktober 2018, Sinead O'Connor mengaku bangga.Baca Juga"Ini pengumuman bahwa saya bangga menjadi seorang muslim," cuit Sinead O'Connor, dilansir NME."Ini adalah kesimpulan alami dari setiap perjalanan pakar teologi. Semua kitab suci berujung pada Islam," tambahnya.Setelah resmi memeluk agama Islam, Sinead O'Connor mengganti namanya menjadi Shuhada. Nama itu sudah disematkan di laman Twitternya, Shuhada' Davitt @MagdaDavitt77.Butuh waktu yang cukup lama bagi Sinead O'Connor alias Shuhada Davitt untuk belajar melantunkan azan. Ia harus berlatih hingga 30 kali."Masih butuh waktu yang lama sebelum aku bisa melantukannya seindah ini," tutur penyanyi "Nothing Compares 2 U" ini, sambil mengunggah sebuah video lantunan azan dari seorang muazin. (Antaranews.com)</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta - Wakil Ketua Komisi Pemberantasan Korupsi (KPK) Saut Situmorang menegaskan, pihaknya terus melakukan upaya pemberantasan korupsi yang menjerat para pejabat publik, di antaranya dengan melipatgandakan penindakan. Penindakan yang dilakukan secara masif sedikitnya mampu menekan tindakan koruptif di pemerintahan baik tingkat pusat ataupun daerah."KPK harus melipatgandakan penindakan dan hadir secara masif di banyak kementerian dan lembaga. KPK juga perlu banyak orang-orang lagi," ujar Saut kepada merdeka.com, Minggu (28/10/2018).Baca JugaKendati ia mengatakan perlu adanya intensitas penindakan, Saut menjelaskan, penindakan juga selaras dengan pencegahan. Bentuk pencegahan, kata dia, bermacam-macam.Saut mengatakan, selama ini KPK sudah melakukan dialog ke beberapa pemerintah daerah dan DPRD."Dialog dengan pimpinan eksekutif dan legislatif dan lain lain guna perbaikan sistem dalam bentuk koordinasi dan supervisi," kata Saut.Sebelumnya, Sekretaris Direktorat Jenderal Otonomi Daerah Kemendagri Akmal Malik menilai, menilai ada banyak faktor kepala daerah tersandung kasus hukum, khususnya tindak pidana korupsi. Salah satu faktor adalah utang piutang politik.Akmal mengatakan persoalan utang politik menjadi alasan umum bagi para kepala daerah melakukan praktik koruptif. Akmal bahkan menyebutkan, piutang politik ditanggung kepala daerah sejak mencalonkan diri hingga selesai masa jabatan"Ada utang piutang politik yang membebani kepala daerah mulai dari dia dilantik sampai di akhirnya (masa jabatan)," kata Akmal, Jakarta Pusat, Sabtu (27/10).Meski si kandidat ataupun kepala daerah memiliki integritas baik dalam menjalankan roda pemerintahan, tanggung jawab piutang politik kerap kali melunturkan integritas pemerintahan bebas koruptif.Guna melunasi biaya politik, Akmal mencatat ada dua modus yang dijadikan kepala daerah melunasi utang politik yakni memainkan sektor perizinan dan APBD."Karena cost politik yang sangat tinggi ketika daerah tidak memiliki sumber daya perizinan,mereka biasanya main di APBD atau jual jabatan nah ini modus yang kita catat dalam beberapa tahun terakhir," tukasnya.Dalam kurun satu bulan KPK menangkap dua kepala daerah yakni Bupati Bekasi dan Bupati Cirebon. Bupati Bekasi, Neneng Hasanah Yasin diduga menerima suap atas perizinan IMB proyek Meikarta di Cikarang, Bekasi, Jawa Barat, sebesar Rp 7 miliar dari Billy Sindoro, Direktur Operasional Lippo Grup selaku pemilik mega proyek Meikarta.Uang Rp 7 miliar merupakan bagian dari Rp 13 miliar yang dijanjikan akan diterima politisi Partai Golkar tersebut.Sementara Bupati Cirebon, Sunjaya Purwadisastra ditangkap atas dugaan menerima suap sebesar Rp 100 juta terkait jual beli jabatan di Pemkab Cirebon. Politisi PDIP itu juga diduga menerima gratifikasi dengan total Rp 6,4 miliar.Wakil Ketua KPK Alexander Marwatta mengatakan dalam konferensi pers kemarin mengatakan penerimaan suap ataupun gratifikasi oleh Sunjaya diduga untuk pembiayaan logistik Pilkada 2018."Bupati ini menjual jabatannya dalam rangka mengembalikan modal apalagi dia petahana," kata Alex.Reporter: Yunita AmaliaSumber: Merdeka.comPenjagaan dilakukan supaya penggeledahan dapat berjalan lancar.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta Istilah taaruf makin populer di Tanah Air akhir-akhir ini. Setidaknya istilah tersebut makin ramai setelah sejumlah figur publik melakukan proses tersebut.Perkembangan teknologi kian memudahkan bagi mereka yang ingin mendapatkan calon suami atau istri lewat dunia maya. Salah satunya bisa dilakukan melalui rumahtaaruf.com.Baca JugaSitus tersebut fokus pada aktivitas tukar menukar informasi dalam bentuk biodata atau CV taaruf yang dikirim lewat surat elektronik (e-mail). Setelah itu, dilanjutkan dengan sesi tanya jawab lewat surat elektronik dengan moderator untuk lebih memantapkan hati sebelum berlanjut ke proses taaruf offline.Dilansir dari rumahtaaruf.com, berikut tujuh hal yang perlu diketahui seputar biodata taaruf.BiodataBiodata taaruf berfungsi sebagai pertimbangan awal sebelum melanjutkan proses taaruf. Pemilik biodata bisa mendeskripsikan dirinya secara lengkap dalam tulisan di biodata tersebut sehingga terlihat gambaran profil dirinya.MediatorAgar lebih terjaga, proses tukar menukar biodata taaruf tak lepas dari adanya mediator/perantara. Kalaupun tidak menginginkan adanya perantara dalam proses, setidaknya ada orang yang menjadi pendamping yang berfungsi sebagai 'orang ketiga' dalam proses taaruf yang dijalani. Seperti ayah atau walinya, saudara, guru ngaji, sahabat dekat, atau pihak lain yang terpercaya untuk menjadi mediator.Format Biodata TaarufAda banyak format biodata/CV taaruf yang bisa digunakan, isiannya pun beragam sesuai dengan informasi yang dibutuhkan. Bisa berupa data pribadi, riwayat pendidikan, pengalaman organisasi, pengalaman kerja, profil diri dan keluarga, kebiasaan sehari-hari, visi dan misi pernikahan, kriteria calon pasangan, rencana pasca pernikahan, dan lain-lain.Data-data PribadiSaat proses tukar menukar biodata, tidak semua data yang ada di format biodata tersebut disampaikan secara langsung. Beberapa data yang belum perlu disampaikan di antaranya nama lengkap (bisa dituliskan dengan inisial, atau tidak dicantumkan sama sekali), alamat lengkap (cukup ditulis setingkat kabupaten/kotamadya &amp; provinsi), info kontak pribadi (Nomer HP, alamat e-mail, website pribadi, Facebook, dlan lain-lain), dan data-data lain yang  mudah ditelusuri.Biodata PerempuanSaat proses tukar menukar biodata, biodata akhwat (perempuan) sebaiknya disampaikan dulu ke pihak ikhwan (laki-laki) tanpa sepengetahuan pihak akhwat, baru kalau pihak ikhwan cocok maka biodata pihak ikhwan disampaikan ke pihak akhwat. Pertimbangannya karena karakter ikhwan yang lebih 'tegar' bila menerima 'penolakan' dibanding bila pihak akhwat yang menerima penolakan, sehingga posisi 'penolak' ada di sisi akhwat.Proses BiodataDalam mengemban amanahnya, tak jarang seorang mediator mendapat banyak biodata taaruf yang perlu diproses. Pemesanan taaruf yang masuk pun tidak sedikit, sehingga mediator perlu memastikan bahwa tidak ada 'proses ganda' dalam tukar menukar biodata tersebut. Saat salah satu biodata diproses, maka biodata tersebut tidak bisa diproses dengan yang lainnya hingga ada konfirmasi cocok atau tidaknya si pemesan dengan biodata tersebut.Tindak LanjutSetelah kedua belah pihak sama-sama cocok dengan biodata masing-masing, kedua belah pihak dapat diberikan kesempatan untuk bertanya jawab terlebih dulu lewat e-mail dengan perantara e-mail mediator untuk lebih memantapkan hati, karena tak jarang dari diskusi dan tanya jawab lewat email ini ada ketidakcocokan yang dirasakan masing-masing pihak. Bila memang sudah sama-sama yakin maka bisa dilanjutkan taaruf langsung dengan pendampingan mediator.Saksikan video di bawah ini:Ribuan muslimah komunitas hijabers di Solo menggelar ta'aruf. Sementara itu, Novri Setiawan pemain andalan Persija di lini tengah.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta Bad mood merupakan hal yang sering dialami oleh semua orang. Namun, mengalami suasana hati yang buruk tentu saja juga tidak baik untuk kesehatan.Bahkan, beberapa masalah kesehatan ternyata juga mungkin saja menjadi penyebab dari bad mood itu sendiri. Mengutip Times of India pada Minggu (28/10/2018), berikut ini beberapa penyakit yang bisa menimbulkan suasana hati yang buruk.Baca Juga1. Nyeri kronisNyeri kronis sering dikaitkan dengan rasa tidak nyaman. Untuk melawannya, pasien seringkali diberikan obat penghilang rasa sakit yang menyebabkan naik turunnya suasana hati serta bad mood.2. Diabetes tahap awalDiabetes tahap awal bisa memicu emosi Anda. Ketidakseimbangan kadar gula menyebabkan ketidakcocokan tingkat serotonin, zat kimia otak yang berpengaruh pada emosi.Simak juga video menarik berikut ini:Dalam waktu beberapa saat, gairah bekerja yang tadinya hilang akan kembali muncul dengan cara-cara sederhana ini.3. Kekurangan vitamin DVitamin D tidak hanya penting untuk kesehatan namun juga baik dalam melawan perubahan suasana hati. Karena itu, cobalah untuk lebih sering mendapat sinar matahari jika sering merasa kesal atau marah.4. PMDDBukan hanya PMS (Premenstrual syndrome) yang bisa menyebabkan seorang wanita merasa bad mood. Namun, Premenstrual Dysphoric Disorder atau PMDD bisa membuat Anda merasa gelisah, mudah tersinggung, dan sulit melanjutkan pekerjaan.Walaupun siklus menstruasi terkait dengan hormon yang berfluktuasi dan dianggap normal, namun PMDD membutuhkan pengobatan dan perubahan gaya hidup untuk mengurangi gejalanya.5. TiroidMemiliki tingkat tiroid yang tinggi bisa berbahaya. Salah satu gejala dari hipertiroid adalah berubahnya suasana hati yang naik turun. Ini karena Anda menjadi sulit berkonsentrasi dan kerap gelisah.6. Kurang olahragaJika Anda tidak cukup bergerak, bukan hanya tubuh yang menderita. Namun, mood juga bisa memburuk. Olahraga menginduksi "hormon bahagia" yang bisa menurunkan tingka depresi, kecemasan, dan membuat Anda merasa lebih baik.Berjalan 10 menit bahkan bisa mengubah suasana hati yang buruk untuk menjadi lebih baik.7. StrokeStokre mengubah kondisi otak yang memberikan sinyal yang tercampur. Hal ini menyulitkan informasi dan emosi yang dirasakan, dengan cara yang benar.Karena itu, dalam situasi semacam ini seringkali suasana hati memburuk dan kemarahan sering terjadi. Untuk ini, Anda harus berkonsultasi dengan dokter.8. AlergiBeberapa alergi bisa menyebabkan rasa jengkel. Ini membuat mood menjadi naik turun. Anda bahkan bisa mengalami ganggunan tidur. Mereka juga mempengaruhi kekebalan yang membuat seseorang bisa merasa sedih setiap saat.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta Tanggal 28 Oktober diperingati sebagai Hari Sumpah Pemuda yang menjadi salah satu tonggak utama dalam pergerakan kemerdekaan Indonesia. Tahun ini Bangsa Indonesia memperingati Hari Sumpah Pemuda yang ke-90.Baca JugaSebelum proklamasi kemerdekaan di tanggal 17 Agustus 1945, bangsa kita terutama para pemuda sudah mengikrarkan diri sebagai sebuah bangsa melalui Sumpah Pemuda.Sayangnya, banyak generasi milenial yang tak mengetahui secara pasti sejarah dari Hari Sumpah Pemuda ini. Padahal semangat juang para pemuda pada masa itu patut dijadikan cerminan diri.Diolah dari berbagai sumber, berikut ini lima fakta mengenai Hari Sumpah Pemuda yang wajib diketahui para pemuda masa kini.Saksikan Video Pilihan di Bawah Ini:Sejumlah kegiatan dilakukan untuk memegang teguh nilai-nilai persatuan.Sumpah pemuda merupakan hasil keputusan kongres pemuda kedua yang diadakan pada tanggal 27-28 Oktober 1928 di Batavia, Jakarta. Isi dari keputusan ini adalah para pemuda berikrar satu tanah air, satu bangsa, dan satu bahasa, Indonesia.Hasil rumusan dari kongres ini awalnya tidak memiliki nama. Barulah beberapa hari kemudian, ikrar tersebut diberi nama ‘Sumpah Pemuda.’Lagu Indonesia Raya diperdengarkan untuk pertama kalinya pada kongres ini. Lagu ini dibawakan langsung oleh penciptanya, WR Supratman dengan menggunakan biola. Saat itu Belanda tidak mengizinkan kata ‘merdeka’ untuk diucapkan, sehingga lagu ini dikumandangkan tanpa syair.Kongres diadakan di sebuah rumah, di jalan Kramat Raya nomor 106, Jakarta Pusat. Hasil kongres ditulis oleh Muhammad Yamin dan dibacakan oleh Soegondo Djojopoespito, sebagai pimpinan kongres.Pada awalnya hasil kongres ditulis menggunakan bahasa Belanda. Namun, Muhammad Yamin kemudian menterjemahkan hasil kongres tersebut ke dalam bahasa Melayu.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta - Gempa dengan kekuatan magnitudo 5,2 mengguncang Kepulauan Talaud, Sulawesi Utara. Lindu terjadi pada pukul 15.09 WIB.Badan Meteorologi, Klimatologi, dan Geofisika (BMKG) menyampaikan, gempa pada Minggu (28/10/2018) lokasinya di 4.00 Lintang Utara, 126.60 Bujur Timur dan berada 13 km Barat Daya Kepulauan Talaud, Sulawesi Utara. BMKG menyebutkan kedalaman gempa 10 Km.Baca JugaBMKG juga menginformasikan, gempa tidak berpotensi menimbulkan tsunami.Gempa bumi berkekuatan magnitudo 7,4 yang mengguncang Kabupaten Donggala dan Kota Palu, Sulawesi Tengah pada Jumat 28 September 2018 menimbulkan fenomena likuifaksi atau 'tanah bergerak'.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Kuala Lumpur - Pemerintah Malaysia tengah dibuat panik oleh kian merajalelanya foto-foto remaja perempuan, yang berani memamerkan gambar dan video seronok di media sosial.Dikutip dari Asia One pada Minggu (28/10/2018), banyak dari para gadis itu sengaja merekam adegan ketika mereka mengangkat pakaian, untuk menunjukkan payudara atau berpose tidak senonoh lainnya.Situs berita The Star melaporkan bahwa banyak orang tua di Malaysia menyuarakan keprihatinan mereka tentang perilaku remaja tersebut.Baca JugaPenulisan kata kunci untuk "siswi Malaysia" di dunia maya, dengan cepat mengarahkan pencarian ke berbagai unggahan tidak senonoh terkait, yang bahkan mencapai lebih dari 16.000 temuan.Beberapa situs web bahkan mengklaim penawaran foto berbau asusila dari anak-anak sekolah dasar, yang disebut berasal dari masyarakat Melayu.Bahkan "guru" pun ikut berperan dalam skandal ini. Salah satu video memperlihatkan seorang pengajar wanita membuka pakaian dalam di sebuah ruangan, yang terlihat seperti ruang kelas di sekolah umum Negeri Jiran.Aktivis sosial setempat, R.A. Saravana, memperingatkan bahwa pencemaran seperti itu dapat menyebabkan semakin memburuknya nilai-nilai moral di kalangan generasi muda Malaysia."Pemangku kepentingan harus menghentikan ini sebelum situasi menjadi tidak terkendali," katanya.Simak video pilihan berikut:Seorang selebgram asal Malaysia bernama Nesa Idrus, mengalami insiden menyeramkan saat Live Instagram. Seorang temannya tiba-tiba mengalami kesurupan.Dr Chong Yew Siong, yang mengadvokasi kesehatan mental dan keluarga, mengatakan bahwa jumlah gadis muda yang mengekspos diri mereka di media sosial semakin meningkat.Dia mengatakan mayoritas gadis-gadis ini melakukannya karena tekanan teman sebaya, atau dipaksa oleh kekasih mereka."Gadis-gadis yang mengirim foto atau video telanjang pribadi, bertindak layaknya mencari lencana kehormatan, untuk membuktikan harga diri mereka," katanya.Dr Chong, yang bertugas di Pantai Hospital di Kota Ayer Keroh, mengatakan: "Mereka mencoba melakukan tindakan penyeimbangan di antara pencarian identitas dan kebebasan, yang membuatnya rentan terhadap pengaruh buruk dari luar."Dr Chong juga mengatakan para pelaku tren negatif ini harus disadarkan tentang dampak perundungan siber (cyber-bullying)."Tren ini, jika tidak terkendali, bisa menyebabkan depresi dan bahkan memicu aksi bunuh diri," ujarnya mengingatkan.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta Depresi merupakan suatu hal yang bisa membuat sebuah hubungan menjadi lebih rumit. Bahkan, menurut terapis di The Family Institute di Northwestern University, Heather Lofton mengatakan, depresi bisa membuat hubungan mengarah pada stres.Melansir Women's Health pada Minggu (28/10/2018), ada beberapa hal yang bisa membantu pasangan ketika dia sedang bergumul dengan depresinya.Baca Juga5. Mempertimbangkan konseling pasanganJangan memaksa pasangan yang sedang mengalami depresi untuk pergi ke konseling karena biasanya itu tidak akan berhasil. Namun, Anda bisa datang sendirian atau mendatangi konseling pasangan.Anda bisa bicara dengan pihak ketiga tentang bagaimana depresi mempengaruhi hubungan dan apa yang Anda lakukan sebagai sebuahpasangan dalam mengelolanya.Namun, menurut konselor pernikahan dan keluarga Lisa Marie Bobby, jika itu tidak berhasil, cobalah untuk mendatangi konseling sendirian. Anda bisa mempelajari strategi untuk bisa menjalani hubungan tersebut dengan cara yang sehat.Saksikan juga video menarik berikut ini:Lionel Messi Hampir DepresiBobby mengatakan, sangat mungkin seseorang dengan depresi bisa pulih. Namun, jika dia tidak secara aktif mencari bantuan dalam berbagai cara seperti konseling, pengobatan, atau perubahan gaya hidup, ini bisa mempengaruhi kesehatan mental Anda juga.Karena itu, dia menyarankan apabila hubungan tidak bisa berlangsung seperti itu, Anda harus mengakhirinya sebelum menyiksa diri Anda sendiri.Saran untuk memutuskan hubungan mungkin terdengar buruk. Namun, bukan berarti itu membuat Anda menjadi orang yang jahat."Tidak masalah untuk memperhatikan diri sendiri, untuk membuat keputusan yang sehat bagi Anda," kata Bobby.Hal tersebut membutuhkan rasa percaya diri yang kuat. Namun, Anda masih bisa mempertahankan hubungan dengan dirinya, apabila dia membutuhkan bantuan.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta - Peduli kepada kesehatan masyarakat, Anggota Komisi III Ahmad Sahroni menggelar pengobatan gratis di wilayah Jakarta Barat (Jakbar) dan Jakarta Utara (Jakut).Ahmad Sahroni menuturkan, pengobatan gratis yang diselenggarakan melalui Ahmad Sahroni Center (ASC) merupakan bentuk tanggung jawab sebagai anggota parlemen kepada masyarakat, khususnya di daerah pemilihannya.Baca Juga"Sebagai anggota DPR saya memiliki kewajiban terhadap masyarakat, tak hanya menampung aspirasi, tapi juga terhadap berbagai persoalan, termasuk terkait kesehatan. Dengan pengobatan gratis ini, kita berharap masyarakat yang memiliki keterbatasan biaya maupun waktu dapat memeriksa kesehatannya," ujar Sahroni dalam keterangan tertulisnya, Minggu (28/10/2018).Sementara Feby Belinda, istri Ahmad Sahroni yang menjadi Pembina ASC mengungkapkan, kegiatan pengobatan gratis diselenggarakan secara rutin di wilayah Jakarta Utara dan Jakarta Barat. Kegiatan ini ditekankannya bukan sebagai kampanye, tapi bentuk pengabdian Ahmad Sahroni yang menjadi anggota DPR dari daerah pemilihan Jakarta Utara dan Jakarta Barat."Kita melakukan ini bukan sebagai kampanye. Kegiatan ini rutin dilakukan Ahmad Sahroni melalui ASC sejak dia terpilih sebagai anggota DPR dari Jakarta. Kita berharap melalui kegiatan ini masyarakat akan terbantu kesehatannya," ucap Feby di lokasi pengobatan gratis.Masyarakat juga dapat berkomunikasi langsung dengan Ahmad Sahroni mengenai persoalan keamanan, hukum dan HAM yang berkaitan dengan fungsi kerjanya di Komisi III. Tak hanya itu, di kegiatan ini Ahmad Sahroni juga berbagi cerita jalan hidupnya dari orang yang berkehidupan susah hingga menjadi sukses dan menjadi anggota DPR."Harapannya, para orangtua dapat mendorong anak-anaknya untuk tak pantang menyerah dan menjadi sukses," imbuh Febby.Yayasan Pundi Amal Peduli Kasih Indosiar-SCTV, gelar pengobatan gratis dan trauma healing berupa dongeng untuk anak-anak korban gempa di Lombok, NTB.</t>
-  </si>
-  <si>
-    <t>, Barcelona - Barcelona menundukkan Real Madrid dengan skor 5-1 pada laga pekan kesepuluh La Liga. Luis Suarez menjadi bintang pertandingan setelah mencetak tiga gol.Barcelona membuka keunggulan ketika laga baru berjalan 11 menit. Pergerakan Jordi Alba membuka ruang bagi Phil Coutinho untuk membobol gawang Real Madrid.Baca JugaPada menit ke-19, Arthur mencoba melepaskan tendangan spekulasi yang mengarah tepat ke target. Namun, Thibaut Courtois melakukan penyelamatan gemilang.Barcelona mendapat tendangan penalti pada menit ke-29 setelah wasit membuat keputusan berdasarkan VAR. Luis Suarez yang maju sebagai eksekutor menaklukkan Courtois dan membuat Barcelona unggul dua gol.Dua menit sebelum paruh pertama berakhir, Rafinha mendapatkan peluang, namun bola hasil tendangannya masih melambung di atas gawang Real Madrid.Barcelona menutup babak pertama dengan skor 2-0.Lima menit babak kedua berjalan, Real Madrid mengurangi selisih gol dengan Barcelona lewat gol yang dicetak Marcelo.Barcelona meningkatkan serangan mereka setelah Real Madrid mencetak gol. Pada menit ke-75, Luis Suarez melepaskan tandukan yang membuat skor menjadi 3-1.Pada menit ke-83, Suarez mencetak gol ketiganya pada laga tersebut setelah memperdaya Courtois. Barcelona pun unggul 4-1.Barcelona belum berhenti mencetak gol. Pada menit ke-87, Arturo Vidal mencetak gol pertamanya untuk Barcelona dan membuat skor menjadi 5-1. Skor tersebut menjadi skor akhir pertandingan.Sumber: Bola.comBarcelona Vs Real Madrid, Tetap Sengit Tanpa Messi dan RonaldoBarcelona (4-3-3): 1-Marc-Andre ter Stegen; 20-Sergi Roberto, 3-Gerar Pique, 15-Clement Lenglet, 18-Jordi Alba; 4-Ivan Rakitic, 5-Sergio Busquets, 8-Arthur Melo (22-Arturo Vidal 84'); 12-Rafinha Alcantara (2-Nelson Semedo 69'), 9-Luis Suarez, 7-Phil Coutinho (11-Ousmane Dembele 74')Pelatih: Ernesto ValverdeReal Madrid (4-3-3): 25-Thibaut Courtois; 6-Nacho Fernandez, 5-Raphael Varane (17-Lucas Vazquez 46'), 4-Sergio Ramos, 12-Marcelo; 10-Luka Modric, 14-Casemiro, 8-Toni Kroos; 11-Gareth Bale (20-Marco Asensio 77'), 9-Karim Benzema, 22-Isco AlarconPelatih: Julen Lopetegui</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta – Presiden Joko Widodo atau Jokowi menjelaskan tentang jaket warna terakota yang dikenakannya. Sebelumnya, publik ramai membicarakan jaket terakota yang dikenakan Jokowi.Melalui akun Instagramnya, Jokowi menceritakan tentang jaket terakota yang sempat viral di dunia maya itu. Jokowi mengungkapkan, jaket warna kota yang dikenakan bermerek lokal, buatan Bandung."Saya menemukannya di salah satu gerai pameran di acara IdeaFest 2018 di Jakarta, kemarin. Bisa jadi jas hujan, bisa juga dipakai kalau sedang tidak hujan," kata Jokowi, Sabtu, 27 Oktober 2018.Baca JugaBukan hanya itu saja sebetulnya. Selain karena memang Jokowi suka, jaket ini produk lokal sebagaimana jaket-jaket yang sudah Jokowi punya."Ada jaket bomber, jaket merah dan hitam yang saya pakai saat Asian Games 2018, jaket denim saat mengendarai sepeda motor, dan beberapa jaket lain. Semua buatan anak-anak muda Indonesia," jelas Jokowi.Jokowi melanjutkan, kita memang tidak berkekurangan produk karya anak bangsa yang berkualitas, trendy, dan dikemas dengan baik. "Seperti jaket berwarna terakota ini, yang saya beli dan langsung pakai di arena IdeaFest 2018," kata Jokowi.Jaket denim Jokowi vdengan hiasan bertema kebudayaan Tanah Air viral. Jaket denim ini merupakan produksi anak bangsa yang dibuat secara custom. Kisah di balik viralnya jaket denim Jokowi ada di video ini.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta - Calon Presiden nomor urut 2, Prabowo Subianto menghadiri deklarasi dukungan dari Relawan Rhoma Irama di Markas Soneta, Jalan Tole Iskandar, Depok, Jawa Barat, Minggu (28/10/2018).Pada kesempatan itu, Prabowo sempat mencurahkan isi hatinya (curhat) kerap dituduh mendukung sistem khilafah. Bahkan dia juga merasa dianggap pro terhadap kelompok radikal Islamic State of Iraq and Syria (ISIS).Baca Juga"Saya dari kecil mendukung NKRI, tapi saya malah dituduh mendukung membela khilafah ISIS. Tapi ya sudahlah kalau orang sudah fitnah. Kita janganlah terpancing, jangan dibikin marah," ujar Prabowo dalam sambutannya.Meski begitu, dia meminta masyarakat, khususnya pendukungnya tidak terprovokasi dengan isu-isu yang dialamatkan kepadanya. mantan Danjen Kopassus itu justru mengajak masyarakat meneladani sifat Nabi Muhammad yang sabar dalam menghadapi fitnah dan ujian."Rasulullah bukan hanya dihina, tapi juga diludahin. Beliau mau dibunuh, dilempar kotoran tapi Beliau tidak membalas. Maka kita juga tidak boleh membalas," tutur Prabowo Subianto.Mantan menantu Presiden Soeharto itu meminta masyarakat tegas dalam menentukan pilihannya untuk Indonesia yang adil dan makmur melalui Pilpres 2019."Kita harus tegas, kita harus berdiri di kaki sendiri. Insyaallah jika kita diberi mandat, Indonesia akan bangkit lagi," ucap Prabowo menandaskan.Deklarasi Relawan Rhoma for Prabowo-Sandi (PAS) di Markas Soneta juga dihadiri oleh Ketua Umum Partai Amanat Nasional (PAN) Zulkifli Hasan dan Sekjen PAN Eddy Soeparno. Sementara cawapres Sandiaga Salahuddin Uno lebih dulu meninggalkan lokasi karena ada agenda lain sebelum Prabowo tiba.Gustika Jusuf Hatta, cucu proklamator Muhammad Hatta memprotes unggahan timses Prabowo Sandi yang menyamakan Sandiaga dengan kakeknya.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta - Jelang akhir tahun, berbagai agen pemegang merek (APM) melalui dealernya banyak memberikan promo menarik, termasuk untuk pembelian mobil bekas (mobkas). Program menarik ini, diberikan oleh Suzuki Auto value sebagai dealer pembelian mobkas Suzuki di Indonesia.Melalui program Ertiga Vaganza, Suzuki Auto Value di wilayah Jabodetabek memberikan kembali layanan gratis biaya jasa balik nama dan juga hadiah tambahan berupa kupon servis gratis yang bernilai hingga Rp 1 juta rupiah.Penawaran ini berlaku hingga akhir November 2018, dan bisa didapatkan dengan paket angsuran ekstra hemat mulai dari Rp 80 ribuan per hari.Baca Juga"Karena Ertiga termasuk salah satu mobil unggulan Suzuki yang memiliki banyak peminat, kami menggelar Ertiga Vaganza guna mengakomodir minat para konsumen dan calon konsumen Ertiga yang tersedia di dealer-dealer Suzuki.," ujar Hendro Kaligis, Business Development Manager Auto Value PT Suzuki IndomobiI Sales (SIS).Untuk program Ertiga Vaganza ini melengkapi kepastian mutu unit mobil dari Suzuki Auto Value. Sertifikat Mutu Kendaraan (Certified Used Car) yang diterbitkanoleh PT SIS, memberikan garansi mesin dan transmisi yang berlaku secara nasional.Dengan sertifikat ini, Suzuki Auto Value memberikan pelayanan terbaik dalam jual beli kendaraan bekas yang aman dan nyaman."Kami harap, Ertiga Vaganza tidak hanya mendongkrak penjualan unit Ertiga bekas yang masih tersedia, namun juga dapat memenuhi kebutuhan pelanggan setia Suzuki yang menggemari Ertiga karena reputasi konsumsi bahan bakarnya yang sangat efisien dan fitur-fitur keamanan serta kenyamanan yang menjadi keunggulannya," tutup Hendro.Suzuki Ertiga 2018 mencoba peruntungannya di kelas low MPV dengan sejumlah keunggulannya.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta - Badan Meteorologi, Klimatologi, dan Geofisika (BMKG) meminta masyarakat untuk waspada terhadap peningkatan hujan di sebagian wilayah Indonesia. BMKG memprakirakan ada peningkatan hujan selama akhir Oktober hingga awal November 2018 ini.Kepala Humas BMKG, Hary Tirto Djatmiko, mengatakan peningkatan curah hujan ini disebabkan oleh beberapa faktor.Baca Juga"Antara lain adanya sirkulasi siklonik di sekitar wilayah Sumatera yang menyebabkan terjadinya konsentrasi massa udara di wilayah tersebut. Konsentrasi massa udara ini menyebabkan kondisi udara yang relatif lebih lembap yang mendukung pertumbuhan awan-awan hujan," ujar Hary ketika dihubungi Liputan6.com, Jakarta, Senin (29/10/2018).Menurut dia, area pertemuan angin pada akhir Oktober ini memanjang dari wilayah Sumatera hingga Kalimantan bagian utara. Area pertemuan angin tersebut juga akan mendukung pertumbuhan awan hujan.Sebaliknya, wilayah Pulau Jawa bagian timur hingga NTT, Sulawesi, Maluku dan Papua potensi hujan diprakirakan masih cukup minim. Minimnya curah hujan disebabkan oleh dominasi massa udara kering yang terpantau masih terdapat di wilayah tersebut dan pola angin yang cenderung terberai sehingga menghambat pertumbuhan awan-awan hujan.Wilayah yang berpotensi hujan lebat pada periode 29-31 Oktober 2018, yakni Aceh, Sumatera Utara, Sumatera Barat, Bengkulu, Sumatera Selatan, Bangka Belitung, Jambi, Riau, Kepulauan Riau, Banten, DKI Jakarta, Jawa Barat, Jawa Tengah, Jawa Timur, Kalimantan Tengah, Kalimantan Barat, Kalimantan Utara, Sulawesi Tengah, Sulawesi Barat, Gorontalo, dan Papua."BMKG mengimbau kepada masyarakat agar tetap waspada dan berhati-hati terhadap dampak yang dapat ditimbulkan seperti banjir, tanah longsor, banjir bandang, genangan, angin kencang, pohon tumbang dan jalan licin," kata Hary.Tingginya curah hujan juga diiringi dengan potensi gelombang tinggi. Tinggi gelombang di sejumlah perairan di Indonesia dapat mencapai 2,5-4 meter.BMKG memperkirakan gelombang tinggi akan terjadi di Perairan Barat Enggano, Perairan Selatan Banten, Selat Sunda Bagian Selatan, Perairan Selatan Jawa hingga Sumbawa, Samudera Hindia Barat Enggano-Banten, Samudera Hindia selatan Jawa hingga NTB, Perairan utara Kepulauan Talaud, Perairan utara Halmahera, Laut Halmahera, Perairan utara Papua Barat.Warga di Jombang punya tradisi memandikan kucing untuk mendatangkan hujan pada musim kemarau.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Poso - Polres Poso, Sulawesi Tengah, telah memeriksa sejumlah saksi terkait pengibaran bendera hitam di Kantor DPRD Poso pada Jumat 27 Oktober 2018. Kapolres Poso AKBP Bogiek Sugiarto mengaku masih menunggu hasil pemeriksaan saksi tersebut dari penyidik."Apakah ada unsur pidananya, kita masih menunggu hasil pemeriksaan saksi oleh penyidik," ujar Bogiek di Poso, Minggu 28 Oktober 2018.Baca JugaBogiek mengatakan, pengibaran bendera hitam terjadi di dua tempat yakni DPRD dan Lapangan Sintuwu Maroso.Dia menegaskan, pengibaran bendera hitam itu tidak didahului dengan penurunan Merah Putih. Pada saat itu, tiang bendera sedang kosong, tidak ada berkibar bendera Merah Putih. Hal ini dikuatkan kebenarannya dengan hasil olah TKP yang saat itu langsung digelar."Tidak ada aksi atau gerakan menurunkan bendera merah putih dan menggantikan bendera hitam, dan saat itu juga, tidak hitung jam mereka langsung menurunkan bendera hitam itu," ujar Bogiek seperti dilansir Antara.Wakil Ketua I DPRD Poso Suharto Kandar yang dihubungi terpisah membenarkan tidak ada aksi penurunan bendera Merah Putih. Namun, hanya pengibaran bendera hitam di halaman DPRD Poso dan Lapangan Sintuwu Maroso.Dia katakan, satu hari sebelum aksi itu, Satpol PP telah menurunkan bendera merah putih karena telah usang dan direncanakan diganti dengan yang baru."Nah, Satpol PP ini lupa memberitahukan kepada kami, akan diganti bendera Merah Putih hingga sampai pada hari aksi pengibaran bendera hitam itu dilakukan," ujar Suharto.Menurut dia, saat itu, dia tengah menerima sekitar 50 orang perwakilan demo itu di DPRD. Namun tidak mengetahui adanya pengibaran bendera hitam dan baru diketahui setelah viral di medsos baik foto maupun video.Setelah viral di medsos, Suharto langsung mengonfirmasi kepada Sekwan dan Satpol PP yang bertugas saat itu.Menurut dia, aksi pengibaran bendera hitam itu dilakukan sekitar 500 orang yang datang untuk menyampaikan orasi dengan baik, dan ketika dalam ruangan pun, mereka menyalurkan aspirasi yang baik. Tuntutan mereka salah satunya agar Banser dibubarkan dan meminta DPRD untuk menyampaikan hal itu kepada Kapolri."Setelah mereka bubar, saya hanya dengar ada bunyian, dan meninggalkan DPRD, eh setelah saya pulang saya melihat di medsos ada pengibaran bendera itu, tapi hanya di lapangan itu," tutur Suharto.Kabareskrim Polri Komjen Arief Sulistyanto memerintahkan jajarannya mengusut kasus pengibaran bendera berwarna hitam di halaman Kantor DPRD Poso, Sulawesi Tengah yang viral. Diduga, mereka menurunkan bendera merah putih dan mengganti dengan bendera hitam bertuliskan kalimat tauhid dan pedang."Identifikasi orang-orang yang menaikkan bendera dan penanggung jawab kegiatan. Ini jelas-jelas melanggar UU No 24 Tahun 2009 Pasal 24 jo Pasal 65 jo Pasal 66," ujar Arief melalui keterangan tertulis, Jakarta, Sabtu 27 Oktober 2018 malam.Tindakan itu, kata Arief, sebagai bentuk penghinaan terhadap negara. Mereka dinilai tidak menghormati jasa-jasa pahlawan yang berjuang merebut kemerdekaan dari penjajah."Jangan dianggap remeh kejadian seperti ini, apalagi sudah viral di medsos. Akan bisa diikuti oleh orang lain ditempat lain. Ini menyangkut kewibawaan negara," ucapnya.Jenderal bintang tiga itu pun memerintahkan anak buahnya melakukan penyelidikan tanpa harus menunggu laporan masyarakat. Pengusutan perkara tersebut dapat dilakukan dengan dasar laporan model A."Agar dibuatkan LP model A, segera proses. Ini harus dilakukan agar tidak ditiru," kata Arief menandaskan.Rekaman video anak murid sekolah dasar mengibarkan bendera hitam bertuliskan huruf Arab.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta - Pihak Kepolisian Polda Metro Jaya (PMJ) bakal segera menggelar Operasi Kepolisian bersandi, Zebra Jaya 2018. Kegiatan tersebut bakal berlangsung selama 14 hari, mulai 30 Oktober hingga 12 November 2018.Untuk operasi Zebra kali ini, pihak kepolisian bakal fokus pada pengendara yang masih nekat melanggar lalu lintas, seperti pengendara yang masih melawan arus, pengendara mobil yang tidak menggunakan seatbelt, hingga pengendara yang tidak menggunakan helm.Nah, bagi pengendara yang terjaring jangan sampai melakukan hal bodoh seperti yang dilakukan pemotor ini. Saat hendak ditilang, dua pengendara tersebut langsung berpura-pura menjadi turis, dan berbicara menggunakan bahasa Thailand abal-abal.Dari video yang diunggah akun instagram @polantasindonesia, untuk menghadapi pengendara bandel ini polisi tidak kehilangan akal. Dengan menggunakan google translate, polisi merekam pembicaraan turis palsu ini, dan kemudian mendengarkan artinya yang tidak benar.Baca JugaLangsung saja, polisi tersebut memberikan kode kepada temannya sesama polisi jika dua pengendara ini turis palsu, yang kemudia disergap dari belakang. Dengan spontan, dua pengendara ini kaget dan langsung bisa berbahasa Indonesia yang baik dan benar."Anjaay...🤣🤣. Gaes, kita udh tau ya modus2 kalian🤣🤣ayuk tertib, bentar lagi ada oprasi zebra rencong 2018 yaaaa...😁😁 🔹#sumbervideo: @satlantasacehutara - @satlantaszamannow," tulis akun instagram @polantasindonesia sebagai caption videonya tersebut, dilihat Sabtu (28/10/2018).Anjaay...🤣🤣 Gaes, kita udh tau ya modus2 kalian🤣🤣ayuk tertib, bentar lagi ada oprasi zebra rencong 2018 yaaaa...😁😁 🔹#sumbervideo: @satlantasacehutara - @satlantaszamannowA post shared by  POLISI LALU LINTAS INDONESIA (@polantasindonesia) on Oct 27, 2018 at 2:00am PDTAksi dua pelanggar lalu lintas dengan modus turis abal-abal ini, kemudian mendapatkan berbagai tanggapan kocak dari netizen. Bahkan, hingga berita ini ditulis, video teresbut sudah ditonton 165.960 orang, dan mendapatkan 53 komentar dari warganet."HAHAHAHA😎😀😃 cerdazzz n kreatif geeesss...toppp dah 👍👍👍👍," komentar akun @zainal_abidin_dtt"Hehehe... keren pak... jadi inget dulu... pura2 ke wrteg... eh disamperin juga...😂😂😂," tambah akun @azwarbachtiar"😆😆😆😆 @tumpengindah @ridaendrina pura2 kebelet pipis😆😆🙊," jelas akun @breslime"@yonas.eo @rinaldihs @wahidsidiqm gini nih cara ngelepas dari razia polisi 😂," pungkas @baskara_putr4Seorang emak menolak turun dari kendaraannya saat dirazia. Polisi tak tinggal diam dengan mengangkut sang emak beserta motornya.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta Terpisah jarak dan ruang, kini bukan lagi halangan untuk bisa saling kenal. Asal bisa menggunakan internet, terbuka peluang untuk mendapat teman lewat dunia maya dari berbagai aplikasi yang tersedia.Bahkan, sebagian dari pengguna aplikasi ada yang terjerat cinta.  Beberapa pesohor ini misalnya, cinta mereka bersemi berawal dari dunia maya. Berikut beberapa di antaranya seperti dirangkum Liputan6.Baca JugaAndien Aisyah dan IppePenyanyi Andien Aisyah dan Irfan Ippe menikah pada 2015 lalu. Kisah cinta mereka berawal dari media sosial Twitter. Keduanya saling follow sejak tahun 2002 silam.Kemudian tahun 2009 keduanya mulai dekat setelah Andien mengirimkan DM ke semua followersnya karena kehilangan handphone. Ia berniat mengumpulkan kontak para koleganya kembali.Berawal dari situ, kedekatan antara Andien dan Ippe dimulai, benih-benih cinta pun mulai tumbuh di antara keduanya.Hesti Purwadinata dan Edo BorneAktris dan pembawa acara Hesti Purwadinata dan Edo Borne juga memiliki kisah yang sama dengan Andien dan Ippe. Hesti dan Edo saling kenal berawal dari media sosial Twitter.Keterbatasan komunikasi lewat twitter, mereka semakin akrab setelah saling bertukar pin BB. Enam bulan kenal, mereka memilih untuk menikah pada 19 September 2010 lalu.Deny Sumargo dan Dita SoedarjoDenny Sumargo dan Dita Soedarjo bertemu pertama kali karena urusan pekerjaan. Setelah itu, mereka sering berkomunikasi lewat fitur Direct Message media sosial Instagram. Setelah saling bertukar nomor telepon mereka semakin dekat.Meski sempat menghindar beberapa lama saat mengetahui Dita anak seorang pengusaha terkenal, kini Denny dan Dita sudah melewati proses lamaran dan rencananya keduanya akan melangsungkan pernikahan.Saksikan video pilihan di bawah ini:Denny Sumargo adu akting dengan Dian Sastrowardoyo di dalam film Kartini.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta Gangguan-gangguan kecil di tempat kerja tidak hanya membuat Anda kurang fokus dan jadi tidak produktif. Kondisi ini juga bisa menyebabkan stres, kelelahan, dan membuat beban pekerjaan semakin terasa berat.Selain itu, ini juga bisa membuat performa kerja menurun yang pada akhirnya menghalangi Anda untuk mendapat kenaikan gaji atau naik pangkat. Anda tahu gangguan-gangguan ini menghalangi untuk fokus, tapi terkadang rasanya sulit sekali untuk menahan dorongan itu.Apalagi terkadang beberapa gangguan datang dari luar sehingga tidak bisa Anda kontrol. Mengutip Lifehack, ini 5 hal umum yang paling mengganggu fokus di tempat kerja dan cara mengatasinya.Baca Juga1. Sering cek emailEmail seringkali digunakan sebagai medium berkomunikasi di tempat kerja. Namun terkadang, ada banyak email yang masuk di jam yang berbeda. Akibatnya, pikiran Anda teralih dengan notifikasi email dan waktu pun terbuang tanpa disadari.Untuk mengatasi ini, tentukan waktu untuk memeriksa dan membalas email. Batasi diri Anda untuk memeriksa email maksimal 3 kali sehari. Anda bisa membaginya yakni 2 jam setelah tiba di tempat kerja, setelah jam makan siang, dan 1 jam sebelum pulang kantor.Jika Anda biasa menerima pekerjaan melalui email, cara ini juga membantu memberi waktu untuk menyelesaikan pekerjaan yang satu sebelum melanjutkan ke yang lainnya.Menerima telepon masuk terus menerus tentu akan menghambat produktivitas. Pekerjaan Anda terganggu untuk mengangkat telepon dan konsentrasi pun terbagi dua.Jika Anda merasa sudah menerima banyak telepon masuk dalam sehari, kirimkan pesan pada penelepon selanjutnya bahwa Anda akan segera menelepon kembali pada jam yang ditentukan.Anda juga bisa membuat voicemail sehingga telepon masuk yang tidak terlalu penting bisa dialihkan.3. Membantu rekan kerjaBekerja dalam tim memang membutuhkan kerjasama yang baik. Namun di satu sisi, Anda juga tentu perlu menyelesaikan pekerjaan Anda sendiri.Ada waktunya kita tidak bisa menyelesaikan semua pekerjaan kita sekaligus membantu orang lain. Terkadang, kita harus memprioritaskan pekerjaan sendiri.Kuncinya adalah komunikasi. Sampaikan pada rekan kerja bahwa Anda perlu menyelesaikan pekerjaan Anda dan akan membantu mereka setelah selesai.Kebisingan di kantor bisa datang dari mana saja, salah satu yang paling umum adalah suara rekan kerja. Kantor bisa menjadi begitu bising saat rekan kerja Anda menyetel musik dengan keras atau berbicara keras-keras pada rekan kerja lainnya.Anda bisa mengatasi ini dengan menutup pintu ruangan tempat Anda bekerja. Jika Anda tidak memiliki ruangan sendiri atau bekerja di kantor dengan konsep open office, bicarakan ini baik-baik dengan rekan kerja. Tanyakan juga apabila ada kebiasaan-kebiasaan Anda yang mengganggu mereka.5. Meja kerja yang berantakanMeja kerja yang rapi akan menghemat waktu Anda. Berdasarkan riset, rata-rata karyawan menghabiskan 4,3 jam per minggu mencari alat tulis di meja mereka. Ini akan menambah stres dan rasa frustasi di tempat kerja sekaligus mengurangi konsentrasi dan kreativitas.Maka itu, jangan lupa ambil waktu Anda untuk membereskan meja dan meletakkan dokumen-dokumen pada tempatnya seitap hari.Berikan label pada berkas-berkas juga bisa memudahkan Anda. Segera buang kertas-kertas yang sudah tidak terpakai agar tidak berserakan. (Felicia Margaretha)sumber: https://www.lifehack.org/802571/distractions-at-work</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Sukabumi - Pemuda asal Kota Sukabumi, Jawa Barat, berhasil mengubah limbah plastik menjadi bahan bakar minyak (BBM) yang dalam waktu dekat akan diproduksi secara massal untuk masyarakat."Penemu alat pengubah limbah plastik menjadi BBM ini adalah inovator kami yakni Ari Sutikno asal Kecamatan Citamiang," kata Ketua Karang Taruna Kecamatan Citamiang Engkus Kuswara di Sukabumi.Alat untuk mengubah limbah plastik menjadi BBM itu yakni destilasi yang sudah beroperasi di wilayah Kendal, Jawa Tengah, dan Tangerang, Banten.Baca JugaKarena itu, ia mengatakan, ingin mengembangkan lagi di Sukabumi sehingga bisa memproduksi BBM secara massal, seperti dilansir Antara, Kamis 26 Oktober 2018.Menurutnya, dari hasil uji laboratorium ternyata limbah plastik yang diubah menjadi BBM itu kualitasnya menyerupai premium, pertalite, solar, hingga pertamax. Kualitas tersebut didapat tergantung dari bahan plastik yang digunakan dan semakin tinggi oktannya, semakin bagus.Lanjut dia, pihaknya dalam waktu dekat akan berdialog dengan Pemkot Sukabumi agar ada lokasi yang tepat untuk pengolahannya.Ia mengatakan, alat ini bisa menjawab masalah sampah plastik di Kota Sukabumi sehingga selain dimanfaatkan untuk diubah menjadi BBM, juga mengurangi beban sampah plastik yang menjadi ancaman pencemaran."Jika diproduksi massal tentunya juga akan menarik tenaga kerja, sehingga keuntungannya tidak hanya sebatas memproduksi BBM, tetapi mengurangi limbah plastik dan mengurangi angka pengangguran," tambahnya.Kuswara mengatakan pihaknya menargetkan produksi BBM dari limbah plastik ini bisa berjalan bulan depan atau November atau paling lambat akhir tahun. Dengan inovasi ini tentunya akan sangat membantu progam pemerintah dalam penanggulangan sampah plastik dan ketersediaan BBM serta mengurangi angka pengangguran.Saksikan video pilihan berikut ini:PT Pertamina (Persero) menyesuaikan harga Bahan Bakar Minyak (BBM) nonsubsidi, jenis Pertamax Series dan Dex Series, serta Biosolar Non-PSO mulai Rabu (10/10/2018). Kenaikan harga ini berlaku di seluruh Indonesia mulai pukul 11.00 WIB.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Aceh - Lima belas orang eks-psikotik, atau mantan penderita gangguan jiwa di Kabupaten Aceh Barat diberi bantuan berupa modal usaha ekonomi produktif (UEP).Eks-psikotik penerima bantuan itu berasal dari lima kecamatan yang ada di Kabupaten Aceh Barat, yakni Kecamatan Johan Pahlawan, Meureubo, Panton Reu, Arongan Lambalek, Woyla Barat. Para eks-psikotik itu sebelumnya sempat dirawat di Balai Zaitun RSUD Cut Nyak Dhien Meulaboh dan RSJ Aceh Banda Aceh.Adapun bantuan yang diberi yakni paket untuk wirausaha. Seperti untuk pertanian diberikan berupa bibit padi dan waterpump atau penyedot air sawah untuk 2 orang, serta kelontongan untuk 13 orang selebihnya. Kelontongan ini diperuntukkan sebagai barang dagangan. Para penerima bantuan terdiri dari 13 laki-laki dan 2 perempuan.Baca JugaPemberian bantuan sosial yang asal dananya dari Dana Otonomi Khusus Aceh (DOKA) Tahun 2018 ini diharap dapat menyokong kemandirian ekonomi para eks-psikotik tersebut."Bentuk paket-paket tersebut, itu sesuai permintaan mereka sendiri. Mereka sudah pernah ikut Bimbingan Teknis (Bimtek) pada Agustus lalu," ujar Kepala Dinas Sosial Kabupaten Aceh Barat, Syarifah Junaidah kepada Liputan6.com, Minggu (28/10/2018).Menurut Syarifah, 15 orang eks-psikotik tersebut, semuanya sudah dinyatakan sembuh dari gangguan kejiwaan. Kendati diantaranya ada yang masih dalam tahapan minum obat."Mereka sudah sembuh. Memang masih ada yang minum obat. Namun sudah bisa menjaga diri sendiri. Sudah ingat sama diri sendiri. Ketika dia merasa sudah mulai kambuh, dia minum obat sendiri," kata Syarifah.Namun yang terpenting, lanjut Syarifah, dalam hal ini perlu adanya dukungan semua pihak, terutama keluarga dan orang-orang sekeliling agar eks-pasien jiwa itu bisa diterima kembali di lingkungan masyarakat."Mereka jangan dikucilkan. Karena ketika dikucilkan malah mereka bisa kembali gila. Itu pernah terjadi, waktu saya masih di Dinas Kesehatan dulu. Ketika kita beri bantuan becak untuk eks psikotik. Namun tidak didukung, bahkan dibilang jangan naik itu becak orang gila," tuturnya.Syarifa menambahkan, saat ini pihaknya masih terus melakukan pendataan jumlah mantan pasien gangguan jiwa di kabupaten itu, untuk diberi modal usaha ekonomi produktif (UEP).Selain itu, ia menilai perlu dibentuk balai keterampilan yang khusus disediakan untuk eks-psikotik di Aceh Barat. Agar, mereka mandiri secara ekonomi, setelah kembali ke masyarakat kelak.Bupati Aceh Barat, Ramli MS, mendukung penuh pemberian modal usaha ekonomi produktif (UEP) kepada para eks-psikotik tersebut. Dia berharap, bantuan yang diberikan dapat dimanfaatkan sebaik mungkin."Bantuan ini agar mereka bisa hidup mandiri sehingga tidak terus berharap pemberian dari orang lain apalagi sampai meminta-minta dijalan. Kita berharal modal usaha yang diberi dapat dikelola dengan baik," ujar Ramli kepada Liputan6.com.Saksikan video pilihan berikut ini:Mbah Geliyem tinggal bersama anaknya yang alami gangguan kejiwaan sendirian. Parahnya, Mbah Geliyem tidak punya pekerjaan.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta - Seorang peserta ajang Electric Jakarta Marathon 2018 bernama Arief Hartani meninggal dunia. Pria 55 tahun itu tiba-tiba terjatuh saat berlari di perlintasan kategori 5K pada Minggu (28/10/2018) pagi tadi.Kapolsek Metro Tanah Abang AKBP Lukman Cahyono membenarkan adanya peristiwa tersebut. Dia menyebut, korban meninggal dunia akibat penyakit jantung yang diderita."Meninggal karena sakit aja. Sakit jantung, enggak ada masalah kok," ujar Lukman saat dikonfirmasi, Jakarta.Lukman juga memastikan, meninggalnya peserta Electric Jakarta Marathon itu berbeda dengan insiden kecelakaan yang melibatkan bus Transjakarta di Jalan Medan Merdeka Selatan, Jakarta Pusat, pagi tadi. Kecelakaan itu menewaskan pesepeda yang belum diketahui identitasnya."Bukan, itu beda kasus ya," ucap Lukman soal meninggalnya peserta Electric Jakarta Marathon tersebut.Jenazah Arief langsung dibawa ke RSAL Mintohardjo, Jakarta Pusat. Namun dia tidak tahu persis apakah sudah ada pihak keluarga yang datang menjemputnya."Tadi dibawa ke Mintoharjo. Tadi sih di sana, tapi sekarang enggak tahu ya (sudah diambil keluarga atau belum)," kata Lukman memungkasi.Saksikan video pilihan di bawah ini:Untuk keamanan para pelari, penjagaan ketat dilakukan di sepanjang jalan yang dilalui seperti Lapangan Banteng, Jakarta Pusat.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta  - Selain rajin servis rutin, penampilan mobil pun harus diperhatikan. Jika Anda rajin merawat eksterior, mobil lebih sedap dipandang dan catnya lebih awet. Karena itu, disarankan untuk mencuci mobil secara rutin, setidaknya 2 bulan sekali atau sesuai kebutuhan.Sebagian orang lebih memilih untuk mencuci mobil sendiri di rumah. Alasannya pun bervariasi, mulai dari menghemat biaya hingga waktu yang fleksibel. Bahkan beberapa orang sampai membeli berbagai perlengkapan untuk mencuci mobil di rumah, seperti sabun hingga lap khusus.Baca JugaTernyata, aktivitas mencuci mobil sendiri tidak semudah kelihatannya. Mengutip dari Popularmechanics.com, ada berbagai hal yang harus dipersiapkan sebelum, saat, dan setelah mencuci mobil. Berikut ulasannya:1. Kondisi kendaraanSebelum mencuci mobil, disarankan untuk melihat secara detail kondisi mobil. Hal ini berpengaruh pada cara pencucian. Jika tidak terlalu kotor, cukup dilap hingga bersih dan kemudian dipoles. Apabila kondisinya sangat kotor, perlu dicuci dengan air bertekanan untuk merontokkan kotoran yang menempel.Tak jarang orang membeli perlengkapan khusus untuk mencuci mobil. Namun, sebelum itu, Anda perlu membaca kandungan dan cara pakai pada sabun mobil. Sebagian cairan diciptakan untuk komponen yang berbeda, seperti pembersih khusus pelek, kaca, dan body.3. Proses pencucianHindari mencuci di bawah terik matahari karena air di body mobil akan cepat mengering dan meninggalkan bercak. Selain itu, gunakan lap bersih untuk menggosok berbagai bagian mobil guna menghindari gesekan dengan debu atau pun kerikil.4. Poles mobilMobil harus segera dikeringkan setelah dicuci. Hal itu dilakukan untuk mencegah munculnya bercak air yang menempel. Setelahnya, berikan wax atau cairan poles khusus supaya mobil terlihat lebih bersih dan berkilau.5. Perawatan rutinMeski mobil telah dicuci, bukan berarti Anda tidak perlu membersihkannya lagi. Lap mobil minimal 2 hari sekali atau sesegara mungkin setelah menerjang hujan.Sumber: Otosia.comSalah satu jalanan kota London dibuat macet oleh sebuah mobil Porsche//Bukan karena aksi balapan melainkan karena mobil yang bernilai 1 juta pounds itu dicuci dipinggir jalan//meski terparkir di pinggir jalan/namun para pengendara  terpaksa harus mem...</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta - Pengadilan Negeri Jakarta Selatan menggelar sidang putusan permohonan praperadilan Gubernur nonaktif Aceh, Irwandi Yusuf atas penetapan tersangka oleh Komisi Pemberantasan Korupsi (KPK). Gugatan praperadilan tersebut ditolak."Mengadili, dalam eksepsi menolak eksepsi termohon untuk seluruhnya. Dalam pokok perkara menolak permohonan praperadilan pemohon untuk seluruhnya," ujar hakim Riyadi Sunindyo F di Ruang Sidang Utama PN Jakarta Selatan, Jalan Ampera Raya, Rabu (24/10/2018).Baca JugaDalam putusan itu, Riyadi menyatakan bahwa operasi tangkap tangan dan penahanan yang dilakukan KPK terhadap Irwandi Yusuf sudah sesuai aturan hukum. Begitu pula tindakan KPK mulai penyelidikan hingga penyidikan dinyatakan sah dan berkekuatan hukum mengikat."Oleh karena itu, permohonan pemohon ditolak seluruhnya. Mengingat karena permohonan pemohon ditolak, maka pemohon membayar perkara yang jumlahnya nihil," ucap Riyadi.Irwandi tersandung kasus dugaan suap alokasi dana Otonomi Khusus (Otsus) Aceh tahun anggaran 2018.Dalam kasus ini, KPK menetapkan Irwandi Yusuf dan dua pihak swasta bernama Hendri Yuzal dan Teuku Syaiful Bahri serta Bupati Bener Meriah Ahmadi sebagai tersangka.Irwandi, Hendri dan Syaiful ditetapkan sebagai pihak penerima suap dari Ahmadi. Irwandi melalui Hendri dan Syaiful diduga menerima suap Rp 500 juta dari total fee yang dijanjikan sebesar Rp 1,5 miliar.Uang tersebut diduga akan digunakan untuk membeli medali dan pakaian atlet dalam ajang Aceh International Marathon 2018.Dugaan tersebut diperkuat oleh model Fenny Steffy Burase. Steffy yang merupakan tenaga ahli dalam ajang tersebut mengatakan bahwa aliran dana suap tersebut ada, namun dirinya mengaku tak tahu asal usul dana tersebut. Steffy juga membenarkan pengeluaran untuk membeli medali senilai Rp 500 juta.Saksikan Video Pilihan Berikut Ini:Gubernur Aceh non-aktif Irwandi Yusuf membantah dirinya mengirim uang kepada istri keduanya.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Ambon - Pakar kimia dan lingkungan Universitas Pattimura elahnpatti Ambon, Dr Justinus Male mengingatkan masyarakat Maluku, khususnya di Pulau Buru dan Pulau Ambonagar, jangan mengonsumsi kepala maupun tulang ikan karena sudah mengandung bahan beracun mercuri dan sianida."Bahan beracun seperti mercuri dan sianida itu biasanya mengendap di dalam sumsum tulang dan kepala ikan, sehingga kebiasaan mengonsumsi bagian ikan ini akan berbahaya untuk jangka panjang," kata Justinus, di Ambon, Provinsi Maluku, Sabtu 27 Oktober 2018, seperti dikutip dari Antara.Baca JugaPeringatan yang disampaikan pakar lingkungan dan kimia itu bukan tanpa alasan. Sebab hasil penelitian terhadap sejumlah sampel ikan, baik yang diambil dari pasar di Namlea, Kabupaten Buru maupun di perairan laut Latuhalat, Pulau Ambon sudah tercemar merkuri dan sianida.Penelitian ini sudah dilakukan sejak 2015, setelah maraknya aktivitas penambangan emas ilegal di Gunung Botak, Gogorea, dan Anahoni yang menggunakan berton-ton mercuri dan sianida.Langkah ini diambil Justinus dengan mengumpulkan dana sendiri melalui penjualan bazar roti karena tidak ada dukungan dana Pemerintah Provinsi (Pemprov) Maluku dan Pemerintah Kabupaten Buru.Menurut dia, limbah-limbah beracun dan berbahaya ini dibuang ke Sungai anahoni dan Waeapu, selanjutnya mengalir sampai ke kawasan Teluk Kayeli yang banyak dikelilingi hutan mangrove (bakau).Setelah mengendap di daerah hutan mangrove, endapan lumpur mengandung bahan berbahaya dan beracun (B3) itu dimakan mikroba-mikroba kecil, plankton dan zooplankton, dan selanjutnya terjadilah proses rantai makanan yang berujung dimakan kepiting, ikan kecil dan ikan besar sampai akhirnya dikonsumsi manusia."Ikan dari perairan laut di sekitar Teluk Kayeli ini tidak selamanya menetap di sana, namun bermigrasi dan menyebar ke mana-mana sehingga kondisi seperti inilah yang membahayakan kesehatan manusia," tandasnya.Karena itu, masyarakat diingatkan kalau membeli ikan segar di pasar, haruslah membuang kepala dan tulang serta isi perutnya karena di situlah mengedap bahan beracun mematikan.Saksikan video menarik berikut ini:Nelayan ini hanya mencoba menangkap ikan halibut, tetapi terkejut ketika dia menangkap ikan yang jauh lebih besar. Ikan paus pembunuh tepatnya. Sepertinya paus dan nelayan ingin makan halibut, tetapi paus pembunuh tiba di sana lebih dulu.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Bengkulu - Banyak cara yang dilakukan generasi muda untuk mengambil peran pembangunan di daerah. Salah satunya dilakukan para pemuda yang tergabung dalam Forum Pemuda Peduli Bengkulu (FPPB). Mereka berupaya untuk mendorong perkembangan sektor pariwisata.Ketua FPPB Feri Vandalis menjelaskan, seriap hari minggu pagi, mereka bersama 70 komunitas yang tergabung dalam forum ini menggelar ngopi bareng di kawasan Cagar Alam Danau Dendam Tak Sudah (CA DDTS) yang juga merupakan salah satu potensi wisata dalam kota Bengkulu."Kami menyebutnya dengan istilah "Neron" bareng, tidak hanya minum kopi, kami juga berdiskusi tentang banyak hal," ujar Feri kepada Liputan6.com di Bengkulu Minggu (28/10/2018).Baca JugaStatus kawasan yang tercatat sebagai aset negara berupa Cagar Alam yang dikuasai Kementrian Kehutanan dan Lingkungan Hidup, membuat kawasan ini sulit untuk dikembangkan. Banyak keterbatasan yang diatur dalam undang-undang, sehingga jika ingin dikelola secara profesional akan terbentur aturan.Pihaknya bersama para anggota forum berupaya mendesak pemerintah pusat untuk menurunkan status kawasan menjadi Taman Wisata Alam atau TWA.Sebab posisi danau yang berada di jantung Kota Bengkulu dan potensi danau yang sangat indah sangat disayangkan jika tidak dikembangkan dengan baik."Tentu saja dukungan semua pihak, terutama pemerintah daerah Bengkulu sangat dibutuhkan, kami tidak bisa bergerak sendiri," tegas Feri.Permintaan penurunan status kawasan dari Cagar Alam menjadi Taman Wisata Alam ini ternyata sudah direspon Balai Konservasi dan Sumber Daya Alam (BKSDA). Mereka sudah mengirimkan permohonan dan menunggu verifikasi oleh tim Kementrian Kehutanan dan Lingkungan Hidup (KLHK).Koordinator BKSDA Kota Bengkulu Agung Tri Djatmiko menjelaskan, pekan depan, tim akan turun ke Bengkulu dan melakukan verifikasi. Pihaknya meminta supaya para pemangku kebijakan di Bengkulu bisa memperkuat argumentasi supaya penetapan status kawasan ini bisa berjalan baik."Verifikasi dilakukan pekan depan, semoga permohonan ini dikabulkan," ungkap Agung.Salah seorang tokoh pemuda Bengkulu Bima Eka Putra menyatakan, jika status kawasan sudah diturunkan, maka akan ada investasi yang masuk untuk membangun berbagai fasilitas. Tujuannya tentu saja akan menjadi salah satu destinasi pariwisata dan akan menarik para wisatawan untuk datang ke Bengkulu.Danau Dendam Tak Sudah memiliki sejarah panjang dan kisah menarik bagi warga Kota Bengkulu khususnya Suku Lembak yang mendiami kawasan ini.Masyarakat yang mencoba mengais rezeki dengan berjualan di sekitar danau sempat menjadi bulan bulanan pihak kemananan karena memang aturan yang melarang aktifikas mereka."Setidaknya, warga sekitar danau bisa menjadikan kawasan ini sebagai sumber perekonomian keluarga," tukas Bima.Bagi para penggila kopi, pagi hari belum lengkap jika belum minum kopi. Para pengopi biasanya mencari suasana yang dekat dengan alam, tenang dan sejuk.Komunitas "Tobo Berendo" yang menghimpun para pemuda Kota Bengkulu ternyata punya cara unik untuk minum kopi pagi.Mereka berkumpul di tepi Cagar Alam Danau Dendam Tak Sudah (DDTS) untuk ngopi bareng sambil berdiskusi tentang banyak hal.Mereka sangat terbuka kepada siapapun untuk ikut bergabung, bahkan kopi gratis mereka siapkan untuk masyarakat. Bagi yang tidak minum kopi, tenang saja, mereka juga menyediakan teh manis. Semuanya diseduh dalam wadah sejenis cangkir yang terbuat dari batok kelapa.Ketua Komunitas Tobo Berendo, Dedi Setiadi atau akrab disapa Sucenk menjelaskan, budaya ngopi yang menjadi kebiasaan masyarakat SUku Lembak Bengkulu menyebut ngopi bersama sambil ngobrol di pagi hari itu dengan istilah "Neron". Danau Dendam dipilih karena memiliki panorama yang indah saat matahari terbit atau Sunrise."Setiap hari minggu jam enam hingga delapan pagi, ayo neron bareng disini, gratis," ujar Sucenk.Salah seorang pengunjung Danau Dendam, Andre Herodes menyambut gembira kegitan ngopi gratis ini. Selain bisa berkumpul dan berdiskusi dengan para pemuda, dia juga bisa berolahraga pagi dengan udara yang sejuk dan bersih di pagi hari."Olahraga, refreshing, sambil ngopi gratis," kata Herodes.Saksikan video pilihan berikut ini:Festival budaya Tabut Muharam Bengkulu</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta Wakil Ketua Dewan Kehormatan Partai Golkar Akbar Tanjung mengakui kasus korupsi yang menjerat beberapa kadernya berdampak pada elektabilitas partai tersebut. Dia prihatin dengan kondisi partai berlambang beringin itu.Dalam survei Litbang Kompas dan Populi Center, Golkar tak lagi masuk tiga besar. Elektabilitasnya kini disalip PKB yang menempati urutan ketiga di angka 10,3 persen pada survei Populi Center terbaru.Baca Juga"Kami tidak lagi dalam posisi nomor 3, kalau posisi nomor 4, Golkar ini tidak lagi dianggap sebagai partai atas, sudah masuk sebagai partai tengah," ujar Akbar Tanjung di sela Rakernas TKN Jokowi-Ma'ruf di Surabaya, Jawa Timur, Minggu (28/10/2018).Dia mengakui, salah faktor penyebab penuranan itu adalah citra Partai Golkar yang dekat dengan kasus korupsi. Namun Akbar menegaskan, Golkar sebagai partai atau institusi tak melakukan korupsi, namun hanya oknum."Saya kira memang dari segi citra bagi Partai Golkar tidak kohesif, tapi kan tidak bisa kita mengatakan Golkar yang melakukan tindak pidana korupsi sebagai institusi," ucapnya.Karena itu, Akbar selalu meminta kader Golkar bekerja keras dalam Pemilu 2019. Selain itu, dia berharap di bawah kepemimpinan Airlangga Hartarto, motto Golkar Bersih bisa diwujudkan."Saya mendampingi dia dan selalu mengatakan Saudara Airlangga, kamu akan dianggap berhasil kalau kamu bisa menaikkan program suara Partai Golkar dan kemudian menambah kursi Partai Golkar, yang memang dalam 2 periode terakhir ini mengalami penurunan. Sehingga tahun 2019-2024, naikkan," pungkasnya.Saksikan video pilihan di bawah ini:Mantan Sekretaris Jenderal Partai Golkar Idrus Marham resmi menjadi tahanan Komisi Pemberantasan Korupsi (KPK). Idrus ditahan setelah menjalani pemeriksaan perdana sebagai tersangka kasus dugaan korupsi kontrak kerja sama pembangunan PLTU Riau-1.Sementara itu, senior Partai Golkar Luhut Binsar Pandjaitan mengatakan, popularitas partai berlambang pohon beringin itu sudah sangat bagus. Oleh karena itu, dia menyarankan kepada pengurus Golkar agar menyingkirkan kader-kader yang terlibat kasus korupsi."Popularitas Golkar di bawah sangat bagus. Jadi ada kader-kader Golkar yang masih terlibat kasus korupsi, menurut hemat saya harus kita buang. Eranya sudah berubah," kata Luhut saat memberikan pesan di rangkaian HUT ke-54 bersama para sesepuh dan kader Golkar di Hotel Ritz Chalton, Jakarta Selatan, Sabtu 20 Oktober 2018.Kemudian dia juga meminta kepada para seluruh kader jangan berbuat yang aneh-aneh seperti korupsi. Kalau ada yang berbuat macam-macam pasti terjadi konflik."Kalau ada yang membuat aneh-aneh pasti ada konflik yang hebat. Saya pikir, Golkar harus menempatkan diri dan menjauhkan diri dari yang aneh-aneh. Jangan sampai Golkar ada macam-macam," ungkap Luhut.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta - Siapa sangka, lukisan hasil karya kecerdasan buatan atau artificial intelligence (AI) dengan judul Portrait of Edmond Belamy, laku seharga US$ 432.500 atau setara Rp 6,5 miliar dalam lelang.Ya, lukisan yang dilukis oleh kecerdasan buatan itu ikut dilelang oleh rumah lelang Christie.Baca JugaBahkan menurut laporan yang dikutip Tekno Liputan6.com dari The Verge, Minggu (28/10/2018), sebenarnya lukisan tersebut ditargetkan hanya terjual antara US$ 7.000 hingga US$ 10.000 (sekitar Rp 106,5-152 jutaan).Karya seni tersebut diciptakan oleh sekelompok orang yang menamakan diri mereka Obvious. Ketiga anggota Obvious adalah mahasiswa Prancis berusia 25 tahun. Mereka menggunakan algoritma kecerdasan buatan bernama GAN (generative adversarial network) untuk membuat lukisan tersebut.Kecerdasan buatan itu dilatih menggunakan sejumlah potret bersejarah kemudian mulai mencoba membuat gambar sendiri. Kemudian, gambar yang telah dibuat dicetak dan dibingkai, selanjutnya ditandatangani dengan nama algoritma GAN.Pihak rumah lelang Christie mengonfirmasi, harga jual lukisan tersebut melalui telepon. Namun, pemenang lelang ingin namanya tetap jadi anonim.#AuctionUpdate The first AI artwork to be sold in a major auction achieves $432,500 after a bidding battle on the phones and via ChristiesLive https://t.co/XiDVxVGa1n pic.twitter.com/7dxirT55i8Meski begitu, lukisan Belamy ini sebelumnya pernah jadi kontroversi terkait dengan cipta karya AI-nya. Pasalnya, Obvious mengakui, selain memakai algoritma GAN, mereka juga menggunakan kode dari artis lain berusia 19 tahun yakni Robbie Barrat.Tak jelas seberapa banyak kode AI milik Barrat yang digunakan, Namun tidak jelas apakah Barrat memiliki hak kepemilikan atas lukisan tersebut, mengingat kode AI miliknya dibagikan secara open source.Obvious sendiri dalam pernyataannya menyebutkan ucapan terima kasihnya kepada komunitas AI, terutama yang membantunya menggunakan teknologi Ai seperti Ian Goodfellow si pencipta algoritma GAN."Kami juga berterima kasih kepada Robbie Barrat yang turut memberikan pengaruh pada karya seni ini," tutur Obvious.Tak lupa Obvious juga berterima kasih pada Christie karena telah memberi kesempatan pada lukisan karya AI untuk pengembangan teknologi dalam penciptaan karya seni.(Tin/Isk)Saksikan Video Pilihan Berikut Ini:Konferensi Kecerdasan Buatan menampilkan sejumlah robot pintar yang bisa menemani dan memudahkan manusia dalam keseharian.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta Ketika orang terkasih berulang tahun kita tentu akan memberikan kado spesial yang akan selalu dikenang. Namun seorang wanita bernama Paulina Casillas Landeros nampaknya memiliki cara tersendiri untuk memberikan kado spesial untuk kekasihnya.Baca JugaAlih-alih memberikan barang mahal, Paulina justru memutuskan untuk memberikan pusarnya untuk kekasihnya yang berulang tahun. Ya, hal ini tentu terdengar tak masuk akal namun benar-benar dilakukan oleh wanita asal Jalisco, Meksiko ini.Paulina menjalani operasi pengangkatan pusarnya pada 2015 lalu. Dia lantas memutuskan untuk memberikannya kepada sang kekasih, Daniel Ramirez sebagai tanda cinta. Paulina menempatkan "pusar" nya tersebut pada kantung kecil dan menulis kata "I Love You" di luar kantung tersebut."Ketika itu saya jatuh cinta setengah mati kepadanya, dia selalu mendukung saya saat menjalani masa-masa sulit dan dia adalah salah satu dari orang-orang yang sangat berpengaruh pada hidup saya" ucap wanita yang gemar memodifikasi tubuhnya tersebut.Saksikan Video Pilihan di Bawah Ini:Momen mengharukan saat seorang Ayah diberi kesempatan oleh perawat untuk memotong tali pusar anak pertamanya.Paulina menceritakan pengalamannya mengangkat pusarnya tersebut. Dirinya mengaku sangat menderita saat itu."Saat itu saya sangat menderita, saya menghabiskan hari-hari saya di tempat tidur seolah-olah saya dikarantina. Saya tidak bisa meregang, berdiri, atau tertawa. Meski secara bertahap sembuh, tetapi saya tidak bisa 100% pulih".Belakangan Paulina menyesali keputusannya tiga tahun lalu itu dan menyebutnya sebagai tindakan ceroboh dan tergesa-gesa. Keduanya pun kini telah putus dan menjadi teman baik. Meski begitu Paulina mengatakan bahwa Daniel masih menyimpan "kado" spesial darinya tersebut."Dia masih menyimpannya dan akan selalu menyimpannya karena dia tahu makna di balik semua itu" ungkap Paulina.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta - Model Fenny Steffy Burase mangkir pemeriksaan penyidik Komisi Pemberantasan Korupsi (KPK). Steffy tak memenuhi panggilan penyidik lantaran tengah menghadiri sebuah kegiatan."Ada satu saksi yang tidak hadir hari ini, adalah Fenny Steffy. Ini saksinya IY (Irwandi Yusuf) untuk suap Dana Otonomi Khusus Aceh," ujar Kabag Pemberitaan dan Publikasi KPK Yayuk Andriati di Gedung KPK, Kuningan, Jakarta Selatan, Rabu,24 Oktober 2018.Baca JugaSteffy akan dijadwalkan diperiksa ulang hari ini, Kamis (25/10/2018)."Karena dia tidak hadir, karena ada kegiatan, dan akan dijadwal ulang hari Kamis besok," kata Yayuk.Steffy sendiri merupakan salah satu saksi yang dicegah ke luar negeri oleh lembaga antirasuah. Steffy sebelumnya sudah dua kali diperiksa penyidik KPK terkait kasus dugaan suap Dana Otsus Aceh.KPK menetapkan Gubernur Irwandi dan dua pihak swasta bernama Hendri Yuzal dan Teuku Syaiful Bahri serta Bupati Bener Meriah Ahmadi sebagai tersangka. Irwandi, Hendri dan Syaiful ditetapkan sebagai pihak penerima suap dari Ahmadi.Gubernur Irwandi melalui Hendri dan Syaiful diduga menerima suap Rp 500 juta dari total fee yang dijanjikan sebesar Rp 1,5 miliar. Uang tersebut diduga akan digunakan untuk membeli medali dan pakaian atlet dalam ajang Aceh International Marathon 2018.Dugaan tersebut diperkuat oleh model Fenny Steffy Burase. Steffy yang merupakan tenaga ahli dalam ajang tersebut mengatakan bahwa aliran dana suap tersebut ada, namun dirinya mengaku tak tahu asal usul dana tersebut. Steffy juga membenarkan pengeluaran untuk membeli medali senilai Rp 500 juta.Pada kasus kedua‎, Irwandi diduga menerima gratifikasi bersama orang kepercayaannya Izil Azhar sebesar Rp 32 Miliar. Gratifikasi itu berkaitan dengan pelaksanaan pembangunan Dermaga Sabang tahun anggaran 2006-2011.Saksikan Video Pilihan Berikut Ini:Steffy menjadi saksi atas tersangka Gubernur Aceh nonaktif Irwandi Yusuf.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta - Tim Kampanye Nasional Jokowi-Ma'ruf menargetkan perolehan suara sebesar 70 persen di Pilpres 2019. Hal tersebut sesuai dengan rekomendasi Rapat Kerja Nasional (Rakernas) Tim Kampanye se-Indonesia."Rakernas Tim Kampanye Nasional Jokowi-KH Ma’ruf Amin menyepakati pencapaian target suara Pilpres 2019 sebesar 70%," ujar Sekretaris TKN Jokowi-Ma'ruf Hasto Kristiyanto di Surabaya, Jawa Timur, Minggu (28/10/2018).Baca JugaTarget tinggi tersebut dipatok berdasarkan kesusksesan pemerintahan Joko Widodo dan Jusuf Kalla. Serta makin percaya dirinya Timses Jokowi-Ma'ruf Amin karena kesuksesan penyelenggaraan event-event besar."Kebanggaan sebagai bangsa yang ditandai dengan keberhasilan menyelenggarakan tiga event internasional berupa Asian Games, Asian Para Games dan Annual Meeting IMF-World Bank," jelas Hasto.Sekjen PDI Perjuangan itu mengatakan, sembilan partai pengusung harus menggerakkan seluruh elemen partai menyongsong Pilpres 2019, termasuk kepala daerah dan caleg di semua tingkatan."Guna mencapai target tersebut, maka PDI Perjuangan, Golkar, PKB, NasDem, PPP, Hanura, PKPI, Perindo, dan PSI bertekad untuk semakin menggerakkan seluruh elemen kepartaiannya," jelas Hasto.Rakernas juga merekomendasikan pentingnya sinergi pemenangan antarpartai, relawan, tokoh dan seluruh elemen masyarakat. Pada butir rekomendasi berikutnya, anggota calon legislatif dan tim kampanye bakal menerima sanksi jika terbukti mengkampanyekan pasangan calon presiden-wapres lawan."Penegakan sanksi disiplin organisasi bagi seluruh anggota dan kader partai yang terbukti mengampanyekan pasangan calon presiden dan calon wakil presiden lain akan diberlakukan sesuai mekanisme dan peraturan setiap Partai Politik Koalisi Indonesia Kerja," ujar Hasto.Saksikan video pilihan di bawah ini:Dalam sambutannya, Jokowi mengajak seluruh santri untuk senantiasa menjaga persatuan dan kesatuan bangsa dengan semangat sumpah pemuda.Selain itu, Rakernas merekomendasikan penguatan relawan. Juga pemantapan direktorat penggalangan pemuda dan perempuan, menyiapkan jurkam, melakukan canvassing, dan kampanye door to door, serta kampanye dengan konten kreatif."Dan berbagai kegiatan yang secara khusus untuk menggalang pemilih muda melalui wadah kaum muda berkreasi dan penggalangan kaum perempuan KEREN (Kreatif, Energik, Relijius, dan Nasionalis)," kata Hasto."Pelatihan juru bicara dan influencer secara periodik akan terus dilakukan guna menampilkan kekuatan rekam jejak, gagasan dan program, serta narasi kemajuan Indonesia Raya dari pasangan Jokowi-Kyai Ma’ruf Amin," pungkas Hasto.Reporter: Ahda Bayhaqi</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta - Menteri Pemuda Olahraga Imam Nahrawi menyerukan kepada tiap putra dan putri bangsa Indonesia untuk terus menjaga bara Sumpah Pemuda yang terikrar pada 90 tahun silam."Sejak tahun 1928 pemuda Indonesia telah mendobrak sekat-sekat primordial suku, ras, kultur, dengan semangat Sumpah Pemuda mari kita bangun kesadaran kebangsaan Indonesia, sekaligus komitmen menjaga persatuan kesatuan negeri," tulis Imam dalam akun twitternya, Minggu (28/10/2018).Baca JugaDia mengatakan, semangat kebersamaan dan persatuan menjadi modal terbesar. Setiap tantangan zaman dilalui dan harus siap menghadapi yang akan datang.Adalah semangat kebersamaan dan persatuan yang menjadi modal terbesar. Kita lalui setiap tantangan zaman, dan harus siap menghadapi yang akan datang.Satu Nusa, Satu Bangsa, Satu Bahasa Indonesia! Selamat Hari Sumpah Pemuda!#HariSumpahPemuda#BangunPemudaSatukanIndonesia pic.twitter.com/WxvKH7Cq5WDia mengatakan, era perjuangan pemuda-pemudi bangsa saat ini telah berganti. Namun satu yang masih senada, yakni bagaimana mempertahankan dan menjaga persatuan agar tak tercerai berai dan terkotak-kotak."Memang ini eranya sudah berubah, pemuda-pemuda Indonesia 90 tahun dapat menerobos, mereka berkumpul di Jakarta untuk mengumandangkan Sumpah Pemuda, dari Papua datang Sumatera datang, Aceh datang, mereka berkumpul tanpa sosial media, penuh keikhlasan dan sekarang kita merasakan itu," ucap Imam dalam kesempatan terpisah saat ditemui di Surabaya, Sabtu malam 27 Oktober 2018.Imam menilai, saat ini badai pemecah belah sangat kencang berembus. Perbedaan politik menghubungkan cara pandang berseberangan yang bila tak disikapi dengan kedewasaan, menjadi ancaman bagi persatuan dan kesatuan."Banyak badai, badainya dengan isu bermacam, tujuannya hanya politk, bukan kesejahteaan, bukan ekonomi, bukan sosial, hanya politik. Padahal pondasi negeri ini dibangun karena sosial, agama, keberbedaan dan keagungan Tuhan yang menganugerahi bumi Indonesia ini," kata dia.Imam berharap, ke depan bangsa Indonesia bisa lebih optimistis, pemuda dan pemudi bisa semakin semangat dan tidak hanya mencibir. Tetapi, juga membuahkan ide membangun positif."Artinya kalau kita mau, kita bisa, asal mau tidak cengeng tidak mudah ngeluh tidak pesimis, pemuda Indonesia harus optimis, dan itu ada di hati kalian," tandas Menpora Imam.Berita video aksi Menpora, Imam Nahrawi, bermain Headis, olahraga menarik gabungan tenis meja dengan sepak bola.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta - "Hidup Jokowi. Hidup nomor 1. Lanjutkan." Teriakan para ulama itu menggema usai Presiden Jokowi meresmikan pembebasan tarif Tol Jembatan Suramadu, yang menghubungkan wilayah Surabaya dan Madura, pada Sabtu 27 Oktober 2018."Dengan mengucap Bismilllahirrahmanirrahim, jalan Tol Suramadu sore hari ini kita ubah jadi nontol biasa," ucap Jokowi didampingi Menteri Pekerjaan Umum dan Perumahan Rakyat Basuki Hadimuljono, Sekretaris Kabinet Pramono Anung, Staf Khusus Presiden Johan Budi, Kepala Sekretariat Presiden Heru Budi Hartono, Sekretaris Militer Presiden Marsda TNI Trisno Hendradi, dan Komandan Paspampres Mayjen TNI (Mar) Suhartono serta puluhan kiai dan tokoh agama Surabaya dan Madura.Baca JugaJokowi menegaskan, pembebasan tarif Tol Jembatan Suramadu berkat usulan tokoh agama, ulama, kiai, tokoh masyarakat, serta Ikatan Keluarga Madura (Ikama). Pembebasan tarif jembatan dengan panjang 5.438 meter ini diharapkan berdampak signifikan pada pertumbuhan ekonomi Surabaya dan Madura."Kita harapkan dengan menjadi jembatan non-tol biasa petumbuhan ekonomi, investasi akan datang semakin banyak. Properti, tourisme berkembang di Kabupaten Surabaya, pertumbuhan ekonomi betul-betul kelihatan," kata dia.Saat peresmian, Jokowi bersama menteri dan ulama naik ke atas mobil kontainer yang sudah didesain menjadi panggung. Sesaat kemudian, Jokowi foto bersama ulama Madura di Jembatan Tol Suramadu. Usai berfoto, Jokowi bergegas menuju awak media.Di perjalanan, para ulama mengacungkan jari telunjuk sambil berteriak "Hidup Jokowi, hidup nomor 1'. Mereka juga menggaungkan ucapan "Lanjutkan".Melihat aksi para ulama, Jokowi tak banyak berkomentar. Sejenak dia terdiam lalu tersenyum. Lantaran para ulama tak menghentikan aksinya, Jokowi meminta agar aksi tunjuk 1 jari dihentikan."Sudah, sudah," kata Jokowi sambil tersenyum.Presiden Jokowi menegaskan, pembebasan tarif Jembatan Tol Surabaya-Madura (Suramadu) untuk mendongkrak pertumbuhan ekonomi. Dia membantah kebijakan tersebut sebagai upaya mendulang suara dari warga Madura pada Pilpres 2019."Ya kalau kita mau urusan politik nanti saya gratiskan bulan Maret saja, tahun depan. Gitu lho. Jangan apa-apa dikaitkan dengan politik. Ini urusan ekonomi, investasi, kesejahteraan, dan keadilan," tegas Jokowi di Tol Suramadu, Jawa Timur, Sabtu (27/10/2018).Jokowi menjelaskan, pembebasan tarif Jembatan Tol Suramadu bermula dari masukan dan desakan tokoh masyarakat, ulama, serta kiai Madura. Masukan tersebut bergulir sejak 2015."Ini awal-awal 2015 ada masukan, keinginan dari para ulama, kiai, habaib yang ada di sini. Tokoh-tokoh di Ikama (Ikatan Keluarga Madura) juga menyampaikan dan sudah saya sampaikan ke Pak Gubernur (Jawa Timur) dan saya hitung. Khusus untuk sepeda motor saat itu masih masuk. Oke, sepeda motor digratiskan," terang Jokowi.Kemudian pada 2016, Jokowi mengaku mendapat masukan lagi. Kali ini permintaan agar tarif Jembatan Tol Suramadu dipotong 50 persen."Pada 2016 ada masukan lagi, 'Pak ini membebani terutama untuk truk, bus, angkutan-angkutan barang. Mohon dipotong minimal 50 persen', kita potong," kata Jokowi.Ternyata, lanjut dia, pemotongan tarif 50 persen tidak berdampak signifikan pada pertumbuhan ekonomi Surabaya dan Madura. Bahkan pemasukan Jembatan Tol Suramadu setiap tahun hanya mencapai Rp 120 miliar."Setelah kami hitung berapa sih pemasukan setahun jalan tol ini? Juga enggak banyak dan ini dibangun dari APBN. Oleh sebab itu, kita putuskan dengan harapan ketimpangan dan kemiskinan bisa diatasi," ujar Jokowi.Tak hanya mengatasi ketimpangan dan kemiskinan, Jokowi berharap pembebasan tarif Jembatan Tol Suramadu bisa menggenjot investasi dan terbukanya lapangan kerja sebanyak-banyaknya di Madura dan Surabaya."Saya tahu Pak Gubernur sudah bekerja keras untuk Madura, bupati-bupati telah bekerja keras untuk Madura, tapi dampaknya belum signifikan. Kita ingin agar sektor turisme, properti, investasi bisa betul-betul bergerak di Madura," Jokowi memungkasi.Jembatan Tol Suramadu diresmikan pada Juni 2009. Sejak pertama kali digunakan, tarif Jembatan Tol Suramadu sebesar Rp 30.000.Pada 2016, pemerintah memangkas tarif 50 persen, sehingga menjadi Rp 15.000. Sementara untuk kendaraan roda dua selama ini diberi kelonggaran tak dikenai ongkos masuk.Jembatan Suramadu menjadi satu-satunya penghubung jalur darat Surabaya dan Madura yang sebelumnya hanya tersedia di jalur laut. Jembatan dengan panjang 5.438 meter ini merupakan jembatan terpanjang di Indonesia.Jembatan ini mulai dibangun pada 2003 di bawah kepemimpinan Presiden Megawati Soekarnoputri dan diresmikan oleh Presiden Susilo Bambang Yudhoyono pada 2009. Dana yang digelontorkan untuk membangun jembatan Suramadumencapai Rp 4,5 triliun.Presiden Jokowi membebaskan tarif tol Jembatan Suramadu mulai Sabtu (27/10/2018) ini. Semula tarif tol untuk melalui jembatan ini di kisaran Rp 15 ribu untuk kendaraan golongan I hingga Rp 45 ribu untuk kendaraan golongan V.AVP Corporate Communications Jasa Marga Dwimawan Heru menyatakan, pembebasan tarif ini telah diatur dalam Peraturan Presiden (Perpres) yang kemudian mengubah fungsi Jembatan Suramadu dari tol menjadi jalan umum."Ada Perpresnya yang menetapkan Tol Jembatan Suramadu dari jalan tol menjadi jalan umum tanpa tol," jelas dia kepada Liputan6.com.Dia menambahkan, misi menggerakkan ekonomi kawasan merupakan faktor utama penghapusan tarif tersebut. "Hal ini dalam rangka percepatan pengembangan ekonomi kawasan Surabaya Madura," sambungnya.Reporter: Titin Supriatin</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta Dihadapan ratusan mahasiswa Fakultas Ushuludin dan Pemikiran Islam Universitas Islam Negeri (UIN) Sunan Kalijaga Yogyakarta, Ketua MPR RI Zulkifli Hasan mengajak Generasi muda untuk selalu mengupgrade diri sendiri. Tidak melulu hanya melakukan rutinitas yang tidak ada henti-hentinya. Tetapi harus berani keluar dari kebiasaan, dan mencoba hal-hal baru yang positif yang ada disekitar lingkungan."Kalau kita hanya melakukan rutinitas yang biasa, maka jadi orangnya pun biasa-biasa saja. Makanya kita harus berani keluar dari kebiasaan, agar menjadi orang yang luar biasa", kata mantan Menteri Kehutanan, itu menambahkan.Baca JugaPernyataan itu dikemukakan Zulkifli Hasan saat menyampaikan Kuliah Umum Kebangsaan dan Sosialisasi Empat Pilar MPR RI dihadapan ratusan Mahasiswa Fakultas Ushuludin dan Pemikiran Islam Universitas Islam Negeri (UIN) Sunan Kalijaga Yogyakarta. Acara tersebut berlangsung di Convention hall UIN Kalijaga Yogyakarta, Sabtu (27/10).Untuk menjadi orang yang luar biasa mahasiswa tidak cukup hanya menerima materi pendidikan saja. Tetapi generasi muda harus memiliki keterampilan, di luar ilmu yang diperoleh dibangku pendidikan. Dengan cara begitu mahasiswa lebih siap dan bisa bersaing dengan mahasiswa lain, termasuk yang datang dari luar negeri."Apalagi bagi mahasiswa UIN. Mahasiswa UIN tidak boleh kalah dibanding mahasiswa UI dan UGM. Kalau mahasiswa UI dan UGM bisa maju, Harusnya mahasiswa UIN bisa lebih maju, Karena mahasiswa UIN mendapat dua pelajaran sekaligus, yaitu pelajaran umum dan agama", kata Zulkifli menambahkan.Karena itu, Ketua MPR mengajak mahasiswa UIN Sunan Kalijaga tidak cepat puas dengan apa yang diperoleh saat ini. Tetapi harus berusaha lebih keras untuk mendapat bekal lain yang belum diperoleh saat sekarang. Ini penting agar mahasiswa bisa memenangkan kompetisi yang makin ketat diwaktu yang akan datang.(*)</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta - Calon Wakil Presiden Sandiaga Uno memberikan pesan kepada para anak muda atau milenial dalam peringatan Sumpah Pemuda.Dia menginginkan para milenial mempunyai suatu pencapaian atau karya seperti halnya 90 tahun yang lalu. Di mana para pemuda berikrar salah satunya memilih bahasa pemersatu bangsa yakni Bahasa Indonesia.Baca Juga"Agar mereka saat 100 tahun Sumpah Pemuda bisa mewujudkan, milenial jadi pengisi kemerdekan. Menjadi penggerak dan lokomotif, kita akan bangga kalau milenial bisa menghasilkan karya terbaik untuk bangsa," kata Sandiaga kawasan Kuningan, Jakarta Selatan, Minggu (28/10/2018).Mantan Wakil Gubernur DKI Jakarta tersebut menyatakan terdapat beberapa syarat menjadi syarat bila ingin menjadi entrepreneur yang sukses. Salah satunya, harus mempunyai sesuatu yang inovatif.Selain itu, harus berani untuk mengambil risiko. Pro aktif, kata Sandiaga, juga diperlukan."Seperti datang ke Indonesia Young Entrepreneur Summit (IYES), behimpun, berjejaring, bangun network, silaturahim. Itu konsep proaktif," jelas Sandiaga.Calon Wakil Presiden nomor urut 2 Sandiaga Salahuddin Uno menghadiri Deklarasi Relawan Rhoma for Prabowo-Sandi (PAS) di Markas Soneta Record, Depok, Jawa Barat, Minggu siang. Sandiaga tiba sekitar pukul 11.20 WIB.Kedatangan Sandiaga disambut langsung sang tuan rumah, Rhoma Irama diiringi yel-yel Prabowo-Sandi menang di Pilpres 2019.Dalam kesempatan tersebut, Sandiaga mengucapkan terima kasih kepada seluruh Relawan Rhoma Irama atas dukungan yang diberikan untuk berlaga di Pilpres 2019."Insyaaallah 170 hari ke depan kita serap semua aspirasi dari seluruh masyarakat. Terima kasih untuk dukungannya terhadap kami," ujar Sandiaga di lokasi, Minggu (28/10/2018).Sandiaga mengatakan, saat ini masih banyak ditemukan ketimpangan dari berbagai aspek, khususnya sosial ekonomi. Karena itu, ia bersama Prabowo siap membawa visi perubahan jika terpilih pada Pilpres 2019 nanti."Kalau tidak ada perubahan, sungguh terlalu. Yang kaya makin kaya, yang miskin makin miskin," tutur Sandiaga.Selain itu, Sandiaga yakin, Relawan Rhoma Irama untuk PAS terus menjaga kesatuan dan persatuan bangsa dalam mendukung dirinya bersama Prabowo."Relawan Rhoma akan terus menjaga ukhuwah dan akan terus membawa Islam rahmatan lil alamin," ucap Sandiaga.Sandiaga Uno temui 1000 kader dan simpatisan Partai Amanat Nasional di Cianjur, Jawa Barat. Dia berjanji akan sejahterakan petani dan guru honorer.</t>
-  </si>
-  <si>
-    <t>Meksiko City - Pembalap Mercedes, Lewis Hamilton, menyegel gelar juara dunia F1 2018 setelah finis di posisi keempat pada F1 GP Meksiko di Sirkuit Autodromo Hermanos Rodriquez , Senin (29/10/2018) pagi WIB.Baca JugaJelang balapan F1 GP Meksiko, Hamilton sudah unggul 70 poin atas pembalap Ferrari, Sebastian Vettel, yang menempati posisi kedua di klasemen. Pembalap asal Inggris itu hanya butuh tambahan lima poin, atau minimal finis di posisi ketujuh, untuk mengamankan gelar. Sebaliknya, Vettel wajib menang jika ingin menjaga peluang sekecil apa pun untuk menunda pesta Hamilton.Namun, misi tersebut gagal diwujudkan Vettel. Dia hanya mampu menempati posisi runner-up. Adapun podium tertinggi pada F1 GP Meksiko menjadi milik pembalap Red Bull, Max Verstappen.Hamilton finis di posisi keempat, di belakang pembalap Ferrari, Kimi Raikkonen. Hasil tersebut sudah cukup bagi Hamilton mengamankan gelar juara dunia. Dengan dua balapan tersisa pada musim ini, Hamilton telah mengantongi 358 poin, unggul 64 poin atas Vettel. Poin Hamilton sudah tak mungkin dikejar Vettel.Ini merupakan gelar juara dunia kelima bagi Hamilton. Dia menjadi pembalap ketiga dalam sejarah F1 yang mampu mengoleksi lima titel juara dunia atau lebih.  Dua pembalap yang lain yang masuk klub tersebut adalah Juan Manuel Fangio dan Michael Schumacher.Menyusul hasil di Meksiko, Mercedes juga tinggal selangkah lagi merebut gelar juara dunia konstruktor dalam lima musim beruntun. Capaian tersebut sudah mengungguli rekor Red Bull yang menang empat kali beruntun pada 2010-2013.Lewis Hamilton tercatat juara dunia pada 2008, 2014, 2015, 2017, dan 2017. Dia hanya tertinggal dua titel lagi untuk menyamai rekor Schumacher yang mengoleksi tujuh gelar juara dunia.1. Max Verstappen (Red Bull) 71 lap2. Sebastian Vettel (Ferrari) + 17,316 detik3. Kimi Raikkonen (Ferrari) + 49,914 detik4. Lewis Hamilton (Mercedes)  + 78,738 detik5. Valtteri Bottas (Mercedes) + 1 lap6. Nico Hulkenberg (Renault)+ 2 lap7. Charles Leclerc (Sauber) + 2 lap8. Stoffel Vandoorne (McLaren) + 2 lap9. Marcus Ericsson (Sauber)  +2 lap10. Pierre Gasly (Toro Rosso)  + 2 lap11. Esteban Ocon (Force India) + 2 lap12. Lance Stroll (Williams)  + 2 lap13. Sergey Sirotkin (Williams)  + 2 lap14. Kevin Magnussen (Haas) + 2 lap15. Brendon Hartley (Toro Rosso)  + 2 lap16. Romain Grosjean (Haas)  + 3 lapVideo selebrasi Lewis Hamilton bersama Justin Bieber saat memenangkan Formula 1 di GP Monako pada Minggu (29/5/2016).</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta “Eh Zi, kayaknya tadi aku lihat ada pengumuman penerimaan penyiar radio baru, lho! Kan kamu udah sejak lama pengen jadi penyiar radio di sana.’’“Kan aku udah coba dua kali sebelum ini, Nad. Kamu tahu sendiri dua kali itu juga aku nggak berhasil.’’Baca Juga‘’Ya ampun, kan bisa dicoba lagi, Zi. Lagian waktu itu kamu enggak diterima karena mereka cuma butuh dua orang sementara kamu ada diperingkat tiga. Bukan berarti kamu jelek atau apa. Waktu itu mungkin belum rejekimu aja. Ayo deh dicoba lagi. Siapa tau kali ini keterima.’’“Enggak deh, Nad. Kecil kemungkinan aku bisa jadi penyiar radio. Jadi penyiar radio juga udah bukan cita-citaku lagi. Lagian aku udah lama banget enggak denger radio itu lagi.’’Pernahkah kamu memiliki pengalaman yang mirip dengan kisah di atas? Memiliki teman yang kurang termotivasi dan mudah pesimis? Padahal, kamu sebagai teman, mengerti betul bahwa temanmu memang cakap dan mampu di bidang itu. Jika kamu merasa tidak ada teman yang seperti itu, mungkin dirimu sendiri yang pernah mengalaminya?Sistem Imun untuk EmosiSudahkah kamu tahu bahwa sistem emosi juga punya imunnya? Yap! Harga diri merupakan imun dari sistem emosimu, lho. Jadi, bukan cuman fisikmu yang punya imun, tetapi sistem emosi juga memilikinya.Maksudnya gimana, sih? Jadi gini, kamu sering dengar tentang orang yang imun tubuhnya rendah akan mudah terserang penyakit, kan? Nah, sama kok. Orang yang imun emosinya rendah atau bisa disebut dengan orang dengan harga diri rendah, lebih mudah terserang ‘luka’ psikologis.Mereka yang rendah diri, lebih rentan terhadap ‘luka’ psikologis yang terjadi dalam kehidupan sehari-hari. Luka psikologis yang dimaksud bisa dalam bentuk kegagalan atau penolakan. Mereka akan mudah drop dan butuh waktu lama untuk bangkit kembali.Contoh kasusnya bisa dilihat di bagian pembuka artikel ini. Zizi yang dianggap mampu menjadi penyiar radio oleh Nadiyah justru merasa tidak mampu. Zizi drop karena sudah pernah dua kali mengikuti audisi penyiar radio dan tidak diterima. Sebagai kawan, Nadiyah perlu sedikit memaksa dan meyakinkan Zizi agar mau ikut audisi penyiar radio lagi. Namun, Zizi justru mengungkapkan bahwa menjadi penyiar radio bukanlah cita-citanya lagi.Dirimu Begitu BerhargaMerasa kurang bahagia dan butuh banyak alasan untuk termotivasi adalah beberapa dari sekian banyak hal yang dirasakan mereka yang rendah diri. Mereka yang rendah diri, perlu sering dibantu untuk mengetahui kemampuan dan kelemahan yang dimiliki. Selain itu, mereka yang rendah diri lebih mudah merasa kesepian.Lalu, bagaimana mengetahui apakah kamu memiliki harga diri yang rendah atau tinggi? Kamu bisa memulainya dengan mengajak dua atau tiga orang yang kamu percaya untuk berbincang. Kemudian ajukan beberapa pertanyaan seperti, seberapa berharganya dirimu untuk dirimu sendiri? Hal apa yang ingin kamu lakukan dalam hidupmu? Bagaimana hubunganmu dengan orang-orang sekitarmu? Akan tetapi, menjawab pertanyaan itu harus dengan jujur ya.Meningkatkan kualitas diri dengan tidak lagi merasa rendah diri bisa dilakukan dengan mudah. Coba perlahan, berhenti membandingkan diri dengan orang lain. Kata-kata “jadilah dirimu sendiri” itu bukan hanya isapan jempol semata. Menjadi diri sendiri dengan bangga atas kelebihan yang dimiliki diri dan memahami kekurangan diri itu hal yang harus bisa dilakukan.Seberapapun kita melihat kesempurnaan orang lain, tetap tidak ada yang bisa menjadi sempurna untuk kemudian menjadi tolak ukur kita membandingkan dengan diri sendiri. Dengan berhenti membandingkan diri dengan orang lain, kita bisa hidup dengan perasaan dan pikiran yang lebih positif. Setelahnya, perasaan rendah diri bisa perlahan menghilang.Jadi, tetaplah bersemangat dan yakin bahwa ada kemampuan yang dapat membuatmu berprestasi, ya! Jangan hanya berfokus pada kekurangan diri dan kelebihan orang lain. Tapi, sudah saatnya kita menggali potensi diri dan bangga akan pencapaian yang sudah diraih diri sendiri.Yuk, semangat mencintai diri sendiri, lengkap dengan kelebihan dan kekurangan yang kita miliki!Tulisan Dzikria A. Primala dari Pijar Psikologi untuk Liputan6.com</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta - Eksperimen tentang pikiran manusia (human psyche) sangat menarik, terutama, bagi yang menekuni psikologi.Ilmuwan yakin, dengan memahami mengapa kita bersikap dengan cara yang kita lakukan, bisa menjadi kunci untuk melepaskan potensi penuh alam pikiran umat manusia.Baca JugaJadi oleh karenanya, barangkali, banyak para peneliti mendorong pada batas-batas kewajaran ketika merancang eksperimen psikologi.Namun kadang-kadang, para peneliti bertindak terlalu jauh dan keinginan mereka untuk memahami datang dengan menabrak batas-batas etika, serta mengorbankan keselamatan dan kesejahteraan orang lain.Eksperimen psikologi berikut membuat peserta mereka terluka, trauma, dan yang paling buruk, merenggut nyawa.Dari berbagai macam kasus yang ada, berikut eksperimen psikologi paling berbahaya yang pernah dilakukan terhadap manusia, demikian seperti dikutip dari Listverse.com, Minggu (28/10/2018).Simak video pilihan berikut:Kepolisian berencana memasukan tes piskologi dalam proses pembuatan SIM. Kini terungkap apa alasan dibalik penggunaan tes psikologi tersebut.Eksperimen penjara Stanford merupakan sebuah studi psikologis yang meneliti tentang studi penal (pemenjaraan). Penelitian itu mengobservasi perilaku terpidana penjara dan petugas institusi pemenjaraan.Percobaan itu dilakukan pada 1971 oleh tim peneliti Stanford University yang dipimpin oleh psikolog, Philip Zimbardo. Eksperimen itu melibatkan permainan peran yang dilakukan oleh para relawan penelitian.Para relawan dibagi menjadi dua kelompok peran, yakni para terpidana dan petugas penjara. Tim peneliti membentuk sebuah penjara tiruan di ruang bawah tanah Fakultas Psikologi Stanford University.Dalam waktu cepat, para relawan penelitian segera mendalami dan menyesuaikan diri dengan peran masing-masing, seolah-olah mereka hidup dalam komunitas panoptikon.Namun, pendalaman peran para relawan ternyata melampaui batas-batas yang diharapkan oleh tim peneliti. Tak memakan waktu yang cukup lama, para relawan menunjukkan perilaku berbahaya, bertendensi melakukan tindakan kekerasan, serta self-destruct secara psikologis.Sepertiga dari relawan yang berperan sebagai petugas penjara menunjukkan kecenderungan perilaku sadis dengan menyiksa para terpidana. Sementara hampir sebagian besar relawan yang berperan sebagai tahanan mengalami trauma emosional, bahkan dua di antaranya harus dikeluarkan dari eksperimen lebih awal.Akhirnya, Zimbardo yang semakin khawatir dengan perilaku para relawan percobaan, harus menghentikan eksperimen lebih dini dari rencana.The Monster Study atau Studi Monster merupakan sebuah eksperimen terhadap 22 anak yatim piatu di Davenport, Iowa, Amerika Serikat pada 1939. Studi itu dipimpin oleh Wendell Johnson dari University of Iowa dan dibantu oleh salah satu mahasiswa pasca-sarjananya, Mary Tudor, untuk memantau eksperimen.Ke-22 anak yatim piatu tersebut ditempatkan dalam kelompok kontrol dan kelompok eksperimen, dengan diberikan treatment penelitian yang berbeda. Metode penelitian itu dilakukan untuk membandingkan hasil observasi.Tudor memberikan terapi "perlakuan dan ucapan positif" terhadap kelompok kontrol'. Sementara anak-anak dari kelompok eksperimen diberikan "perlakuan dan ucapan negatif".Hasil memuaskan ditunjukkan dari kelompok kontrol yang diberikan "perlakuan dan ucapan positif". Sebagian anak-anak yang menjadi subjek penelitian memperlakukan perilaku terpuji setelah penelitian berakhir.Namun, hasil mencengangkan terjadi pada kelompok penelitian yang lain. Penelitian menunjukkan bahwa kelompok eksperimen mengalami dampak psikologis yang negatif dan bahkan mengalami masalah jangka panjang--yang bertahan cukup lama--pasca-penelitian itu selesai.Bagi kalangan mahasiswa Fakultas Psikologi University of Iowa, eksperimen itu dijuluki "The Monster Study". Mereka merasa bahwa dampak eksperimen mengerikan itu dianggap "berlebihan", hanya demi memperoleh sebuah pembuktian teori secara ilmiah.Percobaan itu tetap dilakukan secara tersembunyi, karena Johnson takut reputasinya ternoda jika eksperimen--yang dilakukan di masa Perang Dunia II-- itu diketahui publik. Setelah eksperimen itu menjadi rahasia umum, University of Iowa akhirnya secara terbuka meminta maaf atas studi tersebut pada 2001.Proyek ini merupakan eksperimen ternama di masanya dan digagas oleh CIA Amerika Serikat. Program MKULTRA, secara keseluruhan, merupakan riset mengenai dampak fungsi otak atas keterpaparan terhadap zat kimiawi tertentu.Tujuannya adalah untuk mengetahui dampak apa yang dapat dihasilkan dari senyawa kimiawi tertentu jika dipapar pada otak manusia. Zat kimia yang digunakan berupa beragam senyawa narkotika berbasis LSD, yang dilarang menurut Ketentuan Nuremberg.Perekrutan relawan eksperimen juga dilakukan dengan cara ilegal. Mereka memanipulasi sejumlah individu untuk terlibat dalam uji coba, dan menipu mereka agar tidak menceritakan eksperimen rahasia itu ke publik.Setidaknya dua orang tetap bungkam untuk selamanya, karena dilaporkan tewas usai menjalani eksperimen itu.Pada 1973, Direktur CIA Richard Helms memerintahkan MKULTRA dan semua dokumen yang berkaitan dengan eksperimen itu untuk "dilenyapkan" serta memerintahkan Komunitas Intelijen AS membantah keberlangsungan tes tersebut. Alhasil, investigasi resmi tentang uji coba tersebut sulit untuk dilaksanakan.Dalam salah satu eksperimen psikologi paling terkenal yang pernah ada, pada awal 1960-an, Stanley Milgram berusaha mengeksplorasi batasan antara kepatuhan terhadap otoritas dan hati nurani pribadi, setelah menyaksikan Pengadilan Nuremberg, di mana mantan Nazi yang dituduh melakukan kekejaman mengklaim bahwa mereka hanya mengikuti perintah.Milgram tertarik melihat seberapa jauh orang akan mematuhi instruksi, bahkan jika mereka terlibat menyakiti orang lain.Subjek pemelitian pertama kali diperkenalkan ke pasangan mereka dalam eksperimen sehingga mereka dapat bertemu mereka sebagai manusia. Mereka kemudian diminta untuk melakukan undian untuk menentukan siapa yang berperan sebagai guru dan siapa muridnya.Namun sebagai catatan, faktanya yang berperan sebagai "murid" adalah seorang aktor yang disewa untuk eksperimen itu. Pengundian itu hanyalah fabrikasi semata.Sementara yang bertindak sebagai guru adalah para subjek riset yang hendak diteliti oleh Milgram.Para 'guru' kemudian diminta untuk membaca serangkaian pertanyaan kepada siswa, yang berada di ruangan lain tetapi dapat dikomunikasikan dengan lisan.Guru duduk di depan mesin dengan generator listrik dan deretan tuas yang ditandai dengan peningkatan voltase dari 15 hingga 450 volt. Para guru diinstruksikan untuk mengajukan kepada para siswa serangkaian pertanyaan dan menerapkan kejutan listrik setiap kali mereka memberikan jawaban yang salah.Setiap jawaban yang salah berarti intensitas kejutan meningkat. Akan tetapi, siswa sejatinya tidak merasakan efek apa-apa, karena, Milgram memang sengaja memasang generator listrik palsu untuk keperluan eksperimen.Para aktor itupun hanya berpura-pura kesakitan ketika 'guru' menghidupkan generator listrik untuk menghukum mereka. Tujuannya, demi mempertahankan 'ilusi' pada proses eksperimen (itu sebabnya Milgram menyewa aktor).Semua peserta dalam uji coba memberikan kejutan listrik kepada "siswa" hingga 300 volt, dan dua pertiga dari mereka terus berlanjut hingga 450 volt meskipun fakta bahwa tegangan yang lebih tinggi diberi label sebagai sangat berbahaya.Dari hasil-hasilnya, Milgram menyimpulkan bahwa subjek penelitian cenderung mengambil keputusan berbahaya itu dengan alasan mengikuti perintah, di mana mereka melihat orang yang memberikan instruksi memiliki otoritas atas mereka. Bahkan, mereka tetap melakukannya ketika tindakan itu melewati titik di mana hati nurani mereka mengatakan harus berhenti.Bayangkan apa yang terjadi pada para 'siswa' jika Milgram menggunakan alat kejut listrik asli pada percobaannya.Pada akhir 1910-an, ilmuwan studi behavioral, John B. Watson sedang mempelajari apakah reaksi emosional dapat dikondisikan pada manusia, dan, apakah itu berpengaruh pada fobia yang diderita oleh sejumlah orang.Untuk membuktikan penelitian itu, Watson menggunakan subjek penelitian seorang bayi bernama Albert, berusia sembilan bulan.Albert terpapar serangkaian rangsangan, dengan dihadapkan pada tikus putih, kelinci, monyet, topeng, dan koran terbakar. Awalnya, Albert tidak menunjukkan rasa takut terhadap benda-benda ini.Kemudian, ketika Albert dipaparkan dengan tikus, Watson membuat suara keras dengan memukul pipa logam dengan palu, lalu Albert menangis.Setelah berulang kali dipaparkan dengan tikus putih yang diikuti oleh suara keras, Albert mulai menangis begitu dia hanya melihat tikus saja.Watson melakukan eksperimen berkali-kali hingga ia mengumpulkan cukup data untuk menemukan bahwa tidak hanya bayi itu menangis pada tikus putih, tetapi, juga mulai menangis pada apa pun yang mungkin terlihat seperti tikus, termasuk berbagai benda putih dan berbagai macam benda berbulu (termasuk, pada satu titik, jenggot Santa Claus).Bahkan, benda-benda yang sebelumnya dimainkan dengannya mulai membuat bayi itu takut, jika mereka memiliki kemiripan dengan tikus (atau jika mereka diserahkan kepadanya oleh seorang pria yang memegang palu).Yang semakin tak etis dari riset Watson adalah --di samping ia menggunakan bayi sebagai subjek penelitian-- ia tidak repot-repot untuk membuat dekondisi kepada Little Albert di akhir eksperimen, dan tidak diketahui apakah fobia-nya akan hama tikus, suara keras, atau psikolog tetap bersamanya.Sayangnya, Albert meninggal pada usia enam tahun. Tidak diketahui apakah ibunya, yang dibayar hanya senilai US$ 1 untuk partisipasi Albert, pernah menyadari apa yang peneliti lakukan kepada si jabang bayi.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta Pemilihan warna cat dinding pada rumah bisa dikatakan sebagai salah satu hal yang sangat penting. Tak hanya untuk mempercantik ruangan, pemilihan warna cat juga dikatakan penting karena mampu mempengaruhi suasana hati.Baca JugaBerbeda dengan ruangan lain di rumah, biasanya kita memiliki keinginan warna khusus untuk cat kamar pribadi. Tak jarang kalian ingin mengeksplorasi warna untuk kamar bukan? Nyatanya hal ini bisa mengungkapkan seperti apa diri kalian yang sebenarnya.Ingin tahu seperti apa karakteristik diri kalian sesungguhnya berdasarkan pilihan cat warna dinding kamar? Berikut ini jawabannya.MerahKalian memiliki ruangan kamar dengan cat merah? Hal ini mengindikasikan kalian sebagai orang yang senang menebarkan kegembiraan, dan ingin diperhatikan. Tak hanya untuk suasana hati, sebuah penelitian menyebutkan warna merah juga bisa meningkatkan detak jantung.Saksikan Video Pilihan di Bawah Ini:Sebuah tempat pemakaman umum di Jawa Tengah, disulap dengan cat warna-warni agar tidak bernuansa seram.Cat warna putih biasanya mempresentasikan pribadi yang senang dengan kebersihan dan jelas apa adanya.BiruCat warna biru menjadi warna yang sangat direkomendasikan untuk mewarnai dinding kamar tidur. Hal ini lantaran warna biru merepresentasikan pribadi yang penuh kepercayaan, setia, pembawaan dirinya tenang, dan bisa memberikan rasa aman.OranyeBiasanya warna oranye dipilih oleh orang-orang yang penuh semangat dan memiliki ambisi yang kuat.Kuning menjadi salah satu warna yang menggambarkan keceriaan dan optimisme. Bahkan sebuah penelitian menunjukan bahwa warna kuning bisa mengurangi rasa depresi.VioletViolet dikatakan merefleksikan kemakmuran dan royalty. Penelitian menunjukan bahwa warna violet bisa membantu seseorang dengan mudah memecahkan suatu masalah.Orang-orang yang suka dengan warna hijau biasanya dikatakan sebagai seseorang yang mencintai alam dan biasanya warna hijau lebih enak untuk mata dan menyegarkan.HitamMeski sering dianggap kurang cocok dipilih sebagai cat kamar, nyatanya tak sedikit orang yang memilih warna hitam. Biasanya mereka yang suka dengan warna hitam memiliki kepribadian elegan, penuh semangat, dan memiliki kesan yang kuat dan memiliki otoritas.Reporter: Vaulika RinjaniSumber: Brilio.net</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta Presiden Joko Widodo atau Jokowi memperingati Hari Sumpah Pemuda di Kebon Raya Bogor, Jawa Barat. Walaupun hujan mengguyur, Jokowi tetap hadir dan menemui para tamu undangan yang terdiri dari para vloger, selebritas, serta para atlet.Semula diketahui agenda akan dimulai pukul 20.00 WIB di tengah-tengah Kebon Raya Bogor. Tetapi hujan pun tidak kunjung reda hingga pukul 21.33 WIB dan dipindah tempat di Green Garden Resto and Cafe.Baca JugaMereka pun antusias untuk bertemu Jokowi. Sekadar untuk berselfie atau menyapa."Pak Jokowi, selfie Pak Jokowi," seru para tamu kepada Jokowi di Green Garden Resto and Cafe, Bogor, Jawa Barat, Minggu malam (28/10/2018).Jokowi hadir mengenakan kemeja putih dan dibalut dengan parka yang dibelinya kemarin di Ideafest 2018. Terlihat juga Gubernur Jawa Barat Ridwan Kamil, Ketua TKN Erick Thohir, Kepala Badan Ekonomi Kreatif Triawan Munaf dan beberapa kabinet kerja yang lain.Sebelumnya para tamu disuguhi beberapa tembang. Selain itu, juga beberapa jamuan makanan mulai dari panganan tradisional hingga internasional.Reporter: Intan Umbari PrihatinSumber: Merdeka.comMenurut Jokowi Indonesia akan terus maju di tangan para pemuda.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta - Bintang Chelsea Eden Hazard terus saja dikaitkan dengan Real Madrid. Gelandang Burnley Steven Defour memperkirakan rekan senegaranya itu bakal pindah ke Santiago Bernabeu.Los Blancos sudah kehilangan bintang utamanya Cristiano Ronaldo yang hijrah ke Juventus pada musim panas. Namun, sampai sejauh ini Madrid masih belum mendatangkan pengganti Ronaldo.Baca JugaMenurut laporan, Real Madrid menginginkan Hazard sebagai pengganti Ronaldo. Akan tetapi, Chelsea belum mau melepas sang pemain.Hazard sendiri punya impian sejak kecil untuk berseragam Madrid. Oleh karena itu, Defour bisa melihat kepindahan Hazard menuju Santiago Bernabeu."Premier League masih tetap kompetisi terbaik di dunia. Tetapi jika Anda berbicara level klub, Real Madrid dan Barcelona berada di atas Premier League," kata Defour seperti dilansir Tribal Football."Sebagai pemain Anda ingin bermain di level tertinggi. Level tertinggi adalah Premier League, tetapi klub tertinggi saat ini adalah Barcelona dan Real Madrid."Ini masih tetap pilihan pribadi. Jika seorang pemain Inggris bermain untuk klub papan atas di Inggris, itu mungkin bagus."Karena sejak kecil, Eden sudah bermimpi bermain untuk Real Madrid dan pada titik tertentu mendapatkan kesempatan, dia mungkin mengambilnya."Hazard mampu menampilkan performa terbaiknya di bawah asuhan Maurizio Sarri pada musim ini. Ia sudah mencetak tujuh gol dari sembilan penampilan di Premier League. Torehannya itu membuat Hazad saat ini memimpin daftar pencetak gol terbanyak di liga.4 Alasan Eden Hazard Harus Tetap Bersama Chelsea</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta - Komisi Pemberantasan Korupsi (KPK) melakukan pencegahan terhadap Wakil Ketua DPR Taufik Kurniawan. Partai Amanat Nasional (PAN) memastikan, kadernya tersebut akan kooperatif atas keputusan KPK."Sepertinya kita serahkan ke proses hukum. Mungkin ada beberapa pemanggilan dan kita akan kooperatif," kata Wakil Sekretaris Jenderal DPP PAN Faldo Maldini di Djakarta Theater, Jakarta, Minggu (28/10/2018).Baca JugaDia mengatakan, partainya menyerahkan semua proses hukum terhadap Taufik ke KPK."Kita doakan semoga prosesnya lancar, tidak ada permasalahan apa pun, kita serahkan kepada proses hukum yang berjalan," ucap Faldo.Ia juga memastikan, partainya akan memberikan bantuan hukum kepada Taufik."Biasanya sih memang selalu ada. Tapi ini belum dibahas di DPP. Maksud saya ini kan masih pencekalan ya, belum jauh-jauh. Kita lihatlah prosesnya. Sabar aja, slow," terang dia.Sementara, Faldo menambahkan bahwa partainya belum membahas mengenai posisi Taufik sebagai pimpinan DPR menyusul pencegahan yang dilakukan KPK."Belum dibahas di DPP," kata Faldo.Saksikan video pilihan di bawah ini:Staff ahli dalam acara Aceh Marathon ini diperiksa terkait aliran dana sebesar Rp 500 juta.Komisi Pemberantasan Korupsi (KPK) mencegah Wakil Ketua DPR Taufik Kurniawan untuk bepergian ke luar negeri dalam enam bulan ke depan. Surat pencegahan itu telah diterima Direktorat Jenderal (Ditjen) Imigrasi Kementerian Hukum dan HAM, Jumat 26 Oktober 2018."Surat permohonan cegah sudah diterima (dari KPK Jumat 26 Oktober)," kata Kepala Bagian Humas dan Umum Ditjen Imigrasi Theodorus Simarmata saat dikonfirmasi, Jakarta, Minggu (28/10/2018).Dia pun meminta jurnalis mengonfirmasi ke KPK terkait permintaan melarang politikus Partai Amanat Nasional (PAN) itu melancong ke luar negeri.Sementara itu, Jubir Komisi Pemberantasan Korupsi (KPK) Febri Diansyah belum berkomentar banyak mengenai surat permintaan cekal tersebut ketika dihubungi Liputan6.com."Besok diinformasikan ya, masih perlu dicek," kata Febri.Wakil Ketua KPK Saut Situmorang juga enggan berkomentar banyak soal cekal Taufik Kurniawan. Dia mengatakan, lembaga antirasuah itu akan menjelaskan soal pencegahan ini, Senin 29 Oktober 2018."KPK akan memberikan pernyataan resmi perihal tersebut besok," ujar Saut kepada Liputan6.com.</t>
-  </si>
-  <si>
-    <t>Liputan6.com, Jakarta - Calon wakil presiden Ma'ruf Amin membandingkan dirinya dengan PM Malaysia terpilih Mahatir Muhammad yang usianya menyentuh 93 tahun. Oleh karena itu, dia percaya dirinya masih muda dan layak untuk menjadi pendamping Joko Widodo pada Pilpres 2019."Tapi kata orang saya masih lebih muda dibanding Mahatir Muhammad. Saya bertemu beliau di Kuala Lumpur saya berdiri di samping beliau. Saya bilang, betul juga saya masih muda. Beliau kan 93. Saya 57, 57 ke balik, 75 tahun," kata Ma'ruf Amin dengan nada riang saat penutupan Rakernas TKN Jokowi-Ma'ruf di Hotel Empire Palace, Surabaya, Jawa Timur, Minggu (28/10/2018).Baca JugaKetua Majelis Ulama Indonesia itu makin yakin karena penelitian World Health Organization (WHO). Penelitian itu menyebut, umur tua itu jika sudah kepala 8. Sontak para peserta rakernas menyambut dengan riuh, sampai terdengar candaan "Masuk Pak Eko"."Tapi kata WHO, namanya tua mulai 80 sampai 100. Jadi kalau 60 sampai 80 belum tua itu baru setengah baya. Jadi berarti saya ini baru setengah baya belum tua," kata Ma'ruf Amin."Masuk Pak Eko," timpal Wakil Ketua TKN Abdul Kadir Karding dan para peserta Rakernas.Melanjutkan pidatonya, Ma'ruf menegaskan umur tak lebih penting daripada semangat membangun bangsa."Yang penting dari kita bekerja dengan penuh semangat membangun bangsa dan negara memenagkan pilpres yang akan datang. Jokowi-Ma'ruf Amin menang, Jokowi-Ma'ruf, amin, amin, amin," jelasnya.Ma'ruf pun bakal total membantu Jokowi untuk menguatkan landasan Indonesia yang sudah ditata pemerintah selama 4 tahun ini."Saya ingin membantu Pak Jokowi untuk menguatkan runway landasan. Supaya 2024 Indonesia bisa tinggal landas," kata Ma'ruf.Reporter: Ahda BayhaqiSumber: Merdeka.comDalam sambutannya, Jokowi mengajak seluruh santri untuk senantiasa menjaga persatuan dan kesatuan bangsa dengan semangat sumpah pemuda.</t>
+    <t>Liputan6.com, Jakarta - Kepala Basarnas Marsdya TNI M Syaugi memastikan beacon Emergency Local Transmitter (ELT) pada pesawat Lion Air Boeing 737 rute Jakarta-Pangkal Pinang tidak terdeteksi oleh Medium Earth Orbital Local User Terminal (MEO LUT) yang ada di Kantor Pusat Basarnas."Yang pasti, beacon pesawat tersebut telah terigistrasi dan dinyatakan baik sampai Agustus 2019," ujar Syaugi dalam keterangannya, Senin (29/10/2018).Baca JugaBasarnas Command Centre (BCC) menerima musibah tersebut dari Jakarta Air Traffic Control (JATC) pada pukul 06.50 WIB. Pada pukul 07.20 WIB, Basarnas sudah bergerak dan berhasil mendeteksi keberadaan pesawat yang kecelakaan tersebut."Kami langsung melakukan koordinasi dan upaya pencarian sampai akhirnya kami temukan serpihan-serpihan pesawat di lokasi musibah," jelas Syaugi.Hingga saat ini, tim SAR sudah berada di lokasi kejadian musibah (LKP) untuk melakukan proses evakuasi. Tim SAR berasal dari Kantor SAR Jakarta, 48 personil Basarnas Special Group (BSG), dan Kantor SAR Lampung serta sejumlah Potensi SAR."Para penyelam kami sudah bergerak dengan peralatan bawah airnya. Kami mohon doanya, semoga proses evakuasi para korban dapat berjalan lancar," tutur Syaugi.Sementara itu, Ketua Komite Nasional Keselamatan Transportasi (KNKT) Soerjanto menegaskan bahwa pihaknya belum dapat memastikan penyebab jatuhnya pesawat tersebut. Hal ini dikarenakan pihaknya belum menemukan blackbox untuk memastikan penyebab jatuhnya pesawat.Penerbangan Lion Air nomor penenerbangan JT 610 dengan rute Cengkareng menuju Pangkalpinang mengalami kecelakaan setelah lepas landas dari Bandar Udara Internasional Soekarno Hatta pukul 06:20 WIB. Setelah 13 menit mengudara, pesawat jatuh di koordinat S 5’49.052” E 107’ 06.628” (sekitar Karawang).Pesawat mengangkut 178 penumpang dewasa satu penumpang anak-anak dan dua penumpang bayi, termasuk tiga pramugari sedang pelatihan dan satu teknisi. Pesawat memiliki data registrasi PK-LQP jenis Boieng 737 MAX 8. Pesawat ini buatan 2018 dan baru dioperasikan oleh Lion Air sejak 15 Agustus 2018. Pesawat dinyatakan layak operasi.Pesawat dikomandoi Capt. Bhavye Suneja dengan copilot Harvino, bersama enam awak kabin atas nama Shintia Melina, Citra Noivita Anggelia, Alviani Hidayatul Solikha, Damayanti Simarmata, Mery Yulianda, dan Deny Maula. Kapten pilot sudah memiliki jam terbang lebih dari 6.000 dan copilot lebih dari 5.000 jam terbang.Pesawat Lion Air JT 610 yang jatuh di perairan Karawang, Jawa Barat mulai ditemukan.</t>
+  </si>
+  <si>
+    <t>Liputan6.com, Pangkalpinang - Bandara Depati Amir Pangkalpinang menyiapkan posko pengaduan dan pengendalian serta krisis center untuk masyarakat maupun keluarga korban penumpang pesawat Lion Air JT 610 yang jatuh di Tanjung Karawang, Jawa Barat."Kami menyiapkan posko pengaduan dan pengendalian untuk memudahkan keluarga korban penumpang mendapatkan informasi," kata Kepala Bandara Depati Amir, Chuanda di Pangkalpinang, Senin (29/10/2018).Baca JugaIa mengatakan, semua pihak bandara Depati Amir Pangkalpinang mengucapkan belasungkawa dan turut berduka cita atas musibah yang dialami penumpang pesawat Lion Air JT 610.Bandara Depati Amir Pangkalpinang membuka posko pengaduan, pengendalian dan krisis center di nomor 07179100705."Untuk keluarga korban yang ada di Pangkalpinang silakan datang langsung ke posko yang kita siapkan, dan yang tidak berada di Pangkalpinang dapat menghubungi cakl center kita untuk mengetahui informasi lebih lanjut," ujar dia seperti dilansir Antara.Chuanda menambahkan, agar operasional bandara berjalan lancar, pihaknya minta masyarakat tetap tertib dan tidak membuat kericuhan terkait jatuhnya Lion Air."Kami harap kejadian ini tidak mengganggu operasional bandara dan kami minta pengunjung tetap tertib," ujar dia.Penerbangan Lion Air dengan nomor penenerbangan JT 610 dengan rute Jakarta-Pangkal Pinang hilang kontak. Badan SAR Nasional (Basarnas) memastikan pesawat tersebut jatuh di perairan Tanjung Karawang.Corporate Communication Lion Group, Danang Prihantoro mengungkap kronologi dari hilang kontak hingga pesawat tersebut jatuh. Pesawat itu hilang kontak setelah lepas landas dari Bandara Internasional Soekarno-Hatta pukul 06.20 WIB.Setelah 13 menit mengudara atau pada 06.33 WIB, pesawat Lion Air jatuh di koordinat S 5’49.052” E 107’ 06.628”  atau di sekitar Karawang. Pesawat mengangkut 178 penumpang dewasa, satu penumpang anak-anak dan dua penumpang bayi, termasuk dalam penerbangan ini ada tiga pramugari sedang pelatihan dan satu teknisi. Totalnya 189 orang.Pesawat dengan regitrasi PK-LQP jenis Boieng 737 MAX 8 itu buatan 2018 dan baru dioperasikan Lion Air 15 Agustus 2018 serta dinyatakan laik operasi.Pesawat dikomandoi Captain Bhavye Suneja dengan kopilot Harvino bersama enam awak kabin atas nama Shintia Melina, Citra Noivita Anggelia, Alviani Hidayatul  Solikha, Damayanti Simarmata, Mery Yulianda, dan Deny Maula.Pesawat Lion Air JT 610 dinyatakan jatuh di perairan Karawang, Jawa Barat. Basarnas mulai menurunkan tim penyelam untuk mencari kemungkinan korban.</t>
   </si>
 </sst>
 </file>
@@ -1184,7 +1187,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C272"/>
+  <dimension ref="A1:C261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1225,7 +1228,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -1236,7 +1239,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -1247,7 +1250,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -1272,21 +1275,21 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1294,43 +1297,43 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1338,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1349,54 +1352,54 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1404,109 +1407,109 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1514,131 +1517,131 @@
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C36" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1646,54 +1649,54 @@
         <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C42" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1701,10 +1704,10 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1712,32 +1715,32 @@
         <v>0</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="C49" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1745,21 +1748,21 @@
         <v>0</v>
       </c>
       <c r="B51" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>144</v>
+        <v>183</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B52" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1767,43 +1770,43 @@
         <v>0</v>
       </c>
       <c r="B53" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C53" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B54" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B55" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B56" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1811,21 +1814,21 @@
         <v>0</v>
       </c>
       <c r="B57" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B58" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="C58" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1833,65 +1836,65 @@
         <v>0</v>
       </c>
       <c r="B59" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C59" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B60" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C60" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B61" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C61" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B62" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="C62" t="s">
-        <v>150</v>
+        <v>193</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B63" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C63" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B64" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="C64" t="s">
-        <v>147</v>
+        <v>194</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1899,120 +1902,120 @@
         <v>0</v>
       </c>
       <c r="B65" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C65" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="C66" t="s">
-        <v>141</v>
+        <v>196</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B67" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C67" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B68" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C68" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B69" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C69" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B70" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C70" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B71" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C71" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B72" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C72" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B73" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C73" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B74" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C74" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B75" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="C75" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2020,10 +2023,10 @@
         <v>0</v>
       </c>
       <c r="B76" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C76" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2031,21 +2034,21 @@
         <v>0</v>
       </c>
       <c r="B77" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C77" t="s">
-        <v>197</v>
+        <v>144</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B78" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C78" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2053,54 +2056,54 @@
         <v>0</v>
       </c>
       <c r="B79" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="C79" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B80" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C80" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B81" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C81" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B82" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C82" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B83" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C83" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2108,54 +2111,54 @@
         <v>0</v>
       </c>
       <c r="B84" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="C84" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B85" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C85" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B86" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="C86" t="s">
-        <v>205</v>
+        <v>143</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B87" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="C87" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B88" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C88" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2163,65 +2166,65 @@
         <v>0</v>
       </c>
       <c r="B89" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="C89" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B90" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="C90" t="s">
-        <v>159</v>
+        <v>212</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B91" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C91" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B92" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="C92" t="s">
-        <v>161</v>
+        <v>214</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B93" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C93" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B94" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C94" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2229,21 +2232,21 @@
         <v>0</v>
       </c>
       <c r="B95" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C95" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B96" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C96" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2251,43 +2254,43 @@
         <v>0</v>
       </c>
       <c r="B97" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C97" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B98" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="C98" t="s">
-        <v>213</v>
+        <v>164</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B99" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="C99" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B100" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C100" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2295,54 +2298,54 @@
         <v>1</v>
       </c>
       <c r="B101" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C101" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B102" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="C102" t="s">
-        <v>146</v>
+        <v>222</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B103" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C103" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B104" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="C104" t="s">
-        <v>217</v>
+        <v>174</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B105" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="C105" t="s">
-        <v>148</v>
+        <v>224</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2350,32 +2353,32 @@
         <v>3</v>
       </c>
       <c r="B106" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C106" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B107" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="C107" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B108" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C108" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2383,10 +2386,10 @@
         <v>0</v>
       </c>
       <c r="B109" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="C109" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2394,10 +2397,10 @@
         <v>0</v>
       </c>
       <c r="B110" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C110" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2405,98 +2408,98 @@
         <v>0</v>
       </c>
       <c r="B111" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="C111" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B112" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C112" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B113" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="C113" t="s">
-        <v>166</v>
+        <v>230</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B114" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C114" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B115" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C115" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B116" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="C116" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B117" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C117" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B118" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="C118" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B119" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="C119" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2504,29 +2507,29 @@
         <v>0</v>
       </c>
       <c r="B120" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="C120" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B121" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="C121" t="s">
-        <v>177</v>
+        <v>234</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B122" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C122" t="s">
         <v>211</v>
@@ -2537,21 +2540,21 @@
         <v>0</v>
       </c>
       <c r="B123" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C123" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B124" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C124" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2559,65 +2562,65 @@
         <v>0</v>
       </c>
       <c r="B125" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C125" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B126" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C126" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B127" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="C127" t="s">
-        <v>231</v>
+        <v>169</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B128" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C128" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B129" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C129" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="C130" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2625,10 +2628,10 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="C131" t="s">
-        <v>234</v>
+        <v>180</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2636,43 +2639,43 @@
         <v>0</v>
       </c>
       <c r="B132" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="C132" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C133" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B134" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C134" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B135" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C135" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2680,21 +2683,21 @@
         <v>0</v>
       </c>
       <c r="B136" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C136" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B137" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="C137" t="s">
-        <v>198</v>
+        <v>241</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2702,98 +2705,98 @@
         <v>0</v>
       </c>
       <c r="B138" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C138" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B139" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="C139" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B140" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="C140" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B141" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="C141" t="s">
-        <v>240</v>
+        <v>146</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B142" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="C142" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B143" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="C143" t="s">
-        <v>172</v>
+        <v>139</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B144" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="C144" t="s">
-        <v>180</v>
+        <v>242</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B145" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="C145" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B146" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="C146" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2804,7 +2807,7 @@
         <v>110</v>
       </c>
       <c r="C147" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2812,10 +2815,10 @@
         <v>0</v>
       </c>
       <c r="B148" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="C148" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2823,65 +2826,65 @@
         <v>0</v>
       </c>
       <c r="B149" t="s">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="C149" t="s">
-        <v>243</v>
+        <v>154</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B150" t="s">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="C150" t="s">
-        <v>244</v>
+        <v>184</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B151" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="C151" t="s">
-        <v>185</v>
+        <v>245</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B152" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="C152" t="s">
-        <v>231</v>
+        <v>161</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B153" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="C153" t="s">
-        <v>245</v>
+        <v>149</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B154" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="C154" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2889,10 +2892,10 @@
         <v>0</v>
       </c>
       <c r="B155" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C155" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2900,10 +2903,10 @@
         <v>0</v>
       </c>
       <c r="B156" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C156" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2911,43 +2914,43 @@
         <v>0</v>
       </c>
       <c r="B157" t="s">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="C157" t="s">
-        <v>247</v>
+        <v>175</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B158" t="s">
-        <v>116</v>
+        <v>31</v>
       </c>
       <c r="C158" t="s">
-        <v>248</v>
+        <v>163</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B159" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="C159" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B160" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="C160" t="s">
-        <v>154</v>
+        <v>220</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2955,106 +2958,106 @@
         <v>0</v>
       </c>
       <c r="B161" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C161" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B162" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C162" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B163" t="s">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="C163" t="s">
-        <v>249</v>
+        <v>148</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B164" t="s">
-        <v>118</v>
+        <v>26</v>
       </c>
       <c r="C164" t="s">
-        <v>250</v>
+        <v>158</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B165" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="C165" t="s">
-        <v>251</v>
+        <v>210</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B166" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="C166" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B167" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="C167" t="s">
-        <v>213</v>
+        <v>145</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B168" t="s">
-        <v>112</v>
+        <v>28</v>
       </c>
       <c r="C168" t="s">
-        <v>244</v>
+        <v>160</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B169" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="C169" t="s">
-        <v>252</v>
+        <v>225</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B170" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C170" t="s">
         <v>247</v>
@@ -3065,65 +3068,65 @@
         <v>0</v>
       </c>
       <c r="B171" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C171" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B172" t="s">
-        <v>121</v>
+        <v>33</v>
       </c>
       <c r="C172" t="s">
-        <v>253</v>
+        <v>165</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B173" t="s">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="C173" t="s">
-        <v>156</v>
+        <v>248</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B174" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="C174" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B175" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C175" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B176" t="s">
-        <v>52</v>
+        <v>118</v>
       </c>
       <c r="C176" t="s">
-        <v>184</v>
+        <v>251</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -3131,87 +3134,87 @@
         <v>0</v>
       </c>
       <c r="B177" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="C177" t="s">
-        <v>210</v>
+        <v>246</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B178" t="s">
-        <v>21</v>
+        <v>119</v>
       </c>
       <c r="C178" t="s">
-        <v>153</v>
+        <v>252</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B179" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="C179" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B180" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="C180" t="s">
-        <v>205</v>
+        <v>254</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B181" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="C181" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B182" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="C182" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B183" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="C183" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B184" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C184" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -3219,51 +3222,51 @@
         <v>0</v>
       </c>
       <c r="B185" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="C185" t="s">
-        <v>195</v>
+        <v>256</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B186" t="s">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="C186" t="s">
-        <v>188</v>
+        <v>250</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B187" t="s">
-        <v>123</v>
+        <v>58</v>
       </c>
       <c r="C187" t="s">
-        <v>255</v>
+        <v>191</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B188" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C188" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B189" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C189" t="s">
         <v>257</v>
@@ -3271,90 +3274,90 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B190" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="C190" t="s">
-        <v>218</v>
+        <v>254</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B191" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="C191" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B192" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C192" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B193" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="C193" t="s">
-        <v>234</v>
+        <v>186</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="C194" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B195" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="C195" t="s">
-        <v>258</v>
+        <v>215</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B196" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="C196" t="s">
-        <v>239</v>
+        <v>166</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B197" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="C197" t="s">
-        <v>153</v>
+        <v>210</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -3362,29 +3365,29 @@
         <v>1</v>
       </c>
       <c r="B198" t="s">
-        <v>37</v>
+        <v>125</v>
       </c>
       <c r="C198" t="s">
-        <v>169</v>
+        <v>258</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B199" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C199" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B200" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C200" t="s">
         <v>259</v>
@@ -3392,13 +3395,13 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B201" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="C201" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -3406,10 +3409,10 @@
         <v>0</v>
       </c>
       <c r="B202" t="s">
-        <v>69</v>
+        <v>127</v>
       </c>
       <c r="C202" t="s">
-        <v>201</v>
+        <v>260</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -3417,10 +3420,10 @@
         <v>0</v>
       </c>
       <c r="B203" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="C203" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -3428,54 +3431,54 @@
         <v>0</v>
       </c>
       <c r="B204" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="C204" t="s">
-        <v>229</v>
+        <v>262</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B205" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="C205" t="s">
-        <v>224</v>
+        <v>263</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B206" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C206" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B207" t="s">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="C207" t="s">
-        <v>196</v>
+        <v>257</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B208" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="C208" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -3483,21 +3486,21 @@
         <v>0</v>
       </c>
       <c r="B209" t="s">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="C209" t="s">
-        <v>242</v>
+        <v>143</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B210" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C210" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -3505,32 +3508,32 @@
         <v>1</v>
       </c>
       <c r="B211" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C211" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B212" t="s">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="C212" t="s">
-        <v>252</v>
+        <v>203</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B213" t="s">
-        <v>117</v>
+        <v>18</v>
       </c>
       <c r="C213" t="s">
-        <v>249</v>
+        <v>150</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -3538,32 +3541,32 @@
         <v>0</v>
       </c>
       <c r="B214" t="s">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="C214" t="s">
-        <v>203</v>
+        <v>259</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B215" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="C215" t="s">
-        <v>143</v>
+        <v>195</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B216" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="C216" t="s">
-        <v>161</v>
+        <v>210</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -3571,54 +3574,54 @@
         <v>0</v>
       </c>
       <c r="B217" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="C217" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B218" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C218" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B219" t="s">
-        <v>41</v>
+        <v>114</v>
       </c>
       <c r="C219" t="s">
-        <v>173</v>
+        <v>247</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B220" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="C220" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B221" t="s">
-        <v>130</v>
+        <v>91</v>
       </c>
       <c r="C221" t="s">
-        <v>262</v>
+        <v>224</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -3626,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="B222" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="C222" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -3637,10 +3640,10 @@
         <v>0</v>
       </c>
       <c r="B223" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C223" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -3648,43 +3651,43 @@
         <v>0</v>
       </c>
       <c r="B224" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="C224" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B225" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="C225" t="s">
-        <v>264</v>
+        <v>237</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B226" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C226" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B227" t="s">
-        <v>15</v>
+        <v>134</v>
       </c>
       <c r="C227" t="s">
-        <v>147</v>
+        <v>267</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -3692,87 +3695,87 @@
         <v>0</v>
       </c>
       <c r="B228" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C228" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B229" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="C229" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B230" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="C230" t="s">
-        <v>253</v>
+        <v>142</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B231" t="s">
-        <v>127</v>
+        <v>35</v>
       </c>
       <c r="C231" t="s">
-        <v>259</v>
+        <v>167</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B232" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C232" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B233" t="s">
-        <v>133</v>
+        <v>30</v>
       </c>
       <c r="C233" t="s">
-        <v>265</v>
+        <v>162</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B234" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="C234" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B235" t="s">
-        <v>135</v>
+        <v>38</v>
       </c>
       <c r="C235" t="s">
-        <v>267</v>
+        <v>170</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -3780,43 +3783,43 @@
         <v>0</v>
       </c>
       <c r="B236" t="s">
-        <v>31</v>
+        <v>133</v>
       </c>
       <c r="C236" t="s">
-        <v>163</v>
+        <v>266</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B237" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C237" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B238" t="s">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="C238" t="s">
-        <v>157</v>
+        <v>228</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B239" t="s">
         <v>81</v>
       </c>
       <c r="C239" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3824,98 +3827,98 @@
         <v>0</v>
       </c>
       <c r="B240" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C240" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B241" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C241" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B242" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="C242" t="s">
-        <v>250</v>
+        <v>202</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B243" t="s">
-        <v>134</v>
+        <v>62</v>
       </c>
       <c r="C243" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B244" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="C244" t="s">
-        <v>217</v>
+        <v>268</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B245" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="C245" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B246" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C246" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B247" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="C247" t="s">
-        <v>246</v>
+        <v>204</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B248" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="C248" t="s">
-        <v>182</v>
+        <v>139</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3923,32 +3926,32 @@
         <v>0</v>
       </c>
       <c r="B249" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C249" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B250" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="C250" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B251" t="s">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="C251" t="s">
-        <v>213</v>
+        <v>270</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3956,43 +3959,43 @@
         <v>0</v>
       </c>
       <c r="B252" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C252" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B253" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="C253" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B254" t="s">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="C254" t="s">
-        <v>149</v>
+        <v>267</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B255" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
       <c r="C255" t="s">
-        <v>193</v>
+        <v>252</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -4000,10 +4003,10 @@
         <v>0</v>
       </c>
       <c r="B256" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="C256" t="s">
-        <v>189</v>
+        <v>219</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -4011,175 +4014,54 @@
         <v>0</v>
       </c>
       <c r="B257" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="C257" t="s">
-        <v>242</v>
+        <v>271</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B258" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C258" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B259" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="C259" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B260" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="C260" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B261" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C261" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3">
-      <c r="A262" t="s">
-        <v>1</v>
-      </c>
-      <c r="B262" t="s">
-        <v>15</v>
-      </c>
-      <c r="C262" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3">
-      <c r="A263" t="s">
-        <v>1</v>
-      </c>
-      <c r="B263" t="s">
-        <v>88</v>
-      </c>
-      <c r="C263" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3">
-      <c r="A264" t="s">
-        <v>0</v>
-      </c>
-      <c r="B264" t="s">
-        <v>136</v>
-      </c>
-      <c r="C264" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3">
-      <c r="A265" t="s">
-        <v>0</v>
-      </c>
-      <c r="B265" t="s">
-        <v>8</v>
-      </c>
-      <c r="C265" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3">
-      <c r="A266" t="s">
-        <v>1</v>
-      </c>
-      <c r="B266" t="s">
-        <v>137</v>
-      </c>
-      <c r="C266" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3">
-      <c r="A267" t="s">
-        <v>1</v>
-      </c>
-      <c r="B267" t="s">
-        <v>132</v>
-      </c>
-      <c r="C267" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3">
-      <c r="A268" t="s">
-        <v>0</v>
-      </c>
-      <c r="B268" t="s">
-        <v>84</v>
-      </c>
-      <c r="C268" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3">
-      <c r="A269" t="s">
-        <v>1</v>
-      </c>
-      <c r="B269" t="s">
-        <v>137</v>
-      </c>
-      <c r="C269" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3">
-      <c r="A270" t="s">
-        <v>0</v>
-      </c>
-      <c r="B270" t="s">
-        <v>71</v>
-      </c>
-      <c r="C270" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3">
-      <c r="A271" t="s">
-        <v>0</v>
-      </c>
-      <c r="B271" t="s">
-        <v>47</v>
-      </c>
-      <c r="C271" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3">
-      <c r="A272" t="s">
-        <v>1</v>
-      </c>
-      <c r="B272" t="s">
-        <v>138</v>
-      </c>
-      <c r="C272" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
